--- a/docs/trim1/gestion_proyecto/3_cronograma_actividades.xlsx
+++ b/docs/trim1/gestion_proyecto/3_cronograma_actividades.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8335BC0-1C23-4729-9BAF-74A92DB46EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="697" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,12 +43,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="H11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="195">
   <si>
     <t>Cronograma de Actividades</t>
   </si>
@@ -657,12 +656,18 @@
   </si>
   <si>
     <t xml:space="preserve">Elian Ibarra </t>
+  </si>
+  <si>
+    <t>Alan Prada</t>
+  </si>
+  <si>
+    <t>Juan Rodríguez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ \(dddd\)"/>
     <numFmt numFmtId="165" formatCode="d\ mmm\ yyyy"/>
@@ -2476,6 +2481,32 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2495,7 +2526,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2505,9 +2535,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2525,94 +2552,72 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="23" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2"/>
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Porcentaje 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Porcentaje 2" xfId="5"/>
   </cellStyles>
   <dxfs count="49">
     <dxf>
@@ -3143,7 +3148,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3202,7 +3207,7 @@
         <xdr:cNvPr id="2" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,7 +3271,7 @@
                   <a14:compatExt spid="_x0000_s7169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000011C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000011C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3306,7 +3311,7 @@
         <xdr:cNvPr id="4" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3365,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3414,7 +3419,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3468,7 +3473,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,7 +3527,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3637,23 +3642,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3689,23 +3677,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3881,10 +3852,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:F36"/>
     </sheetView>
   </sheetViews>
@@ -3907,87 +3878,87 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="150" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
     </row>
     <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickTop="1">
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.75" thickTop="1">
       <c r="B11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="148"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="149" t="s">
+      <c r="C12" s="136" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="151"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="163"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="149" t="s">
+      <c r="C13" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="150"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="151"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="163"/>
     </row>
     <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="164"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="137"/>
       <c r="E14" s="29" t="s">
         <v>8</v>
       </c>
@@ -3997,10 +3968,10 @@
       <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="153" t="s">
+      <c r="C15" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="154"/>
+      <c r="D15" s="166"/>
       <c r="E15" s="30" t="s">
         <v>10</v>
       </c>
@@ -4010,8 +3981,8 @@
       <c r="B16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="156"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="168"/>
       <c r="E16" s="31" t="s">
         <v>11</v>
       </c>
@@ -4019,8 +3990,8 @@
     </row>
     <row r="17" spans="2:16" ht="17.25" thickTop="1">
       <c r="B17" s="4"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
     </row>
     <row r="18" spans="2:16" ht="19.899999999999999" customHeight="1"/>
     <row r="19" spans="2:16" ht="19.899999999999999" customHeight="1">
@@ -4039,10 +4010,10 @@
       <c r="C21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="143"/>
+      <c r="E21" s="157"/>
       <c r="F21" s="17" t="s">
         <v>17</v>
       </c>
@@ -4054,10 +4025,10 @@
       <c r="C22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="144" t="s">
+      <c r="D22" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="E22" s="144"/>
+      <c r="E22" s="158"/>
       <c r="F22" s="20" t="s">
         <v>190</v>
       </c>
@@ -4114,8 +4085,8 @@
     <row r="30" spans="2:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
       <c r="F30" s="26"/>
     </row>
     <row r="31" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
@@ -4126,51 +4097,51 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="34" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="161" t="s">
+      <c r="B34" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="162"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="163"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="149"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B35" s="139"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="141"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="155"/>
     </row>
     <row r="36" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B36" s="166"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="168"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="141"/>
       <c r="J36" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B37" s="166"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="168"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="141"/>
     </row>
     <row r="38" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B38" s="166"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="168"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="141"/>
     </row>
     <row r="39" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B39" s="157"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="159"/>
+      <c r="B39" s="142"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="144"/>
     </row>
     <row r="40" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A40" s="7"/>
@@ -4331,18 +4302,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -4359,6 +4318,18 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -4368,15 +4339,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR106"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="14" ySplit="11" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -4398,296 +4369,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="174"/>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="174"/>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="174"/>
-      <c r="AJ1" s="174"/>
-      <c r="AK1" s="174"/>
-      <c r="AL1" s="174"/>
-      <c r="AM1" s="174"/>
-      <c r="AN1" s="174"/>
-      <c r="AO1" s="174"/>
-      <c r="AP1" s="174"/>
-      <c r="AQ1" s="174"/>
-      <c r="AR1" s="174"/>
-      <c r="AS1" s="174"/>
-      <c r="AT1" s="174"/>
-      <c r="AU1" s="174"/>
-      <c r="AV1" s="174"/>
-      <c r="AW1" s="174"/>
-      <c r="AX1" s="174"/>
-      <c r="AY1" s="174"/>
-      <c r="AZ1" s="174"/>
-      <c r="BA1" s="174"/>
-      <c r="BB1" s="174"/>
-      <c r="BC1" s="174"/>
-      <c r="BD1" s="174"/>
-      <c r="BE1" s="174"/>
-      <c r="BF1" s="174"/>
-      <c r="BG1" s="174"/>
-      <c r="BH1" s="174"/>
-      <c r="BI1" s="174"/>
-      <c r="BJ1" s="174"/>
-      <c r="BK1" s="174"/>
-      <c r="BL1" s="174"/>
-      <c r="BM1" s="174"/>
-      <c r="BN1" s="174"/>
-      <c r="BO1" s="174"/>
-      <c r="BP1" s="174"/>
-      <c r="BQ1" s="174"/>
-      <c r="BR1" s="174"/>
+      <c r="A1" s="177"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
+      <c r="AX1" s="177"/>
+      <c r="AY1" s="177"/>
+      <c r="AZ1" s="177"/>
+      <c r="BA1" s="177"/>
+      <c r="BB1" s="177"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="177"/>
+      <c r="BE1" s="177"/>
+      <c r="BF1" s="177"/>
+      <c r="BG1" s="177"/>
+      <c r="BH1" s="177"/>
+      <c r="BI1" s="177"/>
+      <c r="BJ1" s="177"/>
+      <c r="BK1" s="177"/>
+      <c r="BL1" s="177"/>
+      <c r="BM1" s="177"/>
+      <c r="BN1" s="177"/>
+      <c r="BO1" s="177"/>
+      <c r="BP1" s="177"/>
+      <c r="BQ1" s="177"/>
+      <c r="BR1" s="177"/>
     </row>
     <row r="2" spans="1:70" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="178" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="175"/>
-      <c r="AK2" s="175"/>
-      <c r="AL2" s="175"/>
-      <c r="AM2" s="175"/>
-      <c r="AN2" s="175"/>
-      <c r="AO2" s="175"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="175"/>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="175"/>
-      <c r="AT2" s="175"/>
-      <c r="AU2" s="175"/>
-      <c r="AV2" s="175"/>
-      <c r="AW2" s="175"/>
-      <c r="AX2" s="175"/>
-      <c r="AY2" s="175"/>
-      <c r="AZ2" s="175"/>
-      <c r="BA2" s="175"/>
-      <c r="BB2" s="175"/>
-      <c r="BC2" s="175"/>
-      <c r="BD2" s="175"/>
-      <c r="BE2" s="175"/>
-      <c r="BF2" s="175"/>
-      <c r="BG2" s="175"/>
-      <c r="BH2" s="175"/>
-      <c r="BI2" s="175"/>
-      <c r="BJ2" s="175"/>
-      <c r="BK2" s="175"/>
-      <c r="BL2" s="175"/>
-      <c r="BM2" s="175"/>
-      <c r="BN2" s="175"/>
-      <c r="BO2" s="175"/>
-      <c r="BP2" s="175"/>
-      <c r="BQ2" s="175"/>
-      <c r="BR2" s="175"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="178"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="178"/>
+      <c r="AJ2" s="178"/>
+      <c r="AK2" s="178"/>
+      <c r="AL2" s="178"/>
+      <c r="AM2" s="178"/>
+      <c r="AN2" s="178"/>
+      <c r="AO2" s="178"/>
+      <c r="AP2" s="178"/>
+      <c r="AQ2" s="178"/>
+      <c r="AR2" s="178"/>
+      <c r="AS2" s="178"/>
+      <c r="AT2" s="178"/>
+      <c r="AU2" s="178"/>
+      <c r="AV2" s="178"/>
+      <c r="AW2" s="178"/>
+      <c r="AX2" s="178"/>
+      <c r="AY2" s="178"/>
+      <c r="AZ2" s="178"/>
+      <c r="BA2" s="178"/>
+      <c r="BB2" s="178"/>
+      <c r="BC2" s="178"/>
+      <c r="BD2" s="178"/>
+      <c r="BE2" s="178"/>
+      <c r="BF2" s="178"/>
+      <c r="BG2" s="178"/>
+      <c r="BH2" s="178"/>
+      <c r="BI2" s="178"/>
+      <c r="BJ2" s="178"/>
+      <c r="BK2" s="178"/>
+      <c r="BL2" s="178"/>
+      <c r="BM2" s="178"/>
+      <c r="BN2" s="178"/>
+      <c r="BO2" s="178"/>
+      <c r="BP2" s="178"/>
+      <c r="BQ2" s="178"/>
+      <c r="BR2" s="178"/>
     </row>
     <row r="3" spans="1:70" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="175"/>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="175"/>
-      <c r="AK3" s="175"/>
-      <c r="AL3" s="175"/>
-      <c r="AM3" s="175"/>
-      <c r="AN3" s="175"/>
-      <c r="AO3" s="175"/>
-      <c r="AP3" s="175"/>
-      <c r="AQ3" s="175"/>
-      <c r="AR3" s="175"/>
-      <c r="AS3" s="175"/>
-      <c r="AT3" s="175"/>
-      <c r="AU3" s="175"/>
-      <c r="AV3" s="175"/>
-      <c r="AW3" s="175"/>
-      <c r="AX3" s="175"/>
-      <c r="AY3" s="175"/>
-      <c r="AZ3" s="175"/>
-      <c r="BA3" s="175"/>
-      <c r="BB3" s="175"/>
-      <c r="BC3" s="175"/>
-      <c r="BD3" s="175"/>
-      <c r="BE3" s="175"/>
-      <c r="BF3" s="175"/>
-      <c r="BG3" s="175"/>
-      <c r="BH3" s="175"/>
-      <c r="BI3" s="175"/>
-      <c r="BJ3" s="175"/>
-      <c r="BK3" s="175"/>
-      <c r="BL3" s="175"/>
-      <c r="BM3" s="175"/>
-      <c r="BN3" s="175"/>
-      <c r="BO3" s="175"/>
-      <c r="BP3" s="175"/>
-      <c r="BQ3" s="175"/>
-      <c r="BR3" s="175"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="178"/>
+      <c r="AF3" s="178"/>
+      <c r="AG3" s="178"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="178"/>
+      <c r="AJ3" s="178"/>
+      <c r="AK3" s="178"/>
+      <c r="AL3" s="178"/>
+      <c r="AM3" s="178"/>
+      <c r="AN3" s="178"/>
+      <c r="AO3" s="178"/>
+      <c r="AP3" s="178"/>
+      <c r="AQ3" s="178"/>
+      <c r="AR3" s="178"/>
+      <c r="AS3" s="178"/>
+      <c r="AT3" s="178"/>
+      <c r="AU3" s="178"/>
+      <c r="AV3" s="178"/>
+      <c r="AW3" s="178"/>
+      <c r="AX3" s="178"/>
+      <c r="AY3" s="178"/>
+      <c r="AZ3" s="178"/>
+      <c r="BA3" s="178"/>
+      <c r="BB3" s="178"/>
+      <c r="BC3" s="178"/>
+      <c r="BD3" s="178"/>
+      <c r="BE3" s="178"/>
+      <c r="BF3" s="178"/>
+      <c r="BG3" s="178"/>
+      <c r="BH3" s="178"/>
+      <c r="BI3" s="178"/>
+      <c r="BJ3" s="178"/>
+      <c r="BK3" s="178"/>
+      <c r="BL3" s="178"/>
+      <c r="BM3" s="178"/>
+      <c r="BN3" s="178"/>
+      <c r="BO3" s="178"/>
+      <c r="BP3" s="178"/>
+      <c r="BQ3" s="178"/>
+      <c r="BR3" s="178"/>
     </row>
     <row r="4" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A4" s="176"/>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="176"/>
-      <c r="S4" s="176"/>
-      <c r="T4" s="176"/>
-      <c r="U4" s="176"/>
-      <c r="V4" s="176"/>
-      <c r="W4" s="176"/>
-      <c r="X4" s="176"/>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="176"/>
-      <c r="AA4" s="176"/>
-      <c r="AB4" s="176"/>
-      <c r="AC4" s="176"/>
-      <c r="AD4" s="176"/>
-      <c r="AE4" s="176"/>
-      <c r="AF4" s="176"/>
-      <c r="AG4" s="176"/>
-      <c r="AH4" s="176"/>
-      <c r="AI4" s="176"/>
-      <c r="AJ4" s="176"/>
-      <c r="AK4" s="176"/>
-      <c r="AL4" s="176"/>
-      <c r="AM4" s="176"/>
-      <c r="AN4" s="176"/>
-      <c r="AO4" s="176"/>
-      <c r="AP4" s="176"/>
-      <c r="AQ4" s="176"/>
-      <c r="AR4" s="176"/>
-      <c r="AS4" s="176"/>
-      <c r="AT4" s="176"/>
-      <c r="AU4" s="176"/>
-      <c r="AV4" s="176"/>
-      <c r="AW4" s="176"/>
-      <c r="AX4" s="176"/>
-      <c r="AY4" s="176"/>
-      <c r="AZ4" s="176"/>
-      <c r="BA4" s="176"/>
-      <c r="BB4" s="176"/>
-      <c r="BC4" s="176"/>
-      <c r="BD4" s="176"/>
-      <c r="BE4" s="176"/>
-      <c r="BF4" s="176"/>
-      <c r="BG4" s="176"/>
-      <c r="BH4" s="176"/>
-      <c r="BI4" s="176"/>
-      <c r="BJ4" s="176"/>
-      <c r="BK4" s="176"/>
-      <c r="BL4" s="176"/>
-      <c r="BM4" s="176"/>
-      <c r="BN4" s="176"/>
-      <c r="BO4" s="176"/>
-      <c r="BP4" s="176"/>
-      <c r="BQ4" s="176"/>
-      <c r="BR4" s="176"/>
+      <c r="A4" s="179"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="179"/>
+      <c r="S4" s="179"/>
+      <c r="T4" s="179"/>
+      <c r="U4" s="179"/>
+      <c r="V4" s="179"/>
+      <c r="W4" s="179"/>
+      <c r="X4" s="179"/>
+      <c r="Y4" s="179"/>
+      <c r="Z4" s="179"/>
+      <c r="AA4" s="179"/>
+      <c r="AB4" s="179"/>
+      <c r="AC4" s="179"/>
+      <c r="AD4" s="179"/>
+      <c r="AE4" s="179"/>
+      <c r="AF4" s="179"/>
+      <c r="AG4" s="179"/>
+      <c r="AH4" s="179"/>
+      <c r="AI4" s="179"/>
+      <c r="AJ4" s="179"/>
+      <c r="AK4" s="179"/>
+      <c r="AL4" s="179"/>
+      <c r="AM4" s="179"/>
+      <c r="AN4" s="179"/>
+      <c r="AO4" s="179"/>
+      <c r="AP4" s="179"/>
+      <c r="AQ4" s="179"/>
+      <c r="AR4" s="179"/>
+      <c r="AS4" s="179"/>
+      <c r="AT4" s="179"/>
+      <c r="AU4" s="179"/>
+      <c r="AV4" s="179"/>
+      <c r="AW4" s="179"/>
+      <c r="AX4" s="179"/>
+      <c r="AY4" s="179"/>
+      <c r="AZ4" s="179"/>
+      <c r="BA4" s="179"/>
+      <c r="BB4" s="179"/>
+      <c r="BC4" s="179"/>
+      <c r="BD4" s="179"/>
+      <c r="BE4" s="179"/>
+      <c r="BF4" s="179"/>
+      <c r="BG4" s="179"/>
+      <c r="BH4" s="179"/>
+      <c r="BI4" s="179"/>
+      <c r="BJ4" s="179"/>
+      <c r="BK4" s="179"/>
+      <c r="BL4" s="179"/>
+      <c r="BM4" s="179"/>
+      <c r="BN4" s="179"/>
+      <c r="BO4" s="179"/>
+      <c r="BP4" s="179"/>
+      <c r="BQ4" s="179"/>
+      <c r="BR4" s="179"/>
     </row>
     <row r="5" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1">
       <c r="A5" s="64"/>
@@ -4800,11 +4771,11 @@
         <v>27</v>
       </c>
       <c r="C8" s="63"/>
-      <c r="D8" s="173">
+      <c r="D8" s="187">
         <v>44803</v>
       </c>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50"/>
       <c r="K8" s="49" t="s">
@@ -4813,179 +4784,179 @@
       <c r="L8" s="37">
         <v>1</v>
       </c>
-      <c r="O8" s="170" t="str">
+      <c r="O8" s="183" t="str">
         <f>"Semana "&amp;(O10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 1</v>
       </c>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="170" t="str">
+      <c r="P8" s="184"/>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="185"/>
+      <c r="V8" s="183" t="str">
         <f>"Semana "&amp;(V10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 2</v>
       </c>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="172"/>
-      <c r="AC8" s="170" t="str">
+      <c r="W8" s="184"/>
+      <c r="X8" s="184"/>
+      <c r="Y8" s="184"/>
+      <c r="Z8" s="184"/>
+      <c r="AA8" s="184"/>
+      <c r="AB8" s="185"/>
+      <c r="AC8" s="183" t="str">
         <f>"Semana "&amp;(AC10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 3</v>
       </c>
-      <c r="AD8" s="171"/>
-      <c r="AE8" s="171"/>
-      <c r="AF8" s="171"/>
-      <c r="AG8" s="171"/>
-      <c r="AH8" s="171"/>
-      <c r="AI8" s="172"/>
-      <c r="AJ8" s="170" t="str">
+      <c r="AD8" s="184"/>
+      <c r="AE8" s="184"/>
+      <c r="AF8" s="184"/>
+      <c r="AG8" s="184"/>
+      <c r="AH8" s="184"/>
+      <c r="AI8" s="185"/>
+      <c r="AJ8" s="183" t="str">
         <f>"Semana "&amp;(AJ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 4</v>
       </c>
-      <c r="AK8" s="171"/>
-      <c r="AL8" s="171"/>
-      <c r="AM8" s="171"/>
-      <c r="AN8" s="171"/>
-      <c r="AO8" s="171"/>
-      <c r="AP8" s="172"/>
-      <c r="AQ8" s="170" t="str">
+      <c r="AK8" s="184"/>
+      <c r="AL8" s="184"/>
+      <c r="AM8" s="184"/>
+      <c r="AN8" s="184"/>
+      <c r="AO8" s="184"/>
+      <c r="AP8" s="185"/>
+      <c r="AQ8" s="183" t="str">
         <f>"Semana "&amp;(AQ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 5</v>
       </c>
-      <c r="AR8" s="171"/>
-      <c r="AS8" s="171"/>
-      <c r="AT8" s="171"/>
-      <c r="AU8" s="171"/>
-      <c r="AV8" s="171"/>
-      <c r="AW8" s="172"/>
-      <c r="AX8" s="170" t="str">
+      <c r="AR8" s="184"/>
+      <c r="AS8" s="184"/>
+      <c r="AT8" s="184"/>
+      <c r="AU8" s="184"/>
+      <c r="AV8" s="184"/>
+      <c r="AW8" s="185"/>
+      <c r="AX8" s="183" t="str">
         <f>"Semana "&amp;(AX10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 6</v>
       </c>
-      <c r="AY8" s="171"/>
-      <c r="AZ8" s="171"/>
-      <c r="BA8" s="171"/>
-      <c r="BB8" s="171"/>
-      <c r="BC8" s="171"/>
-      <c r="BD8" s="172"/>
-      <c r="BE8" s="170" t="str">
+      <c r="AY8" s="184"/>
+      <c r="AZ8" s="184"/>
+      <c r="BA8" s="184"/>
+      <c r="BB8" s="184"/>
+      <c r="BC8" s="184"/>
+      <c r="BD8" s="185"/>
+      <c r="BE8" s="183" t="str">
         <f>"Semana "&amp;(BE10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 7</v>
       </c>
-      <c r="BF8" s="171"/>
-      <c r="BG8" s="171"/>
-      <c r="BH8" s="171"/>
-      <c r="BI8" s="171"/>
-      <c r="BJ8" s="171"/>
-      <c r="BK8" s="172"/>
-      <c r="BL8" s="170" t="str">
+      <c r="BF8" s="184"/>
+      <c r="BG8" s="184"/>
+      <c r="BH8" s="184"/>
+      <c r="BI8" s="184"/>
+      <c r="BJ8" s="184"/>
+      <c r="BK8" s="185"/>
+      <c r="BL8" s="183" t="str">
         <f>"Semana "&amp;(BL10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 8</v>
       </c>
-      <c r="BM8" s="171"/>
-      <c r="BN8" s="171"/>
-      <c r="BO8" s="171"/>
-      <c r="BP8" s="171"/>
-      <c r="BQ8" s="171"/>
-      <c r="BR8" s="172"/>
+      <c r="BM8" s="184"/>
+      <c r="BN8" s="184"/>
+      <c r="BO8" s="184"/>
+      <c r="BP8" s="184"/>
+      <c r="BQ8" s="184"/>
+      <c r="BR8" s="185"/>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1">
       <c r="B9" s="60" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="63"/>
-      <c r="D9" s="169" t="s">
+      <c r="D9" s="186" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
-      <c r="O9" s="177">
+      <c r="O9" s="180">
         <f>O10</f>
         <v>44802</v>
       </c>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="178"/>
-      <c r="S9" s="178"/>
-      <c r="T9" s="178"/>
-      <c r="U9" s="179"/>
-      <c r="V9" s="177">
+      <c r="P9" s="181"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="181"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="181"/>
+      <c r="U9" s="182"/>
+      <c r="V9" s="180">
         <f>V10</f>
         <v>44809</v>
       </c>
-      <c r="W9" s="178"/>
-      <c r="X9" s="178"/>
-      <c r="Y9" s="178"/>
-      <c r="Z9" s="178"/>
-      <c r="AA9" s="178"/>
-      <c r="AB9" s="179"/>
-      <c r="AC9" s="177">
+      <c r="W9" s="181"/>
+      <c r="X9" s="181"/>
+      <c r="Y9" s="181"/>
+      <c r="Z9" s="181"/>
+      <c r="AA9" s="181"/>
+      <c r="AB9" s="182"/>
+      <c r="AC9" s="180">
         <f>AC10</f>
         <v>44816</v>
       </c>
-      <c r="AD9" s="178"/>
-      <c r="AE9" s="178"/>
-      <c r="AF9" s="178"/>
-      <c r="AG9" s="178"/>
-      <c r="AH9" s="178"/>
-      <c r="AI9" s="179"/>
-      <c r="AJ9" s="177">
+      <c r="AD9" s="181"/>
+      <c r="AE9" s="181"/>
+      <c r="AF9" s="181"/>
+      <c r="AG9" s="181"/>
+      <c r="AH9" s="181"/>
+      <c r="AI9" s="182"/>
+      <c r="AJ9" s="180">
         <f>AJ10</f>
         <v>44823</v>
       </c>
-      <c r="AK9" s="178"/>
-      <c r="AL9" s="178"/>
-      <c r="AM9" s="178"/>
-      <c r="AN9" s="178"/>
-      <c r="AO9" s="178"/>
-      <c r="AP9" s="179"/>
-      <c r="AQ9" s="177">
+      <c r="AK9" s="181"/>
+      <c r="AL9" s="181"/>
+      <c r="AM9" s="181"/>
+      <c r="AN9" s="181"/>
+      <c r="AO9" s="181"/>
+      <c r="AP9" s="182"/>
+      <c r="AQ9" s="180">
         <f>AQ10</f>
         <v>44830</v>
       </c>
-      <c r="AR9" s="178"/>
-      <c r="AS9" s="178"/>
-      <c r="AT9" s="178"/>
-      <c r="AU9" s="178"/>
-      <c r="AV9" s="178"/>
-      <c r="AW9" s="179"/>
-      <c r="AX9" s="177">
+      <c r="AR9" s="181"/>
+      <c r="AS9" s="181"/>
+      <c r="AT9" s="181"/>
+      <c r="AU9" s="181"/>
+      <c r="AV9" s="181"/>
+      <c r="AW9" s="182"/>
+      <c r="AX9" s="180">
         <f>AX10</f>
         <v>44837</v>
       </c>
-      <c r="AY9" s="178"/>
-      <c r="AZ9" s="178"/>
-      <c r="BA9" s="178"/>
-      <c r="BB9" s="178"/>
-      <c r="BC9" s="178"/>
-      <c r="BD9" s="179"/>
-      <c r="BE9" s="177">
+      <c r="AY9" s="181"/>
+      <c r="AZ9" s="181"/>
+      <c r="BA9" s="181"/>
+      <c r="BB9" s="181"/>
+      <c r="BC9" s="181"/>
+      <c r="BD9" s="182"/>
+      <c r="BE9" s="180">
         <f>BE10</f>
         <v>44844</v>
       </c>
-      <c r="BF9" s="178"/>
-      <c r="BG9" s="178"/>
-      <c r="BH9" s="178"/>
-      <c r="BI9" s="178"/>
-      <c r="BJ9" s="178"/>
-      <c r="BK9" s="179"/>
-      <c r="BL9" s="177">
+      <c r="BF9" s="181"/>
+      <c r="BG9" s="181"/>
+      <c r="BH9" s="181"/>
+      <c r="BI9" s="181"/>
+      <c r="BJ9" s="181"/>
+      <c r="BK9" s="182"/>
+      <c r="BL9" s="180">
         <f>BL10</f>
         <v>44851</v>
       </c>
-      <c r="BM9" s="178"/>
-      <c r="BN9" s="178"/>
-      <c r="BO9" s="178"/>
-      <c r="BP9" s="178"/>
-      <c r="BQ9" s="178"/>
-      <c r="BR9" s="179"/>
+      <c r="BM9" s="181"/>
+      <c r="BN9" s="181"/>
+      <c r="BO9" s="181"/>
+      <c r="BP9" s="181"/>
+      <c r="BQ9" s="181"/>
+      <c r="BR9" s="182"/>
     </row>
     <row r="10" spans="1:70">
       <c r="O10" s="38">
@@ -5568,7 +5539,7 @@
       <c r="BQ12" s="76"/>
       <c r="BR12" s="77"/>
     </row>
-    <row r="13" spans="1:70" s="82" customFormat="1" ht="27" customHeight="1">
+    <row r="13" spans="1:70" s="82" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A13" s="95" t="str">
         <f t="shared" ref="A13:A33" si="45">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -5588,7 +5559,9 @@
       <c r="F13" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="97"/>
+      <c r="G13" s="97" t="s">
+        <v>193</v>
+      </c>
       <c r="H13" s="99"/>
       <c r="I13" s="100">
         <v>44954</v>
@@ -5684,7 +5657,9 @@
       <c r="F14" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="112"/>
+      <c r="G14" s="97" t="s">
+        <v>193</v>
+      </c>
       <c r="H14" s="114"/>
       <c r="I14" s="115">
         <v>44954</v>
@@ -5878,7 +5853,9 @@
       <c r="F16" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="112"/>
+      <c r="G16" s="112" t="s">
+        <v>192</v>
+      </c>
       <c r="H16" s="114"/>
       <c r="I16" s="115">
         <v>44969</v>
@@ -5974,7 +5951,9 @@
       <c r="F17" s="113" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="112"/>
+      <c r="G17" s="112" t="s">
+        <v>192</v>
+      </c>
       <c r="H17" s="114"/>
       <c r="I17" s="115">
         <v>44976</v>
@@ -6064,7 +6043,9 @@
       <c r="F18" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="112"/>
+      <c r="G18" s="112" t="s">
+        <v>194</v>
+      </c>
       <c r="H18" s="114"/>
       <c r="I18" s="116">
         <v>44983</v>
@@ -10090,3331 +10071,3350 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B64" s="184" t="s">
+      <c r="B64" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="184"/>
-      <c r="D64" s="184"/>
-      <c r="E64" s="184"/>
-      <c r="F64" s="184"/>
-      <c r="G64" s="184"/>
-      <c r="H64" s="184"/>
-      <c r="I64" s="184"/>
-      <c r="J64" s="184"/>
-      <c r="K64" s="184"/>
-      <c r="L64" s="184"/>
-      <c r="M64" s="184"/>
-      <c r="N64" s="184"/>
-      <c r="O64" s="184"/>
-      <c r="P64" s="184"/>
-      <c r="Q64" s="184"/>
-      <c r="R64" s="184"/>
-      <c r="S64" s="184"/>
-      <c r="T64" s="184"/>
-      <c r="U64" s="184"/>
-      <c r="V64" s="184"/>
-      <c r="W64" s="184"/>
-      <c r="X64" s="184"/>
-      <c r="Y64" s="184"/>
-      <c r="Z64" s="184"/>
-      <c r="AA64" s="184"/>
-      <c r="AB64" s="184"/>
-      <c r="AC64" s="184"/>
-      <c r="AD64" s="184"/>
-      <c r="AE64" s="184"/>
-      <c r="AF64" s="184"/>
-      <c r="AG64" s="184"/>
-      <c r="AH64" s="184"/>
-      <c r="AI64" s="184"/>
-      <c r="AJ64" s="184"/>
-      <c r="AK64" s="184"/>
-      <c r="AL64" s="184"/>
-      <c r="AM64" s="184"/>
-      <c r="AN64" s="184"/>
-      <c r="AO64" s="184"/>
-      <c r="AP64" s="184"/>
-      <c r="AQ64" s="184"/>
-      <c r="AR64" s="184"/>
-      <c r="AS64" s="184"/>
-      <c r="AT64" s="184"/>
-      <c r="AU64" s="184"/>
-      <c r="AV64" s="184"/>
-      <c r="AW64" s="184"/>
-      <c r="AX64" s="184"/>
-      <c r="AY64" s="184"/>
-      <c r="AZ64" s="184"/>
-      <c r="BA64" s="184"/>
-      <c r="BB64" s="184"/>
-      <c r="BC64" s="184"/>
-      <c r="BD64" s="184"/>
-      <c r="BE64" s="184"/>
-      <c r="BF64" s="184"/>
-      <c r="BG64" s="184"/>
-      <c r="BH64" s="184"/>
-      <c r="BI64" s="184"/>
-      <c r="BJ64" s="184"/>
-      <c r="BK64" s="184"/>
-      <c r="BL64" s="184"/>
-      <c r="BM64" s="184"/>
-      <c r="BN64" s="184"/>
-      <c r="BO64" s="184"/>
-      <c r="BP64" s="184"/>
-      <c r="BQ64" s="184"/>
-      <c r="BR64" s="185"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
+      <c r="E64" s="169"/>
+      <c r="F64" s="169"/>
+      <c r="G64" s="169"/>
+      <c r="H64" s="169"/>
+      <c r="I64" s="169"/>
+      <c r="J64" s="169"/>
+      <c r="K64" s="169"/>
+      <c r="L64" s="169"/>
+      <c r="M64" s="169"/>
+      <c r="N64" s="169"/>
+      <c r="O64" s="169"/>
+      <c r="P64" s="169"/>
+      <c r="Q64" s="169"/>
+      <c r="R64" s="169"/>
+      <c r="S64" s="169"/>
+      <c r="T64" s="169"/>
+      <c r="U64" s="169"/>
+      <c r="V64" s="169"/>
+      <c r="W64" s="169"/>
+      <c r="X64" s="169"/>
+      <c r="Y64" s="169"/>
+      <c r="Z64" s="169"/>
+      <c r="AA64" s="169"/>
+      <c r="AB64" s="169"/>
+      <c r="AC64" s="169"/>
+      <c r="AD64" s="169"/>
+      <c r="AE64" s="169"/>
+      <c r="AF64" s="169"/>
+      <c r="AG64" s="169"/>
+      <c r="AH64" s="169"/>
+      <c r="AI64" s="169"/>
+      <c r="AJ64" s="169"/>
+      <c r="AK64" s="169"/>
+      <c r="AL64" s="169"/>
+      <c r="AM64" s="169"/>
+      <c r="AN64" s="169"/>
+      <c r="AO64" s="169"/>
+      <c r="AP64" s="169"/>
+      <c r="AQ64" s="169"/>
+      <c r="AR64" s="169"/>
+      <c r="AS64" s="169"/>
+      <c r="AT64" s="169"/>
+      <c r="AU64" s="169"/>
+      <c r="AV64" s="169"/>
+      <c r="AW64" s="169"/>
+      <c r="AX64" s="169"/>
+      <c r="AY64" s="169"/>
+      <c r="AZ64" s="169"/>
+      <c r="BA64" s="169"/>
+      <c r="BB64" s="169"/>
+      <c r="BC64" s="169"/>
+      <c r="BD64" s="169"/>
+      <c r="BE64" s="169"/>
+      <c r="BF64" s="169"/>
+      <c r="BG64" s="169"/>
+      <c r="BH64" s="169"/>
+      <c r="BI64" s="169"/>
+      <c r="BJ64" s="169"/>
+      <c r="BK64" s="169"/>
+      <c r="BL64" s="169"/>
+      <c r="BM64" s="169"/>
+      <c r="BN64" s="169"/>
+      <c r="BO64" s="169"/>
+      <c r="BP64" s="169"/>
+      <c r="BQ64" s="169"/>
+      <c r="BR64" s="170"/>
     </row>
     <row r="65" spans="1:70" s="55" customFormat="1">
       <c r="A65" s="57" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B65" s="180" t="s">
+      <c r="B65" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="180"/>
-      <c r="D65" s="180"/>
-      <c r="E65" s="180"/>
-      <c r="F65" s="180"/>
-      <c r="G65" s="180"/>
-      <c r="H65" s="180"/>
-      <c r="I65" s="180"/>
-      <c r="J65" s="180"/>
-      <c r="K65" s="180"/>
-      <c r="L65" s="180"/>
-      <c r="M65" s="180"/>
-      <c r="N65" s="180"/>
-      <c r="O65" s="180"/>
-      <c r="P65" s="180"/>
-      <c r="Q65" s="180"/>
-      <c r="R65" s="180"/>
-      <c r="S65" s="180"/>
-      <c r="T65" s="180"/>
-      <c r="U65" s="180"/>
-      <c r="V65" s="180"/>
-      <c r="W65" s="180"/>
-      <c r="X65" s="180"/>
-      <c r="Y65" s="180"/>
-      <c r="Z65" s="180"/>
-      <c r="AA65" s="180"/>
-      <c r="AB65" s="180"/>
-      <c r="AC65" s="180"/>
-      <c r="AD65" s="180"/>
-      <c r="AE65" s="180"/>
-      <c r="AF65" s="180"/>
-      <c r="AG65" s="180"/>
-      <c r="AH65" s="180"/>
-      <c r="AI65" s="180"/>
-      <c r="AJ65" s="180"/>
-      <c r="AK65" s="180"/>
-      <c r="AL65" s="180"/>
-      <c r="AM65" s="180"/>
-      <c r="AN65" s="180"/>
-      <c r="AO65" s="180"/>
-      <c r="AP65" s="180"/>
-      <c r="AQ65" s="180"/>
-      <c r="AR65" s="180"/>
-      <c r="AS65" s="180"/>
-      <c r="AT65" s="180"/>
-      <c r="AU65" s="180"/>
-      <c r="AV65" s="180"/>
-      <c r="AW65" s="180"/>
-      <c r="AX65" s="180"/>
-      <c r="AY65" s="180"/>
-      <c r="AZ65" s="180"/>
-      <c r="BA65" s="180"/>
-      <c r="BB65" s="180"/>
-      <c r="BC65" s="180"/>
-      <c r="BD65" s="180"/>
-      <c r="BE65" s="180"/>
-      <c r="BF65" s="180"/>
-      <c r="BG65" s="180"/>
-      <c r="BH65" s="180"/>
-      <c r="BI65" s="180"/>
-      <c r="BJ65" s="180"/>
-      <c r="BK65" s="180"/>
-      <c r="BL65" s="180"/>
-      <c r="BM65" s="180"/>
-      <c r="BN65" s="180"/>
-      <c r="BO65" s="180"/>
-      <c r="BP65" s="180"/>
-      <c r="BQ65" s="180"/>
-      <c r="BR65" s="181"/>
+      <c r="C65" s="171"/>
+      <c r="D65" s="171"/>
+      <c r="E65" s="171"/>
+      <c r="F65" s="171"/>
+      <c r="G65" s="171"/>
+      <c r="H65" s="171"/>
+      <c r="I65" s="171"/>
+      <c r="J65" s="171"/>
+      <c r="K65" s="171"/>
+      <c r="L65" s="171"/>
+      <c r="M65" s="171"/>
+      <c r="N65" s="171"/>
+      <c r="O65" s="171"/>
+      <c r="P65" s="171"/>
+      <c r="Q65" s="171"/>
+      <c r="R65" s="171"/>
+      <c r="S65" s="171"/>
+      <c r="T65" s="171"/>
+      <c r="U65" s="171"/>
+      <c r="V65" s="171"/>
+      <c r="W65" s="171"/>
+      <c r="X65" s="171"/>
+      <c r="Y65" s="171"/>
+      <c r="Z65" s="171"/>
+      <c r="AA65" s="171"/>
+      <c r="AB65" s="171"/>
+      <c r="AC65" s="171"/>
+      <c r="AD65" s="171"/>
+      <c r="AE65" s="171"/>
+      <c r="AF65" s="171"/>
+      <c r="AG65" s="171"/>
+      <c r="AH65" s="171"/>
+      <c r="AI65" s="171"/>
+      <c r="AJ65" s="171"/>
+      <c r="AK65" s="171"/>
+      <c r="AL65" s="171"/>
+      <c r="AM65" s="171"/>
+      <c r="AN65" s="171"/>
+      <c r="AO65" s="171"/>
+      <c r="AP65" s="171"/>
+      <c r="AQ65" s="171"/>
+      <c r="AR65" s="171"/>
+      <c r="AS65" s="171"/>
+      <c r="AT65" s="171"/>
+      <c r="AU65" s="171"/>
+      <c r="AV65" s="171"/>
+      <c r="AW65" s="171"/>
+      <c r="AX65" s="171"/>
+      <c r="AY65" s="171"/>
+      <c r="AZ65" s="171"/>
+      <c r="BA65" s="171"/>
+      <c r="BB65" s="171"/>
+      <c r="BC65" s="171"/>
+      <c r="BD65" s="171"/>
+      <c r="BE65" s="171"/>
+      <c r="BF65" s="171"/>
+      <c r="BG65" s="171"/>
+      <c r="BH65" s="171"/>
+      <c r="BI65" s="171"/>
+      <c r="BJ65" s="171"/>
+      <c r="BK65" s="171"/>
+      <c r="BL65" s="171"/>
+      <c r="BM65" s="171"/>
+      <c r="BN65" s="171"/>
+      <c r="BO65" s="171"/>
+      <c r="BP65" s="171"/>
+      <c r="BQ65" s="171"/>
+      <c r="BR65" s="172"/>
     </row>
     <row r="66" spans="1:70" s="55" customFormat="1">
       <c r="A66" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.2</v>
       </c>
-      <c r="B66" s="182" t="s">
+      <c r="B66" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="182"/>
-      <c r="D66" s="182"/>
-      <c r="E66" s="182"/>
-      <c r="F66" s="182"/>
-      <c r="G66" s="182"/>
-      <c r="H66" s="182"/>
-      <c r="I66" s="182"/>
-      <c r="J66" s="182"/>
-      <c r="K66" s="182"/>
-      <c r="L66" s="182"/>
-      <c r="M66" s="182"/>
-      <c r="N66" s="182"/>
-      <c r="O66" s="182"/>
-      <c r="P66" s="182"/>
-      <c r="Q66" s="182"/>
-      <c r="R66" s="182"/>
-      <c r="S66" s="182"/>
-      <c r="T66" s="182"/>
-      <c r="U66" s="182"/>
-      <c r="V66" s="182"/>
-      <c r="W66" s="182"/>
-      <c r="X66" s="182"/>
-      <c r="Y66" s="182"/>
-      <c r="Z66" s="182"/>
-      <c r="AA66" s="182"/>
-      <c r="AB66" s="182"/>
-      <c r="AC66" s="182"/>
-      <c r="AD66" s="182"/>
-      <c r="AE66" s="182"/>
-      <c r="AF66" s="182"/>
-      <c r="AG66" s="182"/>
-      <c r="AH66" s="182"/>
-      <c r="AI66" s="182"/>
-      <c r="AJ66" s="182"/>
-      <c r="AK66" s="182"/>
-      <c r="AL66" s="182"/>
-      <c r="AM66" s="182"/>
-      <c r="AN66" s="182"/>
-      <c r="AO66" s="182"/>
-      <c r="AP66" s="182"/>
-      <c r="AQ66" s="182"/>
-      <c r="AR66" s="182"/>
-      <c r="AS66" s="182"/>
-      <c r="AT66" s="182"/>
-      <c r="AU66" s="182"/>
-      <c r="AV66" s="182"/>
-      <c r="AW66" s="182"/>
-      <c r="AX66" s="182"/>
-      <c r="AY66" s="182"/>
-      <c r="AZ66" s="182"/>
-      <c r="BA66" s="182"/>
-      <c r="BB66" s="182"/>
-      <c r="BC66" s="182"/>
-      <c r="BD66" s="182"/>
-      <c r="BE66" s="182"/>
-      <c r="BF66" s="182"/>
-      <c r="BG66" s="182"/>
-      <c r="BH66" s="182"/>
-      <c r="BI66" s="182"/>
-      <c r="BJ66" s="182"/>
-      <c r="BK66" s="182"/>
-      <c r="BL66" s="182"/>
-      <c r="BM66" s="182"/>
-      <c r="BN66" s="182"/>
-      <c r="BO66" s="182"/>
-      <c r="BP66" s="182"/>
-      <c r="BQ66" s="182"/>
-      <c r="BR66" s="183"/>
+      <c r="C66" s="173"/>
+      <c r="D66" s="173"/>
+      <c r="E66" s="173"/>
+      <c r="F66" s="173"/>
+      <c r="G66" s="173"/>
+      <c r="H66" s="173"/>
+      <c r="I66" s="173"/>
+      <c r="J66" s="173"/>
+      <c r="K66" s="173"/>
+      <c r="L66" s="173"/>
+      <c r="M66" s="173"/>
+      <c r="N66" s="173"/>
+      <c r="O66" s="173"/>
+      <c r="P66" s="173"/>
+      <c r="Q66" s="173"/>
+      <c r="R66" s="173"/>
+      <c r="S66" s="173"/>
+      <c r="T66" s="173"/>
+      <c r="U66" s="173"/>
+      <c r="V66" s="173"/>
+      <c r="W66" s="173"/>
+      <c r="X66" s="173"/>
+      <c r="Y66" s="173"/>
+      <c r="Z66" s="173"/>
+      <c r="AA66" s="173"/>
+      <c r="AB66" s="173"/>
+      <c r="AC66" s="173"/>
+      <c r="AD66" s="173"/>
+      <c r="AE66" s="173"/>
+      <c r="AF66" s="173"/>
+      <c r="AG66" s="173"/>
+      <c r="AH66" s="173"/>
+      <c r="AI66" s="173"/>
+      <c r="AJ66" s="173"/>
+      <c r="AK66" s="173"/>
+      <c r="AL66" s="173"/>
+      <c r="AM66" s="173"/>
+      <c r="AN66" s="173"/>
+      <c r="AO66" s="173"/>
+      <c r="AP66" s="173"/>
+      <c r="AQ66" s="173"/>
+      <c r="AR66" s="173"/>
+      <c r="AS66" s="173"/>
+      <c r="AT66" s="173"/>
+      <c r="AU66" s="173"/>
+      <c r="AV66" s="173"/>
+      <c r="AW66" s="173"/>
+      <c r="AX66" s="173"/>
+      <c r="AY66" s="173"/>
+      <c r="AZ66" s="173"/>
+      <c r="BA66" s="173"/>
+      <c r="BB66" s="173"/>
+      <c r="BC66" s="173"/>
+      <c r="BD66" s="173"/>
+      <c r="BE66" s="173"/>
+      <c r="BF66" s="173"/>
+      <c r="BG66" s="173"/>
+      <c r="BH66" s="173"/>
+      <c r="BI66" s="173"/>
+      <c r="BJ66" s="173"/>
+      <c r="BK66" s="173"/>
+      <c r="BL66" s="173"/>
+      <c r="BM66" s="173"/>
+      <c r="BN66" s="173"/>
+      <c r="BO66" s="173"/>
+      <c r="BP66" s="173"/>
+      <c r="BQ66" s="173"/>
+      <c r="BR66" s="174"/>
     </row>
     <row r="67" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A67" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.3</v>
       </c>
-      <c r="B67" s="186" t="s">
+      <c r="B67" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="186"/>
-      <c r="D67" s="186"/>
-      <c r="E67" s="186"/>
-      <c r="F67" s="186"/>
-      <c r="G67" s="186"/>
-      <c r="H67" s="186"/>
-      <c r="I67" s="186"/>
-      <c r="J67" s="186"/>
-      <c r="K67" s="186"/>
-      <c r="L67" s="186"/>
-      <c r="M67" s="186"/>
-      <c r="N67" s="186"/>
-      <c r="O67" s="186"/>
-      <c r="P67" s="186"/>
-      <c r="Q67" s="186"/>
-      <c r="R67" s="186"/>
-      <c r="S67" s="186"/>
-      <c r="T67" s="186"/>
-      <c r="U67" s="186"/>
-      <c r="V67" s="186"/>
-      <c r="W67" s="186"/>
-      <c r="X67" s="186"/>
-      <c r="Y67" s="186"/>
-      <c r="Z67" s="186"/>
-      <c r="AA67" s="186"/>
-      <c r="AB67" s="186"/>
-      <c r="AC67" s="186"/>
-      <c r="AD67" s="186"/>
-      <c r="AE67" s="186"/>
-      <c r="AF67" s="186"/>
-      <c r="AG67" s="186"/>
-      <c r="AH67" s="186"/>
-      <c r="AI67" s="186"/>
-      <c r="AJ67" s="186"/>
-      <c r="AK67" s="186"/>
-      <c r="AL67" s="186"/>
-      <c r="AM67" s="186"/>
-      <c r="AN67" s="186"/>
-      <c r="AO67" s="186"/>
-      <c r="AP67" s="186"/>
-      <c r="AQ67" s="186"/>
-      <c r="AR67" s="186"/>
-      <c r="AS67" s="186"/>
-      <c r="AT67" s="186"/>
-      <c r="AU67" s="186"/>
-      <c r="AV67" s="186"/>
-      <c r="AW67" s="186"/>
-      <c r="AX67" s="186"/>
-      <c r="AY67" s="186"/>
-      <c r="AZ67" s="186"/>
-      <c r="BA67" s="186"/>
-      <c r="BB67" s="186"/>
-      <c r="BC67" s="186"/>
-      <c r="BD67" s="186"/>
-      <c r="BE67" s="186"/>
-      <c r="BF67" s="186"/>
-      <c r="BG67" s="186"/>
-      <c r="BH67" s="186"/>
-      <c r="BI67" s="186"/>
-      <c r="BJ67" s="186"/>
-      <c r="BK67" s="186"/>
-      <c r="BL67" s="186"/>
-      <c r="BM67" s="186"/>
-      <c r="BN67" s="186"/>
-      <c r="BO67" s="186"/>
-      <c r="BP67" s="186"/>
-      <c r="BQ67" s="186"/>
-      <c r="BR67" s="187"/>
+      <c r="C67" s="175"/>
+      <c r="D67" s="175"/>
+      <c r="E67" s="175"/>
+      <c r="F67" s="175"/>
+      <c r="G67" s="175"/>
+      <c r="H67" s="175"/>
+      <c r="I67" s="175"/>
+      <c r="J67" s="175"/>
+      <c r="K67" s="175"/>
+      <c r="L67" s="175"/>
+      <c r="M67" s="175"/>
+      <c r="N67" s="175"/>
+      <c r="O67" s="175"/>
+      <c r="P67" s="175"/>
+      <c r="Q67" s="175"/>
+      <c r="R67" s="175"/>
+      <c r="S67" s="175"/>
+      <c r="T67" s="175"/>
+      <c r="U67" s="175"/>
+      <c r="V67" s="175"/>
+      <c r="W67" s="175"/>
+      <c r="X67" s="175"/>
+      <c r="Y67" s="175"/>
+      <c r="Z67" s="175"/>
+      <c r="AA67" s="175"/>
+      <c r="AB67" s="175"/>
+      <c r="AC67" s="175"/>
+      <c r="AD67" s="175"/>
+      <c r="AE67" s="175"/>
+      <c r="AF67" s="175"/>
+      <c r="AG67" s="175"/>
+      <c r="AH67" s="175"/>
+      <c r="AI67" s="175"/>
+      <c r="AJ67" s="175"/>
+      <c r="AK67" s="175"/>
+      <c r="AL67" s="175"/>
+      <c r="AM67" s="175"/>
+      <c r="AN67" s="175"/>
+      <c r="AO67" s="175"/>
+      <c r="AP67" s="175"/>
+      <c r="AQ67" s="175"/>
+      <c r="AR67" s="175"/>
+      <c r="AS67" s="175"/>
+      <c r="AT67" s="175"/>
+      <c r="AU67" s="175"/>
+      <c r="AV67" s="175"/>
+      <c r="AW67" s="175"/>
+      <c r="AX67" s="175"/>
+      <c r="AY67" s="175"/>
+      <c r="AZ67" s="175"/>
+      <c r="BA67" s="175"/>
+      <c r="BB67" s="175"/>
+      <c r="BC67" s="175"/>
+      <c r="BD67" s="175"/>
+      <c r="BE67" s="175"/>
+      <c r="BF67" s="175"/>
+      <c r="BG67" s="175"/>
+      <c r="BH67" s="175"/>
+      <c r="BI67" s="175"/>
+      <c r="BJ67" s="175"/>
+      <c r="BK67" s="175"/>
+      <c r="BL67" s="175"/>
+      <c r="BM67" s="175"/>
+      <c r="BN67" s="175"/>
+      <c r="BO67" s="175"/>
+      <c r="BP67" s="175"/>
+      <c r="BQ67" s="175"/>
+      <c r="BR67" s="176"/>
     </row>
     <row r="68" spans="1:70" ht="17.25" thickBot="1">
       <c r="A68" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B68" s="184" t="s">
+      <c r="B68" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="184"/>
-      <c r="D68" s="184"/>
-      <c r="E68" s="184"/>
-      <c r="F68" s="184"/>
-      <c r="G68" s="184"/>
-      <c r="H68" s="184"/>
-      <c r="I68" s="184"/>
-      <c r="J68" s="184"/>
-      <c r="K68" s="184"/>
-      <c r="L68" s="184"/>
-      <c r="M68" s="184"/>
-      <c r="N68" s="184"/>
-      <c r="O68" s="184"/>
-      <c r="P68" s="184"/>
-      <c r="Q68" s="184"/>
-      <c r="R68" s="184"/>
-      <c r="S68" s="184"/>
-      <c r="T68" s="184"/>
-      <c r="U68" s="184"/>
-      <c r="V68" s="184"/>
-      <c r="W68" s="184"/>
-      <c r="X68" s="184"/>
-      <c r="Y68" s="184"/>
-      <c r="Z68" s="184"/>
-      <c r="AA68" s="184"/>
-      <c r="AB68" s="184"/>
-      <c r="AC68" s="184"/>
-      <c r="AD68" s="184"/>
-      <c r="AE68" s="184"/>
-      <c r="AF68" s="184"/>
-      <c r="AG68" s="184"/>
-      <c r="AH68" s="184"/>
-      <c r="AI68" s="184"/>
-      <c r="AJ68" s="184"/>
-      <c r="AK68" s="184"/>
-      <c r="AL68" s="184"/>
-      <c r="AM68" s="184"/>
-      <c r="AN68" s="184"/>
-      <c r="AO68" s="184"/>
-      <c r="AP68" s="184"/>
-      <c r="AQ68" s="184"/>
-      <c r="AR68" s="184"/>
-      <c r="AS68" s="184"/>
-      <c r="AT68" s="184"/>
-      <c r="AU68" s="184"/>
-      <c r="AV68" s="184"/>
-      <c r="AW68" s="184"/>
-      <c r="AX68" s="184"/>
-      <c r="AY68" s="184"/>
-      <c r="AZ68" s="184"/>
-      <c r="BA68" s="184"/>
-      <c r="BB68" s="184"/>
-      <c r="BC68" s="184"/>
-      <c r="BD68" s="184"/>
-      <c r="BE68" s="184"/>
-      <c r="BF68" s="184"/>
-      <c r="BG68" s="184"/>
-      <c r="BH68" s="184"/>
-      <c r="BI68" s="184"/>
-      <c r="BJ68" s="184"/>
-      <c r="BK68" s="184"/>
-      <c r="BL68" s="184"/>
-      <c r="BM68" s="184"/>
-      <c r="BN68" s="184"/>
-      <c r="BO68" s="184"/>
-      <c r="BP68" s="184"/>
-      <c r="BQ68" s="184"/>
-      <c r="BR68" s="185"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
+      <c r="E68" s="169"/>
+      <c r="F68" s="169"/>
+      <c r="G68" s="169"/>
+      <c r="H68" s="169"/>
+      <c r="I68" s="169"/>
+      <c r="J68" s="169"/>
+      <c r="K68" s="169"/>
+      <c r="L68" s="169"/>
+      <c r="M68" s="169"/>
+      <c r="N68" s="169"/>
+      <c r="O68" s="169"/>
+      <c r="P68" s="169"/>
+      <c r="Q68" s="169"/>
+      <c r="R68" s="169"/>
+      <c r="S68" s="169"/>
+      <c r="T68" s="169"/>
+      <c r="U68" s="169"/>
+      <c r="V68" s="169"/>
+      <c r="W68" s="169"/>
+      <c r="X68" s="169"/>
+      <c r="Y68" s="169"/>
+      <c r="Z68" s="169"/>
+      <c r="AA68" s="169"/>
+      <c r="AB68" s="169"/>
+      <c r="AC68" s="169"/>
+      <c r="AD68" s="169"/>
+      <c r="AE68" s="169"/>
+      <c r="AF68" s="169"/>
+      <c r="AG68" s="169"/>
+      <c r="AH68" s="169"/>
+      <c r="AI68" s="169"/>
+      <c r="AJ68" s="169"/>
+      <c r="AK68" s="169"/>
+      <c r="AL68" s="169"/>
+      <c r="AM68" s="169"/>
+      <c r="AN68" s="169"/>
+      <c r="AO68" s="169"/>
+      <c r="AP68" s="169"/>
+      <c r="AQ68" s="169"/>
+      <c r="AR68" s="169"/>
+      <c r="AS68" s="169"/>
+      <c r="AT68" s="169"/>
+      <c r="AU68" s="169"/>
+      <c r="AV68" s="169"/>
+      <c r="AW68" s="169"/>
+      <c r="AX68" s="169"/>
+      <c r="AY68" s="169"/>
+      <c r="AZ68" s="169"/>
+      <c r="BA68" s="169"/>
+      <c r="BB68" s="169"/>
+      <c r="BC68" s="169"/>
+      <c r="BD68" s="169"/>
+      <c r="BE68" s="169"/>
+      <c r="BF68" s="169"/>
+      <c r="BG68" s="169"/>
+      <c r="BH68" s="169"/>
+      <c r="BI68" s="169"/>
+      <c r="BJ68" s="169"/>
+      <c r="BK68" s="169"/>
+      <c r="BL68" s="169"/>
+      <c r="BM68" s="169"/>
+      <c r="BN68" s="169"/>
+      <c r="BO68" s="169"/>
+      <c r="BP68" s="169"/>
+      <c r="BQ68" s="169"/>
+      <c r="BR68" s="170"/>
     </row>
     <row r="69" spans="1:70" s="55" customFormat="1">
       <c r="A69" s="57" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
-      <c r="B69" s="180" t="s">
+      <c r="B69" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="180"/>
-      <c r="D69" s="180"/>
-      <c r="E69" s="180"/>
-      <c r="F69" s="180"/>
-      <c r="G69" s="180"/>
-      <c r="H69" s="180"/>
-      <c r="I69" s="180"/>
-      <c r="J69" s="180"/>
-      <c r="K69" s="180"/>
-      <c r="L69" s="180"/>
-      <c r="M69" s="180"/>
-      <c r="N69" s="180"/>
-      <c r="O69" s="180"/>
-      <c r="P69" s="180"/>
-      <c r="Q69" s="180"/>
-      <c r="R69" s="180"/>
-      <c r="S69" s="180"/>
-      <c r="T69" s="180"/>
-      <c r="U69" s="180"/>
-      <c r="V69" s="180"/>
-      <c r="W69" s="180"/>
-      <c r="X69" s="180"/>
-      <c r="Y69" s="180"/>
-      <c r="Z69" s="180"/>
-      <c r="AA69" s="180"/>
-      <c r="AB69" s="180"/>
-      <c r="AC69" s="180"/>
-      <c r="AD69" s="180"/>
-      <c r="AE69" s="180"/>
-      <c r="AF69" s="180"/>
-      <c r="AG69" s="180"/>
-      <c r="AH69" s="180"/>
-      <c r="AI69" s="180"/>
-      <c r="AJ69" s="180"/>
-      <c r="AK69" s="180"/>
-      <c r="AL69" s="180"/>
-      <c r="AM69" s="180"/>
-      <c r="AN69" s="180"/>
-      <c r="AO69" s="180"/>
-      <c r="AP69" s="180"/>
-      <c r="AQ69" s="180"/>
-      <c r="AR69" s="180"/>
-      <c r="AS69" s="180"/>
-      <c r="AT69" s="180"/>
-      <c r="AU69" s="180"/>
-      <c r="AV69" s="180"/>
-      <c r="AW69" s="180"/>
-      <c r="AX69" s="180"/>
-      <c r="AY69" s="180"/>
-      <c r="AZ69" s="180"/>
-      <c r="BA69" s="180"/>
-      <c r="BB69" s="180"/>
-      <c r="BC69" s="180"/>
-      <c r="BD69" s="180"/>
-      <c r="BE69" s="180"/>
-      <c r="BF69" s="180"/>
-      <c r="BG69" s="180"/>
-      <c r="BH69" s="180"/>
-      <c r="BI69" s="180"/>
-      <c r="BJ69" s="180"/>
-      <c r="BK69" s="180"/>
-      <c r="BL69" s="180"/>
-      <c r="BM69" s="180"/>
-      <c r="BN69" s="180"/>
-      <c r="BO69" s="180"/>
-      <c r="BP69" s="180"/>
-      <c r="BQ69" s="180"/>
-      <c r="BR69" s="181"/>
+      <c r="C69" s="171"/>
+      <c r="D69" s="171"/>
+      <c r="E69" s="171"/>
+      <c r="F69" s="171"/>
+      <c r="G69" s="171"/>
+      <c r="H69" s="171"/>
+      <c r="I69" s="171"/>
+      <c r="J69" s="171"/>
+      <c r="K69" s="171"/>
+      <c r="L69" s="171"/>
+      <c r="M69" s="171"/>
+      <c r="N69" s="171"/>
+      <c r="O69" s="171"/>
+      <c r="P69" s="171"/>
+      <c r="Q69" s="171"/>
+      <c r="R69" s="171"/>
+      <c r="S69" s="171"/>
+      <c r="T69" s="171"/>
+      <c r="U69" s="171"/>
+      <c r="V69" s="171"/>
+      <c r="W69" s="171"/>
+      <c r="X69" s="171"/>
+      <c r="Y69" s="171"/>
+      <c r="Z69" s="171"/>
+      <c r="AA69" s="171"/>
+      <c r="AB69" s="171"/>
+      <c r="AC69" s="171"/>
+      <c r="AD69" s="171"/>
+      <c r="AE69" s="171"/>
+      <c r="AF69" s="171"/>
+      <c r="AG69" s="171"/>
+      <c r="AH69" s="171"/>
+      <c r="AI69" s="171"/>
+      <c r="AJ69" s="171"/>
+      <c r="AK69" s="171"/>
+      <c r="AL69" s="171"/>
+      <c r="AM69" s="171"/>
+      <c r="AN69" s="171"/>
+      <c r="AO69" s="171"/>
+      <c r="AP69" s="171"/>
+      <c r="AQ69" s="171"/>
+      <c r="AR69" s="171"/>
+      <c r="AS69" s="171"/>
+      <c r="AT69" s="171"/>
+      <c r="AU69" s="171"/>
+      <c r="AV69" s="171"/>
+      <c r="AW69" s="171"/>
+      <c r="AX69" s="171"/>
+      <c r="AY69" s="171"/>
+      <c r="AZ69" s="171"/>
+      <c r="BA69" s="171"/>
+      <c r="BB69" s="171"/>
+      <c r="BC69" s="171"/>
+      <c r="BD69" s="171"/>
+      <c r="BE69" s="171"/>
+      <c r="BF69" s="171"/>
+      <c r="BG69" s="171"/>
+      <c r="BH69" s="171"/>
+      <c r="BI69" s="171"/>
+      <c r="BJ69" s="171"/>
+      <c r="BK69" s="171"/>
+      <c r="BL69" s="171"/>
+      <c r="BM69" s="171"/>
+      <c r="BN69" s="171"/>
+      <c r="BO69" s="171"/>
+      <c r="BP69" s="171"/>
+      <c r="BQ69" s="171"/>
+      <c r="BR69" s="172"/>
     </row>
     <row r="70" spans="1:70" s="55" customFormat="1">
       <c r="A70" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
-      <c r="B70" s="182" t="s">
+      <c r="B70" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="C70" s="182"/>
-      <c r="D70" s="182"/>
-      <c r="E70" s="182"/>
-      <c r="F70" s="182"/>
-      <c r="G70" s="182"/>
-      <c r="H70" s="182"/>
-      <c r="I70" s="182"/>
-      <c r="J70" s="182"/>
-      <c r="K70" s="182"/>
-      <c r="L70" s="182"/>
-      <c r="M70" s="182"/>
-      <c r="N70" s="182"/>
-      <c r="O70" s="182"/>
-      <c r="P70" s="182"/>
-      <c r="Q70" s="182"/>
-      <c r="R70" s="182"/>
-      <c r="S70" s="182"/>
-      <c r="T70" s="182"/>
-      <c r="U70" s="182"/>
-      <c r="V70" s="182"/>
-      <c r="W70" s="182"/>
-      <c r="X70" s="182"/>
-      <c r="Y70" s="182"/>
-      <c r="Z70" s="182"/>
-      <c r="AA70" s="182"/>
-      <c r="AB70" s="182"/>
-      <c r="AC70" s="182"/>
-      <c r="AD70" s="182"/>
-      <c r="AE70" s="182"/>
-      <c r="AF70" s="182"/>
-      <c r="AG70" s="182"/>
-      <c r="AH70" s="182"/>
-      <c r="AI70" s="182"/>
-      <c r="AJ70" s="182"/>
-      <c r="AK70" s="182"/>
-      <c r="AL70" s="182"/>
-      <c r="AM70" s="182"/>
-      <c r="AN70" s="182"/>
-      <c r="AO70" s="182"/>
-      <c r="AP70" s="182"/>
-      <c r="AQ70" s="182"/>
-      <c r="AR70" s="182"/>
-      <c r="AS70" s="182"/>
-      <c r="AT70" s="182"/>
-      <c r="AU70" s="182"/>
-      <c r="AV70" s="182"/>
-      <c r="AW70" s="182"/>
-      <c r="AX70" s="182"/>
-      <c r="AY70" s="182"/>
-      <c r="AZ70" s="182"/>
-      <c r="BA70" s="182"/>
-      <c r="BB70" s="182"/>
-      <c r="BC70" s="182"/>
-      <c r="BD70" s="182"/>
-      <c r="BE70" s="182"/>
-      <c r="BF70" s="182"/>
-      <c r="BG70" s="182"/>
-      <c r="BH70" s="182"/>
-      <c r="BI70" s="182"/>
-      <c r="BJ70" s="182"/>
-      <c r="BK70" s="182"/>
-      <c r="BL70" s="182"/>
-      <c r="BM70" s="182"/>
-      <c r="BN70" s="182"/>
-      <c r="BO70" s="182"/>
-      <c r="BP70" s="182"/>
-      <c r="BQ70" s="182"/>
-      <c r="BR70" s="183"/>
+      <c r="C70" s="173"/>
+      <c r="D70" s="173"/>
+      <c r="E70" s="173"/>
+      <c r="F70" s="173"/>
+      <c r="G70" s="173"/>
+      <c r="H70" s="173"/>
+      <c r="I70" s="173"/>
+      <c r="J70" s="173"/>
+      <c r="K70" s="173"/>
+      <c r="L70" s="173"/>
+      <c r="M70" s="173"/>
+      <c r="N70" s="173"/>
+      <c r="O70" s="173"/>
+      <c r="P70" s="173"/>
+      <c r="Q70" s="173"/>
+      <c r="R70" s="173"/>
+      <c r="S70" s="173"/>
+      <c r="T70" s="173"/>
+      <c r="U70" s="173"/>
+      <c r="V70" s="173"/>
+      <c r="W70" s="173"/>
+      <c r="X70" s="173"/>
+      <c r="Y70" s="173"/>
+      <c r="Z70" s="173"/>
+      <c r="AA70" s="173"/>
+      <c r="AB70" s="173"/>
+      <c r="AC70" s="173"/>
+      <c r="AD70" s="173"/>
+      <c r="AE70" s="173"/>
+      <c r="AF70" s="173"/>
+      <c r="AG70" s="173"/>
+      <c r="AH70" s="173"/>
+      <c r="AI70" s="173"/>
+      <c r="AJ70" s="173"/>
+      <c r="AK70" s="173"/>
+      <c r="AL70" s="173"/>
+      <c r="AM70" s="173"/>
+      <c r="AN70" s="173"/>
+      <c r="AO70" s="173"/>
+      <c r="AP70" s="173"/>
+      <c r="AQ70" s="173"/>
+      <c r="AR70" s="173"/>
+      <c r="AS70" s="173"/>
+      <c r="AT70" s="173"/>
+      <c r="AU70" s="173"/>
+      <c r="AV70" s="173"/>
+      <c r="AW70" s="173"/>
+      <c r="AX70" s="173"/>
+      <c r="AY70" s="173"/>
+      <c r="AZ70" s="173"/>
+      <c r="BA70" s="173"/>
+      <c r="BB70" s="173"/>
+      <c r="BC70" s="173"/>
+      <c r="BD70" s="173"/>
+      <c r="BE70" s="173"/>
+      <c r="BF70" s="173"/>
+      <c r="BG70" s="173"/>
+      <c r="BH70" s="173"/>
+      <c r="BI70" s="173"/>
+      <c r="BJ70" s="173"/>
+      <c r="BK70" s="173"/>
+      <c r="BL70" s="173"/>
+      <c r="BM70" s="173"/>
+      <c r="BN70" s="173"/>
+      <c r="BO70" s="173"/>
+      <c r="BP70" s="173"/>
+      <c r="BQ70" s="173"/>
+      <c r="BR70" s="174"/>
     </row>
     <row r="71" spans="1:70" s="55" customFormat="1">
       <c r="A71" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
-      <c r="B71" s="182" t="s">
+      <c r="B71" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="182"/>
-      <c r="D71" s="182"/>
-      <c r="E71" s="182"/>
-      <c r="F71" s="182"/>
-      <c r="G71" s="182"/>
-      <c r="H71" s="182"/>
-      <c r="I71" s="182"/>
-      <c r="J71" s="182"/>
-      <c r="K71" s="182"/>
-      <c r="L71" s="182"/>
-      <c r="M71" s="182"/>
-      <c r="N71" s="182"/>
-      <c r="O71" s="182"/>
-      <c r="P71" s="182"/>
-      <c r="Q71" s="182"/>
-      <c r="R71" s="182"/>
-      <c r="S71" s="182"/>
-      <c r="T71" s="182"/>
-      <c r="U71" s="182"/>
-      <c r="V71" s="182"/>
-      <c r="W71" s="182"/>
-      <c r="X71" s="182"/>
-      <c r="Y71" s="182"/>
-      <c r="Z71" s="182"/>
-      <c r="AA71" s="182"/>
-      <c r="AB71" s="182"/>
-      <c r="AC71" s="182"/>
-      <c r="AD71" s="182"/>
-      <c r="AE71" s="182"/>
-      <c r="AF71" s="182"/>
-      <c r="AG71" s="182"/>
-      <c r="AH71" s="182"/>
-      <c r="AI71" s="182"/>
-      <c r="AJ71" s="182"/>
-      <c r="AK71" s="182"/>
-      <c r="AL71" s="182"/>
-      <c r="AM71" s="182"/>
-      <c r="AN71" s="182"/>
-      <c r="AO71" s="182"/>
-      <c r="AP71" s="182"/>
-      <c r="AQ71" s="182"/>
-      <c r="AR71" s="182"/>
-      <c r="AS71" s="182"/>
-      <c r="AT71" s="182"/>
-      <c r="AU71" s="182"/>
-      <c r="AV71" s="182"/>
-      <c r="AW71" s="182"/>
-      <c r="AX71" s="182"/>
-      <c r="AY71" s="182"/>
-      <c r="AZ71" s="182"/>
-      <c r="BA71" s="182"/>
-      <c r="BB71" s="182"/>
-      <c r="BC71" s="182"/>
-      <c r="BD71" s="182"/>
-      <c r="BE71" s="182"/>
-      <c r="BF71" s="182"/>
-      <c r="BG71" s="182"/>
-      <c r="BH71" s="182"/>
-      <c r="BI71" s="182"/>
-      <c r="BJ71" s="182"/>
-      <c r="BK71" s="182"/>
-      <c r="BL71" s="182"/>
-      <c r="BM71" s="182"/>
-      <c r="BN71" s="182"/>
-      <c r="BO71" s="182"/>
-      <c r="BP71" s="182"/>
-      <c r="BQ71" s="182"/>
-      <c r="BR71" s="183"/>
+      <c r="C71" s="173"/>
+      <c r="D71" s="173"/>
+      <c r="E71" s="173"/>
+      <c r="F71" s="173"/>
+      <c r="G71" s="173"/>
+      <c r="H71" s="173"/>
+      <c r="I71" s="173"/>
+      <c r="J71" s="173"/>
+      <c r="K71" s="173"/>
+      <c r="L71" s="173"/>
+      <c r="M71" s="173"/>
+      <c r="N71" s="173"/>
+      <c r="O71" s="173"/>
+      <c r="P71" s="173"/>
+      <c r="Q71" s="173"/>
+      <c r="R71" s="173"/>
+      <c r="S71" s="173"/>
+      <c r="T71" s="173"/>
+      <c r="U71" s="173"/>
+      <c r="V71" s="173"/>
+      <c r="W71" s="173"/>
+      <c r="X71" s="173"/>
+      <c r="Y71" s="173"/>
+      <c r="Z71" s="173"/>
+      <c r="AA71" s="173"/>
+      <c r="AB71" s="173"/>
+      <c r="AC71" s="173"/>
+      <c r="AD71" s="173"/>
+      <c r="AE71" s="173"/>
+      <c r="AF71" s="173"/>
+      <c r="AG71" s="173"/>
+      <c r="AH71" s="173"/>
+      <c r="AI71" s="173"/>
+      <c r="AJ71" s="173"/>
+      <c r="AK71" s="173"/>
+      <c r="AL71" s="173"/>
+      <c r="AM71" s="173"/>
+      <c r="AN71" s="173"/>
+      <c r="AO71" s="173"/>
+      <c r="AP71" s="173"/>
+      <c r="AQ71" s="173"/>
+      <c r="AR71" s="173"/>
+      <c r="AS71" s="173"/>
+      <c r="AT71" s="173"/>
+      <c r="AU71" s="173"/>
+      <c r="AV71" s="173"/>
+      <c r="AW71" s="173"/>
+      <c r="AX71" s="173"/>
+      <c r="AY71" s="173"/>
+      <c r="AZ71" s="173"/>
+      <c r="BA71" s="173"/>
+      <c r="BB71" s="173"/>
+      <c r="BC71" s="173"/>
+      <c r="BD71" s="173"/>
+      <c r="BE71" s="173"/>
+      <c r="BF71" s="173"/>
+      <c r="BG71" s="173"/>
+      <c r="BH71" s="173"/>
+      <c r="BI71" s="173"/>
+      <c r="BJ71" s="173"/>
+      <c r="BK71" s="173"/>
+      <c r="BL71" s="173"/>
+      <c r="BM71" s="173"/>
+      <c r="BN71" s="173"/>
+      <c r="BO71" s="173"/>
+      <c r="BP71" s="173"/>
+      <c r="BQ71" s="173"/>
+      <c r="BR71" s="174"/>
     </row>
     <row r="72" spans="1:70" s="55" customFormat="1">
       <c r="A72" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
-      <c r="B72" s="182" t="s">
+      <c r="B72" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="182"/>
-      <c r="D72" s="182"/>
-      <c r="E72" s="182"/>
-      <c r="F72" s="182"/>
-      <c r="G72" s="182"/>
-      <c r="H72" s="182"/>
-      <c r="I72" s="182"/>
-      <c r="J72" s="182"/>
-      <c r="K72" s="182"/>
-      <c r="L72" s="182"/>
-      <c r="M72" s="182"/>
-      <c r="N72" s="182"/>
-      <c r="O72" s="182"/>
-      <c r="P72" s="182"/>
-      <c r="Q72" s="182"/>
-      <c r="R72" s="182"/>
-      <c r="S72" s="182"/>
-      <c r="T72" s="182"/>
-      <c r="U72" s="182"/>
-      <c r="V72" s="182"/>
-      <c r="W72" s="182"/>
-      <c r="X72" s="182"/>
-      <c r="Y72" s="182"/>
-      <c r="Z72" s="182"/>
-      <c r="AA72" s="182"/>
-      <c r="AB72" s="182"/>
-      <c r="AC72" s="182"/>
-      <c r="AD72" s="182"/>
-      <c r="AE72" s="182"/>
-      <c r="AF72" s="182"/>
-      <c r="AG72" s="182"/>
-      <c r="AH72" s="182"/>
-      <c r="AI72" s="182"/>
-      <c r="AJ72" s="182"/>
-      <c r="AK72" s="182"/>
-      <c r="AL72" s="182"/>
-      <c r="AM72" s="182"/>
-      <c r="AN72" s="182"/>
-      <c r="AO72" s="182"/>
-      <c r="AP72" s="182"/>
-      <c r="AQ72" s="182"/>
-      <c r="AR72" s="182"/>
-      <c r="AS72" s="182"/>
-      <c r="AT72" s="182"/>
-      <c r="AU72" s="182"/>
-      <c r="AV72" s="182"/>
-      <c r="AW72" s="182"/>
-      <c r="AX72" s="182"/>
-      <c r="AY72" s="182"/>
-      <c r="AZ72" s="182"/>
-      <c r="BA72" s="182"/>
-      <c r="BB72" s="182"/>
-      <c r="BC72" s="182"/>
-      <c r="BD72" s="182"/>
-      <c r="BE72" s="182"/>
-      <c r="BF72" s="182"/>
-      <c r="BG72" s="182"/>
-      <c r="BH72" s="182"/>
-      <c r="BI72" s="182"/>
-      <c r="BJ72" s="182"/>
-      <c r="BK72" s="182"/>
-      <c r="BL72" s="182"/>
-      <c r="BM72" s="182"/>
-      <c r="BN72" s="182"/>
-      <c r="BO72" s="182"/>
-      <c r="BP72" s="182"/>
-      <c r="BQ72" s="182"/>
-      <c r="BR72" s="183"/>
+      <c r="C72" s="173"/>
+      <c r="D72" s="173"/>
+      <c r="E72" s="173"/>
+      <c r="F72" s="173"/>
+      <c r="G72" s="173"/>
+      <c r="H72" s="173"/>
+      <c r="I72" s="173"/>
+      <c r="J72" s="173"/>
+      <c r="K72" s="173"/>
+      <c r="L72" s="173"/>
+      <c r="M72" s="173"/>
+      <c r="N72" s="173"/>
+      <c r="O72" s="173"/>
+      <c r="P72" s="173"/>
+      <c r="Q72" s="173"/>
+      <c r="R72" s="173"/>
+      <c r="S72" s="173"/>
+      <c r="T72" s="173"/>
+      <c r="U72" s="173"/>
+      <c r="V72" s="173"/>
+      <c r="W72" s="173"/>
+      <c r="X72" s="173"/>
+      <c r="Y72" s="173"/>
+      <c r="Z72" s="173"/>
+      <c r="AA72" s="173"/>
+      <c r="AB72" s="173"/>
+      <c r="AC72" s="173"/>
+      <c r="AD72" s="173"/>
+      <c r="AE72" s="173"/>
+      <c r="AF72" s="173"/>
+      <c r="AG72" s="173"/>
+      <c r="AH72" s="173"/>
+      <c r="AI72" s="173"/>
+      <c r="AJ72" s="173"/>
+      <c r="AK72" s="173"/>
+      <c r="AL72" s="173"/>
+      <c r="AM72" s="173"/>
+      <c r="AN72" s="173"/>
+      <c r="AO72" s="173"/>
+      <c r="AP72" s="173"/>
+      <c r="AQ72" s="173"/>
+      <c r="AR72" s="173"/>
+      <c r="AS72" s="173"/>
+      <c r="AT72" s="173"/>
+      <c r="AU72" s="173"/>
+      <c r="AV72" s="173"/>
+      <c r="AW72" s="173"/>
+      <c r="AX72" s="173"/>
+      <c r="AY72" s="173"/>
+      <c r="AZ72" s="173"/>
+      <c r="BA72" s="173"/>
+      <c r="BB72" s="173"/>
+      <c r="BC72" s="173"/>
+      <c r="BD72" s="173"/>
+      <c r="BE72" s="173"/>
+      <c r="BF72" s="173"/>
+      <c r="BG72" s="173"/>
+      <c r="BH72" s="173"/>
+      <c r="BI72" s="173"/>
+      <c r="BJ72" s="173"/>
+      <c r="BK72" s="173"/>
+      <c r="BL72" s="173"/>
+      <c r="BM72" s="173"/>
+      <c r="BN72" s="173"/>
+      <c r="BO72" s="173"/>
+      <c r="BP72" s="173"/>
+      <c r="BQ72" s="173"/>
+      <c r="BR72" s="174"/>
     </row>
     <row r="73" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A73" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.5</v>
       </c>
-      <c r="B73" s="186" t="s">
+      <c r="B73" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="186"/>
-      <c r="D73" s="186"/>
-      <c r="E73" s="186"/>
-      <c r="F73" s="186"/>
-      <c r="G73" s="186"/>
-      <c r="H73" s="186"/>
-      <c r="I73" s="186"/>
-      <c r="J73" s="186"/>
-      <c r="K73" s="186"/>
-      <c r="L73" s="186"/>
-      <c r="M73" s="186"/>
-      <c r="N73" s="186"/>
-      <c r="O73" s="186"/>
-      <c r="P73" s="186"/>
-      <c r="Q73" s="186"/>
-      <c r="R73" s="186"/>
-      <c r="S73" s="186"/>
-      <c r="T73" s="186"/>
-      <c r="U73" s="186"/>
-      <c r="V73" s="186"/>
-      <c r="W73" s="186"/>
-      <c r="X73" s="186"/>
-      <c r="Y73" s="186"/>
-      <c r="Z73" s="186"/>
-      <c r="AA73" s="186"/>
-      <c r="AB73" s="186"/>
-      <c r="AC73" s="186"/>
-      <c r="AD73" s="186"/>
-      <c r="AE73" s="186"/>
-      <c r="AF73" s="186"/>
-      <c r="AG73" s="186"/>
-      <c r="AH73" s="186"/>
-      <c r="AI73" s="186"/>
-      <c r="AJ73" s="186"/>
-      <c r="AK73" s="186"/>
-      <c r="AL73" s="186"/>
-      <c r="AM73" s="186"/>
-      <c r="AN73" s="186"/>
-      <c r="AO73" s="186"/>
-      <c r="AP73" s="186"/>
-      <c r="AQ73" s="186"/>
-      <c r="AR73" s="186"/>
-      <c r="AS73" s="186"/>
-      <c r="AT73" s="186"/>
-      <c r="AU73" s="186"/>
-      <c r="AV73" s="186"/>
-      <c r="AW73" s="186"/>
-      <c r="AX73" s="186"/>
-      <c r="AY73" s="186"/>
-      <c r="AZ73" s="186"/>
-      <c r="BA73" s="186"/>
-      <c r="BB73" s="186"/>
-      <c r="BC73" s="186"/>
-      <c r="BD73" s="186"/>
-      <c r="BE73" s="186"/>
-      <c r="BF73" s="186"/>
-      <c r="BG73" s="186"/>
-      <c r="BH73" s="186"/>
-      <c r="BI73" s="186"/>
-      <c r="BJ73" s="186"/>
-      <c r="BK73" s="186"/>
-      <c r="BL73" s="186"/>
-      <c r="BM73" s="186"/>
-      <c r="BN73" s="186"/>
-      <c r="BO73" s="186"/>
-      <c r="BP73" s="186"/>
-      <c r="BQ73" s="186"/>
-      <c r="BR73" s="187"/>
+      <c r="C73" s="175"/>
+      <c r="D73" s="175"/>
+      <c r="E73" s="175"/>
+      <c r="F73" s="175"/>
+      <c r="G73" s="175"/>
+      <c r="H73" s="175"/>
+      <c r="I73" s="175"/>
+      <c r="J73" s="175"/>
+      <c r="K73" s="175"/>
+      <c r="L73" s="175"/>
+      <c r="M73" s="175"/>
+      <c r="N73" s="175"/>
+      <c r="O73" s="175"/>
+      <c r="P73" s="175"/>
+      <c r="Q73" s="175"/>
+      <c r="R73" s="175"/>
+      <c r="S73" s="175"/>
+      <c r="T73" s="175"/>
+      <c r="U73" s="175"/>
+      <c r="V73" s="175"/>
+      <c r="W73" s="175"/>
+      <c r="X73" s="175"/>
+      <c r="Y73" s="175"/>
+      <c r="Z73" s="175"/>
+      <c r="AA73" s="175"/>
+      <c r="AB73" s="175"/>
+      <c r="AC73" s="175"/>
+      <c r="AD73" s="175"/>
+      <c r="AE73" s="175"/>
+      <c r="AF73" s="175"/>
+      <c r="AG73" s="175"/>
+      <c r="AH73" s="175"/>
+      <c r="AI73" s="175"/>
+      <c r="AJ73" s="175"/>
+      <c r="AK73" s="175"/>
+      <c r="AL73" s="175"/>
+      <c r="AM73" s="175"/>
+      <c r="AN73" s="175"/>
+      <c r="AO73" s="175"/>
+      <c r="AP73" s="175"/>
+      <c r="AQ73" s="175"/>
+      <c r="AR73" s="175"/>
+      <c r="AS73" s="175"/>
+      <c r="AT73" s="175"/>
+      <c r="AU73" s="175"/>
+      <c r="AV73" s="175"/>
+      <c r="AW73" s="175"/>
+      <c r="AX73" s="175"/>
+      <c r="AY73" s="175"/>
+      <c r="AZ73" s="175"/>
+      <c r="BA73" s="175"/>
+      <c r="BB73" s="175"/>
+      <c r="BC73" s="175"/>
+      <c r="BD73" s="175"/>
+      <c r="BE73" s="175"/>
+      <c r="BF73" s="175"/>
+      <c r="BG73" s="175"/>
+      <c r="BH73" s="175"/>
+      <c r="BI73" s="175"/>
+      <c r="BJ73" s="175"/>
+      <c r="BK73" s="175"/>
+      <c r="BL73" s="175"/>
+      <c r="BM73" s="175"/>
+      <c r="BN73" s="175"/>
+      <c r="BO73" s="175"/>
+      <c r="BP73" s="175"/>
+      <c r="BQ73" s="175"/>
+      <c r="BR73" s="176"/>
     </row>
     <row r="74" spans="1:70" ht="17.25" thickBot="1">
       <c r="A74" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B74" s="184" t="s">
+      <c r="B74" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="184"/>
-      <c r="D74" s="184"/>
-      <c r="E74" s="184"/>
-      <c r="F74" s="184"/>
-      <c r="G74" s="184"/>
-      <c r="H74" s="184"/>
-      <c r="I74" s="184"/>
-      <c r="J74" s="184"/>
-      <c r="K74" s="184"/>
-      <c r="L74" s="184"/>
-      <c r="M74" s="184"/>
-      <c r="N74" s="184"/>
-      <c r="O74" s="184"/>
-      <c r="P74" s="184"/>
-      <c r="Q74" s="184"/>
-      <c r="R74" s="184"/>
-      <c r="S74" s="184"/>
-      <c r="T74" s="184"/>
-      <c r="U74" s="184"/>
-      <c r="V74" s="184"/>
-      <c r="W74" s="184"/>
-      <c r="X74" s="184"/>
-      <c r="Y74" s="184"/>
-      <c r="Z74" s="184"/>
-      <c r="AA74" s="184"/>
-      <c r="AB74" s="184"/>
-      <c r="AC74" s="184"/>
-      <c r="AD74" s="184"/>
-      <c r="AE74" s="184"/>
-      <c r="AF74" s="184"/>
-      <c r="AG74" s="184"/>
-      <c r="AH74" s="184"/>
-      <c r="AI74" s="184"/>
-      <c r="AJ74" s="184"/>
-      <c r="AK74" s="184"/>
-      <c r="AL74" s="184"/>
-      <c r="AM74" s="184"/>
-      <c r="AN74" s="184"/>
-      <c r="AO74" s="184"/>
-      <c r="AP74" s="184"/>
-      <c r="AQ74" s="184"/>
-      <c r="AR74" s="184"/>
-      <c r="AS74" s="184"/>
-      <c r="AT74" s="184"/>
-      <c r="AU74" s="184"/>
-      <c r="AV74" s="184"/>
-      <c r="AW74" s="184"/>
-      <c r="AX74" s="184"/>
-      <c r="AY74" s="184"/>
-      <c r="AZ74" s="184"/>
-      <c r="BA74" s="184"/>
-      <c r="BB74" s="184"/>
-      <c r="BC74" s="184"/>
-      <c r="BD74" s="184"/>
-      <c r="BE74" s="184"/>
-      <c r="BF74" s="184"/>
-      <c r="BG74" s="184"/>
-      <c r="BH74" s="184"/>
-      <c r="BI74" s="184"/>
-      <c r="BJ74" s="184"/>
-      <c r="BK74" s="184"/>
-      <c r="BL74" s="184"/>
-      <c r="BM74" s="184"/>
-      <c r="BN74" s="184"/>
-      <c r="BO74" s="184"/>
-      <c r="BP74" s="184"/>
-      <c r="BQ74" s="184"/>
-      <c r="BR74" s="185"/>
+      <c r="C74" s="169"/>
+      <c r="D74" s="169"/>
+      <c r="E74" s="169"/>
+      <c r="F74" s="169"/>
+      <c r="G74" s="169"/>
+      <c r="H74" s="169"/>
+      <c r="I74" s="169"/>
+      <c r="J74" s="169"/>
+      <c r="K74" s="169"/>
+      <c r="L74" s="169"/>
+      <c r="M74" s="169"/>
+      <c r="N74" s="169"/>
+      <c r="O74" s="169"/>
+      <c r="P74" s="169"/>
+      <c r="Q74" s="169"/>
+      <c r="R74" s="169"/>
+      <c r="S74" s="169"/>
+      <c r="T74" s="169"/>
+      <c r="U74" s="169"/>
+      <c r="V74" s="169"/>
+      <c r="W74" s="169"/>
+      <c r="X74" s="169"/>
+      <c r="Y74" s="169"/>
+      <c r="Z74" s="169"/>
+      <c r="AA74" s="169"/>
+      <c r="AB74" s="169"/>
+      <c r="AC74" s="169"/>
+      <c r="AD74" s="169"/>
+      <c r="AE74" s="169"/>
+      <c r="AF74" s="169"/>
+      <c r="AG74" s="169"/>
+      <c r="AH74" s="169"/>
+      <c r="AI74" s="169"/>
+      <c r="AJ74" s="169"/>
+      <c r="AK74" s="169"/>
+      <c r="AL74" s="169"/>
+      <c r="AM74" s="169"/>
+      <c r="AN74" s="169"/>
+      <c r="AO74" s="169"/>
+      <c r="AP74" s="169"/>
+      <c r="AQ74" s="169"/>
+      <c r="AR74" s="169"/>
+      <c r="AS74" s="169"/>
+      <c r="AT74" s="169"/>
+      <c r="AU74" s="169"/>
+      <c r="AV74" s="169"/>
+      <c r="AW74" s="169"/>
+      <c r="AX74" s="169"/>
+      <c r="AY74" s="169"/>
+      <c r="AZ74" s="169"/>
+      <c r="BA74" s="169"/>
+      <c r="BB74" s="169"/>
+      <c r="BC74" s="169"/>
+      <c r="BD74" s="169"/>
+      <c r="BE74" s="169"/>
+      <c r="BF74" s="169"/>
+      <c r="BG74" s="169"/>
+      <c r="BH74" s="169"/>
+      <c r="BI74" s="169"/>
+      <c r="BJ74" s="169"/>
+      <c r="BK74" s="169"/>
+      <c r="BL74" s="169"/>
+      <c r="BM74" s="169"/>
+      <c r="BN74" s="169"/>
+      <c r="BO74" s="169"/>
+      <c r="BP74" s="169"/>
+      <c r="BQ74" s="169"/>
+      <c r="BR74" s="170"/>
     </row>
     <row r="75" spans="1:70" s="55" customFormat="1">
       <c r="A75" s="57" t="str">
         <f t="shared" ref="A75:A80" si="64">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B75" s="180" t="s">
+      <c r="B75" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="C75" s="180"/>
-      <c r="D75" s="180"/>
-      <c r="E75" s="180"/>
-      <c r="F75" s="180"/>
-      <c r="G75" s="180"/>
-      <c r="H75" s="180"/>
-      <c r="I75" s="180"/>
-      <c r="J75" s="180"/>
-      <c r="K75" s="180"/>
-      <c r="L75" s="180"/>
-      <c r="M75" s="180"/>
-      <c r="N75" s="180"/>
-      <c r="O75" s="180"/>
-      <c r="P75" s="180"/>
-      <c r="Q75" s="180"/>
-      <c r="R75" s="180"/>
-      <c r="S75" s="180"/>
-      <c r="T75" s="180"/>
-      <c r="U75" s="180"/>
-      <c r="V75" s="180"/>
-      <c r="W75" s="180"/>
-      <c r="X75" s="180"/>
-      <c r="Y75" s="180"/>
-      <c r="Z75" s="180"/>
-      <c r="AA75" s="180"/>
-      <c r="AB75" s="180"/>
-      <c r="AC75" s="180"/>
-      <c r="AD75" s="180"/>
-      <c r="AE75" s="180"/>
-      <c r="AF75" s="180"/>
-      <c r="AG75" s="180"/>
-      <c r="AH75" s="180"/>
-      <c r="AI75" s="180"/>
-      <c r="AJ75" s="180"/>
-      <c r="AK75" s="180"/>
-      <c r="AL75" s="180"/>
-      <c r="AM75" s="180"/>
-      <c r="AN75" s="180"/>
-      <c r="AO75" s="180"/>
-      <c r="AP75" s="180"/>
-      <c r="AQ75" s="180"/>
-      <c r="AR75" s="180"/>
-      <c r="AS75" s="180"/>
-      <c r="AT75" s="180"/>
-      <c r="AU75" s="180"/>
-      <c r="AV75" s="180"/>
-      <c r="AW75" s="180"/>
-      <c r="AX75" s="180"/>
-      <c r="AY75" s="180"/>
-      <c r="AZ75" s="180"/>
-      <c r="BA75" s="180"/>
-      <c r="BB75" s="180"/>
-      <c r="BC75" s="180"/>
-      <c r="BD75" s="180"/>
-      <c r="BE75" s="180"/>
-      <c r="BF75" s="180"/>
-      <c r="BG75" s="180"/>
-      <c r="BH75" s="180"/>
-      <c r="BI75" s="180"/>
-      <c r="BJ75" s="180"/>
-      <c r="BK75" s="180"/>
-      <c r="BL75" s="180"/>
-      <c r="BM75" s="180"/>
-      <c r="BN75" s="180"/>
-      <c r="BO75" s="180"/>
-      <c r="BP75" s="180"/>
-      <c r="BQ75" s="180"/>
-      <c r="BR75" s="181"/>
+      <c r="C75" s="171"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="171"/>
+      <c r="F75" s="171"/>
+      <c r="G75" s="171"/>
+      <c r="H75" s="171"/>
+      <c r="I75" s="171"/>
+      <c r="J75" s="171"/>
+      <c r="K75" s="171"/>
+      <c r="L75" s="171"/>
+      <c r="M75" s="171"/>
+      <c r="N75" s="171"/>
+      <c r="O75" s="171"/>
+      <c r="P75" s="171"/>
+      <c r="Q75" s="171"/>
+      <c r="R75" s="171"/>
+      <c r="S75" s="171"/>
+      <c r="T75" s="171"/>
+      <c r="U75" s="171"/>
+      <c r="V75" s="171"/>
+      <c r="W75" s="171"/>
+      <c r="X75" s="171"/>
+      <c r="Y75" s="171"/>
+      <c r="Z75" s="171"/>
+      <c r="AA75" s="171"/>
+      <c r="AB75" s="171"/>
+      <c r="AC75" s="171"/>
+      <c r="AD75" s="171"/>
+      <c r="AE75" s="171"/>
+      <c r="AF75" s="171"/>
+      <c r="AG75" s="171"/>
+      <c r="AH75" s="171"/>
+      <c r="AI75" s="171"/>
+      <c r="AJ75" s="171"/>
+      <c r="AK75" s="171"/>
+      <c r="AL75" s="171"/>
+      <c r="AM75" s="171"/>
+      <c r="AN75" s="171"/>
+      <c r="AO75" s="171"/>
+      <c r="AP75" s="171"/>
+      <c r="AQ75" s="171"/>
+      <c r="AR75" s="171"/>
+      <c r="AS75" s="171"/>
+      <c r="AT75" s="171"/>
+      <c r="AU75" s="171"/>
+      <c r="AV75" s="171"/>
+      <c r="AW75" s="171"/>
+      <c r="AX75" s="171"/>
+      <c r="AY75" s="171"/>
+      <c r="AZ75" s="171"/>
+      <c r="BA75" s="171"/>
+      <c r="BB75" s="171"/>
+      <c r="BC75" s="171"/>
+      <c r="BD75" s="171"/>
+      <c r="BE75" s="171"/>
+      <c r="BF75" s="171"/>
+      <c r="BG75" s="171"/>
+      <c r="BH75" s="171"/>
+      <c r="BI75" s="171"/>
+      <c r="BJ75" s="171"/>
+      <c r="BK75" s="171"/>
+      <c r="BL75" s="171"/>
+      <c r="BM75" s="171"/>
+      <c r="BN75" s="171"/>
+      <c r="BO75" s="171"/>
+      <c r="BP75" s="171"/>
+      <c r="BQ75" s="171"/>
+      <c r="BR75" s="172"/>
     </row>
     <row r="76" spans="1:70" s="55" customFormat="1">
       <c r="A76" s="58" t="str">
         <f t="shared" si="64"/>
         <v>3.2</v>
       </c>
-      <c r="B76" s="182" t="s">
+      <c r="B76" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="182"/>
-      <c r="D76" s="182"/>
-      <c r="E76" s="182"/>
-      <c r="F76" s="182"/>
-      <c r="G76" s="182"/>
-      <c r="H76" s="182"/>
-      <c r="I76" s="182"/>
-      <c r="J76" s="182"/>
-      <c r="K76" s="182"/>
-      <c r="L76" s="182"/>
-      <c r="M76" s="182"/>
-      <c r="N76" s="182"/>
-      <c r="O76" s="182"/>
-      <c r="P76" s="182"/>
-      <c r="Q76" s="182"/>
-      <c r="R76" s="182"/>
-      <c r="S76" s="182"/>
-      <c r="T76" s="182"/>
-      <c r="U76" s="182"/>
-      <c r="V76" s="182"/>
-      <c r="W76" s="182"/>
-      <c r="X76" s="182"/>
-      <c r="Y76" s="182"/>
-      <c r="Z76" s="182"/>
-      <c r="AA76" s="182"/>
-      <c r="AB76" s="182"/>
-      <c r="AC76" s="182"/>
-      <c r="AD76" s="182"/>
-      <c r="AE76" s="182"/>
-      <c r="AF76" s="182"/>
-      <c r="AG76" s="182"/>
-      <c r="AH76" s="182"/>
-      <c r="AI76" s="182"/>
-      <c r="AJ76" s="182"/>
-      <c r="AK76" s="182"/>
-      <c r="AL76" s="182"/>
-      <c r="AM76" s="182"/>
-      <c r="AN76" s="182"/>
-      <c r="AO76" s="182"/>
-      <c r="AP76" s="182"/>
-      <c r="AQ76" s="182"/>
-      <c r="AR76" s="182"/>
-      <c r="AS76" s="182"/>
-      <c r="AT76" s="182"/>
-      <c r="AU76" s="182"/>
-      <c r="AV76" s="182"/>
-      <c r="AW76" s="182"/>
-      <c r="AX76" s="182"/>
-      <c r="AY76" s="182"/>
-      <c r="AZ76" s="182"/>
-      <c r="BA76" s="182"/>
-      <c r="BB76" s="182"/>
-      <c r="BC76" s="182"/>
-      <c r="BD76" s="182"/>
-      <c r="BE76" s="182"/>
-      <c r="BF76" s="182"/>
-      <c r="BG76" s="182"/>
-      <c r="BH76" s="182"/>
-      <c r="BI76" s="182"/>
-      <c r="BJ76" s="182"/>
-      <c r="BK76" s="182"/>
-      <c r="BL76" s="182"/>
-      <c r="BM76" s="182"/>
-      <c r="BN76" s="182"/>
-      <c r="BO76" s="182"/>
-      <c r="BP76" s="182"/>
-      <c r="BQ76" s="182"/>
-      <c r="BR76" s="183"/>
+      <c r="C76" s="173"/>
+      <c r="D76" s="173"/>
+      <c r="E76" s="173"/>
+      <c r="F76" s="173"/>
+      <c r="G76" s="173"/>
+      <c r="H76" s="173"/>
+      <c r="I76" s="173"/>
+      <c r="J76" s="173"/>
+      <c r="K76" s="173"/>
+      <c r="L76" s="173"/>
+      <c r="M76" s="173"/>
+      <c r="N76" s="173"/>
+      <c r="O76" s="173"/>
+      <c r="P76" s="173"/>
+      <c r="Q76" s="173"/>
+      <c r="R76" s="173"/>
+      <c r="S76" s="173"/>
+      <c r="T76" s="173"/>
+      <c r="U76" s="173"/>
+      <c r="V76" s="173"/>
+      <c r="W76" s="173"/>
+      <c r="X76" s="173"/>
+      <c r="Y76" s="173"/>
+      <c r="Z76" s="173"/>
+      <c r="AA76" s="173"/>
+      <c r="AB76" s="173"/>
+      <c r="AC76" s="173"/>
+      <c r="AD76" s="173"/>
+      <c r="AE76" s="173"/>
+      <c r="AF76" s="173"/>
+      <c r="AG76" s="173"/>
+      <c r="AH76" s="173"/>
+      <c r="AI76" s="173"/>
+      <c r="AJ76" s="173"/>
+      <c r="AK76" s="173"/>
+      <c r="AL76" s="173"/>
+      <c r="AM76" s="173"/>
+      <c r="AN76" s="173"/>
+      <c r="AO76" s="173"/>
+      <c r="AP76" s="173"/>
+      <c r="AQ76" s="173"/>
+      <c r="AR76" s="173"/>
+      <c r="AS76" s="173"/>
+      <c r="AT76" s="173"/>
+      <c r="AU76" s="173"/>
+      <c r="AV76" s="173"/>
+      <c r="AW76" s="173"/>
+      <c r="AX76" s="173"/>
+      <c r="AY76" s="173"/>
+      <c r="AZ76" s="173"/>
+      <c r="BA76" s="173"/>
+      <c r="BB76" s="173"/>
+      <c r="BC76" s="173"/>
+      <c r="BD76" s="173"/>
+      <c r="BE76" s="173"/>
+      <c r="BF76" s="173"/>
+      <c r="BG76" s="173"/>
+      <c r="BH76" s="173"/>
+      <c r="BI76" s="173"/>
+      <c r="BJ76" s="173"/>
+      <c r="BK76" s="173"/>
+      <c r="BL76" s="173"/>
+      <c r="BM76" s="173"/>
+      <c r="BN76" s="173"/>
+      <c r="BO76" s="173"/>
+      <c r="BP76" s="173"/>
+      <c r="BQ76" s="173"/>
+      <c r="BR76" s="174"/>
     </row>
     <row r="77" spans="1:70" s="55" customFormat="1">
       <c r="A77" s="58" t="str">
         <f t="shared" si="64"/>
         <v>3.3</v>
       </c>
-      <c r="B77" s="182" t="s">
+      <c r="B77" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="182"/>
-      <c r="D77" s="182"/>
-      <c r="E77" s="182"/>
-      <c r="F77" s="182"/>
-      <c r="G77" s="182"/>
-      <c r="H77" s="182"/>
-      <c r="I77" s="182"/>
-      <c r="J77" s="182"/>
-      <c r="K77" s="182"/>
-      <c r="L77" s="182"/>
-      <c r="M77" s="182"/>
-      <c r="N77" s="182"/>
-      <c r="O77" s="182"/>
-      <c r="P77" s="182"/>
-      <c r="Q77" s="182"/>
-      <c r="R77" s="182"/>
-      <c r="S77" s="182"/>
-      <c r="T77" s="182"/>
-      <c r="U77" s="182"/>
-      <c r="V77" s="182"/>
-      <c r="W77" s="182"/>
-      <c r="X77" s="182"/>
-      <c r="Y77" s="182"/>
-      <c r="Z77" s="182"/>
-      <c r="AA77" s="182"/>
-      <c r="AB77" s="182"/>
-      <c r="AC77" s="182"/>
-      <c r="AD77" s="182"/>
-      <c r="AE77" s="182"/>
-      <c r="AF77" s="182"/>
-      <c r="AG77" s="182"/>
-      <c r="AH77" s="182"/>
-      <c r="AI77" s="182"/>
-      <c r="AJ77" s="182"/>
-      <c r="AK77" s="182"/>
-      <c r="AL77" s="182"/>
-      <c r="AM77" s="182"/>
-      <c r="AN77" s="182"/>
-      <c r="AO77" s="182"/>
-      <c r="AP77" s="182"/>
-      <c r="AQ77" s="182"/>
-      <c r="AR77" s="182"/>
-      <c r="AS77" s="182"/>
-      <c r="AT77" s="182"/>
-      <c r="AU77" s="182"/>
-      <c r="AV77" s="182"/>
-      <c r="AW77" s="182"/>
-      <c r="AX77" s="182"/>
-      <c r="AY77" s="182"/>
-      <c r="AZ77" s="182"/>
-      <c r="BA77" s="182"/>
-      <c r="BB77" s="182"/>
-      <c r="BC77" s="182"/>
-      <c r="BD77" s="182"/>
-      <c r="BE77" s="182"/>
-      <c r="BF77" s="182"/>
-      <c r="BG77" s="182"/>
-      <c r="BH77" s="182"/>
-      <c r="BI77" s="182"/>
-      <c r="BJ77" s="182"/>
-      <c r="BK77" s="182"/>
-      <c r="BL77" s="182"/>
-      <c r="BM77" s="182"/>
-      <c r="BN77" s="182"/>
-      <c r="BO77" s="182"/>
-      <c r="BP77" s="182"/>
-      <c r="BQ77" s="182"/>
-      <c r="BR77" s="183"/>
+      <c r="C77" s="173"/>
+      <c r="D77" s="173"/>
+      <c r="E77" s="173"/>
+      <c r="F77" s="173"/>
+      <c r="G77" s="173"/>
+      <c r="H77" s="173"/>
+      <c r="I77" s="173"/>
+      <c r="J77" s="173"/>
+      <c r="K77" s="173"/>
+      <c r="L77" s="173"/>
+      <c r="M77" s="173"/>
+      <c r="N77" s="173"/>
+      <c r="O77" s="173"/>
+      <c r="P77" s="173"/>
+      <c r="Q77" s="173"/>
+      <c r="R77" s="173"/>
+      <c r="S77" s="173"/>
+      <c r="T77" s="173"/>
+      <c r="U77" s="173"/>
+      <c r="V77" s="173"/>
+      <c r="W77" s="173"/>
+      <c r="X77" s="173"/>
+      <c r="Y77" s="173"/>
+      <c r="Z77" s="173"/>
+      <c r="AA77" s="173"/>
+      <c r="AB77" s="173"/>
+      <c r="AC77" s="173"/>
+      <c r="AD77" s="173"/>
+      <c r="AE77" s="173"/>
+      <c r="AF77" s="173"/>
+      <c r="AG77" s="173"/>
+      <c r="AH77" s="173"/>
+      <c r="AI77" s="173"/>
+      <c r="AJ77" s="173"/>
+      <c r="AK77" s="173"/>
+      <c r="AL77" s="173"/>
+      <c r="AM77" s="173"/>
+      <c r="AN77" s="173"/>
+      <c r="AO77" s="173"/>
+      <c r="AP77" s="173"/>
+      <c r="AQ77" s="173"/>
+      <c r="AR77" s="173"/>
+      <c r="AS77" s="173"/>
+      <c r="AT77" s="173"/>
+      <c r="AU77" s="173"/>
+      <c r="AV77" s="173"/>
+      <c r="AW77" s="173"/>
+      <c r="AX77" s="173"/>
+      <c r="AY77" s="173"/>
+      <c r="AZ77" s="173"/>
+      <c r="BA77" s="173"/>
+      <c r="BB77" s="173"/>
+      <c r="BC77" s="173"/>
+      <c r="BD77" s="173"/>
+      <c r="BE77" s="173"/>
+      <c r="BF77" s="173"/>
+      <c r="BG77" s="173"/>
+      <c r="BH77" s="173"/>
+      <c r="BI77" s="173"/>
+      <c r="BJ77" s="173"/>
+      <c r="BK77" s="173"/>
+      <c r="BL77" s="173"/>
+      <c r="BM77" s="173"/>
+      <c r="BN77" s="173"/>
+      <c r="BO77" s="173"/>
+      <c r="BP77" s="173"/>
+      <c r="BQ77" s="173"/>
+      <c r="BR77" s="174"/>
     </row>
     <row r="78" spans="1:70" s="55" customFormat="1">
       <c r="A78" s="58" t="str">
         <f t="shared" si="64"/>
         <v>3.4</v>
       </c>
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="182"/>
-      <c r="D78" s="182"/>
-      <c r="E78" s="182"/>
-      <c r="F78" s="182"/>
-      <c r="G78" s="182"/>
-      <c r="H78" s="182"/>
-      <c r="I78" s="182"/>
-      <c r="J78" s="182"/>
-      <c r="K78" s="182"/>
-      <c r="L78" s="182"/>
-      <c r="M78" s="182"/>
-      <c r="N78" s="182"/>
-      <c r="O78" s="182"/>
-      <c r="P78" s="182"/>
-      <c r="Q78" s="182"/>
-      <c r="R78" s="182"/>
-      <c r="S78" s="182"/>
-      <c r="T78" s="182"/>
-      <c r="U78" s="182"/>
-      <c r="V78" s="182"/>
-      <c r="W78" s="182"/>
-      <c r="X78" s="182"/>
-      <c r="Y78" s="182"/>
-      <c r="Z78" s="182"/>
-      <c r="AA78" s="182"/>
-      <c r="AB78" s="182"/>
-      <c r="AC78" s="182"/>
-      <c r="AD78" s="182"/>
-      <c r="AE78" s="182"/>
-      <c r="AF78" s="182"/>
-      <c r="AG78" s="182"/>
-      <c r="AH78" s="182"/>
-      <c r="AI78" s="182"/>
-      <c r="AJ78" s="182"/>
-      <c r="AK78" s="182"/>
-      <c r="AL78" s="182"/>
-      <c r="AM78" s="182"/>
-      <c r="AN78" s="182"/>
-      <c r="AO78" s="182"/>
-      <c r="AP78" s="182"/>
-      <c r="AQ78" s="182"/>
-      <c r="AR78" s="182"/>
-      <c r="AS78" s="182"/>
-      <c r="AT78" s="182"/>
-      <c r="AU78" s="182"/>
-      <c r="AV78" s="182"/>
-      <c r="AW78" s="182"/>
-      <c r="AX78" s="182"/>
-      <c r="AY78" s="182"/>
-      <c r="AZ78" s="182"/>
-      <c r="BA78" s="182"/>
-      <c r="BB78" s="182"/>
-      <c r="BC78" s="182"/>
-      <c r="BD78" s="182"/>
-      <c r="BE78" s="182"/>
-      <c r="BF78" s="182"/>
-      <c r="BG78" s="182"/>
-      <c r="BH78" s="182"/>
-      <c r="BI78" s="182"/>
-      <c r="BJ78" s="182"/>
-      <c r="BK78" s="182"/>
-      <c r="BL78" s="182"/>
-      <c r="BM78" s="182"/>
-      <c r="BN78" s="182"/>
-      <c r="BO78" s="182"/>
-      <c r="BP78" s="182"/>
-      <c r="BQ78" s="182"/>
-      <c r="BR78" s="183"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
+      <c r="E78" s="173"/>
+      <c r="F78" s="173"/>
+      <c r="G78" s="173"/>
+      <c r="H78" s="173"/>
+      <c r="I78" s="173"/>
+      <c r="J78" s="173"/>
+      <c r="K78" s="173"/>
+      <c r="L78" s="173"/>
+      <c r="M78" s="173"/>
+      <c r="N78" s="173"/>
+      <c r="O78" s="173"/>
+      <c r="P78" s="173"/>
+      <c r="Q78" s="173"/>
+      <c r="R78" s="173"/>
+      <c r="S78" s="173"/>
+      <c r="T78" s="173"/>
+      <c r="U78" s="173"/>
+      <c r="V78" s="173"/>
+      <c r="W78" s="173"/>
+      <c r="X78" s="173"/>
+      <c r="Y78" s="173"/>
+      <c r="Z78" s="173"/>
+      <c r="AA78" s="173"/>
+      <c r="AB78" s="173"/>
+      <c r="AC78" s="173"/>
+      <c r="AD78" s="173"/>
+      <c r="AE78" s="173"/>
+      <c r="AF78" s="173"/>
+      <c r="AG78" s="173"/>
+      <c r="AH78" s="173"/>
+      <c r="AI78" s="173"/>
+      <c r="AJ78" s="173"/>
+      <c r="AK78" s="173"/>
+      <c r="AL78" s="173"/>
+      <c r="AM78" s="173"/>
+      <c r="AN78" s="173"/>
+      <c r="AO78" s="173"/>
+      <c r="AP78" s="173"/>
+      <c r="AQ78" s="173"/>
+      <c r="AR78" s="173"/>
+      <c r="AS78" s="173"/>
+      <c r="AT78" s="173"/>
+      <c r="AU78" s="173"/>
+      <c r="AV78" s="173"/>
+      <c r="AW78" s="173"/>
+      <c r="AX78" s="173"/>
+      <c r="AY78" s="173"/>
+      <c r="AZ78" s="173"/>
+      <c r="BA78" s="173"/>
+      <c r="BB78" s="173"/>
+      <c r="BC78" s="173"/>
+      <c r="BD78" s="173"/>
+      <c r="BE78" s="173"/>
+      <c r="BF78" s="173"/>
+      <c r="BG78" s="173"/>
+      <c r="BH78" s="173"/>
+      <c r="BI78" s="173"/>
+      <c r="BJ78" s="173"/>
+      <c r="BK78" s="173"/>
+      <c r="BL78" s="173"/>
+      <c r="BM78" s="173"/>
+      <c r="BN78" s="173"/>
+      <c r="BO78" s="173"/>
+      <c r="BP78" s="173"/>
+      <c r="BQ78" s="173"/>
+      <c r="BR78" s="174"/>
     </row>
     <row r="79" spans="1:70" s="55" customFormat="1">
       <c r="A79" s="58" t="str">
         <f t="shared" si="64"/>
         <v>3.5</v>
       </c>
-      <c r="B79" s="182" t="s">
+      <c r="B79" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="182"/>
-      <c r="D79" s="182"/>
-      <c r="E79" s="182"/>
-      <c r="F79" s="182"/>
-      <c r="G79" s="182"/>
-      <c r="H79" s="182"/>
-      <c r="I79" s="182"/>
-      <c r="J79" s="182"/>
-      <c r="K79" s="182"/>
-      <c r="L79" s="182"/>
-      <c r="M79" s="182"/>
-      <c r="N79" s="182"/>
-      <c r="O79" s="182"/>
-      <c r="P79" s="182"/>
-      <c r="Q79" s="182"/>
-      <c r="R79" s="182"/>
-      <c r="S79" s="182"/>
-      <c r="T79" s="182"/>
-      <c r="U79" s="182"/>
-      <c r="V79" s="182"/>
-      <c r="W79" s="182"/>
-      <c r="X79" s="182"/>
-      <c r="Y79" s="182"/>
-      <c r="Z79" s="182"/>
-      <c r="AA79" s="182"/>
-      <c r="AB79" s="182"/>
-      <c r="AC79" s="182"/>
-      <c r="AD79" s="182"/>
-      <c r="AE79" s="182"/>
-      <c r="AF79" s="182"/>
-      <c r="AG79" s="182"/>
-      <c r="AH79" s="182"/>
-      <c r="AI79" s="182"/>
-      <c r="AJ79" s="182"/>
-      <c r="AK79" s="182"/>
-      <c r="AL79" s="182"/>
-      <c r="AM79" s="182"/>
-      <c r="AN79" s="182"/>
-      <c r="AO79" s="182"/>
-      <c r="AP79" s="182"/>
-      <c r="AQ79" s="182"/>
-      <c r="AR79" s="182"/>
-      <c r="AS79" s="182"/>
-      <c r="AT79" s="182"/>
-      <c r="AU79" s="182"/>
-      <c r="AV79" s="182"/>
-      <c r="AW79" s="182"/>
-      <c r="AX79" s="182"/>
-      <c r="AY79" s="182"/>
-      <c r="AZ79" s="182"/>
-      <c r="BA79" s="182"/>
-      <c r="BB79" s="182"/>
-      <c r="BC79" s="182"/>
-      <c r="BD79" s="182"/>
-      <c r="BE79" s="182"/>
-      <c r="BF79" s="182"/>
-      <c r="BG79" s="182"/>
-      <c r="BH79" s="182"/>
-      <c r="BI79" s="182"/>
-      <c r="BJ79" s="182"/>
-      <c r="BK79" s="182"/>
-      <c r="BL79" s="182"/>
-      <c r="BM79" s="182"/>
-      <c r="BN79" s="182"/>
-      <c r="BO79" s="182"/>
-      <c r="BP79" s="182"/>
-      <c r="BQ79" s="182"/>
-      <c r="BR79" s="183"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="173"/>
+      <c r="E79" s="173"/>
+      <c r="F79" s="173"/>
+      <c r="G79" s="173"/>
+      <c r="H79" s="173"/>
+      <c r="I79" s="173"/>
+      <c r="J79" s="173"/>
+      <c r="K79" s="173"/>
+      <c r="L79" s="173"/>
+      <c r="M79" s="173"/>
+      <c r="N79" s="173"/>
+      <c r="O79" s="173"/>
+      <c r="P79" s="173"/>
+      <c r="Q79" s="173"/>
+      <c r="R79" s="173"/>
+      <c r="S79" s="173"/>
+      <c r="T79" s="173"/>
+      <c r="U79" s="173"/>
+      <c r="V79" s="173"/>
+      <c r="W79" s="173"/>
+      <c r="X79" s="173"/>
+      <c r="Y79" s="173"/>
+      <c r="Z79" s="173"/>
+      <c r="AA79" s="173"/>
+      <c r="AB79" s="173"/>
+      <c r="AC79" s="173"/>
+      <c r="AD79" s="173"/>
+      <c r="AE79" s="173"/>
+      <c r="AF79" s="173"/>
+      <c r="AG79" s="173"/>
+      <c r="AH79" s="173"/>
+      <c r="AI79" s="173"/>
+      <c r="AJ79" s="173"/>
+      <c r="AK79" s="173"/>
+      <c r="AL79" s="173"/>
+      <c r="AM79" s="173"/>
+      <c r="AN79" s="173"/>
+      <c r="AO79" s="173"/>
+      <c r="AP79" s="173"/>
+      <c r="AQ79" s="173"/>
+      <c r="AR79" s="173"/>
+      <c r="AS79" s="173"/>
+      <c r="AT79" s="173"/>
+      <c r="AU79" s="173"/>
+      <c r="AV79" s="173"/>
+      <c r="AW79" s="173"/>
+      <c r="AX79" s="173"/>
+      <c r="AY79" s="173"/>
+      <c r="AZ79" s="173"/>
+      <c r="BA79" s="173"/>
+      <c r="BB79" s="173"/>
+      <c r="BC79" s="173"/>
+      <c r="BD79" s="173"/>
+      <c r="BE79" s="173"/>
+      <c r="BF79" s="173"/>
+      <c r="BG79" s="173"/>
+      <c r="BH79" s="173"/>
+      <c r="BI79" s="173"/>
+      <c r="BJ79" s="173"/>
+      <c r="BK79" s="173"/>
+      <c r="BL79" s="173"/>
+      <c r="BM79" s="173"/>
+      <c r="BN79" s="173"/>
+      <c r="BO79" s="173"/>
+      <c r="BP79" s="173"/>
+      <c r="BQ79" s="173"/>
+      <c r="BR79" s="174"/>
     </row>
     <row r="80" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A80" s="59" t="str">
         <f t="shared" si="64"/>
         <v>3.6</v>
       </c>
-      <c r="B80" s="186" t="s">
+      <c r="B80" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="186"/>
-      <c r="D80" s="186"/>
-      <c r="E80" s="186"/>
-      <c r="F80" s="186"/>
-      <c r="G80" s="186"/>
-      <c r="H80" s="186"/>
-      <c r="I80" s="186"/>
-      <c r="J80" s="186"/>
-      <c r="K80" s="186"/>
-      <c r="L80" s="186"/>
-      <c r="M80" s="186"/>
-      <c r="N80" s="186"/>
-      <c r="O80" s="186"/>
-      <c r="P80" s="186"/>
-      <c r="Q80" s="186"/>
-      <c r="R80" s="186"/>
-      <c r="S80" s="186"/>
-      <c r="T80" s="186"/>
-      <c r="U80" s="186"/>
-      <c r="V80" s="186"/>
-      <c r="W80" s="186"/>
-      <c r="X80" s="186"/>
-      <c r="Y80" s="186"/>
-      <c r="Z80" s="186"/>
-      <c r="AA80" s="186"/>
-      <c r="AB80" s="186"/>
-      <c r="AC80" s="186"/>
-      <c r="AD80" s="186"/>
-      <c r="AE80" s="186"/>
-      <c r="AF80" s="186"/>
-      <c r="AG80" s="186"/>
-      <c r="AH80" s="186"/>
-      <c r="AI80" s="186"/>
-      <c r="AJ80" s="186"/>
-      <c r="AK80" s="186"/>
-      <c r="AL80" s="186"/>
-      <c r="AM80" s="186"/>
-      <c r="AN80" s="186"/>
-      <c r="AO80" s="186"/>
-      <c r="AP80" s="186"/>
-      <c r="AQ80" s="186"/>
-      <c r="AR80" s="186"/>
-      <c r="AS80" s="186"/>
-      <c r="AT80" s="186"/>
-      <c r="AU80" s="186"/>
-      <c r="AV80" s="186"/>
-      <c r="AW80" s="186"/>
-      <c r="AX80" s="186"/>
-      <c r="AY80" s="186"/>
-      <c r="AZ80" s="186"/>
-      <c r="BA80" s="186"/>
-      <c r="BB80" s="186"/>
-      <c r="BC80" s="186"/>
-      <c r="BD80" s="186"/>
-      <c r="BE80" s="186"/>
-      <c r="BF80" s="186"/>
-      <c r="BG80" s="186"/>
-      <c r="BH80" s="186"/>
-      <c r="BI80" s="186"/>
-      <c r="BJ80" s="186"/>
-      <c r="BK80" s="186"/>
-      <c r="BL80" s="186"/>
-      <c r="BM80" s="186"/>
-      <c r="BN80" s="186"/>
-      <c r="BO80" s="186"/>
-      <c r="BP80" s="186"/>
-      <c r="BQ80" s="186"/>
-      <c r="BR80" s="187"/>
+      <c r="C80" s="175"/>
+      <c r="D80" s="175"/>
+      <c r="E80" s="175"/>
+      <c r="F80" s="175"/>
+      <c r="G80" s="175"/>
+      <c r="H80" s="175"/>
+      <c r="I80" s="175"/>
+      <c r="J80" s="175"/>
+      <c r="K80" s="175"/>
+      <c r="L80" s="175"/>
+      <c r="M80" s="175"/>
+      <c r="N80" s="175"/>
+      <c r="O80" s="175"/>
+      <c r="P80" s="175"/>
+      <c r="Q80" s="175"/>
+      <c r="R80" s="175"/>
+      <c r="S80" s="175"/>
+      <c r="T80" s="175"/>
+      <c r="U80" s="175"/>
+      <c r="V80" s="175"/>
+      <c r="W80" s="175"/>
+      <c r="X80" s="175"/>
+      <c r="Y80" s="175"/>
+      <c r="Z80" s="175"/>
+      <c r="AA80" s="175"/>
+      <c r="AB80" s="175"/>
+      <c r="AC80" s="175"/>
+      <c r="AD80" s="175"/>
+      <c r="AE80" s="175"/>
+      <c r="AF80" s="175"/>
+      <c r="AG80" s="175"/>
+      <c r="AH80" s="175"/>
+      <c r="AI80" s="175"/>
+      <c r="AJ80" s="175"/>
+      <c r="AK80" s="175"/>
+      <c r="AL80" s="175"/>
+      <c r="AM80" s="175"/>
+      <c r="AN80" s="175"/>
+      <c r="AO80" s="175"/>
+      <c r="AP80" s="175"/>
+      <c r="AQ80" s="175"/>
+      <c r="AR80" s="175"/>
+      <c r="AS80" s="175"/>
+      <c r="AT80" s="175"/>
+      <c r="AU80" s="175"/>
+      <c r="AV80" s="175"/>
+      <c r="AW80" s="175"/>
+      <c r="AX80" s="175"/>
+      <c r="AY80" s="175"/>
+      <c r="AZ80" s="175"/>
+      <c r="BA80" s="175"/>
+      <c r="BB80" s="175"/>
+      <c r="BC80" s="175"/>
+      <c r="BD80" s="175"/>
+      <c r="BE80" s="175"/>
+      <c r="BF80" s="175"/>
+      <c r="BG80" s="175"/>
+      <c r="BH80" s="175"/>
+      <c r="BI80" s="175"/>
+      <c r="BJ80" s="175"/>
+      <c r="BK80" s="175"/>
+      <c r="BL80" s="175"/>
+      <c r="BM80" s="175"/>
+      <c r="BN80" s="175"/>
+      <c r="BO80" s="175"/>
+      <c r="BP80" s="175"/>
+      <c r="BQ80" s="175"/>
+      <c r="BR80" s="176"/>
     </row>
     <row r="81" spans="1:70" ht="17.25" thickBot="1">
       <c r="A81" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B81" s="184" t="s">
+      <c r="B81" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="184"/>
-      <c r="D81" s="184"/>
-      <c r="E81" s="184"/>
-      <c r="F81" s="184"/>
-      <c r="G81" s="184"/>
-      <c r="H81" s="184"/>
-      <c r="I81" s="184"/>
-      <c r="J81" s="184"/>
-      <c r="K81" s="184"/>
-      <c r="L81" s="184"/>
-      <c r="M81" s="184"/>
-      <c r="N81" s="184"/>
-      <c r="O81" s="184"/>
-      <c r="P81" s="184"/>
-      <c r="Q81" s="184"/>
-      <c r="R81" s="184"/>
-      <c r="S81" s="184"/>
-      <c r="T81" s="184"/>
-      <c r="U81" s="184"/>
-      <c r="V81" s="184"/>
-      <c r="W81" s="184"/>
-      <c r="X81" s="184"/>
-      <c r="Y81" s="184"/>
-      <c r="Z81" s="184"/>
-      <c r="AA81" s="184"/>
-      <c r="AB81" s="184"/>
-      <c r="AC81" s="184"/>
-      <c r="AD81" s="184"/>
-      <c r="AE81" s="184"/>
-      <c r="AF81" s="184"/>
-      <c r="AG81" s="184"/>
-      <c r="AH81" s="184"/>
-      <c r="AI81" s="184"/>
-      <c r="AJ81" s="184"/>
-      <c r="AK81" s="184"/>
-      <c r="AL81" s="184"/>
-      <c r="AM81" s="184"/>
-      <c r="AN81" s="184"/>
-      <c r="AO81" s="184"/>
-      <c r="AP81" s="184"/>
-      <c r="AQ81" s="184"/>
-      <c r="AR81" s="184"/>
-      <c r="AS81" s="184"/>
-      <c r="AT81" s="184"/>
-      <c r="AU81" s="184"/>
-      <c r="AV81" s="184"/>
-      <c r="AW81" s="184"/>
-      <c r="AX81" s="184"/>
-      <c r="AY81" s="184"/>
-      <c r="AZ81" s="184"/>
-      <c r="BA81" s="184"/>
-      <c r="BB81" s="184"/>
-      <c r="BC81" s="184"/>
-      <c r="BD81" s="184"/>
-      <c r="BE81" s="184"/>
-      <c r="BF81" s="184"/>
-      <c r="BG81" s="184"/>
-      <c r="BH81" s="184"/>
-      <c r="BI81" s="184"/>
-      <c r="BJ81" s="184"/>
-      <c r="BK81" s="184"/>
-      <c r="BL81" s="184"/>
-      <c r="BM81" s="184"/>
-      <c r="BN81" s="184"/>
-      <c r="BO81" s="184"/>
-      <c r="BP81" s="184"/>
-      <c r="BQ81" s="184"/>
-      <c r="BR81" s="185"/>
+      <c r="C81" s="169"/>
+      <c r="D81" s="169"/>
+      <c r="E81" s="169"/>
+      <c r="F81" s="169"/>
+      <c r="G81" s="169"/>
+      <c r="H81" s="169"/>
+      <c r="I81" s="169"/>
+      <c r="J81" s="169"/>
+      <c r="K81" s="169"/>
+      <c r="L81" s="169"/>
+      <c r="M81" s="169"/>
+      <c r="N81" s="169"/>
+      <c r="O81" s="169"/>
+      <c r="P81" s="169"/>
+      <c r="Q81" s="169"/>
+      <c r="R81" s="169"/>
+      <c r="S81" s="169"/>
+      <c r="T81" s="169"/>
+      <c r="U81" s="169"/>
+      <c r="V81" s="169"/>
+      <c r="W81" s="169"/>
+      <c r="X81" s="169"/>
+      <c r="Y81" s="169"/>
+      <c r="Z81" s="169"/>
+      <c r="AA81" s="169"/>
+      <c r="AB81" s="169"/>
+      <c r="AC81" s="169"/>
+      <c r="AD81" s="169"/>
+      <c r="AE81" s="169"/>
+      <c r="AF81" s="169"/>
+      <c r="AG81" s="169"/>
+      <c r="AH81" s="169"/>
+      <c r="AI81" s="169"/>
+      <c r="AJ81" s="169"/>
+      <c r="AK81" s="169"/>
+      <c r="AL81" s="169"/>
+      <c r="AM81" s="169"/>
+      <c r="AN81" s="169"/>
+      <c r="AO81" s="169"/>
+      <c r="AP81" s="169"/>
+      <c r="AQ81" s="169"/>
+      <c r="AR81" s="169"/>
+      <c r="AS81" s="169"/>
+      <c r="AT81" s="169"/>
+      <c r="AU81" s="169"/>
+      <c r="AV81" s="169"/>
+      <c r="AW81" s="169"/>
+      <c r="AX81" s="169"/>
+      <c r="AY81" s="169"/>
+      <c r="AZ81" s="169"/>
+      <c r="BA81" s="169"/>
+      <c r="BB81" s="169"/>
+      <c r="BC81" s="169"/>
+      <c r="BD81" s="169"/>
+      <c r="BE81" s="169"/>
+      <c r="BF81" s="169"/>
+      <c r="BG81" s="169"/>
+      <c r="BH81" s="169"/>
+      <c r="BI81" s="169"/>
+      <c r="BJ81" s="169"/>
+      <c r="BK81" s="169"/>
+      <c r="BL81" s="169"/>
+      <c r="BM81" s="169"/>
+      <c r="BN81" s="169"/>
+      <c r="BO81" s="169"/>
+      <c r="BP81" s="169"/>
+      <c r="BQ81" s="169"/>
+      <c r="BR81" s="170"/>
     </row>
     <row r="82" spans="1:70" s="55" customFormat="1">
       <c r="A82" s="57" t="str">
         <f t="shared" ref="A82:A88" si="65">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
-      <c r="B82" s="180" t="s">
+      <c r="B82" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="180"/>
-      <c r="D82" s="180"/>
-      <c r="E82" s="180"/>
-      <c r="F82" s="180"/>
-      <c r="G82" s="180"/>
-      <c r="H82" s="180"/>
-      <c r="I82" s="180"/>
-      <c r="J82" s="180"/>
-      <c r="K82" s="180"/>
-      <c r="L82" s="180"/>
-      <c r="M82" s="180"/>
-      <c r="N82" s="180"/>
-      <c r="O82" s="180"/>
-      <c r="P82" s="180"/>
-      <c r="Q82" s="180"/>
-      <c r="R82" s="180"/>
-      <c r="S82" s="180"/>
-      <c r="T82" s="180"/>
-      <c r="U82" s="180"/>
-      <c r="V82" s="180"/>
-      <c r="W82" s="180"/>
-      <c r="X82" s="180"/>
-      <c r="Y82" s="180"/>
-      <c r="Z82" s="180"/>
-      <c r="AA82" s="180"/>
-      <c r="AB82" s="180"/>
-      <c r="AC82" s="180"/>
-      <c r="AD82" s="180"/>
-      <c r="AE82" s="180"/>
-      <c r="AF82" s="180"/>
-      <c r="AG82" s="180"/>
-      <c r="AH82" s="180"/>
-      <c r="AI82" s="180"/>
-      <c r="AJ82" s="180"/>
-      <c r="AK82" s="180"/>
-      <c r="AL82" s="180"/>
-      <c r="AM82" s="180"/>
-      <c r="AN82" s="180"/>
-      <c r="AO82" s="180"/>
-      <c r="AP82" s="180"/>
-      <c r="AQ82" s="180"/>
-      <c r="AR82" s="180"/>
-      <c r="AS82" s="180"/>
-      <c r="AT82" s="180"/>
-      <c r="AU82" s="180"/>
-      <c r="AV82" s="180"/>
-      <c r="AW82" s="180"/>
-      <c r="AX82" s="180"/>
-      <c r="AY82" s="180"/>
-      <c r="AZ82" s="180"/>
-      <c r="BA82" s="180"/>
-      <c r="BB82" s="180"/>
-      <c r="BC82" s="180"/>
-      <c r="BD82" s="180"/>
-      <c r="BE82" s="180"/>
-      <c r="BF82" s="180"/>
-      <c r="BG82" s="180"/>
-      <c r="BH82" s="180"/>
-      <c r="BI82" s="180"/>
-      <c r="BJ82" s="180"/>
-      <c r="BK82" s="180"/>
-      <c r="BL82" s="180"/>
-      <c r="BM82" s="180"/>
-      <c r="BN82" s="180"/>
-      <c r="BO82" s="180"/>
-      <c r="BP82" s="180"/>
-      <c r="BQ82" s="180"/>
-      <c r="BR82" s="181"/>
+      <c r="C82" s="171"/>
+      <c r="D82" s="171"/>
+      <c r="E82" s="171"/>
+      <c r="F82" s="171"/>
+      <c r="G82" s="171"/>
+      <c r="H82" s="171"/>
+      <c r="I82" s="171"/>
+      <c r="J82" s="171"/>
+      <c r="K82" s="171"/>
+      <c r="L82" s="171"/>
+      <c r="M82" s="171"/>
+      <c r="N82" s="171"/>
+      <c r="O82" s="171"/>
+      <c r="P82" s="171"/>
+      <c r="Q82" s="171"/>
+      <c r="R82" s="171"/>
+      <c r="S82" s="171"/>
+      <c r="T82" s="171"/>
+      <c r="U82" s="171"/>
+      <c r="V82" s="171"/>
+      <c r="W82" s="171"/>
+      <c r="X82" s="171"/>
+      <c r="Y82" s="171"/>
+      <c r="Z82" s="171"/>
+      <c r="AA82" s="171"/>
+      <c r="AB82" s="171"/>
+      <c r="AC82" s="171"/>
+      <c r="AD82" s="171"/>
+      <c r="AE82" s="171"/>
+      <c r="AF82" s="171"/>
+      <c r="AG82" s="171"/>
+      <c r="AH82" s="171"/>
+      <c r="AI82" s="171"/>
+      <c r="AJ82" s="171"/>
+      <c r="AK82" s="171"/>
+      <c r="AL82" s="171"/>
+      <c r="AM82" s="171"/>
+      <c r="AN82" s="171"/>
+      <c r="AO82" s="171"/>
+      <c r="AP82" s="171"/>
+      <c r="AQ82" s="171"/>
+      <c r="AR82" s="171"/>
+      <c r="AS82" s="171"/>
+      <c r="AT82" s="171"/>
+      <c r="AU82" s="171"/>
+      <c r="AV82" s="171"/>
+      <c r="AW82" s="171"/>
+      <c r="AX82" s="171"/>
+      <c r="AY82" s="171"/>
+      <c r="AZ82" s="171"/>
+      <c r="BA82" s="171"/>
+      <c r="BB82" s="171"/>
+      <c r="BC82" s="171"/>
+      <c r="BD82" s="171"/>
+      <c r="BE82" s="171"/>
+      <c r="BF82" s="171"/>
+      <c r="BG82" s="171"/>
+      <c r="BH82" s="171"/>
+      <c r="BI82" s="171"/>
+      <c r="BJ82" s="171"/>
+      <c r="BK82" s="171"/>
+      <c r="BL82" s="171"/>
+      <c r="BM82" s="171"/>
+      <c r="BN82" s="171"/>
+      <c r="BO82" s="171"/>
+      <c r="BP82" s="171"/>
+      <c r="BQ82" s="171"/>
+      <c r="BR82" s="172"/>
     </row>
     <row r="83" spans="1:70" s="55" customFormat="1">
       <c r="A83" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.2</v>
       </c>
-      <c r="B83" s="182" t="s">
+      <c r="B83" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="182"/>
-      <c r="D83" s="182"/>
-      <c r="E83" s="182"/>
-      <c r="F83" s="182"/>
-      <c r="G83" s="182"/>
-      <c r="H83" s="182"/>
-      <c r="I83" s="182"/>
-      <c r="J83" s="182"/>
-      <c r="K83" s="182"/>
-      <c r="L83" s="182"/>
-      <c r="M83" s="182"/>
-      <c r="N83" s="182"/>
-      <c r="O83" s="182"/>
-      <c r="P83" s="182"/>
-      <c r="Q83" s="182"/>
-      <c r="R83" s="182"/>
-      <c r="S83" s="182"/>
-      <c r="T83" s="182"/>
-      <c r="U83" s="182"/>
-      <c r="V83" s="182"/>
-      <c r="W83" s="182"/>
-      <c r="X83" s="182"/>
-      <c r="Y83" s="182"/>
-      <c r="Z83" s="182"/>
-      <c r="AA83" s="182"/>
-      <c r="AB83" s="182"/>
-      <c r="AC83" s="182"/>
-      <c r="AD83" s="182"/>
-      <c r="AE83" s="182"/>
-      <c r="AF83" s="182"/>
-      <c r="AG83" s="182"/>
-      <c r="AH83" s="182"/>
-      <c r="AI83" s="182"/>
-      <c r="AJ83" s="182"/>
-      <c r="AK83" s="182"/>
-      <c r="AL83" s="182"/>
-      <c r="AM83" s="182"/>
-      <c r="AN83" s="182"/>
-      <c r="AO83" s="182"/>
-      <c r="AP83" s="182"/>
-      <c r="AQ83" s="182"/>
-      <c r="AR83" s="182"/>
-      <c r="AS83" s="182"/>
-      <c r="AT83" s="182"/>
-      <c r="AU83" s="182"/>
-      <c r="AV83" s="182"/>
-      <c r="AW83" s="182"/>
-      <c r="AX83" s="182"/>
-      <c r="AY83" s="182"/>
-      <c r="AZ83" s="182"/>
-      <c r="BA83" s="182"/>
-      <c r="BB83" s="182"/>
-      <c r="BC83" s="182"/>
-      <c r="BD83" s="182"/>
-      <c r="BE83" s="182"/>
-      <c r="BF83" s="182"/>
-      <c r="BG83" s="182"/>
-      <c r="BH83" s="182"/>
-      <c r="BI83" s="182"/>
-      <c r="BJ83" s="182"/>
-      <c r="BK83" s="182"/>
-      <c r="BL83" s="182"/>
-      <c r="BM83" s="182"/>
-      <c r="BN83" s="182"/>
-      <c r="BO83" s="182"/>
-      <c r="BP83" s="182"/>
-      <c r="BQ83" s="182"/>
-      <c r="BR83" s="183"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
+      <c r="F83" s="173"/>
+      <c r="G83" s="173"/>
+      <c r="H83" s="173"/>
+      <c r="I83" s="173"/>
+      <c r="J83" s="173"/>
+      <c r="K83" s="173"/>
+      <c r="L83" s="173"/>
+      <c r="M83" s="173"/>
+      <c r="N83" s="173"/>
+      <c r="O83" s="173"/>
+      <c r="P83" s="173"/>
+      <c r="Q83" s="173"/>
+      <c r="R83" s="173"/>
+      <c r="S83" s="173"/>
+      <c r="T83" s="173"/>
+      <c r="U83" s="173"/>
+      <c r="V83" s="173"/>
+      <c r="W83" s="173"/>
+      <c r="X83" s="173"/>
+      <c r="Y83" s="173"/>
+      <c r="Z83" s="173"/>
+      <c r="AA83" s="173"/>
+      <c r="AB83" s="173"/>
+      <c r="AC83" s="173"/>
+      <c r="AD83" s="173"/>
+      <c r="AE83" s="173"/>
+      <c r="AF83" s="173"/>
+      <c r="AG83" s="173"/>
+      <c r="AH83" s="173"/>
+      <c r="AI83" s="173"/>
+      <c r="AJ83" s="173"/>
+      <c r="AK83" s="173"/>
+      <c r="AL83" s="173"/>
+      <c r="AM83" s="173"/>
+      <c r="AN83" s="173"/>
+      <c r="AO83" s="173"/>
+      <c r="AP83" s="173"/>
+      <c r="AQ83" s="173"/>
+      <c r="AR83" s="173"/>
+      <c r="AS83" s="173"/>
+      <c r="AT83" s="173"/>
+      <c r="AU83" s="173"/>
+      <c r="AV83" s="173"/>
+      <c r="AW83" s="173"/>
+      <c r="AX83" s="173"/>
+      <c r="AY83" s="173"/>
+      <c r="AZ83" s="173"/>
+      <c r="BA83" s="173"/>
+      <c r="BB83" s="173"/>
+      <c r="BC83" s="173"/>
+      <c r="BD83" s="173"/>
+      <c r="BE83" s="173"/>
+      <c r="BF83" s="173"/>
+      <c r="BG83" s="173"/>
+      <c r="BH83" s="173"/>
+      <c r="BI83" s="173"/>
+      <c r="BJ83" s="173"/>
+      <c r="BK83" s="173"/>
+      <c r="BL83" s="173"/>
+      <c r="BM83" s="173"/>
+      <c r="BN83" s="173"/>
+      <c r="BO83" s="173"/>
+      <c r="BP83" s="173"/>
+      <c r="BQ83" s="173"/>
+      <c r="BR83" s="174"/>
     </row>
     <row r="84" spans="1:70" s="55" customFormat="1">
       <c r="A84" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.3</v>
       </c>
-      <c r="B84" s="182" t="s">
+      <c r="B84" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
-      <c r="G84" s="182"/>
-      <c r="H84" s="182"/>
-      <c r="I84" s="182"/>
-      <c r="J84" s="182"/>
-      <c r="K84" s="182"/>
-      <c r="L84" s="182"/>
-      <c r="M84" s="182"/>
-      <c r="N84" s="182"/>
-      <c r="O84" s="182"/>
-      <c r="P84" s="182"/>
-      <c r="Q84" s="182"/>
-      <c r="R84" s="182"/>
-      <c r="S84" s="182"/>
-      <c r="T84" s="182"/>
-      <c r="U84" s="182"/>
-      <c r="V84" s="182"/>
-      <c r="W84" s="182"/>
-      <c r="X84" s="182"/>
-      <c r="Y84" s="182"/>
-      <c r="Z84" s="182"/>
-      <c r="AA84" s="182"/>
-      <c r="AB84" s="182"/>
-      <c r="AC84" s="182"/>
-      <c r="AD84" s="182"/>
-      <c r="AE84" s="182"/>
-      <c r="AF84" s="182"/>
-      <c r="AG84" s="182"/>
-      <c r="AH84" s="182"/>
-      <c r="AI84" s="182"/>
-      <c r="AJ84" s="182"/>
-      <c r="AK84" s="182"/>
-      <c r="AL84" s="182"/>
-      <c r="AM84" s="182"/>
-      <c r="AN84" s="182"/>
-      <c r="AO84" s="182"/>
-      <c r="AP84" s="182"/>
-      <c r="AQ84" s="182"/>
-      <c r="AR84" s="182"/>
-      <c r="AS84" s="182"/>
-      <c r="AT84" s="182"/>
-      <c r="AU84" s="182"/>
-      <c r="AV84" s="182"/>
-      <c r="AW84" s="182"/>
-      <c r="AX84" s="182"/>
-      <c r="AY84" s="182"/>
-      <c r="AZ84" s="182"/>
-      <c r="BA84" s="182"/>
-      <c r="BB84" s="182"/>
-      <c r="BC84" s="182"/>
-      <c r="BD84" s="182"/>
-      <c r="BE84" s="182"/>
-      <c r="BF84" s="182"/>
-      <c r="BG84" s="182"/>
-      <c r="BH84" s="182"/>
-      <c r="BI84" s="182"/>
-      <c r="BJ84" s="182"/>
-      <c r="BK84" s="182"/>
-      <c r="BL84" s="182"/>
-      <c r="BM84" s="182"/>
-      <c r="BN84" s="182"/>
-      <c r="BO84" s="182"/>
-      <c r="BP84" s="182"/>
-      <c r="BQ84" s="182"/>
-      <c r="BR84" s="183"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
+      <c r="G84" s="173"/>
+      <c r="H84" s="173"/>
+      <c r="I84" s="173"/>
+      <c r="J84" s="173"/>
+      <c r="K84" s="173"/>
+      <c r="L84" s="173"/>
+      <c r="M84" s="173"/>
+      <c r="N84" s="173"/>
+      <c r="O84" s="173"/>
+      <c r="P84" s="173"/>
+      <c r="Q84" s="173"/>
+      <c r="R84" s="173"/>
+      <c r="S84" s="173"/>
+      <c r="T84" s="173"/>
+      <c r="U84" s="173"/>
+      <c r="V84" s="173"/>
+      <c r="W84" s="173"/>
+      <c r="X84" s="173"/>
+      <c r="Y84" s="173"/>
+      <c r="Z84" s="173"/>
+      <c r="AA84" s="173"/>
+      <c r="AB84" s="173"/>
+      <c r="AC84" s="173"/>
+      <c r="AD84" s="173"/>
+      <c r="AE84" s="173"/>
+      <c r="AF84" s="173"/>
+      <c r="AG84" s="173"/>
+      <c r="AH84" s="173"/>
+      <c r="AI84" s="173"/>
+      <c r="AJ84" s="173"/>
+      <c r="AK84" s="173"/>
+      <c r="AL84" s="173"/>
+      <c r="AM84" s="173"/>
+      <c r="AN84" s="173"/>
+      <c r="AO84" s="173"/>
+      <c r="AP84" s="173"/>
+      <c r="AQ84" s="173"/>
+      <c r="AR84" s="173"/>
+      <c r="AS84" s="173"/>
+      <c r="AT84" s="173"/>
+      <c r="AU84" s="173"/>
+      <c r="AV84" s="173"/>
+      <c r="AW84" s="173"/>
+      <c r="AX84" s="173"/>
+      <c r="AY84" s="173"/>
+      <c r="AZ84" s="173"/>
+      <c r="BA84" s="173"/>
+      <c r="BB84" s="173"/>
+      <c r="BC84" s="173"/>
+      <c r="BD84" s="173"/>
+      <c r="BE84" s="173"/>
+      <c r="BF84" s="173"/>
+      <c r="BG84" s="173"/>
+      <c r="BH84" s="173"/>
+      <c r="BI84" s="173"/>
+      <c r="BJ84" s="173"/>
+      <c r="BK84" s="173"/>
+      <c r="BL84" s="173"/>
+      <c r="BM84" s="173"/>
+      <c r="BN84" s="173"/>
+      <c r="BO84" s="173"/>
+      <c r="BP84" s="173"/>
+      <c r="BQ84" s="173"/>
+      <c r="BR84" s="174"/>
     </row>
     <row r="85" spans="1:70" s="55" customFormat="1">
       <c r="A85" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.4</v>
       </c>
-      <c r="B85" s="182" t="s">
+      <c r="B85" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="182"/>
-      <c r="F85" s="182"/>
-      <c r="G85" s="182"/>
-      <c r="H85" s="182"/>
-      <c r="I85" s="182"/>
-      <c r="J85" s="182"/>
-      <c r="K85" s="182"/>
-      <c r="L85" s="182"/>
-      <c r="M85" s="182"/>
-      <c r="N85" s="182"/>
-      <c r="O85" s="182"/>
-      <c r="P85" s="182"/>
-      <c r="Q85" s="182"/>
-      <c r="R85" s="182"/>
-      <c r="S85" s="182"/>
-      <c r="T85" s="182"/>
-      <c r="U85" s="182"/>
-      <c r="V85" s="182"/>
-      <c r="W85" s="182"/>
-      <c r="X85" s="182"/>
-      <c r="Y85" s="182"/>
-      <c r="Z85" s="182"/>
-      <c r="AA85" s="182"/>
-      <c r="AB85" s="182"/>
-      <c r="AC85" s="182"/>
-      <c r="AD85" s="182"/>
-      <c r="AE85" s="182"/>
-      <c r="AF85" s="182"/>
-      <c r="AG85" s="182"/>
-      <c r="AH85" s="182"/>
-      <c r="AI85" s="182"/>
-      <c r="AJ85" s="182"/>
-      <c r="AK85" s="182"/>
-      <c r="AL85" s="182"/>
-      <c r="AM85" s="182"/>
-      <c r="AN85" s="182"/>
-      <c r="AO85" s="182"/>
-      <c r="AP85" s="182"/>
-      <c r="AQ85" s="182"/>
-      <c r="AR85" s="182"/>
-      <c r="AS85" s="182"/>
-      <c r="AT85" s="182"/>
-      <c r="AU85" s="182"/>
-      <c r="AV85" s="182"/>
-      <c r="AW85" s="182"/>
-      <c r="AX85" s="182"/>
-      <c r="AY85" s="182"/>
-      <c r="AZ85" s="182"/>
-      <c r="BA85" s="182"/>
-      <c r="BB85" s="182"/>
-      <c r="BC85" s="182"/>
-      <c r="BD85" s="182"/>
-      <c r="BE85" s="182"/>
-      <c r="BF85" s="182"/>
-      <c r="BG85" s="182"/>
-      <c r="BH85" s="182"/>
-      <c r="BI85" s="182"/>
-      <c r="BJ85" s="182"/>
-      <c r="BK85" s="182"/>
-      <c r="BL85" s="182"/>
-      <c r="BM85" s="182"/>
-      <c r="BN85" s="182"/>
-      <c r="BO85" s="182"/>
-      <c r="BP85" s="182"/>
-      <c r="BQ85" s="182"/>
-      <c r="BR85" s="183"/>
+      <c r="C85" s="173"/>
+      <c r="D85" s="173"/>
+      <c r="E85" s="173"/>
+      <c r="F85" s="173"/>
+      <c r="G85" s="173"/>
+      <c r="H85" s="173"/>
+      <c r="I85" s="173"/>
+      <c r="J85" s="173"/>
+      <c r="K85" s="173"/>
+      <c r="L85" s="173"/>
+      <c r="M85" s="173"/>
+      <c r="N85" s="173"/>
+      <c r="O85" s="173"/>
+      <c r="P85" s="173"/>
+      <c r="Q85" s="173"/>
+      <c r="R85" s="173"/>
+      <c r="S85" s="173"/>
+      <c r="T85" s="173"/>
+      <c r="U85" s="173"/>
+      <c r="V85" s="173"/>
+      <c r="W85" s="173"/>
+      <c r="X85" s="173"/>
+      <c r="Y85" s="173"/>
+      <c r="Z85" s="173"/>
+      <c r="AA85" s="173"/>
+      <c r="AB85" s="173"/>
+      <c r="AC85" s="173"/>
+      <c r="AD85" s="173"/>
+      <c r="AE85" s="173"/>
+      <c r="AF85" s="173"/>
+      <c r="AG85" s="173"/>
+      <c r="AH85" s="173"/>
+      <c r="AI85" s="173"/>
+      <c r="AJ85" s="173"/>
+      <c r="AK85" s="173"/>
+      <c r="AL85" s="173"/>
+      <c r="AM85" s="173"/>
+      <c r="AN85" s="173"/>
+      <c r="AO85" s="173"/>
+      <c r="AP85" s="173"/>
+      <c r="AQ85" s="173"/>
+      <c r="AR85" s="173"/>
+      <c r="AS85" s="173"/>
+      <c r="AT85" s="173"/>
+      <c r="AU85" s="173"/>
+      <c r="AV85" s="173"/>
+      <c r="AW85" s="173"/>
+      <c r="AX85" s="173"/>
+      <c r="AY85" s="173"/>
+      <c r="AZ85" s="173"/>
+      <c r="BA85" s="173"/>
+      <c r="BB85" s="173"/>
+      <c r="BC85" s="173"/>
+      <c r="BD85" s="173"/>
+      <c r="BE85" s="173"/>
+      <c r="BF85" s="173"/>
+      <c r="BG85" s="173"/>
+      <c r="BH85" s="173"/>
+      <c r="BI85" s="173"/>
+      <c r="BJ85" s="173"/>
+      <c r="BK85" s="173"/>
+      <c r="BL85" s="173"/>
+      <c r="BM85" s="173"/>
+      <c r="BN85" s="173"/>
+      <c r="BO85" s="173"/>
+      <c r="BP85" s="173"/>
+      <c r="BQ85" s="173"/>
+      <c r="BR85" s="174"/>
     </row>
     <row r="86" spans="1:70" s="55" customFormat="1">
       <c r="A86" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.5</v>
       </c>
-      <c r="B86" s="182" t="s">
+      <c r="B86" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="C86" s="182"/>
-      <c r="D86" s="182"/>
-      <c r="E86" s="182"/>
-      <c r="F86" s="182"/>
-      <c r="G86" s="182"/>
-      <c r="H86" s="182"/>
-      <c r="I86" s="182"/>
-      <c r="J86" s="182"/>
-      <c r="K86" s="182"/>
-      <c r="L86" s="182"/>
-      <c r="M86" s="182"/>
-      <c r="N86" s="182"/>
-      <c r="O86" s="182"/>
-      <c r="P86" s="182"/>
-      <c r="Q86" s="182"/>
-      <c r="R86" s="182"/>
-      <c r="S86" s="182"/>
-      <c r="T86" s="182"/>
-      <c r="U86" s="182"/>
-      <c r="V86" s="182"/>
-      <c r="W86" s="182"/>
-      <c r="X86" s="182"/>
-      <c r="Y86" s="182"/>
-      <c r="Z86" s="182"/>
-      <c r="AA86" s="182"/>
-      <c r="AB86" s="182"/>
-      <c r="AC86" s="182"/>
-      <c r="AD86" s="182"/>
-      <c r="AE86" s="182"/>
-      <c r="AF86" s="182"/>
-      <c r="AG86" s="182"/>
-      <c r="AH86" s="182"/>
-      <c r="AI86" s="182"/>
-      <c r="AJ86" s="182"/>
-      <c r="AK86" s="182"/>
-      <c r="AL86" s="182"/>
-      <c r="AM86" s="182"/>
-      <c r="AN86" s="182"/>
-      <c r="AO86" s="182"/>
-      <c r="AP86" s="182"/>
-      <c r="AQ86" s="182"/>
-      <c r="AR86" s="182"/>
-      <c r="AS86" s="182"/>
-      <c r="AT86" s="182"/>
-      <c r="AU86" s="182"/>
-      <c r="AV86" s="182"/>
-      <c r="AW86" s="182"/>
-      <c r="AX86" s="182"/>
-      <c r="AY86" s="182"/>
-      <c r="AZ86" s="182"/>
-      <c r="BA86" s="182"/>
-      <c r="BB86" s="182"/>
-      <c r="BC86" s="182"/>
-      <c r="BD86" s="182"/>
-      <c r="BE86" s="182"/>
-      <c r="BF86" s="182"/>
-      <c r="BG86" s="182"/>
-      <c r="BH86" s="182"/>
-      <c r="BI86" s="182"/>
-      <c r="BJ86" s="182"/>
-      <c r="BK86" s="182"/>
-      <c r="BL86" s="182"/>
-      <c r="BM86" s="182"/>
-      <c r="BN86" s="182"/>
-      <c r="BO86" s="182"/>
-      <c r="BP86" s="182"/>
-      <c r="BQ86" s="182"/>
-      <c r="BR86" s="183"/>
+      <c r="C86" s="173"/>
+      <c r="D86" s="173"/>
+      <c r="E86" s="173"/>
+      <c r="F86" s="173"/>
+      <c r="G86" s="173"/>
+      <c r="H86" s="173"/>
+      <c r="I86" s="173"/>
+      <c r="J86" s="173"/>
+      <c r="K86" s="173"/>
+      <c r="L86" s="173"/>
+      <c r="M86" s="173"/>
+      <c r="N86" s="173"/>
+      <c r="O86" s="173"/>
+      <c r="P86" s="173"/>
+      <c r="Q86" s="173"/>
+      <c r="R86" s="173"/>
+      <c r="S86" s="173"/>
+      <c r="T86" s="173"/>
+      <c r="U86" s="173"/>
+      <c r="V86" s="173"/>
+      <c r="W86" s="173"/>
+      <c r="X86" s="173"/>
+      <c r="Y86" s="173"/>
+      <c r="Z86" s="173"/>
+      <c r="AA86" s="173"/>
+      <c r="AB86" s="173"/>
+      <c r="AC86" s="173"/>
+      <c r="AD86" s="173"/>
+      <c r="AE86" s="173"/>
+      <c r="AF86" s="173"/>
+      <c r="AG86" s="173"/>
+      <c r="AH86" s="173"/>
+      <c r="AI86" s="173"/>
+      <c r="AJ86" s="173"/>
+      <c r="AK86" s="173"/>
+      <c r="AL86" s="173"/>
+      <c r="AM86" s="173"/>
+      <c r="AN86" s="173"/>
+      <c r="AO86" s="173"/>
+      <c r="AP86" s="173"/>
+      <c r="AQ86" s="173"/>
+      <c r="AR86" s="173"/>
+      <c r="AS86" s="173"/>
+      <c r="AT86" s="173"/>
+      <c r="AU86" s="173"/>
+      <c r="AV86" s="173"/>
+      <c r="AW86" s="173"/>
+      <c r="AX86" s="173"/>
+      <c r="AY86" s="173"/>
+      <c r="AZ86" s="173"/>
+      <c r="BA86" s="173"/>
+      <c r="BB86" s="173"/>
+      <c r="BC86" s="173"/>
+      <c r="BD86" s="173"/>
+      <c r="BE86" s="173"/>
+      <c r="BF86" s="173"/>
+      <c r="BG86" s="173"/>
+      <c r="BH86" s="173"/>
+      <c r="BI86" s="173"/>
+      <c r="BJ86" s="173"/>
+      <c r="BK86" s="173"/>
+      <c r="BL86" s="173"/>
+      <c r="BM86" s="173"/>
+      <c r="BN86" s="173"/>
+      <c r="BO86" s="173"/>
+      <c r="BP86" s="173"/>
+      <c r="BQ86" s="173"/>
+      <c r="BR86" s="174"/>
     </row>
     <row r="87" spans="1:70" s="55" customFormat="1">
       <c r="A87" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.6</v>
       </c>
-      <c r="B87" s="182" t="s">
+      <c r="B87" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="C87" s="182"/>
-      <c r="D87" s="182"/>
-      <c r="E87" s="182"/>
-      <c r="F87" s="182"/>
-      <c r="G87" s="182"/>
-      <c r="H87" s="182"/>
-      <c r="I87" s="182"/>
-      <c r="J87" s="182"/>
-      <c r="K87" s="182"/>
-      <c r="L87" s="182"/>
-      <c r="M87" s="182"/>
-      <c r="N87" s="182"/>
-      <c r="O87" s="182"/>
-      <c r="P87" s="182"/>
-      <c r="Q87" s="182"/>
-      <c r="R87" s="182"/>
-      <c r="S87" s="182"/>
-      <c r="T87" s="182"/>
-      <c r="U87" s="182"/>
-      <c r="V87" s="182"/>
-      <c r="W87" s="182"/>
-      <c r="X87" s="182"/>
-      <c r="Y87" s="182"/>
-      <c r="Z87" s="182"/>
-      <c r="AA87" s="182"/>
-      <c r="AB87" s="182"/>
-      <c r="AC87" s="182"/>
-      <c r="AD87" s="182"/>
-      <c r="AE87" s="182"/>
-      <c r="AF87" s="182"/>
-      <c r="AG87" s="182"/>
-      <c r="AH87" s="182"/>
-      <c r="AI87" s="182"/>
-      <c r="AJ87" s="182"/>
-      <c r="AK87" s="182"/>
-      <c r="AL87" s="182"/>
-      <c r="AM87" s="182"/>
-      <c r="AN87" s="182"/>
-      <c r="AO87" s="182"/>
-      <c r="AP87" s="182"/>
-      <c r="AQ87" s="182"/>
-      <c r="AR87" s="182"/>
-      <c r="AS87" s="182"/>
-      <c r="AT87" s="182"/>
-      <c r="AU87" s="182"/>
-      <c r="AV87" s="182"/>
-      <c r="AW87" s="182"/>
-      <c r="AX87" s="182"/>
-      <c r="AY87" s="182"/>
-      <c r="AZ87" s="182"/>
-      <c r="BA87" s="182"/>
-      <c r="BB87" s="182"/>
-      <c r="BC87" s="182"/>
-      <c r="BD87" s="182"/>
-      <c r="BE87" s="182"/>
-      <c r="BF87" s="182"/>
-      <c r="BG87" s="182"/>
-      <c r="BH87" s="182"/>
-      <c r="BI87" s="182"/>
-      <c r="BJ87" s="182"/>
-      <c r="BK87" s="182"/>
-      <c r="BL87" s="182"/>
-      <c r="BM87" s="182"/>
-      <c r="BN87" s="182"/>
-      <c r="BO87" s="182"/>
-      <c r="BP87" s="182"/>
-      <c r="BQ87" s="182"/>
-      <c r="BR87" s="183"/>
+      <c r="C87" s="173"/>
+      <c r="D87" s="173"/>
+      <c r="E87" s="173"/>
+      <c r="F87" s="173"/>
+      <c r="G87" s="173"/>
+      <c r="H87" s="173"/>
+      <c r="I87" s="173"/>
+      <c r="J87" s="173"/>
+      <c r="K87" s="173"/>
+      <c r="L87" s="173"/>
+      <c r="M87" s="173"/>
+      <c r="N87" s="173"/>
+      <c r="O87" s="173"/>
+      <c r="P87" s="173"/>
+      <c r="Q87" s="173"/>
+      <c r="R87" s="173"/>
+      <c r="S87" s="173"/>
+      <c r="T87" s="173"/>
+      <c r="U87" s="173"/>
+      <c r="V87" s="173"/>
+      <c r="W87" s="173"/>
+      <c r="X87" s="173"/>
+      <c r="Y87" s="173"/>
+      <c r="Z87" s="173"/>
+      <c r="AA87" s="173"/>
+      <c r="AB87" s="173"/>
+      <c r="AC87" s="173"/>
+      <c r="AD87" s="173"/>
+      <c r="AE87" s="173"/>
+      <c r="AF87" s="173"/>
+      <c r="AG87" s="173"/>
+      <c r="AH87" s="173"/>
+      <c r="AI87" s="173"/>
+      <c r="AJ87" s="173"/>
+      <c r="AK87" s="173"/>
+      <c r="AL87" s="173"/>
+      <c r="AM87" s="173"/>
+      <c r="AN87" s="173"/>
+      <c r="AO87" s="173"/>
+      <c r="AP87" s="173"/>
+      <c r="AQ87" s="173"/>
+      <c r="AR87" s="173"/>
+      <c r="AS87" s="173"/>
+      <c r="AT87" s="173"/>
+      <c r="AU87" s="173"/>
+      <c r="AV87" s="173"/>
+      <c r="AW87" s="173"/>
+      <c r="AX87" s="173"/>
+      <c r="AY87" s="173"/>
+      <c r="AZ87" s="173"/>
+      <c r="BA87" s="173"/>
+      <c r="BB87" s="173"/>
+      <c r="BC87" s="173"/>
+      <c r="BD87" s="173"/>
+      <c r="BE87" s="173"/>
+      <c r="BF87" s="173"/>
+      <c r="BG87" s="173"/>
+      <c r="BH87" s="173"/>
+      <c r="BI87" s="173"/>
+      <c r="BJ87" s="173"/>
+      <c r="BK87" s="173"/>
+      <c r="BL87" s="173"/>
+      <c r="BM87" s="173"/>
+      <c r="BN87" s="173"/>
+      <c r="BO87" s="173"/>
+      <c r="BP87" s="173"/>
+      <c r="BQ87" s="173"/>
+      <c r="BR87" s="174"/>
     </row>
     <row r="88" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A88" s="59" t="str">
         <f t="shared" si="65"/>
         <v>4.7</v>
       </c>
-      <c r="B88" s="186" t="s">
+      <c r="B88" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="186"/>
-      <c r="D88" s="186"/>
-      <c r="E88" s="186"/>
-      <c r="F88" s="186"/>
-      <c r="G88" s="186"/>
-      <c r="H88" s="186"/>
-      <c r="I88" s="186"/>
-      <c r="J88" s="186"/>
-      <c r="K88" s="186"/>
-      <c r="L88" s="186"/>
-      <c r="M88" s="186"/>
-      <c r="N88" s="186"/>
-      <c r="O88" s="186"/>
-      <c r="P88" s="186"/>
-      <c r="Q88" s="186"/>
-      <c r="R88" s="186"/>
-      <c r="S88" s="186"/>
-      <c r="T88" s="186"/>
-      <c r="U88" s="186"/>
-      <c r="V88" s="186"/>
-      <c r="W88" s="186"/>
-      <c r="X88" s="186"/>
-      <c r="Y88" s="186"/>
-      <c r="Z88" s="186"/>
-      <c r="AA88" s="186"/>
-      <c r="AB88" s="186"/>
-      <c r="AC88" s="186"/>
-      <c r="AD88" s="186"/>
-      <c r="AE88" s="186"/>
-      <c r="AF88" s="186"/>
-      <c r="AG88" s="186"/>
-      <c r="AH88" s="186"/>
-      <c r="AI88" s="186"/>
-      <c r="AJ88" s="186"/>
-      <c r="AK88" s="186"/>
-      <c r="AL88" s="186"/>
-      <c r="AM88" s="186"/>
-      <c r="AN88" s="186"/>
-      <c r="AO88" s="186"/>
-      <c r="AP88" s="186"/>
-      <c r="AQ88" s="186"/>
-      <c r="AR88" s="186"/>
-      <c r="AS88" s="186"/>
-      <c r="AT88" s="186"/>
-      <c r="AU88" s="186"/>
-      <c r="AV88" s="186"/>
-      <c r="AW88" s="186"/>
-      <c r="AX88" s="186"/>
-      <c r="AY88" s="186"/>
-      <c r="AZ88" s="186"/>
-      <c r="BA88" s="186"/>
-      <c r="BB88" s="186"/>
-      <c r="BC88" s="186"/>
-      <c r="BD88" s="186"/>
-      <c r="BE88" s="186"/>
-      <c r="BF88" s="186"/>
-      <c r="BG88" s="186"/>
-      <c r="BH88" s="186"/>
-      <c r="BI88" s="186"/>
-      <c r="BJ88" s="186"/>
-      <c r="BK88" s="186"/>
-      <c r="BL88" s="186"/>
-      <c r="BM88" s="186"/>
-      <c r="BN88" s="186"/>
-      <c r="BO88" s="186"/>
-      <c r="BP88" s="186"/>
-      <c r="BQ88" s="186"/>
-      <c r="BR88" s="187"/>
+      <c r="C88" s="175"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
+      <c r="G88" s="175"/>
+      <c r="H88" s="175"/>
+      <c r="I88" s="175"/>
+      <c r="J88" s="175"/>
+      <c r="K88" s="175"/>
+      <c r="L88" s="175"/>
+      <c r="M88" s="175"/>
+      <c r="N88" s="175"/>
+      <c r="O88" s="175"/>
+      <c r="P88" s="175"/>
+      <c r="Q88" s="175"/>
+      <c r="R88" s="175"/>
+      <c r="S88" s="175"/>
+      <c r="T88" s="175"/>
+      <c r="U88" s="175"/>
+      <c r="V88" s="175"/>
+      <c r="W88" s="175"/>
+      <c r="X88" s="175"/>
+      <c r="Y88" s="175"/>
+      <c r="Z88" s="175"/>
+      <c r="AA88" s="175"/>
+      <c r="AB88" s="175"/>
+      <c r="AC88" s="175"/>
+      <c r="AD88" s="175"/>
+      <c r="AE88" s="175"/>
+      <c r="AF88" s="175"/>
+      <c r="AG88" s="175"/>
+      <c r="AH88" s="175"/>
+      <c r="AI88" s="175"/>
+      <c r="AJ88" s="175"/>
+      <c r="AK88" s="175"/>
+      <c r="AL88" s="175"/>
+      <c r="AM88" s="175"/>
+      <c r="AN88" s="175"/>
+      <c r="AO88" s="175"/>
+      <c r="AP88" s="175"/>
+      <c r="AQ88" s="175"/>
+      <c r="AR88" s="175"/>
+      <c r="AS88" s="175"/>
+      <c r="AT88" s="175"/>
+      <c r="AU88" s="175"/>
+      <c r="AV88" s="175"/>
+      <c r="AW88" s="175"/>
+      <c r="AX88" s="175"/>
+      <c r="AY88" s="175"/>
+      <c r="AZ88" s="175"/>
+      <c r="BA88" s="175"/>
+      <c r="BB88" s="175"/>
+      <c r="BC88" s="175"/>
+      <c r="BD88" s="175"/>
+      <c r="BE88" s="175"/>
+      <c r="BF88" s="175"/>
+      <c r="BG88" s="175"/>
+      <c r="BH88" s="175"/>
+      <c r="BI88" s="175"/>
+      <c r="BJ88" s="175"/>
+      <c r="BK88" s="175"/>
+      <c r="BL88" s="175"/>
+      <c r="BM88" s="175"/>
+      <c r="BN88" s="175"/>
+      <c r="BO88" s="175"/>
+      <c r="BP88" s="175"/>
+      <c r="BQ88" s="175"/>
+      <c r="BR88" s="176"/>
     </row>
     <row r="89" spans="1:70" ht="17.25" thickBot="1">
       <c r="A89" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
-      <c r="B89" s="184" t="s">
+      <c r="B89" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="C89" s="184"/>
-      <c r="D89" s="184"/>
-      <c r="E89" s="184"/>
-      <c r="F89" s="184"/>
-      <c r="G89" s="184"/>
-      <c r="H89" s="184"/>
-      <c r="I89" s="184"/>
-      <c r="J89" s="184"/>
-      <c r="K89" s="184"/>
-      <c r="L89" s="184"/>
-      <c r="M89" s="184"/>
-      <c r="N89" s="184"/>
-      <c r="O89" s="184"/>
-      <c r="P89" s="184"/>
-      <c r="Q89" s="184"/>
-      <c r="R89" s="184"/>
-      <c r="S89" s="184"/>
-      <c r="T89" s="184"/>
-      <c r="U89" s="184"/>
-      <c r="V89" s="184"/>
-      <c r="W89" s="184"/>
-      <c r="X89" s="184"/>
-      <c r="Y89" s="184"/>
-      <c r="Z89" s="184"/>
-      <c r="AA89" s="184"/>
-      <c r="AB89" s="184"/>
-      <c r="AC89" s="184"/>
-      <c r="AD89" s="184"/>
-      <c r="AE89" s="184"/>
-      <c r="AF89" s="184"/>
-      <c r="AG89" s="184"/>
-      <c r="AH89" s="184"/>
-      <c r="AI89" s="184"/>
-      <c r="AJ89" s="184"/>
-      <c r="AK89" s="184"/>
-      <c r="AL89" s="184"/>
-      <c r="AM89" s="184"/>
-      <c r="AN89" s="184"/>
-      <c r="AO89" s="184"/>
-      <c r="AP89" s="184"/>
-      <c r="AQ89" s="184"/>
-      <c r="AR89" s="184"/>
-      <c r="AS89" s="184"/>
-      <c r="AT89" s="184"/>
-      <c r="AU89" s="184"/>
-      <c r="AV89" s="184"/>
-      <c r="AW89" s="184"/>
-      <c r="AX89" s="184"/>
-      <c r="AY89" s="184"/>
-      <c r="AZ89" s="184"/>
-      <c r="BA89" s="184"/>
-      <c r="BB89" s="184"/>
-      <c r="BC89" s="184"/>
-      <c r="BD89" s="184"/>
-      <c r="BE89" s="184"/>
-      <c r="BF89" s="184"/>
-      <c r="BG89" s="184"/>
-      <c r="BH89" s="184"/>
-      <c r="BI89" s="184"/>
-      <c r="BJ89" s="184"/>
-      <c r="BK89" s="184"/>
-      <c r="BL89" s="184"/>
-      <c r="BM89" s="184"/>
-      <c r="BN89" s="184"/>
-      <c r="BO89" s="184"/>
-      <c r="BP89" s="184"/>
-      <c r="BQ89" s="184"/>
-      <c r="BR89" s="185"/>
+      <c r="C89" s="169"/>
+      <c r="D89" s="169"/>
+      <c r="E89" s="169"/>
+      <c r="F89" s="169"/>
+      <c r="G89" s="169"/>
+      <c r="H89" s="169"/>
+      <c r="I89" s="169"/>
+      <c r="J89" s="169"/>
+      <c r="K89" s="169"/>
+      <c r="L89" s="169"/>
+      <c r="M89" s="169"/>
+      <c r="N89" s="169"/>
+      <c r="O89" s="169"/>
+      <c r="P89" s="169"/>
+      <c r="Q89" s="169"/>
+      <c r="R89" s="169"/>
+      <c r="S89" s="169"/>
+      <c r="T89" s="169"/>
+      <c r="U89" s="169"/>
+      <c r="V89" s="169"/>
+      <c r="W89" s="169"/>
+      <c r="X89" s="169"/>
+      <c r="Y89" s="169"/>
+      <c r="Z89" s="169"/>
+      <c r="AA89" s="169"/>
+      <c r="AB89" s="169"/>
+      <c r="AC89" s="169"/>
+      <c r="AD89" s="169"/>
+      <c r="AE89" s="169"/>
+      <c r="AF89" s="169"/>
+      <c r="AG89" s="169"/>
+      <c r="AH89" s="169"/>
+      <c r="AI89" s="169"/>
+      <c r="AJ89" s="169"/>
+      <c r="AK89" s="169"/>
+      <c r="AL89" s="169"/>
+      <c r="AM89" s="169"/>
+      <c r="AN89" s="169"/>
+      <c r="AO89" s="169"/>
+      <c r="AP89" s="169"/>
+      <c r="AQ89" s="169"/>
+      <c r="AR89" s="169"/>
+      <c r="AS89" s="169"/>
+      <c r="AT89" s="169"/>
+      <c r="AU89" s="169"/>
+      <c r="AV89" s="169"/>
+      <c r="AW89" s="169"/>
+      <c r="AX89" s="169"/>
+      <c r="AY89" s="169"/>
+      <c r="AZ89" s="169"/>
+      <c r="BA89" s="169"/>
+      <c r="BB89" s="169"/>
+      <c r="BC89" s="169"/>
+      <c r="BD89" s="169"/>
+      <c r="BE89" s="169"/>
+      <c r="BF89" s="169"/>
+      <c r="BG89" s="169"/>
+      <c r="BH89" s="169"/>
+      <c r="BI89" s="169"/>
+      <c r="BJ89" s="169"/>
+      <c r="BK89" s="169"/>
+      <c r="BL89" s="169"/>
+      <c r="BM89" s="169"/>
+      <c r="BN89" s="169"/>
+      <c r="BO89" s="169"/>
+      <c r="BP89" s="169"/>
+      <c r="BQ89" s="169"/>
+      <c r="BR89" s="170"/>
     </row>
     <row r="90" spans="1:70" s="55" customFormat="1">
       <c r="A90" s="57" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.1</v>
       </c>
-      <c r="B90" s="180" t="s">
+      <c r="B90" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="C90" s="180"/>
-      <c r="D90" s="180"/>
-      <c r="E90" s="180"/>
-      <c r="F90" s="180"/>
-      <c r="G90" s="180"/>
-      <c r="H90" s="180"/>
-      <c r="I90" s="180"/>
-      <c r="J90" s="180"/>
-      <c r="K90" s="180"/>
-      <c r="L90" s="180"/>
-      <c r="M90" s="180"/>
-      <c r="N90" s="180"/>
-      <c r="O90" s="180"/>
-      <c r="P90" s="180"/>
-      <c r="Q90" s="180"/>
-      <c r="R90" s="180"/>
-      <c r="S90" s="180"/>
-      <c r="T90" s="180"/>
-      <c r="U90" s="180"/>
-      <c r="V90" s="180"/>
-      <c r="W90" s="180"/>
-      <c r="X90" s="180"/>
-      <c r="Y90" s="180"/>
-      <c r="Z90" s="180"/>
-      <c r="AA90" s="180"/>
-      <c r="AB90" s="180"/>
-      <c r="AC90" s="180"/>
-      <c r="AD90" s="180"/>
-      <c r="AE90" s="180"/>
-      <c r="AF90" s="180"/>
-      <c r="AG90" s="180"/>
-      <c r="AH90" s="180"/>
-      <c r="AI90" s="180"/>
-      <c r="AJ90" s="180"/>
-      <c r="AK90" s="180"/>
-      <c r="AL90" s="180"/>
-      <c r="AM90" s="180"/>
-      <c r="AN90" s="180"/>
-      <c r="AO90" s="180"/>
-      <c r="AP90" s="180"/>
-      <c r="AQ90" s="180"/>
-      <c r="AR90" s="180"/>
-      <c r="AS90" s="180"/>
-      <c r="AT90" s="180"/>
-      <c r="AU90" s="180"/>
-      <c r="AV90" s="180"/>
-      <c r="AW90" s="180"/>
-      <c r="AX90" s="180"/>
-      <c r="AY90" s="180"/>
-      <c r="AZ90" s="180"/>
-      <c r="BA90" s="180"/>
-      <c r="BB90" s="180"/>
-      <c r="BC90" s="180"/>
-      <c r="BD90" s="180"/>
-      <c r="BE90" s="180"/>
-      <c r="BF90" s="180"/>
-      <c r="BG90" s="180"/>
-      <c r="BH90" s="180"/>
-      <c r="BI90" s="180"/>
-      <c r="BJ90" s="180"/>
-      <c r="BK90" s="180"/>
-      <c r="BL90" s="180"/>
-      <c r="BM90" s="180"/>
-      <c r="BN90" s="180"/>
-      <c r="BO90" s="180"/>
-      <c r="BP90" s="180"/>
-      <c r="BQ90" s="180"/>
-      <c r="BR90" s="181"/>
+      <c r="C90" s="171"/>
+      <c r="D90" s="171"/>
+      <c r="E90" s="171"/>
+      <c r="F90" s="171"/>
+      <c r="G90" s="171"/>
+      <c r="H90" s="171"/>
+      <c r="I90" s="171"/>
+      <c r="J90" s="171"/>
+      <c r="K90" s="171"/>
+      <c r="L90" s="171"/>
+      <c r="M90" s="171"/>
+      <c r="N90" s="171"/>
+      <c r="O90" s="171"/>
+      <c r="P90" s="171"/>
+      <c r="Q90" s="171"/>
+      <c r="R90" s="171"/>
+      <c r="S90" s="171"/>
+      <c r="T90" s="171"/>
+      <c r="U90" s="171"/>
+      <c r="V90" s="171"/>
+      <c r="W90" s="171"/>
+      <c r="X90" s="171"/>
+      <c r="Y90" s="171"/>
+      <c r="Z90" s="171"/>
+      <c r="AA90" s="171"/>
+      <c r="AB90" s="171"/>
+      <c r="AC90" s="171"/>
+      <c r="AD90" s="171"/>
+      <c r="AE90" s="171"/>
+      <c r="AF90" s="171"/>
+      <c r="AG90" s="171"/>
+      <c r="AH90" s="171"/>
+      <c r="AI90" s="171"/>
+      <c r="AJ90" s="171"/>
+      <c r="AK90" s="171"/>
+      <c r="AL90" s="171"/>
+      <c r="AM90" s="171"/>
+      <c r="AN90" s="171"/>
+      <c r="AO90" s="171"/>
+      <c r="AP90" s="171"/>
+      <c r="AQ90" s="171"/>
+      <c r="AR90" s="171"/>
+      <c r="AS90" s="171"/>
+      <c r="AT90" s="171"/>
+      <c r="AU90" s="171"/>
+      <c r="AV90" s="171"/>
+      <c r="AW90" s="171"/>
+      <c r="AX90" s="171"/>
+      <c r="AY90" s="171"/>
+      <c r="AZ90" s="171"/>
+      <c r="BA90" s="171"/>
+      <c r="BB90" s="171"/>
+      <c r="BC90" s="171"/>
+      <c r="BD90" s="171"/>
+      <c r="BE90" s="171"/>
+      <c r="BF90" s="171"/>
+      <c r="BG90" s="171"/>
+      <c r="BH90" s="171"/>
+      <c r="BI90" s="171"/>
+      <c r="BJ90" s="171"/>
+      <c r="BK90" s="171"/>
+      <c r="BL90" s="171"/>
+      <c r="BM90" s="171"/>
+      <c r="BN90" s="171"/>
+      <c r="BO90" s="171"/>
+      <c r="BP90" s="171"/>
+      <c r="BQ90" s="171"/>
+      <c r="BR90" s="172"/>
     </row>
     <row r="91" spans="1:70" s="55" customFormat="1">
       <c r="A91" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.2</v>
       </c>
-      <c r="B91" s="182" t="s">
+      <c r="B91" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="C91" s="182"/>
-      <c r="D91" s="182"/>
-      <c r="E91" s="182"/>
-      <c r="F91" s="182"/>
-      <c r="G91" s="182"/>
-      <c r="H91" s="182"/>
-      <c r="I91" s="182"/>
-      <c r="J91" s="182"/>
-      <c r="K91" s="182"/>
-      <c r="L91" s="182"/>
-      <c r="M91" s="182"/>
-      <c r="N91" s="182"/>
-      <c r="O91" s="182"/>
-      <c r="P91" s="182"/>
-      <c r="Q91" s="182"/>
-      <c r="R91" s="182"/>
-      <c r="S91" s="182"/>
-      <c r="T91" s="182"/>
-      <c r="U91" s="182"/>
-      <c r="V91" s="182"/>
-      <c r="W91" s="182"/>
-      <c r="X91" s="182"/>
-      <c r="Y91" s="182"/>
-      <c r="Z91" s="182"/>
-      <c r="AA91" s="182"/>
-      <c r="AB91" s="182"/>
-      <c r="AC91" s="182"/>
-      <c r="AD91" s="182"/>
-      <c r="AE91" s="182"/>
-      <c r="AF91" s="182"/>
-      <c r="AG91" s="182"/>
-      <c r="AH91" s="182"/>
-      <c r="AI91" s="182"/>
-      <c r="AJ91" s="182"/>
-      <c r="AK91" s="182"/>
-      <c r="AL91" s="182"/>
-      <c r="AM91" s="182"/>
-      <c r="AN91" s="182"/>
-      <c r="AO91" s="182"/>
-      <c r="AP91" s="182"/>
-      <c r="AQ91" s="182"/>
-      <c r="AR91" s="182"/>
-      <c r="AS91" s="182"/>
-      <c r="AT91" s="182"/>
-      <c r="AU91" s="182"/>
-      <c r="AV91" s="182"/>
-      <c r="AW91" s="182"/>
-      <c r="AX91" s="182"/>
-      <c r="AY91" s="182"/>
-      <c r="AZ91" s="182"/>
-      <c r="BA91" s="182"/>
-      <c r="BB91" s="182"/>
-      <c r="BC91" s="182"/>
-      <c r="BD91" s="182"/>
-      <c r="BE91" s="182"/>
-      <c r="BF91" s="182"/>
-      <c r="BG91" s="182"/>
-      <c r="BH91" s="182"/>
-      <c r="BI91" s="182"/>
-      <c r="BJ91" s="182"/>
-      <c r="BK91" s="182"/>
-      <c r="BL91" s="182"/>
-      <c r="BM91" s="182"/>
-      <c r="BN91" s="182"/>
-      <c r="BO91" s="182"/>
-      <c r="BP91" s="182"/>
-      <c r="BQ91" s="182"/>
-      <c r="BR91" s="183"/>
+      <c r="C91" s="173"/>
+      <c r="D91" s="173"/>
+      <c r="E91" s="173"/>
+      <c r="F91" s="173"/>
+      <c r="G91" s="173"/>
+      <c r="H91" s="173"/>
+      <c r="I91" s="173"/>
+      <c r="J91" s="173"/>
+      <c r="K91" s="173"/>
+      <c r="L91" s="173"/>
+      <c r="M91" s="173"/>
+      <c r="N91" s="173"/>
+      <c r="O91" s="173"/>
+      <c r="P91" s="173"/>
+      <c r="Q91" s="173"/>
+      <c r="R91" s="173"/>
+      <c r="S91" s="173"/>
+      <c r="T91" s="173"/>
+      <c r="U91" s="173"/>
+      <c r="V91" s="173"/>
+      <c r="W91" s="173"/>
+      <c r="X91" s="173"/>
+      <c r="Y91" s="173"/>
+      <c r="Z91" s="173"/>
+      <c r="AA91" s="173"/>
+      <c r="AB91" s="173"/>
+      <c r="AC91" s="173"/>
+      <c r="AD91" s="173"/>
+      <c r="AE91" s="173"/>
+      <c r="AF91" s="173"/>
+      <c r="AG91" s="173"/>
+      <c r="AH91" s="173"/>
+      <c r="AI91" s="173"/>
+      <c r="AJ91" s="173"/>
+      <c r="AK91" s="173"/>
+      <c r="AL91" s="173"/>
+      <c r="AM91" s="173"/>
+      <c r="AN91" s="173"/>
+      <c r="AO91" s="173"/>
+      <c r="AP91" s="173"/>
+      <c r="AQ91" s="173"/>
+      <c r="AR91" s="173"/>
+      <c r="AS91" s="173"/>
+      <c r="AT91" s="173"/>
+      <c r="AU91" s="173"/>
+      <c r="AV91" s="173"/>
+      <c r="AW91" s="173"/>
+      <c r="AX91" s="173"/>
+      <c r="AY91" s="173"/>
+      <c r="AZ91" s="173"/>
+      <c r="BA91" s="173"/>
+      <c r="BB91" s="173"/>
+      <c r="BC91" s="173"/>
+      <c r="BD91" s="173"/>
+      <c r="BE91" s="173"/>
+      <c r="BF91" s="173"/>
+      <c r="BG91" s="173"/>
+      <c r="BH91" s="173"/>
+      <c r="BI91" s="173"/>
+      <c r="BJ91" s="173"/>
+      <c r="BK91" s="173"/>
+      <c r="BL91" s="173"/>
+      <c r="BM91" s="173"/>
+      <c r="BN91" s="173"/>
+      <c r="BO91" s="173"/>
+      <c r="BP91" s="173"/>
+      <c r="BQ91" s="173"/>
+      <c r="BR91" s="174"/>
     </row>
     <row r="92" spans="1:70" s="55" customFormat="1">
       <c r="A92" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.3</v>
       </c>
-      <c r="B92" s="182" t="s">
+      <c r="B92" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="C92" s="182"/>
-      <c r="D92" s="182"/>
-      <c r="E92" s="182"/>
-      <c r="F92" s="182"/>
-      <c r="G92" s="182"/>
-      <c r="H92" s="182"/>
-      <c r="I92" s="182"/>
-      <c r="J92" s="182"/>
-      <c r="K92" s="182"/>
-      <c r="L92" s="182"/>
-      <c r="M92" s="182"/>
-      <c r="N92" s="182"/>
-      <c r="O92" s="182"/>
-      <c r="P92" s="182"/>
-      <c r="Q92" s="182"/>
-      <c r="R92" s="182"/>
-      <c r="S92" s="182"/>
-      <c r="T92" s="182"/>
-      <c r="U92" s="182"/>
-      <c r="V92" s="182"/>
-      <c r="W92" s="182"/>
-      <c r="X92" s="182"/>
-      <c r="Y92" s="182"/>
-      <c r="Z92" s="182"/>
-      <c r="AA92" s="182"/>
-      <c r="AB92" s="182"/>
-      <c r="AC92" s="182"/>
-      <c r="AD92" s="182"/>
-      <c r="AE92" s="182"/>
-      <c r="AF92" s="182"/>
-      <c r="AG92" s="182"/>
-      <c r="AH92" s="182"/>
-      <c r="AI92" s="182"/>
-      <c r="AJ92" s="182"/>
-      <c r="AK92" s="182"/>
-      <c r="AL92" s="182"/>
-      <c r="AM92" s="182"/>
-      <c r="AN92" s="182"/>
-      <c r="AO92" s="182"/>
-      <c r="AP92" s="182"/>
-      <c r="AQ92" s="182"/>
-      <c r="AR92" s="182"/>
-      <c r="AS92" s="182"/>
-      <c r="AT92" s="182"/>
-      <c r="AU92" s="182"/>
-      <c r="AV92" s="182"/>
-      <c r="AW92" s="182"/>
-      <c r="AX92" s="182"/>
-      <c r="AY92" s="182"/>
-      <c r="AZ92" s="182"/>
-      <c r="BA92" s="182"/>
-      <c r="BB92" s="182"/>
-      <c r="BC92" s="182"/>
-      <c r="BD92" s="182"/>
-      <c r="BE92" s="182"/>
-      <c r="BF92" s="182"/>
-      <c r="BG92" s="182"/>
-      <c r="BH92" s="182"/>
-      <c r="BI92" s="182"/>
-      <c r="BJ92" s="182"/>
-      <c r="BK92" s="182"/>
-      <c r="BL92" s="182"/>
-      <c r="BM92" s="182"/>
-      <c r="BN92" s="182"/>
-      <c r="BO92" s="182"/>
-      <c r="BP92" s="182"/>
-      <c r="BQ92" s="182"/>
-      <c r="BR92" s="183"/>
+      <c r="C92" s="173"/>
+      <c r="D92" s="173"/>
+      <c r="E92" s="173"/>
+      <c r="F92" s="173"/>
+      <c r="G92" s="173"/>
+      <c r="H92" s="173"/>
+      <c r="I92" s="173"/>
+      <c r="J92" s="173"/>
+      <c r="K92" s="173"/>
+      <c r="L92" s="173"/>
+      <c r="M92" s="173"/>
+      <c r="N92" s="173"/>
+      <c r="O92" s="173"/>
+      <c r="P92" s="173"/>
+      <c r="Q92" s="173"/>
+      <c r="R92" s="173"/>
+      <c r="S92" s="173"/>
+      <c r="T92" s="173"/>
+      <c r="U92" s="173"/>
+      <c r="V92" s="173"/>
+      <c r="W92" s="173"/>
+      <c r="X92" s="173"/>
+      <c r="Y92" s="173"/>
+      <c r="Z92" s="173"/>
+      <c r="AA92" s="173"/>
+      <c r="AB92" s="173"/>
+      <c r="AC92" s="173"/>
+      <c r="AD92" s="173"/>
+      <c r="AE92" s="173"/>
+      <c r="AF92" s="173"/>
+      <c r="AG92" s="173"/>
+      <c r="AH92" s="173"/>
+      <c r="AI92" s="173"/>
+      <c r="AJ92" s="173"/>
+      <c r="AK92" s="173"/>
+      <c r="AL92" s="173"/>
+      <c r="AM92" s="173"/>
+      <c r="AN92" s="173"/>
+      <c r="AO92" s="173"/>
+      <c r="AP92" s="173"/>
+      <c r="AQ92" s="173"/>
+      <c r="AR92" s="173"/>
+      <c r="AS92" s="173"/>
+      <c r="AT92" s="173"/>
+      <c r="AU92" s="173"/>
+      <c r="AV92" s="173"/>
+      <c r="AW92" s="173"/>
+      <c r="AX92" s="173"/>
+      <c r="AY92" s="173"/>
+      <c r="AZ92" s="173"/>
+      <c r="BA92" s="173"/>
+      <c r="BB92" s="173"/>
+      <c r="BC92" s="173"/>
+      <c r="BD92" s="173"/>
+      <c r="BE92" s="173"/>
+      <c r="BF92" s="173"/>
+      <c r="BG92" s="173"/>
+      <c r="BH92" s="173"/>
+      <c r="BI92" s="173"/>
+      <c r="BJ92" s="173"/>
+      <c r="BK92" s="173"/>
+      <c r="BL92" s="173"/>
+      <c r="BM92" s="173"/>
+      <c r="BN92" s="173"/>
+      <c r="BO92" s="173"/>
+      <c r="BP92" s="173"/>
+      <c r="BQ92" s="173"/>
+      <c r="BR92" s="174"/>
     </row>
     <row r="93" spans="1:70" s="55" customFormat="1">
       <c r="A93" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.4</v>
       </c>
-      <c r="B93" s="182" t="s">
+      <c r="B93" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="C93" s="182"/>
-      <c r="D93" s="182"/>
-      <c r="E93" s="182"/>
-      <c r="F93" s="182"/>
-      <c r="G93" s="182"/>
-      <c r="H93" s="182"/>
-      <c r="I93" s="182"/>
-      <c r="J93" s="182"/>
-      <c r="K93" s="182"/>
-      <c r="L93" s="182"/>
-      <c r="M93" s="182"/>
-      <c r="N93" s="182"/>
-      <c r="O93" s="182"/>
-      <c r="P93" s="182"/>
-      <c r="Q93" s="182"/>
-      <c r="R93" s="182"/>
-      <c r="S93" s="182"/>
-      <c r="T93" s="182"/>
-      <c r="U93" s="182"/>
-      <c r="V93" s="182"/>
-      <c r="W93" s="182"/>
-      <c r="X93" s="182"/>
-      <c r="Y93" s="182"/>
-      <c r="Z93" s="182"/>
-      <c r="AA93" s="182"/>
-      <c r="AB93" s="182"/>
-      <c r="AC93" s="182"/>
-      <c r="AD93" s="182"/>
-      <c r="AE93" s="182"/>
-      <c r="AF93" s="182"/>
-      <c r="AG93" s="182"/>
-      <c r="AH93" s="182"/>
-      <c r="AI93" s="182"/>
-      <c r="AJ93" s="182"/>
-      <c r="AK93" s="182"/>
-      <c r="AL93" s="182"/>
-      <c r="AM93" s="182"/>
-      <c r="AN93" s="182"/>
-      <c r="AO93" s="182"/>
-      <c r="AP93" s="182"/>
-      <c r="AQ93" s="182"/>
-      <c r="AR93" s="182"/>
-      <c r="AS93" s="182"/>
-      <c r="AT93" s="182"/>
-      <c r="AU93" s="182"/>
-      <c r="AV93" s="182"/>
-      <c r="AW93" s="182"/>
-      <c r="AX93" s="182"/>
-      <c r="AY93" s="182"/>
-      <c r="AZ93" s="182"/>
-      <c r="BA93" s="182"/>
-      <c r="BB93" s="182"/>
-      <c r="BC93" s="182"/>
-      <c r="BD93" s="182"/>
-      <c r="BE93" s="182"/>
-      <c r="BF93" s="182"/>
-      <c r="BG93" s="182"/>
-      <c r="BH93" s="182"/>
-      <c r="BI93" s="182"/>
-      <c r="BJ93" s="182"/>
-      <c r="BK93" s="182"/>
-      <c r="BL93" s="182"/>
-      <c r="BM93" s="182"/>
-      <c r="BN93" s="182"/>
-      <c r="BO93" s="182"/>
-      <c r="BP93" s="182"/>
-      <c r="BQ93" s="182"/>
-      <c r="BR93" s="183"/>
+      <c r="C93" s="173"/>
+      <c r="D93" s="173"/>
+      <c r="E93" s="173"/>
+      <c r="F93" s="173"/>
+      <c r="G93" s="173"/>
+      <c r="H93" s="173"/>
+      <c r="I93" s="173"/>
+      <c r="J93" s="173"/>
+      <c r="K93" s="173"/>
+      <c r="L93" s="173"/>
+      <c r="M93" s="173"/>
+      <c r="N93" s="173"/>
+      <c r="O93" s="173"/>
+      <c r="P93" s="173"/>
+      <c r="Q93" s="173"/>
+      <c r="R93" s="173"/>
+      <c r="S93" s="173"/>
+      <c r="T93" s="173"/>
+      <c r="U93" s="173"/>
+      <c r="V93" s="173"/>
+      <c r="W93" s="173"/>
+      <c r="X93" s="173"/>
+      <c r="Y93" s="173"/>
+      <c r="Z93" s="173"/>
+      <c r="AA93" s="173"/>
+      <c r="AB93" s="173"/>
+      <c r="AC93" s="173"/>
+      <c r="AD93" s="173"/>
+      <c r="AE93" s="173"/>
+      <c r="AF93" s="173"/>
+      <c r="AG93" s="173"/>
+      <c r="AH93" s="173"/>
+      <c r="AI93" s="173"/>
+      <c r="AJ93" s="173"/>
+      <c r="AK93" s="173"/>
+      <c r="AL93" s="173"/>
+      <c r="AM93" s="173"/>
+      <c r="AN93" s="173"/>
+      <c r="AO93" s="173"/>
+      <c r="AP93" s="173"/>
+      <c r="AQ93" s="173"/>
+      <c r="AR93" s="173"/>
+      <c r="AS93" s="173"/>
+      <c r="AT93" s="173"/>
+      <c r="AU93" s="173"/>
+      <c r="AV93" s="173"/>
+      <c r="AW93" s="173"/>
+      <c r="AX93" s="173"/>
+      <c r="AY93" s="173"/>
+      <c r="AZ93" s="173"/>
+      <c r="BA93" s="173"/>
+      <c r="BB93" s="173"/>
+      <c r="BC93" s="173"/>
+      <c r="BD93" s="173"/>
+      <c r="BE93" s="173"/>
+      <c r="BF93" s="173"/>
+      <c r="BG93" s="173"/>
+      <c r="BH93" s="173"/>
+      <c r="BI93" s="173"/>
+      <c r="BJ93" s="173"/>
+      <c r="BK93" s="173"/>
+      <c r="BL93" s="173"/>
+      <c r="BM93" s="173"/>
+      <c r="BN93" s="173"/>
+      <c r="BO93" s="173"/>
+      <c r="BP93" s="173"/>
+      <c r="BQ93" s="173"/>
+      <c r="BR93" s="174"/>
     </row>
     <row r="94" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A94" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.5</v>
       </c>
-      <c r="B94" s="186" t="s">
+      <c r="B94" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="186"/>
-      <c r="D94" s="186"/>
-      <c r="E94" s="186"/>
-      <c r="F94" s="186"/>
-      <c r="G94" s="186"/>
-      <c r="H94" s="186"/>
-      <c r="I94" s="186"/>
-      <c r="J94" s="186"/>
-      <c r="K94" s="186"/>
-      <c r="L94" s="186"/>
-      <c r="M94" s="186"/>
-      <c r="N94" s="186"/>
-      <c r="O94" s="186"/>
-      <c r="P94" s="186"/>
-      <c r="Q94" s="186"/>
-      <c r="R94" s="186"/>
-      <c r="S94" s="186"/>
-      <c r="T94" s="186"/>
-      <c r="U94" s="186"/>
-      <c r="V94" s="186"/>
-      <c r="W94" s="186"/>
-      <c r="X94" s="186"/>
-      <c r="Y94" s="186"/>
-      <c r="Z94" s="186"/>
-      <c r="AA94" s="186"/>
-      <c r="AB94" s="186"/>
-      <c r="AC94" s="186"/>
-      <c r="AD94" s="186"/>
-      <c r="AE94" s="186"/>
-      <c r="AF94" s="186"/>
-      <c r="AG94" s="186"/>
-      <c r="AH94" s="186"/>
-      <c r="AI94" s="186"/>
-      <c r="AJ94" s="186"/>
-      <c r="AK94" s="186"/>
-      <c r="AL94" s="186"/>
-      <c r="AM94" s="186"/>
-      <c r="AN94" s="186"/>
-      <c r="AO94" s="186"/>
-      <c r="AP94" s="186"/>
-      <c r="AQ94" s="186"/>
-      <c r="AR94" s="186"/>
-      <c r="AS94" s="186"/>
-      <c r="AT94" s="186"/>
-      <c r="AU94" s="186"/>
-      <c r="AV94" s="186"/>
-      <c r="AW94" s="186"/>
-      <c r="AX94" s="186"/>
-      <c r="AY94" s="186"/>
-      <c r="AZ94" s="186"/>
-      <c r="BA94" s="186"/>
-      <c r="BB94" s="186"/>
-      <c r="BC94" s="186"/>
-      <c r="BD94" s="186"/>
-      <c r="BE94" s="186"/>
-      <c r="BF94" s="186"/>
-      <c r="BG94" s="186"/>
-      <c r="BH94" s="186"/>
-      <c r="BI94" s="186"/>
-      <c r="BJ94" s="186"/>
-      <c r="BK94" s="186"/>
-      <c r="BL94" s="186"/>
-      <c r="BM94" s="186"/>
-      <c r="BN94" s="186"/>
-      <c r="BO94" s="186"/>
-      <c r="BP94" s="186"/>
-      <c r="BQ94" s="186"/>
-      <c r="BR94" s="187"/>
+      <c r="C94" s="175"/>
+      <c r="D94" s="175"/>
+      <c r="E94" s="175"/>
+      <c r="F94" s="175"/>
+      <c r="G94" s="175"/>
+      <c r="H94" s="175"/>
+      <c r="I94" s="175"/>
+      <c r="J94" s="175"/>
+      <c r="K94" s="175"/>
+      <c r="L94" s="175"/>
+      <c r="M94" s="175"/>
+      <c r="N94" s="175"/>
+      <c r="O94" s="175"/>
+      <c r="P94" s="175"/>
+      <c r="Q94" s="175"/>
+      <c r="R94" s="175"/>
+      <c r="S94" s="175"/>
+      <c r="T94" s="175"/>
+      <c r="U94" s="175"/>
+      <c r="V94" s="175"/>
+      <c r="W94" s="175"/>
+      <c r="X94" s="175"/>
+      <c r="Y94" s="175"/>
+      <c r="Z94" s="175"/>
+      <c r="AA94" s="175"/>
+      <c r="AB94" s="175"/>
+      <c r="AC94" s="175"/>
+      <c r="AD94" s="175"/>
+      <c r="AE94" s="175"/>
+      <c r="AF94" s="175"/>
+      <c r="AG94" s="175"/>
+      <c r="AH94" s="175"/>
+      <c r="AI94" s="175"/>
+      <c r="AJ94" s="175"/>
+      <c r="AK94" s="175"/>
+      <c r="AL94" s="175"/>
+      <c r="AM94" s="175"/>
+      <c r="AN94" s="175"/>
+      <c r="AO94" s="175"/>
+      <c r="AP94" s="175"/>
+      <c r="AQ94" s="175"/>
+      <c r="AR94" s="175"/>
+      <c r="AS94" s="175"/>
+      <c r="AT94" s="175"/>
+      <c r="AU94" s="175"/>
+      <c r="AV94" s="175"/>
+      <c r="AW94" s="175"/>
+      <c r="AX94" s="175"/>
+      <c r="AY94" s="175"/>
+      <c r="AZ94" s="175"/>
+      <c r="BA94" s="175"/>
+      <c r="BB94" s="175"/>
+      <c r="BC94" s="175"/>
+      <c r="BD94" s="175"/>
+      <c r="BE94" s="175"/>
+      <c r="BF94" s="175"/>
+      <c r="BG94" s="175"/>
+      <c r="BH94" s="175"/>
+      <c r="BI94" s="175"/>
+      <c r="BJ94" s="175"/>
+      <c r="BK94" s="175"/>
+      <c r="BL94" s="175"/>
+      <c r="BM94" s="175"/>
+      <c r="BN94" s="175"/>
+      <c r="BO94" s="175"/>
+      <c r="BP94" s="175"/>
+      <c r="BQ94" s="175"/>
+      <c r="BR94" s="176"/>
     </row>
     <row r="95" spans="1:70" ht="17.25" thickBot="1">
       <c r="A95" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>6</v>
       </c>
-      <c r="B95" s="184" t="s">
+      <c r="B95" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="184"/>
-      <c r="D95" s="184"/>
-      <c r="E95" s="184"/>
-      <c r="F95" s="184"/>
-      <c r="G95" s="184"/>
-      <c r="H95" s="184"/>
-      <c r="I95" s="184"/>
-      <c r="J95" s="184"/>
-      <c r="K95" s="184"/>
-      <c r="L95" s="184"/>
-      <c r="M95" s="184"/>
-      <c r="N95" s="184"/>
-      <c r="O95" s="184"/>
-      <c r="P95" s="184"/>
-      <c r="Q95" s="184"/>
-      <c r="R95" s="184"/>
-      <c r="S95" s="184"/>
-      <c r="T95" s="184"/>
-      <c r="U95" s="184"/>
-      <c r="V95" s="184"/>
-      <c r="W95" s="184"/>
-      <c r="X95" s="184"/>
-      <c r="Y95" s="184"/>
-      <c r="Z95" s="184"/>
-      <c r="AA95" s="184"/>
-      <c r="AB95" s="184"/>
-      <c r="AC95" s="184"/>
-      <c r="AD95" s="184"/>
-      <c r="AE95" s="184"/>
-      <c r="AF95" s="184"/>
-      <c r="AG95" s="184"/>
-      <c r="AH95" s="184"/>
-      <c r="AI95" s="184"/>
-      <c r="AJ95" s="184"/>
-      <c r="AK95" s="184"/>
-      <c r="AL95" s="184"/>
-      <c r="AM95" s="184"/>
-      <c r="AN95" s="184"/>
-      <c r="AO95" s="184"/>
-      <c r="AP95" s="184"/>
-      <c r="AQ95" s="184"/>
-      <c r="AR95" s="184"/>
-      <c r="AS95" s="184"/>
-      <c r="AT95" s="184"/>
-      <c r="AU95" s="184"/>
-      <c r="AV95" s="184"/>
-      <c r="AW95" s="184"/>
-      <c r="AX95" s="184"/>
-      <c r="AY95" s="184"/>
-      <c r="AZ95" s="184"/>
-      <c r="BA95" s="184"/>
-      <c r="BB95" s="184"/>
-      <c r="BC95" s="184"/>
-      <c r="BD95" s="184"/>
-      <c r="BE95" s="184"/>
-      <c r="BF95" s="184"/>
-      <c r="BG95" s="184"/>
-      <c r="BH95" s="184"/>
-      <c r="BI95" s="184"/>
-      <c r="BJ95" s="184"/>
-      <c r="BK95" s="184"/>
-      <c r="BL95" s="184"/>
-      <c r="BM95" s="184"/>
-      <c r="BN95" s="184"/>
-      <c r="BO95" s="184"/>
-      <c r="BP95" s="184"/>
-      <c r="BQ95" s="184"/>
-      <c r="BR95" s="185"/>
+      <c r="C95" s="169"/>
+      <c r="D95" s="169"/>
+      <c r="E95" s="169"/>
+      <c r="F95" s="169"/>
+      <c r="G95" s="169"/>
+      <c r="H95" s="169"/>
+      <c r="I95" s="169"/>
+      <c r="J95" s="169"/>
+      <c r="K95" s="169"/>
+      <c r="L95" s="169"/>
+      <c r="M95" s="169"/>
+      <c r="N95" s="169"/>
+      <c r="O95" s="169"/>
+      <c r="P95" s="169"/>
+      <c r="Q95" s="169"/>
+      <c r="R95" s="169"/>
+      <c r="S95" s="169"/>
+      <c r="T95" s="169"/>
+      <c r="U95" s="169"/>
+      <c r="V95" s="169"/>
+      <c r="W95" s="169"/>
+      <c r="X95" s="169"/>
+      <c r="Y95" s="169"/>
+      <c r="Z95" s="169"/>
+      <c r="AA95" s="169"/>
+      <c r="AB95" s="169"/>
+      <c r="AC95" s="169"/>
+      <c r="AD95" s="169"/>
+      <c r="AE95" s="169"/>
+      <c r="AF95" s="169"/>
+      <c r="AG95" s="169"/>
+      <c r="AH95" s="169"/>
+      <c r="AI95" s="169"/>
+      <c r="AJ95" s="169"/>
+      <c r="AK95" s="169"/>
+      <c r="AL95" s="169"/>
+      <c r="AM95" s="169"/>
+      <c r="AN95" s="169"/>
+      <c r="AO95" s="169"/>
+      <c r="AP95" s="169"/>
+      <c r="AQ95" s="169"/>
+      <c r="AR95" s="169"/>
+      <c r="AS95" s="169"/>
+      <c r="AT95" s="169"/>
+      <c r="AU95" s="169"/>
+      <c r="AV95" s="169"/>
+      <c r="AW95" s="169"/>
+      <c r="AX95" s="169"/>
+      <c r="AY95" s="169"/>
+      <c r="AZ95" s="169"/>
+      <c r="BA95" s="169"/>
+      <c r="BB95" s="169"/>
+      <c r="BC95" s="169"/>
+      <c r="BD95" s="169"/>
+      <c r="BE95" s="169"/>
+      <c r="BF95" s="169"/>
+      <c r="BG95" s="169"/>
+      <c r="BH95" s="169"/>
+      <c r="BI95" s="169"/>
+      <c r="BJ95" s="169"/>
+      <c r="BK95" s="169"/>
+      <c r="BL95" s="169"/>
+      <c r="BM95" s="169"/>
+      <c r="BN95" s="169"/>
+      <c r="BO95" s="169"/>
+      <c r="BP95" s="169"/>
+      <c r="BQ95" s="169"/>
+      <c r="BR95" s="170"/>
     </row>
     <row r="96" spans="1:70" s="55" customFormat="1">
       <c r="A96" s="57" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.1</v>
       </c>
-      <c r="B96" s="180" t="s">
+      <c r="B96" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="C96" s="180"/>
-      <c r="D96" s="180"/>
-      <c r="E96" s="180"/>
-      <c r="F96" s="180"/>
-      <c r="G96" s="180"/>
-      <c r="H96" s="180"/>
-      <c r="I96" s="180"/>
-      <c r="J96" s="180"/>
-      <c r="K96" s="180"/>
-      <c r="L96" s="180"/>
-      <c r="M96" s="180"/>
-      <c r="N96" s="180"/>
-      <c r="O96" s="180"/>
-      <c r="P96" s="180"/>
-      <c r="Q96" s="180"/>
-      <c r="R96" s="180"/>
-      <c r="S96" s="180"/>
-      <c r="T96" s="180"/>
-      <c r="U96" s="180"/>
-      <c r="V96" s="180"/>
-      <c r="W96" s="180"/>
-      <c r="X96" s="180"/>
-      <c r="Y96" s="180"/>
-      <c r="Z96" s="180"/>
-      <c r="AA96" s="180"/>
-      <c r="AB96" s="180"/>
-      <c r="AC96" s="180"/>
-      <c r="AD96" s="180"/>
-      <c r="AE96" s="180"/>
-      <c r="AF96" s="180"/>
-      <c r="AG96" s="180"/>
-      <c r="AH96" s="180"/>
-      <c r="AI96" s="180"/>
-      <c r="AJ96" s="180"/>
-      <c r="AK96" s="180"/>
-      <c r="AL96" s="180"/>
-      <c r="AM96" s="180"/>
-      <c r="AN96" s="180"/>
-      <c r="AO96" s="180"/>
-      <c r="AP96" s="180"/>
-      <c r="AQ96" s="180"/>
-      <c r="AR96" s="180"/>
-      <c r="AS96" s="180"/>
-      <c r="AT96" s="180"/>
-      <c r="AU96" s="180"/>
-      <c r="AV96" s="180"/>
-      <c r="AW96" s="180"/>
-      <c r="AX96" s="180"/>
-      <c r="AY96" s="180"/>
-      <c r="AZ96" s="180"/>
-      <c r="BA96" s="180"/>
-      <c r="BB96" s="180"/>
-      <c r="BC96" s="180"/>
-      <c r="BD96" s="180"/>
-      <c r="BE96" s="180"/>
-      <c r="BF96" s="180"/>
-      <c r="BG96" s="180"/>
-      <c r="BH96" s="180"/>
-      <c r="BI96" s="180"/>
-      <c r="BJ96" s="180"/>
-      <c r="BK96" s="180"/>
-      <c r="BL96" s="180"/>
-      <c r="BM96" s="180"/>
-      <c r="BN96" s="180"/>
-      <c r="BO96" s="180"/>
-      <c r="BP96" s="180"/>
-      <c r="BQ96" s="180"/>
-      <c r="BR96" s="181"/>
+      <c r="C96" s="171"/>
+      <c r="D96" s="171"/>
+      <c r="E96" s="171"/>
+      <c r="F96" s="171"/>
+      <c r="G96" s="171"/>
+      <c r="H96" s="171"/>
+      <c r="I96" s="171"/>
+      <c r="J96" s="171"/>
+      <c r="K96" s="171"/>
+      <c r="L96" s="171"/>
+      <c r="M96" s="171"/>
+      <c r="N96" s="171"/>
+      <c r="O96" s="171"/>
+      <c r="P96" s="171"/>
+      <c r="Q96" s="171"/>
+      <c r="R96" s="171"/>
+      <c r="S96" s="171"/>
+      <c r="T96" s="171"/>
+      <c r="U96" s="171"/>
+      <c r="V96" s="171"/>
+      <c r="W96" s="171"/>
+      <c r="X96" s="171"/>
+      <c r="Y96" s="171"/>
+      <c r="Z96" s="171"/>
+      <c r="AA96" s="171"/>
+      <c r="AB96" s="171"/>
+      <c r="AC96" s="171"/>
+      <c r="AD96" s="171"/>
+      <c r="AE96" s="171"/>
+      <c r="AF96" s="171"/>
+      <c r="AG96" s="171"/>
+      <c r="AH96" s="171"/>
+      <c r="AI96" s="171"/>
+      <c r="AJ96" s="171"/>
+      <c r="AK96" s="171"/>
+      <c r="AL96" s="171"/>
+      <c r="AM96" s="171"/>
+      <c r="AN96" s="171"/>
+      <c r="AO96" s="171"/>
+      <c r="AP96" s="171"/>
+      <c r="AQ96" s="171"/>
+      <c r="AR96" s="171"/>
+      <c r="AS96" s="171"/>
+      <c r="AT96" s="171"/>
+      <c r="AU96" s="171"/>
+      <c r="AV96" s="171"/>
+      <c r="AW96" s="171"/>
+      <c r="AX96" s="171"/>
+      <c r="AY96" s="171"/>
+      <c r="AZ96" s="171"/>
+      <c r="BA96" s="171"/>
+      <c r="BB96" s="171"/>
+      <c r="BC96" s="171"/>
+      <c r="BD96" s="171"/>
+      <c r="BE96" s="171"/>
+      <c r="BF96" s="171"/>
+      <c r="BG96" s="171"/>
+      <c r="BH96" s="171"/>
+      <c r="BI96" s="171"/>
+      <c r="BJ96" s="171"/>
+      <c r="BK96" s="171"/>
+      <c r="BL96" s="171"/>
+      <c r="BM96" s="171"/>
+      <c r="BN96" s="171"/>
+      <c r="BO96" s="171"/>
+      <c r="BP96" s="171"/>
+      <c r="BQ96" s="171"/>
+      <c r="BR96" s="172"/>
     </row>
     <row r="97" spans="1:70" s="55" customFormat="1">
       <c r="A97" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.2</v>
       </c>
-      <c r="B97" s="182" t="s">
+      <c r="B97" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="182"/>
-      <c r="D97" s="182"/>
-      <c r="E97" s="182"/>
-      <c r="F97" s="182"/>
-      <c r="G97" s="182"/>
-      <c r="H97" s="182"/>
-      <c r="I97" s="182"/>
-      <c r="J97" s="182"/>
-      <c r="K97" s="182"/>
-      <c r="L97" s="182"/>
-      <c r="M97" s="182"/>
-      <c r="N97" s="182"/>
-      <c r="O97" s="182"/>
-      <c r="P97" s="182"/>
-      <c r="Q97" s="182"/>
-      <c r="R97" s="182"/>
-      <c r="S97" s="182"/>
-      <c r="T97" s="182"/>
-      <c r="U97" s="182"/>
-      <c r="V97" s="182"/>
-      <c r="W97" s="182"/>
-      <c r="X97" s="182"/>
-      <c r="Y97" s="182"/>
-      <c r="Z97" s="182"/>
-      <c r="AA97" s="182"/>
-      <c r="AB97" s="182"/>
-      <c r="AC97" s="182"/>
-      <c r="AD97" s="182"/>
-      <c r="AE97" s="182"/>
-      <c r="AF97" s="182"/>
-      <c r="AG97" s="182"/>
-      <c r="AH97" s="182"/>
-      <c r="AI97" s="182"/>
-      <c r="AJ97" s="182"/>
-      <c r="AK97" s="182"/>
-      <c r="AL97" s="182"/>
-      <c r="AM97" s="182"/>
-      <c r="AN97" s="182"/>
-      <c r="AO97" s="182"/>
-      <c r="AP97" s="182"/>
-      <c r="AQ97" s="182"/>
-      <c r="AR97" s="182"/>
-      <c r="AS97" s="182"/>
-      <c r="AT97" s="182"/>
-      <c r="AU97" s="182"/>
-      <c r="AV97" s="182"/>
-      <c r="AW97" s="182"/>
-      <c r="AX97" s="182"/>
-      <c r="AY97" s="182"/>
-      <c r="AZ97" s="182"/>
-      <c r="BA97" s="182"/>
-      <c r="BB97" s="182"/>
-      <c r="BC97" s="182"/>
-      <c r="BD97" s="182"/>
-      <c r="BE97" s="182"/>
-      <c r="BF97" s="182"/>
-      <c r="BG97" s="182"/>
-      <c r="BH97" s="182"/>
-      <c r="BI97" s="182"/>
-      <c r="BJ97" s="182"/>
-      <c r="BK97" s="182"/>
-      <c r="BL97" s="182"/>
-      <c r="BM97" s="182"/>
-      <c r="BN97" s="182"/>
-      <c r="BO97" s="182"/>
-      <c r="BP97" s="182"/>
-      <c r="BQ97" s="182"/>
-      <c r="BR97" s="183"/>
+      <c r="C97" s="173"/>
+      <c r="D97" s="173"/>
+      <c r="E97" s="173"/>
+      <c r="F97" s="173"/>
+      <c r="G97" s="173"/>
+      <c r="H97" s="173"/>
+      <c r="I97" s="173"/>
+      <c r="J97" s="173"/>
+      <c r="K97" s="173"/>
+      <c r="L97" s="173"/>
+      <c r="M97" s="173"/>
+      <c r="N97" s="173"/>
+      <c r="O97" s="173"/>
+      <c r="P97" s="173"/>
+      <c r="Q97" s="173"/>
+      <c r="R97" s="173"/>
+      <c r="S97" s="173"/>
+      <c r="T97" s="173"/>
+      <c r="U97" s="173"/>
+      <c r="V97" s="173"/>
+      <c r="W97" s="173"/>
+      <c r="X97" s="173"/>
+      <c r="Y97" s="173"/>
+      <c r="Z97" s="173"/>
+      <c r="AA97" s="173"/>
+      <c r="AB97" s="173"/>
+      <c r="AC97" s="173"/>
+      <c r="AD97" s="173"/>
+      <c r="AE97" s="173"/>
+      <c r="AF97" s="173"/>
+      <c r="AG97" s="173"/>
+      <c r="AH97" s="173"/>
+      <c r="AI97" s="173"/>
+      <c r="AJ97" s="173"/>
+      <c r="AK97" s="173"/>
+      <c r="AL97" s="173"/>
+      <c r="AM97" s="173"/>
+      <c r="AN97" s="173"/>
+      <c r="AO97" s="173"/>
+      <c r="AP97" s="173"/>
+      <c r="AQ97" s="173"/>
+      <c r="AR97" s="173"/>
+      <c r="AS97" s="173"/>
+      <c r="AT97" s="173"/>
+      <c r="AU97" s="173"/>
+      <c r="AV97" s="173"/>
+      <c r="AW97" s="173"/>
+      <c r="AX97" s="173"/>
+      <c r="AY97" s="173"/>
+      <c r="AZ97" s="173"/>
+      <c r="BA97" s="173"/>
+      <c r="BB97" s="173"/>
+      <c r="BC97" s="173"/>
+      <c r="BD97" s="173"/>
+      <c r="BE97" s="173"/>
+      <c r="BF97" s="173"/>
+      <c r="BG97" s="173"/>
+      <c r="BH97" s="173"/>
+      <c r="BI97" s="173"/>
+      <c r="BJ97" s="173"/>
+      <c r="BK97" s="173"/>
+      <c r="BL97" s="173"/>
+      <c r="BM97" s="173"/>
+      <c r="BN97" s="173"/>
+      <c r="BO97" s="173"/>
+      <c r="BP97" s="173"/>
+      <c r="BQ97" s="173"/>
+      <c r="BR97" s="174"/>
     </row>
     <row r="98" spans="1:70" s="55" customFormat="1">
       <c r="A98" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.3</v>
       </c>
-      <c r="B98" s="182" t="s">
+      <c r="B98" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="C98" s="182"/>
-      <c r="D98" s="182"/>
-      <c r="E98" s="182"/>
-      <c r="F98" s="182"/>
-      <c r="G98" s="182"/>
-      <c r="H98" s="182"/>
-      <c r="I98" s="182"/>
-      <c r="J98" s="182"/>
-      <c r="K98" s="182"/>
-      <c r="L98" s="182"/>
-      <c r="M98" s="182"/>
-      <c r="N98" s="182"/>
-      <c r="O98" s="182"/>
-      <c r="P98" s="182"/>
-      <c r="Q98" s="182"/>
-      <c r="R98" s="182"/>
-      <c r="S98" s="182"/>
-      <c r="T98" s="182"/>
-      <c r="U98" s="182"/>
-      <c r="V98" s="182"/>
-      <c r="W98" s="182"/>
-      <c r="X98" s="182"/>
-      <c r="Y98" s="182"/>
-      <c r="Z98" s="182"/>
-      <c r="AA98" s="182"/>
-      <c r="AB98" s="182"/>
-      <c r="AC98" s="182"/>
-      <c r="AD98" s="182"/>
-      <c r="AE98" s="182"/>
-      <c r="AF98" s="182"/>
-      <c r="AG98" s="182"/>
-      <c r="AH98" s="182"/>
-      <c r="AI98" s="182"/>
-      <c r="AJ98" s="182"/>
-      <c r="AK98" s="182"/>
-      <c r="AL98" s="182"/>
-      <c r="AM98" s="182"/>
-      <c r="AN98" s="182"/>
-      <c r="AO98" s="182"/>
-      <c r="AP98" s="182"/>
-      <c r="AQ98" s="182"/>
-      <c r="AR98" s="182"/>
-      <c r="AS98" s="182"/>
-      <c r="AT98" s="182"/>
-      <c r="AU98" s="182"/>
-      <c r="AV98" s="182"/>
-      <c r="AW98" s="182"/>
-      <c r="AX98" s="182"/>
-      <c r="AY98" s="182"/>
-      <c r="AZ98" s="182"/>
-      <c r="BA98" s="182"/>
-      <c r="BB98" s="182"/>
-      <c r="BC98" s="182"/>
-      <c r="BD98" s="182"/>
-      <c r="BE98" s="182"/>
-      <c r="BF98" s="182"/>
-      <c r="BG98" s="182"/>
-      <c r="BH98" s="182"/>
-      <c r="BI98" s="182"/>
-      <c r="BJ98" s="182"/>
-      <c r="BK98" s="182"/>
-      <c r="BL98" s="182"/>
-      <c r="BM98" s="182"/>
-      <c r="BN98" s="182"/>
-      <c r="BO98" s="182"/>
-      <c r="BP98" s="182"/>
-      <c r="BQ98" s="182"/>
-      <c r="BR98" s="183"/>
+      <c r="C98" s="173"/>
+      <c r="D98" s="173"/>
+      <c r="E98" s="173"/>
+      <c r="F98" s="173"/>
+      <c r="G98" s="173"/>
+      <c r="H98" s="173"/>
+      <c r="I98" s="173"/>
+      <c r="J98" s="173"/>
+      <c r="K98" s="173"/>
+      <c r="L98" s="173"/>
+      <c r="M98" s="173"/>
+      <c r="N98" s="173"/>
+      <c r="O98" s="173"/>
+      <c r="P98" s="173"/>
+      <c r="Q98" s="173"/>
+      <c r="R98" s="173"/>
+      <c r="S98" s="173"/>
+      <c r="T98" s="173"/>
+      <c r="U98" s="173"/>
+      <c r="V98" s="173"/>
+      <c r="W98" s="173"/>
+      <c r="X98" s="173"/>
+      <c r="Y98" s="173"/>
+      <c r="Z98" s="173"/>
+      <c r="AA98" s="173"/>
+      <c r="AB98" s="173"/>
+      <c r="AC98" s="173"/>
+      <c r="AD98" s="173"/>
+      <c r="AE98" s="173"/>
+      <c r="AF98" s="173"/>
+      <c r="AG98" s="173"/>
+      <c r="AH98" s="173"/>
+      <c r="AI98" s="173"/>
+      <c r="AJ98" s="173"/>
+      <c r="AK98" s="173"/>
+      <c r="AL98" s="173"/>
+      <c r="AM98" s="173"/>
+      <c r="AN98" s="173"/>
+      <c r="AO98" s="173"/>
+      <c r="AP98" s="173"/>
+      <c r="AQ98" s="173"/>
+      <c r="AR98" s="173"/>
+      <c r="AS98" s="173"/>
+      <c r="AT98" s="173"/>
+      <c r="AU98" s="173"/>
+      <c r="AV98" s="173"/>
+      <c r="AW98" s="173"/>
+      <c r="AX98" s="173"/>
+      <c r="AY98" s="173"/>
+      <c r="AZ98" s="173"/>
+      <c r="BA98" s="173"/>
+      <c r="BB98" s="173"/>
+      <c r="BC98" s="173"/>
+      <c r="BD98" s="173"/>
+      <c r="BE98" s="173"/>
+      <c r="BF98" s="173"/>
+      <c r="BG98" s="173"/>
+      <c r="BH98" s="173"/>
+      <c r="BI98" s="173"/>
+      <c r="BJ98" s="173"/>
+      <c r="BK98" s="173"/>
+      <c r="BL98" s="173"/>
+      <c r="BM98" s="173"/>
+      <c r="BN98" s="173"/>
+      <c r="BO98" s="173"/>
+      <c r="BP98" s="173"/>
+      <c r="BQ98" s="173"/>
+      <c r="BR98" s="174"/>
     </row>
     <row r="99" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A99" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.4</v>
       </c>
-      <c r="B99" s="186" t="s">
+      <c r="B99" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="C99" s="186"/>
-      <c r="D99" s="186"/>
-      <c r="E99" s="186"/>
-      <c r="F99" s="186"/>
-      <c r="G99" s="186"/>
-      <c r="H99" s="186"/>
-      <c r="I99" s="186"/>
-      <c r="J99" s="186"/>
-      <c r="K99" s="186"/>
-      <c r="L99" s="186"/>
-      <c r="M99" s="186"/>
-      <c r="N99" s="186"/>
-      <c r="O99" s="186"/>
-      <c r="P99" s="186"/>
-      <c r="Q99" s="186"/>
-      <c r="R99" s="186"/>
-      <c r="S99" s="186"/>
-      <c r="T99" s="186"/>
-      <c r="U99" s="186"/>
-      <c r="V99" s="186"/>
-      <c r="W99" s="186"/>
-      <c r="X99" s="186"/>
-      <c r="Y99" s="186"/>
-      <c r="Z99" s="186"/>
-      <c r="AA99" s="186"/>
-      <c r="AB99" s="186"/>
-      <c r="AC99" s="186"/>
-      <c r="AD99" s="186"/>
-      <c r="AE99" s="186"/>
-      <c r="AF99" s="186"/>
-      <c r="AG99" s="186"/>
-      <c r="AH99" s="186"/>
-      <c r="AI99" s="186"/>
-      <c r="AJ99" s="186"/>
-      <c r="AK99" s="186"/>
-      <c r="AL99" s="186"/>
-      <c r="AM99" s="186"/>
-      <c r="AN99" s="186"/>
-      <c r="AO99" s="186"/>
-      <c r="AP99" s="186"/>
-      <c r="AQ99" s="186"/>
-      <c r="AR99" s="186"/>
-      <c r="AS99" s="186"/>
-      <c r="AT99" s="186"/>
-      <c r="AU99" s="186"/>
-      <c r="AV99" s="186"/>
-      <c r="AW99" s="186"/>
-      <c r="AX99" s="186"/>
-      <c r="AY99" s="186"/>
-      <c r="AZ99" s="186"/>
-      <c r="BA99" s="186"/>
-      <c r="BB99" s="186"/>
-      <c r="BC99" s="186"/>
-      <c r="BD99" s="186"/>
-      <c r="BE99" s="186"/>
-      <c r="BF99" s="186"/>
-      <c r="BG99" s="186"/>
-      <c r="BH99" s="186"/>
-      <c r="BI99" s="186"/>
-      <c r="BJ99" s="186"/>
-      <c r="BK99" s="186"/>
-      <c r="BL99" s="186"/>
-      <c r="BM99" s="186"/>
-      <c r="BN99" s="186"/>
-      <c r="BO99" s="186"/>
-      <c r="BP99" s="186"/>
-      <c r="BQ99" s="186"/>
-      <c r="BR99" s="187"/>
+      <c r="C99" s="175"/>
+      <c r="D99" s="175"/>
+      <c r="E99" s="175"/>
+      <c r="F99" s="175"/>
+      <c r="G99" s="175"/>
+      <c r="H99" s="175"/>
+      <c r="I99" s="175"/>
+      <c r="J99" s="175"/>
+      <c r="K99" s="175"/>
+      <c r="L99" s="175"/>
+      <c r="M99" s="175"/>
+      <c r="N99" s="175"/>
+      <c r="O99" s="175"/>
+      <c r="P99" s="175"/>
+      <c r="Q99" s="175"/>
+      <c r="R99" s="175"/>
+      <c r="S99" s="175"/>
+      <c r="T99" s="175"/>
+      <c r="U99" s="175"/>
+      <c r="V99" s="175"/>
+      <c r="W99" s="175"/>
+      <c r="X99" s="175"/>
+      <c r="Y99" s="175"/>
+      <c r="Z99" s="175"/>
+      <c r="AA99" s="175"/>
+      <c r="AB99" s="175"/>
+      <c r="AC99" s="175"/>
+      <c r="AD99" s="175"/>
+      <c r="AE99" s="175"/>
+      <c r="AF99" s="175"/>
+      <c r="AG99" s="175"/>
+      <c r="AH99" s="175"/>
+      <c r="AI99" s="175"/>
+      <c r="AJ99" s="175"/>
+      <c r="AK99" s="175"/>
+      <c r="AL99" s="175"/>
+      <c r="AM99" s="175"/>
+      <c r="AN99" s="175"/>
+      <c r="AO99" s="175"/>
+      <c r="AP99" s="175"/>
+      <c r="AQ99" s="175"/>
+      <c r="AR99" s="175"/>
+      <c r="AS99" s="175"/>
+      <c r="AT99" s="175"/>
+      <c r="AU99" s="175"/>
+      <c r="AV99" s="175"/>
+      <c r="AW99" s="175"/>
+      <c r="AX99" s="175"/>
+      <c r="AY99" s="175"/>
+      <c r="AZ99" s="175"/>
+      <c r="BA99" s="175"/>
+      <c r="BB99" s="175"/>
+      <c r="BC99" s="175"/>
+      <c r="BD99" s="175"/>
+      <c r="BE99" s="175"/>
+      <c r="BF99" s="175"/>
+      <c r="BG99" s="175"/>
+      <c r="BH99" s="175"/>
+      <c r="BI99" s="175"/>
+      <c r="BJ99" s="175"/>
+      <c r="BK99" s="175"/>
+      <c r="BL99" s="175"/>
+      <c r="BM99" s="175"/>
+      <c r="BN99" s="175"/>
+      <c r="BO99" s="175"/>
+      <c r="BP99" s="175"/>
+      <c r="BQ99" s="175"/>
+      <c r="BR99" s="176"/>
     </row>
     <row r="100" spans="1:70" ht="17.25" thickBot="1">
       <c r="A100" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>7</v>
       </c>
-      <c r="B100" s="184" t="s">
+      <c r="B100" s="169" t="s">
         <v>74</v>
       </c>
-      <c r="C100" s="184"/>
-      <c r="D100" s="184"/>
-      <c r="E100" s="184"/>
-      <c r="F100" s="184"/>
-      <c r="G100" s="184"/>
-      <c r="H100" s="184"/>
-      <c r="I100" s="184"/>
-      <c r="J100" s="184"/>
-      <c r="K100" s="184"/>
-      <c r="L100" s="184"/>
-      <c r="M100" s="184"/>
-      <c r="N100" s="184"/>
-      <c r="O100" s="184"/>
-      <c r="P100" s="184"/>
-      <c r="Q100" s="184"/>
-      <c r="R100" s="184"/>
-      <c r="S100" s="184"/>
-      <c r="T100" s="184"/>
-      <c r="U100" s="184"/>
-      <c r="V100" s="184"/>
-      <c r="W100" s="184"/>
-      <c r="X100" s="184"/>
-      <c r="Y100" s="184"/>
-      <c r="Z100" s="184"/>
-      <c r="AA100" s="184"/>
-      <c r="AB100" s="184"/>
-      <c r="AC100" s="184"/>
-      <c r="AD100" s="184"/>
-      <c r="AE100" s="184"/>
-      <c r="AF100" s="184"/>
-      <c r="AG100" s="184"/>
-      <c r="AH100" s="184"/>
-      <c r="AI100" s="184"/>
-      <c r="AJ100" s="184"/>
-      <c r="AK100" s="184"/>
-      <c r="AL100" s="184"/>
-      <c r="AM100" s="184"/>
-      <c r="AN100" s="184"/>
-      <c r="AO100" s="184"/>
-      <c r="AP100" s="184"/>
-      <c r="AQ100" s="184"/>
-      <c r="AR100" s="184"/>
-      <c r="AS100" s="184"/>
-      <c r="AT100" s="184"/>
-      <c r="AU100" s="184"/>
-      <c r="AV100" s="184"/>
-      <c r="AW100" s="184"/>
-      <c r="AX100" s="184"/>
-      <c r="AY100" s="184"/>
-      <c r="AZ100" s="184"/>
-      <c r="BA100" s="184"/>
-      <c r="BB100" s="184"/>
-      <c r="BC100" s="184"/>
-      <c r="BD100" s="184"/>
-      <c r="BE100" s="184"/>
-      <c r="BF100" s="184"/>
-      <c r="BG100" s="184"/>
-      <c r="BH100" s="184"/>
-      <c r="BI100" s="184"/>
-      <c r="BJ100" s="184"/>
-      <c r="BK100" s="184"/>
-      <c r="BL100" s="184"/>
-      <c r="BM100" s="184"/>
-      <c r="BN100" s="184"/>
-      <c r="BO100" s="184"/>
-      <c r="BP100" s="184"/>
-      <c r="BQ100" s="184"/>
-      <c r="BR100" s="185"/>
+      <c r="C100" s="169"/>
+      <c r="D100" s="169"/>
+      <c r="E100" s="169"/>
+      <c r="F100" s="169"/>
+      <c r="G100" s="169"/>
+      <c r="H100" s="169"/>
+      <c r="I100" s="169"/>
+      <c r="J100" s="169"/>
+      <c r="K100" s="169"/>
+      <c r="L100" s="169"/>
+      <c r="M100" s="169"/>
+      <c r="N100" s="169"/>
+      <c r="O100" s="169"/>
+      <c r="P100" s="169"/>
+      <c r="Q100" s="169"/>
+      <c r="R100" s="169"/>
+      <c r="S100" s="169"/>
+      <c r="T100" s="169"/>
+      <c r="U100" s="169"/>
+      <c r="V100" s="169"/>
+      <c r="W100" s="169"/>
+      <c r="X100" s="169"/>
+      <c r="Y100" s="169"/>
+      <c r="Z100" s="169"/>
+      <c r="AA100" s="169"/>
+      <c r="AB100" s="169"/>
+      <c r="AC100" s="169"/>
+      <c r="AD100" s="169"/>
+      <c r="AE100" s="169"/>
+      <c r="AF100" s="169"/>
+      <c r="AG100" s="169"/>
+      <c r="AH100" s="169"/>
+      <c r="AI100" s="169"/>
+      <c r="AJ100" s="169"/>
+      <c r="AK100" s="169"/>
+      <c r="AL100" s="169"/>
+      <c r="AM100" s="169"/>
+      <c r="AN100" s="169"/>
+      <c r="AO100" s="169"/>
+      <c r="AP100" s="169"/>
+      <c r="AQ100" s="169"/>
+      <c r="AR100" s="169"/>
+      <c r="AS100" s="169"/>
+      <c r="AT100" s="169"/>
+      <c r="AU100" s="169"/>
+      <c r="AV100" s="169"/>
+      <c r="AW100" s="169"/>
+      <c r="AX100" s="169"/>
+      <c r="AY100" s="169"/>
+      <c r="AZ100" s="169"/>
+      <c r="BA100" s="169"/>
+      <c r="BB100" s="169"/>
+      <c r="BC100" s="169"/>
+      <c r="BD100" s="169"/>
+      <c r="BE100" s="169"/>
+      <c r="BF100" s="169"/>
+      <c r="BG100" s="169"/>
+      <c r="BH100" s="169"/>
+      <c r="BI100" s="169"/>
+      <c r="BJ100" s="169"/>
+      <c r="BK100" s="169"/>
+      <c r="BL100" s="169"/>
+      <c r="BM100" s="169"/>
+      <c r="BN100" s="169"/>
+      <c r="BO100" s="169"/>
+      <c r="BP100" s="169"/>
+      <c r="BQ100" s="169"/>
+      <c r="BR100" s="170"/>
     </row>
     <row r="101" spans="1:70" s="55" customFormat="1">
       <c r="A101" s="57" t="str">
         <f t="shared" ref="A101:A106" si="66">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>7.1</v>
       </c>
-      <c r="B101" s="180" t="s">
+      <c r="B101" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="C101" s="180"/>
-      <c r="D101" s="180"/>
-      <c r="E101" s="180"/>
-      <c r="F101" s="180"/>
-      <c r="G101" s="180"/>
-      <c r="H101" s="180"/>
-      <c r="I101" s="180"/>
-      <c r="J101" s="180"/>
-      <c r="K101" s="180"/>
-      <c r="L101" s="180"/>
-      <c r="M101" s="180"/>
-      <c r="N101" s="180"/>
-      <c r="O101" s="180"/>
-      <c r="P101" s="180"/>
-      <c r="Q101" s="180"/>
-      <c r="R101" s="180"/>
-      <c r="S101" s="180"/>
-      <c r="T101" s="180"/>
-      <c r="U101" s="180"/>
-      <c r="V101" s="180"/>
-      <c r="W101" s="180"/>
-      <c r="X101" s="180"/>
-      <c r="Y101" s="180"/>
-      <c r="Z101" s="180"/>
-      <c r="AA101" s="180"/>
-      <c r="AB101" s="180"/>
-      <c r="AC101" s="180"/>
-      <c r="AD101" s="180"/>
-      <c r="AE101" s="180"/>
-      <c r="AF101" s="180"/>
-      <c r="AG101" s="180"/>
-      <c r="AH101" s="180"/>
-      <c r="AI101" s="180"/>
-      <c r="AJ101" s="180"/>
-      <c r="AK101" s="180"/>
-      <c r="AL101" s="180"/>
-      <c r="AM101" s="180"/>
-      <c r="AN101" s="180"/>
-      <c r="AO101" s="180"/>
-      <c r="AP101" s="180"/>
-      <c r="AQ101" s="180"/>
-      <c r="AR101" s="180"/>
-      <c r="AS101" s="180"/>
-      <c r="AT101" s="180"/>
-      <c r="AU101" s="180"/>
-      <c r="AV101" s="180"/>
-      <c r="AW101" s="180"/>
-      <c r="AX101" s="180"/>
-      <c r="AY101" s="180"/>
-      <c r="AZ101" s="180"/>
-      <c r="BA101" s="180"/>
-      <c r="BB101" s="180"/>
-      <c r="BC101" s="180"/>
-      <c r="BD101" s="180"/>
-      <c r="BE101" s="180"/>
-      <c r="BF101" s="180"/>
-      <c r="BG101" s="180"/>
-      <c r="BH101" s="180"/>
-      <c r="BI101" s="180"/>
-      <c r="BJ101" s="180"/>
-      <c r="BK101" s="180"/>
-      <c r="BL101" s="180"/>
-      <c r="BM101" s="180"/>
-      <c r="BN101" s="180"/>
-      <c r="BO101" s="180"/>
-      <c r="BP101" s="180"/>
-      <c r="BQ101" s="180"/>
-      <c r="BR101" s="181"/>
+      <c r="C101" s="171"/>
+      <c r="D101" s="171"/>
+      <c r="E101" s="171"/>
+      <c r="F101" s="171"/>
+      <c r="G101" s="171"/>
+      <c r="H101" s="171"/>
+      <c r="I101" s="171"/>
+      <c r="J101" s="171"/>
+      <c r="K101" s="171"/>
+      <c r="L101" s="171"/>
+      <c r="M101" s="171"/>
+      <c r="N101" s="171"/>
+      <c r="O101" s="171"/>
+      <c r="P101" s="171"/>
+      <c r="Q101" s="171"/>
+      <c r="R101" s="171"/>
+      <c r="S101" s="171"/>
+      <c r="T101" s="171"/>
+      <c r="U101" s="171"/>
+      <c r="V101" s="171"/>
+      <c r="W101" s="171"/>
+      <c r="X101" s="171"/>
+      <c r="Y101" s="171"/>
+      <c r="Z101" s="171"/>
+      <c r="AA101" s="171"/>
+      <c r="AB101" s="171"/>
+      <c r="AC101" s="171"/>
+      <c r="AD101" s="171"/>
+      <c r="AE101" s="171"/>
+      <c r="AF101" s="171"/>
+      <c r="AG101" s="171"/>
+      <c r="AH101" s="171"/>
+      <c r="AI101" s="171"/>
+      <c r="AJ101" s="171"/>
+      <c r="AK101" s="171"/>
+      <c r="AL101" s="171"/>
+      <c r="AM101" s="171"/>
+      <c r="AN101" s="171"/>
+      <c r="AO101" s="171"/>
+      <c r="AP101" s="171"/>
+      <c r="AQ101" s="171"/>
+      <c r="AR101" s="171"/>
+      <c r="AS101" s="171"/>
+      <c r="AT101" s="171"/>
+      <c r="AU101" s="171"/>
+      <c r="AV101" s="171"/>
+      <c r="AW101" s="171"/>
+      <c r="AX101" s="171"/>
+      <c r="AY101" s="171"/>
+      <c r="AZ101" s="171"/>
+      <c r="BA101" s="171"/>
+      <c r="BB101" s="171"/>
+      <c r="BC101" s="171"/>
+      <c r="BD101" s="171"/>
+      <c r="BE101" s="171"/>
+      <c r="BF101" s="171"/>
+      <c r="BG101" s="171"/>
+      <c r="BH101" s="171"/>
+      <c r="BI101" s="171"/>
+      <c r="BJ101" s="171"/>
+      <c r="BK101" s="171"/>
+      <c r="BL101" s="171"/>
+      <c r="BM101" s="171"/>
+      <c r="BN101" s="171"/>
+      <c r="BO101" s="171"/>
+      <c r="BP101" s="171"/>
+      <c r="BQ101" s="171"/>
+      <c r="BR101" s="172"/>
     </row>
     <row r="102" spans="1:70" s="55" customFormat="1">
       <c r="A102" s="58" t="str">
         <f t="shared" si="66"/>
         <v>7.2</v>
       </c>
-      <c r="B102" s="182" t="s">
+      <c r="B102" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="C102" s="182"/>
-      <c r="D102" s="182"/>
-      <c r="E102" s="182"/>
-      <c r="F102" s="182"/>
-      <c r="G102" s="182"/>
-      <c r="H102" s="182"/>
-      <c r="I102" s="182"/>
-      <c r="J102" s="182"/>
-      <c r="K102" s="182"/>
-      <c r="L102" s="182"/>
-      <c r="M102" s="182"/>
-      <c r="N102" s="182"/>
-      <c r="O102" s="182"/>
-      <c r="P102" s="182"/>
-      <c r="Q102" s="182"/>
-      <c r="R102" s="182"/>
-      <c r="S102" s="182"/>
-      <c r="T102" s="182"/>
-      <c r="U102" s="182"/>
-      <c r="V102" s="182"/>
-      <c r="W102" s="182"/>
-      <c r="X102" s="182"/>
-      <c r="Y102" s="182"/>
-      <c r="Z102" s="182"/>
-      <c r="AA102" s="182"/>
-      <c r="AB102" s="182"/>
-      <c r="AC102" s="182"/>
-      <c r="AD102" s="182"/>
-      <c r="AE102" s="182"/>
-      <c r="AF102" s="182"/>
-      <c r="AG102" s="182"/>
-      <c r="AH102" s="182"/>
-      <c r="AI102" s="182"/>
-      <c r="AJ102" s="182"/>
-      <c r="AK102" s="182"/>
-      <c r="AL102" s="182"/>
-      <c r="AM102" s="182"/>
-      <c r="AN102" s="182"/>
-      <c r="AO102" s="182"/>
-      <c r="AP102" s="182"/>
-      <c r="AQ102" s="182"/>
-      <c r="AR102" s="182"/>
-      <c r="AS102" s="182"/>
-      <c r="AT102" s="182"/>
-      <c r="AU102" s="182"/>
-      <c r="AV102" s="182"/>
-      <c r="AW102" s="182"/>
-      <c r="AX102" s="182"/>
-      <c r="AY102" s="182"/>
-      <c r="AZ102" s="182"/>
-      <c r="BA102" s="182"/>
-      <c r="BB102" s="182"/>
-      <c r="BC102" s="182"/>
-      <c r="BD102" s="182"/>
-      <c r="BE102" s="182"/>
-      <c r="BF102" s="182"/>
-      <c r="BG102" s="182"/>
-      <c r="BH102" s="182"/>
-      <c r="BI102" s="182"/>
-      <c r="BJ102" s="182"/>
-      <c r="BK102" s="182"/>
-      <c r="BL102" s="182"/>
-      <c r="BM102" s="182"/>
-      <c r="BN102" s="182"/>
-      <c r="BO102" s="182"/>
-      <c r="BP102" s="182"/>
-      <c r="BQ102" s="182"/>
-      <c r="BR102" s="183"/>
+      <c r="C102" s="173"/>
+      <c r="D102" s="173"/>
+      <c r="E102" s="173"/>
+      <c r="F102" s="173"/>
+      <c r="G102" s="173"/>
+      <c r="H102" s="173"/>
+      <c r="I102" s="173"/>
+      <c r="J102" s="173"/>
+      <c r="K102" s="173"/>
+      <c r="L102" s="173"/>
+      <c r="M102" s="173"/>
+      <c r="N102" s="173"/>
+      <c r="O102" s="173"/>
+      <c r="P102" s="173"/>
+      <c r="Q102" s="173"/>
+      <c r="R102" s="173"/>
+      <c r="S102" s="173"/>
+      <c r="T102" s="173"/>
+      <c r="U102" s="173"/>
+      <c r="V102" s="173"/>
+      <c r="W102" s="173"/>
+      <c r="X102" s="173"/>
+      <c r="Y102" s="173"/>
+      <c r="Z102" s="173"/>
+      <c r="AA102" s="173"/>
+      <c r="AB102" s="173"/>
+      <c r="AC102" s="173"/>
+      <c r="AD102" s="173"/>
+      <c r="AE102" s="173"/>
+      <c r="AF102" s="173"/>
+      <c r="AG102" s="173"/>
+      <c r="AH102" s="173"/>
+      <c r="AI102" s="173"/>
+      <c r="AJ102" s="173"/>
+      <c r="AK102" s="173"/>
+      <c r="AL102" s="173"/>
+      <c r="AM102" s="173"/>
+      <c r="AN102" s="173"/>
+      <c r="AO102" s="173"/>
+      <c r="AP102" s="173"/>
+      <c r="AQ102" s="173"/>
+      <c r="AR102" s="173"/>
+      <c r="AS102" s="173"/>
+      <c r="AT102" s="173"/>
+      <c r="AU102" s="173"/>
+      <c r="AV102" s="173"/>
+      <c r="AW102" s="173"/>
+      <c r="AX102" s="173"/>
+      <c r="AY102" s="173"/>
+      <c r="AZ102" s="173"/>
+      <c r="BA102" s="173"/>
+      <c r="BB102" s="173"/>
+      <c r="BC102" s="173"/>
+      <c r="BD102" s="173"/>
+      <c r="BE102" s="173"/>
+      <c r="BF102" s="173"/>
+      <c r="BG102" s="173"/>
+      <c r="BH102" s="173"/>
+      <c r="BI102" s="173"/>
+      <c r="BJ102" s="173"/>
+      <c r="BK102" s="173"/>
+      <c r="BL102" s="173"/>
+      <c r="BM102" s="173"/>
+      <c r="BN102" s="173"/>
+      <c r="BO102" s="173"/>
+      <c r="BP102" s="173"/>
+      <c r="BQ102" s="173"/>
+      <c r="BR102" s="174"/>
     </row>
     <row r="103" spans="1:70" s="55" customFormat="1">
       <c r="A103" s="58" t="str">
         <f t="shared" si="66"/>
         <v>7.3</v>
       </c>
-      <c r="B103" s="182" t="s">
+      <c r="B103" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="C103" s="182"/>
-      <c r="D103" s="182"/>
-      <c r="E103" s="182"/>
-      <c r="F103" s="182"/>
-      <c r="G103" s="182"/>
-      <c r="H103" s="182"/>
-      <c r="I103" s="182"/>
-      <c r="J103" s="182"/>
-      <c r="K103" s="182"/>
-      <c r="L103" s="182"/>
-      <c r="M103" s="182"/>
-      <c r="N103" s="182"/>
-      <c r="O103" s="182"/>
-      <c r="P103" s="182"/>
-      <c r="Q103" s="182"/>
-      <c r="R103" s="182"/>
-      <c r="S103" s="182"/>
-      <c r="T103" s="182"/>
-      <c r="U103" s="182"/>
-      <c r="V103" s="182"/>
-      <c r="W103" s="182"/>
-      <c r="X103" s="182"/>
-      <c r="Y103" s="182"/>
-      <c r="Z103" s="182"/>
-      <c r="AA103" s="182"/>
-      <c r="AB103" s="182"/>
-      <c r="AC103" s="182"/>
-      <c r="AD103" s="182"/>
-      <c r="AE103" s="182"/>
-      <c r="AF103" s="182"/>
-      <c r="AG103" s="182"/>
-      <c r="AH103" s="182"/>
-      <c r="AI103" s="182"/>
-      <c r="AJ103" s="182"/>
-      <c r="AK103" s="182"/>
-      <c r="AL103" s="182"/>
-      <c r="AM103" s="182"/>
-      <c r="AN103" s="182"/>
-      <c r="AO103" s="182"/>
-      <c r="AP103" s="182"/>
-      <c r="AQ103" s="182"/>
-      <c r="AR103" s="182"/>
-      <c r="AS103" s="182"/>
-      <c r="AT103" s="182"/>
-      <c r="AU103" s="182"/>
-      <c r="AV103" s="182"/>
-      <c r="AW103" s="182"/>
-      <c r="AX103" s="182"/>
-      <c r="AY103" s="182"/>
-      <c r="AZ103" s="182"/>
-      <c r="BA103" s="182"/>
-      <c r="BB103" s="182"/>
-      <c r="BC103" s="182"/>
-      <c r="BD103" s="182"/>
-      <c r="BE103" s="182"/>
-      <c r="BF103" s="182"/>
-      <c r="BG103" s="182"/>
-      <c r="BH103" s="182"/>
-      <c r="BI103" s="182"/>
-      <c r="BJ103" s="182"/>
-      <c r="BK103" s="182"/>
-      <c r="BL103" s="182"/>
-      <c r="BM103" s="182"/>
-      <c r="BN103" s="182"/>
-      <c r="BO103" s="182"/>
-      <c r="BP103" s="182"/>
-      <c r="BQ103" s="182"/>
-      <c r="BR103" s="183"/>
+      <c r="C103" s="173"/>
+      <c r="D103" s="173"/>
+      <c r="E103" s="173"/>
+      <c r="F103" s="173"/>
+      <c r="G103" s="173"/>
+      <c r="H103" s="173"/>
+      <c r="I103" s="173"/>
+      <c r="J103" s="173"/>
+      <c r="K103" s="173"/>
+      <c r="L103" s="173"/>
+      <c r="M103" s="173"/>
+      <c r="N103" s="173"/>
+      <c r="O103" s="173"/>
+      <c r="P103" s="173"/>
+      <c r="Q103" s="173"/>
+      <c r="R103" s="173"/>
+      <c r="S103" s="173"/>
+      <c r="T103" s="173"/>
+      <c r="U103" s="173"/>
+      <c r="V103" s="173"/>
+      <c r="W103" s="173"/>
+      <c r="X103" s="173"/>
+      <c r="Y103" s="173"/>
+      <c r="Z103" s="173"/>
+      <c r="AA103" s="173"/>
+      <c r="AB103" s="173"/>
+      <c r="AC103" s="173"/>
+      <c r="AD103" s="173"/>
+      <c r="AE103" s="173"/>
+      <c r="AF103" s="173"/>
+      <c r="AG103" s="173"/>
+      <c r="AH103" s="173"/>
+      <c r="AI103" s="173"/>
+      <c r="AJ103" s="173"/>
+      <c r="AK103" s="173"/>
+      <c r="AL103" s="173"/>
+      <c r="AM103" s="173"/>
+      <c r="AN103" s="173"/>
+      <c r="AO103" s="173"/>
+      <c r="AP103" s="173"/>
+      <c r="AQ103" s="173"/>
+      <c r="AR103" s="173"/>
+      <c r="AS103" s="173"/>
+      <c r="AT103" s="173"/>
+      <c r="AU103" s="173"/>
+      <c r="AV103" s="173"/>
+      <c r="AW103" s="173"/>
+      <c r="AX103" s="173"/>
+      <c r="AY103" s="173"/>
+      <c r="AZ103" s="173"/>
+      <c r="BA103" s="173"/>
+      <c r="BB103" s="173"/>
+      <c r="BC103" s="173"/>
+      <c r="BD103" s="173"/>
+      <c r="BE103" s="173"/>
+      <c r="BF103" s="173"/>
+      <c r="BG103" s="173"/>
+      <c r="BH103" s="173"/>
+      <c r="BI103" s="173"/>
+      <c r="BJ103" s="173"/>
+      <c r="BK103" s="173"/>
+      <c r="BL103" s="173"/>
+      <c r="BM103" s="173"/>
+      <c r="BN103" s="173"/>
+      <c r="BO103" s="173"/>
+      <c r="BP103" s="173"/>
+      <c r="BQ103" s="173"/>
+      <c r="BR103" s="174"/>
     </row>
     <row r="104" spans="1:70" s="55" customFormat="1">
       <c r="A104" s="65" t="str">
         <f t="shared" si="66"/>
         <v>7.4</v>
       </c>
-      <c r="B104" s="182" t="s">
+      <c r="B104" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="182"/>
-      <c r="D104" s="182"/>
-      <c r="E104" s="182"/>
-      <c r="F104" s="182"/>
-      <c r="G104" s="182"/>
-      <c r="H104" s="182"/>
-      <c r="I104" s="182"/>
-      <c r="J104" s="182"/>
-      <c r="K104" s="182"/>
-      <c r="L104" s="182"/>
-      <c r="M104" s="182"/>
-      <c r="N104" s="182"/>
-      <c r="O104" s="182"/>
-      <c r="P104" s="182"/>
-      <c r="Q104" s="182"/>
-      <c r="R104" s="182"/>
-      <c r="S104" s="182"/>
-      <c r="T104" s="182"/>
-      <c r="U104" s="182"/>
-      <c r="V104" s="182"/>
-      <c r="W104" s="182"/>
-      <c r="X104" s="182"/>
-      <c r="Y104" s="182"/>
-      <c r="Z104" s="182"/>
-      <c r="AA104" s="182"/>
-      <c r="AB104" s="182"/>
-      <c r="AC104" s="182"/>
-      <c r="AD104" s="182"/>
-      <c r="AE104" s="182"/>
-      <c r="AF104" s="182"/>
-      <c r="AG104" s="182"/>
-      <c r="AH104" s="182"/>
-      <c r="AI104" s="182"/>
-      <c r="AJ104" s="182"/>
-      <c r="AK104" s="182"/>
-      <c r="AL104" s="182"/>
-      <c r="AM104" s="182"/>
-      <c r="AN104" s="182"/>
-      <c r="AO104" s="182"/>
-      <c r="AP104" s="182"/>
-      <c r="AQ104" s="182"/>
-      <c r="AR104" s="182"/>
-      <c r="AS104" s="182"/>
-      <c r="AT104" s="182"/>
-      <c r="AU104" s="182"/>
-      <c r="AV104" s="182"/>
-      <c r="AW104" s="182"/>
-      <c r="AX104" s="182"/>
-      <c r="AY104" s="182"/>
-      <c r="AZ104" s="182"/>
-      <c r="BA104" s="182"/>
-      <c r="BB104" s="182"/>
-      <c r="BC104" s="182"/>
-      <c r="BD104" s="182"/>
-      <c r="BE104" s="182"/>
-      <c r="BF104" s="182"/>
-      <c r="BG104" s="182"/>
-      <c r="BH104" s="182"/>
-      <c r="BI104" s="182"/>
-      <c r="BJ104" s="182"/>
-      <c r="BK104" s="182"/>
-      <c r="BL104" s="182"/>
-      <c r="BM104" s="182"/>
-      <c r="BN104" s="182"/>
-      <c r="BO104" s="182"/>
-      <c r="BP104" s="182"/>
-      <c r="BQ104" s="182"/>
-      <c r="BR104" s="183"/>
+      <c r="C104" s="173"/>
+      <c r="D104" s="173"/>
+      <c r="E104" s="173"/>
+      <c r="F104" s="173"/>
+      <c r="G104" s="173"/>
+      <c r="H104" s="173"/>
+      <c r="I104" s="173"/>
+      <c r="J104" s="173"/>
+      <c r="K104" s="173"/>
+      <c r="L104" s="173"/>
+      <c r="M104" s="173"/>
+      <c r="N104" s="173"/>
+      <c r="O104" s="173"/>
+      <c r="P104" s="173"/>
+      <c r="Q104" s="173"/>
+      <c r="R104" s="173"/>
+      <c r="S104" s="173"/>
+      <c r="T104" s="173"/>
+      <c r="U104" s="173"/>
+      <c r="V104" s="173"/>
+      <c r="W104" s="173"/>
+      <c r="X104" s="173"/>
+      <c r="Y104" s="173"/>
+      <c r="Z104" s="173"/>
+      <c r="AA104" s="173"/>
+      <c r="AB104" s="173"/>
+      <c r="AC104" s="173"/>
+      <c r="AD104" s="173"/>
+      <c r="AE104" s="173"/>
+      <c r="AF104" s="173"/>
+      <c r="AG104" s="173"/>
+      <c r="AH104" s="173"/>
+      <c r="AI104" s="173"/>
+      <c r="AJ104" s="173"/>
+      <c r="AK104" s="173"/>
+      <c r="AL104" s="173"/>
+      <c r="AM104" s="173"/>
+      <c r="AN104" s="173"/>
+      <c r="AO104" s="173"/>
+      <c r="AP104" s="173"/>
+      <c r="AQ104" s="173"/>
+      <c r="AR104" s="173"/>
+      <c r="AS104" s="173"/>
+      <c r="AT104" s="173"/>
+      <c r="AU104" s="173"/>
+      <c r="AV104" s="173"/>
+      <c r="AW104" s="173"/>
+      <c r="AX104" s="173"/>
+      <c r="AY104" s="173"/>
+      <c r="AZ104" s="173"/>
+      <c r="BA104" s="173"/>
+      <c r="BB104" s="173"/>
+      <c r="BC104" s="173"/>
+      <c r="BD104" s="173"/>
+      <c r="BE104" s="173"/>
+      <c r="BF104" s="173"/>
+      <c r="BG104" s="173"/>
+      <c r="BH104" s="173"/>
+      <c r="BI104" s="173"/>
+      <c r="BJ104" s="173"/>
+      <c r="BK104" s="173"/>
+      <c r="BL104" s="173"/>
+      <c r="BM104" s="173"/>
+      <c r="BN104" s="173"/>
+      <c r="BO104" s="173"/>
+      <c r="BP104" s="173"/>
+      <c r="BQ104" s="173"/>
+      <c r="BR104" s="174"/>
     </row>
     <row r="105" spans="1:70" s="55" customFormat="1">
       <c r="A105" s="58" t="str">
         <f t="shared" si="66"/>
         <v>7.5</v>
       </c>
-      <c r="B105" s="182" t="s">
+      <c r="B105" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="C105" s="182"/>
-      <c r="D105" s="182"/>
-      <c r="E105" s="182"/>
-      <c r="F105" s="182"/>
-      <c r="G105" s="182"/>
-      <c r="H105" s="182"/>
-      <c r="I105" s="182"/>
-      <c r="J105" s="182"/>
-      <c r="K105" s="182"/>
-      <c r="L105" s="182"/>
-      <c r="M105" s="182"/>
-      <c r="N105" s="182"/>
-      <c r="O105" s="182"/>
-      <c r="P105" s="182"/>
-      <c r="Q105" s="182"/>
-      <c r="R105" s="182"/>
-      <c r="S105" s="182"/>
-      <c r="T105" s="182"/>
-      <c r="U105" s="182"/>
-      <c r="V105" s="182"/>
-      <c r="W105" s="182"/>
-      <c r="X105" s="182"/>
-      <c r="Y105" s="182"/>
-      <c r="Z105" s="182"/>
-      <c r="AA105" s="182"/>
-      <c r="AB105" s="182"/>
-      <c r="AC105" s="182"/>
-      <c r="AD105" s="182"/>
-      <c r="AE105" s="182"/>
-      <c r="AF105" s="182"/>
-      <c r="AG105" s="182"/>
-      <c r="AH105" s="182"/>
-      <c r="AI105" s="182"/>
-      <c r="AJ105" s="182"/>
-      <c r="AK105" s="182"/>
-      <c r="AL105" s="182"/>
-      <c r="AM105" s="182"/>
-      <c r="AN105" s="182"/>
-      <c r="AO105" s="182"/>
-      <c r="AP105" s="182"/>
-      <c r="AQ105" s="182"/>
-      <c r="AR105" s="182"/>
-      <c r="AS105" s="182"/>
-      <c r="AT105" s="182"/>
-      <c r="AU105" s="182"/>
-      <c r="AV105" s="182"/>
-      <c r="AW105" s="182"/>
-      <c r="AX105" s="182"/>
-      <c r="AY105" s="182"/>
-      <c r="AZ105" s="182"/>
-      <c r="BA105" s="182"/>
-      <c r="BB105" s="182"/>
-      <c r="BC105" s="182"/>
-      <c r="BD105" s="182"/>
-      <c r="BE105" s="182"/>
-      <c r="BF105" s="182"/>
-      <c r="BG105" s="182"/>
-      <c r="BH105" s="182"/>
-      <c r="BI105" s="182"/>
-      <c r="BJ105" s="182"/>
-      <c r="BK105" s="182"/>
-      <c r="BL105" s="182"/>
-      <c r="BM105" s="182"/>
-      <c r="BN105" s="182"/>
-      <c r="BO105" s="182"/>
-      <c r="BP105" s="182"/>
-      <c r="BQ105" s="182"/>
-      <c r="BR105" s="183"/>
+      <c r="C105" s="173"/>
+      <c r="D105" s="173"/>
+      <c r="E105" s="173"/>
+      <c r="F105" s="173"/>
+      <c r="G105" s="173"/>
+      <c r="H105" s="173"/>
+      <c r="I105" s="173"/>
+      <c r="J105" s="173"/>
+      <c r="K105" s="173"/>
+      <c r="L105" s="173"/>
+      <c r="M105" s="173"/>
+      <c r="N105" s="173"/>
+      <c r="O105" s="173"/>
+      <c r="P105" s="173"/>
+      <c r="Q105" s="173"/>
+      <c r="R105" s="173"/>
+      <c r="S105" s="173"/>
+      <c r="T105" s="173"/>
+      <c r="U105" s="173"/>
+      <c r="V105" s="173"/>
+      <c r="W105" s="173"/>
+      <c r="X105" s="173"/>
+      <c r="Y105" s="173"/>
+      <c r="Z105" s="173"/>
+      <c r="AA105" s="173"/>
+      <c r="AB105" s="173"/>
+      <c r="AC105" s="173"/>
+      <c r="AD105" s="173"/>
+      <c r="AE105" s="173"/>
+      <c r="AF105" s="173"/>
+      <c r="AG105" s="173"/>
+      <c r="AH105" s="173"/>
+      <c r="AI105" s="173"/>
+      <c r="AJ105" s="173"/>
+      <c r="AK105" s="173"/>
+      <c r="AL105" s="173"/>
+      <c r="AM105" s="173"/>
+      <c r="AN105" s="173"/>
+      <c r="AO105" s="173"/>
+      <c r="AP105" s="173"/>
+      <c r="AQ105" s="173"/>
+      <c r="AR105" s="173"/>
+      <c r="AS105" s="173"/>
+      <c r="AT105" s="173"/>
+      <c r="AU105" s="173"/>
+      <c r="AV105" s="173"/>
+      <c r="AW105" s="173"/>
+      <c r="AX105" s="173"/>
+      <c r="AY105" s="173"/>
+      <c r="AZ105" s="173"/>
+      <c r="BA105" s="173"/>
+      <c r="BB105" s="173"/>
+      <c r="BC105" s="173"/>
+      <c r="BD105" s="173"/>
+      <c r="BE105" s="173"/>
+      <c r="BF105" s="173"/>
+      <c r="BG105" s="173"/>
+      <c r="BH105" s="173"/>
+      <c r="BI105" s="173"/>
+      <c r="BJ105" s="173"/>
+      <c r="BK105" s="173"/>
+      <c r="BL105" s="173"/>
+      <c r="BM105" s="173"/>
+      <c r="BN105" s="173"/>
+      <c r="BO105" s="173"/>
+      <c r="BP105" s="173"/>
+      <c r="BQ105" s="173"/>
+      <c r="BR105" s="174"/>
     </row>
     <row r="106" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A106" s="59" t="str">
         <f t="shared" si="66"/>
         <v>7.6</v>
       </c>
-      <c r="B106" s="186" t="s">
+      <c r="B106" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="C106" s="186"/>
-      <c r="D106" s="186"/>
-      <c r="E106" s="186"/>
-      <c r="F106" s="186"/>
-      <c r="G106" s="186"/>
-      <c r="H106" s="186"/>
-      <c r="I106" s="186"/>
-      <c r="J106" s="186"/>
-      <c r="K106" s="186"/>
-      <c r="L106" s="186"/>
-      <c r="M106" s="186"/>
-      <c r="N106" s="186"/>
-      <c r="O106" s="186"/>
-      <c r="P106" s="186"/>
-      <c r="Q106" s="186"/>
-      <c r="R106" s="186"/>
-      <c r="S106" s="186"/>
-      <c r="T106" s="186"/>
-      <c r="U106" s="186"/>
-      <c r="V106" s="186"/>
-      <c r="W106" s="186"/>
-      <c r="X106" s="186"/>
-      <c r="Y106" s="186"/>
-      <c r="Z106" s="186"/>
-      <c r="AA106" s="186"/>
-      <c r="AB106" s="186"/>
-      <c r="AC106" s="186"/>
-      <c r="AD106" s="186"/>
-      <c r="AE106" s="186"/>
-      <c r="AF106" s="186"/>
-      <c r="AG106" s="186"/>
-      <c r="AH106" s="186"/>
-      <c r="AI106" s="186"/>
-      <c r="AJ106" s="186"/>
-      <c r="AK106" s="186"/>
-      <c r="AL106" s="186"/>
-      <c r="AM106" s="186"/>
-      <c r="AN106" s="186"/>
-      <c r="AO106" s="186"/>
-      <c r="AP106" s="186"/>
-      <c r="AQ106" s="186"/>
-      <c r="AR106" s="186"/>
-      <c r="AS106" s="186"/>
-      <c r="AT106" s="186"/>
-      <c r="AU106" s="186"/>
-      <c r="AV106" s="186"/>
-      <c r="AW106" s="186"/>
-      <c r="AX106" s="186"/>
-      <c r="AY106" s="186"/>
-      <c r="AZ106" s="186"/>
-      <c r="BA106" s="186"/>
-      <c r="BB106" s="186"/>
-      <c r="BC106" s="186"/>
-      <c r="BD106" s="186"/>
-      <c r="BE106" s="186"/>
-      <c r="BF106" s="186"/>
-      <c r="BG106" s="186"/>
-      <c r="BH106" s="186"/>
-      <c r="BI106" s="186"/>
-      <c r="BJ106" s="186"/>
-      <c r="BK106" s="186"/>
-      <c r="BL106" s="186"/>
-      <c r="BM106" s="186"/>
-      <c r="BN106" s="186"/>
-      <c r="BO106" s="186"/>
-      <c r="BP106" s="186"/>
-      <c r="BQ106" s="186"/>
-      <c r="BR106" s="187"/>
+      <c r="C106" s="175"/>
+      <c r="D106" s="175"/>
+      <c r="E106" s="175"/>
+      <c r="F106" s="175"/>
+      <c r="G106" s="175"/>
+      <c r="H106" s="175"/>
+      <c r="I106" s="175"/>
+      <c r="J106" s="175"/>
+      <c r="K106" s="175"/>
+      <c r="L106" s="175"/>
+      <c r="M106" s="175"/>
+      <c r="N106" s="175"/>
+      <c r="O106" s="175"/>
+      <c r="P106" s="175"/>
+      <c r="Q106" s="175"/>
+      <c r="R106" s="175"/>
+      <c r="S106" s="175"/>
+      <c r="T106" s="175"/>
+      <c r="U106" s="175"/>
+      <c r="V106" s="175"/>
+      <c r="W106" s="175"/>
+      <c r="X106" s="175"/>
+      <c r="Y106" s="175"/>
+      <c r="Z106" s="175"/>
+      <c r="AA106" s="175"/>
+      <c r="AB106" s="175"/>
+      <c r="AC106" s="175"/>
+      <c r="AD106" s="175"/>
+      <c r="AE106" s="175"/>
+      <c r="AF106" s="175"/>
+      <c r="AG106" s="175"/>
+      <c r="AH106" s="175"/>
+      <c r="AI106" s="175"/>
+      <c r="AJ106" s="175"/>
+      <c r="AK106" s="175"/>
+      <c r="AL106" s="175"/>
+      <c r="AM106" s="175"/>
+      <c r="AN106" s="175"/>
+      <c r="AO106" s="175"/>
+      <c r="AP106" s="175"/>
+      <c r="AQ106" s="175"/>
+      <c r="AR106" s="175"/>
+      <c r="AS106" s="175"/>
+      <c r="AT106" s="175"/>
+      <c r="AU106" s="175"/>
+      <c r="AV106" s="175"/>
+      <c r="AW106" s="175"/>
+      <c r="AX106" s="175"/>
+      <c r="AY106" s="175"/>
+      <c r="AZ106" s="175"/>
+      <c r="BA106" s="175"/>
+      <c r="BB106" s="175"/>
+      <c r="BC106" s="175"/>
+      <c r="BD106" s="175"/>
+      <c r="BE106" s="175"/>
+      <c r="BF106" s="175"/>
+      <c r="BG106" s="175"/>
+      <c r="BH106" s="175"/>
+      <c r="BI106" s="175"/>
+      <c r="BJ106" s="175"/>
+      <c r="BK106" s="175"/>
+      <c r="BL106" s="175"/>
+      <c r="BM106" s="175"/>
+      <c r="BN106" s="175"/>
+      <c r="BO106" s="175"/>
+      <c r="BP106" s="175"/>
+      <c r="BQ106" s="175"/>
+      <c r="BR106" s="176"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A11:M62" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A11:M62"/>
   <mergeCells count="65">
-    <mergeCell ref="B100:BR100"/>
-    <mergeCell ref="B101:BR101"/>
-    <mergeCell ref="B87:BR87"/>
-    <mergeCell ref="B88:BR88"/>
-    <mergeCell ref="B77:BR77"/>
-    <mergeCell ref="B76:BR76"/>
-    <mergeCell ref="B86:BR86"/>
-    <mergeCell ref="B85:BR85"/>
-    <mergeCell ref="B84:BR84"/>
-    <mergeCell ref="B83:BR83"/>
-    <mergeCell ref="B79:BR79"/>
-    <mergeCell ref="B80:BR80"/>
-    <mergeCell ref="B81:BR81"/>
-    <mergeCell ref="B82:BR82"/>
-    <mergeCell ref="B78:BR78"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="AC8:AI8"/>
+    <mergeCell ref="AJ8:AP8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A1:BR1"/>
+    <mergeCell ref="A2:BR2"/>
+    <mergeCell ref="A3:BR3"/>
+    <mergeCell ref="A4:BR4"/>
+    <mergeCell ref="AX9:BD9"/>
+    <mergeCell ref="BE9:BK9"/>
+    <mergeCell ref="BL9:BR9"/>
+    <mergeCell ref="AQ8:AW8"/>
+    <mergeCell ref="AX8:BD8"/>
+    <mergeCell ref="BE8:BK8"/>
+    <mergeCell ref="BL8:BR8"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="AJ9:AP9"/>
+    <mergeCell ref="AQ9:AW9"/>
+    <mergeCell ref="B75:BR75"/>
+    <mergeCell ref="B71:BR71"/>
+    <mergeCell ref="B70:BR70"/>
+    <mergeCell ref="B64:BR64"/>
+    <mergeCell ref="B65:BR65"/>
+    <mergeCell ref="B66:BR66"/>
+    <mergeCell ref="B67:BR67"/>
+    <mergeCell ref="B68:BR68"/>
+    <mergeCell ref="B69:BR69"/>
+    <mergeCell ref="B72:BR72"/>
+    <mergeCell ref="B73:BR73"/>
+    <mergeCell ref="B74:BR74"/>
     <mergeCell ref="B105:BR105"/>
     <mergeCell ref="B106:BR106"/>
     <mergeCell ref="B89:BR89"/>
@@ -13431,40 +13431,21 @@
     <mergeCell ref="B102:BR102"/>
     <mergeCell ref="B98:BR98"/>
     <mergeCell ref="B99:BR99"/>
-    <mergeCell ref="B75:BR75"/>
-    <mergeCell ref="B71:BR71"/>
-    <mergeCell ref="B70:BR70"/>
-    <mergeCell ref="B64:BR64"/>
-    <mergeCell ref="B65:BR65"/>
-    <mergeCell ref="B66:BR66"/>
-    <mergeCell ref="B67:BR67"/>
-    <mergeCell ref="B68:BR68"/>
-    <mergeCell ref="B69:BR69"/>
-    <mergeCell ref="B72:BR72"/>
-    <mergeCell ref="B73:BR73"/>
-    <mergeCell ref="B74:BR74"/>
-    <mergeCell ref="A1:BR1"/>
-    <mergeCell ref="A2:BR2"/>
-    <mergeCell ref="A3:BR3"/>
-    <mergeCell ref="A4:BR4"/>
-    <mergeCell ref="AX9:BD9"/>
-    <mergeCell ref="BE9:BK9"/>
-    <mergeCell ref="BL9:BR9"/>
-    <mergeCell ref="AQ8:AW8"/>
-    <mergeCell ref="AX8:BD8"/>
-    <mergeCell ref="BE8:BK8"/>
-    <mergeCell ref="BL8:BR8"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AJ9:AP9"/>
-    <mergeCell ref="AQ9:AW9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="AC8:AI8"/>
-    <mergeCell ref="AJ8:AP8"/>
-    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B76:BR76"/>
+    <mergeCell ref="B86:BR86"/>
+    <mergeCell ref="B85:BR85"/>
+    <mergeCell ref="B84:BR84"/>
+    <mergeCell ref="B83:BR83"/>
+    <mergeCell ref="B79:BR79"/>
+    <mergeCell ref="B80:BR80"/>
+    <mergeCell ref="B81:BR81"/>
+    <mergeCell ref="B82:BR82"/>
+    <mergeCell ref="B78:BR78"/>
+    <mergeCell ref="B100:BR100"/>
+    <mergeCell ref="B101:BR101"/>
+    <mergeCell ref="B87:BR87"/>
+    <mergeCell ref="B88:BR88"/>
+    <mergeCell ref="B77:BR77"/>
   </mergeCells>
   <conditionalFormatting sqref="L12:L13 L37 L57 L27 L15:L16 L23:L24 L29:L32 L34 L46:L47 L49 L52:L54 L39">
     <cfRule type="dataBar" priority="182">
@@ -14114,7 +14095,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" xWindow="1128" yWindow="374" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="L8" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="L8"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -14612,7 +14593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14625,59 +14606,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="174"/>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
+      <c r="A1" s="177"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
     </row>
     <row r="2" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
     </row>
     <row r="3" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="178"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
@@ -14712,7 +14693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14725,59 +14706,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="174"/>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
+      <c r="A1" s="177"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
     </row>
     <row r="2" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
     </row>
     <row r="3" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="178" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="178"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
@@ -14812,7 +14793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14825,59 +14806,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="174"/>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
+      <c r="A1" s="177"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
     </row>
     <row r="2" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
     </row>
     <row r="3" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="178" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="178"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
@@ -14912,7 +14893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14925,59 +14906,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="174"/>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
+      <c r="A1" s="177"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
     </row>
     <row r="2" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
     </row>
     <row r="3" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="178" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="178"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>

--- a/docs/trim1/gestion_proyecto/3_cronograma_actividades.xlsx
+++ b/docs/trim1/gestion_proyecto/3_cronograma_actividades.xlsx
@@ -2481,32 +2481,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2526,6 +2500,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2535,6 +2510,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2552,47 +2530,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2602,13 +2563,52 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="23" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3148,7 +3148,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3207,7 +3207,7 @@
         <xdr:cNvPr id="2" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3271,7 +3271,7 @@
                   <a14:compatExt spid="_x0000_s7169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000011C0000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000011C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3311,7 +3311,7 @@
         <xdr:cNvPr id="4" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3365,7 +3365,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3419,7 +3419,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3473,7 +3473,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3527,7 +3527,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3878,87 +3878,87 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
     </row>
     <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickTop="1">
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.75" thickTop="1">
       <c r="B11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="148"/>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="163"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="151"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="162"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="163"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="151"/>
     </row>
     <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="137"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="164"/>
       <c r="E14" s="29" t="s">
         <v>8</v>
       </c>
@@ -3968,10 +3968,10 @@
       <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="165" t="s">
+      <c r="C15" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="166"/>
+      <c r="D15" s="154"/>
       <c r="E15" s="30" t="s">
         <v>10</v>
       </c>
@@ -3981,8 +3981,8 @@
       <c r="B16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="167"/>
-      <c r="D16" s="168"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="156"/>
       <c r="E16" s="31" t="s">
         <v>11</v>
       </c>
@@ -3990,8 +3990,8 @@
     </row>
     <row r="17" spans="2:16" ht="17.25" thickTop="1">
       <c r="B17" s="4"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
     </row>
     <row r="18" spans="2:16" ht="19.899999999999999" customHeight="1"/>
     <row r="19" spans="2:16" ht="19.899999999999999" customHeight="1">
@@ -4010,10 +4010,10 @@
       <c r="C21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="157" t="s">
+      <c r="D21" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="157"/>
+      <c r="E21" s="143"/>
       <c r="F21" s="17" t="s">
         <v>17</v>
       </c>
@@ -4025,10 +4025,10 @@
       <c r="C22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="158" t="s">
+      <c r="D22" s="144" t="s">
         <v>189</v>
       </c>
-      <c r="E22" s="158"/>
+      <c r="E22" s="144"/>
       <c r="F22" s="20" t="s">
         <v>190</v>
       </c>
@@ -4085,8 +4085,8 @@
     <row r="30" spans="2:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
       <c r="F30" s="26"/>
     </row>
     <row r="31" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
@@ -4097,51 +4097,51 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="34" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="147" t="s">
+      <c r="B34" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="149"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="163"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B35" s="153"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="155"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="141"/>
     </row>
     <row r="36" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B36" s="139"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="141"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="168"/>
       <c r="J36" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B37" s="139"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="141"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="168"/>
     </row>
     <row r="38" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B38" s="139"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="141"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="168"/>
     </row>
     <row r="39" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B39" s="142"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="144"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="159"/>
     </row>
     <row r="40" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A40" s="7"/>
@@ -4302,6 +4302,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -4318,18 +4330,6 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -4342,12 +4342,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="11" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="14" ySplit="11" topLeftCell="AS12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:BR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -4369,296 +4369,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="177"/>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177"/>
-      <c r="T1" s="177"/>
-      <c r="U1" s="177"/>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="177"/>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="177"/>
-      <c r="AG1" s="177"/>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="177"/>
-      <c r="AJ1" s="177"/>
-      <c r="AK1" s="177"/>
-      <c r="AL1" s="177"/>
-      <c r="AM1" s="177"/>
-      <c r="AN1" s="177"/>
-      <c r="AO1" s="177"/>
-      <c r="AP1" s="177"/>
-      <c r="AQ1" s="177"/>
-      <c r="AR1" s="177"/>
-      <c r="AS1" s="177"/>
-      <c r="AT1" s="177"/>
-      <c r="AU1" s="177"/>
-      <c r="AV1" s="177"/>
-      <c r="AW1" s="177"/>
-      <c r="AX1" s="177"/>
-      <c r="AY1" s="177"/>
-      <c r="AZ1" s="177"/>
-      <c r="BA1" s="177"/>
-      <c r="BB1" s="177"/>
-      <c r="BC1" s="177"/>
-      <c r="BD1" s="177"/>
-      <c r="BE1" s="177"/>
-      <c r="BF1" s="177"/>
-      <c r="BG1" s="177"/>
-      <c r="BH1" s="177"/>
-      <c r="BI1" s="177"/>
-      <c r="BJ1" s="177"/>
-      <c r="BK1" s="177"/>
-      <c r="BL1" s="177"/>
-      <c r="BM1" s="177"/>
-      <c r="BN1" s="177"/>
-      <c r="BO1" s="177"/>
-      <c r="BP1" s="177"/>
-      <c r="BQ1" s="177"/>
-      <c r="BR1" s="177"/>
+      <c r="A1" s="174"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="174"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="174"/>
+      <c r="AJ1" s="174"/>
+      <c r="AK1" s="174"/>
+      <c r="AL1" s="174"/>
+      <c r="AM1" s="174"/>
+      <c r="AN1" s="174"/>
+      <c r="AO1" s="174"/>
+      <c r="AP1" s="174"/>
+      <c r="AQ1" s="174"/>
+      <c r="AR1" s="174"/>
+      <c r="AS1" s="174"/>
+      <c r="AT1" s="174"/>
+      <c r="AU1" s="174"/>
+      <c r="AV1" s="174"/>
+      <c r="AW1" s="174"/>
+      <c r="AX1" s="174"/>
+      <c r="AY1" s="174"/>
+      <c r="AZ1" s="174"/>
+      <c r="BA1" s="174"/>
+      <c r="BB1" s="174"/>
+      <c r="BC1" s="174"/>
+      <c r="BD1" s="174"/>
+      <c r="BE1" s="174"/>
+      <c r="BF1" s="174"/>
+      <c r="BG1" s="174"/>
+      <c r="BH1" s="174"/>
+      <c r="BI1" s="174"/>
+      <c r="BJ1" s="174"/>
+      <c r="BK1" s="174"/>
+      <c r="BL1" s="174"/>
+      <c r="BM1" s="174"/>
+      <c r="BN1" s="174"/>
+      <c r="BO1" s="174"/>
+      <c r="BP1" s="174"/>
+      <c r="BQ1" s="174"/>
+      <c r="BR1" s="174"/>
     </row>
     <row r="2" spans="1:70" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="175" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="178"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="178"/>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="178"/>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="178"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="178"/>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="178"/>
-      <c r="AJ2" s="178"/>
-      <c r="AK2" s="178"/>
-      <c r="AL2" s="178"/>
-      <c r="AM2" s="178"/>
-      <c r="AN2" s="178"/>
-      <c r="AO2" s="178"/>
-      <c r="AP2" s="178"/>
-      <c r="AQ2" s="178"/>
-      <c r="AR2" s="178"/>
-      <c r="AS2" s="178"/>
-      <c r="AT2" s="178"/>
-      <c r="AU2" s="178"/>
-      <c r="AV2" s="178"/>
-      <c r="AW2" s="178"/>
-      <c r="AX2" s="178"/>
-      <c r="AY2" s="178"/>
-      <c r="AZ2" s="178"/>
-      <c r="BA2" s="178"/>
-      <c r="BB2" s="178"/>
-      <c r="BC2" s="178"/>
-      <c r="BD2" s="178"/>
-      <c r="BE2" s="178"/>
-      <c r="BF2" s="178"/>
-      <c r="BG2" s="178"/>
-      <c r="BH2" s="178"/>
-      <c r="BI2" s="178"/>
-      <c r="BJ2" s="178"/>
-      <c r="BK2" s="178"/>
-      <c r="BL2" s="178"/>
-      <c r="BM2" s="178"/>
-      <c r="BN2" s="178"/>
-      <c r="BO2" s="178"/>
-      <c r="BP2" s="178"/>
-      <c r="BQ2" s="178"/>
-      <c r="BR2" s="178"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="175"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="175"/>
+      <c r="AL2" s="175"/>
+      <c r="AM2" s="175"/>
+      <c r="AN2" s="175"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="175"/>
+      <c r="AV2" s="175"/>
+      <c r="AW2" s="175"/>
+      <c r="AX2" s="175"/>
+      <c r="AY2" s="175"/>
+      <c r="AZ2" s="175"/>
+      <c r="BA2" s="175"/>
+      <c r="BB2" s="175"/>
+      <c r="BC2" s="175"/>
+      <c r="BD2" s="175"/>
+      <c r="BE2" s="175"/>
+      <c r="BF2" s="175"/>
+      <c r="BG2" s="175"/>
+      <c r="BH2" s="175"/>
+      <c r="BI2" s="175"/>
+      <c r="BJ2" s="175"/>
+      <c r="BK2" s="175"/>
+      <c r="BL2" s="175"/>
+      <c r="BM2" s="175"/>
+      <c r="BN2" s="175"/>
+      <c r="BO2" s="175"/>
+      <c r="BP2" s="175"/>
+      <c r="BQ2" s="175"/>
+      <c r="BR2" s="175"/>
     </row>
     <row r="3" spans="1:70" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="178"/>
-      <c r="T3" s="178"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="178"/>
-      <c r="Z3" s="178"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="178"/>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="178"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="178"/>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="178"/>
-      <c r="AJ3" s="178"/>
-      <c r="AK3" s="178"/>
-      <c r="AL3" s="178"/>
-      <c r="AM3" s="178"/>
-      <c r="AN3" s="178"/>
-      <c r="AO3" s="178"/>
-      <c r="AP3" s="178"/>
-      <c r="AQ3" s="178"/>
-      <c r="AR3" s="178"/>
-      <c r="AS3" s="178"/>
-      <c r="AT3" s="178"/>
-      <c r="AU3" s="178"/>
-      <c r="AV3" s="178"/>
-      <c r="AW3" s="178"/>
-      <c r="AX3" s="178"/>
-      <c r="AY3" s="178"/>
-      <c r="AZ3" s="178"/>
-      <c r="BA3" s="178"/>
-      <c r="BB3" s="178"/>
-      <c r="BC3" s="178"/>
-      <c r="BD3" s="178"/>
-      <c r="BE3" s="178"/>
-      <c r="BF3" s="178"/>
-      <c r="BG3" s="178"/>
-      <c r="BH3" s="178"/>
-      <c r="BI3" s="178"/>
-      <c r="BJ3" s="178"/>
-      <c r="BK3" s="178"/>
-      <c r="BL3" s="178"/>
-      <c r="BM3" s="178"/>
-      <c r="BN3" s="178"/>
-      <c r="BO3" s="178"/>
-      <c r="BP3" s="178"/>
-      <c r="BQ3" s="178"/>
-      <c r="BR3" s="178"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="175"/>
+      <c r="AG3" s="175"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="175"/>
+      <c r="AJ3" s="175"/>
+      <c r="AK3" s="175"/>
+      <c r="AL3" s="175"/>
+      <c r="AM3" s="175"/>
+      <c r="AN3" s="175"/>
+      <c r="AO3" s="175"/>
+      <c r="AP3" s="175"/>
+      <c r="AQ3" s="175"/>
+      <c r="AR3" s="175"/>
+      <c r="AS3" s="175"/>
+      <c r="AT3" s="175"/>
+      <c r="AU3" s="175"/>
+      <c r="AV3" s="175"/>
+      <c r="AW3" s="175"/>
+      <c r="AX3" s="175"/>
+      <c r="AY3" s="175"/>
+      <c r="AZ3" s="175"/>
+      <c r="BA3" s="175"/>
+      <c r="BB3" s="175"/>
+      <c r="BC3" s="175"/>
+      <c r="BD3" s="175"/>
+      <c r="BE3" s="175"/>
+      <c r="BF3" s="175"/>
+      <c r="BG3" s="175"/>
+      <c r="BH3" s="175"/>
+      <c r="BI3" s="175"/>
+      <c r="BJ3" s="175"/>
+      <c r="BK3" s="175"/>
+      <c r="BL3" s="175"/>
+      <c r="BM3" s="175"/>
+      <c r="BN3" s="175"/>
+      <c r="BO3" s="175"/>
+      <c r="BP3" s="175"/>
+      <c r="BQ3" s="175"/>
+      <c r="BR3" s="175"/>
     </row>
     <row r="4" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179"/>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="179"/>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="179"/>
-      <c r="Z4" s="179"/>
-      <c r="AA4" s="179"/>
-      <c r="AB4" s="179"/>
-      <c r="AC4" s="179"/>
-      <c r="AD4" s="179"/>
-      <c r="AE4" s="179"/>
-      <c r="AF4" s="179"/>
-      <c r="AG4" s="179"/>
-      <c r="AH4" s="179"/>
-      <c r="AI4" s="179"/>
-      <c r="AJ4" s="179"/>
-      <c r="AK4" s="179"/>
-      <c r="AL4" s="179"/>
-      <c r="AM4" s="179"/>
-      <c r="AN4" s="179"/>
-      <c r="AO4" s="179"/>
-      <c r="AP4" s="179"/>
-      <c r="AQ4" s="179"/>
-      <c r="AR4" s="179"/>
-      <c r="AS4" s="179"/>
-      <c r="AT4" s="179"/>
-      <c r="AU4" s="179"/>
-      <c r="AV4" s="179"/>
-      <c r="AW4" s="179"/>
-      <c r="AX4" s="179"/>
-      <c r="AY4" s="179"/>
-      <c r="AZ4" s="179"/>
-      <c r="BA4" s="179"/>
-      <c r="BB4" s="179"/>
-      <c r="BC4" s="179"/>
-      <c r="BD4" s="179"/>
-      <c r="BE4" s="179"/>
-      <c r="BF4" s="179"/>
-      <c r="BG4" s="179"/>
-      <c r="BH4" s="179"/>
-      <c r="BI4" s="179"/>
-      <c r="BJ4" s="179"/>
-      <c r="BK4" s="179"/>
-      <c r="BL4" s="179"/>
-      <c r="BM4" s="179"/>
-      <c r="BN4" s="179"/>
-      <c r="BO4" s="179"/>
-      <c r="BP4" s="179"/>
-      <c r="BQ4" s="179"/>
-      <c r="BR4" s="179"/>
+      <c r="A4" s="176"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="176"/>
+      <c r="L4" s="176"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="176"/>
+      <c r="O4" s="176"/>
+      <c r="P4" s="176"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="176"/>
+      <c r="S4" s="176"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="176"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="176"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="176"/>
+      <c r="AA4" s="176"/>
+      <c r="AB4" s="176"/>
+      <c r="AC4" s="176"/>
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="176"/>
+      <c r="AF4" s="176"/>
+      <c r="AG4" s="176"/>
+      <c r="AH4" s="176"/>
+      <c r="AI4" s="176"/>
+      <c r="AJ4" s="176"/>
+      <c r="AK4" s="176"/>
+      <c r="AL4" s="176"/>
+      <c r="AM4" s="176"/>
+      <c r="AN4" s="176"/>
+      <c r="AO4" s="176"/>
+      <c r="AP4" s="176"/>
+      <c r="AQ4" s="176"/>
+      <c r="AR4" s="176"/>
+      <c r="AS4" s="176"/>
+      <c r="AT4" s="176"/>
+      <c r="AU4" s="176"/>
+      <c r="AV4" s="176"/>
+      <c r="AW4" s="176"/>
+      <c r="AX4" s="176"/>
+      <c r="AY4" s="176"/>
+      <c r="AZ4" s="176"/>
+      <c r="BA4" s="176"/>
+      <c r="BB4" s="176"/>
+      <c r="BC4" s="176"/>
+      <c r="BD4" s="176"/>
+      <c r="BE4" s="176"/>
+      <c r="BF4" s="176"/>
+      <c r="BG4" s="176"/>
+      <c r="BH4" s="176"/>
+      <c r="BI4" s="176"/>
+      <c r="BJ4" s="176"/>
+      <c r="BK4" s="176"/>
+      <c r="BL4" s="176"/>
+      <c r="BM4" s="176"/>
+      <c r="BN4" s="176"/>
+      <c r="BO4" s="176"/>
+      <c r="BP4" s="176"/>
+      <c r="BQ4" s="176"/>
+      <c r="BR4" s="176"/>
     </row>
     <row r="5" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1">
       <c r="A5" s="64"/>
@@ -4771,11 +4771,11 @@
         <v>27</v>
       </c>
       <c r="C8" s="63"/>
-      <c r="D8" s="187">
+      <c r="D8" s="173">
         <v>44803</v>
       </c>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50"/>
       <c r="K8" s="49" t="s">
@@ -4784,179 +4784,179 @@
       <c r="L8" s="37">
         <v>1</v>
       </c>
-      <c r="O8" s="183" t="str">
+      <c r="O8" s="170" t="str">
         <f>"Semana "&amp;(O10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 1</v>
       </c>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="185"/>
-      <c r="V8" s="183" t="str">
+      <c r="P8" s="171"/>
+      <c r="Q8" s="171"/>
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="172"/>
+      <c r="V8" s="170" t="str">
         <f>"Semana "&amp;(V10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 2</v>
       </c>
-      <c r="W8" s="184"/>
-      <c r="X8" s="184"/>
-      <c r="Y8" s="184"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="185"/>
-      <c r="AC8" s="183" t="str">
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="171"/>
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="172"/>
+      <c r="AC8" s="170" t="str">
         <f>"Semana "&amp;(AC10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 3</v>
       </c>
-      <c r="AD8" s="184"/>
-      <c r="AE8" s="184"/>
-      <c r="AF8" s="184"/>
-      <c r="AG8" s="184"/>
-      <c r="AH8" s="184"/>
-      <c r="AI8" s="185"/>
-      <c r="AJ8" s="183" t="str">
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="171"/>
+      <c r="AF8" s="171"/>
+      <c r="AG8" s="171"/>
+      <c r="AH8" s="171"/>
+      <c r="AI8" s="172"/>
+      <c r="AJ8" s="170" t="str">
         <f>"Semana "&amp;(AJ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 4</v>
       </c>
-      <c r="AK8" s="184"/>
-      <c r="AL8" s="184"/>
-      <c r="AM8" s="184"/>
-      <c r="AN8" s="184"/>
-      <c r="AO8" s="184"/>
-      <c r="AP8" s="185"/>
-      <c r="AQ8" s="183" t="str">
+      <c r="AK8" s="171"/>
+      <c r="AL8" s="171"/>
+      <c r="AM8" s="171"/>
+      <c r="AN8" s="171"/>
+      <c r="AO8" s="171"/>
+      <c r="AP8" s="172"/>
+      <c r="AQ8" s="170" t="str">
         <f>"Semana "&amp;(AQ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 5</v>
       </c>
-      <c r="AR8" s="184"/>
-      <c r="AS8" s="184"/>
-      <c r="AT8" s="184"/>
-      <c r="AU8" s="184"/>
-      <c r="AV8" s="184"/>
-      <c r="AW8" s="185"/>
-      <c r="AX8" s="183" t="str">
+      <c r="AR8" s="171"/>
+      <c r="AS8" s="171"/>
+      <c r="AT8" s="171"/>
+      <c r="AU8" s="171"/>
+      <c r="AV8" s="171"/>
+      <c r="AW8" s="172"/>
+      <c r="AX8" s="170" t="str">
         <f>"Semana "&amp;(AX10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 6</v>
       </c>
-      <c r="AY8" s="184"/>
-      <c r="AZ8" s="184"/>
-      <c r="BA8" s="184"/>
-      <c r="BB8" s="184"/>
-      <c r="BC8" s="184"/>
-      <c r="BD8" s="185"/>
-      <c r="BE8" s="183" t="str">
+      <c r="AY8" s="171"/>
+      <c r="AZ8" s="171"/>
+      <c r="BA8" s="171"/>
+      <c r="BB8" s="171"/>
+      <c r="BC8" s="171"/>
+      <c r="BD8" s="172"/>
+      <c r="BE8" s="170" t="str">
         <f>"Semana "&amp;(BE10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 7</v>
       </c>
-      <c r="BF8" s="184"/>
-      <c r="BG8" s="184"/>
-      <c r="BH8" s="184"/>
-      <c r="BI8" s="184"/>
-      <c r="BJ8" s="184"/>
-      <c r="BK8" s="185"/>
-      <c r="BL8" s="183" t="str">
+      <c r="BF8" s="171"/>
+      <c r="BG8" s="171"/>
+      <c r="BH8" s="171"/>
+      <c r="BI8" s="171"/>
+      <c r="BJ8" s="171"/>
+      <c r="BK8" s="172"/>
+      <c r="BL8" s="170" t="str">
         <f>"Semana "&amp;(BL10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 8</v>
       </c>
-      <c r="BM8" s="184"/>
-      <c r="BN8" s="184"/>
-      <c r="BO8" s="184"/>
-      <c r="BP8" s="184"/>
-      <c r="BQ8" s="184"/>
-      <c r="BR8" s="185"/>
+      <c r="BM8" s="171"/>
+      <c r="BN8" s="171"/>
+      <c r="BO8" s="171"/>
+      <c r="BP8" s="171"/>
+      <c r="BQ8" s="171"/>
+      <c r="BR8" s="172"/>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1">
       <c r="B9" s="60" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="63"/>
-      <c r="D9" s="186" t="s">
+      <c r="D9" s="169" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
-      <c r="O9" s="180">
+      <c r="O9" s="177">
         <f>O10</f>
         <v>44802</v>
       </c>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="181"/>
-      <c r="S9" s="181"/>
-      <c r="T9" s="181"/>
-      <c r="U9" s="182"/>
-      <c r="V9" s="180">
+      <c r="P9" s="178"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="178"/>
+      <c r="T9" s="178"/>
+      <c r="U9" s="179"/>
+      <c r="V9" s="177">
         <f>V10</f>
         <v>44809</v>
       </c>
-      <c r="W9" s="181"/>
-      <c r="X9" s="181"/>
-      <c r="Y9" s="181"/>
-      <c r="Z9" s="181"/>
-      <c r="AA9" s="181"/>
-      <c r="AB9" s="182"/>
-      <c r="AC9" s="180">
+      <c r="W9" s="178"/>
+      <c r="X9" s="178"/>
+      <c r="Y9" s="178"/>
+      <c r="Z9" s="178"/>
+      <c r="AA9" s="178"/>
+      <c r="AB9" s="179"/>
+      <c r="AC9" s="177">
         <f>AC10</f>
         <v>44816</v>
       </c>
-      <c r="AD9" s="181"/>
-      <c r="AE9" s="181"/>
-      <c r="AF9" s="181"/>
-      <c r="AG9" s="181"/>
-      <c r="AH9" s="181"/>
-      <c r="AI9" s="182"/>
-      <c r="AJ9" s="180">
+      <c r="AD9" s="178"/>
+      <c r="AE9" s="178"/>
+      <c r="AF9" s="178"/>
+      <c r="AG9" s="178"/>
+      <c r="AH9" s="178"/>
+      <c r="AI9" s="179"/>
+      <c r="AJ9" s="177">
         <f>AJ10</f>
         <v>44823</v>
       </c>
-      <c r="AK9" s="181"/>
-      <c r="AL9" s="181"/>
-      <c r="AM9" s="181"/>
-      <c r="AN9" s="181"/>
-      <c r="AO9" s="181"/>
-      <c r="AP9" s="182"/>
-      <c r="AQ9" s="180">
+      <c r="AK9" s="178"/>
+      <c r="AL9" s="178"/>
+      <c r="AM9" s="178"/>
+      <c r="AN9" s="178"/>
+      <c r="AO9" s="178"/>
+      <c r="AP9" s="179"/>
+      <c r="AQ9" s="177">
         <f>AQ10</f>
         <v>44830</v>
       </c>
-      <c r="AR9" s="181"/>
-      <c r="AS9" s="181"/>
-      <c r="AT9" s="181"/>
-      <c r="AU9" s="181"/>
-      <c r="AV9" s="181"/>
-      <c r="AW9" s="182"/>
-      <c r="AX9" s="180">
+      <c r="AR9" s="178"/>
+      <c r="AS9" s="178"/>
+      <c r="AT9" s="178"/>
+      <c r="AU9" s="178"/>
+      <c r="AV9" s="178"/>
+      <c r="AW9" s="179"/>
+      <c r="AX9" s="177">
         <f>AX10</f>
         <v>44837</v>
       </c>
-      <c r="AY9" s="181"/>
-      <c r="AZ9" s="181"/>
-      <c r="BA9" s="181"/>
-      <c r="BB9" s="181"/>
-      <c r="BC9" s="181"/>
-      <c r="BD9" s="182"/>
-      <c r="BE9" s="180">
+      <c r="AY9" s="178"/>
+      <c r="AZ9" s="178"/>
+      <c r="BA9" s="178"/>
+      <c r="BB9" s="178"/>
+      <c r="BC9" s="178"/>
+      <c r="BD9" s="179"/>
+      <c r="BE9" s="177">
         <f>BE10</f>
         <v>44844</v>
       </c>
-      <c r="BF9" s="181"/>
-      <c r="BG9" s="181"/>
-      <c r="BH9" s="181"/>
-      <c r="BI9" s="181"/>
-      <c r="BJ9" s="181"/>
-      <c r="BK9" s="182"/>
-      <c r="BL9" s="180">
+      <c r="BF9" s="178"/>
+      <c r="BG9" s="178"/>
+      <c r="BH9" s="178"/>
+      <c r="BI9" s="178"/>
+      <c r="BJ9" s="178"/>
+      <c r="BK9" s="179"/>
+      <c r="BL9" s="177">
         <f>BL10</f>
         <v>44851</v>
       </c>
-      <c r="BM9" s="181"/>
-      <c r="BN9" s="181"/>
-      <c r="BO9" s="181"/>
-      <c r="BP9" s="181"/>
-      <c r="BQ9" s="181"/>
-      <c r="BR9" s="182"/>
+      <c r="BM9" s="178"/>
+      <c r="BN9" s="178"/>
+      <c r="BO9" s="178"/>
+      <c r="BP9" s="178"/>
+      <c r="BQ9" s="178"/>
+      <c r="BR9" s="179"/>
     </row>
     <row r="10" spans="1:70">
       <c r="O10" s="38">
@@ -10071,3322 +10071,3359 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B64" s="169" t="s">
+      <c r="B64" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
-      <c r="E64" s="169"/>
-      <c r="F64" s="169"/>
-      <c r="G64" s="169"/>
-      <c r="H64" s="169"/>
-      <c r="I64" s="169"/>
-      <c r="J64" s="169"/>
-      <c r="K64" s="169"/>
-      <c r="L64" s="169"/>
-      <c r="M64" s="169"/>
-      <c r="N64" s="169"/>
-      <c r="O64" s="169"/>
-      <c r="P64" s="169"/>
-      <c r="Q64" s="169"/>
-      <c r="R64" s="169"/>
-      <c r="S64" s="169"/>
-      <c r="T64" s="169"/>
-      <c r="U64" s="169"/>
-      <c r="V64" s="169"/>
-      <c r="W64" s="169"/>
-      <c r="X64" s="169"/>
-      <c r="Y64" s="169"/>
-      <c r="Z64" s="169"/>
-      <c r="AA64" s="169"/>
-      <c r="AB64" s="169"/>
-      <c r="AC64" s="169"/>
-      <c r="AD64" s="169"/>
-      <c r="AE64" s="169"/>
-      <c r="AF64" s="169"/>
-      <c r="AG64" s="169"/>
-      <c r="AH64" s="169"/>
-      <c r="AI64" s="169"/>
-      <c r="AJ64" s="169"/>
-      <c r="AK64" s="169"/>
-      <c r="AL64" s="169"/>
-      <c r="AM64" s="169"/>
-      <c r="AN64" s="169"/>
-      <c r="AO64" s="169"/>
-      <c r="AP64" s="169"/>
-      <c r="AQ64" s="169"/>
-      <c r="AR64" s="169"/>
-      <c r="AS64" s="169"/>
-      <c r="AT64" s="169"/>
-      <c r="AU64" s="169"/>
-      <c r="AV64" s="169"/>
-      <c r="AW64" s="169"/>
-      <c r="AX64" s="169"/>
-      <c r="AY64" s="169"/>
-      <c r="AZ64" s="169"/>
-      <c r="BA64" s="169"/>
-      <c r="BB64" s="169"/>
-      <c r="BC64" s="169"/>
-      <c r="BD64" s="169"/>
-      <c r="BE64" s="169"/>
-      <c r="BF64" s="169"/>
-      <c r="BG64" s="169"/>
-      <c r="BH64" s="169"/>
-      <c r="BI64" s="169"/>
-      <c r="BJ64" s="169"/>
-      <c r="BK64" s="169"/>
-      <c r="BL64" s="169"/>
-      <c r="BM64" s="169"/>
-      <c r="BN64" s="169"/>
-      <c r="BO64" s="169"/>
-      <c r="BP64" s="169"/>
-      <c r="BQ64" s="169"/>
-      <c r="BR64" s="170"/>
+      <c r="C64" s="184"/>
+      <c r="D64" s="184"/>
+      <c r="E64" s="184"/>
+      <c r="F64" s="184"/>
+      <c r="G64" s="184"/>
+      <c r="H64" s="184"/>
+      <c r="I64" s="184"/>
+      <c r="J64" s="184"/>
+      <c r="K64" s="184"/>
+      <c r="L64" s="184"/>
+      <c r="M64" s="184"/>
+      <c r="N64" s="184"/>
+      <c r="O64" s="184"/>
+      <c r="P64" s="184"/>
+      <c r="Q64" s="184"/>
+      <c r="R64" s="184"/>
+      <c r="S64" s="184"/>
+      <c r="T64" s="184"/>
+      <c r="U64" s="184"/>
+      <c r="V64" s="184"/>
+      <c r="W64" s="184"/>
+      <c r="X64" s="184"/>
+      <c r="Y64" s="184"/>
+      <c r="Z64" s="184"/>
+      <c r="AA64" s="184"/>
+      <c r="AB64" s="184"/>
+      <c r="AC64" s="184"/>
+      <c r="AD64" s="184"/>
+      <c r="AE64" s="184"/>
+      <c r="AF64" s="184"/>
+      <c r="AG64" s="184"/>
+      <c r="AH64" s="184"/>
+      <c r="AI64" s="184"/>
+      <c r="AJ64" s="184"/>
+      <c r="AK64" s="184"/>
+      <c r="AL64" s="184"/>
+      <c r="AM64" s="184"/>
+      <c r="AN64" s="184"/>
+      <c r="AO64" s="184"/>
+      <c r="AP64" s="184"/>
+      <c r="AQ64" s="184"/>
+      <c r="AR64" s="184"/>
+      <c r="AS64" s="184"/>
+      <c r="AT64" s="184"/>
+      <c r="AU64" s="184"/>
+      <c r="AV64" s="184"/>
+      <c r="AW64" s="184"/>
+      <c r="AX64" s="184"/>
+      <c r="AY64" s="184"/>
+      <c r="AZ64" s="184"/>
+      <c r="BA64" s="184"/>
+      <c r="BB64" s="184"/>
+      <c r="BC64" s="184"/>
+      <c r="BD64" s="184"/>
+      <c r="BE64" s="184"/>
+      <c r="BF64" s="184"/>
+      <c r="BG64" s="184"/>
+      <c r="BH64" s="184"/>
+      <c r="BI64" s="184"/>
+      <c r="BJ64" s="184"/>
+      <c r="BK64" s="184"/>
+      <c r="BL64" s="184"/>
+      <c r="BM64" s="184"/>
+      <c r="BN64" s="184"/>
+      <c r="BO64" s="184"/>
+      <c r="BP64" s="184"/>
+      <c r="BQ64" s="184"/>
+      <c r="BR64" s="185"/>
     </row>
     <row r="65" spans="1:70" s="55" customFormat="1">
       <c r="A65" s="57" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B65" s="171" t="s">
+      <c r="B65" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="171"/>
-      <c r="D65" s="171"/>
-      <c r="E65" s="171"/>
-      <c r="F65" s="171"/>
-      <c r="G65" s="171"/>
-      <c r="H65" s="171"/>
-      <c r="I65" s="171"/>
-      <c r="J65" s="171"/>
-      <c r="K65" s="171"/>
-      <c r="L65" s="171"/>
-      <c r="M65" s="171"/>
-      <c r="N65" s="171"/>
-      <c r="O65" s="171"/>
-      <c r="P65" s="171"/>
-      <c r="Q65" s="171"/>
-      <c r="R65" s="171"/>
-      <c r="S65" s="171"/>
-      <c r="T65" s="171"/>
-      <c r="U65" s="171"/>
-      <c r="V65" s="171"/>
-      <c r="W65" s="171"/>
-      <c r="X65" s="171"/>
-      <c r="Y65" s="171"/>
-      <c r="Z65" s="171"/>
-      <c r="AA65" s="171"/>
-      <c r="AB65" s="171"/>
-      <c r="AC65" s="171"/>
-      <c r="AD65" s="171"/>
-      <c r="AE65" s="171"/>
-      <c r="AF65" s="171"/>
-      <c r="AG65" s="171"/>
-      <c r="AH65" s="171"/>
-      <c r="AI65" s="171"/>
-      <c r="AJ65" s="171"/>
-      <c r="AK65" s="171"/>
-      <c r="AL65" s="171"/>
-      <c r="AM65" s="171"/>
-      <c r="AN65" s="171"/>
-      <c r="AO65" s="171"/>
-      <c r="AP65" s="171"/>
-      <c r="AQ65" s="171"/>
-      <c r="AR65" s="171"/>
-      <c r="AS65" s="171"/>
-      <c r="AT65" s="171"/>
-      <c r="AU65" s="171"/>
-      <c r="AV65" s="171"/>
-      <c r="AW65" s="171"/>
-      <c r="AX65" s="171"/>
-      <c r="AY65" s="171"/>
-      <c r="AZ65" s="171"/>
-      <c r="BA65" s="171"/>
-      <c r="BB65" s="171"/>
-      <c r="BC65" s="171"/>
-      <c r="BD65" s="171"/>
-      <c r="BE65" s="171"/>
-      <c r="BF65" s="171"/>
-      <c r="BG65" s="171"/>
-      <c r="BH65" s="171"/>
-      <c r="BI65" s="171"/>
-      <c r="BJ65" s="171"/>
-      <c r="BK65" s="171"/>
-      <c r="BL65" s="171"/>
-      <c r="BM65" s="171"/>
-      <c r="BN65" s="171"/>
-      <c r="BO65" s="171"/>
-      <c r="BP65" s="171"/>
-      <c r="BQ65" s="171"/>
-      <c r="BR65" s="172"/>
+      <c r="C65" s="180"/>
+      <c r="D65" s="180"/>
+      <c r="E65" s="180"/>
+      <c r="F65" s="180"/>
+      <c r="G65" s="180"/>
+      <c r="H65" s="180"/>
+      <c r="I65" s="180"/>
+      <c r="J65" s="180"/>
+      <c r="K65" s="180"/>
+      <c r="L65" s="180"/>
+      <c r="M65" s="180"/>
+      <c r="N65" s="180"/>
+      <c r="O65" s="180"/>
+      <c r="P65" s="180"/>
+      <c r="Q65" s="180"/>
+      <c r="R65" s="180"/>
+      <c r="S65" s="180"/>
+      <c r="T65" s="180"/>
+      <c r="U65" s="180"/>
+      <c r="V65" s="180"/>
+      <c r="W65" s="180"/>
+      <c r="X65" s="180"/>
+      <c r="Y65" s="180"/>
+      <c r="Z65" s="180"/>
+      <c r="AA65" s="180"/>
+      <c r="AB65" s="180"/>
+      <c r="AC65" s="180"/>
+      <c r="AD65" s="180"/>
+      <c r="AE65" s="180"/>
+      <c r="AF65" s="180"/>
+      <c r="AG65" s="180"/>
+      <c r="AH65" s="180"/>
+      <c r="AI65" s="180"/>
+      <c r="AJ65" s="180"/>
+      <c r="AK65" s="180"/>
+      <c r="AL65" s="180"/>
+      <c r="AM65" s="180"/>
+      <c r="AN65" s="180"/>
+      <c r="AO65" s="180"/>
+      <c r="AP65" s="180"/>
+      <c r="AQ65" s="180"/>
+      <c r="AR65" s="180"/>
+      <c r="AS65" s="180"/>
+      <c r="AT65" s="180"/>
+      <c r="AU65" s="180"/>
+      <c r="AV65" s="180"/>
+      <c r="AW65" s="180"/>
+      <c r="AX65" s="180"/>
+      <c r="AY65" s="180"/>
+      <c r="AZ65" s="180"/>
+      <c r="BA65" s="180"/>
+      <c r="BB65" s="180"/>
+      <c r="BC65" s="180"/>
+      <c r="BD65" s="180"/>
+      <c r="BE65" s="180"/>
+      <c r="BF65" s="180"/>
+      <c r="BG65" s="180"/>
+      <c r="BH65" s="180"/>
+      <c r="BI65" s="180"/>
+      <c r="BJ65" s="180"/>
+      <c r="BK65" s="180"/>
+      <c r="BL65" s="180"/>
+      <c r="BM65" s="180"/>
+      <c r="BN65" s="180"/>
+      <c r="BO65" s="180"/>
+      <c r="BP65" s="180"/>
+      <c r="BQ65" s="180"/>
+      <c r="BR65" s="181"/>
     </row>
     <row r="66" spans="1:70" s="55" customFormat="1">
       <c r="A66" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.2</v>
       </c>
-      <c r="B66" s="173" t="s">
+      <c r="B66" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="173"/>
-      <c r="D66" s="173"/>
-      <c r="E66" s="173"/>
-      <c r="F66" s="173"/>
-      <c r="G66" s="173"/>
-      <c r="H66" s="173"/>
-      <c r="I66" s="173"/>
-      <c r="J66" s="173"/>
-      <c r="K66" s="173"/>
-      <c r="L66" s="173"/>
-      <c r="M66" s="173"/>
-      <c r="N66" s="173"/>
-      <c r="O66" s="173"/>
-      <c r="P66" s="173"/>
-      <c r="Q66" s="173"/>
-      <c r="R66" s="173"/>
-      <c r="S66" s="173"/>
-      <c r="T66" s="173"/>
-      <c r="U66" s="173"/>
-      <c r="V66" s="173"/>
-      <c r="W66" s="173"/>
-      <c r="X66" s="173"/>
-      <c r="Y66" s="173"/>
-      <c r="Z66" s="173"/>
-      <c r="AA66" s="173"/>
-      <c r="AB66" s="173"/>
-      <c r="AC66" s="173"/>
-      <c r="AD66" s="173"/>
-      <c r="AE66" s="173"/>
-      <c r="AF66" s="173"/>
-      <c r="AG66" s="173"/>
-      <c r="AH66" s="173"/>
-      <c r="AI66" s="173"/>
-      <c r="AJ66" s="173"/>
-      <c r="AK66" s="173"/>
-      <c r="AL66" s="173"/>
-      <c r="AM66" s="173"/>
-      <c r="AN66" s="173"/>
-      <c r="AO66" s="173"/>
-      <c r="AP66" s="173"/>
-      <c r="AQ66" s="173"/>
-      <c r="AR66" s="173"/>
-      <c r="AS66" s="173"/>
-      <c r="AT66" s="173"/>
-      <c r="AU66" s="173"/>
-      <c r="AV66" s="173"/>
-      <c r="AW66" s="173"/>
-      <c r="AX66" s="173"/>
-      <c r="AY66" s="173"/>
-      <c r="AZ66" s="173"/>
-      <c r="BA66" s="173"/>
-      <c r="BB66" s="173"/>
-      <c r="BC66" s="173"/>
-      <c r="BD66" s="173"/>
-      <c r="BE66" s="173"/>
-      <c r="BF66" s="173"/>
-      <c r="BG66" s="173"/>
-      <c r="BH66" s="173"/>
-      <c r="BI66" s="173"/>
-      <c r="BJ66" s="173"/>
-      <c r="BK66" s="173"/>
-      <c r="BL66" s="173"/>
-      <c r="BM66" s="173"/>
-      <c r="BN66" s="173"/>
-      <c r="BO66" s="173"/>
-      <c r="BP66" s="173"/>
-      <c r="BQ66" s="173"/>
-      <c r="BR66" s="174"/>
+      <c r="C66" s="182"/>
+      <c r="D66" s="182"/>
+      <c r="E66" s="182"/>
+      <c r="F66" s="182"/>
+      <c r="G66" s="182"/>
+      <c r="H66" s="182"/>
+      <c r="I66" s="182"/>
+      <c r="J66" s="182"/>
+      <c r="K66" s="182"/>
+      <c r="L66" s="182"/>
+      <c r="M66" s="182"/>
+      <c r="N66" s="182"/>
+      <c r="O66" s="182"/>
+      <c r="P66" s="182"/>
+      <c r="Q66" s="182"/>
+      <c r="R66" s="182"/>
+      <c r="S66" s="182"/>
+      <c r="T66" s="182"/>
+      <c r="U66" s="182"/>
+      <c r="V66" s="182"/>
+      <c r="W66" s="182"/>
+      <c r="X66" s="182"/>
+      <c r="Y66" s="182"/>
+      <c r="Z66" s="182"/>
+      <c r="AA66" s="182"/>
+      <c r="AB66" s="182"/>
+      <c r="AC66" s="182"/>
+      <c r="AD66" s="182"/>
+      <c r="AE66" s="182"/>
+      <c r="AF66" s="182"/>
+      <c r="AG66" s="182"/>
+      <c r="AH66" s="182"/>
+      <c r="AI66" s="182"/>
+      <c r="AJ66" s="182"/>
+      <c r="AK66" s="182"/>
+      <c r="AL66" s="182"/>
+      <c r="AM66" s="182"/>
+      <c r="AN66" s="182"/>
+      <c r="AO66" s="182"/>
+      <c r="AP66" s="182"/>
+      <c r="AQ66" s="182"/>
+      <c r="AR66" s="182"/>
+      <c r="AS66" s="182"/>
+      <c r="AT66" s="182"/>
+      <c r="AU66" s="182"/>
+      <c r="AV66" s="182"/>
+      <c r="AW66" s="182"/>
+      <c r="AX66" s="182"/>
+      <c r="AY66" s="182"/>
+      <c r="AZ66" s="182"/>
+      <c r="BA66" s="182"/>
+      <c r="BB66" s="182"/>
+      <c r="BC66" s="182"/>
+      <c r="BD66" s="182"/>
+      <c r="BE66" s="182"/>
+      <c r="BF66" s="182"/>
+      <c r="BG66" s="182"/>
+      <c r="BH66" s="182"/>
+      <c r="BI66" s="182"/>
+      <c r="BJ66" s="182"/>
+      <c r="BK66" s="182"/>
+      <c r="BL66" s="182"/>
+      <c r="BM66" s="182"/>
+      <c r="BN66" s="182"/>
+      <c r="BO66" s="182"/>
+      <c r="BP66" s="182"/>
+      <c r="BQ66" s="182"/>
+      <c r="BR66" s="183"/>
     </row>
     <row r="67" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A67" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.3</v>
       </c>
-      <c r="B67" s="175" t="s">
+      <c r="B67" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="175"/>
-      <c r="D67" s="175"/>
-      <c r="E67" s="175"/>
-      <c r="F67" s="175"/>
-      <c r="G67" s="175"/>
-      <c r="H67" s="175"/>
-      <c r="I67" s="175"/>
-      <c r="J67" s="175"/>
-      <c r="K67" s="175"/>
-      <c r="L67" s="175"/>
-      <c r="M67" s="175"/>
-      <c r="N67" s="175"/>
-      <c r="O67" s="175"/>
-      <c r="P67" s="175"/>
-      <c r="Q67" s="175"/>
-      <c r="R67" s="175"/>
-      <c r="S67" s="175"/>
-      <c r="T67" s="175"/>
-      <c r="U67" s="175"/>
-      <c r="V67" s="175"/>
-      <c r="W67" s="175"/>
-      <c r="X67" s="175"/>
-      <c r="Y67" s="175"/>
-      <c r="Z67" s="175"/>
-      <c r="AA67" s="175"/>
-      <c r="AB67" s="175"/>
-      <c r="AC67" s="175"/>
-      <c r="AD67" s="175"/>
-      <c r="AE67" s="175"/>
-      <c r="AF67" s="175"/>
-      <c r="AG67" s="175"/>
-      <c r="AH67" s="175"/>
-      <c r="AI67" s="175"/>
-      <c r="AJ67" s="175"/>
-      <c r="AK67" s="175"/>
-      <c r="AL67" s="175"/>
-      <c r="AM67" s="175"/>
-      <c r="AN67" s="175"/>
-      <c r="AO67" s="175"/>
-      <c r="AP67" s="175"/>
-      <c r="AQ67" s="175"/>
-      <c r="AR67" s="175"/>
-      <c r="AS67" s="175"/>
-      <c r="AT67" s="175"/>
-      <c r="AU67" s="175"/>
-      <c r="AV67" s="175"/>
-      <c r="AW67" s="175"/>
-      <c r="AX67" s="175"/>
-      <c r="AY67" s="175"/>
-      <c r="AZ67" s="175"/>
-      <c r="BA67" s="175"/>
-      <c r="BB67" s="175"/>
-      <c r="BC67" s="175"/>
-      <c r="BD67" s="175"/>
-      <c r="BE67" s="175"/>
-      <c r="BF67" s="175"/>
-      <c r="BG67" s="175"/>
-      <c r="BH67" s="175"/>
-      <c r="BI67" s="175"/>
-      <c r="BJ67" s="175"/>
-      <c r="BK67" s="175"/>
-      <c r="BL67" s="175"/>
-      <c r="BM67" s="175"/>
-      <c r="BN67" s="175"/>
-      <c r="BO67" s="175"/>
-      <c r="BP67" s="175"/>
-      <c r="BQ67" s="175"/>
-      <c r="BR67" s="176"/>
+      <c r="C67" s="186"/>
+      <c r="D67" s="186"/>
+      <c r="E67" s="186"/>
+      <c r="F67" s="186"/>
+      <c r="G67" s="186"/>
+      <c r="H67" s="186"/>
+      <c r="I67" s="186"/>
+      <c r="J67" s="186"/>
+      <c r="K67" s="186"/>
+      <c r="L67" s="186"/>
+      <c r="M67" s="186"/>
+      <c r="N67" s="186"/>
+      <c r="O67" s="186"/>
+      <c r="P67" s="186"/>
+      <c r="Q67" s="186"/>
+      <c r="R67" s="186"/>
+      <c r="S67" s="186"/>
+      <c r="T67" s="186"/>
+      <c r="U67" s="186"/>
+      <c r="V67" s="186"/>
+      <c r="W67" s="186"/>
+      <c r="X67" s="186"/>
+      <c r="Y67" s="186"/>
+      <c r="Z67" s="186"/>
+      <c r="AA67" s="186"/>
+      <c r="AB67" s="186"/>
+      <c r="AC67" s="186"/>
+      <c r="AD67" s="186"/>
+      <c r="AE67" s="186"/>
+      <c r="AF67" s="186"/>
+      <c r="AG67" s="186"/>
+      <c r="AH67" s="186"/>
+      <c r="AI67" s="186"/>
+      <c r="AJ67" s="186"/>
+      <c r="AK67" s="186"/>
+      <c r="AL67" s="186"/>
+      <c r="AM67" s="186"/>
+      <c r="AN67" s="186"/>
+      <c r="AO67" s="186"/>
+      <c r="AP67" s="186"/>
+      <c r="AQ67" s="186"/>
+      <c r="AR67" s="186"/>
+      <c r="AS67" s="186"/>
+      <c r="AT67" s="186"/>
+      <c r="AU67" s="186"/>
+      <c r="AV67" s="186"/>
+      <c r="AW67" s="186"/>
+      <c r="AX67" s="186"/>
+      <c r="AY67" s="186"/>
+      <c r="AZ67" s="186"/>
+      <c r="BA67" s="186"/>
+      <c r="BB67" s="186"/>
+      <c r="BC67" s="186"/>
+      <c r="BD67" s="186"/>
+      <c r="BE67" s="186"/>
+      <c r="BF67" s="186"/>
+      <c r="BG67" s="186"/>
+      <c r="BH67" s="186"/>
+      <c r="BI67" s="186"/>
+      <c r="BJ67" s="186"/>
+      <c r="BK67" s="186"/>
+      <c r="BL67" s="186"/>
+      <c r="BM67" s="186"/>
+      <c r="BN67" s="186"/>
+      <c r="BO67" s="186"/>
+      <c r="BP67" s="186"/>
+      <c r="BQ67" s="186"/>
+      <c r="BR67" s="187"/>
     </row>
     <row r="68" spans="1:70" ht="17.25" thickBot="1">
       <c r="A68" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B68" s="169" t="s">
+      <c r="B68" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
-      <c r="E68" s="169"/>
-      <c r="F68" s="169"/>
-      <c r="G68" s="169"/>
-      <c r="H68" s="169"/>
-      <c r="I68" s="169"/>
-      <c r="J68" s="169"/>
-      <c r="K68" s="169"/>
-      <c r="L68" s="169"/>
-      <c r="M68" s="169"/>
-      <c r="N68" s="169"/>
-      <c r="O68" s="169"/>
-      <c r="P68" s="169"/>
-      <c r="Q68" s="169"/>
-      <c r="R68" s="169"/>
-      <c r="S68" s="169"/>
-      <c r="T68" s="169"/>
-      <c r="U68" s="169"/>
-      <c r="V68" s="169"/>
-      <c r="W68" s="169"/>
-      <c r="X68" s="169"/>
-      <c r="Y68" s="169"/>
-      <c r="Z68" s="169"/>
-      <c r="AA68" s="169"/>
-      <c r="AB68" s="169"/>
-      <c r="AC68" s="169"/>
-      <c r="AD68" s="169"/>
-      <c r="AE68" s="169"/>
-      <c r="AF68" s="169"/>
-      <c r="AG68" s="169"/>
-      <c r="AH68" s="169"/>
-      <c r="AI68" s="169"/>
-      <c r="AJ68" s="169"/>
-      <c r="AK68" s="169"/>
-      <c r="AL68" s="169"/>
-      <c r="AM68" s="169"/>
-      <c r="AN68" s="169"/>
-      <c r="AO68" s="169"/>
-      <c r="AP68" s="169"/>
-      <c r="AQ68" s="169"/>
-      <c r="AR68" s="169"/>
-      <c r="AS68" s="169"/>
-      <c r="AT68" s="169"/>
-      <c r="AU68" s="169"/>
-      <c r="AV68" s="169"/>
-      <c r="AW68" s="169"/>
-      <c r="AX68" s="169"/>
-      <c r="AY68" s="169"/>
-      <c r="AZ68" s="169"/>
-      <c r="BA68" s="169"/>
-      <c r="BB68" s="169"/>
-      <c r="BC68" s="169"/>
-      <c r="BD68" s="169"/>
-      <c r="BE68" s="169"/>
-      <c r="BF68" s="169"/>
-      <c r="BG68" s="169"/>
-      <c r="BH68" s="169"/>
-      <c r="BI68" s="169"/>
-      <c r="BJ68" s="169"/>
-      <c r="BK68" s="169"/>
-      <c r="BL68" s="169"/>
-      <c r="BM68" s="169"/>
-      <c r="BN68" s="169"/>
-      <c r="BO68" s="169"/>
-      <c r="BP68" s="169"/>
-      <c r="BQ68" s="169"/>
-      <c r="BR68" s="170"/>
+      <c r="C68" s="184"/>
+      <c r="D68" s="184"/>
+      <c r="E68" s="184"/>
+      <c r="F68" s="184"/>
+      <c r="G68" s="184"/>
+      <c r="H68" s="184"/>
+      <c r="I68" s="184"/>
+      <c r="J68" s="184"/>
+      <c r="K68" s="184"/>
+      <c r="L68" s="184"/>
+      <c r="M68" s="184"/>
+      <c r="N68" s="184"/>
+      <c r="O68" s="184"/>
+      <c r="P68" s="184"/>
+      <c r="Q68" s="184"/>
+      <c r="R68" s="184"/>
+      <c r="S68" s="184"/>
+      <c r="T68" s="184"/>
+      <c r="U68" s="184"/>
+      <c r="V68" s="184"/>
+      <c r="W68" s="184"/>
+      <c r="X68" s="184"/>
+      <c r="Y68" s="184"/>
+      <c r="Z68" s="184"/>
+      <c r="AA68" s="184"/>
+      <c r="AB68" s="184"/>
+      <c r="AC68" s="184"/>
+      <c r="AD68" s="184"/>
+      <c r="AE68" s="184"/>
+      <c r="AF68" s="184"/>
+      <c r="AG68" s="184"/>
+      <c r="AH68" s="184"/>
+      <c r="AI68" s="184"/>
+      <c r="AJ68" s="184"/>
+      <c r="AK68" s="184"/>
+      <c r="AL68" s="184"/>
+      <c r="AM68" s="184"/>
+      <c r="AN68" s="184"/>
+      <c r="AO68" s="184"/>
+      <c r="AP68" s="184"/>
+      <c r="AQ68" s="184"/>
+      <c r="AR68" s="184"/>
+      <c r="AS68" s="184"/>
+      <c r="AT68" s="184"/>
+      <c r="AU68" s="184"/>
+      <c r="AV68" s="184"/>
+      <c r="AW68" s="184"/>
+      <c r="AX68" s="184"/>
+      <c r="AY68" s="184"/>
+      <c r="AZ68" s="184"/>
+      <c r="BA68" s="184"/>
+      <c r="BB68" s="184"/>
+      <c r="BC68" s="184"/>
+      <c r="BD68" s="184"/>
+      <c r="BE68" s="184"/>
+      <c r="BF68" s="184"/>
+      <c r="BG68" s="184"/>
+      <c r="BH68" s="184"/>
+      <c r="BI68" s="184"/>
+      <c r="BJ68" s="184"/>
+      <c r="BK68" s="184"/>
+      <c r="BL68" s="184"/>
+      <c r="BM68" s="184"/>
+      <c r="BN68" s="184"/>
+      <c r="BO68" s="184"/>
+      <c r="BP68" s="184"/>
+      <c r="BQ68" s="184"/>
+      <c r="BR68" s="185"/>
     </row>
     <row r="69" spans="1:70" s="55" customFormat="1">
       <c r="A69" s="57" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
-      <c r="B69" s="171" t="s">
+      <c r="B69" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="171"/>
-      <c r="D69" s="171"/>
-      <c r="E69" s="171"/>
-      <c r="F69" s="171"/>
-      <c r="G69" s="171"/>
-      <c r="H69" s="171"/>
-      <c r="I69" s="171"/>
-      <c r="J69" s="171"/>
-      <c r="K69" s="171"/>
-      <c r="L69" s="171"/>
-      <c r="M69" s="171"/>
-      <c r="N69" s="171"/>
-      <c r="O69" s="171"/>
-      <c r="P69" s="171"/>
-      <c r="Q69" s="171"/>
-      <c r="R69" s="171"/>
-      <c r="S69" s="171"/>
-      <c r="T69" s="171"/>
-      <c r="U69" s="171"/>
-      <c r="V69" s="171"/>
-      <c r="W69" s="171"/>
-      <c r="X69" s="171"/>
-      <c r="Y69" s="171"/>
-      <c r="Z69" s="171"/>
-      <c r="AA69" s="171"/>
-      <c r="AB69" s="171"/>
-      <c r="AC69" s="171"/>
-      <c r="AD69" s="171"/>
-      <c r="AE69" s="171"/>
-      <c r="AF69" s="171"/>
-      <c r="AG69" s="171"/>
-      <c r="AH69" s="171"/>
-      <c r="AI69" s="171"/>
-      <c r="AJ69" s="171"/>
-      <c r="AK69" s="171"/>
-      <c r="AL69" s="171"/>
-      <c r="AM69" s="171"/>
-      <c r="AN69" s="171"/>
-      <c r="AO69" s="171"/>
-      <c r="AP69" s="171"/>
-      <c r="AQ69" s="171"/>
-      <c r="AR69" s="171"/>
-      <c r="AS69" s="171"/>
-      <c r="AT69" s="171"/>
-      <c r="AU69" s="171"/>
-      <c r="AV69" s="171"/>
-      <c r="AW69" s="171"/>
-      <c r="AX69" s="171"/>
-      <c r="AY69" s="171"/>
-      <c r="AZ69" s="171"/>
-      <c r="BA69" s="171"/>
-      <c r="BB69" s="171"/>
-      <c r="BC69" s="171"/>
-      <c r="BD69" s="171"/>
-      <c r="BE69" s="171"/>
-      <c r="BF69" s="171"/>
-      <c r="BG69" s="171"/>
-      <c r="BH69" s="171"/>
-      <c r="BI69" s="171"/>
-      <c r="BJ69" s="171"/>
-      <c r="BK69" s="171"/>
-      <c r="BL69" s="171"/>
-      <c r="BM69" s="171"/>
-      <c r="BN69" s="171"/>
-      <c r="BO69" s="171"/>
-      <c r="BP69" s="171"/>
-      <c r="BQ69" s="171"/>
-      <c r="BR69" s="172"/>
+      <c r="C69" s="180"/>
+      <c r="D69" s="180"/>
+      <c r="E69" s="180"/>
+      <c r="F69" s="180"/>
+      <c r="G69" s="180"/>
+      <c r="H69" s="180"/>
+      <c r="I69" s="180"/>
+      <c r="J69" s="180"/>
+      <c r="K69" s="180"/>
+      <c r="L69" s="180"/>
+      <c r="M69" s="180"/>
+      <c r="N69" s="180"/>
+      <c r="O69" s="180"/>
+      <c r="P69" s="180"/>
+      <c r="Q69" s="180"/>
+      <c r="R69" s="180"/>
+      <c r="S69" s="180"/>
+      <c r="T69" s="180"/>
+      <c r="U69" s="180"/>
+      <c r="V69" s="180"/>
+      <c r="W69" s="180"/>
+      <c r="X69" s="180"/>
+      <c r="Y69" s="180"/>
+      <c r="Z69" s="180"/>
+      <c r="AA69" s="180"/>
+      <c r="AB69" s="180"/>
+      <c r="AC69" s="180"/>
+      <c r="AD69" s="180"/>
+      <c r="AE69" s="180"/>
+      <c r="AF69" s="180"/>
+      <c r="AG69" s="180"/>
+      <c r="AH69" s="180"/>
+      <c r="AI69" s="180"/>
+      <c r="AJ69" s="180"/>
+      <c r="AK69" s="180"/>
+      <c r="AL69" s="180"/>
+      <c r="AM69" s="180"/>
+      <c r="AN69" s="180"/>
+      <c r="AO69" s="180"/>
+      <c r="AP69" s="180"/>
+      <c r="AQ69" s="180"/>
+      <c r="AR69" s="180"/>
+      <c r="AS69" s="180"/>
+      <c r="AT69" s="180"/>
+      <c r="AU69" s="180"/>
+      <c r="AV69" s="180"/>
+      <c r="AW69" s="180"/>
+      <c r="AX69" s="180"/>
+      <c r="AY69" s="180"/>
+      <c r="AZ69" s="180"/>
+      <c r="BA69" s="180"/>
+      <c r="BB69" s="180"/>
+      <c r="BC69" s="180"/>
+      <c r="BD69" s="180"/>
+      <c r="BE69" s="180"/>
+      <c r="BF69" s="180"/>
+      <c r="BG69" s="180"/>
+      <c r="BH69" s="180"/>
+      <c r="BI69" s="180"/>
+      <c r="BJ69" s="180"/>
+      <c r="BK69" s="180"/>
+      <c r="BL69" s="180"/>
+      <c r="BM69" s="180"/>
+      <c r="BN69" s="180"/>
+      <c r="BO69" s="180"/>
+      <c r="BP69" s="180"/>
+      <c r="BQ69" s="180"/>
+      <c r="BR69" s="181"/>
     </row>
     <row r="70" spans="1:70" s="55" customFormat="1">
       <c r="A70" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
-      <c r="B70" s="173" t="s">
+      <c r="B70" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="C70" s="173"/>
-      <c r="D70" s="173"/>
-      <c r="E70" s="173"/>
-      <c r="F70" s="173"/>
-      <c r="G70" s="173"/>
-      <c r="H70" s="173"/>
-      <c r="I70" s="173"/>
-      <c r="J70" s="173"/>
-      <c r="K70" s="173"/>
-      <c r="L70" s="173"/>
-      <c r="M70" s="173"/>
-      <c r="N70" s="173"/>
-      <c r="O70" s="173"/>
-      <c r="P70" s="173"/>
-      <c r="Q70" s="173"/>
-      <c r="R70" s="173"/>
-      <c r="S70" s="173"/>
-      <c r="T70" s="173"/>
-      <c r="U70" s="173"/>
-      <c r="V70" s="173"/>
-      <c r="W70" s="173"/>
-      <c r="X70" s="173"/>
-      <c r="Y70" s="173"/>
-      <c r="Z70" s="173"/>
-      <c r="AA70" s="173"/>
-      <c r="AB70" s="173"/>
-      <c r="AC70" s="173"/>
-      <c r="AD70" s="173"/>
-      <c r="AE70" s="173"/>
-      <c r="AF70" s="173"/>
-      <c r="AG70" s="173"/>
-      <c r="AH70" s="173"/>
-      <c r="AI70" s="173"/>
-      <c r="AJ70" s="173"/>
-      <c r="AK70" s="173"/>
-      <c r="AL70" s="173"/>
-      <c r="AM70" s="173"/>
-      <c r="AN70" s="173"/>
-      <c r="AO70" s="173"/>
-      <c r="AP70" s="173"/>
-      <c r="AQ70" s="173"/>
-      <c r="AR70" s="173"/>
-      <c r="AS70" s="173"/>
-      <c r="AT70" s="173"/>
-      <c r="AU70" s="173"/>
-      <c r="AV70" s="173"/>
-      <c r="AW70" s="173"/>
-      <c r="AX70" s="173"/>
-      <c r="AY70" s="173"/>
-      <c r="AZ70" s="173"/>
-      <c r="BA70" s="173"/>
-      <c r="BB70" s="173"/>
-      <c r="BC70" s="173"/>
-      <c r="BD70" s="173"/>
-      <c r="BE70" s="173"/>
-      <c r="BF70" s="173"/>
-      <c r="BG70" s="173"/>
-      <c r="BH70" s="173"/>
-      <c r="BI70" s="173"/>
-      <c r="BJ70" s="173"/>
-      <c r="BK70" s="173"/>
-      <c r="BL70" s="173"/>
-      <c r="BM70" s="173"/>
-      <c r="BN70" s="173"/>
-      <c r="BO70" s="173"/>
-      <c r="BP70" s="173"/>
-      <c r="BQ70" s="173"/>
-      <c r="BR70" s="174"/>
+      <c r="C70" s="182"/>
+      <c r="D70" s="182"/>
+      <c r="E70" s="182"/>
+      <c r="F70" s="182"/>
+      <c r="G70" s="182"/>
+      <c r="H70" s="182"/>
+      <c r="I70" s="182"/>
+      <c r="J70" s="182"/>
+      <c r="K70" s="182"/>
+      <c r="L70" s="182"/>
+      <c r="M70" s="182"/>
+      <c r="N70" s="182"/>
+      <c r="O70" s="182"/>
+      <c r="P70" s="182"/>
+      <c r="Q70" s="182"/>
+      <c r="R70" s="182"/>
+      <c r="S70" s="182"/>
+      <c r="T70" s="182"/>
+      <c r="U70" s="182"/>
+      <c r="V70" s="182"/>
+      <c r="W70" s="182"/>
+      <c r="X70" s="182"/>
+      <c r="Y70" s="182"/>
+      <c r="Z70" s="182"/>
+      <c r="AA70" s="182"/>
+      <c r="AB70" s="182"/>
+      <c r="AC70" s="182"/>
+      <c r="AD70" s="182"/>
+      <c r="AE70" s="182"/>
+      <c r="AF70" s="182"/>
+      <c r="AG70" s="182"/>
+      <c r="AH70" s="182"/>
+      <c r="AI70" s="182"/>
+      <c r="AJ70" s="182"/>
+      <c r="AK70" s="182"/>
+      <c r="AL70" s="182"/>
+      <c r="AM70" s="182"/>
+      <c r="AN70" s="182"/>
+      <c r="AO70" s="182"/>
+      <c r="AP70" s="182"/>
+      <c r="AQ70" s="182"/>
+      <c r="AR70" s="182"/>
+      <c r="AS70" s="182"/>
+      <c r="AT70" s="182"/>
+      <c r="AU70" s="182"/>
+      <c r="AV70" s="182"/>
+      <c r="AW70" s="182"/>
+      <c r="AX70" s="182"/>
+      <c r="AY70" s="182"/>
+      <c r="AZ70" s="182"/>
+      <c r="BA70" s="182"/>
+      <c r="BB70" s="182"/>
+      <c r="BC70" s="182"/>
+      <c r="BD70" s="182"/>
+      <c r="BE70" s="182"/>
+      <c r="BF70" s="182"/>
+      <c r="BG70" s="182"/>
+      <c r="BH70" s="182"/>
+      <c r="BI70" s="182"/>
+      <c r="BJ70" s="182"/>
+      <c r="BK70" s="182"/>
+      <c r="BL70" s="182"/>
+      <c r="BM70" s="182"/>
+      <c r="BN70" s="182"/>
+      <c r="BO70" s="182"/>
+      <c r="BP70" s="182"/>
+      <c r="BQ70" s="182"/>
+      <c r="BR70" s="183"/>
     </row>
     <row r="71" spans="1:70" s="55" customFormat="1">
       <c r="A71" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
-      <c r="B71" s="173" t="s">
+      <c r="B71" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="173"/>
-      <c r="D71" s="173"/>
-      <c r="E71" s="173"/>
-      <c r="F71" s="173"/>
-      <c r="G71" s="173"/>
-      <c r="H71" s="173"/>
-      <c r="I71" s="173"/>
-      <c r="J71" s="173"/>
-      <c r="K71" s="173"/>
-      <c r="L71" s="173"/>
-      <c r="M71" s="173"/>
-      <c r="N71" s="173"/>
-      <c r="O71" s="173"/>
-      <c r="P71" s="173"/>
-      <c r="Q71" s="173"/>
-      <c r="R71" s="173"/>
-      <c r="S71" s="173"/>
-      <c r="T71" s="173"/>
-      <c r="U71" s="173"/>
-      <c r="V71" s="173"/>
-      <c r="W71" s="173"/>
-      <c r="X71" s="173"/>
-      <c r="Y71" s="173"/>
-      <c r="Z71" s="173"/>
-      <c r="AA71" s="173"/>
-      <c r="AB71" s="173"/>
-      <c r="AC71" s="173"/>
-      <c r="AD71" s="173"/>
-      <c r="AE71" s="173"/>
-      <c r="AF71" s="173"/>
-      <c r="AG71" s="173"/>
-      <c r="AH71" s="173"/>
-      <c r="AI71" s="173"/>
-      <c r="AJ71" s="173"/>
-      <c r="AK71" s="173"/>
-      <c r="AL71" s="173"/>
-      <c r="AM71" s="173"/>
-      <c r="AN71" s="173"/>
-      <c r="AO71" s="173"/>
-      <c r="AP71" s="173"/>
-      <c r="AQ71" s="173"/>
-      <c r="AR71" s="173"/>
-      <c r="AS71" s="173"/>
-      <c r="AT71" s="173"/>
-      <c r="AU71" s="173"/>
-      <c r="AV71" s="173"/>
-      <c r="AW71" s="173"/>
-      <c r="AX71" s="173"/>
-      <c r="AY71" s="173"/>
-      <c r="AZ71" s="173"/>
-      <c r="BA71" s="173"/>
-      <c r="BB71" s="173"/>
-      <c r="BC71" s="173"/>
-      <c r="BD71" s="173"/>
-      <c r="BE71" s="173"/>
-      <c r="BF71" s="173"/>
-      <c r="BG71" s="173"/>
-      <c r="BH71" s="173"/>
-      <c r="BI71" s="173"/>
-      <c r="BJ71" s="173"/>
-      <c r="BK71" s="173"/>
-      <c r="BL71" s="173"/>
-      <c r="BM71" s="173"/>
-      <c r="BN71" s="173"/>
-      <c r="BO71" s="173"/>
-      <c r="BP71" s="173"/>
-      <c r="BQ71" s="173"/>
-      <c r="BR71" s="174"/>
+      <c r="C71" s="182"/>
+      <c r="D71" s="182"/>
+      <c r="E71" s="182"/>
+      <c r="F71" s="182"/>
+      <c r="G71" s="182"/>
+      <c r="H71" s="182"/>
+      <c r="I71" s="182"/>
+      <c r="J71" s="182"/>
+      <c r="K71" s="182"/>
+      <c r="L71" s="182"/>
+      <c r="M71" s="182"/>
+      <c r="N71" s="182"/>
+      <c r="O71" s="182"/>
+      <c r="P71" s="182"/>
+      <c r="Q71" s="182"/>
+      <c r="R71" s="182"/>
+      <c r="S71" s="182"/>
+      <c r="T71" s="182"/>
+      <c r="U71" s="182"/>
+      <c r="V71" s="182"/>
+      <c r="W71" s="182"/>
+      <c r="X71" s="182"/>
+      <c r="Y71" s="182"/>
+      <c r="Z71" s="182"/>
+      <c r="AA71" s="182"/>
+      <c r="AB71" s="182"/>
+      <c r="AC71" s="182"/>
+      <c r="AD71" s="182"/>
+      <c r="AE71" s="182"/>
+      <c r="AF71" s="182"/>
+      <c r="AG71" s="182"/>
+      <c r="AH71" s="182"/>
+      <c r="AI71" s="182"/>
+      <c r="AJ71" s="182"/>
+      <c r="AK71" s="182"/>
+      <c r="AL71" s="182"/>
+      <c r="AM71" s="182"/>
+      <c r="AN71" s="182"/>
+      <c r="AO71" s="182"/>
+      <c r="AP71" s="182"/>
+      <c r="AQ71" s="182"/>
+      <c r="AR71" s="182"/>
+      <c r="AS71" s="182"/>
+      <c r="AT71" s="182"/>
+      <c r="AU71" s="182"/>
+      <c r="AV71" s="182"/>
+      <c r="AW71" s="182"/>
+      <c r="AX71" s="182"/>
+      <c r="AY71" s="182"/>
+      <c r="AZ71" s="182"/>
+      <c r="BA71" s="182"/>
+      <c r="BB71" s="182"/>
+      <c r="BC71" s="182"/>
+      <c r="BD71" s="182"/>
+      <c r="BE71" s="182"/>
+      <c r="BF71" s="182"/>
+      <c r="BG71" s="182"/>
+      <c r="BH71" s="182"/>
+      <c r="BI71" s="182"/>
+      <c r="BJ71" s="182"/>
+      <c r="BK71" s="182"/>
+      <c r="BL71" s="182"/>
+      <c r="BM71" s="182"/>
+      <c r="BN71" s="182"/>
+      <c r="BO71" s="182"/>
+      <c r="BP71" s="182"/>
+      <c r="BQ71" s="182"/>
+      <c r="BR71" s="183"/>
     </row>
     <row r="72" spans="1:70" s="55" customFormat="1">
       <c r="A72" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
-      <c r="B72" s="173" t="s">
+      <c r="B72" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="173"/>
-      <c r="D72" s="173"/>
-      <c r="E72" s="173"/>
-      <c r="F72" s="173"/>
-      <c r="G72" s="173"/>
-      <c r="H72" s="173"/>
-      <c r="I72" s="173"/>
-      <c r="J72" s="173"/>
-      <c r="K72" s="173"/>
-      <c r="L72" s="173"/>
-      <c r="M72" s="173"/>
-      <c r="N72" s="173"/>
-      <c r="O72" s="173"/>
-      <c r="P72" s="173"/>
-      <c r="Q72" s="173"/>
-      <c r="R72" s="173"/>
-      <c r="S72" s="173"/>
-      <c r="T72" s="173"/>
-      <c r="U72" s="173"/>
-      <c r="V72" s="173"/>
-      <c r="W72" s="173"/>
-      <c r="X72" s="173"/>
-      <c r="Y72" s="173"/>
-      <c r="Z72" s="173"/>
-      <c r="AA72" s="173"/>
-      <c r="AB72" s="173"/>
-      <c r="AC72" s="173"/>
-      <c r="AD72" s="173"/>
-      <c r="AE72" s="173"/>
-      <c r="AF72" s="173"/>
-      <c r="AG72" s="173"/>
-      <c r="AH72" s="173"/>
-      <c r="AI72" s="173"/>
-      <c r="AJ72" s="173"/>
-      <c r="AK72" s="173"/>
-      <c r="AL72" s="173"/>
-      <c r="AM72" s="173"/>
-      <c r="AN72" s="173"/>
-      <c r="AO72" s="173"/>
-      <c r="AP72" s="173"/>
-      <c r="AQ72" s="173"/>
-      <c r="AR72" s="173"/>
-      <c r="AS72" s="173"/>
-      <c r="AT72" s="173"/>
-      <c r="AU72" s="173"/>
-      <c r="AV72" s="173"/>
-      <c r="AW72" s="173"/>
-      <c r="AX72" s="173"/>
-      <c r="AY72" s="173"/>
-      <c r="AZ72" s="173"/>
-      <c r="BA72" s="173"/>
-      <c r="BB72" s="173"/>
-      <c r="BC72" s="173"/>
-      <c r="BD72" s="173"/>
-      <c r="BE72" s="173"/>
-      <c r="BF72" s="173"/>
-      <c r="BG72" s="173"/>
-      <c r="BH72" s="173"/>
-      <c r="BI72" s="173"/>
-      <c r="BJ72" s="173"/>
-      <c r="BK72" s="173"/>
-      <c r="BL72" s="173"/>
-      <c r="BM72" s="173"/>
-      <c r="BN72" s="173"/>
-      <c r="BO72" s="173"/>
-      <c r="BP72" s="173"/>
-      <c r="BQ72" s="173"/>
-      <c r="BR72" s="174"/>
+      <c r="C72" s="182"/>
+      <c r="D72" s="182"/>
+      <c r="E72" s="182"/>
+      <c r="F72" s="182"/>
+      <c r="G72" s="182"/>
+      <c r="H72" s="182"/>
+      <c r="I72" s="182"/>
+      <c r="J72" s="182"/>
+      <c r="K72" s="182"/>
+      <c r="L72" s="182"/>
+      <c r="M72" s="182"/>
+      <c r="N72" s="182"/>
+      <c r="O72" s="182"/>
+      <c r="P72" s="182"/>
+      <c r="Q72" s="182"/>
+      <c r="R72" s="182"/>
+      <c r="S72" s="182"/>
+      <c r="T72" s="182"/>
+      <c r="U72" s="182"/>
+      <c r="V72" s="182"/>
+      <c r="W72" s="182"/>
+      <c r="X72" s="182"/>
+      <c r="Y72" s="182"/>
+      <c r="Z72" s="182"/>
+      <c r="AA72" s="182"/>
+      <c r="AB72" s="182"/>
+      <c r="AC72" s="182"/>
+      <c r="AD72" s="182"/>
+      <c r="AE72" s="182"/>
+      <c r="AF72" s="182"/>
+      <c r="AG72" s="182"/>
+      <c r="AH72" s="182"/>
+      <c r="AI72" s="182"/>
+      <c r="AJ72" s="182"/>
+      <c r="AK72" s="182"/>
+      <c r="AL72" s="182"/>
+      <c r="AM72" s="182"/>
+      <c r="AN72" s="182"/>
+      <c r="AO72" s="182"/>
+      <c r="AP72" s="182"/>
+      <c r="AQ72" s="182"/>
+      <c r="AR72" s="182"/>
+      <c r="AS72" s="182"/>
+      <c r="AT72" s="182"/>
+      <c r="AU72" s="182"/>
+      <c r="AV72" s="182"/>
+      <c r="AW72" s="182"/>
+      <c r="AX72" s="182"/>
+      <c r="AY72" s="182"/>
+      <c r="AZ72" s="182"/>
+      <c r="BA72" s="182"/>
+      <c r="BB72" s="182"/>
+      <c r="BC72" s="182"/>
+      <c r="BD72" s="182"/>
+      <c r="BE72" s="182"/>
+      <c r="BF72" s="182"/>
+      <c r="BG72" s="182"/>
+      <c r="BH72" s="182"/>
+      <c r="BI72" s="182"/>
+      <c r="BJ72" s="182"/>
+      <c r="BK72" s="182"/>
+      <c r="BL72" s="182"/>
+      <c r="BM72" s="182"/>
+      <c r="BN72" s="182"/>
+      <c r="BO72" s="182"/>
+      <c r="BP72" s="182"/>
+      <c r="BQ72" s="182"/>
+      <c r="BR72" s="183"/>
     </row>
     <row r="73" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A73" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.5</v>
       </c>
-      <c r="B73" s="175" t="s">
+      <c r="B73" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="175"/>
-      <c r="D73" s="175"/>
-      <c r="E73" s="175"/>
-      <c r="F73" s="175"/>
-      <c r="G73" s="175"/>
-      <c r="H73" s="175"/>
-      <c r="I73" s="175"/>
-      <c r="J73" s="175"/>
-      <c r="K73" s="175"/>
-      <c r="L73" s="175"/>
-      <c r="M73" s="175"/>
-      <c r="N73" s="175"/>
-      <c r="O73" s="175"/>
-      <c r="P73" s="175"/>
-      <c r="Q73" s="175"/>
-      <c r="R73" s="175"/>
-      <c r="S73" s="175"/>
-      <c r="T73" s="175"/>
-      <c r="U73" s="175"/>
-      <c r="V73" s="175"/>
-      <c r="W73" s="175"/>
-      <c r="X73" s="175"/>
-      <c r="Y73" s="175"/>
-      <c r="Z73" s="175"/>
-      <c r="AA73" s="175"/>
-      <c r="AB73" s="175"/>
-      <c r="AC73" s="175"/>
-      <c r="AD73" s="175"/>
-      <c r="AE73" s="175"/>
-      <c r="AF73" s="175"/>
-      <c r="AG73" s="175"/>
-      <c r="AH73" s="175"/>
-      <c r="AI73" s="175"/>
-      <c r="AJ73" s="175"/>
-      <c r="AK73" s="175"/>
-      <c r="AL73" s="175"/>
-      <c r="AM73" s="175"/>
-      <c r="AN73" s="175"/>
-      <c r="AO73" s="175"/>
-      <c r="AP73" s="175"/>
-      <c r="AQ73" s="175"/>
-      <c r="AR73" s="175"/>
-      <c r="AS73" s="175"/>
-      <c r="AT73" s="175"/>
-      <c r="AU73" s="175"/>
-      <c r="AV73" s="175"/>
-      <c r="AW73" s="175"/>
-      <c r="AX73" s="175"/>
-      <c r="AY73" s="175"/>
-      <c r="AZ73" s="175"/>
-      <c r="BA73" s="175"/>
-      <c r="BB73" s="175"/>
-      <c r="BC73" s="175"/>
-      <c r="BD73" s="175"/>
-      <c r="BE73" s="175"/>
-      <c r="BF73" s="175"/>
-      <c r="BG73" s="175"/>
-      <c r="BH73" s="175"/>
-      <c r="BI73" s="175"/>
-      <c r="BJ73" s="175"/>
-      <c r="BK73" s="175"/>
-      <c r="BL73" s="175"/>
-      <c r="BM73" s="175"/>
-      <c r="BN73" s="175"/>
-      <c r="BO73" s="175"/>
-      <c r="BP73" s="175"/>
-      <c r="BQ73" s="175"/>
-      <c r="BR73" s="176"/>
+      <c r="C73" s="186"/>
+      <c r="D73" s="186"/>
+      <c r="E73" s="186"/>
+      <c r="F73" s="186"/>
+      <c r="G73" s="186"/>
+      <c r="H73" s="186"/>
+      <c r="I73" s="186"/>
+      <c r="J73" s="186"/>
+      <c r="K73" s="186"/>
+      <c r="L73" s="186"/>
+      <c r="M73" s="186"/>
+      <c r="N73" s="186"/>
+      <c r="O73" s="186"/>
+      <c r="P73" s="186"/>
+      <c r="Q73" s="186"/>
+      <c r="R73" s="186"/>
+      <c r="S73" s="186"/>
+      <c r="T73" s="186"/>
+      <c r="U73" s="186"/>
+      <c r="V73" s="186"/>
+      <c r="W73" s="186"/>
+      <c r="X73" s="186"/>
+      <c r="Y73" s="186"/>
+      <c r="Z73" s="186"/>
+      <c r="AA73" s="186"/>
+      <c r="AB73" s="186"/>
+      <c r="AC73" s="186"/>
+      <c r="AD73" s="186"/>
+      <c r="AE73" s="186"/>
+      <c r="AF73" s="186"/>
+      <c r="AG73" s="186"/>
+      <c r="AH73" s="186"/>
+      <c r="AI73" s="186"/>
+      <c r="AJ73" s="186"/>
+      <c r="AK73" s="186"/>
+      <c r="AL73" s="186"/>
+      <c r="AM73" s="186"/>
+      <c r="AN73" s="186"/>
+      <c r="AO73" s="186"/>
+      <c r="AP73" s="186"/>
+      <c r="AQ73" s="186"/>
+      <c r="AR73" s="186"/>
+      <c r="AS73" s="186"/>
+      <c r="AT73" s="186"/>
+      <c r="AU73" s="186"/>
+      <c r="AV73" s="186"/>
+      <c r="AW73" s="186"/>
+      <c r="AX73" s="186"/>
+      <c r="AY73" s="186"/>
+      <c r="AZ73" s="186"/>
+      <c r="BA73" s="186"/>
+      <c r="BB73" s="186"/>
+      <c r="BC73" s="186"/>
+      <c r="BD73" s="186"/>
+      <c r="BE73" s="186"/>
+      <c r="BF73" s="186"/>
+      <c r="BG73" s="186"/>
+      <c r="BH73" s="186"/>
+      <c r="BI73" s="186"/>
+      <c r="BJ73" s="186"/>
+      <c r="BK73" s="186"/>
+      <c r="BL73" s="186"/>
+      <c r="BM73" s="186"/>
+      <c r="BN73" s="186"/>
+      <c r="BO73" s="186"/>
+      <c r="BP73" s="186"/>
+      <c r="BQ73" s="186"/>
+      <c r="BR73" s="187"/>
     </row>
     <row r="74" spans="1:70" ht="17.25" thickBot="1">
       <c r="A74" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B74" s="169" t="s">
+      <c r="B74" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="169"/>
-      <c r="D74" s="169"/>
-      <c r="E74" s="169"/>
-      <c r="F74" s="169"/>
-      <c r="G74" s="169"/>
-      <c r="H74" s="169"/>
-      <c r="I74" s="169"/>
-      <c r="J74" s="169"/>
-      <c r="K74" s="169"/>
-      <c r="L74" s="169"/>
-      <c r="M74" s="169"/>
-      <c r="N74" s="169"/>
-      <c r="O74" s="169"/>
-      <c r="P74" s="169"/>
-      <c r="Q74" s="169"/>
-      <c r="R74" s="169"/>
-      <c r="S74" s="169"/>
-      <c r="T74" s="169"/>
-      <c r="U74" s="169"/>
-      <c r="V74" s="169"/>
-      <c r="W74" s="169"/>
-      <c r="X74" s="169"/>
-      <c r="Y74" s="169"/>
-      <c r="Z74" s="169"/>
-      <c r="AA74" s="169"/>
-      <c r="AB74" s="169"/>
-      <c r="AC74" s="169"/>
-      <c r="AD74" s="169"/>
-      <c r="AE74" s="169"/>
-      <c r="AF74" s="169"/>
-      <c r="AG74" s="169"/>
-      <c r="AH74" s="169"/>
-      <c r="AI74" s="169"/>
-      <c r="AJ74" s="169"/>
-      <c r="AK74" s="169"/>
-      <c r="AL74" s="169"/>
-      <c r="AM74" s="169"/>
-      <c r="AN74" s="169"/>
-      <c r="AO74" s="169"/>
-      <c r="AP74" s="169"/>
-      <c r="AQ74" s="169"/>
-      <c r="AR74" s="169"/>
-      <c r="AS74" s="169"/>
-      <c r="AT74" s="169"/>
-      <c r="AU74" s="169"/>
-      <c r="AV74" s="169"/>
-      <c r="AW74" s="169"/>
-      <c r="AX74" s="169"/>
-      <c r="AY74" s="169"/>
-      <c r="AZ74" s="169"/>
-      <c r="BA74" s="169"/>
-      <c r="BB74" s="169"/>
-      <c r="BC74" s="169"/>
-      <c r="BD74" s="169"/>
-      <c r="BE74" s="169"/>
-      <c r="BF74" s="169"/>
-      <c r="BG74" s="169"/>
-      <c r="BH74" s="169"/>
-      <c r="BI74" s="169"/>
-      <c r="BJ74" s="169"/>
-      <c r="BK74" s="169"/>
-      <c r="BL74" s="169"/>
-      <c r="BM74" s="169"/>
-      <c r="BN74" s="169"/>
-      <c r="BO74" s="169"/>
-      <c r="BP74" s="169"/>
-      <c r="BQ74" s="169"/>
-      <c r="BR74" s="170"/>
+      <c r="C74" s="184"/>
+      <c r="D74" s="184"/>
+      <c r="E74" s="184"/>
+      <c r="F74" s="184"/>
+      <c r="G74" s="184"/>
+      <c r="H74" s="184"/>
+      <c r="I74" s="184"/>
+      <c r="J74" s="184"/>
+      <c r="K74" s="184"/>
+      <c r="L74" s="184"/>
+      <c r="M74" s="184"/>
+      <c r="N74" s="184"/>
+      <c r="O74" s="184"/>
+      <c r="P74" s="184"/>
+      <c r="Q74" s="184"/>
+      <c r="R74" s="184"/>
+      <c r="S74" s="184"/>
+      <c r="T74" s="184"/>
+      <c r="U74" s="184"/>
+      <c r="V74" s="184"/>
+      <c r="W74" s="184"/>
+      <c r="X74" s="184"/>
+      <c r="Y74" s="184"/>
+      <c r="Z74" s="184"/>
+      <c r="AA74" s="184"/>
+      <c r="AB74" s="184"/>
+      <c r="AC74" s="184"/>
+      <c r="AD74" s="184"/>
+      <c r="AE74" s="184"/>
+      <c r="AF74" s="184"/>
+      <c r="AG74" s="184"/>
+      <c r="AH74" s="184"/>
+      <c r="AI74" s="184"/>
+      <c r="AJ74" s="184"/>
+      <c r="AK74" s="184"/>
+      <c r="AL74" s="184"/>
+      <c r="AM74" s="184"/>
+      <c r="AN74" s="184"/>
+      <c r="AO74" s="184"/>
+      <c r="AP74" s="184"/>
+      <c r="AQ74" s="184"/>
+      <c r="AR74" s="184"/>
+      <c r="AS74" s="184"/>
+      <c r="AT74" s="184"/>
+      <c r="AU74" s="184"/>
+      <c r="AV74" s="184"/>
+      <c r="AW74" s="184"/>
+      <c r="AX74" s="184"/>
+      <c r="AY74" s="184"/>
+      <c r="AZ74" s="184"/>
+      <c r="BA74" s="184"/>
+      <c r="BB74" s="184"/>
+      <c r="BC74" s="184"/>
+      <c r="BD74" s="184"/>
+      <c r="BE74" s="184"/>
+      <c r="BF74" s="184"/>
+      <c r="BG74" s="184"/>
+      <c r="BH74" s="184"/>
+      <c r="BI74" s="184"/>
+      <c r="BJ74" s="184"/>
+      <c r="BK74" s="184"/>
+      <c r="BL74" s="184"/>
+      <c r="BM74" s="184"/>
+      <c r="BN74" s="184"/>
+      <c r="BO74" s="184"/>
+      <c r="BP74" s="184"/>
+      <c r="BQ74" s="184"/>
+      <c r="BR74" s="185"/>
     </row>
     <row r="75" spans="1:70" s="55" customFormat="1">
       <c r="A75" s="57" t="str">
         <f t="shared" ref="A75:A80" si="64">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B75" s="171" t="s">
+      <c r="B75" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="C75" s="171"/>
-      <c r="D75" s="171"/>
-      <c r="E75" s="171"/>
-      <c r="F75" s="171"/>
-      <c r="G75" s="171"/>
-      <c r="H75" s="171"/>
-      <c r="I75" s="171"/>
-      <c r="J75" s="171"/>
-      <c r="K75" s="171"/>
-      <c r="L75" s="171"/>
-      <c r="M75" s="171"/>
-      <c r="N75" s="171"/>
-      <c r="O75" s="171"/>
-      <c r="P75" s="171"/>
-      <c r="Q75" s="171"/>
-      <c r="R75" s="171"/>
-      <c r="S75" s="171"/>
-      <c r="T75" s="171"/>
-      <c r="U75" s="171"/>
-      <c r="V75" s="171"/>
-      <c r="W75" s="171"/>
-      <c r="X75" s="171"/>
-      <c r="Y75" s="171"/>
-      <c r="Z75" s="171"/>
-      <c r="AA75" s="171"/>
-      <c r="AB75" s="171"/>
-      <c r="AC75" s="171"/>
-      <c r="AD75" s="171"/>
-      <c r="AE75" s="171"/>
-      <c r="AF75" s="171"/>
-      <c r="AG75" s="171"/>
-      <c r="AH75" s="171"/>
-      <c r="AI75" s="171"/>
-      <c r="AJ75" s="171"/>
-      <c r="AK75" s="171"/>
-      <c r="AL75" s="171"/>
-      <c r="AM75" s="171"/>
-      <c r="AN75" s="171"/>
-      <c r="AO75" s="171"/>
-      <c r="AP75" s="171"/>
-      <c r="AQ75" s="171"/>
-      <c r="AR75" s="171"/>
-      <c r="AS75" s="171"/>
-      <c r="AT75" s="171"/>
-      <c r="AU75" s="171"/>
-      <c r="AV75" s="171"/>
-      <c r="AW75" s="171"/>
-      <c r="AX75" s="171"/>
-      <c r="AY75" s="171"/>
-      <c r="AZ75" s="171"/>
-      <c r="BA75" s="171"/>
-      <c r="BB75" s="171"/>
-      <c r="BC75" s="171"/>
-      <c r="BD75" s="171"/>
-      <c r="BE75" s="171"/>
-      <c r="BF75" s="171"/>
-      <c r="BG75" s="171"/>
-      <c r="BH75" s="171"/>
-      <c r="BI75" s="171"/>
-      <c r="BJ75" s="171"/>
-      <c r="BK75" s="171"/>
-      <c r="BL75" s="171"/>
-      <c r="BM75" s="171"/>
-      <c r="BN75" s="171"/>
-      <c r="BO75" s="171"/>
-      <c r="BP75" s="171"/>
-      <c r="BQ75" s="171"/>
-      <c r="BR75" s="172"/>
+      <c r="C75" s="180"/>
+      <c r="D75" s="180"/>
+      <c r="E75" s="180"/>
+      <c r="F75" s="180"/>
+      <c r="G75" s="180"/>
+      <c r="H75" s="180"/>
+      <c r="I75" s="180"/>
+      <c r="J75" s="180"/>
+      <c r="K75" s="180"/>
+      <c r="L75" s="180"/>
+      <c r="M75" s="180"/>
+      <c r="N75" s="180"/>
+      <c r="O75" s="180"/>
+      <c r="P75" s="180"/>
+      <c r="Q75" s="180"/>
+      <c r="R75" s="180"/>
+      <c r="S75" s="180"/>
+      <c r="T75" s="180"/>
+      <c r="U75" s="180"/>
+      <c r="V75" s="180"/>
+      <c r="W75" s="180"/>
+      <c r="X75" s="180"/>
+      <c r="Y75" s="180"/>
+      <c r="Z75" s="180"/>
+      <c r="AA75" s="180"/>
+      <c r="AB75" s="180"/>
+      <c r="AC75" s="180"/>
+      <c r="AD75" s="180"/>
+      <c r="AE75" s="180"/>
+      <c r="AF75" s="180"/>
+      <c r="AG75" s="180"/>
+      <c r="AH75" s="180"/>
+      <c r="AI75" s="180"/>
+      <c r="AJ75" s="180"/>
+      <c r="AK75" s="180"/>
+      <c r="AL75" s="180"/>
+      <c r="AM75" s="180"/>
+      <c r="AN75" s="180"/>
+      <c r="AO75" s="180"/>
+      <c r="AP75" s="180"/>
+      <c r="AQ75" s="180"/>
+      <c r="AR75" s="180"/>
+      <c r="AS75" s="180"/>
+      <c r="AT75" s="180"/>
+      <c r="AU75" s="180"/>
+      <c r="AV75" s="180"/>
+      <c r="AW75" s="180"/>
+      <c r="AX75" s="180"/>
+      <c r="AY75" s="180"/>
+      <c r="AZ75" s="180"/>
+      <c r="BA75" s="180"/>
+      <c r="BB75" s="180"/>
+      <c r="BC75" s="180"/>
+      <c r="BD75" s="180"/>
+      <c r="BE75" s="180"/>
+      <c r="BF75" s="180"/>
+      <c r="BG75" s="180"/>
+      <c r="BH75" s="180"/>
+      <c r="BI75" s="180"/>
+      <c r="BJ75" s="180"/>
+      <c r="BK75" s="180"/>
+      <c r="BL75" s="180"/>
+      <c r="BM75" s="180"/>
+      <c r="BN75" s="180"/>
+      <c r="BO75" s="180"/>
+      <c r="BP75" s="180"/>
+      <c r="BQ75" s="180"/>
+      <c r="BR75" s="181"/>
     </row>
     <row r="76" spans="1:70" s="55" customFormat="1">
       <c r="A76" s="58" t="str">
         <f t="shared" si="64"/>
         <v>3.2</v>
       </c>
-      <c r="B76" s="173" t="s">
+      <c r="B76" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="173"/>
-      <c r="D76" s="173"/>
-      <c r="E76" s="173"/>
-      <c r="F76" s="173"/>
-      <c r="G76" s="173"/>
-      <c r="H76" s="173"/>
-      <c r="I76" s="173"/>
-      <c r="J76" s="173"/>
-      <c r="K76" s="173"/>
-      <c r="L76" s="173"/>
-      <c r="M76" s="173"/>
-      <c r="N76" s="173"/>
-      <c r="O76" s="173"/>
-      <c r="P76" s="173"/>
-      <c r="Q76" s="173"/>
-      <c r="R76" s="173"/>
-      <c r="S76" s="173"/>
-      <c r="T76" s="173"/>
-      <c r="U76" s="173"/>
-      <c r="V76" s="173"/>
-      <c r="W76" s="173"/>
-      <c r="X76" s="173"/>
-      <c r="Y76" s="173"/>
-      <c r="Z76" s="173"/>
-      <c r="AA76" s="173"/>
-      <c r="AB76" s="173"/>
-      <c r="AC76" s="173"/>
-      <c r="AD76" s="173"/>
-      <c r="AE76" s="173"/>
-      <c r="AF76" s="173"/>
-      <c r="AG76" s="173"/>
-      <c r="AH76" s="173"/>
-      <c r="AI76" s="173"/>
-      <c r="AJ76" s="173"/>
-      <c r="AK76" s="173"/>
-      <c r="AL76" s="173"/>
-      <c r="AM76" s="173"/>
-      <c r="AN76" s="173"/>
-      <c r="AO76" s="173"/>
-      <c r="AP76" s="173"/>
-      <c r="AQ76" s="173"/>
-      <c r="AR76" s="173"/>
-      <c r="AS76" s="173"/>
-      <c r="AT76" s="173"/>
-      <c r="AU76" s="173"/>
-      <c r="AV76" s="173"/>
-      <c r="AW76" s="173"/>
-      <c r="AX76" s="173"/>
-      <c r="AY76" s="173"/>
-      <c r="AZ76" s="173"/>
-      <c r="BA76" s="173"/>
-      <c r="BB76" s="173"/>
-      <c r="BC76" s="173"/>
-      <c r="BD76" s="173"/>
-      <c r="BE76" s="173"/>
-      <c r="BF76" s="173"/>
-      <c r="BG76" s="173"/>
-      <c r="BH76" s="173"/>
-      <c r="BI76" s="173"/>
-      <c r="BJ76" s="173"/>
-      <c r="BK76" s="173"/>
-      <c r="BL76" s="173"/>
-      <c r="BM76" s="173"/>
-      <c r="BN76" s="173"/>
-      <c r="BO76" s="173"/>
-      <c r="BP76" s="173"/>
-      <c r="BQ76" s="173"/>
-      <c r="BR76" s="174"/>
+      <c r="C76" s="182"/>
+      <c r="D76" s="182"/>
+      <c r="E76" s="182"/>
+      <c r="F76" s="182"/>
+      <c r="G76" s="182"/>
+      <c r="H76" s="182"/>
+      <c r="I76" s="182"/>
+      <c r="J76" s="182"/>
+      <c r="K76" s="182"/>
+      <c r="L76" s="182"/>
+      <c r="M76" s="182"/>
+      <c r="N76" s="182"/>
+      <c r="O76" s="182"/>
+      <c r="P76" s="182"/>
+      <c r="Q76" s="182"/>
+      <c r="R76" s="182"/>
+      <c r="S76" s="182"/>
+      <c r="T76" s="182"/>
+      <c r="U76" s="182"/>
+      <c r="V76" s="182"/>
+      <c r="W76" s="182"/>
+      <c r="X76" s="182"/>
+      <c r="Y76" s="182"/>
+      <c r="Z76" s="182"/>
+      <c r="AA76" s="182"/>
+      <c r="AB76" s="182"/>
+      <c r="AC76" s="182"/>
+      <c r="AD76" s="182"/>
+      <c r="AE76" s="182"/>
+      <c r="AF76" s="182"/>
+      <c r="AG76" s="182"/>
+      <c r="AH76" s="182"/>
+      <c r="AI76" s="182"/>
+      <c r="AJ76" s="182"/>
+      <c r="AK76" s="182"/>
+      <c r="AL76" s="182"/>
+      <c r="AM76" s="182"/>
+      <c r="AN76" s="182"/>
+      <c r="AO76" s="182"/>
+      <c r="AP76" s="182"/>
+      <c r="AQ76" s="182"/>
+      <c r="AR76" s="182"/>
+      <c r="AS76" s="182"/>
+      <c r="AT76" s="182"/>
+      <c r="AU76" s="182"/>
+      <c r="AV76" s="182"/>
+      <c r="AW76" s="182"/>
+      <c r="AX76" s="182"/>
+      <c r="AY76" s="182"/>
+      <c r="AZ76" s="182"/>
+      <c r="BA76" s="182"/>
+      <c r="BB76" s="182"/>
+      <c r="BC76" s="182"/>
+      <c r="BD76" s="182"/>
+      <c r="BE76" s="182"/>
+      <c r="BF76" s="182"/>
+      <c r="BG76" s="182"/>
+      <c r="BH76" s="182"/>
+      <c r="BI76" s="182"/>
+      <c r="BJ76" s="182"/>
+      <c r="BK76" s="182"/>
+      <c r="BL76" s="182"/>
+      <c r="BM76" s="182"/>
+      <c r="BN76" s="182"/>
+      <c r="BO76" s="182"/>
+      <c r="BP76" s="182"/>
+      <c r="BQ76" s="182"/>
+      <c r="BR76" s="183"/>
     </row>
     <row r="77" spans="1:70" s="55" customFormat="1">
       <c r="A77" s="58" t="str">
         <f t="shared" si="64"/>
         <v>3.3</v>
       </c>
-      <c r="B77" s="173" t="s">
+      <c r="B77" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="173"/>
-      <c r="D77" s="173"/>
-      <c r="E77" s="173"/>
-      <c r="F77" s="173"/>
-      <c r="G77" s="173"/>
-      <c r="H77" s="173"/>
-      <c r="I77" s="173"/>
-      <c r="J77" s="173"/>
-      <c r="K77" s="173"/>
-      <c r="L77" s="173"/>
-      <c r="M77" s="173"/>
-      <c r="N77" s="173"/>
-      <c r="O77" s="173"/>
-      <c r="P77" s="173"/>
-      <c r="Q77" s="173"/>
-      <c r="R77" s="173"/>
-      <c r="S77" s="173"/>
-      <c r="T77" s="173"/>
-      <c r="U77" s="173"/>
-      <c r="V77" s="173"/>
-      <c r="W77" s="173"/>
-      <c r="X77" s="173"/>
-      <c r="Y77" s="173"/>
-      <c r="Z77" s="173"/>
-      <c r="AA77" s="173"/>
-      <c r="AB77" s="173"/>
-      <c r="AC77" s="173"/>
-      <c r="AD77" s="173"/>
-      <c r="AE77" s="173"/>
-      <c r="AF77" s="173"/>
-      <c r="AG77" s="173"/>
-      <c r="AH77" s="173"/>
-      <c r="AI77" s="173"/>
-      <c r="AJ77" s="173"/>
-      <c r="AK77" s="173"/>
-      <c r="AL77" s="173"/>
-      <c r="AM77" s="173"/>
-      <c r="AN77" s="173"/>
-      <c r="AO77" s="173"/>
-      <c r="AP77" s="173"/>
-      <c r="AQ77" s="173"/>
-      <c r="AR77" s="173"/>
-      <c r="AS77" s="173"/>
-      <c r="AT77" s="173"/>
-      <c r="AU77" s="173"/>
-      <c r="AV77" s="173"/>
-      <c r="AW77" s="173"/>
-      <c r="AX77" s="173"/>
-      <c r="AY77" s="173"/>
-      <c r="AZ77" s="173"/>
-      <c r="BA77" s="173"/>
-      <c r="BB77" s="173"/>
-      <c r="BC77" s="173"/>
-      <c r="BD77" s="173"/>
-      <c r="BE77" s="173"/>
-      <c r="BF77" s="173"/>
-      <c r="BG77" s="173"/>
-      <c r="BH77" s="173"/>
-      <c r="BI77" s="173"/>
-      <c r="BJ77" s="173"/>
-      <c r="BK77" s="173"/>
-      <c r="BL77" s="173"/>
-      <c r="BM77" s="173"/>
-      <c r="BN77" s="173"/>
-      <c r="BO77" s="173"/>
-      <c r="BP77" s="173"/>
-      <c r="BQ77" s="173"/>
-      <c r="BR77" s="174"/>
+      <c r="C77" s="182"/>
+      <c r="D77" s="182"/>
+      <c r="E77" s="182"/>
+      <c r="F77" s="182"/>
+      <c r="G77" s="182"/>
+      <c r="H77" s="182"/>
+      <c r="I77" s="182"/>
+      <c r="J77" s="182"/>
+      <c r="K77" s="182"/>
+      <c r="L77" s="182"/>
+      <c r="M77" s="182"/>
+      <c r="N77" s="182"/>
+      <c r="O77" s="182"/>
+      <c r="P77" s="182"/>
+      <c r="Q77" s="182"/>
+      <c r="R77" s="182"/>
+      <c r="S77" s="182"/>
+      <c r="T77" s="182"/>
+      <c r="U77" s="182"/>
+      <c r="V77" s="182"/>
+      <c r="W77" s="182"/>
+      <c r="X77" s="182"/>
+      <c r="Y77" s="182"/>
+      <c r="Z77" s="182"/>
+      <c r="AA77" s="182"/>
+      <c r="AB77" s="182"/>
+      <c r="AC77" s="182"/>
+      <c r="AD77" s="182"/>
+      <c r="AE77" s="182"/>
+      <c r="AF77" s="182"/>
+      <c r="AG77" s="182"/>
+      <c r="AH77" s="182"/>
+      <c r="AI77" s="182"/>
+      <c r="AJ77" s="182"/>
+      <c r="AK77" s="182"/>
+      <c r="AL77" s="182"/>
+      <c r="AM77" s="182"/>
+      <c r="AN77" s="182"/>
+      <c r="AO77" s="182"/>
+      <c r="AP77" s="182"/>
+      <c r="AQ77" s="182"/>
+      <c r="AR77" s="182"/>
+      <c r="AS77" s="182"/>
+      <c r="AT77" s="182"/>
+      <c r="AU77" s="182"/>
+      <c r="AV77" s="182"/>
+      <c r="AW77" s="182"/>
+      <c r="AX77" s="182"/>
+      <c r="AY77" s="182"/>
+      <c r="AZ77" s="182"/>
+      <c r="BA77" s="182"/>
+      <c r="BB77" s="182"/>
+      <c r="BC77" s="182"/>
+      <c r="BD77" s="182"/>
+      <c r="BE77" s="182"/>
+      <c r="BF77" s="182"/>
+      <c r="BG77" s="182"/>
+      <c r="BH77" s="182"/>
+      <c r="BI77" s="182"/>
+      <c r="BJ77" s="182"/>
+      <c r="BK77" s="182"/>
+      <c r="BL77" s="182"/>
+      <c r="BM77" s="182"/>
+      <c r="BN77" s="182"/>
+      <c r="BO77" s="182"/>
+      <c r="BP77" s="182"/>
+      <c r="BQ77" s="182"/>
+      <c r="BR77" s="183"/>
     </row>
     <row r="78" spans="1:70" s="55" customFormat="1">
       <c r="A78" s="58" t="str">
         <f t="shared" si="64"/>
         <v>3.4</v>
       </c>
-      <c r="B78" s="173" t="s">
+      <c r="B78" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="173"/>
-      <c r="D78" s="173"/>
-      <c r="E78" s="173"/>
-      <c r="F78" s="173"/>
-      <c r="G78" s="173"/>
-      <c r="H78" s="173"/>
-      <c r="I78" s="173"/>
-      <c r="J78" s="173"/>
-      <c r="K78" s="173"/>
-      <c r="L78" s="173"/>
-      <c r="M78" s="173"/>
-      <c r="N78" s="173"/>
-      <c r="O78" s="173"/>
-      <c r="P78" s="173"/>
-      <c r="Q78" s="173"/>
-      <c r="R78" s="173"/>
-      <c r="S78" s="173"/>
-      <c r="T78" s="173"/>
-      <c r="U78" s="173"/>
-      <c r="V78" s="173"/>
-      <c r="W78" s="173"/>
-      <c r="X78" s="173"/>
-      <c r="Y78" s="173"/>
-      <c r="Z78" s="173"/>
-      <c r="AA78" s="173"/>
-      <c r="AB78" s="173"/>
-      <c r="AC78" s="173"/>
-      <c r="AD78" s="173"/>
-      <c r="AE78" s="173"/>
-      <c r="AF78" s="173"/>
-      <c r="AG78" s="173"/>
-      <c r="AH78" s="173"/>
-      <c r="AI78" s="173"/>
-      <c r="AJ78" s="173"/>
-      <c r="AK78" s="173"/>
-      <c r="AL78" s="173"/>
-      <c r="AM78" s="173"/>
-      <c r="AN78" s="173"/>
-      <c r="AO78" s="173"/>
-      <c r="AP78" s="173"/>
-      <c r="AQ78" s="173"/>
-      <c r="AR78" s="173"/>
-      <c r="AS78" s="173"/>
-      <c r="AT78" s="173"/>
-      <c r="AU78" s="173"/>
-      <c r="AV78" s="173"/>
-      <c r="AW78" s="173"/>
-      <c r="AX78" s="173"/>
-      <c r="AY78" s="173"/>
-      <c r="AZ78" s="173"/>
-      <c r="BA78" s="173"/>
-      <c r="BB78" s="173"/>
-      <c r="BC78" s="173"/>
-      <c r="BD78" s="173"/>
-      <c r="BE78" s="173"/>
-      <c r="BF78" s="173"/>
-      <c r="BG78" s="173"/>
-      <c r="BH78" s="173"/>
-      <c r="BI78" s="173"/>
-      <c r="BJ78" s="173"/>
-      <c r="BK78" s="173"/>
-      <c r="BL78" s="173"/>
-      <c r="BM78" s="173"/>
-      <c r="BN78" s="173"/>
-      <c r="BO78" s="173"/>
-      <c r="BP78" s="173"/>
-      <c r="BQ78" s="173"/>
-      <c r="BR78" s="174"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="182"/>
+      <c r="E78" s="182"/>
+      <c r="F78" s="182"/>
+      <c r="G78" s="182"/>
+      <c r="H78" s="182"/>
+      <c r="I78" s="182"/>
+      <c r="J78" s="182"/>
+      <c r="K78" s="182"/>
+      <c r="L78" s="182"/>
+      <c r="M78" s="182"/>
+      <c r="N78" s="182"/>
+      <c r="O78" s="182"/>
+      <c r="P78" s="182"/>
+      <c r="Q78" s="182"/>
+      <c r="R78" s="182"/>
+      <c r="S78" s="182"/>
+      <c r="T78" s="182"/>
+      <c r="U78" s="182"/>
+      <c r="V78" s="182"/>
+      <c r="W78" s="182"/>
+      <c r="X78" s="182"/>
+      <c r="Y78" s="182"/>
+      <c r="Z78" s="182"/>
+      <c r="AA78" s="182"/>
+      <c r="AB78" s="182"/>
+      <c r="AC78" s="182"/>
+      <c r="AD78" s="182"/>
+      <c r="AE78" s="182"/>
+      <c r="AF78" s="182"/>
+      <c r="AG78" s="182"/>
+      <c r="AH78" s="182"/>
+      <c r="AI78" s="182"/>
+      <c r="AJ78" s="182"/>
+      <c r="AK78" s="182"/>
+      <c r="AL78" s="182"/>
+      <c r="AM78" s="182"/>
+      <c r="AN78" s="182"/>
+      <c r="AO78" s="182"/>
+      <c r="AP78" s="182"/>
+      <c r="AQ78" s="182"/>
+      <c r="AR78" s="182"/>
+      <c r="AS78" s="182"/>
+      <c r="AT78" s="182"/>
+      <c r="AU78" s="182"/>
+      <c r="AV78" s="182"/>
+      <c r="AW78" s="182"/>
+      <c r="AX78" s="182"/>
+      <c r="AY78" s="182"/>
+      <c r="AZ78" s="182"/>
+      <c r="BA78" s="182"/>
+      <c r="BB78" s="182"/>
+      <c r="BC78" s="182"/>
+      <c r="BD78" s="182"/>
+      <c r="BE78" s="182"/>
+      <c r="BF78" s="182"/>
+      <c r="BG78" s="182"/>
+      <c r="BH78" s="182"/>
+      <c r="BI78" s="182"/>
+      <c r="BJ78" s="182"/>
+      <c r="BK78" s="182"/>
+      <c r="BL78" s="182"/>
+      <c r="BM78" s="182"/>
+      <c r="BN78" s="182"/>
+      <c r="BO78" s="182"/>
+      <c r="BP78" s="182"/>
+      <c r="BQ78" s="182"/>
+      <c r="BR78" s="183"/>
     </row>
     <row r="79" spans="1:70" s="55" customFormat="1">
       <c r="A79" s="58" t="str">
         <f t="shared" si="64"/>
         <v>3.5</v>
       </c>
-      <c r="B79" s="173" t="s">
+      <c r="B79" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="173"/>
-      <c r="D79" s="173"/>
-      <c r="E79" s="173"/>
-      <c r="F79" s="173"/>
-      <c r="G79" s="173"/>
-      <c r="H79" s="173"/>
-      <c r="I79" s="173"/>
-      <c r="J79" s="173"/>
-      <c r="K79" s="173"/>
-      <c r="L79" s="173"/>
-      <c r="M79" s="173"/>
-      <c r="N79" s="173"/>
-      <c r="O79" s="173"/>
-      <c r="P79" s="173"/>
-      <c r="Q79" s="173"/>
-      <c r="R79" s="173"/>
-      <c r="S79" s="173"/>
-      <c r="T79" s="173"/>
-      <c r="U79" s="173"/>
-      <c r="V79" s="173"/>
-      <c r="W79" s="173"/>
-      <c r="X79" s="173"/>
-      <c r="Y79" s="173"/>
-      <c r="Z79" s="173"/>
-      <c r="AA79" s="173"/>
-      <c r="AB79" s="173"/>
-      <c r="AC79" s="173"/>
-      <c r="AD79" s="173"/>
-      <c r="AE79" s="173"/>
-      <c r="AF79" s="173"/>
-      <c r="AG79" s="173"/>
-      <c r="AH79" s="173"/>
-      <c r="AI79" s="173"/>
-      <c r="AJ79" s="173"/>
-      <c r="AK79" s="173"/>
-      <c r="AL79" s="173"/>
-      <c r="AM79" s="173"/>
-      <c r="AN79" s="173"/>
-      <c r="AO79" s="173"/>
-      <c r="AP79" s="173"/>
-      <c r="AQ79" s="173"/>
-      <c r="AR79" s="173"/>
-      <c r="AS79" s="173"/>
-      <c r="AT79" s="173"/>
-      <c r="AU79" s="173"/>
-      <c r="AV79" s="173"/>
-      <c r="AW79" s="173"/>
-      <c r="AX79" s="173"/>
-      <c r="AY79" s="173"/>
-      <c r="AZ79" s="173"/>
-      <c r="BA79" s="173"/>
-      <c r="BB79" s="173"/>
-      <c r="BC79" s="173"/>
-      <c r="BD79" s="173"/>
-      <c r="BE79" s="173"/>
-      <c r="BF79" s="173"/>
-      <c r="BG79" s="173"/>
-      <c r="BH79" s="173"/>
-      <c r="BI79" s="173"/>
-      <c r="BJ79" s="173"/>
-      <c r="BK79" s="173"/>
-      <c r="BL79" s="173"/>
-      <c r="BM79" s="173"/>
-      <c r="BN79" s="173"/>
-      <c r="BO79" s="173"/>
-      <c r="BP79" s="173"/>
-      <c r="BQ79" s="173"/>
-      <c r="BR79" s="174"/>
+      <c r="C79" s="182"/>
+      <c r="D79" s="182"/>
+      <c r="E79" s="182"/>
+      <c r="F79" s="182"/>
+      <c r="G79" s="182"/>
+      <c r="H79" s="182"/>
+      <c r="I79" s="182"/>
+      <c r="J79" s="182"/>
+      <c r="K79" s="182"/>
+      <c r="L79" s="182"/>
+      <c r="M79" s="182"/>
+      <c r="N79" s="182"/>
+      <c r="O79" s="182"/>
+      <c r="P79" s="182"/>
+      <c r="Q79" s="182"/>
+      <c r="R79" s="182"/>
+      <c r="S79" s="182"/>
+      <c r="T79" s="182"/>
+      <c r="U79" s="182"/>
+      <c r="V79" s="182"/>
+      <c r="W79" s="182"/>
+      <c r="X79" s="182"/>
+      <c r="Y79" s="182"/>
+      <c r="Z79" s="182"/>
+      <c r="AA79" s="182"/>
+      <c r="AB79" s="182"/>
+      <c r="AC79" s="182"/>
+      <c r="AD79" s="182"/>
+      <c r="AE79" s="182"/>
+      <c r="AF79" s="182"/>
+      <c r="AG79" s="182"/>
+      <c r="AH79" s="182"/>
+      <c r="AI79" s="182"/>
+      <c r="AJ79" s="182"/>
+      <c r="AK79" s="182"/>
+      <c r="AL79" s="182"/>
+      <c r="AM79" s="182"/>
+      <c r="AN79" s="182"/>
+      <c r="AO79" s="182"/>
+      <c r="AP79" s="182"/>
+      <c r="AQ79" s="182"/>
+      <c r="AR79" s="182"/>
+      <c r="AS79" s="182"/>
+      <c r="AT79" s="182"/>
+      <c r="AU79" s="182"/>
+      <c r="AV79" s="182"/>
+      <c r="AW79" s="182"/>
+      <c r="AX79" s="182"/>
+      <c r="AY79" s="182"/>
+      <c r="AZ79" s="182"/>
+      <c r="BA79" s="182"/>
+      <c r="BB79" s="182"/>
+      <c r="BC79" s="182"/>
+      <c r="BD79" s="182"/>
+      <c r="BE79" s="182"/>
+      <c r="BF79" s="182"/>
+      <c r="BG79" s="182"/>
+      <c r="BH79" s="182"/>
+      <c r="BI79" s="182"/>
+      <c r="BJ79" s="182"/>
+      <c r="BK79" s="182"/>
+      <c r="BL79" s="182"/>
+      <c r="BM79" s="182"/>
+      <c r="BN79" s="182"/>
+      <c r="BO79" s="182"/>
+      <c r="BP79" s="182"/>
+      <c r="BQ79" s="182"/>
+      <c r="BR79" s="183"/>
     </row>
     <row r="80" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A80" s="59" t="str">
         <f t="shared" si="64"/>
         <v>3.6</v>
       </c>
-      <c r="B80" s="175" t="s">
+      <c r="B80" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="175"/>
-      <c r="D80" s="175"/>
-      <c r="E80" s="175"/>
-      <c r="F80" s="175"/>
-      <c r="G80" s="175"/>
-      <c r="H80" s="175"/>
-      <c r="I80" s="175"/>
-      <c r="J80" s="175"/>
-      <c r="K80" s="175"/>
-      <c r="L80" s="175"/>
-      <c r="M80" s="175"/>
-      <c r="N80" s="175"/>
-      <c r="O80" s="175"/>
-      <c r="P80" s="175"/>
-      <c r="Q80" s="175"/>
-      <c r="R80" s="175"/>
-      <c r="S80" s="175"/>
-      <c r="T80" s="175"/>
-      <c r="U80" s="175"/>
-      <c r="V80" s="175"/>
-      <c r="W80" s="175"/>
-      <c r="X80" s="175"/>
-      <c r="Y80" s="175"/>
-      <c r="Z80" s="175"/>
-      <c r="AA80" s="175"/>
-      <c r="AB80" s="175"/>
-      <c r="AC80" s="175"/>
-      <c r="AD80" s="175"/>
-      <c r="AE80" s="175"/>
-      <c r="AF80" s="175"/>
-      <c r="AG80" s="175"/>
-      <c r="AH80" s="175"/>
-      <c r="AI80" s="175"/>
-      <c r="AJ80" s="175"/>
-      <c r="AK80" s="175"/>
-      <c r="AL80" s="175"/>
-      <c r="AM80" s="175"/>
-      <c r="AN80" s="175"/>
-      <c r="AO80" s="175"/>
-      <c r="AP80" s="175"/>
-      <c r="AQ80" s="175"/>
-      <c r="AR80" s="175"/>
-      <c r="AS80" s="175"/>
-      <c r="AT80" s="175"/>
-      <c r="AU80" s="175"/>
-      <c r="AV80" s="175"/>
-      <c r="AW80" s="175"/>
-      <c r="AX80" s="175"/>
-      <c r="AY80" s="175"/>
-      <c r="AZ80" s="175"/>
-      <c r="BA80" s="175"/>
-      <c r="BB80" s="175"/>
-      <c r="BC80" s="175"/>
-      <c r="BD80" s="175"/>
-      <c r="BE80" s="175"/>
-      <c r="BF80" s="175"/>
-      <c r="BG80" s="175"/>
-      <c r="BH80" s="175"/>
-      <c r="BI80" s="175"/>
-      <c r="BJ80" s="175"/>
-      <c r="BK80" s="175"/>
-      <c r="BL80" s="175"/>
-      <c r="BM80" s="175"/>
-      <c r="BN80" s="175"/>
-      <c r="BO80" s="175"/>
-      <c r="BP80" s="175"/>
-      <c r="BQ80" s="175"/>
-      <c r="BR80" s="176"/>
+      <c r="C80" s="186"/>
+      <c r="D80" s="186"/>
+      <c r="E80" s="186"/>
+      <c r="F80" s="186"/>
+      <c r="G80" s="186"/>
+      <c r="H80" s="186"/>
+      <c r="I80" s="186"/>
+      <c r="J80" s="186"/>
+      <c r="K80" s="186"/>
+      <c r="L80" s="186"/>
+      <c r="M80" s="186"/>
+      <c r="N80" s="186"/>
+      <c r="O80" s="186"/>
+      <c r="P80" s="186"/>
+      <c r="Q80" s="186"/>
+      <c r="R80" s="186"/>
+      <c r="S80" s="186"/>
+      <c r="T80" s="186"/>
+      <c r="U80" s="186"/>
+      <c r="V80" s="186"/>
+      <c r="W80" s="186"/>
+      <c r="X80" s="186"/>
+      <c r="Y80" s="186"/>
+      <c r="Z80" s="186"/>
+      <c r="AA80" s="186"/>
+      <c r="AB80" s="186"/>
+      <c r="AC80" s="186"/>
+      <c r="AD80" s="186"/>
+      <c r="AE80" s="186"/>
+      <c r="AF80" s="186"/>
+      <c r="AG80" s="186"/>
+      <c r="AH80" s="186"/>
+      <c r="AI80" s="186"/>
+      <c r="AJ80" s="186"/>
+      <c r="AK80" s="186"/>
+      <c r="AL80" s="186"/>
+      <c r="AM80" s="186"/>
+      <c r="AN80" s="186"/>
+      <c r="AO80" s="186"/>
+      <c r="AP80" s="186"/>
+      <c r="AQ80" s="186"/>
+      <c r="AR80" s="186"/>
+      <c r="AS80" s="186"/>
+      <c r="AT80" s="186"/>
+      <c r="AU80" s="186"/>
+      <c r="AV80" s="186"/>
+      <c r="AW80" s="186"/>
+      <c r="AX80" s="186"/>
+      <c r="AY80" s="186"/>
+      <c r="AZ80" s="186"/>
+      <c r="BA80" s="186"/>
+      <c r="BB80" s="186"/>
+      <c r="BC80" s="186"/>
+      <c r="BD80" s="186"/>
+      <c r="BE80" s="186"/>
+      <c r="BF80" s="186"/>
+      <c r="BG80" s="186"/>
+      <c r="BH80" s="186"/>
+      <c r="BI80" s="186"/>
+      <c r="BJ80" s="186"/>
+      <c r="BK80" s="186"/>
+      <c r="BL80" s="186"/>
+      <c r="BM80" s="186"/>
+      <c r="BN80" s="186"/>
+      <c r="BO80" s="186"/>
+      <c r="BP80" s="186"/>
+      <c r="BQ80" s="186"/>
+      <c r="BR80" s="187"/>
     </row>
     <row r="81" spans="1:70" ht="17.25" thickBot="1">
       <c r="A81" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B81" s="169" t="s">
+      <c r="B81" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="169"/>
-      <c r="D81" s="169"/>
-      <c r="E81" s="169"/>
-      <c r="F81" s="169"/>
-      <c r="G81" s="169"/>
-      <c r="H81" s="169"/>
-      <c r="I81" s="169"/>
-      <c r="J81" s="169"/>
-      <c r="K81" s="169"/>
-      <c r="L81" s="169"/>
-      <c r="M81" s="169"/>
-      <c r="N81" s="169"/>
-      <c r="O81" s="169"/>
-      <c r="P81" s="169"/>
-      <c r="Q81" s="169"/>
-      <c r="R81" s="169"/>
-      <c r="S81" s="169"/>
-      <c r="T81" s="169"/>
-      <c r="U81" s="169"/>
-      <c r="V81" s="169"/>
-      <c r="W81" s="169"/>
-      <c r="X81" s="169"/>
-      <c r="Y81" s="169"/>
-      <c r="Z81" s="169"/>
-      <c r="AA81" s="169"/>
-      <c r="AB81" s="169"/>
-      <c r="AC81" s="169"/>
-      <c r="AD81" s="169"/>
-      <c r="AE81" s="169"/>
-      <c r="AF81" s="169"/>
-      <c r="AG81" s="169"/>
-      <c r="AH81" s="169"/>
-      <c r="AI81" s="169"/>
-      <c r="AJ81" s="169"/>
-      <c r="AK81" s="169"/>
-      <c r="AL81" s="169"/>
-      <c r="AM81" s="169"/>
-      <c r="AN81" s="169"/>
-      <c r="AO81" s="169"/>
-      <c r="AP81" s="169"/>
-      <c r="AQ81" s="169"/>
-      <c r="AR81" s="169"/>
-      <c r="AS81" s="169"/>
-      <c r="AT81" s="169"/>
-      <c r="AU81" s="169"/>
-      <c r="AV81" s="169"/>
-      <c r="AW81" s="169"/>
-      <c r="AX81" s="169"/>
-      <c r="AY81" s="169"/>
-      <c r="AZ81" s="169"/>
-      <c r="BA81" s="169"/>
-      <c r="BB81" s="169"/>
-      <c r="BC81" s="169"/>
-      <c r="BD81" s="169"/>
-      <c r="BE81" s="169"/>
-      <c r="BF81" s="169"/>
-      <c r="BG81" s="169"/>
-      <c r="BH81" s="169"/>
-      <c r="BI81" s="169"/>
-      <c r="BJ81" s="169"/>
-      <c r="BK81" s="169"/>
-      <c r="BL81" s="169"/>
-      <c r="BM81" s="169"/>
-      <c r="BN81" s="169"/>
-      <c r="BO81" s="169"/>
-      <c r="BP81" s="169"/>
-      <c r="BQ81" s="169"/>
-      <c r="BR81" s="170"/>
+      <c r="C81" s="184"/>
+      <c r="D81" s="184"/>
+      <c r="E81" s="184"/>
+      <c r="F81" s="184"/>
+      <c r="G81" s="184"/>
+      <c r="H81" s="184"/>
+      <c r="I81" s="184"/>
+      <c r="J81" s="184"/>
+      <c r="K81" s="184"/>
+      <c r="L81" s="184"/>
+      <c r="M81" s="184"/>
+      <c r="N81" s="184"/>
+      <c r="O81" s="184"/>
+      <c r="P81" s="184"/>
+      <c r="Q81" s="184"/>
+      <c r="R81" s="184"/>
+      <c r="S81" s="184"/>
+      <c r="T81" s="184"/>
+      <c r="U81" s="184"/>
+      <c r="V81" s="184"/>
+      <c r="W81" s="184"/>
+      <c r="X81" s="184"/>
+      <c r="Y81" s="184"/>
+      <c r="Z81" s="184"/>
+      <c r="AA81" s="184"/>
+      <c r="AB81" s="184"/>
+      <c r="AC81" s="184"/>
+      <c r="AD81" s="184"/>
+      <c r="AE81" s="184"/>
+      <c r="AF81" s="184"/>
+      <c r="AG81" s="184"/>
+      <c r="AH81" s="184"/>
+      <c r="AI81" s="184"/>
+      <c r="AJ81" s="184"/>
+      <c r="AK81" s="184"/>
+      <c r="AL81" s="184"/>
+      <c r="AM81" s="184"/>
+      <c r="AN81" s="184"/>
+      <c r="AO81" s="184"/>
+      <c r="AP81" s="184"/>
+      <c r="AQ81" s="184"/>
+      <c r="AR81" s="184"/>
+      <c r="AS81" s="184"/>
+      <c r="AT81" s="184"/>
+      <c r="AU81" s="184"/>
+      <c r="AV81" s="184"/>
+      <c r="AW81" s="184"/>
+      <c r="AX81" s="184"/>
+      <c r="AY81" s="184"/>
+      <c r="AZ81" s="184"/>
+      <c r="BA81" s="184"/>
+      <c r="BB81" s="184"/>
+      <c r="BC81" s="184"/>
+      <c r="BD81" s="184"/>
+      <c r="BE81" s="184"/>
+      <c r="BF81" s="184"/>
+      <c r="BG81" s="184"/>
+      <c r="BH81" s="184"/>
+      <c r="BI81" s="184"/>
+      <c r="BJ81" s="184"/>
+      <c r="BK81" s="184"/>
+      <c r="BL81" s="184"/>
+      <c r="BM81" s="184"/>
+      <c r="BN81" s="184"/>
+      <c r="BO81" s="184"/>
+      <c r="BP81" s="184"/>
+      <c r="BQ81" s="184"/>
+      <c r="BR81" s="185"/>
     </row>
     <row r="82" spans="1:70" s="55" customFormat="1">
       <c r="A82" s="57" t="str">
         <f t="shared" ref="A82:A88" si="65">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
-      <c r="B82" s="171" t="s">
+      <c r="B82" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="171"/>
-      <c r="D82" s="171"/>
-      <c r="E82" s="171"/>
-      <c r="F82" s="171"/>
-      <c r="G82" s="171"/>
-      <c r="H82" s="171"/>
-      <c r="I82" s="171"/>
-      <c r="J82" s="171"/>
-      <c r="K82" s="171"/>
-      <c r="L82" s="171"/>
-      <c r="M82" s="171"/>
-      <c r="N82" s="171"/>
-      <c r="O82" s="171"/>
-      <c r="P82" s="171"/>
-      <c r="Q82" s="171"/>
-      <c r="R82" s="171"/>
-      <c r="S82" s="171"/>
-      <c r="T82" s="171"/>
-      <c r="U82" s="171"/>
-      <c r="V82" s="171"/>
-      <c r="W82" s="171"/>
-      <c r="X82" s="171"/>
-      <c r="Y82" s="171"/>
-      <c r="Z82" s="171"/>
-      <c r="AA82" s="171"/>
-      <c r="AB82" s="171"/>
-      <c r="AC82" s="171"/>
-      <c r="AD82" s="171"/>
-      <c r="AE82" s="171"/>
-      <c r="AF82" s="171"/>
-      <c r="AG82" s="171"/>
-      <c r="AH82" s="171"/>
-      <c r="AI82" s="171"/>
-      <c r="AJ82" s="171"/>
-      <c r="AK82" s="171"/>
-      <c r="AL82" s="171"/>
-      <c r="AM82" s="171"/>
-      <c r="AN82" s="171"/>
-      <c r="AO82" s="171"/>
-      <c r="AP82" s="171"/>
-      <c r="AQ82" s="171"/>
-      <c r="AR82" s="171"/>
-      <c r="AS82" s="171"/>
-      <c r="AT82" s="171"/>
-      <c r="AU82" s="171"/>
-      <c r="AV82" s="171"/>
-      <c r="AW82" s="171"/>
-      <c r="AX82" s="171"/>
-      <c r="AY82" s="171"/>
-      <c r="AZ82" s="171"/>
-      <c r="BA82" s="171"/>
-      <c r="BB82" s="171"/>
-      <c r="BC82" s="171"/>
-      <c r="BD82" s="171"/>
-      <c r="BE82" s="171"/>
-      <c r="BF82" s="171"/>
-      <c r="BG82" s="171"/>
-      <c r="BH82" s="171"/>
-      <c r="BI82" s="171"/>
-      <c r="BJ82" s="171"/>
-      <c r="BK82" s="171"/>
-      <c r="BL82" s="171"/>
-      <c r="BM82" s="171"/>
-      <c r="BN82" s="171"/>
-      <c r="BO82" s="171"/>
-      <c r="BP82" s="171"/>
-      <c r="BQ82" s="171"/>
-      <c r="BR82" s="172"/>
+      <c r="C82" s="180"/>
+      <c r="D82" s="180"/>
+      <c r="E82" s="180"/>
+      <c r="F82" s="180"/>
+      <c r="G82" s="180"/>
+      <c r="H82" s="180"/>
+      <c r="I82" s="180"/>
+      <c r="J82" s="180"/>
+      <c r="K82" s="180"/>
+      <c r="L82" s="180"/>
+      <c r="M82" s="180"/>
+      <c r="N82" s="180"/>
+      <c r="O82" s="180"/>
+      <c r="P82" s="180"/>
+      <c r="Q82" s="180"/>
+      <c r="R82" s="180"/>
+      <c r="S82" s="180"/>
+      <c r="T82" s="180"/>
+      <c r="U82" s="180"/>
+      <c r="V82" s="180"/>
+      <c r="W82" s="180"/>
+      <c r="X82" s="180"/>
+      <c r="Y82" s="180"/>
+      <c r="Z82" s="180"/>
+      <c r="AA82" s="180"/>
+      <c r="AB82" s="180"/>
+      <c r="AC82" s="180"/>
+      <c r="AD82" s="180"/>
+      <c r="AE82" s="180"/>
+      <c r="AF82" s="180"/>
+      <c r="AG82" s="180"/>
+      <c r="AH82" s="180"/>
+      <c r="AI82" s="180"/>
+      <c r="AJ82" s="180"/>
+      <c r="AK82" s="180"/>
+      <c r="AL82" s="180"/>
+      <c r="AM82" s="180"/>
+      <c r="AN82" s="180"/>
+      <c r="AO82" s="180"/>
+      <c r="AP82" s="180"/>
+      <c r="AQ82" s="180"/>
+      <c r="AR82" s="180"/>
+      <c r="AS82" s="180"/>
+      <c r="AT82" s="180"/>
+      <c r="AU82" s="180"/>
+      <c r="AV82" s="180"/>
+      <c r="AW82" s="180"/>
+      <c r="AX82" s="180"/>
+      <c r="AY82" s="180"/>
+      <c r="AZ82" s="180"/>
+      <c r="BA82" s="180"/>
+      <c r="BB82" s="180"/>
+      <c r="BC82" s="180"/>
+      <c r="BD82" s="180"/>
+      <c r="BE82" s="180"/>
+      <c r="BF82" s="180"/>
+      <c r="BG82" s="180"/>
+      <c r="BH82" s="180"/>
+      <c r="BI82" s="180"/>
+      <c r="BJ82" s="180"/>
+      <c r="BK82" s="180"/>
+      <c r="BL82" s="180"/>
+      <c r="BM82" s="180"/>
+      <c r="BN82" s="180"/>
+      <c r="BO82" s="180"/>
+      <c r="BP82" s="180"/>
+      <c r="BQ82" s="180"/>
+      <c r="BR82" s="181"/>
     </row>
     <row r="83" spans="1:70" s="55" customFormat="1">
       <c r="A83" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.2</v>
       </c>
-      <c r="B83" s="173" t="s">
+      <c r="B83" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="173"/>
-      <c r="F83" s="173"/>
-      <c r="G83" s="173"/>
-      <c r="H83" s="173"/>
-      <c r="I83" s="173"/>
-      <c r="J83" s="173"/>
-      <c r="K83" s="173"/>
-      <c r="L83" s="173"/>
-      <c r="M83" s="173"/>
-      <c r="N83" s="173"/>
-      <c r="O83" s="173"/>
-      <c r="P83" s="173"/>
-      <c r="Q83" s="173"/>
-      <c r="R83" s="173"/>
-      <c r="S83" s="173"/>
-      <c r="T83" s="173"/>
-      <c r="U83" s="173"/>
-      <c r="V83" s="173"/>
-      <c r="W83" s="173"/>
-      <c r="X83" s="173"/>
-      <c r="Y83" s="173"/>
-      <c r="Z83" s="173"/>
-      <c r="AA83" s="173"/>
-      <c r="AB83" s="173"/>
-      <c r="AC83" s="173"/>
-      <c r="AD83" s="173"/>
-      <c r="AE83" s="173"/>
-      <c r="AF83" s="173"/>
-      <c r="AG83" s="173"/>
-      <c r="AH83" s="173"/>
-      <c r="AI83" s="173"/>
-      <c r="AJ83" s="173"/>
-      <c r="AK83" s="173"/>
-      <c r="AL83" s="173"/>
-      <c r="AM83" s="173"/>
-      <c r="AN83" s="173"/>
-      <c r="AO83" s="173"/>
-      <c r="AP83" s="173"/>
-      <c r="AQ83" s="173"/>
-      <c r="AR83" s="173"/>
-      <c r="AS83" s="173"/>
-      <c r="AT83" s="173"/>
-      <c r="AU83" s="173"/>
-      <c r="AV83" s="173"/>
-      <c r="AW83" s="173"/>
-      <c r="AX83" s="173"/>
-      <c r="AY83" s="173"/>
-      <c r="AZ83" s="173"/>
-      <c r="BA83" s="173"/>
-      <c r="BB83" s="173"/>
-      <c r="BC83" s="173"/>
-      <c r="BD83" s="173"/>
-      <c r="BE83" s="173"/>
-      <c r="BF83" s="173"/>
-      <c r="BG83" s="173"/>
-      <c r="BH83" s="173"/>
-      <c r="BI83" s="173"/>
-      <c r="BJ83" s="173"/>
-      <c r="BK83" s="173"/>
-      <c r="BL83" s="173"/>
-      <c r="BM83" s="173"/>
-      <c r="BN83" s="173"/>
-      <c r="BO83" s="173"/>
-      <c r="BP83" s="173"/>
-      <c r="BQ83" s="173"/>
-      <c r="BR83" s="174"/>
+      <c r="C83" s="182"/>
+      <c r="D83" s="182"/>
+      <c r="E83" s="182"/>
+      <c r="F83" s="182"/>
+      <c r="G83" s="182"/>
+      <c r="H83" s="182"/>
+      <c r="I83" s="182"/>
+      <c r="J83" s="182"/>
+      <c r="K83" s="182"/>
+      <c r="L83" s="182"/>
+      <c r="M83" s="182"/>
+      <c r="N83" s="182"/>
+      <c r="O83" s="182"/>
+      <c r="P83" s="182"/>
+      <c r="Q83" s="182"/>
+      <c r="R83" s="182"/>
+      <c r="S83" s="182"/>
+      <c r="T83" s="182"/>
+      <c r="U83" s="182"/>
+      <c r="V83" s="182"/>
+      <c r="W83" s="182"/>
+      <c r="X83" s="182"/>
+      <c r="Y83" s="182"/>
+      <c r="Z83" s="182"/>
+      <c r="AA83" s="182"/>
+      <c r="AB83" s="182"/>
+      <c r="AC83" s="182"/>
+      <c r="AD83" s="182"/>
+      <c r="AE83" s="182"/>
+      <c r="AF83" s="182"/>
+      <c r="AG83" s="182"/>
+      <c r="AH83" s="182"/>
+      <c r="AI83" s="182"/>
+      <c r="AJ83" s="182"/>
+      <c r="AK83" s="182"/>
+      <c r="AL83" s="182"/>
+      <c r="AM83" s="182"/>
+      <c r="AN83" s="182"/>
+      <c r="AO83" s="182"/>
+      <c r="AP83" s="182"/>
+      <c r="AQ83" s="182"/>
+      <c r="AR83" s="182"/>
+      <c r="AS83" s="182"/>
+      <c r="AT83" s="182"/>
+      <c r="AU83" s="182"/>
+      <c r="AV83" s="182"/>
+      <c r="AW83" s="182"/>
+      <c r="AX83" s="182"/>
+      <c r="AY83" s="182"/>
+      <c r="AZ83" s="182"/>
+      <c r="BA83" s="182"/>
+      <c r="BB83" s="182"/>
+      <c r="BC83" s="182"/>
+      <c r="BD83" s="182"/>
+      <c r="BE83" s="182"/>
+      <c r="BF83" s="182"/>
+      <c r="BG83" s="182"/>
+      <c r="BH83" s="182"/>
+      <c r="BI83" s="182"/>
+      <c r="BJ83" s="182"/>
+      <c r="BK83" s="182"/>
+      <c r="BL83" s="182"/>
+      <c r="BM83" s="182"/>
+      <c r="BN83" s="182"/>
+      <c r="BO83" s="182"/>
+      <c r="BP83" s="182"/>
+      <c r="BQ83" s="182"/>
+      <c r="BR83" s="183"/>
     </row>
     <row r="84" spans="1:70" s="55" customFormat="1">
       <c r="A84" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.3</v>
       </c>
-      <c r="B84" s="173" t="s">
+      <c r="B84" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
-      <c r="G84" s="173"/>
-      <c r="H84" s="173"/>
-      <c r="I84" s="173"/>
-      <c r="J84" s="173"/>
-      <c r="K84" s="173"/>
-      <c r="L84" s="173"/>
-      <c r="M84" s="173"/>
-      <c r="N84" s="173"/>
-      <c r="O84" s="173"/>
-      <c r="P84" s="173"/>
-      <c r="Q84" s="173"/>
-      <c r="R84" s="173"/>
-      <c r="S84" s="173"/>
-      <c r="T84" s="173"/>
-      <c r="U84" s="173"/>
-      <c r="V84" s="173"/>
-      <c r="W84" s="173"/>
-      <c r="X84" s="173"/>
-      <c r="Y84" s="173"/>
-      <c r="Z84" s="173"/>
-      <c r="AA84" s="173"/>
-      <c r="AB84" s="173"/>
-      <c r="AC84" s="173"/>
-      <c r="AD84" s="173"/>
-      <c r="AE84" s="173"/>
-      <c r="AF84" s="173"/>
-      <c r="AG84" s="173"/>
-      <c r="AH84" s="173"/>
-      <c r="AI84" s="173"/>
-      <c r="AJ84" s="173"/>
-      <c r="AK84" s="173"/>
-      <c r="AL84" s="173"/>
-      <c r="AM84" s="173"/>
-      <c r="AN84" s="173"/>
-      <c r="AO84" s="173"/>
-      <c r="AP84" s="173"/>
-      <c r="AQ84" s="173"/>
-      <c r="AR84" s="173"/>
-      <c r="AS84" s="173"/>
-      <c r="AT84" s="173"/>
-      <c r="AU84" s="173"/>
-      <c r="AV84" s="173"/>
-      <c r="AW84" s="173"/>
-      <c r="AX84" s="173"/>
-      <c r="AY84" s="173"/>
-      <c r="AZ84" s="173"/>
-      <c r="BA84" s="173"/>
-      <c r="BB84" s="173"/>
-      <c r="BC84" s="173"/>
-      <c r="BD84" s="173"/>
-      <c r="BE84" s="173"/>
-      <c r="BF84" s="173"/>
-      <c r="BG84" s="173"/>
-      <c r="BH84" s="173"/>
-      <c r="BI84" s="173"/>
-      <c r="BJ84" s="173"/>
-      <c r="BK84" s="173"/>
-      <c r="BL84" s="173"/>
-      <c r="BM84" s="173"/>
-      <c r="BN84" s="173"/>
-      <c r="BO84" s="173"/>
-      <c r="BP84" s="173"/>
-      <c r="BQ84" s="173"/>
-      <c r="BR84" s="174"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
+      <c r="F84" s="182"/>
+      <c r="G84" s="182"/>
+      <c r="H84" s="182"/>
+      <c r="I84" s="182"/>
+      <c r="J84" s="182"/>
+      <c r="K84" s="182"/>
+      <c r="L84" s="182"/>
+      <c r="M84" s="182"/>
+      <c r="N84" s="182"/>
+      <c r="O84" s="182"/>
+      <c r="P84" s="182"/>
+      <c r="Q84" s="182"/>
+      <c r="R84" s="182"/>
+      <c r="S84" s="182"/>
+      <c r="T84" s="182"/>
+      <c r="U84" s="182"/>
+      <c r="V84" s="182"/>
+      <c r="W84" s="182"/>
+      <c r="X84" s="182"/>
+      <c r="Y84" s="182"/>
+      <c r="Z84" s="182"/>
+      <c r="AA84" s="182"/>
+      <c r="AB84" s="182"/>
+      <c r="AC84" s="182"/>
+      <c r="AD84" s="182"/>
+      <c r="AE84" s="182"/>
+      <c r="AF84" s="182"/>
+      <c r="AG84" s="182"/>
+      <c r="AH84" s="182"/>
+      <c r="AI84" s="182"/>
+      <c r="AJ84" s="182"/>
+      <c r="AK84" s="182"/>
+      <c r="AL84" s="182"/>
+      <c r="AM84" s="182"/>
+      <c r="AN84" s="182"/>
+      <c r="AO84" s="182"/>
+      <c r="AP84" s="182"/>
+      <c r="AQ84" s="182"/>
+      <c r="AR84" s="182"/>
+      <c r="AS84" s="182"/>
+      <c r="AT84" s="182"/>
+      <c r="AU84" s="182"/>
+      <c r="AV84" s="182"/>
+      <c r="AW84" s="182"/>
+      <c r="AX84" s="182"/>
+      <c r="AY84" s="182"/>
+      <c r="AZ84" s="182"/>
+      <c r="BA84" s="182"/>
+      <c r="BB84" s="182"/>
+      <c r="BC84" s="182"/>
+      <c r="BD84" s="182"/>
+      <c r="BE84" s="182"/>
+      <c r="BF84" s="182"/>
+      <c r="BG84" s="182"/>
+      <c r="BH84" s="182"/>
+      <c r="BI84" s="182"/>
+      <c r="BJ84" s="182"/>
+      <c r="BK84" s="182"/>
+      <c r="BL84" s="182"/>
+      <c r="BM84" s="182"/>
+      <c r="BN84" s="182"/>
+      <c r="BO84" s="182"/>
+      <c r="BP84" s="182"/>
+      <c r="BQ84" s="182"/>
+      <c r="BR84" s="183"/>
     </row>
     <row r="85" spans="1:70" s="55" customFormat="1">
       <c r="A85" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.4</v>
       </c>
-      <c r="B85" s="173" t="s">
+      <c r="B85" s="182" t="s">
         <v>58</v>
       </c>
-      <c r="C85" s="173"/>
-      <c r="D85" s="173"/>
-      <c r="E85" s="173"/>
-      <c r="F85" s="173"/>
-      <c r="G85" s="173"/>
-      <c r="H85" s="173"/>
-      <c r="I85" s="173"/>
-      <c r="J85" s="173"/>
-      <c r="K85" s="173"/>
-      <c r="L85" s="173"/>
-      <c r="M85" s="173"/>
-      <c r="N85" s="173"/>
-      <c r="O85" s="173"/>
-      <c r="P85" s="173"/>
-      <c r="Q85" s="173"/>
-      <c r="R85" s="173"/>
-      <c r="S85" s="173"/>
-      <c r="T85" s="173"/>
-      <c r="U85" s="173"/>
-      <c r="V85" s="173"/>
-      <c r="W85" s="173"/>
-      <c r="X85" s="173"/>
-      <c r="Y85" s="173"/>
-      <c r="Z85" s="173"/>
-      <c r="AA85" s="173"/>
-      <c r="AB85" s="173"/>
-      <c r="AC85" s="173"/>
-      <c r="AD85" s="173"/>
-      <c r="AE85" s="173"/>
-      <c r="AF85" s="173"/>
-      <c r="AG85" s="173"/>
-      <c r="AH85" s="173"/>
-      <c r="AI85" s="173"/>
-      <c r="AJ85" s="173"/>
-      <c r="AK85" s="173"/>
-      <c r="AL85" s="173"/>
-      <c r="AM85" s="173"/>
-      <c r="AN85" s="173"/>
-      <c r="AO85" s="173"/>
-      <c r="AP85" s="173"/>
-      <c r="AQ85" s="173"/>
-      <c r="AR85" s="173"/>
-      <c r="AS85" s="173"/>
-      <c r="AT85" s="173"/>
-      <c r="AU85" s="173"/>
-      <c r="AV85" s="173"/>
-      <c r="AW85" s="173"/>
-      <c r="AX85" s="173"/>
-      <c r="AY85" s="173"/>
-      <c r="AZ85" s="173"/>
-      <c r="BA85" s="173"/>
-      <c r="BB85" s="173"/>
-      <c r="BC85" s="173"/>
-      <c r="BD85" s="173"/>
-      <c r="BE85" s="173"/>
-      <c r="BF85" s="173"/>
-      <c r="BG85" s="173"/>
-      <c r="BH85" s="173"/>
-      <c r="BI85" s="173"/>
-      <c r="BJ85" s="173"/>
-      <c r="BK85" s="173"/>
-      <c r="BL85" s="173"/>
-      <c r="BM85" s="173"/>
-      <c r="BN85" s="173"/>
-      <c r="BO85" s="173"/>
-      <c r="BP85" s="173"/>
-      <c r="BQ85" s="173"/>
-      <c r="BR85" s="174"/>
+      <c r="C85" s="182"/>
+      <c r="D85" s="182"/>
+      <c r="E85" s="182"/>
+      <c r="F85" s="182"/>
+      <c r="G85" s="182"/>
+      <c r="H85" s="182"/>
+      <c r="I85" s="182"/>
+      <c r="J85" s="182"/>
+      <c r="K85" s="182"/>
+      <c r="L85" s="182"/>
+      <c r="M85" s="182"/>
+      <c r="N85" s="182"/>
+      <c r="O85" s="182"/>
+      <c r="P85" s="182"/>
+      <c r="Q85" s="182"/>
+      <c r="R85" s="182"/>
+      <c r="S85" s="182"/>
+      <c r="T85" s="182"/>
+      <c r="U85" s="182"/>
+      <c r="V85" s="182"/>
+      <c r="W85" s="182"/>
+      <c r="X85" s="182"/>
+      <c r="Y85" s="182"/>
+      <c r="Z85" s="182"/>
+      <c r="AA85" s="182"/>
+      <c r="AB85" s="182"/>
+      <c r="AC85" s="182"/>
+      <c r="AD85" s="182"/>
+      <c r="AE85" s="182"/>
+      <c r="AF85" s="182"/>
+      <c r="AG85" s="182"/>
+      <c r="AH85" s="182"/>
+      <c r="AI85" s="182"/>
+      <c r="AJ85" s="182"/>
+      <c r="AK85" s="182"/>
+      <c r="AL85" s="182"/>
+      <c r="AM85" s="182"/>
+      <c r="AN85" s="182"/>
+      <c r="AO85" s="182"/>
+      <c r="AP85" s="182"/>
+      <c r="AQ85" s="182"/>
+      <c r="AR85" s="182"/>
+      <c r="AS85" s="182"/>
+      <c r="AT85" s="182"/>
+      <c r="AU85" s="182"/>
+      <c r="AV85" s="182"/>
+      <c r="AW85" s="182"/>
+      <c r="AX85" s="182"/>
+      <c r="AY85" s="182"/>
+      <c r="AZ85" s="182"/>
+      <c r="BA85" s="182"/>
+      <c r="BB85" s="182"/>
+      <c r="BC85" s="182"/>
+      <c r="BD85" s="182"/>
+      <c r="BE85" s="182"/>
+      <c r="BF85" s="182"/>
+      <c r="BG85" s="182"/>
+      <c r="BH85" s="182"/>
+      <c r="BI85" s="182"/>
+      <c r="BJ85" s="182"/>
+      <c r="BK85" s="182"/>
+      <c r="BL85" s="182"/>
+      <c r="BM85" s="182"/>
+      <c r="BN85" s="182"/>
+      <c r="BO85" s="182"/>
+      <c r="BP85" s="182"/>
+      <c r="BQ85" s="182"/>
+      <c r="BR85" s="183"/>
     </row>
     <row r="86" spans="1:70" s="55" customFormat="1">
       <c r="A86" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.5</v>
       </c>
-      <c r="B86" s="173" t="s">
+      <c r="B86" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C86" s="173"/>
-      <c r="D86" s="173"/>
-      <c r="E86" s="173"/>
-      <c r="F86" s="173"/>
-      <c r="G86" s="173"/>
-      <c r="H86" s="173"/>
-      <c r="I86" s="173"/>
-      <c r="J86" s="173"/>
-      <c r="K86" s="173"/>
-      <c r="L86" s="173"/>
-      <c r="M86" s="173"/>
-      <c r="N86" s="173"/>
-      <c r="O86" s="173"/>
-      <c r="P86" s="173"/>
-      <c r="Q86" s="173"/>
-      <c r="R86" s="173"/>
-      <c r="S86" s="173"/>
-      <c r="T86" s="173"/>
-      <c r="U86" s="173"/>
-      <c r="V86" s="173"/>
-      <c r="W86" s="173"/>
-      <c r="X86" s="173"/>
-      <c r="Y86" s="173"/>
-      <c r="Z86" s="173"/>
-      <c r="AA86" s="173"/>
-      <c r="AB86" s="173"/>
-      <c r="AC86" s="173"/>
-      <c r="AD86" s="173"/>
-      <c r="AE86" s="173"/>
-      <c r="AF86" s="173"/>
-      <c r="AG86" s="173"/>
-      <c r="AH86" s="173"/>
-      <c r="AI86" s="173"/>
-      <c r="AJ86" s="173"/>
-      <c r="AK86" s="173"/>
-      <c r="AL86" s="173"/>
-      <c r="AM86" s="173"/>
-      <c r="AN86" s="173"/>
-      <c r="AO86" s="173"/>
-      <c r="AP86" s="173"/>
-      <c r="AQ86" s="173"/>
-      <c r="AR86" s="173"/>
-      <c r="AS86" s="173"/>
-      <c r="AT86" s="173"/>
-      <c r="AU86" s="173"/>
-      <c r="AV86" s="173"/>
-      <c r="AW86" s="173"/>
-      <c r="AX86" s="173"/>
-      <c r="AY86" s="173"/>
-      <c r="AZ86" s="173"/>
-      <c r="BA86" s="173"/>
-      <c r="BB86" s="173"/>
-      <c r="BC86" s="173"/>
-      <c r="BD86" s="173"/>
-      <c r="BE86" s="173"/>
-      <c r="BF86" s="173"/>
-      <c r="BG86" s="173"/>
-      <c r="BH86" s="173"/>
-      <c r="BI86" s="173"/>
-      <c r="BJ86" s="173"/>
-      <c r="BK86" s="173"/>
-      <c r="BL86" s="173"/>
-      <c r="BM86" s="173"/>
-      <c r="BN86" s="173"/>
-      <c r="BO86" s="173"/>
-      <c r="BP86" s="173"/>
-      <c r="BQ86" s="173"/>
-      <c r="BR86" s="174"/>
+      <c r="C86" s="182"/>
+      <c r="D86" s="182"/>
+      <c r="E86" s="182"/>
+      <c r="F86" s="182"/>
+      <c r="G86" s="182"/>
+      <c r="H86" s="182"/>
+      <c r="I86" s="182"/>
+      <c r="J86" s="182"/>
+      <c r="K86" s="182"/>
+      <c r="L86" s="182"/>
+      <c r="M86" s="182"/>
+      <c r="N86" s="182"/>
+      <c r="O86" s="182"/>
+      <c r="P86" s="182"/>
+      <c r="Q86" s="182"/>
+      <c r="R86" s="182"/>
+      <c r="S86" s="182"/>
+      <c r="T86" s="182"/>
+      <c r="U86" s="182"/>
+      <c r="V86" s="182"/>
+      <c r="W86" s="182"/>
+      <c r="X86" s="182"/>
+      <c r="Y86" s="182"/>
+      <c r="Z86" s="182"/>
+      <c r="AA86" s="182"/>
+      <c r="AB86" s="182"/>
+      <c r="AC86" s="182"/>
+      <c r="AD86" s="182"/>
+      <c r="AE86" s="182"/>
+      <c r="AF86" s="182"/>
+      <c r="AG86" s="182"/>
+      <c r="AH86" s="182"/>
+      <c r="AI86" s="182"/>
+      <c r="AJ86" s="182"/>
+      <c r="AK86" s="182"/>
+      <c r="AL86" s="182"/>
+      <c r="AM86" s="182"/>
+      <c r="AN86" s="182"/>
+      <c r="AO86" s="182"/>
+      <c r="AP86" s="182"/>
+      <c r="AQ86" s="182"/>
+      <c r="AR86" s="182"/>
+      <c r="AS86" s="182"/>
+      <c r="AT86" s="182"/>
+      <c r="AU86" s="182"/>
+      <c r="AV86" s="182"/>
+      <c r="AW86" s="182"/>
+      <c r="AX86" s="182"/>
+      <c r="AY86" s="182"/>
+      <c r="AZ86" s="182"/>
+      <c r="BA86" s="182"/>
+      <c r="BB86" s="182"/>
+      <c r="BC86" s="182"/>
+      <c r="BD86" s="182"/>
+      <c r="BE86" s="182"/>
+      <c r="BF86" s="182"/>
+      <c r="BG86" s="182"/>
+      <c r="BH86" s="182"/>
+      <c r="BI86" s="182"/>
+      <c r="BJ86" s="182"/>
+      <c r="BK86" s="182"/>
+      <c r="BL86" s="182"/>
+      <c r="BM86" s="182"/>
+      <c r="BN86" s="182"/>
+      <c r="BO86" s="182"/>
+      <c r="BP86" s="182"/>
+      <c r="BQ86" s="182"/>
+      <c r="BR86" s="183"/>
     </row>
     <row r="87" spans="1:70" s="55" customFormat="1">
       <c r="A87" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.6</v>
       </c>
-      <c r="B87" s="173" t="s">
+      <c r="B87" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="C87" s="173"/>
-      <c r="D87" s="173"/>
-      <c r="E87" s="173"/>
-      <c r="F87" s="173"/>
-      <c r="G87" s="173"/>
-      <c r="H87" s="173"/>
-      <c r="I87" s="173"/>
-      <c r="J87" s="173"/>
-      <c r="K87" s="173"/>
-      <c r="L87" s="173"/>
-      <c r="M87" s="173"/>
-      <c r="N87" s="173"/>
-      <c r="O87" s="173"/>
-      <c r="P87" s="173"/>
-      <c r="Q87" s="173"/>
-      <c r="R87" s="173"/>
-      <c r="S87" s="173"/>
-      <c r="T87" s="173"/>
-      <c r="U87" s="173"/>
-      <c r="V87" s="173"/>
-      <c r="W87" s="173"/>
-      <c r="X87" s="173"/>
-      <c r="Y87" s="173"/>
-      <c r="Z87" s="173"/>
-      <c r="AA87" s="173"/>
-      <c r="AB87" s="173"/>
-      <c r="AC87" s="173"/>
-      <c r="AD87" s="173"/>
-      <c r="AE87" s="173"/>
-      <c r="AF87" s="173"/>
-      <c r="AG87" s="173"/>
-      <c r="AH87" s="173"/>
-      <c r="AI87" s="173"/>
-      <c r="AJ87" s="173"/>
-      <c r="AK87" s="173"/>
-      <c r="AL87" s="173"/>
-      <c r="AM87" s="173"/>
-      <c r="AN87" s="173"/>
-      <c r="AO87" s="173"/>
-      <c r="AP87" s="173"/>
-      <c r="AQ87" s="173"/>
-      <c r="AR87" s="173"/>
-      <c r="AS87" s="173"/>
-      <c r="AT87" s="173"/>
-      <c r="AU87" s="173"/>
-      <c r="AV87" s="173"/>
-      <c r="AW87" s="173"/>
-      <c r="AX87" s="173"/>
-      <c r="AY87" s="173"/>
-      <c r="AZ87" s="173"/>
-      <c r="BA87" s="173"/>
-      <c r="BB87" s="173"/>
-      <c r="BC87" s="173"/>
-      <c r="BD87" s="173"/>
-      <c r="BE87" s="173"/>
-      <c r="BF87" s="173"/>
-      <c r="BG87" s="173"/>
-      <c r="BH87" s="173"/>
-      <c r="BI87" s="173"/>
-      <c r="BJ87" s="173"/>
-      <c r="BK87" s="173"/>
-      <c r="BL87" s="173"/>
-      <c r="BM87" s="173"/>
-      <c r="BN87" s="173"/>
-      <c r="BO87" s="173"/>
-      <c r="BP87" s="173"/>
-      <c r="BQ87" s="173"/>
-      <c r="BR87" s="174"/>
+      <c r="C87" s="182"/>
+      <c r="D87" s="182"/>
+      <c r="E87" s="182"/>
+      <c r="F87" s="182"/>
+      <c r="G87" s="182"/>
+      <c r="H87" s="182"/>
+      <c r="I87" s="182"/>
+      <c r="J87" s="182"/>
+      <c r="K87" s="182"/>
+      <c r="L87" s="182"/>
+      <c r="M87" s="182"/>
+      <c r="N87" s="182"/>
+      <c r="O87" s="182"/>
+      <c r="P87" s="182"/>
+      <c r="Q87" s="182"/>
+      <c r="R87" s="182"/>
+      <c r="S87" s="182"/>
+      <c r="T87" s="182"/>
+      <c r="U87" s="182"/>
+      <c r="V87" s="182"/>
+      <c r="W87" s="182"/>
+      <c r="X87" s="182"/>
+      <c r="Y87" s="182"/>
+      <c r="Z87" s="182"/>
+      <c r="AA87" s="182"/>
+      <c r="AB87" s="182"/>
+      <c r="AC87" s="182"/>
+      <c r="AD87" s="182"/>
+      <c r="AE87" s="182"/>
+      <c r="AF87" s="182"/>
+      <c r="AG87" s="182"/>
+      <c r="AH87" s="182"/>
+      <c r="AI87" s="182"/>
+      <c r="AJ87" s="182"/>
+      <c r="AK87" s="182"/>
+      <c r="AL87" s="182"/>
+      <c r="AM87" s="182"/>
+      <c r="AN87" s="182"/>
+      <c r="AO87" s="182"/>
+      <c r="AP87" s="182"/>
+      <c r="AQ87" s="182"/>
+      <c r="AR87" s="182"/>
+      <c r="AS87" s="182"/>
+      <c r="AT87" s="182"/>
+      <c r="AU87" s="182"/>
+      <c r="AV87" s="182"/>
+      <c r="AW87" s="182"/>
+      <c r="AX87" s="182"/>
+      <c r="AY87" s="182"/>
+      <c r="AZ87" s="182"/>
+      <c r="BA87" s="182"/>
+      <c r="BB87" s="182"/>
+      <c r="BC87" s="182"/>
+      <c r="BD87" s="182"/>
+      <c r="BE87" s="182"/>
+      <c r="BF87" s="182"/>
+      <c r="BG87" s="182"/>
+      <c r="BH87" s="182"/>
+      <c r="BI87" s="182"/>
+      <c r="BJ87" s="182"/>
+      <c r="BK87" s="182"/>
+      <c r="BL87" s="182"/>
+      <c r="BM87" s="182"/>
+      <c r="BN87" s="182"/>
+      <c r="BO87" s="182"/>
+      <c r="BP87" s="182"/>
+      <c r="BQ87" s="182"/>
+      <c r="BR87" s="183"/>
     </row>
     <row r="88" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A88" s="59" t="str">
         <f t="shared" si="65"/>
         <v>4.7</v>
       </c>
-      <c r="B88" s="175" t="s">
+      <c r="B88" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="175"/>
-      <c r="D88" s="175"/>
-      <c r="E88" s="175"/>
-      <c r="F88" s="175"/>
-      <c r="G88" s="175"/>
-      <c r="H88" s="175"/>
-      <c r="I88" s="175"/>
-      <c r="J88" s="175"/>
-      <c r="K88" s="175"/>
-      <c r="L88" s="175"/>
-      <c r="M88" s="175"/>
-      <c r="N88" s="175"/>
-      <c r="O88" s="175"/>
-      <c r="P88" s="175"/>
-      <c r="Q88" s="175"/>
-      <c r="R88" s="175"/>
-      <c r="S88" s="175"/>
-      <c r="T88" s="175"/>
-      <c r="U88" s="175"/>
-      <c r="V88" s="175"/>
-      <c r="W88" s="175"/>
-      <c r="X88" s="175"/>
-      <c r="Y88" s="175"/>
-      <c r="Z88" s="175"/>
-      <c r="AA88" s="175"/>
-      <c r="AB88" s="175"/>
-      <c r="AC88" s="175"/>
-      <c r="AD88" s="175"/>
-      <c r="AE88" s="175"/>
-      <c r="AF88" s="175"/>
-      <c r="AG88" s="175"/>
-      <c r="AH88" s="175"/>
-      <c r="AI88" s="175"/>
-      <c r="AJ88" s="175"/>
-      <c r="AK88" s="175"/>
-      <c r="AL88" s="175"/>
-      <c r="AM88" s="175"/>
-      <c r="AN88" s="175"/>
-      <c r="AO88" s="175"/>
-      <c r="AP88" s="175"/>
-      <c r="AQ88" s="175"/>
-      <c r="AR88" s="175"/>
-      <c r="AS88" s="175"/>
-      <c r="AT88" s="175"/>
-      <c r="AU88" s="175"/>
-      <c r="AV88" s="175"/>
-      <c r="AW88" s="175"/>
-      <c r="AX88" s="175"/>
-      <c r="AY88" s="175"/>
-      <c r="AZ88" s="175"/>
-      <c r="BA88" s="175"/>
-      <c r="BB88" s="175"/>
-      <c r="BC88" s="175"/>
-      <c r="BD88" s="175"/>
-      <c r="BE88" s="175"/>
-      <c r="BF88" s="175"/>
-      <c r="BG88" s="175"/>
-      <c r="BH88" s="175"/>
-      <c r="BI88" s="175"/>
-      <c r="BJ88" s="175"/>
-      <c r="BK88" s="175"/>
-      <c r="BL88" s="175"/>
-      <c r="BM88" s="175"/>
-      <c r="BN88" s="175"/>
-      <c r="BO88" s="175"/>
-      <c r="BP88" s="175"/>
-      <c r="BQ88" s="175"/>
-      <c r="BR88" s="176"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
+      <c r="G88" s="186"/>
+      <c r="H88" s="186"/>
+      <c r="I88" s="186"/>
+      <c r="J88" s="186"/>
+      <c r="K88" s="186"/>
+      <c r="L88" s="186"/>
+      <c r="M88" s="186"/>
+      <c r="N88" s="186"/>
+      <c r="O88" s="186"/>
+      <c r="P88" s="186"/>
+      <c r="Q88" s="186"/>
+      <c r="R88" s="186"/>
+      <c r="S88" s="186"/>
+      <c r="T88" s="186"/>
+      <c r="U88" s="186"/>
+      <c r="V88" s="186"/>
+      <c r="W88" s="186"/>
+      <c r="X88" s="186"/>
+      <c r="Y88" s="186"/>
+      <c r="Z88" s="186"/>
+      <c r="AA88" s="186"/>
+      <c r="AB88" s="186"/>
+      <c r="AC88" s="186"/>
+      <c r="AD88" s="186"/>
+      <c r="AE88" s="186"/>
+      <c r="AF88" s="186"/>
+      <c r="AG88" s="186"/>
+      <c r="AH88" s="186"/>
+      <c r="AI88" s="186"/>
+      <c r="AJ88" s="186"/>
+      <c r="AK88" s="186"/>
+      <c r="AL88" s="186"/>
+      <c r="AM88" s="186"/>
+      <c r="AN88" s="186"/>
+      <c r="AO88" s="186"/>
+      <c r="AP88" s="186"/>
+      <c r="AQ88" s="186"/>
+      <c r="AR88" s="186"/>
+      <c r="AS88" s="186"/>
+      <c r="AT88" s="186"/>
+      <c r="AU88" s="186"/>
+      <c r="AV88" s="186"/>
+      <c r="AW88" s="186"/>
+      <c r="AX88" s="186"/>
+      <c r="AY88" s="186"/>
+      <c r="AZ88" s="186"/>
+      <c r="BA88" s="186"/>
+      <c r="BB88" s="186"/>
+      <c r="BC88" s="186"/>
+      <c r="BD88" s="186"/>
+      <c r="BE88" s="186"/>
+      <c r="BF88" s="186"/>
+      <c r="BG88" s="186"/>
+      <c r="BH88" s="186"/>
+      <c r="BI88" s="186"/>
+      <c r="BJ88" s="186"/>
+      <c r="BK88" s="186"/>
+      <c r="BL88" s="186"/>
+      <c r="BM88" s="186"/>
+      <c r="BN88" s="186"/>
+      <c r="BO88" s="186"/>
+      <c r="BP88" s="186"/>
+      <c r="BQ88" s="186"/>
+      <c r="BR88" s="187"/>
     </row>
     <row r="89" spans="1:70" ht="17.25" thickBot="1">
       <c r="A89" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
-      <c r="B89" s="169" t="s">
+      <c r="B89" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="C89" s="169"/>
-      <c r="D89" s="169"/>
-      <c r="E89" s="169"/>
-      <c r="F89" s="169"/>
-      <c r="G89" s="169"/>
-      <c r="H89" s="169"/>
-      <c r="I89" s="169"/>
-      <c r="J89" s="169"/>
-      <c r="K89" s="169"/>
-      <c r="L89" s="169"/>
-      <c r="M89" s="169"/>
-      <c r="N89" s="169"/>
-      <c r="O89" s="169"/>
-      <c r="P89" s="169"/>
-      <c r="Q89" s="169"/>
-      <c r="R89" s="169"/>
-      <c r="S89" s="169"/>
-      <c r="T89" s="169"/>
-      <c r="U89" s="169"/>
-      <c r="V89" s="169"/>
-      <c r="W89" s="169"/>
-      <c r="X89" s="169"/>
-      <c r="Y89" s="169"/>
-      <c r="Z89" s="169"/>
-      <c r="AA89" s="169"/>
-      <c r="AB89" s="169"/>
-      <c r="AC89" s="169"/>
-      <c r="AD89" s="169"/>
-      <c r="AE89" s="169"/>
-      <c r="AF89" s="169"/>
-      <c r="AG89" s="169"/>
-      <c r="AH89" s="169"/>
-      <c r="AI89" s="169"/>
-      <c r="AJ89" s="169"/>
-      <c r="AK89" s="169"/>
-      <c r="AL89" s="169"/>
-      <c r="AM89" s="169"/>
-      <c r="AN89" s="169"/>
-      <c r="AO89" s="169"/>
-      <c r="AP89" s="169"/>
-      <c r="AQ89" s="169"/>
-      <c r="AR89" s="169"/>
-      <c r="AS89" s="169"/>
-      <c r="AT89" s="169"/>
-      <c r="AU89" s="169"/>
-      <c r="AV89" s="169"/>
-      <c r="AW89" s="169"/>
-      <c r="AX89" s="169"/>
-      <c r="AY89" s="169"/>
-      <c r="AZ89" s="169"/>
-      <c r="BA89" s="169"/>
-      <c r="BB89" s="169"/>
-      <c r="BC89" s="169"/>
-      <c r="BD89" s="169"/>
-      <c r="BE89" s="169"/>
-      <c r="BF89" s="169"/>
-      <c r="BG89" s="169"/>
-      <c r="BH89" s="169"/>
-      <c r="BI89" s="169"/>
-      <c r="BJ89" s="169"/>
-      <c r="BK89" s="169"/>
-      <c r="BL89" s="169"/>
-      <c r="BM89" s="169"/>
-      <c r="BN89" s="169"/>
-      <c r="BO89" s="169"/>
-      <c r="BP89" s="169"/>
-      <c r="BQ89" s="169"/>
-      <c r="BR89" s="170"/>
+      <c r="C89" s="184"/>
+      <c r="D89" s="184"/>
+      <c r="E89" s="184"/>
+      <c r="F89" s="184"/>
+      <c r="G89" s="184"/>
+      <c r="H89" s="184"/>
+      <c r="I89" s="184"/>
+      <c r="J89" s="184"/>
+      <c r="K89" s="184"/>
+      <c r="L89" s="184"/>
+      <c r="M89" s="184"/>
+      <c r="N89" s="184"/>
+      <c r="O89" s="184"/>
+      <c r="P89" s="184"/>
+      <c r="Q89" s="184"/>
+      <c r="R89" s="184"/>
+      <c r="S89" s="184"/>
+      <c r="T89" s="184"/>
+      <c r="U89" s="184"/>
+      <c r="V89" s="184"/>
+      <c r="W89" s="184"/>
+      <c r="X89" s="184"/>
+      <c r="Y89" s="184"/>
+      <c r="Z89" s="184"/>
+      <c r="AA89" s="184"/>
+      <c r="AB89" s="184"/>
+      <c r="AC89" s="184"/>
+      <c r="AD89" s="184"/>
+      <c r="AE89" s="184"/>
+      <c r="AF89" s="184"/>
+      <c r="AG89" s="184"/>
+      <c r="AH89" s="184"/>
+      <c r="AI89" s="184"/>
+      <c r="AJ89" s="184"/>
+      <c r="AK89" s="184"/>
+      <c r="AL89" s="184"/>
+      <c r="AM89" s="184"/>
+      <c r="AN89" s="184"/>
+      <c r="AO89" s="184"/>
+      <c r="AP89" s="184"/>
+      <c r="AQ89" s="184"/>
+      <c r="AR89" s="184"/>
+      <c r="AS89" s="184"/>
+      <c r="AT89" s="184"/>
+      <c r="AU89" s="184"/>
+      <c r="AV89" s="184"/>
+      <c r="AW89" s="184"/>
+      <c r="AX89" s="184"/>
+      <c r="AY89" s="184"/>
+      <c r="AZ89" s="184"/>
+      <c r="BA89" s="184"/>
+      <c r="BB89" s="184"/>
+      <c r="BC89" s="184"/>
+      <c r="BD89" s="184"/>
+      <c r="BE89" s="184"/>
+      <c r="BF89" s="184"/>
+      <c r="BG89" s="184"/>
+      <c r="BH89" s="184"/>
+      <c r="BI89" s="184"/>
+      <c r="BJ89" s="184"/>
+      <c r="BK89" s="184"/>
+      <c r="BL89" s="184"/>
+      <c r="BM89" s="184"/>
+      <c r="BN89" s="184"/>
+      <c r="BO89" s="184"/>
+      <c r="BP89" s="184"/>
+      <c r="BQ89" s="184"/>
+      <c r="BR89" s="185"/>
     </row>
     <row r="90" spans="1:70" s="55" customFormat="1">
       <c r="A90" s="57" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.1</v>
       </c>
-      <c r="B90" s="171" t="s">
+      <c r="B90" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="C90" s="171"/>
-      <c r="D90" s="171"/>
-      <c r="E90" s="171"/>
-      <c r="F90" s="171"/>
-      <c r="G90" s="171"/>
-      <c r="H90" s="171"/>
-      <c r="I90" s="171"/>
-      <c r="J90" s="171"/>
-      <c r="K90" s="171"/>
-      <c r="L90" s="171"/>
-      <c r="M90" s="171"/>
-      <c r="N90" s="171"/>
-      <c r="O90" s="171"/>
-      <c r="P90" s="171"/>
-      <c r="Q90" s="171"/>
-      <c r="R90" s="171"/>
-      <c r="S90" s="171"/>
-      <c r="T90" s="171"/>
-      <c r="U90" s="171"/>
-      <c r="V90" s="171"/>
-      <c r="W90" s="171"/>
-      <c r="X90" s="171"/>
-      <c r="Y90" s="171"/>
-      <c r="Z90" s="171"/>
-      <c r="AA90" s="171"/>
-      <c r="AB90" s="171"/>
-      <c r="AC90" s="171"/>
-      <c r="AD90" s="171"/>
-      <c r="AE90" s="171"/>
-      <c r="AF90" s="171"/>
-      <c r="AG90" s="171"/>
-      <c r="AH90" s="171"/>
-      <c r="AI90" s="171"/>
-      <c r="AJ90" s="171"/>
-      <c r="AK90" s="171"/>
-      <c r="AL90" s="171"/>
-      <c r="AM90" s="171"/>
-      <c r="AN90" s="171"/>
-      <c r="AO90" s="171"/>
-      <c r="AP90" s="171"/>
-      <c r="AQ90" s="171"/>
-      <c r="AR90" s="171"/>
-      <c r="AS90" s="171"/>
-      <c r="AT90" s="171"/>
-      <c r="AU90" s="171"/>
-      <c r="AV90" s="171"/>
-      <c r="AW90" s="171"/>
-      <c r="AX90" s="171"/>
-      <c r="AY90" s="171"/>
-      <c r="AZ90" s="171"/>
-      <c r="BA90" s="171"/>
-      <c r="BB90" s="171"/>
-      <c r="BC90" s="171"/>
-      <c r="BD90" s="171"/>
-      <c r="BE90" s="171"/>
-      <c r="BF90" s="171"/>
-      <c r="BG90" s="171"/>
-      <c r="BH90" s="171"/>
-      <c r="BI90" s="171"/>
-      <c r="BJ90" s="171"/>
-      <c r="BK90" s="171"/>
-      <c r="BL90" s="171"/>
-      <c r="BM90" s="171"/>
-      <c r="BN90" s="171"/>
-      <c r="BO90" s="171"/>
-      <c r="BP90" s="171"/>
-      <c r="BQ90" s="171"/>
-      <c r="BR90" s="172"/>
+      <c r="C90" s="180"/>
+      <c r="D90" s="180"/>
+      <c r="E90" s="180"/>
+      <c r="F90" s="180"/>
+      <c r="G90" s="180"/>
+      <c r="H90" s="180"/>
+      <c r="I90" s="180"/>
+      <c r="J90" s="180"/>
+      <c r="K90" s="180"/>
+      <c r="L90" s="180"/>
+      <c r="M90" s="180"/>
+      <c r="N90" s="180"/>
+      <c r="O90" s="180"/>
+      <c r="P90" s="180"/>
+      <c r="Q90" s="180"/>
+      <c r="R90" s="180"/>
+      <c r="S90" s="180"/>
+      <c r="T90" s="180"/>
+      <c r="U90" s="180"/>
+      <c r="V90" s="180"/>
+      <c r="W90" s="180"/>
+      <c r="X90" s="180"/>
+      <c r="Y90" s="180"/>
+      <c r="Z90" s="180"/>
+      <c r="AA90" s="180"/>
+      <c r="AB90" s="180"/>
+      <c r="AC90" s="180"/>
+      <c r="AD90" s="180"/>
+      <c r="AE90" s="180"/>
+      <c r="AF90" s="180"/>
+      <c r="AG90" s="180"/>
+      <c r="AH90" s="180"/>
+      <c r="AI90" s="180"/>
+      <c r="AJ90" s="180"/>
+      <c r="AK90" s="180"/>
+      <c r="AL90" s="180"/>
+      <c r="AM90" s="180"/>
+      <c r="AN90" s="180"/>
+      <c r="AO90" s="180"/>
+      <c r="AP90" s="180"/>
+      <c r="AQ90" s="180"/>
+      <c r="AR90" s="180"/>
+      <c r="AS90" s="180"/>
+      <c r="AT90" s="180"/>
+      <c r="AU90" s="180"/>
+      <c r="AV90" s="180"/>
+      <c r="AW90" s="180"/>
+      <c r="AX90" s="180"/>
+      <c r="AY90" s="180"/>
+      <c r="AZ90" s="180"/>
+      <c r="BA90" s="180"/>
+      <c r="BB90" s="180"/>
+      <c r="BC90" s="180"/>
+      <c r="BD90" s="180"/>
+      <c r="BE90" s="180"/>
+      <c r="BF90" s="180"/>
+      <c r="BG90" s="180"/>
+      <c r="BH90" s="180"/>
+      <c r="BI90" s="180"/>
+      <c r="BJ90" s="180"/>
+      <c r="BK90" s="180"/>
+      <c r="BL90" s="180"/>
+      <c r="BM90" s="180"/>
+      <c r="BN90" s="180"/>
+      <c r="BO90" s="180"/>
+      <c r="BP90" s="180"/>
+      <c r="BQ90" s="180"/>
+      <c r="BR90" s="181"/>
     </row>
     <row r="91" spans="1:70" s="55" customFormat="1">
       <c r="A91" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.2</v>
       </c>
-      <c r="B91" s="173" t="s">
+      <c r="B91" s="182" t="s">
         <v>65</v>
       </c>
-      <c r="C91" s="173"/>
-      <c r="D91" s="173"/>
-      <c r="E91" s="173"/>
-      <c r="F91" s="173"/>
-      <c r="G91" s="173"/>
-      <c r="H91" s="173"/>
-      <c r="I91" s="173"/>
-      <c r="J91" s="173"/>
-      <c r="K91" s="173"/>
-      <c r="L91" s="173"/>
-      <c r="M91" s="173"/>
-      <c r="N91" s="173"/>
-      <c r="O91" s="173"/>
-      <c r="P91" s="173"/>
-      <c r="Q91" s="173"/>
-      <c r="R91" s="173"/>
-      <c r="S91" s="173"/>
-      <c r="T91" s="173"/>
-      <c r="U91" s="173"/>
-      <c r="V91" s="173"/>
-      <c r="W91" s="173"/>
-      <c r="X91" s="173"/>
-      <c r="Y91" s="173"/>
-      <c r="Z91" s="173"/>
-      <c r="AA91" s="173"/>
-      <c r="AB91" s="173"/>
-      <c r="AC91" s="173"/>
-      <c r="AD91" s="173"/>
-      <c r="AE91" s="173"/>
-      <c r="AF91" s="173"/>
-      <c r="AG91" s="173"/>
-      <c r="AH91" s="173"/>
-      <c r="AI91" s="173"/>
-      <c r="AJ91" s="173"/>
-      <c r="AK91" s="173"/>
-      <c r="AL91" s="173"/>
-      <c r="AM91" s="173"/>
-      <c r="AN91" s="173"/>
-      <c r="AO91" s="173"/>
-      <c r="AP91" s="173"/>
-      <c r="AQ91" s="173"/>
-      <c r="AR91" s="173"/>
-      <c r="AS91" s="173"/>
-      <c r="AT91" s="173"/>
-      <c r="AU91" s="173"/>
-      <c r="AV91" s="173"/>
-      <c r="AW91" s="173"/>
-      <c r="AX91" s="173"/>
-      <c r="AY91" s="173"/>
-      <c r="AZ91" s="173"/>
-      <c r="BA91" s="173"/>
-      <c r="BB91" s="173"/>
-      <c r="BC91" s="173"/>
-      <c r="BD91" s="173"/>
-      <c r="BE91" s="173"/>
-      <c r="BF91" s="173"/>
-      <c r="BG91" s="173"/>
-      <c r="BH91" s="173"/>
-      <c r="BI91" s="173"/>
-      <c r="BJ91" s="173"/>
-      <c r="BK91" s="173"/>
-      <c r="BL91" s="173"/>
-      <c r="BM91" s="173"/>
-      <c r="BN91" s="173"/>
-      <c r="BO91" s="173"/>
-      <c r="BP91" s="173"/>
-      <c r="BQ91" s="173"/>
-      <c r="BR91" s="174"/>
+      <c r="C91" s="182"/>
+      <c r="D91" s="182"/>
+      <c r="E91" s="182"/>
+      <c r="F91" s="182"/>
+      <c r="G91" s="182"/>
+      <c r="H91" s="182"/>
+      <c r="I91" s="182"/>
+      <c r="J91" s="182"/>
+      <c r="K91" s="182"/>
+      <c r="L91" s="182"/>
+      <c r="M91" s="182"/>
+      <c r="N91" s="182"/>
+      <c r="O91" s="182"/>
+      <c r="P91" s="182"/>
+      <c r="Q91" s="182"/>
+      <c r="R91" s="182"/>
+      <c r="S91" s="182"/>
+      <c r="T91" s="182"/>
+      <c r="U91" s="182"/>
+      <c r="V91" s="182"/>
+      <c r="W91" s="182"/>
+      <c r="X91" s="182"/>
+      <c r="Y91" s="182"/>
+      <c r="Z91" s="182"/>
+      <c r="AA91" s="182"/>
+      <c r="AB91" s="182"/>
+      <c r="AC91" s="182"/>
+      <c r="AD91" s="182"/>
+      <c r="AE91" s="182"/>
+      <c r="AF91" s="182"/>
+      <c r="AG91" s="182"/>
+      <c r="AH91" s="182"/>
+      <c r="AI91" s="182"/>
+      <c r="AJ91" s="182"/>
+      <c r="AK91" s="182"/>
+      <c r="AL91" s="182"/>
+      <c r="AM91" s="182"/>
+      <c r="AN91" s="182"/>
+      <c r="AO91" s="182"/>
+      <c r="AP91" s="182"/>
+      <c r="AQ91" s="182"/>
+      <c r="AR91" s="182"/>
+      <c r="AS91" s="182"/>
+      <c r="AT91" s="182"/>
+      <c r="AU91" s="182"/>
+      <c r="AV91" s="182"/>
+      <c r="AW91" s="182"/>
+      <c r="AX91" s="182"/>
+      <c r="AY91" s="182"/>
+      <c r="AZ91" s="182"/>
+      <c r="BA91" s="182"/>
+      <c r="BB91" s="182"/>
+      <c r="BC91" s="182"/>
+      <c r="BD91" s="182"/>
+      <c r="BE91" s="182"/>
+      <c r="BF91" s="182"/>
+      <c r="BG91" s="182"/>
+      <c r="BH91" s="182"/>
+      <c r="BI91" s="182"/>
+      <c r="BJ91" s="182"/>
+      <c r="BK91" s="182"/>
+      <c r="BL91" s="182"/>
+      <c r="BM91" s="182"/>
+      <c r="BN91" s="182"/>
+      <c r="BO91" s="182"/>
+      <c r="BP91" s="182"/>
+      <c r="BQ91" s="182"/>
+      <c r="BR91" s="183"/>
     </row>
     <row r="92" spans="1:70" s="55" customFormat="1">
       <c r="A92" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.3</v>
       </c>
-      <c r="B92" s="173" t="s">
+      <c r="B92" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="C92" s="173"/>
-      <c r="D92" s="173"/>
-      <c r="E92" s="173"/>
-      <c r="F92" s="173"/>
-      <c r="G92" s="173"/>
-      <c r="H92" s="173"/>
-      <c r="I92" s="173"/>
-      <c r="J92" s="173"/>
-      <c r="K92" s="173"/>
-      <c r="L92" s="173"/>
-      <c r="M92" s="173"/>
-      <c r="N92" s="173"/>
-      <c r="O92" s="173"/>
-      <c r="P92" s="173"/>
-      <c r="Q92" s="173"/>
-      <c r="R92" s="173"/>
-      <c r="S92" s="173"/>
-      <c r="T92" s="173"/>
-      <c r="U92" s="173"/>
-      <c r="V92" s="173"/>
-      <c r="W92" s="173"/>
-      <c r="X92" s="173"/>
-      <c r="Y92" s="173"/>
-      <c r="Z92" s="173"/>
-      <c r="AA92" s="173"/>
-      <c r="AB92" s="173"/>
-      <c r="AC92" s="173"/>
-      <c r="AD92" s="173"/>
-      <c r="AE92" s="173"/>
-      <c r="AF92" s="173"/>
-      <c r="AG92" s="173"/>
-      <c r="AH92" s="173"/>
-      <c r="AI92" s="173"/>
-      <c r="AJ92" s="173"/>
-      <c r="AK92" s="173"/>
-      <c r="AL92" s="173"/>
-      <c r="AM92" s="173"/>
-      <c r="AN92" s="173"/>
-      <c r="AO92" s="173"/>
-      <c r="AP92" s="173"/>
-      <c r="AQ92" s="173"/>
-      <c r="AR92" s="173"/>
-      <c r="AS92" s="173"/>
-      <c r="AT92" s="173"/>
-      <c r="AU92" s="173"/>
-      <c r="AV92" s="173"/>
-      <c r="AW92" s="173"/>
-      <c r="AX92" s="173"/>
-      <c r="AY92" s="173"/>
-      <c r="AZ92" s="173"/>
-      <c r="BA92" s="173"/>
-      <c r="BB92" s="173"/>
-      <c r="BC92" s="173"/>
-      <c r="BD92" s="173"/>
-      <c r="BE92" s="173"/>
-      <c r="BF92" s="173"/>
-      <c r="BG92" s="173"/>
-      <c r="BH92" s="173"/>
-      <c r="BI92" s="173"/>
-      <c r="BJ92" s="173"/>
-      <c r="BK92" s="173"/>
-      <c r="BL92" s="173"/>
-      <c r="BM92" s="173"/>
-      <c r="BN92" s="173"/>
-      <c r="BO92" s="173"/>
-      <c r="BP92" s="173"/>
-      <c r="BQ92" s="173"/>
-      <c r="BR92" s="174"/>
+      <c r="C92" s="182"/>
+      <c r="D92" s="182"/>
+      <c r="E92" s="182"/>
+      <c r="F92" s="182"/>
+      <c r="G92" s="182"/>
+      <c r="H92" s="182"/>
+      <c r="I92" s="182"/>
+      <c r="J92" s="182"/>
+      <c r="K92" s="182"/>
+      <c r="L92" s="182"/>
+      <c r="M92" s="182"/>
+      <c r="N92" s="182"/>
+      <c r="O92" s="182"/>
+      <c r="P92" s="182"/>
+      <c r="Q92" s="182"/>
+      <c r="R92" s="182"/>
+      <c r="S92" s="182"/>
+      <c r="T92" s="182"/>
+      <c r="U92" s="182"/>
+      <c r="V92" s="182"/>
+      <c r="W92" s="182"/>
+      <c r="X92" s="182"/>
+      <c r="Y92" s="182"/>
+      <c r="Z92" s="182"/>
+      <c r="AA92" s="182"/>
+      <c r="AB92" s="182"/>
+      <c r="AC92" s="182"/>
+      <c r="AD92" s="182"/>
+      <c r="AE92" s="182"/>
+      <c r="AF92" s="182"/>
+      <c r="AG92" s="182"/>
+      <c r="AH92" s="182"/>
+      <c r="AI92" s="182"/>
+      <c r="AJ92" s="182"/>
+      <c r="AK92" s="182"/>
+      <c r="AL92" s="182"/>
+      <c r="AM92" s="182"/>
+      <c r="AN92" s="182"/>
+      <c r="AO92" s="182"/>
+      <c r="AP92" s="182"/>
+      <c r="AQ92" s="182"/>
+      <c r="AR92" s="182"/>
+      <c r="AS92" s="182"/>
+      <c r="AT92" s="182"/>
+      <c r="AU92" s="182"/>
+      <c r="AV92" s="182"/>
+      <c r="AW92" s="182"/>
+      <c r="AX92" s="182"/>
+      <c r="AY92" s="182"/>
+      <c r="AZ92" s="182"/>
+      <c r="BA92" s="182"/>
+      <c r="BB92" s="182"/>
+      <c r="BC92" s="182"/>
+      <c r="BD92" s="182"/>
+      <c r="BE92" s="182"/>
+      <c r="BF92" s="182"/>
+      <c r="BG92" s="182"/>
+      <c r="BH92" s="182"/>
+      <c r="BI92" s="182"/>
+      <c r="BJ92" s="182"/>
+      <c r="BK92" s="182"/>
+      <c r="BL92" s="182"/>
+      <c r="BM92" s="182"/>
+      <c r="BN92" s="182"/>
+      <c r="BO92" s="182"/>
+      <c r="BP92" s="182"/>
+      <c r="BQ92" s="182"/>
+      <c r="BR92" s="183"/>
     </row>
     <row r="93" spans="1:70" s="55" customFormat="1">
       <c r="A93" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.4</v>
       </c>
-      <c r="B93" s="173" t="s">
+      <c r="B93" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="C93" s="173"/>
-      <c r="D93" s="173"/>
-      <c r="E93" s="173"/>
-      <c r="F93" s="173"/>
-      <c r="G93" s="173"/>
-      <c r="H93" s="173"/>
-      <c r="I93" s="173"/>
-      <c r="J93" s="173"/>
-      <c r="K93" s="173"/>
-      <c r="L93" s="173"/>
-      <c r="M93" s="173"/>
-      <c r="N93" s="173"/>
-      <c r="O93" s="173"/>
-      <c r="P93" s="173"/>
-      <c r="Q93" s="173"/>
-      <c r="R93" s="173"/>
-      <c r="S93" s="173"/>
-      <c r="T93" s="173"/>
-      <c r="U93" s="173"/>
-      <c r="V93" s="173"/>
-      <c r="W93" s="173"/>
-      <c r="X93" s="173"/>
-      <c r="Y93" s="173"/>
-      <c r="Z93" s="173"/>
-      <c r="AA93" s="173"/>
-      <c r="AB93" s="173"/>
-      <c r="AC93" s="173"/>
-      <c r="AD93" s="173"/>
-      <c r="AE93" s="173"/>
-      <c r="AF93" s="173"/>
-      <c r="AG93" s="173"/>
-      <c r="AH93" s="173"/>
-      <c r="AI93" s="173"/>
-      <c r="AJ93" s="173"/>
-      <c r="AK93" s="173"/>
-      <c r="AL93" s="173"/>
-      <c r="AM93" s="173"/>
-      <c r="AN93" s="173"/>
-      <c r="AO93" s="173"/>
-      <c r="AP93" s="173"/>
-      <c r="AQ93" s="173"/>
-      <c r="AR93" s="173"/>
-      <c r="AS93" s="173"/>
-      <c r="AT93" s="173"/>
-      <c r="AU93" s="173"/>
-      <c r="AV93" s="173"/>
-      <c r="AW93" s="173"/>
-      <c r="AX93" s="173"/>
-      <c r="AY93" s="173"/>
-      <c r="AZ93" s="173"/>
-      <c r="BA93" s="173"/>
-      <c r="BB93" s="173"/>
-      <c r="BC93" s="173"/>
-      <c r="BD93" s="173"/>
-      <c r="BE93" s="173"/>
-      <c r="BF93" s="173"/>
-      <c r="BG93" s="173"/>
-      <c r="BH93" s="173"/>
-      <c r="BI93" s="173"/>
-      <c r="BJ93" s="173"/>
-      <c r="BK93" s="173"/>
-      <c r="BL93" s="173"/>
-      <c r="BM93" s="173"/>
-      <c r="BN93" s="173"/>
-      <c r="BO93" s="173"/>
-      <c r="BP93" s="173"/>
-      <c r="BQ93" s="173"/>
-      <c r="BR93" s="174"/>
+      <c r="C93" s="182"/>
+      <c r="D93" s="182"/>
+      <c r="E93" s="182"/>
+      <c r="F93" s="182"/>
+      <c r="G93" s="182"/>
+      <c r="H93" s="182"/>
+      <c r="I93" s="182"/>
+      <c r="J93" s="182"/>
+      <c r="K93" s="182"/>
+      <c r="L93" s="182"/>
+      <c r="M93" s="182"/>
+      <c r="N93" s="182"/>
+      <c r="O93" s="182"/>
+      <c r="P93" s="182"/>
+      <c r="Q93" s="182"/>
+      <c r="R93" s="182"/>
+      <c r="S93" s="182"/>
+      <c r="T93" s="182"/>
+      <c r="U93" s="182"/>
+      <c r="V93" s="182"/>
+      <c r="W93" s="182"/>
+      <c r="X93" s="182"/>
+      <c r="Y93" s="182"/>
+      <c r="Z93" s="182"/>
+      <c r="AA93" s="182"/>
+      <c r="AB93" s="182"/>
+      <c r="AC93" s="182"/>
+      <c r="AD93" s="182"/>
+      <c r="AE93" s="182"/>
+      <c r="AF93" s="182"/>
+      <c r="AG93" s="182"/>
+      <c r="AH93" s="182"/>
+      <c r="AI93" s="182"/>
+      <c r="AJ93" s="182"/>
+      <c r="AK93" s="182"/>
+      <c r="AL93" s="182"/>
+      <c r="AM93" s="182"/>
+      <c r="AN93" s="182"/>
+      <c r="AO93" s="182"/>
+      <c r="AP93" s="182"/>
+      <c r="AQ93" s="182"/>
+      <c r="AR93" s="182"/>
+      <c r="AS93" s="182"/>
+      <c r="AT93" s="182"/>
+      <c r="AU93" s="182"/>
+      <c r="AV93" s="182"/>
+      <c r="AW93" s="182"/>
+      <c r="AX93" s="182"/>
+      <c r="AY93" s="182"/>
+      <c r="AZ93" s="182"/>
+      <c r="BA93" s="182"/>
+      <c r="BB93" s="182"/>
+      <c r="BC93" s="182"/>
+      <c r="BD93" s="182"/>
+      <c r="BE93" s="182"/>
+      <c r="BF93" s="182"/>
+      <c r="BG93" s="182"/>
+      <c r="BH93" s="182"/>
+      <c r="BI93" s="182"/>
+      <c r="BJ93" s="182"/>
+      <c r="BK93" s="182"/>
+      <c r="BL93" s="182"/>
+      <c r="BM93" s="182"/>
+      <c r="BN93" s="182"/>
+      <c r="BO93" s="182"/>
+      <c r="BP93" s="182"/>
+      <c r="BQ93" s="182"/>
+      <c r="BR93" s="183"/>
     </row>
     <row r="94" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A94" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.5</v>
       </c>
-      <c r="B94" s="175" t="s">
+      <c r="B94" s="186" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="175"/>
-      <c r="D94" s="175"/>
-      <c r="E94" s="175"/>
-      <c r="F94" s="175"/>
-      <c r="G94" s="175"/>
-      <c r="H94" s="175"/>
-      <c r="I94" s="175"/>
-      <c r="J94" s="175"/>
-      <c r="K94" s="175"/>
-      <c r="L94" s="175"/>
-      <c r="M94" s="175"/>
-      <c r="N94" s="175"/>
-      <c r="O94" s="175"/>
-      <c r="P94" s="175"/>
-      <c r="Q94" s="175"/>
-      <c r="R94" s="175"/>
-      <c r="S94" s="175"/>
-      <c r="T94" s="175"/>
-      <c r="U94" s="175"/>
-      <c r="V94" s="175"/>
-      <c r="W94" s="175"/>
-      <c r="X94" s="175"/>
-      <c r="Y94" s="175"/>
-      <c r="Z94" s="175"/>
-      <c r="AA94" s="175"/>
-      <c r="AB94" s="175"/>
-      <c r="AC94" s="175"/>
-      <c r="AD94" s="175"/>
-      <c r="AE94" s="175"/>
-      <c r="AF94" s="175"/>
-      <c r="AG94" s="175"/>
-      <c r="AH94" s="175"/>
-      <c r="AI94" s="175"/>
-      <c r="AJ94" s="175"/>
-      <c r="AK94" s="175"/>
-      <c r="AL94" s="175"/>
-      <c r="AM94" s="175"/>
-      <c r="AN94" s="175"/>
-      <c r="AO94" s="175"/>
-      <c r="AP94" s="175"/>
-      <c r="AQ94" s="175"/>
-      <c r="AR94" s="175"/>
-      <c r="AS94" s="175"/>
-      <c r="AT94" s="175"/>
-      <c r="AU94" s="175"/>
-      <c r="AV94" s="175"/>
-      <c r="AW94" s="175"/>
-      <c r="AX94" s="175"/>
-      <c r="AY94" s="175"/>
-      <c r="AZ94" s="175"/>
-      <c r="BA94" s="175"/>
-      <c r="BB94" s="175"/>
-      <c r="BC94" s="175"/>
-      <c r="BD94" s="175"/>
-      <c r="BE94" s="175"/>
-      <c r="BF94" s="175"/>
-      <c r="BG94" s="175"/>
-      <c r="BH94" s="175"/>
-      <c r="BI94" s="175"/>
-      <c r="BJ94" s="175"/>
-      <c r="BK94" s="175"/>
-      <c r="BL94" s="175"/>
-      <c r="BM94" s="175"/>
-      <c r="BN94" s="175"/>
-      <c r="BO94" s="175"/>
-      <c r="BP94" s="175"/>
-      <c r="BQ94" s="175"/>
-      <c r="BR94" s="176"/>
+      <c r="C94" s="186"/>
+      <c r="D94" s="186"/>
+      <c r="E94" s="186"/>
+      <c r="F94" s="186"/>
+      <c r="G94" s="186"/>
+      <c r="H94" s="186"/>
+      <c r="I94" s="186"/>
+      <c r="J94" s="186"/>
+      <c r="K94" s="186"/>
+      <c r="L94" s="186"/>
+      <c r="M94" s="186"/>
+      <c r="N94" s="186"/>
+      <c r="O94" s="186"/>
+      <c r="P94" s="186"/>
+      <c r="Q94" s="186"/>
+      <c r="R94" s="186"/>
+      <c r="S94" s="186"/>
+      <c r="T94" s="186"/>
+      <c r="U94" s="186"/>
+      <c r="V94" s="186"/>
+      <c r="W94" s="186"/>
+      <c r="X94" s="186"/>
+      <c r="Y94" s="186"/>
+      <c r="Z94" s="186"/>
+      <c r="AA94" s="186"/>
+      <c r="AB94" s="186"/>
+      <c r="AC94" s="186"/>
+      <c r="AD94" s="186"/>
+      <c r="AE94" s="186"/>
+      <c r="AF94" s="186"/>
+      <c r="AG94" s="186"/>
+      <c r="AH94" s="186"/>
+      <c r="AI94" s="186"/>
+      <c r="AJ94" s="186"/>
+      <c r="AK94" s="186"/>
+      <c r="AL94" s="186"/>
+      <c r="AM94" s="186"/>
+      <c r="AN94" s="186"/>
+      <c r="AO94" s="186"/>
+      <c r="AP94" s="186"/>
+      <c r="AQ94" s="186"/>
+      <c r="AR94" s="186"/>
+      <c r="AS94" s="186"/>
+      <c r="AT94" s="186"/>
+      <c r="AU94" s="186"/>
+      <c r="AV94" s="186"/>
+      <c r="AW94" s="186"/>
+      <c r="AX94" s="186"/>
+      <c r="AY94" s="186"/>
+      <c r="AZ94" s="186"/>
+      <c r="BA94" s="186"/>
+      <c r="BB94" s="186"/>
+      <c r="BC94" s="186"/>
+      <c r="BD94" s="186"/>
+      <c r="BE94" s="186"/>
+      <c r="BF94" s="186"/>
+      <c r="BG94" s="186"/>
+      <c r="BH94" s="186"/>
+      <c r="BI94" s="186"/>
+      <c r="BJ94" s="186"/>
+      <c r="BK94" s="186"/>
+      <c r="BL94" s="186"/>
+      <c r="BM94" s="186"/>
+      <c r="BN94" s="186"/>
+      <c r="BO94" s="186"/>
+      <c r="BP94" s="186"/>
+      <c r="BQ94" s="186"/>
+      <c r="BR94" s="187"/>
     </row>
     <row r="95" spans="1:70" ht="17.25" thickBot="1">
       <c r="A95" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>6</v>
       </c>
-      <c r="B95" s="169" t="s">
+      <c r="B95" s="184" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="169"/>
-      <c r="D95" s="169"/>
-      <c r="E95" s="169"/>
-      <c r="F95" s="169"/>
-      <c r="G95" s="169"/>
-      <c r="H95" s="169"/>
-      <c r="I95" s="169"/>
-      <c r="J95" s="169"/>
-      <c r="K95" s="169"/>
-      <c r="L95" s="169"/>
-      <c r="M95" s="169"/>
-      <c r="N95" s="169"/>
-      <c r="O95" s="169"/>
-      <c r="P95" s="169"/>
-      <c r="Q95" s="169"/>
-      <c r="R95" s="169"/>
-      <c r="S95" s="169"/>
-      <c r="T95" s="169"/>
-      <c r="U95" s="169"/>
-      <c r="V95" s="169"/>
-      <c r="W95" s="169"/>
-      <c r="X95" s="169"/>
-      <c r="Y95" s="169"/>
-      <c r="Z95" s="169"/>
-      <c r="AA95" s="169"/>
-      <c r="AB95" s="169"/>
-      <c r="AC95" s="169"/>
-      <c r="AD95" s="169"/>
-      <c r="AE95" s="169"/>
-      <c r="AF95" s="169"/>
-      <c r="AG95" s="169"/>
-      <c r="AH95" s="169"/>
-      <c r="AI95" s="169"/>
-      <c r="AJ95" s="169"/>
-      <c r="AK95" s="169"/>
-      <c r="AL95" s="169"/>
-      <c r="AM95" s="169"/>
-      <c r="AN95" s="169"/>
-      <c r="AO95" s="169"/>
-      <c r="AP95" s="169"/>
-      <c r="AQ95" s="169"/>
-      <c r="AR95" s="169"/>
-      <c r="AS95" s="169"/>
-      <c r="AT95" s="169"/>
-      <c r="AU95" s="169"/>
-      <c r="AV95" s="169"/>
-      <c r="AW95" s="169"/>
-      <c r="AX95" s="169"/>
-      <c r="AY95" s="169"/>
-      <c r="AZ95" s="169"/>
-      <c r="BA95" s="169"/>
-      <c r="BB95" s="169"/>
-      <c r="BC95" s="169"/>
-      <c r="BD95" s="169"/>
-      <c r="BE95" s="169"/>
-      <c r="BF95" s="169"/>
-      <c r="BG95" s="169"/>
-      <c r="BH95" s="169"/>
-      <c r="BI95" s="169"/>
-      <c r="BJ95" s="169"/>
-      <c r="BK95" s="169"/>
-      <c r="BL95" s="169"/>
-      <c r="BM95" s="169"/>
-      <c r="BN95" s="169"/>
-      <c r="BO95" s="169"/>
-      <c r="BP95" s="169"/>
-      <c r="BQ95" s="169"/>
-      <c r="BR95" s="170"/>
+      <c r="C95" s="184"/>
+      <c r="D95" s="184"/>
+      <c r="E95" s="184"/>
+      <c r="F95" s="184"/>
+      <c r="G95" s="184"/>
+      <c r="H95" s="184"/>
+      <c r="I95" s="184"/>
+      <c r="J95" s="184"/>
+      <c r="K95" s="184"/>
+      <c r="L95" s="184"/>
+      <c r="M95" s="184"/>
+      <c r="N95" s="184"/>
+      <c r="O95" s="184"/>
+      <c r="P95" s="184"/>
+      <c r="Q95" s="184"/>
+      <c r="R95" s="184"/>
+      <c r="S95" s="184"/>
+      <c r="T95" s="184"/>
+      <c r="U95" s="184"/>
+      <c r="V95" s="184"/>
+      <c r="W95" s="184"/>
+      <c r="X95" s="184"/>
+      <c r="Y95" s="184"/>
+      <c r="Z95" s="184"/>
+      <c r="AA95" s="184"/>
+      <c r="AB95" s="184"/>
+      <c r="AC95" s="184"/>
+      <c r="AD95" s="184"/>
+      <c r="AE95" s="184"/>
+      <c r="AF95" s="184"/>
+      <c r="AG95" s="184"/>
+      <c r="AH95" s="184"/>
+      <c r="AI95" s="184"/>
+      <c r="AJ95" s="184"/>
+      <c r="AK95" s="184"/>
+      <c r="AL95" s="184"/>
+      <c r="AM95" s="184"/>
+      <c r="AN95" s="184"/>
+      <c r="AO95" s="184"/>
+      <c r="AP95" s="184"/>
+      <c r="AQ95" s="184"/>
+      <c r="AR95" s="184"/>
+      <c r="AS95" s="184"/>
+      <c r="AT95" s="184"/>
+      <c r="AU95" s="184"/>
+      <c r="AV95" s="184"/>
+      <c r="AW95" s="184"/>
+      <c r="AX95" s="184"/>
+      <c r="AY95" s="184"/>
+      <c r="AZ95" s="184"/>
+      <c r="BA95" s="184"/>
+      <c r="BB95" s="184"/>
+      <c r="BC95" s="184"/>
+      <c r="BD95" s="184"/>
+      <c r="BE95" s="184"/>
+      <c r="BF95" s="184"/>
+      <c r="BG95" s="184"/>
+      <c r="BH95" s="184"/>
+      <c r="BI95" s="184"/>
+      <c r="BJ95" s="184"/>
+      <c r="BK95" s="184"/>
+      <c r="BL95" s="184"/>
+      <c r="BM95" s="184"/>
+      <c r="BN95" s="184"/>
+      <c r="BO95" s="184"/>
+      <c r="BP95" s="184"/>
+      <c r="BQ95" s="184"/>
+      <c r="BR95" s="185"/>
     </row>
     <row r="96" spans="1:70" s="55" customFormat="1">
       <c r="A96" s="57" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.1</v>
       </c>
-      <c r="B96" s="171" t="s">
+      <c r="B96" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="C96" s="171"/>
-      <c r="D96" s="171"/>
-      <c r="E96" s="171"/>
-      <c r="F96" s="171"/>
-      <c r="G96" s="171"/>
-      <c r="H96" s="171"/>
-      <c r="I96" s="171"/>
-      <c r="J96" s="171"/>
-      <c r="K96" s="171"/>
-      <c r="L96" s="171"/>
-      <c r="M96" s="171"/>
-      <c r="N96" s="171"/>
-      <c r="O96" s="171"/>
-      <c r="P96" s="171"/>
-      <c r="Q96" s="171"/>
-      <c r="R96" s="171"/>
-      <c r="S96" s="171"/>
-      <c r="T96" s="171"/>
-      <c r="U96" s="171"/>
-      <c r="V96" s="171"/>
-      <c r="W96" s="171"/>
-      <c r="X96" s="171"/>
-      <c r="Y96" s="171"/>
-      <c r="Z96" s="171"/>
-      <c r="AA96" s="171"/>
-      <c r="AB96" s="171"/>
-      <c r="AC96" s="171"/>
-      <c r="AD96" s="171"/>
-      <c r="AE96" s="171"/>
-      <c r="AF96" s="171"/>
-      <c r="AG96" s="171"/>
-      <c r="AH96" s="171"/>
-      <c r="AI96" s="171"/>
-      <c r="AJ96" s="171"/>
-      <c r="AK96" s="171"/>
-      <c r="AL96" s="171"/>
-      <c r="AM96" s="171"/>
-      <c r="AN96" s="171"/>
-      <c r="AO96" s="171"/>
-      <c r="AP96" s="171"/>
-      <c r="AQ96" s="171"/>
-      <c r="AR96" s="171"/>
-      <c r="AS96" s="171"/>
-      <c r="AT96" s="171"/>
-      <c r="AU96" s="171"/>
-      <c r="AV96" s="171"/>
-      <c r="AW96" s="171"/>
-      <c r="AX96" s="171"/>
-      <c r="AY96" s="171"/>
-      <c r="AZ96" s="171"/>
-      <c r="BA96" s="171"/>
-      <c r="BB96" s="171"/>
-      <c r="BC96" s="171"/>
-      <c r="BD96" s="171"/>
-      <c r="BE96" s="171"/>
-      <c r="BF96" s="171"/>
-      <c r="BG96" s="171"/>
-      <c r="BH96" s="171"/>
-      <c r="BI96" s="171"/>
-      <c r="BJ96" s="171"/>
-      <c r="BK96" s="171"/>
-      <c r="BL96" s="171"/>
-      <c r="BM96" s="171"/>
-      <c r="BN96" s="171"/>
-      <c r="BO96" s="171"/>
-      <c r="BP96" s="171"/>
-      <c r="BQ96" s="171"/>
-      <c r="BR96" s="172"/>
+      <c r="C96" s="180"/>
+      <c r="D96" s="180"/>
+      <c r="E96" s="180"/>
+      <c r="F96" s="180"/>
+      <c r="G96" s="180"/>
+      <c r="H96" s="180"/>
+      <c r="I96" s="180"/>
+      <c r="J96" s="180"/>
+      <c r="K96" s="180"/>
+      <c r="L96" s="180"/>
+      <c r="M96" s="180"/>
+      <c r="N96" s="180"/>
+      <c r="O96" s="180"/>
+      <c r="P96" s="180"/>
+      <c r="Q96" s="180"/>
+      <c r="R96" s="180"/>
+      <c r="S96" s="180"/>
+      <c r="T96" s="180"/>
+      <c r="U96" s="180"/>
+      <c r="V96" s="180"/>
+      <c r="W96" s="180"/>
+      <c r="X96" s="180"/>
+      <c r="Y96" s="180"/>
+      <c r="Z96" s="180"/>
+      <c r="AA96" s="180"/>
+      <c r="AB96" s="180"/>
+      <c r="AC96" s="180"/>
+      <c r="AD96" s="180"/>
+      <c r="AE96" s="180"/>
+      <c r="AF96" s="180"/>
+      <c r="AG96" s="180"/>
+      <c r="AH96" s="180"/>
+      <c r="AI96" s="180"/>
+      <c r="AJ96" s="180"/>
+      <c r="AK96" s="180"/>
+      <c r="AL96" s="180"/>
+      <c r="AM96" s="180"/>
+      <c r="AN96" s="180"/>
+      <c r="AO96" s="180"/>
+      <c r="AP96" s="180"/>
+      <c r="AQ96" s="180"/>
+      <c r="AR96" s="180"/>
+      <c r="AS96" s="180"/>
+      <c r="AT96" s="180"/>
+      <c r="AU96" s="180"/>
+      <c r="AV96" s="180"/>
+      <c r="AW96" s="180"/>
+      <c r="AX96" s="180"/>
+      <c r="AY96" s="180"/>
+      <c r="AZ96" s="180"/>
+      <c r="BA96" s="180"/>
+      <c r="BB96" s="180"/>
+      <c r="BC96" s="180"/>
+      <c r="BD96" s="180"/>
+      <c r="BE96" s="180"/>
+      <c r="BF96" s="180"/>
+      <c r="BG96" s="180"/>
+      <c r="BH96" s="180"/>
+      <c r="BI96" s="180"/>
+      <c r="BJ96" s="180"/>
+      <c r="BK96" s="180"/>
+      <c r="BL96" s="180"/>
+      <c r="BM96" s="180"/>
+      <c r="BN96" s="180"/>
+      <c r="BO96" s="180"/>
+      <c r="BP96" s="180"/>
+      <c r="BQ96" s="180"/>
+      <c r="BR96" s="181"/>
     </row>
     <row r="97" spans="1:70" s="55" customFormat="1">
       <c r="A97" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.2</v>
       </c>
-      <c r="B97" s="173" t="s">
+      <c r="B97" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="173"/>
-      <c r="D97" s="173"/>
-      <c r="E97" s="173"/>
-      <c r="F97" s="173"/>
-      <c r="G97" s="173"/>
-      <c r="H97" s="173"/>
-      <c r="I97" s="173"/>
-      <c r="J97" s="173"/>
-      <c r="K97" s="173"/>
-      <c r="L97" s="173"/>
-      <c r="M97" s="173"/>
-      <c r="N97" s="173"/>
-      <c r="O97" s="173"/>
-      <c r="P97" s="173"/>
-      <c r="Q97" s="173"/>
-      <c r="R97" s="173"/>
-      <c r="S97" s="173"/>
-      <c r="T97" s="173"/>
-      <c r="U97" s="173"/>
-      <c r="V97" s="173"/>
-      <c r="W97" s="173"/>
-      <c r="X97" s="173"/>
-      <c r="Y97" s="173"/>
-      <c r="Z97" s="173"/>
-      <c r="AA97" s="173"/>
-      <c r="AB97" s="173"/>
-      <c r="AC97" s="173"/>
-      <c r="AD97" s="173"/>
-      <c r="AE97" s="173"/>
-      <c r="AF97" s="173"/>
-      <c r="AG97" s="173"/>
-      <c r="AH97" s="173"/>
-      <c r="AI97" s="173"/>
-      <c r="AJ97" s="173"/>
-      <c r="AK97" s="173"/>
-      <c r="AL97" s="173"/>
-      <c r="AM97" s="173"/>
-      <c r="AN97" s="173"/>
-      <c r="AO97" s="173"/>
-      <c r="AP97" s="173"/>
-      <c r="AQ97" s="173"/>
-      <c r="AR97" s="173"/>
-      <c r="AS97" s="173"/>
-      <c r="AT97" s="173"/>
-      <c r="AU97" s="173"/>
-      <c r="AV97" s="173"/>
-      <c r="AW97" s="173"/>
-      <c r="AX97" s="173"/>
-      <c r="AY97" s="173"/>
-      <c r="AZ97" s="173"/>
-      <c r="BA97" s="173"/>
-      <c r="BB97" s="173"/>
-      <c r="BC97" s="173"/>
-      <c r="BD97" s="173"/>
-      <c r="BE97" s="173"/>
-      <c r="BF97" s="173"/>
-      <c r="BG97" s="173"/>
-      <c r="BH97" s="173"/>
-      <c r="BI97" s="173"/>
-      <c r="BJ97" s="173"/>
-      <c r="BK97" s="173"/>
-      <c r="BL97" s="173"/>
-      <c r="BM97" s="173"/>
-      <c r="BN97" s="173"/>
-      <c r="BO97" s="173"/>
-      <c r="BP97" s="173"/>
-      <c r="BQ97" s="173"/>
-      <c r="BR97" s="174"/>
+      <c r="C97" s="182"/>
+      <c r="D97" s="182"/>
+      <c r="E97" s="182"/>
+      <c r="F97" s="182"/>
+      <c r="G97" s="182"/>
+      <c r="H97" s="182"/>
+      <c r="I97" s="182"/>
+      <c r="J97" s="182"/>
+      <c r="K97" s="182"/>
+      <c r="L97" s="182"/>
+      <c r="M97" s="182"/>
+      <c r="N97" s="182"/>
+      <c r="O97" s="182"/>
+      <c r="P97" s="182"/>
+      <c r="Q97" s="182"/>
+      <c r="R97" s="182"/>
+      <c r="S97" s="182"/>
+      <c r="T97" s="182"/>
+      <c r="U97" s="182"/>
+      <c r="V97" s="182"/>
+      <c r="W97" s="182"/>
+      <c r="X97" s="182"/>
+      <c r="Y97" s="182"/>
+      <c r="Z97" s="182"/>
+      <c r="AA97" s="182"/>
+      <c r="AB97" s="182"/>
+      <c r="AC97" s="182"/>
+      <c r="AD97" s="182"/>
+      <c r="AE97" s="182"/>
+      <c r="AF97" s="182"/>
+      <c r="AG97" s="182"/>
+      <c r="AH97" s="182"/>
+      <c r="AI97" s="182"/>
+      <c r="AJ97" s="182"/>
+      <c r="AK97" s="182"/>
+      <c r="AL97" s="182"/>
+      <c r="AM97" s="182"/>
+      <c r="AN97" s="182"/>
+      <c r="AO97" s="182"/>
+      <c r="AP97" s="182"/>
+      <c r="AQ97" s="182"/>
+      <c r="AR97" s="182"/>
+      <c r="AS97" s="182"/>
+      <c r="AT97" s="182"/>
+      <c r="AU97" s="182"/>
+      <c r="AV97" s="182"/>
+      <c r="AW97" s="182"/>
+      <c r="AX97" s="182"/>
+      <c r="AY97" s="182"/>
+      <c r="AZ97" s="182"/>
+      <c r="BA97" s="182"/>
+      <c r="BB97" s="182"/>
+      <c r="BC97" s="182"/>
+      <c r="BD97" s="182"/>
+      <c r="BE97" s="182"/>
+      <c r="BF97" s="182"/>
+      <c r="BG97" s="182"/>
+      <c r="BH97" s="182"/>
+      <c r="BI97" s="182"/>
+      <c r="BJ97" s="182"/>
+      <c r="BK97" s="182"/>
+      <c r="BL97" s="182"/>
+      <c r="BM97" s="182"/>
+      <c r="BN97" s="182"/>
+      <c r="BO97" s="182"/>
+      <c r="BP97" s="182"/>
+      <c r="BQ97" s="182"/>
+      <c r="BR97" s="183"/>
     </row>
     <row r="98" spans="1:70" s="55" customFormat="1">
       <c r="A98" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.3</v>
       </c>
-      <c r="B98" s="173" t="s">
+      <c r="B98" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="C98" s="173"/>
-      <c r="D98" s="173"/>
-      <c r="E98" s="173"/>
-      <c r="F98" s="173"/>
-      <c r="G98" s="173"/>
-      <c r="H98" s="173"/>
-      <c r="I98" s="173"/>
-      <c r="J98" s="173"/>
-      <c r="K98" s="173"/>
-      <c r="L98" s="173"/>
-      <c r="M98" s="173"/>
-      <c r="N98" s="173"/>
-      <c r="O98" s="173"/>
-      <c r="P98" s="173"/>
-      <c r="Q98" s="173"/>
-      <c r="R98" s="173"/>
-      <c r="S98" s="173"/>
-      <c r="T98" s="173"/>
-      <c r="U98" s="173"/>
-      <c r="V98" s="173"/>
-      <c r="W98" s="173"/>
-      <c r="X98" s="173"/>
-      <c r="Y98" s="173"/>
-      <c r="Z98" s="173"/>
-      <c r="AA98" s="173"/>
-      <c r="AB98" s="173"/>
-      <c r="AC98" s="173"/>
-      <c r="AD98" s="173"/>
-      <c r="AE98" s="173"/>
-      <c r="AF98" s="173"/>
-      <c r="AG98" s="173"/>
-      <c r="AH98" s="173"/>
-      <c r="AI98" s="173"/>
-      <c r="AJ98" s="173"/>
-      <c r="AK98" s="173"/>
-      <c r="AL98" s="173"/>
-      <c r="AM98" s="173"/>
-      <c r="AN98" s="173"/>
-      <c r="AO98" s="173"/>
-      <c r="AP98" s="173"/>
-      <c r="AQ98" s="173"/>
-      <c r="AR98" s="173"/>
-      <c r="AS98" s="173"/>
-      <c r="AT98" s="173"/>
-      <c r="AU98" s="173"/>
-      <c r="AV98" s="173"/>
-      <c r="AW98" s="173"/>
-      <c r="AX98" s="173"/>
-      <c r="AY98" s="173"/>
-      <c r="AZ98" s="173"/>
-      <c r="BA98" s="173"/>
-      <c r="BB98" s="173"/>
-      <c r="BC98" s="173"/>
-      <c r="BD98" s="173"/>
-      <c r="BE98" s="173"/>
-      <c r="BF98" s="173"/>
-      <c r="BG98" s="173"/>
-      <c r="BH98" s="173"/>
-      <c r="BI98" s="173"/>
-      <c r="BJ98" s="173"/>
-      <c r="BK98" s="173"/>
-      <c r="BL98" s="173"/>
-      <c r="BM98" s="173"/>
-      <c r="BN98" s="173"/>
-      <c r="BO98" s="173"/>
-      <c r="BP98" s="173"/>
-      <c r="BQ98" s="173"/>
-      <c r="BR98" s="174"/>
+      <c r="C98" s="182"/>
+      <c r="D98" s="182"/>
+      <c r="E98" s="182"/>
+      <c r="F98" s="182"/>
+      <c r="G98" s="182"/>
+      <c r="H98" s="182"/>
+      <c r="I98" s="182"/>
+      <c r="J98" s="182"/>
+      <c r="K98" s="182"/>
+      <c r="L98" s="182"/>
+      <c r="M98" s="182"/>
+      <c r="N98" s="182"/>
+      <c r="O98" s="182"/>
+      <c r="P98" s="182"/>
+      <c r="Q98" s="182"/>
+      <c r="R98" s="182"/>
+      <c r="S98" s="182"/>
+      <c r="T98" s="182"/>
+      <c r="U98" s="182"/>
+      <c r="V98" s="182"/>
+      <c r="W98" s="182"/>
+      <c r="X98" s="182"/>
+      <c r="Y98" s="182"/>
+      <c r="Z98" s="182"/>
+      <c r="AA98" s="182"/>
+      <c r="AB98" s="182"/>
+      <c r="AC98" s="182"/>
+      <c r="AD98" s="182"/>
+      <c r="AE98" s="182"/>
+      <c r="AF98" s="182"/>
+      <c r="AG98" s="182"/>
+      <c r="AH98" s="182"/>
+      <c r="AI98" s="182"/>
+      <c r="AJ98" s="182"/>
+      <c r="AK98" s="182"/>
+      <c r="AL98" s="182"/>
+      <c r="AM98" s="182"/>
+      <c r="AN98" s="182"/>
+      <c r="AO98" s="182"/>
+      <c r="AP98" s="182"/>
+      <c r="AQ98" s="182"/>
+      <c r="AR98" s="182"/>
+      <c r="AS98" s="182"/>
+      <c r="AT98" s="182"/>
+      <c r="AU98" s="182"/>
+      <c r="AV98" s="182"/>
+      <c r="AW98" s="182"/>
+      <c r="AX98" s="182"/>
+      <c r="AY98" s="182"/>
+      <c r="AZ98" s="182"/>
+      <c r="BA98" s="182"/>
+      <c r="BB98" s="182"/>
+      <c r="BC98" s="182"/>
+      <c r="BD98" s="182"/>
+      <c r="BE98" s="182"/>
+      <c r="BF98" s="182"/>
+      <c r="BG98" s="182"/>
+      <c r="BH98" s="182"/>
+      <c r="BI98" s="182"/>
+      <c r="BJ98" s="182"/>
+      <c r="BK98" s="182"/>
+      <c r="BL98" s="182"/>
+      <c r="BM98" s="182"/>
+      <c r="BN98" s="182"/>
+      <c r="BO98" s="182"/>
+      <c r="BP98" s="182"/>
+      <c r="BQ98" s="182"/>
+      <c r="BR98" s="183"/>
     </row>
     <row r="99" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A99" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.4</v>
       </c>
-      <c r="B99" s="175" t="s">
+      <c r="B99" s="186" t="s">
         <v>73</v>
       </c>
-      <c r="C99" s="175"/>
-      <c r="D99" s="175"/>
-      <c r="E99" s="175"/>
-      <c r="F99" s="175"/>
-      <c r="G99" s="175"/>
-      <c r="H99" s="175"/>
-      <c r="I99" s="175"/>
-      <c r="J99" s="175"/>
-      <c r="K99" s="175"/>
-      <c r="L99" s="175"/>
-      <c r="M99" s="175"/>
-      <c r="N99" s="175"/>
-      <c r="O99" s="175"/>
-      <c r="P99" s="175"/>
-      <c r="Q99" s="175"/>
-      <c r="R99" s="175"/>
-      <c r="S99" s="175"/>
-      <c r="T99" s="175"/>
-      <c r="U99" s="175"/>
-      <c r="V99" s="175"/>
-      <c r="W99" s="175"/>
-      <c r="X99" s="175"/>
-      <c r="Y99" s="175"/>
-      <c r="Z99" s="175"/>
-      <c r="AA99" s="175"/>
-      <c r="AB99" s="175"/>
-      <c r="AC99" s="175"/>
-      <c r="AD99" s="175"/>
-      <c r="AE99" s="175"/>
-      <c r="AF99" s="175"/>
-      <c r="AG99" s="175"/>
-      <c r="AH99" s="175"/>
-      <c r="AI99" s="175"/>
-      <c r="AJ99" s="175"/>
-      <c r="AK99" s="175"/>
-      <c r="AL99" s="175"/>
-      <c r="AM99" s="175"/>
-      <c r="AN99" s="175"/>
-      <c r="AO99" s="175"/>
-      <c r="AP99" s="175"/>
-      <c r="AQ99" s="175"/>
-      <c r="AR99" s="175"/>
-      <c r="AS99" s="175"/>
-      <c r="AT99" s="175"/>
-      <c r="AU99" s="175"/>
-      <c r="AV99" s="175"/>
-      <c r="AW99" s="175"/>
-      <c r="AX99" s="175"/>
-      <c r="AY99" s="175"/>
-      <c r="AZ99" s="175"/>
-      <c r="BA99" s="175"/>
-      <c r="BB99" s="175"/>
-      <c r="BC99" s="175"/>
-      <c r="BD99" s="175"/>
-      <c r="BE99" s="175"/>
-      <c r="BF99" s="175"/>
-      <c r="BG99" s="175"/>
-      <c r="BH99" s="175"/>
-      <c r="BI99" s="175"/>
-      <c r="BJ99" s="175"/>
-      <c r="BK99" s="175"/>
-      <c r="BL99" s="175"/>
-      <c r="BM99" s="175"/>
-      <c r="BN99" s="175"/>
-      <c r="BO99" s="175"/>
-      <c r="BP99" s="175"/>
-      <c r="BQ99" s="175"/>
-      <c r="BR99" s="176"/>
+      <c r="C99" s="186"/>
+      <c r="D99" s="186"/>
+      <c r="E99" s="186"/>
+      <c r="F99" s="186"/>
+      <c r="G99" s="186"/>
+      <c r="H99" s="186"/>
+      <c r="I99" s="186"/>
+      <c r="J99" s="186"/>
+      <c r="K99" s="186"/>
+      <c r="L99" s="186"/>
+      <c r="M99" s="186"/>
+      <c r="N99" s="186"/>
+      <c r="O99" s="186"/>
+      <c r="P99" s="186"/>
+      <c r="Q99" s="186"/>
+      <c r="R99" s="186"/>
+      <c r="S99" s="186"/>
+      <c r="T99" s="186"/>
+      <c r="U99" s="186"/>
+      <c r="V99" s="186"/>
+      <c r="W99" s="186"/>
+      <c r="X99" s="186"/>
+      <c r="Y99" s="186"/>
+      <c r="Z99" s="186"/>
+      <c r="AA99" s="186"/>
+      <c r="AB99" s="186"/>
+      <c r="AC99" s="186"/>
+      <c r="AD99" s="186"/>
+      <c r="AE99" s="186"/>
+      <c r="AF99" s="186"/>
+      <c r="AG99" s="186"/>
+      <c r="AH99" s="186"/>
+      <c r="AI99" s="186"/>
+      <c r="AJ99" s="186"/>
+      <c r="AK99" s="186"/>
+      <c r="AL99" s="186"/>
+      <c r="AM99" s="186"/>
+      <c r="AN99" s="186"/>
+      <c r="AO99" s="186"/>
+      <c r="AP99" s="186"/>
+      <c r="AQ99" s="186"/>
+      <c r="AR99" s="186"/>
+      <c r="AS99" s="186"/>
+      <c r="AT99" s="186"/>
+      <c r="AU99" s="186"/>
+      <c r="AV99" s="186"/>
+      <c r="AW99" s="186"/>
+      <c r="AX99" s="186"/>
+      <c r="AY99" s="186"/>
+      <c r="AZ99" s="186"/>
+      <c r="BA99" s="186"/>
+      <c r="BB99" s="186"/>
+      <c r="BC99" s="186"/>
+      <c r="BD99" s="186"/>
+      <c r="BE99" s="186"/>
+      <c r="BF99" s="186"/>
+      <c r="BG99" s="186"/>
+      <c r="BH99" s="186"/>
+      <c r="BI99" s="186"/>
+      <c r="BJ99" s="186"/>
+      <c r="BK99" s="186"/>
+      <c r="BL99" s="186"/>
+      <c r="BM99" s="186"/>
+      <c r="BN99" s="186"/>
+      <c r="BO99" s="186"/>
+      <c r="BP99" s="186"/>
+      <c r="BQ99" s="186"/>
+      <c r="BR99" s="187"/>
     </row>
     <row r="100" spans="1:70" ht="17.25" thickBot="1">
       <c r="A100" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>7</v>
       </c>
-      <c r="B100" s="169" t="s">
+      <c r="B100" s="184" t="s">
         <v>74</v>
       </c>
-      <c r="C100" s="169"/>
-      <c r="D100" s="169"/>
-      <c r="E100" s="169"/>
-      <c r="F100" s="169"/>
-      <c r="G100" s="169"/>
-      <c r="H100" s="169"/>
-      <c r="I100" s="169"/>
-      <c r="J100" s="169"/>
-      <c r="K100" s="169"/>
-      <c r="L100" s="169"/>
-      <c r="M100" s="169"/>
-      <c r="N100" s="169"/>
-      <c r="O100" s="169"/>
-      <c r="P100" s="169"/>
-      <c r="Q100" s="169"/>
-      <c r="R100" s="169"/>
-      <c r="S100" s="169"/>
-      <c r="T100" s="169"/>
-      <c r="U100" s="169"/>
-      <c r="V100" s="169"/>
-      <c r="W100" s="169"/>
-      <c r="X100" s="169"/>
-      <c r="Y100" s="169"/>
-      <c r="Z100" s="169"/>
-      <c r="AA100" s="169"/>
-      <c r="AB100" s="169"/>
-      <c r="AC100" s="169"/>
-      <c r="AD100" s="169"/>
-      <c r="AE100" s="169"/>
-      <c r="AF100" s="169"/>
-      <c r="AG100" s="169"/>
-      <c r="AH100" s="169"/>
-      <c r="AI100" s="169"/>
-      <c r="AJ100" s="169"/>
-      <c r="AK100" s="169"/>
-      <c r="AL100" s="169"/>
-      <c r="AM100" s="169"/>
-      <c r="AN100" s="169"/>
-      <c r="AO100" s="169"/>
-      <c r="AP100" s="169"/>
-      <c r="AQ100" s="169"/>
-      <c r="AR100" s="169"/>
-      <c r="AS100" s="169"/>
-      <c r="AT100" s="169"/>
-      <c r="AU100" s="169"/>
-      <c r="AV100" s="169"/>
-      <c r="AW100" s="169"/>
-      <c r="AX100" s="169"/>
-      <c r="AY100" s="169"/>
-      <c r="AZ100" s="169"/>
-      <c r="BA100" s="169"/>
-      <c r="BB100" s="169"/>
-      <c r="BC100" s="169"/>
-      <c r="BD100" s="169"/>
-      <c r="BE100" s="169"/>
-      <c r="BF100" s="169"/>
-      <c r="BG100" s="169"/>
-      <c r="BH100" s="169"/>
-      <c r="BI100" s="169"/>
-      <c r="BJ100" s="169"/>
-      <c r="BK100" s="169"/>
-      <c r="BL100" s="169"/>
-      <c r="BM100" s="169"/>
-      <c r="BN100" s="169"/>
-      <c r="BO100" s="169"/>
-      <c r="BP100" s="169"/>
-      <c r="BQ100" s="169"/>
-      <c r="BR100" s="170"/>
+      <c r="C100" s="184"/>
+      <c r="D100" s="184"/>
+      <c r="E100" s="184"/>
+      <c r="F100" s="184"/>
+      <c r="G100" s="184"/>
+      <c r="H100" s="184"/>
+      <c r="I100" s="184"/>
+      <c r="J100" s="184"/>
+      <c r="K100" s="184"/>
+      <c r="L100" s="184"/>
+      <c r="M100" s="184"/>
+      <c r="N100" s="184"/>
+      <c r="O100" s="184"/>
+      <c r="P100" s="184"/>
+      <c r="Q100" s="184"/>
+      <c r="R100" s="184"/>
+      <c r="S100" s="184"/>
+      <c r="T100" s="184"/>
+      <c r="U100" s="184"/>
+      <c r="V100" s="184"/>
+      <c r="W100" s="184"/>
+      <c r="X100" s="184"/>
+      <c r="Y100" s="184"/>
+      <c r="Z100" s="184"/>
+      <c r="AA100" s="184"/>
+      <c r="AB100" s="184"/>
+      <c r="AC100" s="184"/>
+      <c r="AD100" s="184"/>
+      <c r="AE100" s="184"/>
+      <c r="AF100" s="184"/>
+      <c r="AG100" s="184"/>
+      <c r="AH100" s="184"/>
+      <c r="AI100" s="184"/>
+      <c r="AJ100" s="184"/>
+      <c r="AK100" s="184"/>
+      <c r="AL100" s="184"/>
+      <c r="AM100" s="184"/>
+      <c r="AN100" s="184"/>
+      <c r="AO100" s="184"/>
+      <c r="AP100" s="184"/>
+      <c r="AQ100" s="184"/>
+      <c r="AR100" s="184"/>
+      <c r="AS100" s="184"/>
+      <c r="AT100" s="184"/>
+      <c r="AU100" s="184"/>
+      <c r="AV100" s="184"/>
+      <c r="AW100" s="184"/>
+      <c r="AX100" s="184"/>
+      <c r="AY100" s="184"/>
+      <c r="AZ100" s="184"/>
+      <c r="BA100" s="184"/>
+      <c r="BB100" s="184"/>
+      <c r="BC100" s="184"/>
+      <c r="BD100" s="184"/>
+      <c r="BE100" s="184"/>
+      <c r="BF100" s="184"/>
+      <c r="BG100" s="184"/>
+      <c r="BH100" s="184"/>
+      <c r="BI100" s="184"/>
+      <c r="BJ100" s="184"/>
+      <c r="BK100" s="184"/>
+      <c r="BL100" s="184"/>
+      <c r="BM100" s="184"/>
+      <c r="BN100" s="184"/>
+      <c r="BO100" s="184"/>
+      <c r="BP100" s="184"/>
+      <c r="BQ100" s="184"/>
+      <c r="BR100" s="185"/>
     </row>
     <row r="101" spans="1:70" s="55" customFormat="1">
       <c r="A101" s="57" t="str">
         <f t="shared" ref="A101:A106" si="66">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>7.1</v>
       </c>
-      <c r="B101" s="171" t="s">
+      <c r="B101" s="180" t="s">
         <v>75</v>
       </c>
-      <c r="C101" s="171"/>
-      <c r="D101" s="171"/>
-      <c r="E101" s="171"/>
-      <c r="F101" s="171"/>
-      <c r="G101" s="171"/>
-      <c r="H101" s="171"/>
-      <c r="I101" s="171"/>
-      <c r="J101" s="171"/>
-      <c r="K101" s="171"/>
-      <c r="L101" s="171"/>
-      <c r="M101" s="171"/>
-      <c r="N101" s="171"/>
-      <c r="O101" s="171"/>
-      <c r="P101" s="171"/>
-      <c r="Q101" s="171"/>
-      <c r="R101" s="171"/>
-      <c r="S101" s="171"/>
-      <c r="T101" s="171"/>
-      <c r="U101" s="171"/>
-      <c r="V101" s="171"/>
-      <c r="W101" s="171"/>
-      <c r="X101" s="171"/>
-      <c r="Y101" s="171"/>
-      <c r="Z101" s="171"/>
-      <c r="AA101" s="171"/>
-      <c r="AB101" s="171"/>
-      <c r="AC101" s="171"/>
-      <c r="AD101" s="171"/>
-      <c r="AE101" s="171"/>
-      <c r="AF101" s="171"/>
-      <c r="AG101" s="171"/>
-      <c r="AH101" s="171"/>
-      <c r="AI101" s="171"/>
-      <c r="AJ101" s="171"/>
-      <c r="AK101" s="171"/>
-      <c r="AL101" s="171"/>
-      <c r="AM101" s="171"/>
-      <c r="AN101" s="171"/>
-      <c r="AO101" s="171"/>
-      <c r="AP101" s="171"/>
-      <c r="AQ101" s="171"/>
-      <c r="AR101" s="171"/>
-      <c r="AS101" s="171"/>
-      <c r="AT101" s="171"/>
-      <c r="AU101" s="171"/>
-      <c r="AV101" s="171"/>
-      <c r="AW101" s="171"/>
-      <c r="AX101" s="171"/>
-      <c r="AY101" s="171"/>
-      <c r="AZ101" s="171"/>
-      <c r="BA101" s="171"/>
-      <c r="BB101" s="171"/>
-      <c r="BC101" s="171"/>
-      <c r="BD101" s="171"/>
-      <c r="BE101" s="171"/>
-      <c r="BF101" s="171"/>
-      <c r="BG101" s="171"/>
-      <c r="BH101" s="171"/>
-      <c r="BI101" s="171"/>
-      <c r="BJ101" s="171"/>
-      <c r="BK101" s="171"/>
-      <c r="BL101" s="171"/>
-      <c r="BM101" s="171"/>
-      <c r="BN101" s="171"/>
-      <c r="BO101" s="171"/>
-      <c r="BP101" s="171"/>
-      <c r="BQ101" s="171"/>
-      <c r="BR101" s="172"/>
+      <c r="C101" s="180"/>
+      <c r="D101" s="180"/>
+      <c r="E101" s="180"/>
+      <c r="F101" s="180"/>
+      <c r="G101" s="180"/>
+      <c r="H101" s="180"/>
+      <c r="I101" s="180"/>
+      <c r="J101" s="180"/>
+      <c r="K101" s="180"/>
+      <c r="L101" s="180"/>
+      <c r="M101" s="180"/>
+      <c r="N101" s="180"/>
+      <c r="O101" s="180"/>
+      <c r="P101" s="180"/>
+      <c r="Q101" s="180"/>
+      <c r="R101" s="180"/>
+      <c r="S101" s="180"/>
+      <c r="T101" s="180"/>
+      <c r="U101" s="180"/>
+      <c r="V101" s="180"/>
+      <c r="W101" s="180"/>
+      <c r="X101" s="180"/>
+      <c r="Y101" s="180"/>
+      <c r="Z101" s="180"/>
+      <c r="AA101" s="180"/>
+      <c r="AB101" s="180"/>
+      <c r="AC101" s="180"/>
+      <c r="AD101" s="180"/>
+      <c r="AE101" s="180"/>
+      <c r="AF101" s="180"/>
+      <c r="AG101" s="180"/>
+      <c r="AH101" s="180"/>
+      <c r="AI101" s="180"/>
+      <c r="AJ101" s="180"/>
+      <c r="AK101" s="180"/>
+      <c r="AL101" s="180"/>
+      <c r="AM101" s="180"/>
+      <c r="AN101" s="180"/>
+      <c r="AO101" s="180"/>
+      <c r="AP101" s="180"/>
+      <c r="AQ101" s="180"/>
+      <c r="AR101" s="180"/>
+      <c r="AS101" s="180"/>
+      <c r="AT101" s="180"/>
+      <c r="AU101" s="180"/>
+      <c r="AV101" s="180"/>
+      <c r="AW101" s="180"/>
+      <c r="AX101" s="180"/>
+      <c r="AY101" s="180"/>
+      <c r="AZ101" s="180"/>
+      <c r="BA101" s="180"/>
+      <c r="BB101" s="180"/>
+      <c r="BC101" s="180"/>
+      <c r="BD101" s="180"/>
+      <c r="BE101" s="180"/>
+      <c r="BF101" s="180"/>
+      <c r="BG101" s="180"/>
+      <c r="BH101" s="180"/>
+      <c r="BI101" s="180"/>
+      <c r="BJ101" s="180"/>
+      <c r="BK101" s="180"/>
+      <c r="BL101" s="180"/>
+      <c r="BM101" s="180"/>
+      <c r="BN101" s="180"/>
+      <c r="BO101" s="180"/>
+      <c r="BP101" s="180"/>
+      <c r="BQ101" s="180"/>
+      <c r="BR101" s="181"/>
     </row>
     <row r="102" spans="1:70" s="55" customFormat="1">
       <c r="A102" s="58" t="str">
         <f t="shared" si="66"/>
         <v>7.2</v>
       </c>
-      <c r="B102" s="173" t="s">
+      <c r="B102" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="C102" s="173"/>
-      <c r="D102" s="173"/>
-      <c r="E102" s="173"/>
-      <c r="F102" s="173"/>
-      <c r="G102" s="173"/>
-      <c r="H102" s="173"/>
-      <c r="I102" s="173"/>
-      <c r="J102" s="173"/>
-      <c r="K102" s="173"/>
-      <c r="L102" s="173"/>
-      <c r="M102" s="173"/>
-      <c r="N102" s="173"/>
-      <c r="O102" s="173"/>
-      <c r="P102" s="173"/>
-      <c r="Q102" s="173"/>
-      <c r="R102" s="173"/>
-      <c r="S102" s="173"/>
-      <c r="T102" s="173"/>
-      <c r="U102" s="173"/>
-      <c r="V102" s="173"/>
-      <c r="W102" s="173"/>
-      <c r="X102" s="173"/>
-      <c r="Y102" s="173"/>
-      <c r="Z102" s="173"/>
-      <c r="AA102" s="173"/>
-      <c r="AB102" s="173"/>
-      <c r="AC102" s="173"/>
-      <c r="AD102" s="173"/>
-      <c r="AE102" s="173"/>
-      <c r="AF102" s="173"/>
-      <c r="AG102" s="173"/>
-      <c r="AH102" s="173"/>
-      <c r="AI102" s="173"/>
-      <c r="AJ102" s="173"/>
-      <c r="AK102" s="173"/>
-      <c r="AL102" s="173"/>
-      <c r="AM102" s="173"/>
-      <c r="AN102" s="173"/>
-      <c r="AO102" s="173"/>
-      <c r="AP102" s="173"/>
-      <c r="AQ102" s="173"/>
-      <c r="AR102" s="173"/>
-      <c r="AS102" s="173"/>
-      <c r="AT102" s="173"/>
-      <c r="AU102" s="173"/>
-      <c r="AV102" s="173"/>
-      <c r="AW102" s="173"/>
-      <c r="AX102" s="173"/>
-      <c r="AY102" s="173"/>
-      <c r="AZ102" s="173"/>
-      <c r="BA102" s="173"/>
-      <c r="BB102" s="173"/>
-      <c r="BC102" s="173"/>
-      <c r="BD102" s="173"/>
-      <c r="BE102" s="173"/>
-      <c r="BF102" s="173"/>
-      <c r="BG102" s="173"/>
-      <c r="BH102" s="173"/>
-      <c r="BI102" s="173"/>
-      <c r="BJ102" s="173"/>
-      <c r="BK102" s="173"/>
-      <c r="BL102" s="173"/>
-      <c r="BM102" s="173"/>
-      <c r="BN102" s="173"/>
-      <c r="BO102" s="173"/>
-      <c r="BP102" s="173"/>
-      <c r="BQ102" s="173"/>
-      <c r="BR102" s="174"/>
+      <c r="C102" s="182"/>
+      <c r="D102" s="182"/>
+      <c r="E102" s="182"/>
+      <c r="F102" s="182"/>
+      <c r="G102" s="182"/>
+      <c r="H102" s="182"/>
+      <c r="I102" s="182"/>
+      <c r="J102" s="182"/>
+      <c r="K102" s="182"/>
+      <c r="L102" s="182"/>
+      <c r="M102" s="182"/>
+      <c r="N102" s="182"/>
+      <c r="O102" s="182"/>
+      <c r="P102" s="182"/>
+      <c r="Q102" s="182"/>
+      <c r="R102" s="182"/>
+      <c r="S102" s="182"/>
+      <c r="T102" s="182"/>
+      <c r="U102" s="182"/>
+      <c r="V102" s="182"/>
+      <c r="W102" s="182"/>
+      <c r="X102" s="182"/>
+      <c r="Y102" s="182"/>
+      <c r="Z102" s="182"/>
+      <c r="AA102" s="182"/>
+      <c r="AB102" s="182"/>
+      <c r="AC102" s="182"/>
+      <c r="AD102" s="182"/>
+      <c r="AE102" s="182"/>
+      <c r="AF102" s="182"/>
+      <c r="AG102" s="182"/>
+      <c r="AH102" s="182"/>
+      <c r="AI102" s="182"/>
+      <c r="AJ102" s="182"/>
+      <c r="AK102" s="182"/>
+      <c r="AL102" s="182"/>
+      <c r="AM102" s="182"/>
+      <c r="AN102" s="182"/>
+      <c r="AO102" s="182"/>
+      <c r="AP102" s="182"/>
+      <c r="AQ102" s="182"/>
+      <c r="AR102" s="182"/>
+      <c r="AS102" s="182"/>
+      <c r="AT102" s="182"/>
+      <c r="AU102" s="182"/>
+      <c r="AV102" s="182"/>
+      <c r="AW102" s="182"/>
+      <c r="AX102" s="182"/>
+      <c r="AY102" s="182"/>
+      <c r="AZ102" s="182"/>
+      <c r="BA102" s="182"/>
+      <c r="BB102" s="182"/>
+      <c r="BC102" s="182"/>
+      <c r="BD102" s="182"/>
+      <c r="BE102" s="182"/>
+      <c r="BF102" s="182"/>
+      <c r="BG102" s="182"/>
+      <c r="BH102" s="182"/>
+      <c r="BI102" s="182"/>
+      <c r="BJ102" s="182"/>
+      <c r="BK102" s="182"/>
+      <c r="BL102" s="182"/>
+      <c r="BM102" s="182"/>
+      <c r="BN102" s="182"/>
+      <c r="BO102" s="182"/>
+      <c r="BP102" s="182"/>
+      <c r="BQ102" s="182"/>
+      <c r="BR102" s="183"/>
     </row>
     <row r="103" spans="1:70" s="55" customFormat="1">
       <c r="A103" s="58" t="str">
         <f t="shared" si="66"/>
         <v>7.3</v>
       </c>
-      <c r="B103" s="173" t="s">
+      <c r="B103" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="C103" s="173"/>
-      <c r="D103" s="173"/>
-      <c r="E103" s="173"/>
-      <c r="F103" s="173"/>
-      <c r="G103" s="173"/>
-      <c r="H103" s="173"/>
-      <c r="I103" s="173"/>
-      <c r="J103" s="173"/>
-      <c r="K103" s="173"/>
-      <c r="L103" s="173"/>
-      <c r="M103" s="173"/>
-      <c r="N103" s="173"/>
-      <c r="O103" s="173"/>
-      <c r="P103" s="173"/>
-      <c r="Q103" s="173"/>
-      <c r="R103" s="173"/>
-      <c r="S103" s="173"/>
-      <c r="T103" s="173"/>
-      <c r="U103" s="173"/>
-      <c r="V103" s="173"/>
-      <c r="W103" s="173"/>
-      <c r="X103" s="173"/>
-      <c r="Y103" s="173"/>
-      <c r="Z103" s="173"/>
-      <c r="AA103" s="173"/>
-      <c r="AB103" s="173"/>
-      <c r="AC103" s="173"/>
-      <c r="AD103" s="173"/>
-      <c r="AE103" s="173"/>
-      <c r="AF103" s="173"/>
-      <c r="AG103" s="173"/>
-      <c r="AH103" s="173"/>
-      <c r="AI103" s="173"/>
-      <c r="AJ103" s="173"/>
-      <c r="AK103" s="173"/>
-      <c r="AL103" s="173"/>
-      <c r="AM103" s="173"/>
-      <c r="AN103" s="173"/>
-      <c r="AO103" s="173"/>
-      <c r="AP103" s="173"/>
-      <c r="AQ103" s="173"/>
-      <c r="AR103" s="173"/>
-      <c r="AS103" s="173"/>
-      <c r="AT103" s="173"/>
-      <c r="AU103" s="173"/>
-      <c r="AV103" s="173"/>
-      <c r="AW103" s="173"/>
-      <c r="AX103" s="173"/>
-      <c r="AY103" s="173"/>
-      <c r="AZ103" s="173"/>
-      <c r="BA103" s="173"/>
-      <c r="BB103" s="173"/>
-      <c r="BC103" s="173"/>
-      <c r="BD103" s="173"/>
-      <c r="BE103" s="173"/>
-      <c r="BF103" s="173"/>
-      <c r="BG103" s="173"/>
-      <c r="BH103" s="173"/>
-      <c r="BI103" s="173"/>
-      <c r="BJ103" s="173"/>
-      <c r="BK103" s="173"/>
-      <c r="BL103" s="173"/>
-      <c r="BM103" s="173"/>
-      <c r="BN103" s="173"/>
-      <c r="BO103" s="173"/>
-      <c r="BP103" s="173"/>
-      <c r="BQ103" s="173"/>
-      <c r="BR103" s="174"/>
+      <c r="C103" s="182"/>
+      <c r="D103" s="182"/>
+      <c r="E103" s="182"/>
+      <c r="F103" s="182"/>
+      <c r="G103" s="182"/>
+      <c r="H103" s="182"/>
+      <c r="I103" s="182"/>
+      <c r="J103" s="182"/>
+      <c r="K103" s="182"/>
+      <c r="L103" s="182"/>
+      <c r="M103" s="182"/>
+      <c r="N103" s="182"/>
+      <c r="O103" s="182"/>
+      <c r="P103" s="182"/>
+      <c r="Q103" s="182"/>
+      <c r="R103" s="182"/>
+      <c r="S103" s="182"/>
+      <c r="T103" s="182"/>
+      <c r="U103" s="182"/>
+      <c r="V103" s="182"/>
+      <c r="W103" s="182"/>
+      <c r="X103" s="182"/>
+      <c r="Y103" s="182"/>
+      <c r="Z103" s="182"/>
+      <c r="AA103" s="182"/>
+      <c r="AB103" s="182"/>
+      <c r="AC103" s="182"/>
+      <c r="AD103" s="182"/>
+      <c r="AE103" s="182"/>
+      <c r="AF103" s="182"/>
+      <c r="AG103" s="182"/>
+      <c r="AH103" s="182"/>
+      <c r="AI103" s="182"/>
+      <c r="AJ103" s="182"/>
+      <c r="AK103" s="182"/>
+      <c r="AL103" s="182"/>
+      <c r="AM103" s="182"/>
+      <c r="AN103" s="182"/>
+      <c r="AO103" s="182"/>
+      <c r="AP103" s="182"/>
+      <c r="AQ103" s="182"/>
+      <c r="AR103" s="182"/>
+      <c r="AS103" s="182"/>
+      <c r="AT103" s="182"/>
+      <c r="AU103" s="182"/>
+      <c r="AV103" s="182"/>
+      <c r="AW103" s="182"/>
+      <c r="AX103" s="182"/>
+      <c r="AY103" s="182"/>
+      <c r="AZ103" s="182"/>
+      <c r="BA103" s="182"/>
+      <c r="BB103" s="182"/>
+      <c r="BC103" s="182"/>
+      <c r="BD103" s="182"/>
+      <c r="BE103" s="182"/>
+      <c r="BF103" s="182"/>
+      <c r="BG103" s="182"/>
+      <c r="BH103" s="182"/>
+      <c r="BI103" s="182"/>
+      <c r="BJ103" s="182"/>
+      <c r="BK103" s="182"/>
+      <c r="BL103" s="182"/>
+      <c r="BM103" s="182"/>
+      <c r="BN103" s="182"/>
+      <c r="BO103" s="182"/>
+      <c r="BP103" s="182"/>
+      <c r="BQ103" s="182"/>
+      <c r="BR103" s="183"/>
     </row>
     <row r="104" spans="1:70" s="55" customFormat="1">
       <c r="A104" s="65" t="str">
         <f t="shared" si="66"/>
         <v>7.4</v>
       </c>
-      <c r="B104" s="173" t="s">
+      <c r="B104" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="173"/>
-      <c r="D104" s="173"/>
-      <c r="E104" s="173"/>
-      <c r="F104" s="173"/>
-      <c r="G104" s="173"/>
-      <c r="H104" s="173"/>
-      <c r="I104" s="173"/>
-      <c r="J104" s="173"/>
-      <c r="K104" s="173"/>
-      <c r="L104" s="173"/>
-      <c r="M104" s="173"/>
-      <c r="N104" s="173"/>
-      <c r="O104" s="173"/>
-      <c r="P104" s="173"/>
-      <c r="Q104" s="173"/>
-      <c r="R104" s="173"/>
-      <c r="S104" s="173"/>
-      <c r="T104" s="173"/>
-      <c r="U104" s="173"/>
-      <c r="V104" s="173"/>
-      <c r="W104" s="173"/>
-      <c r="X104" s="173"/>
-      <c r="Y104" s="173"/>
-      <c r="Z104" s="173"/>
-      <c r="AA104" s="173"/>
-      <c r="AB104" s="173"/>
-      <c r="AC104" s="173"/>
-      <c r="AD104" s="173"/>
-      <c r="AE104" s="173"/>
-      <c r="AF104" s="173"/>
-      <c r="AG104" s="173"/>
-      <c r="AH104" s="173"/>
-      <c r="AI104" s="173"/>
-      <c r="AJ104" s="173"/>
-      <c r="AK104" s="173"/>
-      <c r="AL104" s="173"/>
-      <c r="AM104" s="173"/>
-      <c r="AN104" s="173"/>
-      <c r="AO104" s="173"/>
-      <c r="AP104" s="173"/>
-      <c r="AQ104" s="173"/>
-      <c r="AR104" s="173"/>
-      <c r="AS104" s="173"/>
-      <c r="AT104" s="173"/>
-      <c r="AU104" s="173"/>
-      <c r="AV104" s="173"/>
-      <c r="AW104" s="173"/>
-      <c r="AX104" s="173"/>
-      <c r="AY104" s="173"/>
-      <c r="AZ104" s="173"/>
-      <c r="BA104" s="173"/>
-      <c r="BB104" s="173"/>
-      <c r="BC104" s="173"/>
-      <c r="BD104" s="173"/>
-      <c r="BE104" s="173"/>
-      <c r="BF104" s="173"/>
-      <c r="BG104" s="173"/>
-      <c r="BH104" s="173"/>
-      <c r="BI104" s="173"/>
-      <c r="BJ104" s="173"/>
-      <c r="BK104" s="173"/>
-      <c r="BL104" s="173"/>
-      <c r="BM104" s="173"/>
-      <c r="BN104" s="173"/>
-      <c r="BO104" s="173"/>
-      <c r="BP104" s="173"/>
-      <c r="BQ104" s="173"/>
-      <c r="BR104" s="174"/>
+      <c r="C104" s="182"/>
+      <c r="D104" s="182"/>
+      <c r="E104" s="182"/>
+      <c r="F104" s="182"/>
+      <c r="G104" s="182"/>
+      <c r="H104" s="182"/>
+      <c r="I104" s="182"/>
+      <c r="J104" s="182"/>
+      <c r="K104" s="182"/>
+      <c r="L104" s="182"/>
+      <c r="M104" s="182"/>
+      <c r="N104" s="182"/>
+      <c r="O104" s="182"/>
+      <c r="P104" s="182"/>
+      <c r="Q104" s="182"/>
+      <c r="R104" s="182"/>
+      <c r="S104" s="182"/>
+      <c r="T104" s="182"/>
+      <c r="U104" s="182"/>
+      <c r="V104" s="182"/>
+      <c r="W104" s="182"/>
+      <c r="X104" s="182"/>
+      <c r="Y104" s="182"/>
+      <c r="Z104" s="182"/>
+      <c r="AA104" s="182"/>
+      <c r="AB104" s="182"/>
+      <c r="AC104" s="182"/>
+      <c r="AD104" s="182"/>
+      <c r="AE104" s="182"/>
+      <c r="AF104" s="182"/>
+      <c r="AG104" s="182"/>
+      <c r="AH104" s="182"/>
+      <c r="AI104" s="182"/>
+      <c r="AJ104" s="182"/>
+      <c r="AK104" s="182"/>
+      <c r="AL104" s="182"/>
+      <c r="AM104" s="182"/>
+      <c r="AN104" s="182"/>
+      <c r="AO104" s="182"/>
+      <c r="AP104" s="182"/>
+      <c r="AQ104" s="182"/>
+      <c r="AR104" s="182"/>
+      <c r="AS104" s="182"/>
+      <c r="AT104" s="182"/>
+      <c r="AU104" s="182"/>
+      <c r="AV104" s="182"/>
+      <c r="AW104" s="182"/>
+      <c r="AX104" s="182"/>
+      <c r="AY104" s="182"/>
+      <c r="AZ104" s="182"/>
+      <c r="BA104" s="182"/>
+      <c r="BB104" s="182"/>
+      <c r="BC104" s="182"/>
+      <c r="BD104" s="182"/>
+      <c r="BE104" s="182"/>
+      <c r="BF104" s="182"/>
+      <c r="BG104" s="182"/>
+      <c r="BH104" s="182"/>
+      <c r="BI104" s="182"/>
+      <c r="BJ104" s="182"/>
+      <c r="BK104" s="182"/>
+      <c r="BL104" s="182"/>
+      <c r="BM104" s="182"/>
+      <c r="BN104" s="182"/>
+      <c r="BO104" s="182"/>
+      <c r="BP104" s="182"/>
+      <c r="BQ104" s="182"/>
+      <c r="BR104" s="183"/>
     </row>
     <row r="105" spans="1:70" s="55" customFormat="1">
       <c r="A105" s="58" t="str">
         <f t="shared" si="66"/>
         <v>7.5</v>
       </c>
-      <c r="B105" s="173" t="s">
+      <c r="B105" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="C105" s="173"/>
-      <c r="D105" s="173"/>
-      <c r="E105" s="173"/>
-      <c r="F105" s="173"/>
-      <c r="G105" s="173"/>
-      <c r="H105" s="173"/>
-      <c r="I105" s="173"/>
-      <c r="J105" s="173"/>
-      <c r="K105" s="173"/>
-      <c r="L105" s="173"/>
-      <c r="M105" s="173"/>
-      <c r="N105" s="173"/>
-      <c r="O105" s="173"/>
-      <c r="P105" s="173"/>
-      <c r="Q105" s="173"/>
-      <c r="R105" s="173"/>
-      <c r="S105" s="173"/>
-      <c r="T105" s="173"/>
-      <c r="U105" s="173"/>
-      <c r="V105" s="173"/>
-      <c r="W105" s="173"/>
-      <c r="X105" s="173"/>
-      <c r="Y105" s="173"/>
-      <c r="Z105" s="173"/>
-      <c r="AA105" s="173"/>
-      <c r="AB105" s="173"/>
-      <c r="AC105" s="173"/>
-      <c r="AD105" s="173"/>
-      <c r="AE105" s="173"/>
-      <c r="AF105" s="173"/>
-      <c r="AG105" s="173"/>
-      <c r="AH105" s="173"/>
-      <c r="AI105" s="173"/>
-      <c r="AJ105" s="173"/>
-      <c r="AK105" s="173"/>
-      <c r="AL105" s="173"/>
-      <c r="AM105" s="173"/>
-      <c r="AN105" s="173"/>
-      <c r="AO105" s="173"/>
-      <c r="AP105" s="173"/>
-      <c r="AQ105" s="173"/>
-      <c r="AR105" s="173"/>
-      <c r="AS105" s="173"/>
-      <c r="AT105" s="173"/>
-      <c r="AU105" s="173"/>
-      <c r="AV105" s="173"/>
-      <c r="AW105" s="173"/>
-      <c r="AX105" s="173"/>
-      <c r="AY105" s="173"/>
-      <c r="AZ105" s="173"/>
-      <c r="BA105" s="173"/>
-      <c r="BB105" s="173"/>
-      <c r="BC105" s="173"/>
-      <c r="BD105" s="173"/>
-      <c r="BE105" s="173"/>
-      <c r="BF105" s="173"/>
-      <c r="BG105" s="173"/>
-      <c r="BH105" s="173"/>
-      <c r="BI105" s="173"/>
-      <c r="BJ105" s="173"/>
-      <c r="BK105" s="173"/>
-      <c r="BL105" s="173"/>
-      <c r="BM105" s="173"/>
-      <c r="BN105" s="173"/>
-      <c r="BO105" s="173"/>
-      <c r="BP105" s="173"/>
-      <c r="BQ105" s="173"/>
-      <c r="BR105" s="174"/>
+      <c r="C105" s="182"/>
+      <c r="D105" s="182"/>
+      <c r="E105" s="182"/>
+      <c r="F105" s="182"/>
+      <c r="G105" s="182"/>
+      <c r="H105" s="182"/>
+      <c r="I105" s="182"/>
+      <c r="J105" s="182"/>
+      <c r="K105" s="182"/>
+      <c r="L105" s="182"/>
+      <c r="M105" s="182"/>
+      <c r="N105" s="182"/>
+      <c r="O105" s="182"/>
+      <c r="P105" s="182"/>
+      <c r="Q105" s="182"/>
+      <c r="R105" s="182"/>
+      <c r="S105" s="182"/>
+      <c r="T105" s="182"/>
+      <c r="U105" s="182"/>
+      <c r="V105" s="182"/>
+      <c r="W105" s="182"/>
+      <c r="X105" s="182"/>
+      <c r="Y105" s="182"/>
+      <c r="Z105" s="182"/>
+      <c r="AA105" s="182"/>
+      <c r="AB105" s="182"/>
+      <c r="AC105" s="182"/>
+      <c r="AD105" s="182"/>
+      <c r="AE105" s="182"/>
+      <c r="AF105" s="182"/>
+      <c r="AG105" s="182"/>
+      <c r="AH105" s="182"/>
+      <c r="AI105" s="182"/>
+      <c r="AJ105" s="182"/>
+      <c r="AK105" s="182"/>
+      <c r="AL105" s="182"/>
+      <c r="AM105" s="182"/>
+      <c r="AN105" s="182"/>
+      <c r="AO105" s="182"/>
+      <c r="AP105" s="182"/>
+      <c r="AQ105" s="182"/>
+      <c r="AR105" s="182"/>
+      <c r="AS105" s="182"/>
+      <c r="AT105" s="182"/>
+      <c r="AU105" s="182"/>
+      <c r="AV105" s="182"/>
+      <c r="AW105" s="182"/>
+      <c r="AX105" s="182"/>
+      <c r="AY105" s="182"/>
+      <c r="AZ105" s="182"/>
+      <c r="BA105" s="182"/>
+      <c r="BB105" s="182"/>
+      <c r="BC105" s="182"/>
+      <c r="BD105" s="182"/>
+      <c r="BE105" s="182"/>
+      <c r="BF105" s="182"/>
+      <c r="BG105" s="182"/>
+      <c r="BH105" s="182"/>
+      <c r="BI105" s="182"/>
+      <c r="BJ105" s="182"/>
+      <c r="BK105" s="182"/>
+      <c r="BL105" s="182"/>
+      <c r="BM105" s="182"/>
+      <c r="BN105" s="182"/>
+      <c r="BO105" s="182"/>
+      <c r="BP105" s="182"/>
+      <c r="BQ105" s="182"/>
+      <c r="BR105" s="183"/>
     </row>
     <row r="106" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A106" s="59" t="str">
         <f t="shared" si="66"/>
         <v>7.6</v>
       </c>
-      <c r="B106" s="175" t="s">
+      <c r="B106" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="C106" s="175"/>
-      <c r="D106" s="175"/>
-      <c r="E106" s="175"/>
-      <c r="F106" s="175"/>
-      <c r="G106" s="175"/>
-      <c r="H106" s="175"/>
-      <c r="I106" s="175"/>
-      <c r="J106" s="175"/>
-      <c r="K106" s="175"/>
-      <c r="L106" s="175"/>
-      <c r="M106" s="175"/>
-      <c r="N106" s="175"/>
-      <c r="O106" s="175"/>
-      <c r="P106" s="175"/>
-      <c r="Q106" s="175"/>
-      <c r="R106" s="175"/>
-      <c r="S106" s="175"/>
-      <c r="T106" s="175"/>
-      <c r="U106" s="175"/>
-      <c r="V106" s="175"/>
-      <c r="W106" s="175"/>
-      <c r="X106" s="175"/>
-      <c r="Y106" s="175"/>
-      <c r="Z106" s="175"/>
-      <c r="AA106" s="175"/>
-      <c r="AB106" s="175"/>
-      <c r="AC106" s="175"/>
-      <c r="AD106" s="175"/>
-      <c r="AE106" s="175"/>
-      <c r="AF106" s="175"/>
-      <c r="AG106" s="175"/>
-      <c r="AH106" s="175"/>
-      <c r="AI106" s="175"/>
-      <c r="AJ106" s="175"/>
-      <c r="AK106" s="175"/>
-      <c r="AL106" s="175"/>
-      <c r="AM106" s="175"/>
-      <c r="AN106" s="175"/>
-      <c r="AO106" s="175"/>
-      <c r="AP106" s="175"/>
-      <c r="AQ106" s="175"/>
-      <c r="AR106" s="175"/>
-      <c r="AS106" s="175"/>
-      <c r="AT106" s="175"/>
-      <c r="AU106" s="175"/>
-      <c r="AV106" s="175"/>
-      <c r="AW106" s="175"/>
-      <c r="AX106" s="175"/>
-      <c r="AY106" s="175"/>
-      <c r="AZ106" s="175"/>
-      <c r="BA106" s="175"/>
-      <c r="BB106" s="175"/>
-      <c r="BC106" s="175"/>
-      <c r="BD106" s="175"/>
-      <c r="BE106" s="175"/>
-      <c r="BF106" s="175"/>
-      <c r="BG106" s="175"/>
-      <c r="BH106" s="175"/>
-      <c r="BI106" s="175"/>
-      <c r="BJ106" s="175"/>
-      <c r="BK106" s="175"/>
-      <c r="BL106" s="175"/>
-      <c r="BM106" s="175"/>
-      <c r="BN106" s="175"/>
-      <c r="BO106" s="175"/>
-      <c r="BP106" s="175"/>
-      <c r="BQ106" s="175"/>
-      <c r="BR106" s="176"/>
+      <c r="C106" s="186"/>
+      <c r="D106" s="186"/>
+      <c r="E106" s="186"/>
+      <c r="F106" s="186"/>
+      <c r="G106" s="186"/>
+      <c r="H106" s="186"/>
+      <c r="I106" s="186"/>
+      <c r="J106" s="186"/>
+      <c r="K106" s="186"/>
+      <c r="L106" s="186"/>
+      <c r="M106" s="186"/>
+      <c r="N106" s="186"/>
+      <c r="O106" s="186"/>
+      <c r="P106" s="186"/>
+      <c r="Q106" s="186"/>
+      <c r="R106" s="186"/>
+      <c r="S106" s="186"/>
+      <c r="T106" s="186"/>
+      <c r="U106" s="186"/>
+      <c r="V106" s="186"/>
+      <c r="W106" s="186"/>
+      <c r="X106" s="186"/>
+      <c r="Y106" s="186"/>
+      <c r="Z106" s="186"/>
+      <c r="AA106" s="186"/>
+      <c r="AB106" s="186"/>
+      <c r="AC106" s="186"/>
+      <c r="AD106" s="186"/>
+      <c r="AE106" s="186"/>
+      <c r="AF106" s="186"/>
+      <c r="AG106" s="186"/>
+      <c r="AH106" s="186"/>
+      <c r="AI106" s="186"/>
+      <c r="AJ106" s="186"/>
+      <c r="AK106" s="186"/>
+      <c r="AL106" s="186"/>
+      <c r="AM106" s="186"/>
+      <c r="AN106" s="186"/>
+      <c r="AO106" s="186"/>
+      <c r="AP106" s="186"/>
+      <c r="AQ106" s="186"/>
+      <c r="AR106" s="186"/>
+      <c r="AS106" s="186"/>
+      <c r="AT106" s="186"/>
+      <c r="AU106" s="186"/>
+      <c r="AV106" s="186"/>
+      <c r="AW106" s="186"/>
+      <c r="AX106" s="186"/>
+      <c r="AY106" s="186"/>
+      <c r="AZ106" s="186"/>
+      <c r="BA106" s="186"/>
+      <c r="BB106" s="186"/>
+      <c r="BC106" s="186"/>
+      <c r="BD106" s="186"/>
+      <c r="BE106" s="186"/>
+      <c r="BF106" s="186"/>
+      <c r="BG106" s="186"/>
+      <c r="BH106" s="186"/>
+      <c r="BI106" s="186"/>
+      <c r="BJ106" s="186"/>
+      <c r="BK106" s="186"/>
+      <c r="BL106" s="186"/>
+      <c r="BM106" s="186"/>
+      <c r="BN106" s="186"/>
+      <c r="BO106" s="186"/>
+      <c r="BP106" s="186"/>
+      <c r="BQ106" s="186"/>
+      <c r="BR106" s="187"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A11:M62"/>
   <mergeCells count="65">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="AC8:AI8"/>
-    <mergeCell ref="AJ8:AP8"/>
-    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B100:BR100"/>
+    <mergeCell ref="B101:BR101"/>
+    <mergeCell ref="B87:BR87"/>
+    <mergeCell ref="B88:BR88"/>
+    <mergeCell ref="B77:BR77"/>
+    <mergeCell ref="B76:BR76"/>
+    <mergeCell ref="B86:BR86"/>
+    <mergeCell ref="B85:BR85"/>
+    <mergeCell ref="B84:BR84"/>
+    <mergeCell ref="B83:BR83"/>
+    <mergeCell ref="B79:BR79"/>
+    <mergeCell ref="B80:BR80"/>
+    <mergeCell ref="B81:BR81"/>
+    <mergeCell ref="B82:BR82"/>
+    <mergeCell ref="B78:BR78"/>
+    <mergeCell ref="B105:BR105"/>
+    <mergeCell ref="B106:BR106"/>
+    <mergeCell ref="B89:BR89"/>
+    <mergeCell ref="B90:BR90"/>
+    <mergeCell ref="B93:BR93"/>
+    <mergeCell ref="B94:BR94"/>
+    <mergeCell ref="B95:BR95"/>
+    <mergeCell ref="B96:BR96"/>
+    <mergeCell ref="B92:BR92"/>
+    <mergeCell ref="B91:BR91"/>
+    <mergeCell ref="B97:BR97"/>
+    <mergeCell ref="B104:BR104"/>
+    <mergeCell ref="B103:BR103"/>
+    <mergeCell ref="B102:BR102"/>
+    <mergeCell ref="B98:BR98"/>
+    <mergeCell ref="B99:BR99"/>
+    <mergeCell ref="B75:BR75"/>
+    <mergeCell ref="B71:BR71"/>
+    <mergeCell ref="B70:BR70"/>
+    <mergeCell ref="B64:BR64"/>
+    <mergeCell ref="B65:BR65"/>
+    <mergeCell ref="B66:BR66"/>
+    <mergeCell ref="B67:BR67"/>
+    <mergeCell ref="B68:BR68"/>
+    <mergeCell ref="B69:BR69"/>
+    <mergeCell ref="B72:BR72"/>
+    <mergeCell ref="B73:BR73"/>
+    <mergeCell ref="B74:BR74"/>
     <mergeCell ref="A1:BR1"/>
     <mergeCell ref="A2:BR2"/>
     <mergeCell ref="A3:BR3"/>
@@ -13403,49 +13440,12 @@
     <mergeCell ref="AC9:AI9"/>
     <mergeCell ref="AJ9:AP9"/>
     <mergeCell ref="AQ9:AW9"/>
-    <mergeCell ref="B75:BR75"/>
-    <mergeCell ref="B71:BR71"/>
-    <mergeCell ref="B70:BR70"/>
-    <mergeCell ref="B64:BR64"/>
-    <mergeCell ref="B65:BR65"/>
-    <mergeCell ref="B66:BR66"/>
-    <mergeCell ref="B67:BR67"/>
-    <mergeCell ref="B68:BR68"/>
-    <mergeCell ref="B69:BR69"/>
-    <mergeCell ref="B72:BR72"/>
-    <mergeCell ref="B73:BR73"/>
-    <mergeCell ref="B74:BR74"/>
-    <mergeCell ref="B105:BR105"/>
-    <mergeCell ref="B106:BR106"/>
-    <mergeCell ref="B89:BR89"/>
-    <mergeCell ref="B90:BR90"/>
-    <mergeCell ref="B93:BR93"/>
-    <mergeCell ref="B94:BR94"/>
-    <mergeCell ref="B95:BR95"/>
-    <mergeCell ref="B96:BR96"/>
-    <mergeCell ref="B92:BR92"/>
-    <mergeCell ref="B91:BR91"/>
-    <mergeCell ref="B97:BR97"/>
-    <mergeCell ref="B104:BR104"/>
-    <mergeCell ref="B103:BR103"/>
-    <mergeCell ref="B102:BR102"/>
-    <mergeCell ref="B98:BR98"/>
-    <mergeCell ref="B99:BR99"/>
-    <mergeCell ref="B76:BR76"/>
-    <mergeCell ref="B86:BR86"/>
-    <mergeCell ref="B85:BR85"/>
-    <mergeCell ref="B84:BR84"/>
-    <mergeCell ref="B83:BR83"/>
-    <mergeCell ref="B79:BR79"/>
-    <mergeCell ref="B80:BR80"/>
-    <mergeCell ref="B81:BR81"/>
-    <mergeCell ref="B82:BR82"/>
-    <mergeCell ref="B78:BR78"/>
-    <mergeCell ref="B100:BR100"/>
-    <mergeCell ref="B101:BR101"/>
-    <mergeCell ref="B87:BR87"/>
-    <mergeCell ref="B88:BR88"/>
-    <mergeCell ref="B77:BR77"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="AC8:AI8"/>
+    <mergeCell ref="AJ8:AP8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="L12:L13 L37 L57 L27 L15:L16 L23:L24 L29:L32 L34 L46:L47 L49 L52:L54 L39">
     <cfRule type="dataBar" priority="182">
@@ -14606,59 +14606,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="177"/>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
+      <c r="A1" s="174"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
     </row>
     <row r="2" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
     </row>
     <row r="3" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="178"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
@@ -14706,59 +14706,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="177"/>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
+      <c r="A1" s="174"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
     </row>
     <row r="2" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
     </row>
     <row r="3" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="178"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
@@ -14806,59 +14806,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="177"/>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
+      <c r="A1" s="174"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
     </row>
     <row r="2" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
     </row>
     <row r="3" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="178"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
@@ -14906,59 +14906,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="177"/>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
+      <c r="A1" s="174"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
     </row>
     <row r="2" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
     </row>
     <row r="3" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="175" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="178"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>

--- a/docs/trim1/gestion_proyecto/3_cronograma_actividades.xlsx
+++ b/docs/trim1/gestion_proyecto/3_cronograma_actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="697" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="697"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Cronograma de Actividades'!$A$11:$M$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Cronograma de Actividades'!$A$1:$BR$106</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hoja de Control'!$B$2:$F$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hoja de Control'!$B$2:$F$36</definedName>
     <definedName name="prevWBS" localSheetId="1">'Cronograma de Actividades'!$A1048576</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Cronograma de Actividades'!$1:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="200">
   <si>
     <t>Cronograma de Actividades</t>
   </si>
@@ -646,15 +646,9 @@
     <t>0,1</t>
   </si>
   <si>
-    <t xml:space="preserve">Alan Prada </t>
-  </si>
-  <si>
     <t xml:space="preserve">26/02/2023 </t>
   </si>
   <si>
-    <t xml:space="preserve">Antio-Market </t>
-  </si>
-  <si>
     <t xml:space="preserve">Elian Ibarra </t>
   </si>
   <si>
@@ -662,6 +656,27 @@
   </si>
   <si>
     <t>Juan Rodríguez</t>
+  </si>
+  <si>
+    <t>Elián Ibarra</t>
+  </si>
+  <si>
+    <t>EDWIN ALBEIRO RAMOS VILLAMIL</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>18/02/23</t>
+  </si>
+  <si>
+    <t>06/03/23</t>
+  </si>
+  <si>
+    <t>AutOsiris</t>
+  </si>
+  <si>
+    <t>Servicio Nacional de Aprendizaje (SENA)</t>
   </si>
 </sst>
 </file>
@@ -909,7 +924,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="87">
+  <borders count="84">
     <border>
       <left/>
       <right/>
@@ -1054,21 +1069,6 @@
     </border>
     <border>
       <left style="double">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
@@ -1219,43 +1219,6 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="double">
         <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
@@ -1413,19 +1376,6 @@
         <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="double">
         <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -2071,6 +2021,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2083,7 +2055,7 @@
     </xf>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2117,14 +2089,26 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2141,22 +2125,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2180,32 +2152,32 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2222,11 +2194,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="45" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -2244,16 +2216,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -2272,45 +2244,75 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="4" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="4" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="4" borderId="57" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="28" fillId="4" borderId="52" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="4" borderId="57" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="28" fillId="4" borderId="52" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="4" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="28" fillId="4" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="4" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="28" fillId="4" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="68" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2318,189 +2320,180 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="5" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="6" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="6" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="5" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="6" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="6" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="6" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="6" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="72" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="29" fillId="5" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="6" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="6" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="81" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="29" fillId="5" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="6" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="70" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="6" borderId="70" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="6" borderId="70" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="70" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="71" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2510,106 +2503,82 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="71" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2"/>
@@ -3148,7 +3117,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3207,7 +3176,7 @@
         <xdr:cNvPr id="2" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3271,7 +3240,7 @@
                   <a14:compatExt spid="_x0000_s7169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000011C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000011C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3311,7 +3280,7 @@
         <xdr:cNvPr id="4" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3365,7 +3334,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3419,7 +3388,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3473,7 +3442,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3527,7 +3496,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3853,10 +3822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P82"/>
+  <dimension ref="A2:P79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:F36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -3878,120 +3847,132 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
     </row>
     <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickTop="1">
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.75" thickTop="1">
       <c r="B11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="148"/>
+      <c r="C11" s="155" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="157"/>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="149" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="151"/>
+      <c r="C12" s="136" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="149" t="s">
+      <c r="C13" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="150"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="151"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="159"/>
     </row>
     <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="164"/>
+      <c r="C14" s="136" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="137"/>
       <c r="E14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="27" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="19.899999999999999" customHeight="1">
       <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="153" t="s">
+      <c r="C15" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="154"/>
+      <c r="D15" s="162"/>
       <c r="E15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="27" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="16" spans="2:6" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="B16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="156"/>
+      <c r="C16" s="182" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="183"/>
       <c r="E16" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="17" spans="2:16" ht="17.25" thickTop="1">
       <c r="B17" s="4"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="184"/>
     </row>
     <row r="18" spans="2:16" ht="19.899999999999999" customHeight="1"/>
     <row r="19" spans="2:16" ht="19.899999999999999" customHeight="1">
@@ -4010,10 +3991,10 @@
       <c r="C21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="143"/>
+      <c r="E21" s="153"/>
       <c r="F21" s="17" t="s">
         <v>17</v>
       </c>
@@ -4025,68 +4006,68 @@
       <c r="C22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="144" t="s">
+      <c r="D22" s="154" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="154"/>
+      <c r="F22" s="20" t="s">
         <v>189</v>
-      </c>
-      <c r="E22" s="144"/>
-      <c r="F22" s="20" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="25.5" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
       <c r="F23" s="23"/>
     </row>
     <row r="24" spans="2:16" ht="25.5" customHeight="1">
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
       <c r="F24" s="23"/>
     </row>
     <row r="25" spans="2:16" ht="25.5" customHeight="1">
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
       <c r="F25" s="23"/>
     </row>
     <row r="26" spans="2:16" ht="25.5" customHeight="1">
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
       <c r="F26" s="23"/>
     </row>
     <row r="27" spans="2:16" ht="25.5" customHeight="1">
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
       <c r="F27" s="23"/>
     </row>
     <row r="28" spans="2:16" ht="25.5" customHeight="1">
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
       <c r="F28" s="23"/>
     </row>
     <row r="29" spans="2:16" ht="25.5" customHeight="1">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
       <c r="F29" s="23"/>
     </row>
     <row r="30" spans="2:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
       <c r="F30" s="26"/>
     </row>
     <row r="31" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
@@ -4097,223 +4078,194 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="34" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="161" t="s">
+      <c r="B34" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="162"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="163"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="146"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B35" s="139"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="141"/>
+      <c r="B35" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="152"/>
     </row>
     <row r="36" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B36" s="166"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="168"/>
+      <c r="B36" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="141"/>
       <c r="J36" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B37" s="166"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="168"/>
-    </row>
-    <row r="38" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B38" s="166"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="168"/>
-    </row>
-    <row r="39" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B39" s="157"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="159"/>
-    </row>
-    <row r="40" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
+    <row r="37" spans="1:13" ht="19.899999999999999" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" ht="19.899999999999999" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="19.899999999999999" customHeight="1">
+      <c r="A42" s="7"/>
       <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="7"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A45" s="7"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
+      <c r="B46" s="9"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+      <c r="B47" s="10"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="B48" s="7"/>
+      <c r="F48" s="9"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B49" s="9"/>
+      <c r="B49" s="10"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
     <row r="50" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B50" s="10"/>
+      <c r="F50" s="8"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
     <row r="51" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="F51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="8"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
     <row r="52" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B52" s="10"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="8"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
     <row r="53" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="F53" s="8"/>
+      <c r="B53" s="11"/>
+      <c r="F53" s="7"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
     </row>
     <row r="54" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B54" s="10"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
+      <c r="F54" s="9"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
     </row>
     <row r="55" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
+      <c r="B55" s="11"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
     </row>
     <row r="56" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B56" s="11"/>
-      <c r="F56" s="7"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
     </row>
     <row r="57" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="F57" s="9"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-    </row>
-    <row r="58" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B58" s="11"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-    </row>
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="2:12" ht="19.899999999999999" customHeight="1"/>
     <row r="59" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-    </row>
-    <row r="60" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B60" s="11"/>
-    </row>
-    <row r="61" spans="2:12" ht="19.899999999999999" customHeight="1"/>
-    <row r="62" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B62" s="11"/>
-    </row>
-    <row r="63" spans="2:12" ht="19.899999999999999" customHeight="1"/>
-    <row r="64" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B64" s="11"/>
-    </row>
-    <row r="65" spans="2:2" ht="19.899999999999999" customHeight="1"/>
-    <row r="66" spans="2:2" ht="19.899999999999999" customHeight="1">
-      <c r="B66" s="11"/>
-    </row>
-    <row r="67" spans="2:2" ht="19.899999999999999" customHeight="1"/>
-    <row r="68" spans="2:2" ht="19.899999999999999" customHeight="1">
-      <c r="B68" s="11"/>
-    </row>
-    <row r="69" spans="2:2" ht="19.899999999999999" customHeight="1"/>
-    <row r="70" spans="2:2" ht="19.899999999999999" customHeight="1">
-      <c r="B70" s="11"/>
-    </row>
-    <row r="71" spans="2:2" ht="19.899999999999999" customHeight="1"/>
-    <row r="72" spans="2:2" ht="19.899999999999999" customHeight="1">
-      <c r="B72" s="11"/>
-    </row>
-    <row r="73" spans="2:2" ht="19.899999999999999" customHeight="1"/>
-    <row r="74" spans="2:2">
-      <c r="B74" s="11"/>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="11"/>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="11"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="11"/>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81" s="8"/>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="C82" s="8"/>
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="2:12" ht="19.899999999999999" customHeight="1"/>
+    <row r="61" spans="2:12" ht="19.899999999999999" customHeight="1">
+      <c r="B61" s="11"/>
+    </row>
+    <row r="62" spans="2:12" ht="19.899999999999999" customHeight="1"/>
+    <row r="63" spans="2:12" ht="19.899999999999999" customHeight="1">
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="2:12" ht="19.899999999999999" customHeight="1"/>
+    <row r="65" spans="2:3" ht="19.899999999999999" customHeight="1">
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="2:3" ht="19.899999999999999" customHeight="1"/>
+    <row r="67" spans="2:3" ht="19.899999999999999" customHeight="1">
+      <c r="B67" s="11"/>
+    </row>
+    <row r="68" spans="2:3" ht="19.899999999999999" customHeight="1"/>
+    <row r="69" spans="2:3" ht="19.899999999999999" customHeight="1">
+      <c r="B69" s="11"/>
+    </row>
+    <row r="70" spans="2:3" ht="19.899999999999999" customHeight="1"/>
+    <row r="71" spans="2:3">
+      <c r="B71" s="11"/>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="11"/>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="11"/>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="C79" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B34:F34"/>
+  <mergeCells count="25">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -4330,6 +4282,15 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B36:F36"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -4342,7 +4303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="14" ySplit="11" topLeftCell="AS12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E14" sqref="E14"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
@@ -4369,296 +4330,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="174"/>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="174"/>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="174"/>
-      <c r="AJ1" s="174"/>
-      <c r="AK1" s="174"/>
-      <c r="AL1" s="174"/>
-      <c r="AM1" s="174"/>
-      <c r="AN1" s="174"/>
-      <c r="AO1" s="174"/>
-      <c r="AP1" s="174"/>
-      <c r="AQ1" s="174"/>
-      <c r="AR1" s="174"/>
-      <c r="AS1" s="174"/>
-      <c r="AT1" s="174"/>
-      <c r="AU1" s="174"/>
-      <c r="AV1" s="174"/>
-      <c r="AW1" s="174"/>
-      <c r="AX1" s="174"/>
-      <c r="AY1" s="174"/>
-      <c r="AZ1" s="174"/>
-      <c r="BA1" s="174"/>
-      <c r="BB1" s="174"/>
-      <c r="BC1" s="174"/>
-      <c r="BD1" s="174"/>
-      <c r="BE1" s="174"/>
-      <c r="BF1" s="174"/>
-      <c r="BG1" s="174"/>
-      <c r="BH1" s="174"/>
-      <c r="BI1" s="174"/>
-      <c r="BJ1" s="174"/>
-      <c r="BK1" s="174"/>
-      <c r="BL1" s="174"/>
-      <c r="BM1" s="174"/>
-      <c r="BN1" s="174"/>
-      <c r="BO1" s="174"/>
-      <c r="BP1" s="174"/>
-      <c r="BQ1" s="174"/>
-      <c r="BR1" s="174"/>
+      <c r="A1" s="171"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="171"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="171"/>
+      <c r="AJ1" s="171"/>
+      <c r="AK1" s="171"/>
+      <c r="AL1" s="171"/>
+      <c r="AM1" s="171"/>
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="171"/>
+      <c r="AP1" s="171"/>
+      <c r="AQ1" s="171"/>
+      <c r="AR1" s="171"/>
+      <c r="AS1" s="171"/>
+      <c r="AT1" s="171"/>
+      <c r="AU1" s="171"/>
+      <c r="AV1" s="171"/>
+      <c r="AW1" s="171"/>
+      <c r="AX1" s="171"/>
+      <c r="AY1" s="171"/>
+      <c r="AZ1" s="171"/>
+      <c r="BA1" s="171"/>
+      <c r="BB1" s="171"/>
+      <c r="BC1" s="171"/>
+      <c r="BD1" s="171"/>
+      <c r="BE1" s="171"/>
+      <c r="BF1" s="171"/>
+      <c r="BG1" s="171"/>
+      <c r="BH1" s="171"/>
+      <c r="BI1" s="171"/>
+      <c r="BJ1" s="171"/>
+      <c r="BK1" s="171"/>
+      <c r="BL1" s="171"/>
+      <c r="BM1" s="171"/>
+      <c r="BN1" s="171"/>
+      <c r="BO1" s="171"/>
+      <c r="BP1" s="171"/>
+      <c r="BQ1" s="171"/>
+      <c r="BR1" s="171"/>
     </row>
     <row r="2" spans="1:70" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="172" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="175"/>
-      <c r="AK2" s="175"/>
-      <c r="AL2" s="175"/>
-      <c r="AM2" s="175"/>
-      <c r="AN2" s="175"/>
-      <c r="AO2" s="175"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="175"/>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="175"/>
-      <c r="AT2" s="175"/>
-      <c r="AU2" s="175"/>
-      <c r="AV2" s="175"/>
-      <c r="AW2" s="175"/>
-      <c r="AX2" s="175"/>
-      <c r="AY2" s="175"/>
-      <c r="AZ2" s="175"/>
-      <c r="BA2" s="175"/>
-      <c r="BB2" s="175"/>
-      <c r="BC2" s="175"/>
-      <c r="BD2" s="175"/>
-      <c r="BE2" s="175"/>
-      <c r="BF2" s="175"/>
-      <c r="BG2" s="175"/>
-      <c r="BH2" s="175"/>
-      <c r="BI2" s="175"/>
-      <c r="BJ2" s="175"/>
-      <c r="BK2" s="175"/>
-      <c r="BL2" s="175"/>
-      <c r="BM2" s="175"/>
-      <c r="BN2" s="175"/>
-      <c r="BO2" s="175"/>
-      <c r="BP2" s="175"/>
-      <c r="BQ2" s="175"/>
-      <c r="BR2" s="175"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="172"/>
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="172"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="172"/>
+      <c r="AJ2" s="172"/>
+      <c r="AK2" s="172"/>
+      <c r="AL2" s="172"/>
+      <c r="AM2" s="172"/>
+      <c r="AN2" s="172"/>
+      <c r="AO2" s="172"/>
+      <c r="AP2" s="172"/>
+      <c r="AQ2" s="172"/>
+      <c r="AR2" s="172"/>
+      <c r="AS2" s="172"/>
+      <c r="AT2" s="172"/>
+      <c r="AU2" s="172"/>
+      <c r="AV2" s="172"/>
+      <c r="AW2" s="172"/>
+      <c r="AX2" s="172"/>
+      <c r="AY2" s="172"/>
+      <c r="AZ2" s="172"/>
+      <c r="BA2" s="172"/>
+      <c r="BB2" s="172"/>
+      <c r="BC2" s="172"/>
+      <c r="BD2" s="172"/>
+      <c r="BE2" s="172"/>
+      <c r="BF2" s="172"/>
+      <c r="BG2" s="172"/>
+      <c r="BH2" s="172"/>
+      <c r="BI2" s="172"/>
+      <c r="BJ2" s="172"/>
+      <c r="BK2" s="172"/>
+      <c r="BL2" s="172"/>
+      <c r="BM2" s="172"/>
+      <c r="BN2" s="172"/>
+      <c r="BO2" s="172"/>
+      <c r="BP2" s="172"/>
+      <c r="BQ2" s="172"/>
+      <c r="BR2" s="172"/>
     </row>
     <row r="3" spans="1:70" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="175"/>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="175"/>
-      <c r="AK3" s="175"/>
-      <c r="AL3" s="175"/>
-      <c r="AM3" s="175"/>
-      <c r="AN3" s="175"/>
-      <c r="AO3" s="175"/>
-      <c r="AP3" s="175"/>
-      <c r="AQ3" s="175"/>
-      <c r="AR3" s="175"/>
-      <c r="AS3" s="175"/>
-      <c r="AT3" s="175"/>
-      <c r="AU3" s="175"/>
-      <c r="AV3" s="175"/>
-      <c r="AW3" s="175"/>
-      <c r="AX3" s="175"/>
-      <c r="AY3" s="175"/>
-      <c r="AZ3" s="175"/>
-      <c r="BA3" s="175"/>
-      <c r="BB3" s="175"/>
-      <c r="BC3" s="175"/>
-      <c r="BD3" s="175"/>
-      <c r="BE3" s="175"/>
-      <c r="BF3" s="175"/>
-      <c r="BG3" s="175"/>
-      <c r="BH3" s="175"/>
-      <c r="BI3" s="175"/>
-      <c r="BJ3" s="175"/>
-      <c r="BK3" s="175"/>
-      <c r="BL3" s="175"/>
-      <c r="BM3" s="175"/>
-      <c r="BN3" s="175"/>
-      <c r="BO3" s="175"/>
-      <c r="BP3" s="175"/>
-      <c r="BQ3" s="175"/>
-      <c r="BR3" s="175"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="172"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="172"/>
+      <c r="AJ3" s="172"/>
+      <c r="AK3" s="172"/>
+      <c r="AL3" s="172"/>
+      <c r="AM3" s="172"/>
+      <c r="AN3" s="172"/>
+      <c r="AO3" s="172"/>
+      <c r="AP3" s="172"/>
+      <c r="AQ3" s="172"/>
+      <c r="AR3" s="172"/>
+      <c r="AS3" s="172"/>
+      <c r="AT3" s="172"/>
+      <c r="AU3" s="172"/>
+      <c r="AV3" s="172"/>
+      <c r="AW3" s="172"/>
+      <c r="AX3" s="172"/>
+      <c r="AY3" s="172"/>
+      <c r="AZ3" s="172"/>
+      <c r="BA3" s="172"/>
+      <c r="BB3" s="172"/>
+      <c r="BC3" s="172"/>
+      <c r="BD3" s="172"/>
+      <c r="BE3" s="172"/>
+      <c r="BF3" s="172"/>
+      <c r="BG3" s="172"/>
+      <c r="BH3" s="172"/>
+      <c r="BI3" s="172"/>
+      <c r="BJ3" s="172"/>
+      <c r="BK3" s="172"/>
+      <c r="BL3" s="172"/>
+      <c r="BM3" s="172"/>
+      <c r="BN3" s="172"/>
+      <c r="BO3" s="172"/>
+      <c r="BP3" s="172"/>
+      <c r="BQ3" s="172"/>
+      <c r="BR3" s="172"/>
     </row>
     <row r="4" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A4" s="176"/>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="176"/>
-      <c r="S4" s="176"/>
-      <c r="T4" s="176"/>
-      <c r="U4" s="176"/>
-      <c r="V4" s="176"/>
-      <c r="W4" s="176"/>
-      <c r="X4" s="176"/>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="176"/>
-      <c r="AA4" s="176"/>
-      <c r="AB4" s="176"/>
-      <c r="AC4" s="176"/>
-      <c r="AD4" s="176"/>
-      <c r="AE4" s="176"/>
-      <c r="AF4" s="176"/>
-      <c r="AG4" s="176"/>
-      <c r="AH4" s="176"/>
-      <c r="AI4" s="176"/>
-      <c r="AJ4" s="176"/>
-      <c r="AK4" s="176"/>
-      <c r="AL4" s="176"/>
-      <c r="AM4" s="176"/>
-      <c r="AN4" s="176"/>
-      <c r="AO4" s="176"/>
-      <c r="AP4" s="176"/>
-      <c r="AQ4" s="176"/>
-      <c r="AR4" s="176"/>
-      <c r="AS4" s="176"/>
-      <c r="AT4" s="176"/>
-      <c r="AU4" s="176"/>
-      <c r="AV4" s="176"/>
-      <c r="AW4" s="176"/>
-      <c r="AX4" s="176"/>
-      <c r="AY4" s="176"/>
-      <c r="AZ4" s="176"/>
-      <c r="BA4" s="176"/>
-      <c r="BB4" s="176"/>
-      <c r="BC4" s="176"/>
-      <c r="BD4" s="176"/>
-      <c r="BE4" s="176"/>
-      <c r="BF4" s="176"/>
-      <c r="BG4" s="176"/>
-      <c r="BH4" s="176"/>
-      <c r="BI4" s="176"/>
-      <c r="BJ4" s="176"/>
-      <c r="BK4" s="176"/>
-      <c r="BL4" s="176"/>
-      <c r="BM4" s="176"/>
-      <c r="BN4" s="176"/>
-      <c r="BO4" s="176"/>
-      <c r="BP4" s="176"/>
-      <c r="BQ4" s="176"/>
-      <c r="BR4" s="176"/>
+      <c r="A4" s="173"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="173"/>
+      <c r="T4" s="173"/>
+      <c r="U4" s="173"/>
+      <c r="V4" s="173"/>
+      <c r="W4" s="173"/>
+      <c r="X4" s="173"/>
+      <c r="Y4" s="173"/>
+      <c r="Z4" s="173"/>
+      <c r="AA4" s="173"/>
+      <c r="AB4" s="173"/>
+      <c r="AC4" s="173"/>
+      <c r="AD4" s="173"/>
+      <c r="AE4" s="173"/>
+      <c r="AF4" s="173"/>
+      <c r="AG4" s="173"/>
+      <c r="AH4" s="173"/>
+      <c r="AI4" s="173"/>
+      <c r="AJ4" s="173"/>
+      <c r="AK4" s="173"/>
+      <c r="AL4" s="173"/>
+      <c r="AM4" s="173"/>
+      <c r="AN4" s="173"/>
+      <c r="AO4" s="173"/>
+      <c r="AP4" s="173"/>
+      <c r="AQ4" s="173"/>
+      <c r="AR4" s="173"/>
+      <c r="AS4" s="173"/>
+      <c r="AT4" s="173"/>
+      <c r="AU4" s="173"/>
+      <c r="AV4" s="173"/>
+      <c r="AW4" s="173"/>
+      <c r="AX4" s="173"/>
+      <c r="AY4" s="173"/>
+      <c r="AZ4" s="173"/>
+      <c r="BA4" s="173"/>
+      <c r="BB4" s="173"/>
+      <c r="BC4" s="173"/>
+      <c r="BD4" s="173"/>
+      <c r="BE4" s="173"/>
+      <c r="BF4" s="173"/>
+      <c r="BG4" s="173"/>
+      <c r="BH4" s="173"/>
+      <c r="BI4" s="173"/>
+      <c r="BJ4" s="173"/>
+      <c r="BK4" s="173"/>
+      <c r="BL4" s="173"/>
+      <c r="BM4" s="173"/>
+      <c r="BN4" s="173"/>
+      <c r="BO4" s="173"/>
+      <c r="BP4" s="173"/>
+      <c r="BQ4" s="173"/>
+      <c r="BR4" s="173"/>
     </row>
     <row r="5" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1">
       <c r="A5" s="64"/>
@@ -4771,11 +4732,11 @@
         <v>27</v>
       </c>
       <c r="C8" s="63"/>
-      <c r="D8" s="173">
+      <c r="D8" s="181">
         <v>44803</v>
       </c>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50"/>
       <c r="K8" s="49" t="s">
@@ -4784,179 +4745,179 @@
       <c r="L8" s="37">
         <v>1</v>
       </c>
-      <c r="O8" s="170" t="str">
+      <c r="O8" s="177" t="str">
         <f>"Semana "&amp;(O10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 1</v>
       </c>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="170" t="str">
+      <c r="P8" s="178"/>
+      <c r="Q8" s="178"/>
+      <c r="R8" s="178"/>
+      <c r="S8" s="178"/>
+      <c r="T8" s="178"/>
+      <c r="U8" s="179"/>
+      <c r="V8" s="177" t="str">
         <f>"Semana "&amp;(V10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 2</v>
       </c>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="172"/>
-      <c r="AC8" s="170" t="str">
+      <c r="W8" s="178"/>
+      <c r="X8" s="178"/>
+      <c r="Y8" s="178"/>
+      <c r="Z8" s="178"/>
+      <c r="AA8" s="178"/>
+      <c r="AB8" s="179"/>
+      <c r="AC8" s="177" t="str">
         <f>"Semana "&amp;(AC10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 3</v>
       </c>
-      <c r="AD8" s="171"/>
-      <c r="AE8" s="171"/>
-      <c r="AF8" s="171"/>
-      <c r="AG8" s="171"/>
-      <c r="AH8" s="171"/>
-      <c r="AI8" s="172"/>
-      <c r="AJ8" s="170" t="str">
+      <c r="AD8" s="178"/>
+      <c r="AE8" s="178"/>
+      <c r="AF8" s="178"/>
+      <c r="AG8" s="178"/>
+      <c r="AH8" s="178"/>
+      <c r="AI8" s="179"/>
+      <c r="AJ8" s="177" t="str">
         <f>"Semana "&amp;(AJ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 4</v>
       </c>
-      <c r="AK8" s="171"/>
-      <c r="AL8" s="171"/>
-      <c r="AM8" s="171"/>
-      <c r="AN8" s="171"/>
-      <c r="AO8" s="171"/>
-      <c r="AP8" s="172"/>
-      <c r="AQ8" s="170" t="str">
+      <c r="AK8" s="178"/>
+      <c r="AL8" s="178"/>
+      <c r="AM8" s="178"/>
+      <c r="AN8" s="178"/>
+      <c r="AO8" s="178"/>
+      <c r="AP8" s="179"/>
+      <c r="AQ8" s="177" t="str">
         <f>"Semana "&amp;(AQ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 5</v>
       </c>
-      <c r="AR8" s="171"/>
-      <c r="AS8" s="171"/>
-      <c r="AT8" s="171"/>
-      <c r="AU8" s="171"/>
-      <c r="AV8" s="171"/>
-      <c r="AW8" s="172"/>
-      <c r="AX8" s="170" t="str">
+      <c r="AR8" s="178"/>
+      <c r="AS8" s="178"/>
+      <c r="AT8" s="178"/>
+      <c r="AU8" s="178"/>
+      <c r="AV8" s="178"/>
+      <c r="AW8" s="179"/>
+      <c r="AX8" s="177" t="str">
         <f>"Semana "&amp;(AX10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 6</v>
       </c>
-      <c r="AY8" s="171"/>
-      <c r="AZ8" s="171"/>
-      <c r="BA8" s="171"/>
-      <c r="BB8" s="171"/>
-      <c r="BC8" s="171"/>
-      <c r="BD8" s="172"/>
-      <c r="BE8" s="170" t="str">
+      <c r="AY8" s="178"/>
+      <c r="AZ8" s="178"/>
+      <c r="BA8" s="178"/>
+      <c r="BB8" s="178"/>
+      <c r="BC8" s="178"/>
+      <c r="BD8" s="179"/>
+      <c r="BE8" s="177" t="str">
         <f>"Semana "&amp;(BE10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 7</v>
       </c>
-      <c r="BF8" s="171"/>
-      <c r="BG8" s="171"/>
-      <c r="BH8" s="171"/>
-      <c r="BI8" s="171"/>
-      <c r="BJ8" s="171"/>
-      <c r="BK8" s="172"/>
-      <c r="BL8" s="170" t="str">
+      <c r="BF8" s="178"/>
+      <c r="BG8" s="178"/>
+      <c r="BH8" s="178"/>
+      <c r="BI8" s="178"/>
+      <c r="BJ8" s="178"/>
+      <c r="BK8" s="179"/>
+      <c r="BL8" s="177" t="str">
         <f>"Semana "&amp;(BL10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 8</v>
       </c>
-      <c r="BM8" s="171"/>
-      <c r="BN8" s="171"/>
-      <c r="BO8" s="171"/>
-      <c r="BP8" s="171"/>
-      <c r="BQ8" s="171"/>
-      <c r="BR8" s="172"/>
+      <c r="BM8" s="178"/>
+      <c r="BN8" s="178"/>
+      <c r="BO8" s="178"/>
+      <c r="BP8" s="178"/>
+      <c r="BQ8" s="178"/>
+      <c r="BR8" s="179"/>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1">
       <c r="B9" s="60" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="63"/>
-      <c r="D9" s="169" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
+      <c r="D9" s="180" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
-      <c r="O9" s="177">
+      <c r="O9" s="174">
         <f>O10</f>
         <v>44802</v>
       </c>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="178"/>
-      <c r="S9" s="178"/>
-      <c r="T9" s="178"/>
-      <c r="U9" s="179"/>
-      <c r="V9" s="177">
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="175"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="174">
         <f>V10</f>
         <v>44809</v>
       </c>
-      <c r="W9" s="178"/>
-      <c r="X9" s="178"/>
-      <c r="Y9" s="178"/>
-      <c r="Z9" s="178"/>
-      <c r="AA9" s="178"/>
-      <c r="AB9" s="179"/>
-      <c r="AC9" s="177">
+      <c r="W9" s="175"/>
+      <c r="X9" s="175"/>
+      <c r="Y9" s="175"/>
+      <c r="Z9" s="175"/>
+      <c r="AA9" s="175"/>
+      <c r="AB9" s="176"/>
+      <c r="AC9" s="174">
         <f>AC10</f>
         <v>44816</v>
       </c>
-      <c r="AD9" s="178"/>
-      <c r="AE9" s="178"/>
-      <c r="AF9" s="178"/>
-      <c r="AG9" s="178"/>
-      <c r="AH9" s="178"/>
-      <c r="AI9" s="179"/>
-      <c r="AJ9" s="177">
+      <c r="AD9" s="175"/>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="175"/>
+      <c r="AG9" s="175"/>
+      <c r="AH9" s="175"/>
+      <c r="AI9" s="176"/>
+      <c r="AJ9" s="174">
         <f>AJ10</f>
         <v>44823</v>
       </c>
-      <c r="AK9" s="178"/>
-      <c r="AL9" s="178"/>
-      <c r="AM9" s="178"/>
-      <c r="AN9" s="178"/>
-      <c r="AO9" s="178"/>
-      <c r="AP9" s="179"/>
-      <c r="AQ9" s="177">
+      <c r="AK9" s="175"/>
+      <c r="AL9" s="175"/>
+      <c r="AM9" s="175"/>
+      <c r="AN9" s="175"/>
+      <c r="AO9" s="175"/>
+      <c r="AP9" s="176"/>
+      <c r="AQ9" s="174">
         <f>AQ10</f>
         <v>44830</v>
       </c>
-      <c r="AR9" s="178"/>
-      <c r="AS9" s="178"/>
-      <c r="AT9" s="178"/>
-      <c r="AU9" s="178"/>
-      <c r="AV9" s="178"/>
-      <c r="AW9" s="179"/>
-      <c r="AX9" s="177">
+      <c r="AR9" s="175"/>
+      <c r="AS9" s="175"/>
+      <c r="AT9" s="175"/>
+      <c r="AU9" s="175"/>
+      <c r="AV9" s="175"/>
+      <c r="AW9" s="176"/>
+      <c r="AX9" s="174">
         <f>AX10</f>
         <v>44837</v>
       </c>
-      <c r="AY9" s="178"/>
-      <c r="AZ9" s="178"/>
-      <c r="BA9" s="178"/>
-      <c r="BB9" s="178"/>
-      <c r="BC9" s="178"/>
-      <c r="BD9" s="179"/>
-      <c r="BE9" s="177">
+      <c r="AY9" s="175"/>
+      <c r="AZ9" s="175"/>
+      <c r="BA9" s="175"/>
+      <c r="BB9" s="175"/>
+      <c r="BC9" s="175"/>
+      <c r="BD9" s="176"/>
+      <c r="BE9" s="174">
         <f>BE10</f>
         <v>44844</v>
       </c>
-      <c r="BF9" s="178"/>
-      <c r="BG9" s="178"/>
-      <c r="BH9" s="178"/>
-      <c r="BI9" s="178"/>
-      <c r="BJ9" s="178"/>
-      <c r="BK9" s="179"/>
-      <c r="BL9" s="177">
+      <c r="BF9" s="175"/>
+      <c r="BG9" s="175"/>
+      <c r="BH9" s="175"/>
+      <c r="BI9" s="175"/>
+      <c r="BJ9" s="175"/>
+      <c r="BK9" s="176"/>
+      <c r="BL9" s="174">
         <f>BL10</f>
         <v>44851</v>
       </c>
-      <c r="BM9" s="178"/>
-      <c r="BN9" s="178"/>
-      <c r="BO9" s="178"/>
-      <c r="BP9" s="178"/>
-      <c r="BQ9" s="178"/>
-      <c r="BR9" s="179"/>
+      <c r="BM9" s="175"/>
+      <c r="BN9" s="175"/>
+      <c r="BO9" s="175"/>
+      <c r="BP9" s="175"/>
+      <c r="BQ9" s="175"/>
+      <c r="BR9" s="176"/>
     </row>
     <row r="10" spans="1:70">
       <c r="O10" s="38">
@@ -5560,7 +5521,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H13" s="99"/>
       <c r="I13" s="100">
@@ -5658,7 +5619,7 @@
         <v>129</v>
       </c>
       <c r="G14" s="97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H14" s="114"/>
       <c r="I14" s="115">
@@ -5756,7 +5717,7 @@
         <v>132</v>
       </c>
       <c r="G15" s="112" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H15" s="114"/>
       <c r="I15" s="115">
@@ -5854,7 +5815,7 @@
         <v>133</v>
       </c>
       <c r="G16" s="112" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H16" s="114"/>
       <c r="I16" s="115">
@@ -5952,7 +5913,7 @@
         <v>126</v>
       </c>
       <c r="G17" s="112" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H17" s="114"/>
       <c r="I17" s="115">
@@ -6044,7 +6005,7 @@
         <v>84</v>
       </c>
       <c r="G18" s="112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H18" s="114"/>
       <c r="I18" s="116">
@@ -10071,3331 +10032,3350 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B64" s="184" t="s">
+      <c r="B64" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="184"/>
-      <c r="D64" s="184"/>
-      <c r="E64" s="184"/>
-      <c r="F64" s="184"/>
-      <c r="G64" s="184"/>
-      <c r="H64" s="184"/>
-      <c r="I64" s="184"/>
-      <c r="J64" s="184"/>
-      <c r="K64" s="184"/>
-      <c r="L64" s="184"/>
-      <c r="M64" s="184"/>
-      <c r="N64" s="184"/>
-      <c r="O64" s="184"/>
-      <c r="P64" s="184"/>
-      <c r="Q64" s="184"/>
-      <c r="R64" s="184"/>
-      <c r="S64" s="184"/>
-      <c r="T64" s="184"/>
-      <c r="U64" s="184"/>
-      <c r="V64" s="184"/>
-      <c r="W64" s="184"/>
-      <c r="X64" s="184"/>
-      <c r="Y64" s="184"/>
-      <c r="Z64" s="184"/>
-      <c r="AA64" s="184"/>
-      <c r="AB64" s="184"/>
-      <c r="AC64" s="184"/>
-      <c r="AD64" s="184"/>
-      <c r="AE64" s="184"/>
-      <c r="AF64" s="184"/>
-      <c r="AG64" s="184"/>
-      <c r="AH64" s="184"/>
-      <c r="AI64" s="184"/>
-      <c r="AJ64" s="184"/>
-      <c r="AK64" s="184"/>
-      <c r="AL64" s="184"/>
-      <c r="AM64" s="184"/>
-      <c r="AN64" s="184"/>
-      <c r="AO64" s="184"/>
-      <c r="AP64" s="184"/>
-      <c r="AQ64" s="184"/>
-      <c r="AR64" s="184"/>
-      <c r="AS64" s="184"/>
-      <c r="AT64" s="184"/>
-      <c r="AU64" s="184"/>
-      <c r="AV64" s="184"/>
-      <c r="AW64" s="184"/>
-      <c r="AX64" s="184"/>
-      <c r="AY64" s="184"/>
-      <c r="AZ64" s="184"/>
-      <c r="BA64" s="184"/>
-      <c r="BB64" s="184"/>
-      <c r="BC64" s="184"/>
-      <c r="BD64" s="184"/>
-      <c r="BE64" s="184"/>
-      <c r="BF64" s="184"/>
-      <c r="BG64" s="184"/>
-      <c r="BH64" s="184"/>
-      <c r="BI64" s="184"/>
-      <c r="BJ64" s="184"/>
-      <c r="BK64" s="184"/>
-      <c r="BL64" s="184"/>
-      <c r="BM64" s="184"/>
-      <c r="BN64" s="184"/>
-      <c r="BO64" s="184"/>
-      <c r="BP64" s="184"/>
-      <c r="BQ64" s="184"/>
-      <c r="BR64" s="185"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="163"/>
+      <c r="E64" s="163"/>
+      <c r="F64" s="163"/>
+      <c r="G64" s="163"/>
+      <c r="H64" s="163"/>
+      <c r="I64" s="163"/>
+      <c r="J64" s="163"/>
+      <c r="K64" s="163"/>
+      <c r="L64" s="163"/>
+      <c r="M64" s="163"/>
+      <c r="N64" s="163"/>
+      <c r="O64" s="163"/>
+      <c r="P64" s="163"/>
+      <c r="Q64" s="163"/>
+      <c r="R64" s="163"/>
+      <c r="S64" s="163"/>
+      <c r="T64" s="163"/>
+      <c r="U64" s="163"/>
+      <c r="V64" s="163"/>
+      <c r="W64" s="163"/>
+      <c r="X64" s="163"/>
+      <c r="Y64" s="163"/>
+      <c r="Z64" s="163"/>
+      <c r="AA64" s="163"/>
+      <c r="AB64" s="163"/>
+      <c r="AC64" s="163"/>
+      <c r="AD64" s="163"/>
+      <c r="AE64" s="163"/>
+      <c r="AF64" s="163"/>
+      <c r="AG64" s="163"/>
+      <c r="AH64" s="163"/>
+      <c r="AI64" s="163"/>
+      <c r="AJ64" s="163"/>
+      <c r="AK64" s="163"/>
+      <c r="AL64" s="163"/>
+      <c r="AM64" s="163"/>
+      <c r="AN64" s="163"/>
+      <c r="AO64" s="163"/>
+      <c r="AP64" s="163"/>
+      <c r="AQ64" s="163"/>
+      <c r="AR64" s="163"/>
+      <c r="AS64" s="163"/>
+      <c r="AT64" s="163"/>
+      <c r="AU64" s="163"/>
+      <c r="AV64" s="163"/>
+      <c r="AW64" s="163"/>
+      <c r="AX64" s="163"/>
+      <c r="AY64" s="163"/>
+      <c r="AZ64" s="163"/>
+      <c r="BA64" s="163"/>
+      <c r="BB64" s="163"/>
+      <c r="BC64" s="163"/>
+      <c r="BD64" s="163"/>
+      <c r="BE64" s="163"/>
+      <c r="BF64" s="163"/>
+      <c r="BG64" s="163"/>
+      <c r="BH64" s="163"/>
+      <c r="BI64" s="163"/>
+      <c r="BJ64" s="163"/>
+      <c r="BK64" s="163"/>
+      <c r="BL64" s="163"/>
+      <c r="BM64" s="163"/>
+      <c r="BN64" s="163"/>
+      <c r="BO64" s="163"/>
+      <c r="BP64" s="163"/>
+      <c r="BQ64" s="163"/>
+      <c r="BR64" s="164"/>
     </row>
     <row r="65" spans="1:70" s="55" customFormat="1">
       <c r="A65" s="57" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B65" s="180" t="s">
+      <c r="B65" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="180"/>
-      <c r="D65" s="180"/>
-      <c r="E65" s="180"/>
-      <c r="F65" s="180"/>
-      <c r="G65" s="180"/>
-      <c r="H65" s="180"/>
-      <c r="I65" s="180"/>
-      <c r="J65" s="180"/>
-      <c r="K65" s="180"/>
-      <c r="L65" s="180"/>
-      <c r="M65" s="180"/>
-      <c r="N65" s="180"/>
-      <c r="O65" s="180"/>
-      <c r="P65" s="180"/>
-      <c r="Q65" s="180"/>
-      <c r="R65" s="180"/>
-      <c r="S65" s="180"/>
-      <c r="T65" s="180"/>
-      <c r="U65" s="180"/>
-      <c r="V65" s="180"/>
-      <c r="W65" s="180"/>
-      <c r="X65" s="180"/>
-      <c r="Y65" s="180"/>
-      <c r="Z65" s="180"/>
-      <c r="AA65" s="180"/>
-      <c r="AB65" s="180"/>
-      <c r="AC65" s="180"/>
-      <c r="AD65" s="180"/>
-      <c r="AE65" s="180"/>
-      <c r="AF65" s="180"/>
-      <c r="AG65" s="180"/>
-      <c r="AH65" s="180"/>
-      <c r="AI65" s="180"/>
-      <c r="AJ65" s="180"/>
-      <c r="AK65" s="180"/>
-      <c r="AL65" s="180"/>
-      <c r="AM65" s="180"/>
-      <c r="AN65" s="180"/>
-      <c r="AO65" s="180"/>
-      <c r="AP65" s="180"/>
-      <c r="AQ65" s="180"/>
-      <c r="AR65" s="180"/>
-      <c r="AS65" s="180"/>
-      <c r="AT65" s="180"/>
-      <c r="AU65" s="180"/>
-      <c r="AV65" s="180"/>
-      <c r="AW65" s="180"/>
-      <c r="AX65" s="180"/>
-      <c r="AY65" s="180"/>
-      <c r="AZ65" s="180"/>
-      <c r="BA65" s="180"/>
-      <c r="BB65" s="180"/>
-      <c r="BC65" s="180"/>
-      <c r="BD65" s="180"/>
-      <c r="BE65" s="180"/>
-      <c r="BF65" s="180"/>
-      <c r="BG65" s="180"/>
-      <c r="BH65" s="180"/>
-      <c r="BI65" s="180"/>
-      <c r="BJ65" s="180"/>
-      <c r="BK65" s="180"/>
-      <c r="BL65" s="180"/>
-      <c r="BM65" s="180"/>
-      <c r="BN65" s="180"/>
-      <c r="BO65" s="180"/>
-      <c r="BP65" s="180"/>
-      <c r="BQ65" s="180"/>
-      <c r="BR65" s="181"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
+      <c r="E65" s="165"/>
+      <c r="F65" s="165"/>
+      <c r="G65" s="165"/>
+      <c r="H65" s="165"/>
+      <c r="I65" s="165"/>
+      <c r="J65" s="165"/>
+      <c r="K65" s="165"/>
+      <c r="L65" s="165"/>
+      <c r="M65" s="165"/>
+      <c r="N65" s="165"/>
+      <c r="O65" s="165"/>
+      <c r="P65" s="165"/>
+      <c r="Q65" s="165"/>
+      <c r="R65" s="165"/>
+      <c r="S65" s="165"/>
+      <c r="T65" s="165"/>
+      <c r="U65" s="165"/>
+      <c r="V65" s="165"/>
+      <c r="W65" s="165"/>
+      <c r="X65" s="165"/>
+      <c r="Y65" s="165"/>
+      <c r="Z65" s="165"/>
+      <c r="AA65" s="165"/>
+      <c r="AB65" s="165"/>
+      <c r="AC65" s="165"/>
+      <c r="AD65" s="165"/>
+      <c r="AE65" s="165"/>
+      <c r="AF65" s="165"/>
+      <c r="AG65" s="165"/>
+      <c r="AH65" s="165"/>
+      <c r="AI65" s="165"/>
+      <c r="AJ65" s="165"/>
+      <c r="AK65" s="165"/>
+      <c r="AL65" s="165"/>
+      <c r="AM65" s="165"/>
+      <c r="AN65" s="165"/>
+      <c r="AO65" s="165"/>
+      <c r="AP65" s="165"/>
+      <c r="AQ65" s="165"/>
+      <c r="AR65" s="165"/>
+      <c r="AS65" s="165"/>
+      <c r="AT65" s="165"/>
+      <c r="AU65" s="165"/>
+      <c r="AV65" s="165"/>
+      <c r="AW65" s="165"/>
+      <c r="AX65" s="165"/>
+      <c r="AY65" s="165"/>
+      <c r="AZ65" s="165"/>
+      <c r="BA65" s="165"/>
+      <c r="BB65" s="165"/>
+      <c r="BC65" s="165"/>
+      <c r="BD65" s="165"/>
+      <c r="BE65" s="165"/>
+      <c r="BF65" s="165"/>
+      <c r="BG65" s="165"/>
+      <c r="BH65" s="165"/>
+      <c r="BI65" s="165"/>
+      <c r="BJ65" s="165"/>
+      <c r="BK65" s="165"/>
+      <c r="BL65" s="165"/>
+      <c r="BM65" s="165"/>
+      <c r="BN65" s="165"/>
+      <c r="BO65" s="165"/>
+      <c r="BP65" s="165"/>
+      <c r="BQ65" s="165"/>
+      <c r="BR65" s="166"/>
     </row>
     <row r="66" spans="1:70" s="55" customFormat="1">
       <c r="A66" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.2</v>
       </c>
-      <c r="B66" s="182" t="s">
+      <c r="B66" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="182"/>
-      <c r="D66" s="182"/>
-      <c r="E66" s="182"/>
-      <c r="F66" s="182"/>
-      <c r="G66" s="182"/>
-      <c r="H66" s="182"/>
-      <c r="I66" s="182"/>
-      <c r="J66" s="182"/>
-      <c r="K66" s="182"/>
-      <c r="L66" s="182"/>
-      <c r="M66" s="182"/>
-      <c r="N66" s="182"/>
-      <c r="O66" s="182"/>
-      <c r="P66" s="182"/>
-      <c r="Q66" s="182"/>
-      <c r="R66" s="182"/>
-      <c r="S66" s="182"/>
-      <c r="T66" s="182"/>
-      <c r="U66" s="182"/>
-      <c r="V66" s="182"/>
-      <c r="W66" s="182"/>
-      <c r="X66" s="182"/>
-      <c r="Y66" s="182"/>
-      <c r="Z66" s="182"/>
-      <c r="AA66" s="182"/>
-      <c r="AB66" s="182"/>
-      <c r="AC66" s="182"/>
-      <c r="AD66" s="182"/>
-      <c r="AE66" s="182"/>
-      <c r="AF66" s="182"/>
-      <c r="AG66" s="182"/>
-      <c r="AH66" s="182"/>
-      <c r="AI66" s="182"/>
-      <c r="AJ66" s="182"/>
-      <c r="AK66" s="182"/>
-      <c r="AL66" s="182"/>
-      <c r="AM66" s="182"/>
-      <c r="AN66" s="182"/>
-      <c r="AO66" s="182"/>
-      <c r="AP66" s="182"/>
-      <c r="AQ66" s="182"/>
-      <c r="AR66" s="182"/>
-      <c r="AS66" s="182"/>
-      <c r="AT66" s="182"/>
-      <c r="AU66" s="182"/>
-      <c r="AV66" s="182"/>
-      <c r="AW66" s="182"/>
-      <c r="AX66" s="182"/>
-      <c r="AY66" s="182"/>
-      <c r="AZ66" s="182"/>
-      <c r="BA66" s="182"/>
-      <c r="BB66" s="182"/>
-      <c r="BC66" s="182"/>
-      <c r="BD66" s="182"/>
-      <c r="BE66" s="182"/>
-      <c r="BF66" s="182"/>
-      <c r="BG66" s="182"/>
-      <c r="BH66" s="182"/>
-      <c r="BI66" s="182"/>
-      <c r="BJ66" s="182"/>
-      <c r="BK66" s="182"/>
-      <c r="BL66" s="182"/>
-      <c r="BM66" s="182"/>
-      <c r="BN66" s="182"/>
-      <c r="BO66" s="182"/>
-      <c r="BP66" s="182"/>
-      <c r="BQ66" s="182"/>
-      <c r="BR66" s="183"/>
+      <c r="C66" s="167"/>
+      <c r="D66" s="167"/>
+      <c r="E66" s="167"/>
+      <c r="F66" s="167"/>
+      <c r="G66" s="167"/>
+      <c r="H66" s="167"/>
+      <c r="I66" s="167"/>
+      <c r="J66" s="167"/>
+      <c r="K66" s="167"/>
+      <c r="L66" s="167"/>
+      <c r="M66" s="167"/>
+      <c r="N66" s="167"/>
+      <c r="O66" s="167"/>
+      <c r="P66" s="167"/>
+      <c r="Q66" s="167"/>
+      <c r="R66" s="167"/>
+      <c r="S66" s="167"/>
+      <c r="T66" s="167"/>
+      <c r="U66" s="167"/>
+      <c r="V66" s="167"/>
+      <c r="W66" s="167"/>
+      <c r="X66" s="167"/>
+      <c r="Y66" s="167"/>
+      <c r="Z66" s="167"/>
+      <c r="AA66" s="167"/>
+      <c r="AB66" s="167"/>
+      <c r="AC66" s="167"/>
+      <c r="AD66" s="167"/>
+      <c r="AE66" s="167"/>
+      <c r="AF66" s="167"/>
+      <c r="AG66" s="167"/>
+      <c r="AH66" s="167"/>
+      <c r="AI66" s="167"/>
+      <c r="AJ66" s="167"/>
+      <c r="AK66" s="167"/>
+      <c r="AL66" s="167"/>
+      <c r="AM66" s="167"/>
+      <c r="AN66" s="167"/>
+      <c r="AO66" s="167"/>
+      <c r="AP66" s="167"/>
+      <c r="AQ66" s="167"/>
+      <c r="AR66" s="167"/>
+      <c r="AS66" s="167"/>
+      <c r="AT66" s="167"/>
+      <c r="AU66" s="167"/>
+      <c r="AV66" s="167"/>
+      <c r="AW66" s="167"/>
+      <c r="AX66" s="167"/>
+      <c r="AY66" s="167"/>
+      <c r="AZ66" s="167"/>
+      <c r="BA66" s="167"/>
+      <c r="BB66" s="167"/>
+      <c r="BC66" s="167"/>
+      <c r="BD66" s="167"/>
+      <c r="BE66" s="167"/>
+      <c r="BF66" s="167"/>
+      <c r="BG66" s="167"/>
+      <c r="BH66" s="167"/>
+      <c r="BI66" s="167"/>
+      <c r="BJ66" s="167"/>
+      <c r="BK66" s="167"/>
+      <c r="BL66" s="167"/>
+      <c r="BM66" s="167"/>
+      <c r="BN66" s="167"/>
+      <c r="BO66" s="167"/>
+      <c r="BP66" s="167"/>
+      <c r="BQ66" s="167"/>
+      <c r="BR66" s="168"/>
     </row>
     <row r="67" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A67" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.3</v>
       </c>
-      <c r="B67" s="186" t="s">
+      <c r="B67" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="186"/>
-      <c r="D67" s="186"/>
-      <c r="E67" s="186"/>
-      <c r="F67" s="186"/>
-      <c r="G67" s="186"/>
-      <c r="H67" s="186"/>
-      <c r="I67" s="186"/>
-      <c r="J67" s="186"/>
-      <c r="K67" s="186"/>
-      <c r="L67" s="186"/>
-      <c r="M67" s="186"/>
-      <c r="N67" s="186"/>
-      <c r="O67" s="186"/>
-      <c r="P67" s="186"/>
-      <c r="Q67" s="186"/>
-      <c r="R67" s="186"/>
-      <c r="S67" s="186"/>
-      <c r="T67" s="186"/>
-      <c r="U67" s="186"/>
-      <c r="V67" s="186"/>
-      <c r="W67" s="186"/>
-      <c r="X67" s="186"/>
-      <c r="Y67" s="186"/>
-      <c r="Z67" s="186"/>
-      <c r="AA67" s="186"/>
-      <c r="AB67" s="186"/>
-      <c r="AC67" s="186"/>
-      <c r="AD67" s="186"/>
-      <c r="AE67" s="186"/>
-      <c r="AF67" s="186"/>
-      <c r="AG67" s="186"/>
-      <c r="AH67" s="186"/>
-      <c r="AI67" s="186"/>
-      <c r="AJ67" s="186"/>
-      <c r="AK67" s="186"/>
-      <c r="AL67" s="186"/>
-      <c r="AM67" s="186"/>
-      <c r="AN67" s="186"/>
-      <c r="AO67" s="186"/>
-      <c r="AP67" s="186"/>
-      <c r="AQ67" s="186"/>
-      <c r="AR67" s="186"/>
-      <c r="AS67" s="186"/>
-      <c r="AT67" s="186"/>
-      <c r="AU67" s="186"/>
-      <c r="AV67" s="186"/>
-      <c r="AW67" s="186"/>
-      <c r="AX67" s="186"/>
-      <c r="AY67" s="186"/>
-      <c r="AZ67" s="186"/>
-      <c r="BA67" s="186"/>
-      <c r="BB67" s="186"/>
-      <c r="BC67" s="186"/>
-      <c r="BD67" s="186"/>
-      <c r="BE67" s="186"/>
-      <c r="BF67" s="186"/>
-      <c r="BG67" s="186"/>
-      <c r="BH67" s="186"/>
-      <c r="BI67" s="186"/>
-      <c r="BJ67" s="186"/>
-      <c r="BK67" s="186"/>
-      <c r="BL67" s="186"/>
-      <c r="BM67" s="186"/>
-      <c r="BN67" s="186"/>
-      <c r="BO67" s="186"/>
-      <c r="BP67" s="186"/>
-      <c r="BQ67" s="186"/>
-      <c r="BR67" s="187"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="169"/>
+      <c r="E67" s="169"/>
+      <c r="F67" s="169"/>
+      <c r="G67" s="169"/>
+      <c r="H67" s="169"/>
+      <c r="I67" s="169"/>
+      <c r="J67" s="169"/>
+      <c r="K67" s="169"/>
+      <c r="L67" s="169"/>
+      <c r="M67" s="169"/>
+      <c r="N67" s="169"/>
+      <c r="O67" s="169"/>
+      <c r="P67" s="169"/>
+      <c r="Q67" s="169"/>
+      <c r="R67" s="169"/>
+      <c r="S67" s="169"/>
+      <c r="T67" s="169"/>
+      <c r="U67" s="169"/>
+      <c r="V67" s="169"/>
+      <c r="W67" s="169"/>
+      <c r="X67" s="169"/>
+      <c r="Y67" s="169"/>
+      <c r="Z67" s="169"/>
+      <c r="AA67" s="169"/>
+      <c r="AB67" s="169"/>
+      <c r="AC67" s="169"/>
+      <c r="AD67" s="169"/>
+      <c r="AE67" s="169"/>
+      <c r="AF67" s="169"/>
+      <c r="AG67" s="169"/>
+      <c r="AH67" s="169"/>
+      <c r="AI67" s="169"/>
+      <c r="AJ67" s="169"/>
+      <c r="AK67" s="169"/>
+      <c r="AL67" s="169"/>
+      <c r="AM67" s="169"/>
+      <c r="AN67" s="169"/>
+      <c r="AO67" s="169"/>
+      <c r="AP67" s="169"/>
+      <c r="AQ67" s="169"/>
+      <c r="AR67" s="169"/>
+      <c r="AS67" s="169"/>
+      <c r="AT67" s="169"/>
+      <c r="AU67" s="169"/>
+      <c r="AV67" s="169"/>
+      <c r="AW67" s="169"/>
+      <c r="AX67" s="169"/>
+      <c r="AY67" s="169"/>
+      <c r="AZ67" s="169"/>
+      <c r="BA67" s="169"/>
+      <c r="BB67" s="169"/>
+      <c r="BC67" s="169"/>
+      <c r="BD67" s="169"/>
+      <c r="BE67" s="169"/>
+      <c r="BF67" s="169"/>
+      <c r="BG67" s="169"/>
+      <c r="BH67" s="169"/>
+      <c r="BI67" s="169"/>
+      <c r="BJ67" s="169"/>
+      <c r="BK67" s="169"/>
+      <c r="BL67" s="169"/>
+      <c r="BM67" s="169"/>
+      <c r="BN67" s="169"/>
+      <c r="BO67" s="169"/>
+      <c r="BP67" s="169"/>
+      <c r="BQ67" s="169"/>
+      <c r="BR67" s="170"/>
     </row>
     <row r="68" spans="1:70" ht="17.25" thickBot="1">
       <c r="A68" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B68" s="184" t="s">
+      <c r="B68" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="184"/>
-      <c r="D68" s="184"/>
-      <c r="E68" s="184"/>
-      <c r="F68" s="184"/>
-      <c r="G68" s="184"/>
-      <c r="H68" s="184"/>
-      <c r="I68" s="184"/>
-      <c r="J68" s="184"/>
-      <c r="K68" s="184"/>
-      <c r="L68" s="184"/>
-      <c r="M68" s="184"/>
-      <c r="N68" s="184"/>
-      <c r="O68" s="184"/>
-      <c r="P68" s="184"/>
-      <c r="Q68" s="184"/>
-      <c r="R68" s="184"/>
-      <c r="S68" s="184"/>
-      <c r="T68" s="184"/>
-      <c r="U68" s="184"/>
-      <c r="V68" s="184"/>
-      <c r="W68" s="184"/>
-      <c r="X68" s="184"/>
-      <c r="Y68" s="184"/>
-      <c r="Z68" s="184"/>
-      <c r="AA68" s="184"/>
-      <c r="AB68" s="184"/>
-      <c r="AC68" s="184"/>
-      <c r="AD68" s="184"/>
-      <c r="AE68" s="184"/>
-      <c r="AF68" s="184"/>
-      <c r="AG68" s="184"/>
-      <c r="AH68" s="184"/>
-      <c r="AI68" s="184"/>
-      <c r="AJ68" s="184"/>
-      <c r="AK68" s="184"/>
-      <c r="AL68" s="184"/>
-      <c r="AM68" s="184"/>
-      <c r="AN68" s="184"/>
-      <c r="AO68" s="184"/>
-      <c r="AP68" s="184"/>
-      <c r="AQ68" s="184"/>
-      <c r="AR68" s="184"/>
-      <c r="AS68" s="184"/>
-      <c r="AT68" s="184"/>
-      <c r="AU68" s="184"/>
-      <c r="AV68" s="184"/>
-      <c r="AW68" s="184"/>
-      <c r="AX68" s="184"/>
-      <c r="AY68" s="184"/>
-      <c r="AZ68" s="184"/>
-      <c r="BA68" s="184"/>
-      <c r="BB68" s="184"/>
-      <c r="BC68" s="184"/>
-      <c r="BD68" s="184"/>
-      <c r="BE68" s="184"/>
-      <c r="BF68" s="184"/>
-      <c r="BG68" s="184"/>
-      <c r="BH68" s="184"/>
-      <c r="BI68" s="184"/>
-      <c r="BJ68" s="184"/>
-      <c r="BK68" s="184"/>
-      <c r="BL68" s="184"/>
-      <c r="BM68" s="184"/>
-      <c r="BN68" s="184"/>
-      <c r="BO68" s="184"/>
-      <c r="BP68" s="184"/>
-      <c r="BQ68" s="184"/>
-      <c r="BR68" s="185"/>
+      <c r="C68" s="163"/>
+      <c r="D68" s="163"/>
+      <c r="E68" s="163"/>
+      <c r="F68" s="163"/>
+      <c r="G68" s="163"/>
+      <c r="H68" s="163"/>
+      <c r="I68" s="163"/>
+      <c r="J68" s="163"/>
+      <c r="K68" s="163"/>
+      <c r="L68" s="163"/>
+      <c r="M68" s="163"/>
+      <c r="N68" s="163"/>
+      <c r="O68" s="163"/>
+      <c r="P68" s="163"/>
+      <c r="Q68" s="163"/>
+      <c r="R68" s="163"/>
+      <c r="S68" s="163"/>
+      <c r="T68" s="163"/>
+      <c r="U68" s="163"/>
+      <c r="V68" s="163"/>
+      <c r="W68" s="163"/>
+      <c r="X68" s="163"/>
+      <c r="Y68" s="163"/>
+      <c r="Z68" s="163"/>
+      <c r="AA68" s="163"/>
+      <c r="AB68" s="163"/>
+      <c r="AC68" s="163"/>
+      <c r="AD68" s="163"/>
+      <c r="AE68" s="163"/>
+      <c r="AF68" s="163"/>
+      <c r="AG68" s="163"/>
+      <c r="AH68" s="163"/>
+      <c r="AI68" s="163"/>
+      <c r="AJ68" s="163"/>
+      <c r="AK68" s="163"/>
+      <c r="AL68" s="163"/>
+      <c r="AM68" s="163"/>
+      <c r="AN68" s="163"/>
+      <c r="AO68" s="163"/>
+      <c r="AP68" s="163"/>
+      <c r="AQ68" s="163"/>
+      <c r="AR68" s="163"/>
+      <c r="AS68" s="163"/>
+      <c r="AT68" s="163"/>
+      <c r="AU68" s="163"/>
+      <c r="AV68" s="163"/>
+      <c r="AW68" s="163"/>
+      <c r="AX68" s="163"/>
+      <c r="AY68" s="163"/>
+      <c r="AZ68" s="163"/>
+      <c r="BA68" s="163"/>
+      <c r="BB68" s="163"/>
+      <c r="BC68" s="163"/>
+      <c r="BD68" s="163"/>
+      <c r="BE68" s="163"/>
+      <c r="BF68" s="163"/>
+      <c r="BG68" s="163"/>
+      <c r="BH68" s="163"/>
+      <c r="BI68" s="163"/>
+      <c r="BJ68" s="163"/>
+      <c r="BK68" s="163"/>
+      <c r="BL68" s="163"/>
+      <c r="BM68" s="163"/>
+      <c r="BN68" s="163"/>
+      <c r="BO68" s="163"/>
+      <c r="BP68" s="163"/>
+      <c r="BQ68" s="163"/>
+      <c r="BR68" s="164"/>
     </row>
     <row r="69" spans="1:70" s="55" customFormat="1">
       <c r="A69" s="57" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
-      <c r="B69" s="180" t="s">
+      <c r="B69" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="180"/>
-      <c r="D69" s="180"/>
-      <c r="E69" s="180"/>
-      <c r="F69" s="180"/>
-      <c r="G69" s="180"/>
-      <c r="H69" s="180"/>
-      <c r="I69" s="180"/>
-      <c r="J69" s="180"/>
-      <c r="K69" s="180"/>
-      <c r="L69" s="180"/>
-      <c r="M69" s="180"/>
-      <c r="N69" s="180"/>
-      <c r="O69" s="180"/>
-      <c r="P69" s="180"/>
-      <c r="Q69" s="180"/>
-      <c r="R69" s="180"/>
-      <c r="S69" s="180"/>
-      <c r="T69" s="180"/>
-      <c r="U69" s="180"/>
-      <c r="V69" s="180"/>
-      <c r="W69" s="180"/>
-      <c r="X69" s="180"/>
-      <c r="Y69" s="180"/>
-      <c r="Z69" s="180"/>
-      <c r="AA69" s="180"/>
-      <c r="AB69" s="180"/>
-      <c r="AC69" s="180"/>
-      <c r="AD69" s="180"/>
-      <c r="AE69" s="180"/>
-      <c r="AF69" s="180"/>
-      <c r="AG69" s="180"/>
-      <c r="AH69" s="180"/>
-      <c r="AI69" s="180"/>
-      <c r="AJ69" s="180"/>
-      <c r="AK69" s="180"/>
-      <c r="AL69" s="180"/>
-      <c r="AM69" s="180"/>
-      <c r="AN69" s="180"/>
-      <c r="AO69" s="180"/>
-      <c r="AP69" s="180"/>
-      <c r="AQ69" s="180"/>
-      <c r="AR69" s="180"/>
-      <c r="AS69" s="180"/>
-      <c r="AT69" s="180"/>
-      <c r="AU69" s="180"/>
-      <c r="AV69" s="180"/>
-      <c r="AW69" s="180"/>
-      <c r="AX69" s="180"/>
-      <c r="AY69" s="180"/>
-      <c r="AZ69" s="180"/>
-      <c r="BA69" s="180"/>
-      <c r="BB69" s="180"/>
-      <c r="BC69" s="180"/>
-      <c r="BD69" s="180"/>
-      <c r="BE69" s="180"/>
-      <c r="BF69" s="180"/>
-      <c r="BG69" s="180"/>
-      <c r="BH69" s="180"/>
-      <c r="BI69" s="180"/>
-      <c r="BJ69" s="180"/>
-      <c r="BK69" s="180"/>
-      <c r="BL69" s="180"/>
-      <c r="BM69" s="180"/>
-      <c r="BN69" s="180"/>
-      <c r="BO69" s="180"/>
-      <c r="BP69" s="180"/>
-      <c r="BQ69" s="180"/>
-      <c r="BR69" s="181"/>
+      <c r="C69" s="165"/>
+      <c r="D69" s="165"/>
+      <c r="E69" s="165"/>
+      <c r="F69" s="165"/>
+      <c r="G69" s="165"/>
+      <c r="H69" s="165"/>
+      <c r="I69" s="165"/>
+      <c r="J69" s="165"/>
+      <c r="K69" s="165"/>
+      <c r="L69" s="165"/>
+      <c r="M69" s="165"/>
+      <c r="N69" s="165"/>
+      <c r="O69" s="165"/>
+      <c r="P69" s="165"/>
+      <c r="Q69" s="165"/>
+      <c r="R69" s="165"/>
+      <c r="S69" s="165"/>
+      <c r="T69" s="165"/>
+      <c r="U69" s="165"/>
+      <c r="V69" s="165"/>
+      <c r="W69" s="165"/>
+      <c r="X69" s="165"/>
+      <c r="Y69" s="165"/>
+      <c r="Z69" s="165"/>
+      <c r="AA69" s="165"/>
+      <c r="AB69" s="165"/>
+      <c r="AC69" s="165"/>
+      <c r="AD69" s="165"/>
+      <c r="AE69" s="165"/>
+      <c r="AF69" s="165"/>
+      <c r="AG69" s="165"/>
+      <c r="AH69" s="165"/>
+      <c r="AI69" s="165"/>
+      <c r="AJ69" s="165"/>
+      <c r="AK69" s="165"/>
+      <c r="AL69" s="165"/>
+      <c r="AM69" s="165"/>
+      <c r="AN69" s="165"/>
+      <c r="AO69" s="165"/>
+      <c r="AP69" s="165"/>
+      <c r="AQ69" s="165"/>
+      <c r="AR69" s="165"/>
+      <c r="AS69" s="165"/>
+      <c r="AT69" s="165"/>
+      <c r="AU69" s="165"/>
+      <c r="AV69" s="165"/>
+      <c r="AW69" s="165"/>
+      <c r="AX69" s="165"/>
+      <c r="AY69" s="165"/>
+      <c r="AZ69" s="165"/>
+      <c r="BA69" s="165"/>
+      <c r="BB69" s="165"/>
+      <c r="BC69" s="165"/>
+      <c r="BD69" s="165"/>
+      <c r="BE69" s="165"/>
+      <c r="BF69" s="165"/>
+      <c r="BG69" s="165"/>
+      <c r="BH69" s="165"/>
+      <c r="BI69" s="165"/>
+      <c r="BJ69" s="165"/>
+      <c r="BK69" s="165"/>
+      <c r="BL69" s="165"/>
+      <c r="BM69" s="165"/>
+      <c r="BN69" s="165"/>
+      <c r="BO69" s="165"/>
+      <c r="BP69" s="165"/>
+      <c r="BQ69" s="165"/>
+      <c r="BR69" s="166"/>
     </row>
     <row r="70" spans="1:70" s="55" customFormat="1">
       <c r="A70" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
-      <c r="B70" s="182" t="s">
+      <c r="B70" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="C70" s="182"/>
-      <c r="D70" s="182"/>
-      <c r="E70" s="182"/>
-      <c r="F70" s="182"/>
-      <c r="G70" s="182"/>
-      <c r="H70" s="182"/>
-      <c r="I70" s="182"/>
-      <c r="J70" s="182"/>
-      <c r="K70" s="182"/>
-      <c r="L70" s="182"/>
-      <c r="M70" s="182"/>
-      <c r="N70" s="182"/>
-      <c r="O70" s="182"/>
-      <c r="P70" s="182"/>
-      <c r="Q70" s="182"/>
-      <c r="R70" s="182"/>
-      <c r="S70" s="182"/>
-      <c r="T70" s="182"/>
-      <c r="U70" s="182"/>
-      <c r="V70" s="182"/>
-      <c r="W70" s="182"/>
-      <c r="X70" s="182"/>
-      <c r="Y70" s="182"/>
-      <c r="Z70" s="182"/>
-      <c r="AA70" s="182"/>
-      <c r="AB70" s="182"/>
-      <c r="AC70" s="182"/>
-      <c r="AD70" s="182"/>
-      <c r="AE70" s="182"/>
-      <c r="AF70" s="182"/>
-      <c r="AG70" s="182"/>
-      <c r="AH70" s="182"/>
-      <c r="AI70" s="182"/>
-      <c r="AJ70" s="182"/>
-      <c r="AK70" s="182"/>
-      <c r="AL70" s="182"/>
-      <c r="AM70" s="182"/>
-      <c r="AN70" s="182"/>
-      <c r="AO70" s="182"/>
-      <c r="AP70" s="182"/>
-      <c r="AQ70" s="182"/>
-      <c r="AR70" s="182"/>
-      <c r="AS70" s="182"/>
-      <c r="AT70" s="182"/>
-      <c r="AU70" s="182"/>
-      <c r="AV70" s="182"/>
-      <c r="AW70" s="182"/>
-      <c r="AX70" s="182"/>
-      <c r="AY70" s="182"/>
-      <c r="AZ70" s="182"/>
-      <c r="BA70" s="182"/>
-      <c r="BB70" s="182"/>
-      <c r="BC70" s="182"/>
-      <c r="BD70" s="182"/>
-      <c r="BE70" s="182"/>
-      <c r="BF70" s="182"/>
-      <c r="BG70" s="182"/>
-      <c r="BH70" s="182"/>
-      <c r="BI70" s="182"/>
-      <c r="BJ70" s="182"/>
-      <c r="BK70" s="182"/>
-      <c r="BL70" s="182"/>
-      <c r="BM70" s="182"/>
-      <c r="BN70" s="182"/>
-      <c r="BO70" s="182"/>
-      <c r="BP70" s="182"/>
-      <c r="BQ70" s="182"/>
-      <c r="BR70" s="183"/>
+      <c r="C70" s="167"/>
+      <c r="D70" s="167"/>
+      <c r="E70" s="167"/>
+      <c r="F70" s="167"/>
+      <c r="G70" s="167"/>
+      <c r="H70" s="167"/>
+      <c r="I70" s="167"/>
+      <c r="J70" s="167"/>
+      <c r="K70" s="167"/>
+      <c r="L70" s="167"/>
+      <c r="M70" s="167"/>
+      <c r="N70" s="167"/>
+      <c r="O70" s="167"/>
+      <c r="P70" s="167"/>
+      <c r="Q70" s="167"/>
+      <c r="R70" s="167"/>
+      <c r="S70" s="167"/>
+      <c r="T70" s="167"/>
+      <c r="U70" s="167"/>
+      <c r="V70" s="167"/>
+      <c r="W70" s="167"/>
+      <c r="X70" s="167"/>
+      <c r="Y70" s="167"/>
+      <c r="Z70" s="167"/>
+      <c r="AA70" s="167"/>
+      <c r="AB70" s="167"/>
+      <c r="AC70" s="167"/>
+      <c r="AD70" s="167"/>
+      <c r="AE70" s="167"/>
+      <c r="AF70" s="167"/>
+      <c r="AG70" s="167"/>
+      <c r="AH70" s="167"/>
+      <c r="AI70" s="167"/>
+      <c r="AJ70" s="167"/>
+      <c r="AK70" s="167"/>
+      <c r="AL70" s="167"/>
+      <c r="AM70" s="167"/>
+      <c r="AN70" s="167"/>
+      <c r="AO70" s="167"/>
+      <c r="AP70" s="167"/>
+      <c r="AQ70" s="167"/>
+      <c r="AR70" s="167"/>
+      <c r="AS70" s="167"/>
+      <c r="AT70" s="167"/>
+      <c r="AU70" s="167"/>
+      <c r="AV70" s="167"/>
+      <c r="AW70" s="167"/>
+      <c r="AX70" s="167"/>
+      <c r="AY70" s="167"/>
+      <c r="AZ70" s="167"/>
+      <c r="BA70" s="167"/>
+      <c r="BB70" s="167"/>
+      <c r="BC70" s="167"/>
+      <c r="BD70" s="167"/>
+      <c r="BE70" s="167"/>
+      <c r="BF70" s="167"/>
+      <c r="BG70" s="167"/>
+      <c r="BH70" s="167"/>
+      <c r="BI70" s="167"/>
+      <c r="BJ70" s="167"/>
+      <c r="BK70" s="167"/>
+      <c r="BL70" s="167"/>
+      <c r="BM70" s="167"/>
+      <c r="BN70" s="167"/>
+      <c r="BO70" s="167"/>
+      <c r="BP70" s="167"/>
+      <c r="BQ70" s="167"/>
+      <c r="BR70" s="168"/>
     </row>
     <row r="71" spans="1:70" s="55" customFormat="1">
       <c r="A71" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
-      <c r="B71" s="182" t="s">
+      <c r="B71" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="182"/>
-      <c r="D71" s="182"/>
-      <c r="E71" s="182"/>
-      <c r="F71" s="182"/>
-      <c r="G71" s="182"/>
-      <c r="H71" s="182"/>
-      <c r="I71" s="182"/>
-      <c r="J71" s="182"/>
-      <c r="K71" s="182"/>
-      <c r="L71" s="182"/>
-      <c r="M71" s="182"/>
-      <c r="N71" s="182"/>
-      <c r="O71" s="182"/>
-      <c r="P71" s="182"/>
-      <c r="Q71" s="182"/>
-      <c r="R71" s="182"/>
-      <c r="S71" s="182"/>
-      <c r="T71" s="182"/>
-      <c r="U71" s="182"/>
-      <c r="V71" s="182"/>
-      <c r="W71" s="182"/>
-      <c r="X71" s="182"/>
-      <c r="Y71" s="182"/>
-      <c r="Z71" s="182"/>
-      <c r="AA71" s="182"/>
-      <c r="AB71" s="182"/>
-      <c r="AC71" s="182"/>
-      <c r="AD71" s="182"/>
-      <c r="AE71" s="182"/>
-      <c r="AF71" s="182"/>
-      <c r="AG71" s="182"/>
-      <c r="AH71" s="182"/>
-      <c r="AI71" s="182"/>
-      <c r="AJ71" s="182"/>
-      <c r="AK71" s="182"/>
-      <c r="AL71" s="182"/>
-      <c r="AM71" s="182"/>
-      <c r="AN71" s="182"/>
-      <c r="AO71" s="182"/>
-      <c r="AP71" s="182"/>
-      <c r="AQ71" s="182"/>
-      <c r="AR71" s="182"/>
-      <c r="AS71" s="182"/>
-      <c r="AT71" s="182"/>
-      <c r="AU71" s="182"/>
-      <c r="AV71" s="182"/>
-      <c r="AW71" s="182"/>
-      <c r="AX71" s="182"/>
-      <c r="AY71" s="182"/>
-      <c r="AZ71" s="182"/>
-      <c r="BA71" s="182"/>
-      <c r="BB71" s="182"/>
-      <c r="BC71" s="182"/>
-      <c r="BD71" s="182"/>
-      <c r="BE71" s="182"/>
-      <c r="BF71" s="182"/>
-      <c r="BG71" s="182"/>
-      <c r="BH71" s="182"/>
-      <c r="BI71" s="182"/>
-      <c r="BJ71" s="182"/>
-      <c r="BK71" s="182"/>
-      <c r="BL71" s="182"/>
-      <c r="BM71" s="182"/>
-      <c r="BN71" s="182"/>
-      <c r="BO71" s="182"/>
-      <c r="BP71" s="182"/>
-      <c r="BQ71" s="182"/>
-      <c r="BR71" s="183"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="167"/>
+      <c r="E71" s="167"/>
+      <c r="F71" s="167"/>
+      <c r="G71" s="167"/>
+      <c r="H71" s="167"/>
+      <c r="I71" s="167"/>
+      <c r="J71" s="167"/>
+      <c r="K71" s="167"/>
+      <c r="L71" s="167"/>
+      <c r="M71" s="167"/>
+      <c r="N71" s="167"/>
+      <c r="O71" s="167"/>
+      <c r="P71" s="167"/>
+      <c r="Q71" s="167"/>
+      <c r="R71" s="167"/>
+      <c r="S71" s="167"/>
+      <c r="T71" s="167"/>
+      <c r="U71" s="167"/>
+      <c r="V71" s="167"/>
+      <c r="W71" s="167"/>
+      <c r="X71" s="167"/>
+      <c r="Y71" s="167"/>
+      <c r="Z71" s="167"/>
+      <c r="AA71" s="167"/>
+      <c r="AB71" s="167"/>
+      <c r="AC71" s="167"/>
+      <c r="AD71" s="167"/>
+      <c r="AE71" s="167"/>
+      <c r="AF71" s="167"/>
+      <c r="AG71" s="167"/>
+      <c r="AH71" s="167"/>
+      <c r="AI71" s="167"/>
+      <c r="AJ71" s="167"/>
+      <c r="AK71" s="167"/>
+      <c r="AL71" s="167"/>
+      <c r="AM71" s="167"/>
+      <c r="AN71" s="167"/>
+      <c r="AO71" s="167"/>
+      <c r="AP71" s="167"/>
+      <c r="AQ71" s="167"/>
+      <c r="AR71" s="167"/>
+      <c r="AS71" s="167"/>
+      <c r="AT71" s="167"/>
+      <c r="AU71" s="167"/>
+      <c r="AV71" s="167"/>
+      <c r="AW71" s="167"/>
+      <c r="AX71" s="167"/>
+      <c r="AY71" s="167"/>
+      <c r="AZ71" s="167"/>
+      <c r="BA71" s="167"/>
+      <c r="BB71" s="167"/>
+      <c r="BC71" s="167"/>
+      <c r="BD71" s="167"/>
+      <c r="BE71" s="167"/>
+      <c r="BF71" s="167"/>
+      <c r="BG71" s="167"/>
+      <c r="BH71" s="167"/>
+      <c r="BI71" s="167"/>
+      <c r="BJ71" s="167"/>
+      <c r="BK71" s="167"/>
+      <c r="BL71" s="167"/>
+      <c r="BM71" s="167"/>
+      <c r="BN71" s="167"/>
+      <c r="BO71" s="167"/>
+      <c r="BP71" s="167"/>
+      <c r="BQ71" s="167"/>
+      <c r="BR71" s="168"/>
     </row>
     <row r="72" spans="1:70" s="55" customFormat="1">
       <c r="A72" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
-      <c r="B72" s="182" t="s">
+      <c r="B72" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="182"/>
-      <c r="D72" s="182"/>
-      <c r="E72" s="182"/>
-      <c r="F72" s="182"/>
-      <c r="G72" s="182"/>
-      <c r="H72" s="182"/>
-      <c r="I72" s="182"/>
-      <c r="J72" s="182"/>
-      <c r="K72" s="182"/>
-      <c r="L72" s="182"/>
-      <c r="M72" s="182"/>
-      <c r="N72" s="182"/>
-      <c r="O72" s="182"/>
-      <c r="P72" s="182"/>
-      <c r="Q72" s="182"/>
-      <c r="R72" s="182"/>
-      <c r="S72" s="182"/>
-      <c r="T72" s="182"/>
-      <c r="U72" s="182"/>
-      <c r="V72" s="182"/>
-      <c r="W72" s="182"/>
-      <c r="X72" s="182"/>
-      <c r="Y72" s="182"/>
-      <c r="Z72" s="182"/>
-      <c r="AA72" s="182"/>
-      <c r="AB72" s="182"/>
-      <c r="AC72" s="182"/>
-      <c r="AD72" s="182"/>
-      <c r="AE72" s="182"/>
-      <c r="AF72" s="182"/>
-      <c r="AG72" s="182"/>
-      <c r="AH72" s="182"/>
-      <c r="AI72" s="182"/>
-      <c r="AJ72" s="182"/>
-      <c r="AK72" s="182"/>
-      <c r="AL72" s="182"/>
-      <c r="AM72" s="182"/>
-      <c r="AN72" s="182"/>
-      <c r="AO72" s="182"/>
-      <c r="AP72" s="182"/>
-      <c r="AQ72" s="182"/>
-      <c r="AR72" s="182"/>
-      <c r="AS72" s="182"/>
-      <c r="AT72" s="182"/>
-      <c r="AU72" s="182"/>
-      <c r="AV72" s="182"/>
-      <c r="AW72" s="182"/>
-      <c r="AX72" s="182"/>
-      <c r="AY72" s="182"/>
-      <c r="AZ72" s="182"/>
-      <c r="BA72" s="182"/>
-      <c r="BB72" s="182"/>
-      <c r="BC72" s="182"/>
-      <c r="BD72" s="182"/>
-      <c r="BE72" s="182"/>
-      <c r="BF72" s="182"/>
-      <c r="BG72" s="182"/>
-      <c r="BH72" s="182"/>
-      <c r="BI72" s="182"/>
-      <c r="BJ72" s="182"/>
-      <c r="BK72" s="182"/>
-      <c r="BL72" s="182"/>
-      <c r="BM72" s="182"/>
-      <c r="BN72" s="182"/>
-      <c r="BO72" s="182"/>
-      <c r="BP72" s="182"/>
-      <c r="BQ72" s="182"/>
-      <c r="BR72" s="183"/>
+      <c r="C72" s="167"/>
+      <c r="D72" s="167"/>
+      <c r="E72" s="167"/>
+      <c r="F72" s="167"/>
+      <c r="G72" s="167"/>
+      <c r="H72" s="167"/>
+      <c r="I72" s="167"/>
+      <c r="J72" s="167"/>
+      <c r="K72" s="167"/>
+      <c r="L72" s="167"/>
+      <c r="M72" s="167"/>
+      <c r="N72" s="167"/>
+      <c r="O72" s="167"/>
+      <c r="P72" s="167"/>
+      <c r="Q72" s="167"/>
+      <c r="R72" s="167"/>
+      <c r="S72" s="167"/>
+      <c r="T72" s="167"/>
+      <c r="U72" s="167"/>
+      <c r="V72" s="167"/>
+      <c r="W72" s="167"/>
+      <c r="X72" s="167"/>
+      <c r="Y72" s="167"/>
+      <c r="Z72" s="167"/>
+      <c r="AA72" s="167"/>
+      <c r="AB72" s="167"/>
+      <c r="AC72" s="167"/>
+      <c r="AD72" s="167"/>
+      <c r="AE72" s="167"/>
+      <c r="AF72" s="167"/>
+      <c r="AG72" s="167"/>
+      <c r="AH72" s="167"/>
+      <c r="AI72" s="167"/>
+      <c r="AJ72" s="167"/>
+      <c r="AK72" s="167"/>
+      <c r="AL72" s="167"/>
+      <c r="AM72" s="167"/>
+      <c r="AN72" s="167"/>
+      <c r="AO72" s="167"/>
+      <c r="AP72" s="167"/>
+      <c r="AQ72" s="167"/>
+      <c r="AR72" s="167"/>
+      <c r="AS72" s="167"/>
+      <c r="AT72" s="167"/>
+      <c r="AU72" s="167"/>
+      <c r="AV72" s="167"/>
+      <c r="AW72" s="167"/>
+      <c r="AX72" s="167"/>
+      <c r="AY72" s="167"/>
+      <c r="AZ72" s="167"/>
+      <c r="BA72" s="167"/>
+      <c r="BB72" s="167"/>
+      <c r="BC72" s="167"/>
+      <c r="BD72" s="167"/>
+      <c r="BE72" s="167"/>
+      <c r="BF72" s="167"/>
+      <c r="BG72" s="167"/>
+      <c r="BH72" s="167"/>
+      <c r="BI72" s="167"/>
+      <c r="BJ72" s="167"/>
+      <c r="BK72" s="167"/>
+      <c r="BL72" s="167"/>
+      <c r="BM72" s="167"/>
+      <c r="BN72" s="167"/>
+      <c r="BO72" s="167"/>
+      <c r="BP72" s="167"/>
+      <c r="BQ72" s="167"/>
+      <c r="BR72" s="168"/>
     </row>
     <row r="73" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A73" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.5</v>
       </c>
-      <c r="B73" s="186" t="s">
+      <c r="B73" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="186"/>
-      <c r="D73" s="186"/>
-      <c r="E73" s="186"/>
-      <c r="F73" s="186"/>
-      <c r="G73" s="186"/>
-      <c r="H73" s="186"/>
-      <c r="I73" s="186"/>
-      <c r="J73" s="186"/>
-      <c r="K73" s="186"/>
-      <c r="L73" s="186"/>
-      <c r="M73" s="186"/>
-      <c r="N73" s="186"/>
-      <c r="O73" s="186"/>
-      <c r="P73" s="186"/>
-      <c r="Q73" s="186"/>
-      <c r="R73" s="186"/>
-      <c r="S73" s="186"/>
-      <c r="T73" s="186"/>
-      <c r="U73" s="186"/>
-      <c r="V73" s="186"/>
-      <c r="W73" s="186"/>
-      <c r="X73" s="186"/>
-      <c r="Y73" s="186"/>
-      <c r="Z73" s="186"/>
-      <c r="AA73" s="186"/>
-      <c r="AB73" s="186"/>
-      <c r="AC73" s="186"/>
-      <c r="AD73" s="186"/>
-      <c r="AE73" s="186"/>
-      <c r="AF73" s="186"/>
-      <c r="AG73" s="186"/>
-      <c r="AH73" s="186"/>
-      <c r="AI73" s="186"/>
-      <c r="AJ73" s="186"/>
-      <c r="AK73" s="186"/>
-      <c r="AL73" s="186"/>
-      <c r="AM73" s="186"/>
-      <c r="AN73" s="186"/>
-      <c r="AO73" s="186"/>
-      <c r="AP73" s="186"/>
-      <c r="AQ73" s="186"/>
-      <c r="AR73" s="186"/>
-      <c r="AS73" s="186"/>
-      <c r="AT73" s="186"/>
-      <c r="AU73" s="186"/>
-      <c r="AV73" s="186"/>
-      <c r="AW73" s="186"/>
-      <c r="AX73" s="186"/>
-      <c r="AY73" s="186"/>
-      <c r="AZ73" s="186"/>
-      <c r="BA73" s="186"/>
-      <c r="BB73" s="186"/>
-      <c r="BC73" s="186"/>
-      <c r="BD73" s="186"/>
-      <c r="BE73" s="186"/>
-      <c r="BF73" s="186"/>
-      <c r="BG73" s="186"/>
-      <c r="BH73" s="186"/>
-      <c r="BI73" s="186"/>
-      <c r="BJ73" s="186"/>
-      <c r="BK73" s="186"/>
-      <c r="BL73" s="186"/>
-      <c r="BM73" s="186"/>
-      <c r="BN73" s="186"/>
-      <c r="BO73" s="186"/>
-      <c r="BP73" s="186"/>
-      <c r="BQ73" s="186"/>
-      <c r="BR73" s="187"/>
+      <c r="C73" s="169"/>
+      <c r="D73" s="169"/>
+      <c r="E73" s="169"/>
+      <c r="F73" s="169"/>
+      <c r="G73" s="169"/>
+      <c r="H73" s="169"/>
+      <c r="I73" s="169"/>
+      <c r="J73" s="169"/>
+      <c r="K73" s="169"/>
+      <c r="L73" s="169"/>
+      <c r="M73" s="169"/>
+      <c r="N73" s="169"/>
+      <c r="O73" s="169"/>
+      <c r="P73" s="169"/>
+      <c r="Q73" s="169"/>
+      <c r="R73" s="169"/>
+      <c r="S73" s="169"/>
+      <c r="T73" s="169"/>
+      <c r="U73" s="169"/>
+      <c r="V73" s="169"/>
+      <c r="W73" s="169"/>
+      <c r="X73" s="169"/>
+      <c r="Y73" s="169"/>
+      <c r="Z73" s="169"/>
+      <c r="AA73" s="169"/>
+      <c r="AB73" s="169"/>
+      <c r="AC73" s="169"/>
+      <c r="AD73" s="169"/>
+      <c r="AE73" s="169"/>
+      <c r="AF73" s="169"/>
+      <c r="AG73" s="169"/>
+      <c r="AH73" s="169"/>
+      <c r="AI73" s="169"/>
+      <c r="AJ73" s="169"/>
+      <c r="AK73" s="169"/>
+      <c r="AL73" s="169"/>
+      <c r="AM73" s="169"/>
+      <c r="AN73" s="169"/>
+      <c r="AO73" s="169"/>
+      <c r="AP73" s="169"/>
+      <c r="AQ73" s="169"/>
+      <c r="AR73" s="169"/>
+      <c r="AS73" s="169"/>
+      <c r="AT73" s="169"/>
+      <c r="AU73" s="169"/>
+      <c r="AV73" s="169"/>
+      <c r="AW73" s="169"/>
+      <c r="AX73" s="169"/>
+      <c r="AY73" s="169"/>
+      <c r="AZ73" s="169"/>
+      <c r="BA73" s="169"/>
+      <c r="BB73" s="169"/>
+      <c r="BC73" s="169"/>
+      <c r="BD73" s="169"/>
+      <c r="BE73" s="169"/>
+      <c r="BF73" s="169"/>
+      <c r="BG73" s="169"/>
+      <c r="BH73" s="169"/>
+      <c r="BI73" s="169"/>
+      <c r="BJ73" s="169"/>
+      <c r="BK73" s="169"/>
+      <c r="BL73" s="169"/>
+      <c r="BM73" s="169"/>
+      <c r="BN73" s="169"/>
+      <c r="BO73" s="169"/>
+      <c r="BP73" s="169"/>
+      <c r="BQ73" s="169"/>
+      <c r="BR73" s="170"/>
     </row>
     <row r="74" spans="1:70" ht="17.25" thickBot="1">
       <c r="A74" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B74" s="184" t="s">
+      <c r="B74" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="184"/>
-      <c r="D74" s="184"/>
-      <c r="E74" s="184"/>
-      <c r="F74" s="184"/>
-      <c r="G74" s="184"/>
-      <c r="H74" s="184"/>
-      <c r="I74" s="184"/>
-      <c r="J74" s="184"/>
-      <c r="K74" s="184"/>
-      <c r="L74" s="184"/>
-      <c r="M74" s="184"/>
-      <c r="N74" s="184"/>
-      <c r="O74" s="184"/>
-      <c r="P74" s="184"/>
-      <c r="Q74" s="184"/>
-      <c r="R74" s="184"/>
-      <c r="S74" s="184"/>
-      <c r="T74" s="184"/>
-      <c r="U74" s="184"/>
-      <c r="V74" s="184"/>
-      <c r="W74" s="184"/>
-      <c r="X74" s="184"/>
-      <c r="Y74" s="184"/>
-      <c r="Z74" s="184"/>
-      <c r="AA74" s="184"/>
-      <c r="AB74" s="184"/>
-      <c r="AC74" s="184"/>
-      <c r="AD74" s="184"/>
-      <c r="AE74" s="184"/>
-      <c r="AF74" s="184"/>
-      <c r="AG74" s="184"/>
-      <c r="AH74" s="184"/>
-      <c r="AI74" s="184"/>
-      <c r="AJ74" s="184"/>
-      <c r="AK74" s="184"/>
-      <c r="AL74" s="184"/>
-      <c r="AM74" s="184"/>
-      <c r="AN74" s="184"/>
-      <c r="AO74" s="184"/>
-      <c r="AP74" s="184"/>
-      <c r="AQ74" s="184"/>
-      <c r="AR74" s="184"/>
-      <c r="AS74" s="184"/>
-      <c r="AT74" s="184"/>
-      <c r="AU74" s="184"/>
-      <c r="AV74" s="184"/>
-      <c r="AW74" s="184"/>
-      <c r="AX74" s="184"/>
-      <c r="AY74" s="184"/>
-      <c r="AZ74" s="184"/>
-      <c r="BA74" s="184"/>
-      <c r="BB74" s="184"/>
-      <c r="BC74" s="184"/>
-      <c r="BD74" s="184"/>
-      <c r="BE74" s="184"/>
-      <c r="BF74" s="184"/>
-      <c r="BG74" s="184"/>
-      <c r="BH74" s="184"/>
-      <c r="BI74" s="184"/>
-      <c r="BJ74" s="184"/>
-      <c r="BK74" s="184"/>
-      <c r="BL74" s="184"/>
-      <c r="BM74" s="184"/>
-      <c r="BN74" s="184"/>
-      <c r="BO74" s="184"/>
-      <c r="BP74" s="184"/>
-      <c r="BQ74" s="184"/>
-      <c r="BR74" s="185"/>
+      <c r="C74" s="163"/>
+      <c r="D74" s="163"/>
+      <c r="E74" s="163"/>
+      <c r="F74" s="163"/>
+      <c r="G74" s="163"/>
+      <c r="H74" s="163"/>
+      <c r="I74" s="163"/>
+      <c r="J74" s="163"/>
+      <c r="K74" s="163"/>
+      <c r="L74" s="163"/>
+      <c r="M74" s="163"/>
+      <c r="N74" s="163"/>
+      <c r="O74" s="163"/>
+      <c r="P74" s="163"/>
+      <c r="Q74" s="163"/>
+      <c r="R74" s="163"/>
+      <c r="S74" s="163"/>
+      <c r="T74" s="163"/>
+      <c r="U74" s="163"/>
+      <c r="V74" s="163"/>
+      <c r="W74" s="163"/>
+      <c r="X74" s="163"/>
+      <c r="Y74" s="163"/>
+      <c r="Z74" s="163"/>
+      <c r="AA74" s="163"/>
+      <c r="AB74" s="163"/>
+      <c r="AC74" s="163"/>
+      <c r="AD74" s="163"/>
+      <c r="AE74" s="163"/>
+      <c r="AF74" s="163"/>
+      <c r="AG74" s="163"/>
+      <c r="AH74" s="163"/>
+      <c r="AI74" s="163"/>
+      <c r="AJ74" s="163"/>
+      <c r="AK74" s="163"/>
+      <c r="AL74" s="163"/>
+      <c r="AM74" s="163"/>
+      <c r="AN74" s="163"/>
+      <c r="AO74" s="163"/>
+      <c r="AP74" s="163"/>
+      <c r="AQ74" s="163"/>
+      <c r="AR74" s="163"/>
+      <c r="AS74" s="163"/>
+      <c r="AT74" s="163"/>
+      <c r="AU74" s="163"/>
+      <c r="AV74" s="163"/>
+      <c r="AW74" s="163"/>
+      <c r="AX74" s="163"/>
+      <c r="AY74" s="163"/>
+      <c r="AZ74" s="163"/>
+      <c r="BA74" s="163"/>
+      <c r="BB74" s="163"/>
+      <c r="BC74" s="163"/>
+      <c r="BD74" s="163"/>
+      <c r="BE74" s="163"/>
+      <c r="BF74" s="163"/>
+      <c r="BG74" s="163"/>
+      <c r="BH74" s="163"/>
+      <c r="BI74" s="163"/>
+      <c r="BJ74" s="163"/>
+      <c r="BK74" s="163"/>
+      <c r="BL74" s="163"/>
+      <c r="BM74" s="163"/>
+      <c r="BN74" s="163"/>
+      <c r="BO74" s="163"/>
+      <c r="BP74" s="163"/>
+      <c r="BQ74" s="163"/>
+      <c r="BR74" s="164"/>
     </row>
     <row r="75" spans="1:70" s="55" customFormat="1">
       <c r="A75" s="57" t="str">
         <f t="shared" ref="A75:A80" si="64">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B75" s="180" t="s">
+      <c r="B75" s="165" t="s">
         <v>49</v>
       </c>
-      <c r="C75" s="180"/>
-      <c r="D75" s="180"/>
-      <c r="E75" s="180"/>
-      <c r="F75" s="180"/>
-      <c r="G75" s="180"/>
-      <c r="H75" s="180"/>
-      <c r="I75" s="180"/>
-      <c r="J75" s="180"/>
-      <c r="K75" s="180"/>
-      <c r="L75" s="180"/>
-      <c r="M75" s="180"/>
-      <c r="N75" s="180"/>
-      <c r="O75" s="180"/>
-      <c r="P75" s="180"/>
-      <c r="Q75" s="180"/>
-      <c r="R75" s="180"/>
-      <c r="S75" s="180"/>
-      <c r="T75" s="180"/>
-      <c r="U75" s="180"/>
-      <c r="V75" s="180"/>
-      <c r="W75" s="180"/>
-      <c r="X75" s="180"/>
-      <c r="Y75" s="180"/>
-      <c r="Z75" s="180"/>
-      <c r="AA75" s="180"/>
-      <c r="AB75" s="180"/>
-      <c r="AC75" s="180"/>
-      <c r="AD75" s="180"/>
-      <c r="AE75" s="180"/>
-      <c r="AF75" s="180"/>
-      <c r="AG75" s="180"/>
-      <c r="AH75" s="180"/>
-      <c r="AI75" s="180"/>
-      <c r="AJ75" s="180"/>
-      <c r="AK75" s="180"/>
-      <c r="AL75" s="180"/>
-      <c r="AM75" s="180"/>
-      <c r="AN75" s="180"/>
-      <c r="AO75" s="180"/>
-      <c r="AP75" s="180"/>
-      <c r="AQ75" s="180"/>
-      <c r="AR75" s="180"/>
-      <c r="AS75" s="180"/>
-      <c r="AT75" s="180"/>
-      <c r="AU75" s="180"/>
-      <c r="AV75" s="180"/>
-      <c r="AW75" s="180"/>
-      <c r="AX75" s="180"/>
-      <c r="AY75" s="180"/>
-      <c r="AZ75" s="180"/>
-      <c r="BA75" s="180"/>
-      <c r="BB75" s="180"/>
-      <c r="BC75" s="180"/>
-      <c r="BD75" s="180"/>
-      <c r="BE75" s="180"/>
-      <c r="BF75" s="180"/>
-      <c r="BG75" s="180"/>
-      <c r="BH75" s="180"/>
-      <c r="BI75" s="180"/>
-      <c r="BJ75" s="180"/>
-      <c r="BK75" s="180"/>
-      <c r="BL75" s="180"/>
-      <c r="BM75" s="180"/>
-      <c r="BN75" s="180"/>
-      <c r="BO75" s="180"/>
-      <c r="BP75" s="180"/>
-      <c r="BQ75" s="180"/>
-      <c r="BR75" s="181"/>
+      <c r="C75" s="165"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="165"/>
+      <c r="G75" s="165"/>
+      <c r="H75" s="165"/>
+      <c r="I75" s="165"/>
+      <c r="J75" s="165"/>
+      <c r="K75" s="165"/>
+      <c r="L75" s="165"/>
+      <c r="M75" s="165"/>
+      <c r="N75" s="165"/>
+      <c r="O75" s="165"/>
+      <c r="P75" s="165"/>
+      <c r="Q75" s="165"/>
+      <c r="R75" s="165"/>
+      <c r="S75" s="165"/>
+      <c r="T75" s="165"/>
+      <c r="U75" s="165"/>
+      <c r="V75" s="165"/>
+      <c r="W75" s="165"/>
+      <c r="X75" s="165"/>
+      <c r="Y75" s="165"/>
+      <c r="Z75" s="165"/>
+      <c r="AA75" s="165"/>
+      <c r="AB75" s="165"/>
+      <c r="AC75" s="165"/>
+      <c r="AD75" s="165"/>
+      <c r="AE75" s="165"/>
+      <c r="AF75" s="165"/>
+      <c r="AG75" s="165"/>
+      <c r="AH75" s="165"/>
+      <c r="AI75" s="165"/>
+      <c r="AJ75" s="165"/>
+      <c r="AK75" s="165"/>
+      <c r="AL75" s="165"/>
+      <c r="AM75" s="165"/>
+      <c r="AN75" s="165"/>
+      <c r="AO75" s="165"/>
+      <c r="AP75" s="165"/>
+      <c r="AQ75" s="165"/>
+      <c r="AR75" s="165"/>
+      <c r="AS75" s="165"/>
+      <c r="AT75" s="165"/>
+      <c r="AU75" s="165"/>
+      <c r="AV75" s="165"/>
+      <c r="AW75" s="165"/>
+      <c r="AX75" s="165"/>
+      <c r="AY75" s="165"/>
+      <c r="AZ75" s="165"/>
+      <c r="BA75" s="165"/>
+      <c r="BB75" s="165"/>
+      <c r="BC75" s="165"/>
+      <c r="BD75" s="165"/>
+      <c r="BE75" s="165"/>
+      <c r="BF75" s="165"/>
+      <c r="BG75" s="165"/>
+      <c r="BH75" s="165"/>
+      <c r="BI75" s="165"/>
+      <c r="BJ75" s="165"/>
+      <c r="BK75" s="165"/>
+      <c r="BL75" s="165"/>
+      <c r="BM75" s="165"/>
+      <c r="BN75" s="165"/>
+      <c r="BO75" s="165"/>
+      <c r="BP75" s="165"/>
+      <c r="BQ75" s="165"/>
+      <c r="BR75" s="166"/>
     </row>
     <row r="76" spans="1:70" s="55" customFormat="1">
       <c r="A76" s="58" t="str">
         <f t="shared" si="64"/>
         <v>3.2</v>
       </c>
-      <c r="B76" s="182" t="s">
+      <c r="B76" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="182"/>
-      <c r="D76" s="182"/>
-      <c r="E76" s="182"/>
-      <c r="F76" s="182"/>
-      <c r="G76" s="182"/>
-      <c r="H76" s="182"/>
-      <c r="I76" s="182"/>
-      <c r="J76" s="182"/>
-      <c r="K76" s="182"/>
-      <c r="L76" s="182"/>
-      <c r="M76" s="182"/>
-      <c r="N76" s="182"/>
-      <c r="O76" s="182"/>
-      <c r="P76" s="182"/>
-      <c r="Q76" s="182"/>
-      <c r="R76" s="182"/>
-      <c r="S76" s="182"/>
-      <c r="T76" s="182"/>
-      <c r="U76" s="182"/>
-      <c r="V76" s="182"/>
-      <c r="W76" s="182"/>
-      <c r="X76" s="182"/>
-      <c r="Y76" s="182"/>
-      <c r="Z76" s="182"/>
-      <c r="AA76" s="182"/>
-      <c r="AB76" s="182"/>
-      <c r="AC76" s="182"/>
-      <c r="AD76" s="182"/>
-      <c r="AE76" s="182"/>
-      <c r="AF76" s="182"/>
-      <c r="AG76" s="182"/>
-      <c r="AH76" s="182"/>
-      <c r="AI76" s="182"/>
-      <c r="AJ76" s="182"/>
-      <c r="AK76" s="182"/>
-      <c r="AL76" s="182"/>
-      <c r="AM76" s="182"/>
-      <c r="AN76" s="182"/>
-      <c r="AO76" s="182"/>
-      <c r="AP76" s="182"/>
-      <c r="AQ76" s="182"/>
-      <c r="AR76" s="182"/>
-      <c r="AS76" s="182"/>
-      <c r="AT76" s="182"/>
-      <c r="AU76" s="182"/>
-      <c r="AV76" s="182"/>
-      <c r="AW76" s="182"/>
-      <c r="AX76" s="182"/>
-      <c r="AY76" s="182"/>
-      <c r="AZ76" s="182"/>
-      <c r="BA76" s="182"/>
-      <c r="BB76" s="182"/>
-      <c r="BC76" s="182"/>
-      <c r="BD76" s="182"/>
-      <c r="BE76" s="182"/>
-      <c r="BF76" s="182"/>
-      <c r="BG76" s="182"/>
-      <c r="BH76" s="182"/>
-      <c r="BI76" s="182"/>
-      <c r="BJ76" s="182"/>
-      <c r="BK76" s="182"/>
-      <c r="BL76" s="182"/>
-      <c r="BM76" s="182"/>
-      <c r="BN76" s="182"/>
-      <c r="BO76" s="182"/>
-      <c r="BP76" s="182"/>
-      <c r="BQ76" s="182"/>
-      <c r="BR76" s="183"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="167"/>
+      <c r="E76" s="167"/>
+      <c r="F76" s="167"/>
+      <c r="G76" s="167"/>
+      <c r="H76" s="167"/>
+      <c r="I76" s="167"/>
+      <c r="J76" s="167"/>
+      <c r="K76" s="167"/>
+      <c r="L76" s="167"/>
+      <c r="M76" s="167"/>
+      <c r="N76" s="167"/>
+      <c r="O76" s="167"/>
+      <c r="P76" s="167"/>
+      <c r="Q76" s="167"/>
+      <c r="R76" s="167"/>
+      <c r="S76" s="167"/>
+      <c r="T76" s="167"/>
+      <c r="U76" s="167"/>
+      <c r="V76" s="167"/>
+      <c r="W76" s="167"/>
+      <c r="X76" s="167"/>
+      <c r="Y76" s="167"/>
+      <c r="Z76" s="167"/>
+      <c r="AA76" s="167"/>
+      <c r="AB76" s="167"/>
+      <c r="AC76" s="167"/>
+      <c r="AD76" s="167"/>
+      <c r="AE76" s="167"/>
+      <c r="AF76" s="167"/>
+      <c r="AG76" s="167"/>
+      <c r="AH76" s="167"/>
+      <c r="AI76" s="167"/>
+      <c r="AJ76" s="167"/>
+      <c r="AK76" s="167"/>
+      <c r="AL76" s="167"/>
+      <c r="AM76" s="167"/>
+      <c r="AN76" s="167"/>
+      <c r="AO76" s="167"/>
+      <c r="AP76" s="167"/>
+      <c r="AQ76" s="167"/>
+      <c r="AR76" s="167"/>
+      <c r="AS76" s="167"/>
+      <c r="AT76" s="167"/>
+      <c r="AU76" s="167"/>
+      <c r="AV76" s="167"/>
+      <c r="AW76" s="167"/>
+      <c r="AX76" s="167"/>
+      <c r="AY76" s="167"/>
+      <c r="AZ76" s="167"/>
+      <c r="BA76" s="167"/>
+      <c r="BB76" s="167"/>
+      <c r="BC76" s="167"/>
+      <c r="BD76" s="167"/>
+      <c r="BE76" s="167"/>
+      <c r="BF76" s="167"/>
+      <c r="BG76" s="167"/>
+      <c r="BH76" s="167"/>
+      <c r="BI76" s="167"/>
+      <c r="BJ76" s="167"/>
+      <c r="BK76" s="167"/>
+      <c r="BL76" s="167"/>
+      <c r="BM76" s="167"/>
+      <c r="BN76" s="167"/>
+      <c r="BO76" s="167"/>
+      <c r="BP76" s="167"/>
+      <c r="BQ76" s="167"/>
+      <c r="BR76" s="168"/>
     </row>
     <row r="77" spans="1:70" s="55" customFormat="1">
       <c r="A77" s="58" t="str">
         <f t="shared" si="64"/>
         <v>3.3</v>
       </c>
-      <c r="B77" s="182" t="s">
+      <c r="B77" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="182"/>
-      <c r="D77" s="182"/>
-      <c r="E77" s="182"/>
-      <c r="F77" s="182"/>
-      <c r="G77" s="182"/>
-      <c r="H77" s="182"/>
-      <c r="I77" s="182"/>
-      <c r="J77" s="182"/>
-      <c r="K77" s="182"/>
-      <c r="L77" s="182"/>
-      <c r="M77" s="182"/>
-      <c r="N77" s="182"/>
-      <c r="O77" s="182"/>
-      <c r="P77" s="182"/>
-      <c r="Q77" s="182"/>
-      <c r="R77" s="182"/>
-      <c r="S77" s="182"/>
-      <c r="T77" s="182"/>
-      <c r="U77" s="182"/>
-      <c r="V77" s="182"/>
-      <c r="W77" s="182"/>
-      <c r="X77" s="182"/>
-      <c r="Y77" s="182"/>
-      <c r="Z77" s="182"/>
-      <c r="AA77" s="182"/>
-      <c r="AB77" s="182"/>
-      <c r="AC77" s="182"/>
-      <c r="AD77" s="182"/>
-      <c r="AE77" s="182"/>
-      <c r="AF77" s="182"/>
-      <c r="AG77" s="182"/>
-      <c r="AH77" s="182"/>
-      <c r="AI77" s="182"/>
-      <c r="AJ77" s="182"/>
-      <c r="AK77" s="182"/>
-      <c r="AL77" s="182"/>
-      <c r="AM77" s="182"/>
-      <c r="AN77" s="182"/>
-      <c r="AO77" s="182"/>
-      <c r="AP77" s="182"/>
-      <c r="AQ77" s="182"/>
-      <c r="AR77" s="182"/>
-      <c r="AS77" s="182"/>
-      <c r="AT77" s="182"/>
-      <c r="AU77" s="182"/>
-      <c r="AV77" s="182"/>
-      <c r="AW77" s="182"/>
-      <c r="AX77" s="182"/>
-      <c r="AY77" s="182"/>
-      <c r="AZ77" s="182"/>
-      <c r="BA77" s="182"/>
-      <c r="BB77" s="182"/>
-      <c r="BC77" s="182"/>
-      <c r="BD77" s="182"/>
-      <c r="BE77" s="182"/>
-      <c r="BF77" s="182"/>
-      <c r="BG77" s="182"/>
-      <c r="BH77" s="182"/>
-      <c r="BI77" s="182"/>
-      <c r="BJ77" s="182"/>
-      <c r="BK77" s="182"/>
-      <c r="BL77" s="182"/>
-      <c r="BM77" s="182"/>
-      <c r="BN77" s="182"/>
-      <c r="BO77" s="182"/>
-      <c r="BP77" s="182"/>
-      <c r="BQ77" s="182"/>
-      <c r="BR77" s="183"/>
+      <c r="C77" s="167"/>
+      <c r="D77" s="167"/>
+      <c r="E77" s="167"/>
+      <c r="F77" s="167"/>
+      <c r="G77" s="167"/>
+      <c r="H77" s="167"/>
+      <c r="I77" s="167"/>
+      <c r="J77" s="167"/>
+      <c r="K77" s="167"/>
+      <c r="L77" s="167"/>
+      <c r="M77" s="167"/>
+      <c r="N77" s="167"/>
+      <c r="O77" s="167"/>
+      <c r="P77" s="167"/>
+      <c r="Q77" s="167"/>
+      <c r="R77" s="167"/>
+      <c r="S77" s="167"/>
+      <c r="T77" s="167"/>
+      <c r="U77" s="167"/>
+      <c r="V77" s="167"/>
+      <c r="W77" s="167"/>
+      <c r="X77" s="167"/>
+      <c r="Y77" s="167"/>
+      <c r="Z77" s="167"/>
+      <c r="AA77" s="167"/>
+      <c r="AB77" s="167"/>
+      <c r="AC77" s="167"/>
+      <c r="AD77" s="167"/>
+      <c r="AE77" s="167"/>
+      <c r="AF77" s="167"/>
+      <c r="AG77" s="167"/>
+      <c r="AH77" s="167"/>
+      <c r="AI77" s="167"/>
+      <c r="AJ77" s="167"/>
+      <c r="AK77" s="167"/>
+      <c r="AL77" s="167"/>
+      <c r="AM77" s="167"/>
+      <c r="AN77" s="167"/>
+      <c r="AO77" s="167"/>
+      <c r="AP77" s="167"/>
+      <c r="AQ77" s="167"/>
+      <c r="AR77" s="167"/>
+      <c r="AS77" s="167"/>
+      <c r="AT77" s="167"/>
+      <c r="AU77" s="167"/>
+      <c r="AV77" s="167"/>
+      <c r="AW77" s="167"/>
+      <c r="AX77" s="167"/>
+      <c r="AY77" s="167"/>
+      <c r="AZ77" s="167"/>
+      <c r="BA77" s="167"/>
+      <c r="BB77" s="167"/>
+      <c r="BC77" s="167"/>
+      <c r="BD77" s="167"/>
+      <c r="BE77" s="167"/>
+      <c r="BF77" s="167"/>
+      <c r="BG77" s="167"/>
+      <c r="BH77" s="167"/>
+      <c r="BI77" s="167"/>
+      <c r="BJ77" s="167"/>
+      <c r="BK77" s="167"/>
+      <c r="BL77" s="167"/>
+      <c r="BM77" s="167"/>
+      <c r="BN77" s="167"/>
+      <c r="BO77" s="167"/>
+      <c r="BP77" s="167"/>
+      <c r="BQ77" s="167"/>
+      <c r="BR77" s="168"/>
     </row>
     <row r="78" spans="1:70" s="55" customFormat="1">
       <c r="A78" s="58" t="str">
         <f t="shared" si="64"/>
         <v>3.4</v>
       </c>
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="182"/>
-      <c r="D78" s="182"/>
-      <c r="E78" s="182"/>
-      <c r="F78" s="182"/>
-      <c r="G78" s="182"/>
-      <c r="H78" s="182"/>
-      <c r="I78" s="182"/>
-      <c r="J78" s="182"/>
-      <c r="K78" s="182"/>
-      <c r="L78" s="182"/>
-      <c r="M78" s="182"/>
-      <c r="N78" s="182"/>
-      <c r="O78" s="182"/>
-      <c r="P78" s="182"/>
-      <c r="Q78" s="182"/>
-      <c r="R78" s="182"/>
-      <c r="S78" s="182"/>
-      <c r="T78" s="182"/>
-      <c r="U78" s="182"/>
-      <c r="V78" s="182"/>
-      <c r="W78" s="182"/>
-      <c r="X78" s="182"/>
-      <c r="Y78" s="182"/>
-      <c r="Z78" s="182"/>
-      <c r="AA78" s="182"/>
-      <c r="AB78" s="182"/>
-      <c r="AC78" s="182"/>
-      <c r="AD78" s="182"/>
-      <c r="AE78" s="182"/>
-      <c r="AF78" s="182"/>
-      <c r="AG78" s="182"/>
-      <c r="AH78" s="182"/>
-      <c r="AI78" s="182"/>
-      <c r="AJ78" s="182"/>
-      <c r="AK78" s="182"/>
-      <c r="AL78" s="182"/>
-      <c r="AM78" s="182"/>
-      <c r="AN78" s="182"/>
-      <c r="AO78" s="182"/>
-      <c r="AP78" s="182"/>
-      <c r="AQ78" s="182"/>
-      <c r="AR78" s="182"/>
-      <c r="AS78" s="182"/>
-      <c r="AT78" s="182"/>
-      <c r="AU78" s="182"/>
-      <c r="AV78" s="182"/>
-      <c r="AW78" s="182"/>
-      <c r="AX78" s="182"/>
-      <c r="AY78" s="182"/>
-      <c r="AZ78" s="182"/>
-      <c r="BA78" s="182"/>
-      <c r="BB78" s="182"/>
-      <c r="BC78" s="182"/>
-      <c r="BD78" s="182"/>
-      <c r="BE78" s="182"/>
-      <c r="BF78" s="182"/>
-      <c r="BG78" s="182"/>
-      <c r="BH78" s="182"/>
-      <c r="BI78" s="182"/>
-      <c r="BJ78" s="182"/>
-      <c r="BK78" s="182"/>
-      <c r="BL78" s="182"/>
-      <c r="BM78" s="182"/>
-      <c r="BN78" s="182"/>
-      <c r="BO78" s="182"/>
-      <c r="BP78" s="182"/>
-      <c r="BQ78" s="182"/>
-      <c r="BR78" s="183"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="167"/>
+      <c r="E78" s="167"/>
+      <c r="F78" s="167"/>
+      <c r="G78" s="167"/>
+      <c r="H78" s="167"/>
+      <c r="I78" s="167"/>
+      <c r="J78" s="167"/>
+      <c r="K78" s="167"/>
+      <c r="L78" s="167"/>
+      <c r="M78" s="167"/>
+      <c r="N78" s="167"/>
+      <c r="O78" s="167"/>
+      <c r="P78" s="167"/>
+      <c r="Q78" s="167"/>
+      <c r="R78" s="167"/>
+      <c r="S78" s="167"/>
+      <c r="T78" s="167"/>
+      <c r="U78" s="167"/>
+      <c r="V78" s="167"/>
+      <c r="W78" s="167"/>
+      <c r="X78" s="167"/>
+      <c r="Y78" s="167"/>
+      <c r="Z78" s="167"/>
+      <c r="AA78" s="167"/>
+      <c r="AB78" s="167"/>
+      <c r="AC78" s="167"/>
+      <c r="AD78" s="167"/>
+      <c r="AE78" s="167"/>
+      <c r="AF78" s="167"/>
+      <c r="AG78" s="167"/>
+      <c r="AH78" s="167"/>
+      <c r="AI78" s="167"/>
+      <c r="AJ78" s="167"/>
+      <c r="AK78" s="167"/>
+      <c r="AL78" s="167"/>
+      <c r="AM78" s="167"/>
+      <c r="AN78" s="167"/>
+      <c r="AO78" s="167"/>
+      <c r="AP78" s="167"/>
+      <c r="AQ78" s="167"/>
+      <c r="AR78" s="167"/>
+      <c r="AS78" s="167"/>
+      <c r="AT78" s="167"/>
+      <c r="AU78" s="167"/>
+      <c r="AV78" s="167"/>
+      <c r="AW78" s="167"/>
+      <c r="AX78" s="167"/>
+      <c r="AY78" s="167"/>
+      <c r="AZ78" s="167"/>
+      <c r="BA78" s="167"/>
+      <c r="BB78" s="167"/>
+      <c r="BC78" s="167"/>
+      <c r="BD78" s="167"/>
+      <c r="BE78" s="167"/>
+      <c r="BF78" s="167"/>
+      <c r="BG78" s="167"/>
+      <c r="BH78" s="167"/>
+      <c r="BI78" s="167"/>
+      <c r="BJ78" s="167"/>
+      <c r="BK78" s="167"/>
+      <c r="BL78" s="167"/>
+      <c r="BM78" s="167"/>
+      <c r="BN78" s="167"/>
+      <c r="BO78" s="167"/>
+      <c r="BP78" s="167"/>
+      <c r="BQ78" s="167"/>
+      <c r="BR78" s="168"/>
     </row>
     <row r="79" spans="1:70" s="55" customFormat="1">
       <c r="A79" s="58" t="str">
         <f t="shared" si="64"/>
         <v>3.5</v>
       </c>
-      <c r="B79" s="182" t="s">
+      <c r="B79" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="182"/>
-      <c r="D79" s="182"/>
-      <c r="E79" s="182"/>
-      <c r="F79" s="182"/>
-      <c r="G79" s="182"/>
-      <c r="H79" s="182"/>
-      <c r="I79" s="182"/>
-      <c r="J79" s="182"/>
-      <c r="K79" s="182"/>
-      <c r="L79" s="182"/>
-      <c r="M79" s="182"/>
-      <c r="N79" s="182"/>
-      <c r="O79" s="182"/>
-      <c r="P79" s="182"/>
-      <c r="Q79" s="182"/>
-      <c r="R79" s="182"/>
-      <c r="S79" s="182"/>
-      <c r="T79" s="182"/>
-      <c r="U79" s="182"/>
-      <c r="V79" s="182"/>
-      <c r="W79" s="182"/>
-      <c r="X79" s="182"/>
-      <c r="Y79" s="182"/>
-      <c r="Z79" s="182"/>
-      <c r="AA79" s="182"/>
-      <c r="AB79" s="182"/>
-      <c r="AC79" s="182"/>
-      <c r="AD79" s="182"/>
-      <c r="AE79" s="182"/>
-      <c r="AF79" s="182"/>
-      <c r="AG79" s="182"/>
-      <c r="AH79" s="182"/>
-      <c r="AI79" s="182"/>
-      <c r="AJ79" s="182"/>
-      <c r="AK79" s="182"/>
-      <c r="AL79" s="182"/>
-      <c r="AM79" s="182"/>
-      <c r="AN79" s="182"/>
-      <c r="AO79" s="182"/>
-      <c r="AP79" s="182"/>
-      <c r="AQ79" s="182"/>
-      <c r="AR79" s="182"/>
-      <c r="AS79" s="182"/>
-      <c r="AT79" s="182"/>
-      <c r="AU79" s="182"/>
-      <c r="AV79" s="182"/>
-      <c r="AW79" s="182"/>
-      <c r="AX79" s="182"/>
-      <c r="AY79" s="182"/>
-      <c r="AZ79" s="182"/>
-      <c r="BA79" s="182"/>
-      <c r="BB79" s="182"/>
-      <c r="BC79" s="182"/>
-      <c r="BD79" s="182"/>
-      <c r="BE79" s="182"/>
-      <c r="BF79" s="182"/>
-      <c r="BG79" s="182"/>
-      <c r="BH79" s="182"/>
-      <c r="BI79" s="182"/>
-      <c r="BJ79" s="182"/>
-      <c r="BK79" s="182"/>
-      <c r="BL79" s="182"/>
-      <c r="BM79" s="182"/>
-      <c r="BN79" s="182"/>
-      <c r="BO79" s="182"/>
-      <c r="BP79" s="182"/>
-      <c r="BQ79" s="182"/>
-      <c r="BR79" s="183"/>
+      <c r="C79" s="167"/>
+      <c r="D79" s="167"/>
+      <c r="E79" s="167"/>
+      <c r="F79" s="167"/>
+      <c r="G79" s="167"/>
+      <c r="H79" s="167"/>
+      <c r="I79" s="167"/>
+      <c r="J79" s="167"/>
+      <c r="K79" s="167"/>
+      <c r="L79" s="167"/>
+      <c r="M79" s="167"/>
+      <c r="N79" s="167"/>
+      <c r="O79" s="167"/>
+      <c r="P79" s="167"/>
+      <c r="Q79" s="167"/>
+      <c r="R79" s="167"/>
+      <c r="S79" s="167"/>
+      <c r="T79" s="167"/>
+      <c r="U79" s="167"/>
+      <c r="V79" s="167"/>
+      <c r="W79" s="167"/>
+      <c r="X79" s="167"/>
+      <c r="Y79" s="167"/>
+      <c r="Z79" s="167"/>
+      <c r="AA79" s="167"/>
+      <c r="AB79" s="167"/>
+      <c r="AC79" s="167"/>
+      <c r="AD79" s="167"/>
+      <c r="AE79" s="167"/>
+      <c r="AF79" s="167"/>
+      <c r="AG79" s="167"/>
+      <c r="AH79" s="167"/>
+      <c r="AI79" s="167"/>
+      <c r="AJ79" s="167"/>
+      <c r="AK79" s="167"/>
+      <c r="AL79" s="167"/>
+      <c r="AM79" s="167"/>
+      <c r="AN79" s="167"/>
+      <c r="AO79" s="167"/>
+      <c r="AP79" s="167"/>
+      <c r="AQ79" s="167"/>
+      <c r="AR79" s="167"/>
+      <c r="AS79" s="167"/>
+      <c r="AT79" s="167"/>
+      <c r="AU79" s="167"/>
+      <c r="AV79" s="167"/>
+      <c r="AW79" s="167"/>
+      <c r="AX79" s="167"/>
+      <c r="AY79" s="167"/>
+      <c r="AZ79" s="167"/>
+      <c r="BA79" s="167"/>
+      <c r="BB79" s="167"/>
+      <c r="BC79" s="167"/>
+      <c r="BD79" s="167"/>
+      <c r="BE79" s="167"/>
+      <c r="BF79" s="167"/>
+      <c r="BG79" s="167"/>
+      <c r="BH79" s="167"/>
+      <c r="BI79" s="167"/>
+      <c r="BJ79" s="167"/>
+      <c r="BK79" s="167"/>
+      <c r="BL79" s="167"/>
+      <c r="BM79" s="167"/>
+      <c r="BN79" s="167"/>
+      <c r="BO79" s="167"/>
+      <c r="BP79" s="167"/>
+      <c r="BQ79" s="167"/>
+      <c r="BR79" s="168"/>
     </row>
     <row r="80" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A80" s="59" t="str">
         <f t="shared" si="64"/>
         <v>3.6</v>
       </c>
-      <c r="B80" s="186" t="s">
+      <c r="B80" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="186"/>
-      <c r="D80" s="186"/>
-      <c r="E80" s="186"/>
-      <c r="F80" s="186"/>
-      <c r="G80" s="186"/>
-      <c r="H80" s="186"/>
-      <c r="I80" s="186"/>
-      <c r="J80" s="186"/>
-      <c r="K80" s="186"/>
-      <c r="L80" s="186"/>
-      <c r="M80" s="186"/>
-      <c r="N80" s="186"/>
-      <c r="O80" s="186"/>
-      <c r="P80" s="186"/>
-      <c r="Q80" s="186"/>
-      <c r="R80" s="186"/>
-      <c r="S80" s="186"/>
-      <c r="T80" s="186"/>
-      <c r="U80" s="186"/>
-      <c r="V80" s="186"/>
-      <c r="W80" s="186"/>
-      <c r="X80" s="186"/>
-      <c r="Y80" s="186"/>
-      <c r="Z80" s="186"/>
-      <c r="AA80" s="186"/>
-      <c r="AB80" s="186"/>
-      <c r="AC80" s="186"/>
-      <c r="AD80" s="186"/>
-      <c r="AE80" s="186"/>
-      <c r="AF80" s="186"/>
-      <c r="AG80" s="186"/>
-      <c r="AH80" s="186"/>
-      <c r="AI80" s="186"/>
-      <c r="AJ80" s="186"/>
-      <c r="AK80" s="186"/>
-      <c r="AL80" s="186"/>
-      <c r="AM80" s="186"/>
-      <c r="AN80" s="186"/>
-      <c r="AO80" s="186"/>
-      <c r="AP80" s="186"/>
-      <c r="AQ80" s="186"/>
-      <c r="AR80" s="186"/>
-      <c r="AS80" s="186"/>
-      <c r="AT80" s="186"/>
-      <c r="AU80" s="186"/>
-      <c r="AV80" s="186"/>
-      <c r="AW80" s="186"/>
-      <c r="AX80" s="186"/>
-      <c r="AY80" s="186"/>
-      <c r="AZ80" s="186"/>
-      <c r="BA80" s="186"/>
-      <c r="BB80" s="186"/>
-      <c r="BC80" s="186"/>
-      <c r="BD80" s="186"/>
-      <c r="BE80" s="186"/>
-      <c r="BF80" s="186"/>
-      <c r="BG80" s="186"/>
-      <c r="BH80" s="186"/>
-      <c r="BI80" s="186"/>
-      <c r="BJ80" s="186"/>
-      <c r="BK80" s="186"/>
-      <c r="BL80" s="186"/>
-      <c r="BM80" s="186"/>
-      <c r="BN80" s="186"/>
-      <c r="BO80" s="186"/>
-      <c r="BP80" s="186"/>
-      <c r="BQ80" s="186"/>
-      <c r="BR80" s="187"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="169"/>
+      <c r="F80" s="169"/>
+      <c r="G80" s="169"/>
+      <c r="H80" s="169"/>
+      <c r="I80" s="169"/>
+      <c r="J80" s="169"/>
+      <c r="K80" s="169"/>
+      <c r="L80" s="169"/>
+      <c r="M80" s="169"/>
+      <c r="N80" s="169"/>
+      <c r="O80" s="169"/>
+      <c r="P80" s="169"/>
+      <c r="Q80" s="169"/>
+      <c r="R80" s="169"/>
+      <c r="S80" s="169"/>
+      <c r="T80" s="169"/>
+      <c r="U80" s="169"/>
+      <c r="V80" s="169"/>
+      <c r="W80" s="169"/>
+      <c r="X80" s="169"/>
+      <c r="Y80" s="169"/>
+      <c r="Z80" s="169"/>
+      <c r="AA80" s="169"/>
+      <c r="AB80" s="169"/>
+      <c r="AC80" s="169"/>
+      <c r="AD80" s="169"/>
+      <c r="AE80" s="169"/>
+      <c r="AF80" s="169"/>
+      <c r="AG80" s="169"/>
+      <c r="AH80" s="169"/>
+      <c r="AI80" s="169"/>
+      <c r="AJ80" s="169"/>
+      <c r="AK80" s="169"/>
+      <c r="AL80" s="169"/>
+      <c r="AM80" s="169"/>
+      <c r="AN80" s="169"/>
+      <c r="AO80" s="169"/>
+      <c r="AP80" s="169"/>
+      <c r="AQ80" s="169"/>
+      <c r="AR80" s="169"/>
+      <c r="AS80" s="169"/>
+      <c r="AT80" s="169"/>
+      <c r="AU80" s="169"/>
+      <c r="AV80" s="169"/>
+      <c r="AW80" s="169"/>
+      <c r="AX80" s="169"/>
+      <c r="AY80" s="169"/>
+      <c r="AZ80" s="169"/>
+      <c r="BA80" s="169"/>
+      <c r="BB80" s="169"/>
+      <c r="BC80" s="169"/>
+      <c r="BD80" s="169"/>
+      <c r="BE80" s="169"/>
+      <c r="BF80" s="169"/>
+      <c r="BG80" s="169"/>
+      <c r="BH80" s="169"/>
+      <c r="BI80" s="169"/>
+      <c r="BJ80" s="169"/>
+      <c r="BK80" s="169"/>
+      <c r="BL80" s="169"/>
+      <c r="BM80" s="169"/>
+      <c r="BN80" s="169"/>
+      <c r="BO80" s="169"/>
+      <c r="BP80" s="169"/>
+      <c r="BQ80" s="169"/>
+      <c r="BR80" s="170"/>
     </row>
     <row r="81" spans="1:70" ht="17.25" thickBot="1">
       <c r="A81" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B81" s="184" t="s">
+      <c r="B81" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="184"/>
-      <c r="D81" s="184"/>
-      <c r="E81" s="184"/>
-      <c r="F81" s="184"/>
-      <c r="G81" s="184"/>
-      <c r="H81" s="184"/>
-      <c r="I81" s="184"/>
-      <c r="J81" s="184"/>
-      <c r="K81" s="184"/>
-      <c r="L81" s="184"/>
-      <c r="M81" s="184"/>
-      <c r="N81" s="184"/>
-      <c r="O81" s="184"/>
-      <c r="P81" s="184"/>
-      <c r="Q81" s="184"/>
-      <c r="R81" s="184"/>
-      <c r="S81" s="184"/>
-      <c r="T81" s="184"/>
-      <c r="U81" s="184"/>
-      <c r="V81" s="184"/>
-      <c r="W81" s="184"/>
-      <c r="X81" s="184"/>
-      <c r="Y81" s="184"/>
-      <c r="Z81" s="184"/>
-      <c r="AA81" s="184"/>
-      <c r="AB81" s="184"/>
-      <c r="AC81" s="184"/>
-      <c r="AD81" s="184"/>
-      <c r="AE81" s="184"/>
-      <c r="AF81" s="184"/>
-      <c r="AG81" s="184"/>
-      <c r="AH81" s="184"/>
-      <c r="AI81" s="184"/>
-      <c r="AJ81" s="184"/>
-      <c r="AK81" s="184"/>
-      <c r="AL81" s="184"/>
-      <c r="AM81" s="184"/>
-      <c r="AN81" s="184"/>
-      <c r="AO81" s="184"/>
-      <c r="AP81" s="184"/>
-      <c r="AQ81" s="184"/>
-      <c r="AR81" s="184"/>
-      <c r="AS81" s="184"/>
-      <c r="AT81" s="184"/>
-      <c r="AU81" s="184"/>
-      <c r="AV81" s="184"/>
-      <c r="AW81" s="184"/>
-      <c r="AX81" s="184"/>
-      <c r="AY81" s="184"/>
-      <c r="AZ81" s="184"/>
-      <c r="BA81" s="184"/>
-      <c r="BB81" s="184"/>
-      <c r="BC81" s="184"/>
-      <c r="BD81" s="184"/>
-      <c r="BE81" s="184"/>
-      <c r="BF81" s="184"/>
-      <c r="BG81" s="184"/>
-      <c r="BH81" s="184"/>
-      <c r="BI81" s="184"/>
-      <c r="BJ81" s="184"/>
-      <c r="BK81" s="184"/>
-      <c r="BL81" s="184"/>
-      <c r="BM81" s="184"/>
-      <c r="BN81" s="184"/>
-      <c r="BO81" s="184"/>
-      <c r="BP81" s="184"/>
-      <c r="BQ81" s="184"/>
-      <c r="BR81" s="185"/>
+      <c r="C81" s="163"/>
+      <c r="D81" s="163"/>
+      <c r="E81" s="163"/>
+      <c r="F81" s="163"/>
+      <c r="G81" s="163"/>
+      <c r="H81" s="163"/>
+      <c r="I81" s="163"/>
+      <c r="J81" s="163"/>
+      <c r="K81" s="163"/>
+      <c r="L81" s="163"/>
+      <c r="M81" s="163"/>
+      <c r="N81" s="163"/>
+      <c r="O81" s="163"/>
+      <c r="P81" s="163"/>
+      <c r="Q81" s="163"/>
+      <c r="R81" s="163"/>
+      <c r="S81" s="163"/>
+      <c r="T81" s="163"/>
+      <c r="U81" s="163"/>
+      <c r="V81" s="163"/>
+      <c r="W81" s="163"/>
+      <c r="X81" s="163"/>
+      <c r="Y81" s="163"/>
+      <c r="Z81" s="163"/>
+      <c r="AA81" s="163"/>
+      <c r="AB81" s="163"/>
+      <c r="AC81" s="163"/>
+      <c r="AD81" s="163"/>
+      <c r="AE81" s="163"/>
+      <c r="AF81" s="163"/>
+      <c r="AG81" s="163"/>
+      <c r="AH81" s="163"/>
+      <c r="AI81" s="163"/>
+      <c r="AJ81" s="163"/>
+      <c r="AK81" s="163"/>
+      <c r="AL81" s="163"/>
+      <c r="AM81" s="163"/>
+      <c r="AN81" s="163"/>
+      <c r="AO81" s="163"/>
+      <c r="AP81" s="163"/>
+      <c r="AQ81" s="163"/>
+      <c r="AR81" s="163"/>
+      <c r="AS81" s="163"/>
+      <c r="AT81" s="163"/>
+      <c r="AU81" s="163"/>
+      <c r="AV81" s="163"/>
+      <c r="AW81" s="163"/>
+      <c r="AX81" s="163"/>
+      <c r="AY81" s="163"/>
+      <c r="AZ81" s="163"/>
+      <c r="BA81" s="163"/>
+      <c r="BB81" s="163"/>
+      <c r="BC81" s="163"/>
+      <c r="BD81" s="163"/>
+      <c r="BE81" s="163"/>
+      <c r="BF81" s="163"/>
+      <c r="BG81" s="163"/>
+      <c r="BH81" s="163"/>
+      <c r="BI81" s="163"/>
+      <c r="BJ81" s="163"/>
+      <c r="BK81" s="163"/>
+      <c r="BL81" s="163"/>
+      <c r="BM81" s="163"/>
+      <c r="BN81" s="163"/>
+      <c r="BO81" s="163"/>
+      <c r="BP81" s="163"/>
+      <c r="BQ81" s="163"/>
+      <c r="BR81" s="164"/>
     </row>
     <row r="82" spans="1:70" s="55" customFormat="1">
       <c r="A82" s="57" t="str">
         <f t="shared" ref="A82:A88" si="65">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
-      <c r="B82" s="180" t="s">
+      <c r="B82" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="180"/>
-      <c r="D82" s="180"/>
-      <c r="E82" s="180"/>
-      <c r="F82" s="180"/>
-      <c r="G82" s="180"/>
-      <c r="H82" s="180"/>
-      <c r="I82" s="180"/>
-      <c r="J82" s="180"/>
-      <c r="K82" s="180"/>
-      <c r="L82" s="180"/>
-      <c r="M82" s="180"/>
-      <c r="N82" s="180"/>
-      <c r="O82" s="180"/>
-      <c r="P82" s="180"/>
-      <c r="Q82" s="180"/>
-      <c r="R82" s="180"/>
-      <c r="S82" s="180"/>
-      <c r="T82" s="180"/>
-      <c r="U82" s="180"/>
-      <c r="V82" s="180"/>
-      <c r="W82" s="180"/>
-      <c r="X82" s="180"/>
-      <c r="Y82" s="180"/>
-      <c r="Z82" s="180"/>
-      <c r="AA82" s="180"/>
-      <c r="AB82" s="180"/>
-      <c r="AC82" s="180"/>
-      <c r="AD82" s="180"/>
-      <c r="AE82" s="180"/>
-      <c r="AF82" s="180"/>
-      <c r="AG82" s="180"/>
-      <c r="AH82" s="180"/>
-      <c r="AI82" s="180"/>
-      <c r="AJ82" s="180"/>
-      <c r="AK82" s="180"/>
-      <c r="AL82" s="180"/>
-      <c r="AM82" s="180"/>
-      <c r="AN82" s="180"/>
-      <c r="AO82" s="180"/>
-      <c r="AP82" s="180"/>
-      <c r="AQ82" s="180"/>
-      <c r="AR82" s="180"/>
-      <c r="AS82" s="180"/>
-      <c r="AT82" s="180"/>
-      <c r="AU82" s="180"/>
-      <c r="AV82" s="180"/>
-      <c r="AW82" s="180"/>
-      <c r="AX82" s="180"/>
-      <c r="AY82" s="180"/>
-      <c r="AZ82" s="180"/>
-      <c r="BA82" s="180"/>
-      <c r="BB82" s="180"/>
-      <c r="BC82" s="180"/>
-      <c r="BD82" s="180"/>
-      <c r="BE82" s="180"/>
-      <c r="BF82" s="180"/>
-      <c r="BG82" s="180"/>
-      <c r="BH82" s="180"/>
-      <c r="BI82" s="180"/>
-      <c r="BJ82" s="180"/>
-      <c r="BK82" s="180"/>
-      <c r="BL82" s="180"/>
-      <c r="BM82" s="180"/>
-      <c r="BN82" s="180"/>
-      <c r="BO82" s="180"/>
-      <c r="BP82" s="180"/>
-      <c r="BQ82" s="180"/>
-      <c r="BR82" s="181"/>
+      <c r="C82" s="165"/>
+      <c r="D82" s="165"/>
+      <c r="E82" s="165"/>
+      <c r="F82" s="165"/>
+      <c r="G82" s="165"/>
+      <c r="H82" s="165"/>
+      <c r="I82" s="165"/>
+      <c r="J82" s="165"/>
+      <c r="K82" s="165"/>
+      <c r="L82" s="165"/>
+      <c r="M82" s="165"/>
+      <c r="N82" s="165"/>
+      <c r="O82" s="165"/>
+      <c r="P82" s="165"/>
+      <c r="Q82" s="165"/>
+      <c r="R82" s="165"/>
+      <c r="S82" s="165"/>
+      <c r="T82" s="165"/>
+      <c r="U82" s="165"/>
+      <c r="V82" s="165"/>
+      <c r="W82" s="165"/>
+      <c r="X82" s="165"/>
+      <c r="Y82" s="165"/>
+      <c r="Z82" s="165"/>
+      <c r="AA82" s="165"/>
+      <c r="AB82" s="165"/>
+      <c r="AC82" s="165"/>
+      <c r="AD82" s="165"/>
+      <c r="AE82" s="165"/>
+      <c r="AF82" s="165"/>
+      <c r="AG82" s="165"/>
+      <c r="AH82" s="165"/>
+      <c r="AI82" s="165"/>
+      <c r="AJ82" s="165"/>
+      <c r="AK82" s="165"/>
+      <c r="AL82" s="165"/>
+      <c r="AM82" s="165"/>
+      <c r="AN82" s="165"/>
+      <c r="AO82" s="165"/>
+      <c r="AP82" s="165"/>
+      <c r="AQ82" s="165"/>
+      <c r="AR82" s="165"/>
+      <c r="AS82" s="165"/>
+      <c r="AT82" s="165"/>
+      <c r="AU82" s="165"/>
+      <c r="AV82" s="165"/>
+      <c r="AW82" s="165"/>
+      <c r="AX82" s="165"/>
+      <c r="AY82" s="165"/>
+      <c r="AZ82" s="165"/>
+      <c r="BA82" s="165"/>
+      <c r="BB82" s="165"/>
+      <c r="BC82" s="165"/>
+      <c r="BD82" s="165"/>
+      <c r="BE82" s="165"/>
+      <c r="BF82" s="165"/>
+      <c r="BG82" s="165"/>
+      <c r="BH82" s="165"/>
+      <c r="BI82" s="165"/>
+      <c r="BJ82" s="165"/>
+      <c r="BK82" s="165"/>
+      <c r="BL82" s="165"/>
+      <c r="BM82" s="165"/>
+      <c r="BN82" s="165"/>
+      <c r="BO82" s="165"/>
+      <c r="BP82" s="165"/>
+      <c r="BQ82" s="165"/>
+      <c r="BR82" s="166"/>
     </row>
     <row r="83" spans="1:70" s="55" customFormat="1">
       <c r="A83" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.2</v>
       </c>
-      <c r="B83" s="182" t="s">
+      <c r="B83" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="182"/>
-      <c r="D83" s="182"/>
-      <c r="E83" s="182"/>
-      <c r="F83" s="182"/>
-      <c r="G83" s="182"/>
-      <c r="H83" s="182"/>
-      <c r="I83" s="182"/>
-      <c r="J83" s="182"/>
-      <c r="K83" s="182"/>
-      <c r="L83" s="182"/>
-      <c r="M83" s="182"/>
-      <c r="N83" s="182"/>
-      <c r="O83" s="182"/>
-      <c r="P83" s="182"/>
-      <c r="Q83" s="182"/>
-      <c r="R83" s="182"/>
-      <c r="S83" s="182"/>
-      <c r="T83" s="182"/>
-      <c r="U83" s="182"/>
-      <c r="V83" s="182"/>
-      <c r="W83" s="182"/>
-      <c r="X83" s="182"/>
-      <c r="Y83" s="182"/>
-      <c r="Z83" s="182"/>
-      <c r="AA83" s="182"/>
-      <c r="AB83" s="182"/>
-      <c r="AC83" s="182"/>
-      <c r="AD83" s="182"/>
-      <c r="AE83" s="182"/>
-      <c r="AF83" s="182"/>
-      <c r="AG83" s="182"/>
-      <c r="AH83" s="182"/>
-      <c r="AI83" s="182"/>
-      <c r="AJ83" s="182"/>
-      <c r="AK83" s="182"/>
-      <c r="AL83" s="182"/>
-      <c r="AM83" s="182"/>
-      <c r="AN83" s="182"/>
-      <c r="AO83" s="182"/>
-      <c r="AP83" s="182"/>
-      <c r="AQ83" s="182"/>
-      <c r="AR83" s="182"/>
-      <c r="AS83" s="182"/>
-      <c r="AT83" s="182"/>
-      <c r="AU83" s="182"/>
-      <c r="AV83" s="182"/>
-      <c r="AW83" s="182"/>
-      <c r="AX83" s="182"/>
-      <c r="AY83" s="182"/>
-      <c r="AZ83" s="182"/>
-      <c r="BA83" s="182"/>
-      <c r="BB83" s="182"/>
-      <c r="BC83" s="182"/>
-      <c r="BD83" s="182"/>
-      <c r="BE83" s="182"/>
-      <c r="BF83" s="182"/>
-      <c r="BG83" s="182"/>
-      <c r="BH83" s="182"/>
-      <c r="BI83" s="182"/>
-      <c r="BJ83" s="182"/>
-      <c r="BK83" s="182"/>
-      <c r="BL83" s="182"/>
-      <c r="BM83" s="182"/>
-      <c r="BN83" s="182"/>
-      <c r="BO83" s="182"/>
-      <c r="BP83" s="182"/>
-      <c r="BQ83" s="182"/>
-      <c r="BR83" s="183"/>
+      <c r="C83" s="167"/>
+      <c r="D83" s="167"/>
+      <c r="E83" s="167"/>
+      <c r="F83" s="167"/>
+      <c r="G83" s="167"/>
+      <c r="H83" s="167"/>
+      <c r="I83" s="167"/>
+      <c r="J83" s="167"/>
+      <c r="K83" s="167"/>
+      <c r="L83" s="167"/>
+      <c r="M83" s="167"/>
+      <c r="N83" s="167"/>
+      <c r="O83" s="167"/>
+      <c r="P83" s="167"/>
+      <c r="Q83" s="167"/>
+      <c r="R83" s="167"/>
+      <c r="S83" s="167"/>
+      <c r="T83" s="167"/>
+      <c r="U83" s="167"/>
+      <c r="V83" s="167"/>
+      <c r="W83" s="167"/>
+      <c r="X83" s="167"/>
+      <c r="Y83" s="167"/>
+      <c r="Z83" s="167"/>
+      <c r="AA83" s="167"/>
+      <c r="AB83" s="167"/>
+      <c r="AC83" s="167"/>
+      <c r="AD83" s="167"/>
+      <c r="AE83" s="167"/>
+      <c r="AF83" s="167"/>
+      <c r="AG83" s="167"/>
+      <c r="AH83" s="167"/>
+      <c r="AI83" s="167"/>
+      <c r="AJ83" s="167"/>
+      <c r="AK83" s="167"/>
+      <c r="AL83" s="167"/>
+      <c r="AM83" s="167"/>
+      <c r="AN83" s="167"/>
+      <c r="AO83" s="167"/>
+      <c r="AP83" s="167"/>
+      <c r="AQ83" s="167"/>
+      <c r="AR83" s="167"/>
+      <c r="AS83" s="167"/>
+      <c r="AT83" s="167"/>
+      <c r="AU83" s="167"/>
+      <c r="AV83" s="167"/>
+      <c r="AW83" s="167"/>
+      <c r="AX83" s="167"/>
+      <c r="AY83" s="167"/>
+      <c r="AZ83" s="167"/>
+      <c r="BA83" s="167"/>
+      <c r="BB83" s="167"/>
+      <c r="BC83" s="167"/>
+      <c r="BD83" s="167"/>
+      <c r="BE83" s="167"/>
+      <c r="BF83" s="167"/>
+      <c r="BG83" s="167"/>
+      <c r="BH83" s="167"/>
+      <c r="BI83" s="167"/>
+      <c r="BJ83" s="167"/>
+      <c r="BK83" s="167"/>
+      <c r="BL83" s="167"/>
+      <c r="BM83" s="167"/>
+      <c r="BN83" s="167"/>
+      <c r="BO83" s="167"/>
+      <c r="BP83" s="167"/>
+      <c r="BQ83" s="167"/>
+      <c r="BR83" s="168"/>
     </row>
     <row r="84" spans="1:70" s="55" customFormat="1">
       <c r="A84" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.3</v>
       </c>
-      <c r="B84" s="182" t="s">
+      <c r="B84" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
-      <c r="G84" s="182"/>
-      <c r="H84" s="182"/>
-      <c r="I84" s="182"/>
-      <c r="J84" s="182"/>
-      <c r="K84" s="182"/>
-      <c r="L84" s="182"/>
-      <c r="M84" s="182"/>
-      <c r="N84" s="182"/>
-      <c r="O84" s="182"/>
-      <c r="P84" s="182"/>
-      <c r="Q84" s="182"/>
-      <c r="R84" s="182"/>
-      <c r="S84" s="182"/>
-      <c r="T84" s="182"/>
-      <c r="U84" s="182"/>
-      <c r="V84" s="182"/>
-      <c r="W84" s="182"/>
-      <c r="X84" s="182"/>
-      <c r="Y84" s="182"/>
-      <c r="Z84" s="182"/>
-      <c r="AA84" s="182"/>
-      <c r="AB84" s="182"/>
-      <c r="AC84" s="182"/>
-      <c r="AD84" s="182"/>
-      <c r="AE84" s="182"/>
-      <c r="AF84" s="182"/>
-      <c r="AG84" s="182"/>
-      <c r="AH84" s="182"/>
-      <c r="AI84" s="182"/>
-      <c r="AJ84" s="182"/>
-      <c r="AK84" s="182"/>
-      <c r="AL84" s="182"/>
-      <c r="AM84" s="182"/>
-      <c r="AN84" s="182"/>
-      <c r="AO84" s="182"/>
-      <c r="AP84" s="182"/>
-      <c r="AQ84" s="182"/>
-      <c r="AR84" s="182"/>
-      <c r="AS84" s="182"/>
-      <c r="AT84" s="182"/>
-      <c r="AU84" s="182"/>
-      <c r="AV84" s="182"/>
-      <c r="AW84" s="182"/>
-      <c r="AX84" s="182"/>
-      <c r="AY84" s="182"/>
-      <c r="AZ84" s="182"/>
-      <c r="BA84" s="182"/>
-      <c r="BB84" s="182"/>
-      <c r="BC84" s="182"/>
-      <c r="BD84" s="182"/>
-      <c r="BE84" s="182"/>
-      <c r="BF84" s="182"/>
-      <c r="BG84" s="182"/>
-      <c r="BH84" s="182"/>
-      <c r="BI84" s="182"/>
-      <c r="BJ84" s="182"/>
-      <c r="BK84" s="182"/>
-      <c r="BL84" s="182"/>
-      <c r="BM84" s="182"/>
-      <c r="BN84" s="182"/>
-      <c r="BO84" s="182"/>
-      <c r="BP84" s="182"/>
-      <c r="BQ84" s="182"/>
-      <c r="BR84" s="183"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
+      <c r="G84" s="167"/>
+      <c r="H84" s="167"/>
+      <c r="I84" s="167"/>
+      <c r="J84" s="167"/>
+      <c r="K84" s="167"/>
+      <c r="L84" s="167"/>
+      <c r="M84" s="167"/>
+      <c r="N84" s="167"/>
+      <c r="O84" s="167"/>
+      <c r="P84" s="167"/>
+      <c r="Q84" s="167"/>
+      <c r="R84" s="167"/>
+      <c r="S84" s="167"/>
+      <c r="T84" s="167"/>
+      <c r="U84" s="167"/>
+      <c r="V84" s="167"/>
+      <c r="W84" s="167"/>
+      <c r="X84" s="167"/>
+      <c r="Y84" s="167"/>
+      <c r="Z84" s="167"/>
+      <c r="AA84" s="167"/>
+      <c r="AB84" s="167"/>
+      <c r="AC84" s="167"/>
+      <c r="AD84" s="167"/>
+      <c r="AE84" s="167"/>
+      <c r="AF84" s="167"/>
+      <c r="AG84" s="167"/>
+      <c r="AH84" s="167"/>
+      <c r="AI84" s="167"/>
+      <c r="AJ84" s="167"/>
+      <c r="AK84" s="167"/>
+      <c r="AL84" s="167"/>
+      <c r="AM84" s="167"/>
+      <c r="AN84" s="167"/>
+      <c r="AO84" s="167"/>
+      <c r="AP84" s="167"/>
+      <c r="AQ84" s="167"/>
+      <c r="AR84" s="167"/>
+      <c r="AS84" s="167"/>
+      <c r="AT84" s="167"/>
+      <c r="AU84" s="167"/>
+      <c r="AV84" s="167"/>
+      <c r="AW84" s="167"/>
+      <c r="AX84" s="167"/>
+      <c r="AY84" s="167"/>
+      <c r="AZ84" s="167"/>
+      <c r="BA84" s="167"/>
+      <c r="BB84" s="167"/>
+      <c r="BC84" s="167"/>
+      <c r="BD84" s="167"/>
+      <c r="BE84" s="167"/>
+      <c r="BF84" s="167"/>
+      <c r="BG84" s="167"/>
+      <c r="BH84" s="167"/>
+      <c r="BI84" s="167"/>
+      <c r="BJ84" s="167"/>
+      <c r="BK84" s="167"/>
+      <c r="BL84" s="167"/>
+      <c r="BM84" s="167"/>
+      <c r="BN84" s="167"/>
+      <c r="BO84" s="167"/>
+      <c r="BP84" s="167"/>
+      <c r="BQ84" s="167"/>
+      <c r="BR84" s="168"/>
     </row>
     <row r="85" spans="1:70" s="55" customFormat="1">
       <c r="A85" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.4</v>
       </c>
-      <c r="B85" s="182" t="s">
+      <c r="B85" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="182"/>
-      <c r="F85" s="182"/>
-      <c r="G85" s="182"/>
-      <c r="H85" s="182"/>
-      <c r="I85" s="182"/>
-      <c r="J85" s="182"/>
-      <c r="K85" s="182"/>
-      <c r="L85" s="182"/>
-      <c r="M85" s="182"/>
-      <c r="N85" s="182"/>
-      <c r="O85" s="182"/>
-      <c r="P85" s="182"/>
-      <c r="Q85" s="182"/>
-      <c r="R85" s="182"/>
-      <c r="S85" s="182"/>
-      <c r="T85" s="182"/>
-      <c r="U85" s="182"/>
-      <c r="V85" s="182"/>
-      <c r="W85" s="182"/>
-      <c r="X85" s="182"/>
-      <c r="Y85" s="182"/>
-      <c r="Z85" s="182"/>
-      <c r="AA85" s="182"/>
-      <c r="AB85" s="182"/>
-      <c r="AC85" s="182"/>
-      <c r="AD85" s="182"/>
-      <c r="AE85" s="182"/>
-      <c r="AF85" s="182"/>
-      <c r="AG85" s="182"/>
-      <c r="AH85" s="182"/>
-      <c r="AI85" s="182"/>
-      <c r="AJ85" s="182"/>
-      <c r="AK85" s="182"/>
-      <c r="AL85" s="182"/>
-      <c r="AM85" s="182"/>
-      <c r="AN85" s="182"/>
-      <c r="AO85" s="182"/>
-      <c r="AP85" s="182"/>
-      <c r="AQ85" s="182"/>
-      <c r="AR85" s="182"/>
-      <c r="AS85" s="182"/>
-      <c r="AT85" s="182"/>
-      <c r="AU85" s="182"/>
-      <c r="AV85" s="182"/>
-      <c r="AW85" s="182"/>
-      <c r="AX85" s="182"/>
-      <c r="AY85" s="182"/>
-      <c r="AZ85" s="182"/>
-      <c r="BA85" s="182"/>
-      <c r="BB85" s="182"/>
-      <c r="BC85" s="182"/>
-      <c r="BD85" s="182"/>
-      <c r="BE85" s="182"/>
-      <c r="BF85" s="182"/>
-      <c r="BG85" s="182"/>
-      <c r="BH85" s="182"/>
-      <c r="BI85" s="182"/>
-      <c r="BJ85" s="182"/>
-      <c r="BK85" s="182"/>
-      <c r="BL85" s="182"/>
-      <c r="BM85" s="182"/>
-      <c r="BN85" s="182"/>
-      <c r="BO85" s="182"/>
-      <c r="BP85" s="182"/>
-      <c r="BQ85" s="182"/>
-      <c r="BR85" s="183"/>
+      <c r="C85" s="167"/>
+      <c r="D85" s="167"/>
+      <c r="E85" s="167"/>
+      <c r="F85" s="167"/>
+      <c r="G85" s="167"/>
+      <c r="H85" s="167"/>
+      <c r="I85" s="167"/>
+      <c r="J85" s="167"/>
+      <c r="K85" s="167"/>
+      <c r="L85" s="167"/>
+      <c r="M85" s="167"/>
+      <c r="N85" s="167"/>
+      <c r="O85" s="167"/>
+      <c r="P85" s="167"/>
+      <c r="Q85" s="167"/>
+      <c r="R85" s="167"/>
+      <c r="S85" s="167"/>
+      <c r="T85" s="167"/>
+      <c r="U85" s="167"/>
+      <c r="V85" s="167"/>
+      <c r="W85" s="167"/>
+      <c r="X85" s="167"/>
+      <c r="Y85" s="167"/>
+      <c r="Z85" s="167"/>
+      <c r="AA85" s="167"/>
+      <c r="AB85" s="167"/>
+      <c r="AC85" s="167"/>
+      <c r="AD85" s="167"/>
+      <c r="AE85" s="167"/>
+      <c r="AF85" s="167"/>
+      <c r="AG85" s="167"/>
+      <c r="AH85" s="167"/>
+      <c r="AI85" s="167"/>
+      <c r="AJ85" s="167"/>
+      <c r="AK85" s="167"/>
+      <c r="AL85" s="167"/>
+      <c r="AM85" s="167"/>
+      <c r="AN85" s="167"/>
+      <c r="AO85" s="167"/>
+      <c r="AP85" s="167"/>
+      <c r="AQ85" s="167"/>
+      <c r="AR85" s="167"/>
+      <c r="AS85" s="167"/>
+      <c r="AT85" s="167"/>
+      <c r="AU85" s="167"/>
+      <c r="AV85" s="167"/>
+      <c r="AW85" s="167"/>
+      <c r="AX85" s="167"/>
+      <c r="AY85" s="167"/>
+      <c r="AZ85" s="167"/>
+      <c r="BA85" s="167"/>
+      <c r="BB85" s="167"/>
+      <c r="BC85" s="167"/>
+      <c r="BD85" s="167"/>
+      <c r="BE85" s="167"/>
+      <c r="BF85" s="167"/>
+      <c r="BG85" s="167"/>
+      <c r="BH85" s="167"/>
+      <c r="BI85" s="167"/>
+      <c r="BJ85" s="167"/>
+      <c r="BK85" s="167"/>
+      <c r="BL85" s="167"/>
+      <c r="BM85" s="167"/>
+      <c r="BN85" s="167"/>
+      <c r="BO85" s="167"/>
+      <c r="BP85" s="167"/>
+      <c r="BQ85" s="167"/>
+      <c r="BR85" s="168"/>
     </row>
     <row r="86" spans="1:70" s="55" customFormat="1">
       <c r="A86" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.5</v>
       </c>
-      <c r="B86" s="182" t="s">
+      <c r="B86" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="C86" s="182"/>
-      <c r="D86" s="182"/>
-      <c r="E86" s="182"/>
-      <c r="F86" s="182"/>
-      <c r="G86" s="182"/>
-      <c r="H86" s="182"/>
-      <c r="I86" s="182"/>
-      <c r="J86" s="182"/>
-      <c r="K86" s="182"/>
-      <c r="L86" s="182"/>
-      <c r="M86" s="182"/>
-      <c r="N86" s="182"/>
-      <c r="O86" s="182"/>
-      <c r="P86" s="182"/>
-      <c r="Q86" s="182"/>
-      <c r="R86" s="182"/>
-      <c r="S86" s="182"/>
-      <c r="T86" s="182"/>
-      <c r="U86" s="182"/>
-      <c r="V86" s="182"/>
-      <c r="W86" s="182"/>
-      <c r="X86" s="182"/>
-      <c r="Y86" s="182"/>
-      <c r="Z86" s="182"/>
-      <c r="AA86" s="182"/>
-      <c r="AB86" s="182"/>
-      <c r="AC86" s="182"/>
-      <c r="AD86" s="182"/>
-      <c r="AE86" s="182"/>
-      <c r="AF86" s="182"/>
-      <c r="AG86" s="182"/>
-      <c r="AH86" s="182"/>
-      <c r="AI86" s="182"/>
-      <c r="AJ86" s="182"/>
-      <c r="AK86" s="182"/>
-      <c r="AL86" s="182"/>
-      <c r="AM86" s="182"/>
-      <c r="AN86" s="182"/>
-      <c r="AO86" s="182"/>
-      <c r="AP86" s="182"/>
-      <c r="AQ86" s="182"/>
-      <c r="AR86" s="182"/>
-      <c r="AS86" s="182"/>
-      <c r="AT86" s="182"/>
-      <c r="AU86" s="182"/>
-      <c r="AV86" s="182"/>
-      <c r="AW86" s="182"/>
-      <c r="AX86" s="182"/>
-      <c r="AY86" s="182"/>
-      <c r="AZ86" s="182"/>
-      <c r="BA86" s="182"/>
-      <c r="BB86" s="182"/>
-      <c r="BC86" s="182"/>
-      <c r="BD86" s="182"/>
-      <c r="BE86" s="182"/>
-      <c r="BF86" s="182"/>
-      <c r="BG86" s="182"/>
-      <c r="BH86" s="182"/>
-      <c r="BI86" s="182"/>
-      <c r="BJ86" s="182"/>
-      <c r="BK86" s="182"/>
-      <c r="BL86" s="182"/>
-      <c r="BM86" s="182"/>
-      <c r="BN86" s="182"/>
-      <c r="BO86" s="182"/>
-      <c r="BP86" s="182"/>
-      <c r="BQ86" s="182"/>
-      <c r="BR86" s="183"/>
+      <c r="C86" s="167"/>
+      <c r="D86" s="167"/>
+      <c r="E86" s="167"/>
+      <c r="F86" s="167"/>
+      <c r="G86" s="167"/>
+      <c r="H86" s="167"/>
+      <c r="I86" s="167"/>
+      <c r="J86" s="167"/>
+      <c r="K86" s="167"/>
+      <c r="L86" s="167"/>
+      <c r="M86" s="167"/>
+      <c r="N86" s="167"/>
+      <c r="O86" s="167"/>
+      <c r="P86" s="167"/>
+      <c r="Q86" s="167"/>
+      <c r="R86" s="167"/>
+      <c r="S86" s="167"/>
+      <c r="T86" s="167"/>
+      <c r="U86" s="167"/>
+      <c r="V86" s="167"/>
+      <c r="W86" s="167"/>
+      <c r="X86" s="167"/>
+      <c r="Y86" s="167"/>
+      <c r="Z86" s="167"/>
+      <c r="AA86" s="167"/>
+      <c r="AB86" s="167"/>
+      <c r="AC86" s="167"/>
+      <c r="AD86" s="167"/>
+      <c r="AE86" s="167"/>
+      <c r="AF86" s="167"/>
+      <c r="AG86" s="167"/>
+      <c r="AH86" s="167"/>
+      <c r="AI86" s="167"/>
+      <c r="AJ86" s="167"/>
+      <c r="AK86" s="167"/>
+      <c r="AL86" s="167"/>
+      <c r="AM86" s="167"/>
+      <c r="AN86" s="167"/>
+      <c r="AO86" s="167"/>
+      <c r="AP86" s="167"/>
+      <c r="AQ86" s="167"/>
+      <c r="AR86" s="167"/>
+      <c r="AS86" s="167"/>
+      <c r="AT86" s="167"/>
+      <c r="AU86" s="167"/>
+      <c r="AV86" s="167"/>
+      <c r="AW86" s="167"/>
+      <c r="AX86" s="167"/>
+      <c r="AY86" s="167"/>
+      <c r="AZ86" s="167"/>
+      <c r="BA86" s="167"/>
+      <c r="BB86" s="167"/>
+      <c r="BC86" s="167"/>
+      <c r="BD86" s="167"/>
+      <c r="BE86" s="167"/>
+      <c r="BF86" s="167"/>
+      <c r="BG86" s="167"/>
+      <c r="BH86" s="167"/>
+      <c r="BI86" s="167"/>
+      <c r="BJ86" s="167"/>
+      <c r="BK86" s="167"/>
+      <c r="BL86" s="167"/>
+      <c r="BM86" s="167"/>
+      <c r="BN86" s="167"/>
+      <c r="BO86" s="167"/>
+      <c r="BP86" s="167"/>
+      <c r="BQ86" s="167"/>
+      <c r="BR86" s="168"/>
     </row>
     <row r="87" spans="1:70" s="55" customFormat="1">
       <c r="A87" s="58" t="str">
         <f t="shared" si="65"/>
         <v>4.6</v>
       </c>
-      <c r="B87" s="182" t="s">
+      <c r="B87" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="C87" s="182"/>
-      <c r="D87" s="182"/>
-      <c r="E87" s="182"/>
-      <c r="F87" s="182"/>
-      <c r="G87" s="182"/>
-      <c r="H87" s="182"/>
-      <c r="I87" s="182"/>
-      <c r="J87" s="182"/>
-      <c r="K87" s="182"/>
-      <c r="L87" s="182"/>
-      <c r="M87" s="182"/>
-      <c r="N87" s="182"/>
-      <c r="O87" s="182"/>
-      <c r="P87" s="182"/>
-      <c r="Q87" s="182"/>
-      <c r="R87" s="182"/>
-      <c r="S87" s="182"/>
-      <c r="T87" s="182"/>
-      <c r="U87" s="182"/>
-      <c r="V87" s="182"/>
-      <c r="W87" s="182"/>
-      <c r="X87" s="182"/>
-      <c r="Y87" s="182"/>
-      <c r="Z87" s="182"/>
-      <c r="AA87" s="182"/>
-      <c r="AB87" s="182"/>
-      <c r="AC87" s="182"/>
-      <c r="AD87" s="182"/>
-      <c r="AE87" s="182"/>
-      <c r="AF87" s="182"/>
-      <c r="AG87" s="182"/>
-      <c r="AH87" s="182"/>
-      <c r="AI87" s="182"/>
-      <c r="AJ87" s="182"/>
-      <c r="AK87" s="182"/>
-      <c r="AL87" s="182"/>
-      <c r="AM87" s="182"/>
-      <c r="AN87" s="182"/>
-      <c r="AO87" s="182"/>
-      <c r="AP87" s="182"/>
-      <c r="AQ87" s="182"/>
-      <c r="AR87" s="182"/>
-      <c r="AS87" s="182"/>
-      <c r="AT87" s="182"/>
-      <c r="AU87" s="182"/>
-      <c r="AV87" s="182"/>
-      <c r="AW87" s="182"/>
-      <c r="AX87" s="182"/>
-      <c r="AY87" s="182"/>
-      <c r="AZ87" s="182"/>
-      <c r="BA87" s="182"/>
-      <c r="BB87" s="182"/>
-      <c r="BC87" s="182"/>
-      <c r="BD87" s="182"/>
-      <c r="BE87" s="182"/>
-      <c r="BF87" s="182"/>
-      <c r="BG87" s="182"/>
-      <c r="BH87" s="182"/>
-      <c r="BI87" s="182"/>
-      <c r="BJ87" s="182"/>
-      <c r="BK87" s="182"/>
-      <c r="BL87" s="182"/>
-      <c r="BM87" s="182"/>
-      <c r="BN87" s="182"/>
-      <c r="BO87" s="182"/>
-      <c r="BP87" s="182"/>
-      <c r="BQ87" s="182"/>
-      <c r="BR87" s="183"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="167"/>
+      <c r="F87" s="167"/>
+      <c r="G87" s="167"/>
+      <c r="H87" s="167"/>
+      <c r="I87" s="167"/>
+      <c r="J87" s="167"/>
+      <c r="K87" s="167"/>
+      <c r="L87" s="167"/>
+      <c r="M87" s="167"/>
+      <c r="N87" s="167"/>
+      <c r="O87" s="167"/>
+      <c r="P87" s="167"/>
+      <c r="Q87" s="167"/>
+      <c r="R87" s="167"/>
+      <c r="S87" s="167"/>
+      <c r="T87" s="167"/>
+      <c r="U87" s="167"/>
+      <c r="V87" s="167"/>
+      <c r="W87" s="167"/>
+      <c r="X87" s="167"/>
+      <c r="Y87" s="167"/>
+      <c r="Z87" s="167"/>
+      <c r="AA87" s="167"/>
+      <c r="AB87" s="167"/>
+      <c r="AC87" s="167"/>
+      <c r="AD87" s="167"/>
+      <c r="AE87" s="167"/>
+      <c r="AF87" s="167"/>
+      <c r="AG87" s="167"/>
+      <c r="AH87" s="167"/>
+      <c r="AI87" s="167"/>
+      <c r="AJ87" s="167"/>
+      <c r="AK87" s="167"/>
+      <c r="AL87" s="167"/>
+      <c r="AM87" s="167"/>
+      <c r="AN87" s="167"/>
+      <c r="AO87" s="167"/>
+      <c r="AP87" s="167"/>
+      <c r="AQ87" s="167"/>
+      <c r="AR87" s="167"/>
+      <c r="AS87" s="167"/>
+      <c r="AT87" s="167"/>
+      <c r="AU87" s="167"/>
+      <c r="AV87" s="167"/>
+      <c r="AW87" s="167"/>
+      <c r="AX87" s="167"/>
+      <c r="AY87" s="167"/>
+      <c r="AZ87" s="167"/>
+      <c r="BA87" s="167"/>
+      <c r="BB87" s="167"/>
+      <c r="BC87" s="167"/>
+      <c r="BD87" s="167"/>
+      <c r="BE87" s="167"/>
+      <c r="BF87" s="167"/>
+      <c r="BG87" s="167"/>
+      <c r="BH87" s="167"/>
+      <c r="BI87" s="167"/>
+      <c r="BJ87" s="167"/>
+      <c r="BK87" s="167"/>
+      <c r="BL87" s="167"/>
+      <c r="BM87" s="167"/>
+      <c r="BN87" s="167"/>
+      <c r="BO87" s="167"/>
+      <c r="BP87" s="167"/>
+      <c r="BQ87" s="167"/>
+      <c r="BR87" s="168"/>
     </row>
     <row r="88" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A88" s="59" t="str">
         <f t="shared" si="65"/>
         <v>4.7</v>
       </c>
-      <c r="B88" s="186" t="s">
+      <c r="B88" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="186"/>
-      <c r="D88" s="186"/>
-      <c r="E88" s="186"/>
-      <c r="F88" s="186"/>
-      <c r="G88" s="186"/>
-      <c r="H88" s="186"/>
-      <c r="I88" s="186"/>
-      <c r="J88" s="186"/>
-      <c r="K88" s="186"/>
-      <c r="L88" s="186"/>
-      <c r="M88" s="186"/>
-      <c r="N88" s="186"/>
-      <c r="O88" s="186"/>
-      <c r="P88" s="186"/>
-      <c r="Q88" s="186"/>
-      <c r="R88" s="186"/>
-      <c r="S88" s="186"/>
-      <c r="T88" s="186"/>
-      <c r="U88" s="186"/>
-      <c r="V88" s="186"/>
-      <c r="W88" s="186"/>
-      <c r="X88" s="186"/>
-      <c r="Y88" s="186"/>
-      <c r="Z88" s="186"/>
-      <c r="AA88" s="186"/>
-      <c r="AB88" s="186"/>
-      <c r="AC88" s="186"/>
-      <c r="AD88" s="186"/>
-      <c r="AE88" s="186"/>
-      <c r="AF88" s="186"/>
-      <c r="AG88" s="186"/>
-      <c r="AH88" s="186"/>
-      <c r="AI88" s="186"/>
-      <c r="AJ88" s="186"/>
-      <c r="AK88" s="186"/>
-      <c r="AL88" s="186"/>
-      <c r="AM88" s="186"/>
-      <c r="AN88" s="186"/>
-      <c r="AO88" s="186"/>
-      <c r="AP88" s="186"/>
-      <c r="AQ88" s="186"/>
-      <c r="AR88" s="186"/>
-      <c r="AS88" s="186"/>
-      <c r="AT88" s="186"/>
-      <c r="AU88" s="186"/>
-      <c r="AV88" s="186"/>
-      <c r="AW88" s="186"/>
-      <c r="AX88" s="186"/>
-      <c r="AY88" s="186"/>
-      <c r="AZ88" s="186"/>
-      <c r="BA88" s="186"/>
-      <c r="BB88" s="186"/>
-      <c r="BC88" s="186"/>
-      <c r="BD88" s="186"/>
-      <c r="BE88" s="186"/>
-      <c r="BF88" s="186"/>
-      <c r="BG88" s="186"/>
-      <c r="BH88" s="186"/>
-      <c r="BI88" s="186"/>
-      <c r="BJ88" s="186"/>
-      <c r="BK88" s="186"/>
-      <c r="BL88" s="186"/>
-      <c r="BM88" s="186"/>
-      <c r="BN88" s="186"/>
-      <c r="BO88" s="186"/>
-      <c r="BP88" s="186"/>
-      <c r="BQ88" s="186"/>
-      <c r="BR88" s="187"/>
+      <c r="C88" s="169"/>
+      <c r="D88" s="169"/>
+      <c r="E88" s="169"/>
+      <c r="F88" s="169"/>
+      <c r="G88" s="169"/>
+      <c r="H88" s="169"/>
+      <c r="I88" s="169"/>
+      <c r="J88" s="169"/>
+      <c r="K88" s="169"/>
+      <c r="L88" s="169"/>
+      <c r="M88" s="169"/>
+      <c r="N88" s="169"/>
+      <c r="O88" s="169"/>
+      <c r="P88" s="169"/>
+      <c r="Q88" s="169"/>
+      <c r="R88" s="169"/>
+      <c r="S88" s="169"/>
+      <c r="T88" s="169"/>
+      <c r="U88" s="169"/>
+      <c r="V88" s="169"/>
+      <c r="W88" s="169"/>
+      <c r="X88" s="169"/>
+      <c r="Y88" s="169"/>
+      <c r="Z88" s="169"/>
+      <c r="AA88" s="169"/>
+      <c r="AB88" s="169"/>
+      <c r="AC88" s="169"/>
+      <c r="AD88" s="169"/>
+      <c r="AE88" s="169"/>
+      <c r="AF88" s="169"/>
+      <c r="AG88" s="169"/>
+      <c r="AH88" s="169"/>
+      <c r="AI88" s="169"/>
+      <c r="AJ88" s="169"/>
+      <c r="AK88" s="169"/>
+      <c r="AL88" s="169"/>
+      <c r="AM88" s="169"/>
+      <c r="AN88" s="169"/>
+      <c r="AO88" s="169"/>
+      <c r="AP88" s="169"/>
+      <c r="AQ88" s="169"/>
+      <c r="AR88" s="169"/>
+      <c r="AS88" s="169"/>
+      <c r="AT88" s="169"/>
+      <c r="AU88" s="169"/>
+      <c r="AV88" s="169"/>
+      <c r="AW88" s="169"/>
+      <c r="AX88" s="169"/>
+      <c r="AY88" s="169"/>
+      <c r="AZ88" s="169"/>
+      <c r="BA88" s="169"/>
+      <c r="BB88" s="169"/>
+      <c r="BC88" s="169"/>
+      <c r="BD88" s="169"/>
+      <c r="BE88" s="169"/>
+      <c r="BF88" s="169"/>
+      <c r="BG88" s="169"/>
+      <c r="BH88" s="169"/>
+      <c r="BI88" s="169"/>
+      <c r="BJ88" s="169"/>
+      <c r="BK88" s="169"/>
+      <c r="BL88" s="169"/>
+      <c r="BM88" s="169"/>
+      <c r="BN88" s="169"/>
+      <c r="BO88" s="169"/>
+      <c r="BP88" s="169"/>
+      <c r="BQ88" s="169"/>
+      <c r="BR88" s="170"/>
     </row>
     <row r="89" spans="1:70" ht="17.25" thickBot="1">
       <c r="A89" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
-      <c r="B89" s="184" t="s">
+      <c r="B89" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="C89" s="184"/>
-      <c r="D89" s="184"/>
-      <c r="E89" s="184"/>
-      <c r="F89" s="184"/>
-      <c r="G89" s="184"/>
-      <c r="H89" s="184"/>
-      <c r="I89" s="184"/>
-      <c r="J89" s="184"/>
-      <c r="K89" s="184"/>
-      <c r="L89" s="184"/>
-      <c r="M89" s="184"/>
-      <c r="N89" s="184"/>
-      <c r="O89" s="184"/>
-      <c r="P89" s="184"/>
-      <c r="Q89" s="184"/>
-      <c r="R89" s="184"/>
-      <c r="S89" s="184"/>
-      <c r="T89" s="184"/>
-      <c r="U89" s="184"/>
-      <c r="V89" s="184"/>
-      <c r="W89" s="184"/>
-      <c r="X89" s="184"/>
-      <c r="Y89" s="184"/>
-      <c r="Z89" s="184"/>
-      <c r="AA89" s="184"/>
-      <c r="AB89" s="184"/>
-      <c r="AC89" s="184"/>
-      <c r="AD89" s="184"/>
-      <c r="AE89" s="184"/>
-      <c r="AF89" s="184"/>
-      <c r="AG89" s="184"/>
-      <c r="AH89" s="184"/>
-      <c r="AI89" s="184"/>
-      <c r="AJ89" s="184"/>
-      <c r="AK89" s="184"/>
-      <c r="AL89" s="184"/>
-      <c r="AM89" s="184"/>
-      <c r="AN89" s="184"/>
-      <c r="AO89" s="184"/>
-      <c r="AP89" s="184"/>
-      <c r="AQ89" s="184"/>
-      <c r="AR89" s="184"/>
-      <c r="AS89" s="184"/>
-      <c r="AT89" s="184"/>
-      <c r="AU89" s="184"/>
-      <c r="AV89" s="184"/>
-      <c r="AW89" s="184"/>
-      <c r="AX89" s="184"/>
-      <c r="AY89" s="184"/>
-      <c r="AZ89" s="184"/>
-      <c r="BA89" s="184"/>
-      <c r="BB89" s="184"/>
-      <c r="BC89" s="184"/>
-      <c r="BD89" s="184"/>
-      <c r="BE89" s="184"/>
-      <c r="BF89" s="184"/>
-      <c r="BG89" s="184"/>
-      <c r="BH89" s="184"/>
-      <c r="BI89" s="184"/>
-      <c r="BJ89" s="184"/>
-      <c r="BK89" s="184"/>
-      <c r="BL89" s="184"/>
-      <c r="BM89" s="184"/>
-      <c r="BN89" s="184"/>
-      <c r="BO89" s="184"/>
-      <c r="BP89" s="184"/>
-      <c r="BQ89" s="184"/>
-      <c r="BR89" s="185"/>
+      <c r="C89" s="163"/>
+      <c r="D89" s="163"/>
+      <c r="E89" s="163"/>
+      <c r="F89" s="163"/>
+      <c r="G89" s="163"/>
+      <c r="H89" s="163"/>
+      <c r="I89" s="163"/>
+      <c r="J89" s="163"/>
+      <c r="K89" s="163"/>
+      <c r="L89" s="163"/>
+      <c r="M89" s="163"/>
+      <c r="N89" s="163"/>
+      <c r="O89" s="163"/>
+      <c r="P89" s="163"/>
+      <c r="Q89" s="163"/>
+      <c r="R89" s="163"/>
+      <c r="S89" s="163"/>
+      <c r="T89" s="163"/>
+      <c r="U89" s="163"/>
+      <c r="V89" s="163"/>
+      <c r="W89" s="163"/>
+      <c r="X89" s="163"/>
+      <c r="Y89" s="163"/>
+      <c r="Z89" s="163"/>
+      <c r="AA89" s="163"/>
+      <c r="AB89" s="163"/>
+      <c r="AC89" s="163"/>
+      <c r="AD89" s="163"/>
+      <c r="AE89" s="163"/>
+      <c r="AF89" s="163"/>
+      <c r="AG89" s="163"/>
+      <c r="AH89" s="163"/>
+      <c r="AI89" s="163"/>
+      <c r="AJ89" s="163"/>
+      <c r="AK89" s="163"/>
+      <c r="AL89" s="163"/>
+      <c r="AM89" s="163"/>
+      <c r="AN89" s="163"/>
+      <c r="AO89" s="163"/>
+      <c r="AP89" s="163"/>
+      <c r="AQ89" s="163"/>
+      <c r="AR89" s="163"/>
+      <c r="AS89" s="163"/>
+      <c r="AT89" s="163"/>
+      <c r="AU89" s="163"/>
+      <c r="AV89" s="163"/>
+      <c r="AW89" s="163"/>
+      <c r="AX89" s="163"/>
+      <c r="AY89" s="163"/>
+      <c r="AZ89" s="163"/>
+      <c r="BA89" s="163"/>
+      <c r="BB89" s="163"/>
+      <c r="BC89" s="163"/>
+      <c r="BD89" s="163"/>
+      <c r="BE89" s="163"/>
+      <c r="BF89" s="163"/>
+      <c r="BG89" s="163"/>
+      <c r="BH89" s="163"/>
+      <c r="BI89" s="163"/>
+      <c r="BJ89" s="163"/>
+      <c r="BK89" s="163"/>
+      <c r="BL89" s="163"/>
+      <c r="BM89" s="163"/>
+      <c r="BN89" s="163"/>
+      <c r="BO89" s="163"/>
+      <c r="BP89" s="163"/>
+      <c r="BQ89" s="163"/>
+      <c r="BR89" s="164"/>
     </row>
     <row r="90" spans="1:70" s="55" customFormat="1">
       <c r="A90" s="57" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.1</v>
       </c>
-      <c r="B90" s="180" t="s">
+      <c r="B90" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="C90" s="180"/>
-      <c r="D90" s="180"/>
-      <c r="E90" s="180"/>
-      <c r="F90" s="180"/>
-      <c r="G90" s="180"/>
-      <c r="H90" s="180"/>
-      <c r="I90" s="180"/>
-      <c r="J90" s="180"/>
-      <c r="K90" s="180"/>
-      <c r="L90" s="180"/>
-      <c r="M90" s="180"/>
-      <c r="N90" s="180"/>
-      <c r="O90" s="180"/>
-      <c r="P90" s="180"/>
-      <c r="Q90" s="180"/>
-      <c r="R90" s="180"/>
-      <c r="S90" s="180"/>
-      <c r="T90" s="180"/>
-      <c r="U90" s="180"/>
-      <c r="V90" s="180"/>
-      <c r="W90" s="180"/>
-      <c r="X90" s="180"/>
-      <c r="Y90" s="180"/>
-      <c r="Z90" s="180"/>
-      <c r="AA90" s="180"/>
-      <c r="AB90" s="180"/>
-      <c r="AC90" s="180"/>
-      <c r="AD90" s="180"/>
-      <c r="AE90" s="180"/>
-      <c r="AF90" s="180"/>
-      <c r="AG90" s="180"/>
-      <c r="AH90" s="180"/>
-      <c r="AI90" s="180"/>
-      <c r="AJ90" s="180"/>
-      <c r="AK90" s="180"/>
-      <c r="AL90" s="180"/>
-      <c r="AM90" s="180"/>
-      <c r="AN90" s="180"/>
-      <c r="AO90" s="180"/>
-      <c r="AP90" s="180"/>
-      <c r="AQ90" s="180"/>
-      <c r="AR90" s="180"/>
-      <c r="AS90" s="180"/>
-      <c r="AT90" s="180"/>
-      <c r="AU90" s="180"/>
-      <c r="AV90" s="180"/>
-      <c r="AW90" s="180"/>
-      <c r="AX90" s="180"/>
-      <c r="AY90" s="180"/>
-      <c r="AZ90" s="180"/>
-      <c r="BA90" s="180"/>
-      <c r="BB90" s="180"/>
-      <c r="BC90" s="180"/>
-      <c r="BD90" s="180"/>
-      <c r="BE90" s="180"/>
-      <c r="BF90" s="180"/>
-      <c r="BG90" s="180"/>
-      <c r="BH90" s="180"/>
-      <c r="BI90" s="180"/>
-      <c r="BJ90" s="180"/>
-      <c r="BK90" s="180"/>
-      <c r="BL90" s="180"/>
-      <c r="BM90" s="180"/>
-      <c r="BN90" s="180"/>
-      <c r="BO90" s="180"/>
-      <c r="BP90" s="180"/>
-      <c r="BQ90" s="180"/>
-      <c r="BR90" s="181"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
+      <c r="E90" s="165"/>
+      <c r="F90" s="165"/>
+      <c r="G90" s="165"/>
+      <c r="H90" s="165"/>
+      <c r="I90" s="165"/>
+      <c r="J90" s="165"/>
+      <c r="K90" s="165"/>
+      <c r="L90" s="165"/>
+      <c r="M90" s="165"/>
+      <c r="N90" s="165"/>
+      <c r="O90" s="165"/>
+      <c r="P90" s="165"/>
+      <c r="Q90" s="165"/>
+      <c r="R90" s="165"/>
+      <c r="S90" s="165"/>
+      <c r="T90" s="165"/>
+      <c r="U90" s="165"/>
+      <c r="V90" s="165"/>
+      <c r="W90" s="165"/>
+      <c r="X90" s="165"/>
+      <c r="Y90" s="165"/>
+      <c r="Z90" s="165"/>
+      <c r="AA90" s="165"/>
+      <c r="AB90" s="165"/>
+      <c r="AC90" s="165"/>
+      <c r="AD90" s="165"/>
+      <c r="AE90" s="165"/>
+      <c r="AF90" s="165"/>
+      <c r="AG90" s="165"/>
+      <c r="AH90" s="165"/>
+      <c r="AI90" s="165"/>
+      <c r="AJ90" s="165"/>
+      <c r="AK90" s="165"/>
+      <c r="AL90" s="165"/>
+      <c r="AM90" s="165"/>
+      <c r="AN90" s="165"/>
+      <c r="AO90" s="165"/>
+      <c r="AP90" s="165"/>
+      <c r="AQ90" s="165"/>
+      <c r="AR90" s="165"/>
+      <c r="AS90" s="165"/>
+      <c r="AT90" s="165"/>
+      <c r="AU90" s="165"/>
+      <c r="AV90" s="165"/>
+      <c r="AW90" s="165"/>
+      <c r="AX90" s="165"/>
+      <c r="AY90" s="165"/>
+      <c r="AZ90" s="165"/>
+      <c r="BA90" s="165"/>
+      <c r="BB90" s="165"/>
+      <c r="BC90" s="165"/>
+      <c r="BD90" s="165"/>
+      <c r="BE90" s="165"/>
+      <c r="BF90" s="165"/>
+      <c r="BG90" s="165"/>
+      <c r="BH90" s="165"/>
+      <c r="BI90" s="165"/>
+      <c r="BJ90" s="165"/>
+      <c r="BK90" s="165"/>
+      <c r="BL90" s="165"/>
+      <c r="BM90" s="165"/>
+      <c r="BN90" s="165"/>
+      <c r="BO90" s="165"/>
+      <c r="BP90" s="165"/>
+      <c r="BQ90" s="165"/>
+      <c r="BR90" s="166"/>
     </row>
     <row r="91" spans="1:70" s="55" customFormat="1">
       <c r="A91" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.2</v>
       </c>
-      <c r="B91" s="182" t="s">
+      <c r="B91" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="C91" s="182"/>
-      <c r="D91" s="182"/>
-      <c r="E91" s="182"/>
-      <c r="F91" s="182"/>
-      <c r="G91" s="182"/>
-      <c r="H91" s="182"/>
-      <c r="I91" s="182"/>
-      <c r="J91" s="182"/>
-      <c r="K91" s="182"/>
-      <c r="L91" s="182"/>
-      <c r="M91" s="182"/>
-      <c r="N91" s="182"/>
-      <c r="O91" s="182"/>
-      <c r="P91" s="182"/>
-      <c r="Q91" s="182"/>
-      <c r="R91" s="182"/>
-      <c r="S91" s="182"/>
-      <c r="T91" s="182"/>
-      <c r="U91" s="182"/>
-      <c r="V91" s="182"/>
-      <c r="W91" s="182"/>
-      <c r="X91" s="182"/>
-      <c r="Y91" s="182"/>
-      <c r="Z91" s="182"/>
-      <c r="AA91" s="182"/>
-      <c r="AB91" s="182"/>
-      <c r="AC91" s="182"/>
-      <c r="AD91" s="182"/>
-      <c r="AE91" s="182"/>
-      <c r="AF91" s="182"/>
-      <c r="AG91" s="182"/>
-      <c r="AH91" s="182"/>
-      <c r="AI91" s="182"/>
-      <c r="AJ91" s="182"/>
-      <c r="AK91" s="182"/>
-      <c r="AL91" s="182"/>
-      <c r="AM91" s="182"/>
-      <c r="AN91" s="182"/>
-      <c r="AO91" s="182"/>
-      <c r="AP91" s="182"/>
-      <c r="AQ91" s="182"/>
-      <c r="AR91" s="182"/>
-      <c r="AS91" s="182"/>
-      <c r="AT91" s="182"/>
-      <c r="AU91" s="182"/>
-      <c r="AV91" s="182"/>
-      <c r="AW91" s="182"/>
-      <c r="AX91" s="182"/>
-      <c r="AY91" s="182"/>
-      <c r="AZ91" s="182"/>
-      <c r="BA91" s="182"/>
-      <c r="BB91" s="182"/>
-      <c r="BC91" s="182"/>
-      <c r="BD91" s="182"/>
-      <c r="BE91" s="182"/>
-      <c r="BF91" s="182"/>
-      <c r="BG91" s="182"/>
-      <c r="BH91" s="182"/>
-      <c r="BI91" s="182"/>
-      <c r="BJ91" s="182"/>
-      <c r="BK91" s="182"/>
-      <c r="BL91" s="182"/>
-      <c r="BM91" s="182"/>
-      <c r="BN91" s="182"/>
-      <c r="BO91" s="182"/>
-      <c r="BP91" s="182"/>
-      <c r="BQ91" s="182"/>
-      <c r="BR91" s="183"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="167"/>
+      <c r="E91" s="167"/>
+      <c r="F91" s="167"/>
+      <c r="G91" s="167"/>
+      <c r="H91" s="167"/>
+      <c r="I91" s="167"/>
+      <c r="J91" s="167"/>
+      <c r="K91" s="167"/>
+      <c r="L91" s="167"/>
+      <c r="M91" s="167"/>
+      <c r="N91" s="167"/>
+      <c r="O91" s="167"/>
+      <c r="P91" s="167"/>
+      <c r="Q91" s="167"/>
+      <c r="R91" s="167"/>
+      <c r="S91" s="167"/>
+      <c r="T91" s="167"/>
+      <c r="U91" s="167"/>
+      <c r="V91" s="167"/>
+      <c r="W91" s="167"/>
+      <c r="X91" s="167"/>
+      <c r="Y91" s="167"/>
+      <c r="Z91" s="167"/>
+      <c r="AA91" s="167"/>
+      <c r="AB91" s="167"/>
+      <c r="AC91" s="167"/>
+      <c r="AD91" s="167"/>
+      <c r="AE91" s="167"/>
+      <c r="AF91" s="167"/>
+      <c r="AG91" s="167"/>
+      <c r="AH91" s="167"/>
+      <c r="AI91" s="167"/>
+      <c r="AJ91" s="167"/>
+      <c r="AK91" s="167"/>
+      <c r="AL91" s="167"/>
+      <c r="AM91" s="167"/>
+      <c r="AN91" s="167"/>
+      <c r="AO91" s="167"/>
+      <c r="AP91" s="167"/>
+      <c r="AQ91" s="167"/>
+      <c r="AR91" s="167"/>
+      <c r="AS91" s="167"/>
+      <c r="AT91" s="167"/>
+      <c r="AU91" s="167"/>
+      <c r="AV91" s="167"/>
+      <c r="AW91" s="167"/>
+      <c r="AX91" s="167"/>
+      <c r="AY91" s="167"/>
+      <c r="AZ91" s="167"/>
+      <c r="BA91" s="167"/>
+      <c r="BB91" s="167"/>
+      <c r="BC91" s="167"/>
+      <c r="BD91" s="167"/>
+      <c r="BE91" s="167"/>
+      <c r="BF91" s="167"/>
+      <c r="BG91" s="167"/>
+      <c r="BH91" s="167"/>
+      <c r="BI91" s="167"/>
+      <c r="BJ91" s="167"/>
+      <c r="BK91" s="167"/>
+      <c r="BL91" s="167"/>
+      <c r="BM91" s="167"/>
+      <c r="BN91" s="167"/>
+      <c r="BO91" s="167"/>
+      <c r="BP91" s="167"/>
+      <c r="BQ91" s="167"/>
+      <c r="BR91" s="168"/>
     </row>
     <row r="92" spans="1:70" s="55" customFormat="1">
       <c r="A92" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.3</v>
       </c>
-      <c r="B92" s="182" t="s">
+      <c r="B92" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="C92" s="182"/>
-      <c r="D92" s="182"/>
-      <c r="E92" s="182"/>
-      <c r="F92" s="182"/>
-      <c r="G92" s="182"/>
-      <c r="H92" s="182"/>
-      <c r="I92" s="182"/>
-      <c r="J92" s="182"/>
-      <c r="K92" s="182"/>
-      <c r="L92" s="182"/>
-      <c r="M92" s="182"/>
-      <c r="N92" s="182"/>
-      <c r="O92" s="182"/>
-      <c r="P92" s="182"/>
-      <c r="Q92" s="182"/>
-      <c r="R92" s="182"/>
-      <c r="S92" s="182"/>
-      <c r="T92" s="182"/>
-      <c r="U92" s="182"/>
-      <c r="V92" s="182"/>
-      <c r="W92" s="182"/>
-      <c r="X92" s="182"/>
-      <c r="Y92" s="182"/>
-      <c r="Z92" s="182"/>
-      <c r="AA92" s="182"/>
-      <c r="AB92" s="182"/>
-      <c r="AC92" s="182"/>
-      <c r="AD92" s="182"/>
-      <c r="AE92" s="182"/>
-      <c r="AF92" s="182"/>
-      <c r="AG92" s="182"/>
-      <c r="AH92" s="182"/>
-      <c r="AI92" s="182"/>
-      <c r="AJ92" s="182"/>
-      <c r="AK92" s="182"/>
-      <c r="AL92" s="182"/>
-      <c r="AM92" s="182"/>
-      <c r="AN92" s="182"/>
-      <c r="AO92" s="182"/>
-      <c r="AP92" s="182"/>
-      <c r="AQ92" s="182"/>
-      <c r="AR92" s="182"/>
-      <c r="AS92" s="182"/>
-      <c r="AT92" s="182"/>
-      <c r="AU92" s="182"/>
-      <c r="AV92" s="182"/>
-      <c r="AW92" s="182"/>
-      <c r="AX92" s="182"/>
-      <c r="AY92" s="182"/>
-      <c r="AZ92" s="182"/>
-      <c r="BA92" s="182"/>
-      <c r="BB92" s="182"/>
-      <c r="BC92" s="182"/>
-      <c r="BD92" s="182"/>
-      <c r="BE92" s="182"/>
-      <c r="BF92" s="182"/>
-      <c r="BG92" s="182"/>
-      <c r="BH92" s="182"/>
-      <c r="BI92" s="182"/>
-      <c r="BJ92" s="182"/>
-      <c r="BK92" s="182"/>
-      <c r="BL92" s="182"/>
-      <c r="BM92" s="182"/>
-      <c r="BN92" s="182"/>
-      <c r="BO92" s="182"/>
-      <c r="BP92" s="182"/>
-      <c r="BQ92" s="182"/>
-      <c r="BR92" s="183"/>
+      <c r="C92" s="167"/>
+      <c r="D92" s="167"/>
+      <c r="E92" s="167"/>
+      <c r="F92" s="167"/>
+      <c r="G92" s="167"/>
+      <c r="H92" s="167"/>
+      <c r="I92" s="167"/>
+      <c r="J92" s="167"/>
+      <c r="K92" s="167"/>
+      <c r="L92" s="167"/>
+      <c r="M92" s="167"/>
+      <c r="N92" s="167"/>
+      <c r="O92" s="167"/>
+      <c r="P92" s="167"/>
+      <c r="Q92" s="167"/>
+      <c r="R92" s="167"/>
+      <c r="S92" s="167"/>
+      <c r="T92" s="167"/>
+      <c r="U92" s="167"/>
+      <c r="V92" s="167"/>
+      <c r="W92" s="167"/>
+      <c r="X92" s="167"/>
+      <c r="Y92" s="167"/>
+      <c r="Z92" s="167"/>
+      <c r="AA92" s="167"/>
+      <c r="AB92" s="167"/>
+      <c r="AC92" s="167"/>
+      <c r="AD92" s="167"/>
+      <c r="AE92" s="167"/>
+      <c r="AF92" s="167"/>
+      <c r="AG92" s="167"/>
+      <c r="AH92" s="167"/>
+      <c r="AI92" s="167"/>
+      <c r="AJ92" s="167"/>
+      <c r="AK92" s="167"/>
+      <c r="AL92" s="167"/>
+      <c r="AM92" s="167"/>
+      <c r="AN92" s="167"/>
+      <c r="AO92" s="167"/>
+      <c r="AP92" s="167"/>
+      <c r="AQ92" s="167"/>
+      <c r="AR92" s="167"/>
+      <c r="AS92" s="167"/>
+      <c r="AT92" s="167"/>
+      <c r="AU92" s="167"/>
+      <c r="AV92" s="167"/>
+      <c r="AW92" s="167"/>
+      <c r="AX92" s="167"/>
+      <c r="AY92" s="167"/>
+      <c r="AZ92" s="167"/>
+      <c r="BA92" s="167"/>
+      <c r="BB92" s="167"/>
+      <c r="BC92" s="167"/>
+      <c r="BD92" s="167"/>
+      <c r="BE92" s="167"/>
+      <c r="BF92" s="167"/>
+      <c r="BG92" s="167"/>
+      <c r="BH92" s="167"/>
+      <c r="BI92" s="167"/>
+      <c r="BJ92" s="167"/>
+      <c r="BK92" s="167"/>
+      <c r="BL92" s="167"/>
+      <c r="BM92" s="167"/>
+      <c r="BN92" s="167"/>
+      <c r="BO92" s="167"/>
+      <c r="BP92" s="167"/>
+      <c r="BQ92" s="167"/>
+      <c r="BR92" s="168"/>
     </row>
     <row r="93" spans="1:70" s="55" customFormat="1">
       <c r="A93" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.4</v>
       </c>
-      <c r="B93" s="182" t="s">
+      <c r="B93" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="C93" s="182"/>
-      <c r="D93" s="182"/>
-      <c r="E93" s="182"/>
-      <c r="F93" s="182"/>
-      <c r="G93" s="182"/>
-      <c r="H93" s="182"/>
-      <c r="I93" s="182"/>
-      <c r="J93" s="182"/>
-      <c r="K93" s="182"/>
-      <c r="L93" s="182"/>
-      <c r="M93" s="182"/>
-      <c r="N93" s="182"/>
-      <c r="O93" s="182"/>
-      <c r="P93" s="182"/>
-      <c r="Q93" s="182"/>
-      <c r="R93" s="182"/>
-      <c r="S93" s="182"/>
-      <c r="T93" s="182"/>
-      <c r="U93" s="182"/>
-      <c r="V93" s="182"/>
-      <c r="W93" s="182"/>
-      <c r="X93" s="182"/>
-      <c r="Y93" s="182"/>
-      <c r="Z93" s="182"/>
-      <c r="AA93" s="182"/>
-      <c r="AB93" s="182"/>
-      <c r="AC93" s="182"/>
-      <c r="AD93" s="182"/>
-      <c r="AE93" s="182"/>
-      <c r="AF93" s="182"/>
-      <c r="AG93" s="182"/>
-      <c r="AH93" s="182"/>
-      <c r="AI93" s="182"/>
-      <c r="AJ93" s="182"/>
-      <c r="AK93" s="182"/>
-      <c r="AL93" s="182"/>
-      <c r="AM93" s="182"/>
-      <c r="AN93" s="182"/>
-      <c r="AO93" s="182"/>
-      <c r="AP93" s="182"/>
-      <c r="AQ93" s="182"/>
-      <c r="AR93" s="182"/>
-      <c r="AS93" s="182"/>
-      <c r="AT93" s="182"/>
-      <c r="AU93" s="182"/>
-      <c r="AV93" s="182"/>
-      <c r="AW93" s="182"/>
-      <c r="AX93" s="182"/>
-      <c r="AY93" s="182"/>
-      <c r="AZ93" s="182"/>
-      <c r="BA93" s="182"/>
-      <c r="BB93" s="182"/>
-      <c r="BC93" s="182"/>
-      <c r="BD93" s="182"/>
-      <c r="BE93" s="182"/>
-      <c r="BF93" s="182"/>
-      <c r="BG93" s="182"/>
-      <c r="BH93" s="182"/>
-      <c r="BI93" s="182"/>
-      <c r="BJ93" s="182"/>
-      <c r="BK93" s="182"/>
-      <c r="BL93" s="182"/>
-      <c r="BM93" s="182"/>
-      <c r="BN93" s="182"/>
-      <c r="BO93" s="182"/>
-      <c r="BP93" s="182"/>
-      <c r="BQ93" s="182"/>
-      <c r="BR93" s="183"/>
+      <c r="C93" s="167"/>
+      <c r="D93" s="167"/>
+      <c r="E93" s="167"/>
+      <c r="F93" s="167"/>
+      <c r="G93" s="167"/>
+      <c r="H93" s="167"/>
+      <c r="I93" s="167"/>
+      <c r="J93" s="167"/>
+      <c r="K93" s="167"/>
+      <c r="L93" s="167"/>
+      <c r="M93" s="167"/>
+      <c r="N93" s="167"/>
+      <c r="O93" s="167"/>
+      <c r="P93" s="167"/>
+      <c r="Q93" s="167"/>
+      <c r="R93" s="167"/>
+      <c r="S93" s="167"/>
+      <c r="T93" s="167"/>
+      <c r="U93" s="167"/>
+      <c r="V93" s="167"/>
+      <c r="W93" s="167"/>
+      <c r="X93" s="167"/>
+      <c r="Y93" s="167"/>
+      <c r="Z93" s="167"/>
+      <c r="AA93" s="167"/>
+      <c r="AB93" s="167"/>
+      <c r="AC93" s="167"/>
+      <c r="AD93" s="167"/>
+      <c r="AE93" s="167"/>
+      <c r="AF93" s="167"/>
+      <c r="AG93" s="167"/>
+      <c r="AH93" s="167"/>
+      <c r="AI93" s="167"/>
+      <c r="AJ93" s="167"/>
+      <c r="AK93" s="167"/>
+      <c r="AL93" s="167"/>
+      <c r="AM93" s="167"/>
+      <c r="AN93" s="167"/>
+      <c r="AO93" s="167"/>
+      <c r="AP93" s="167"/>
+      <c r="AQ93" s="167"/>
+      <c r="AR93" s="167"/>
+      <c r="AS93" s="167"/>
+      <c r="AT93" s="167"/>
+      <c r="AU93" s="167"/>
+      <c r="AV93" s="167"/>
+      <c r="AW93" s="167"/>
+      <c r="AX93" s="167"/>
+      <c r="AY93" s="167"/>
+      <c r="AZ93" s="167"/>
+      <c r="BA93" s="167"/>
+      <c r="BB93" s="167"/>
+      <c r="BC93" s="167"/>
+      <c r="BD93" s="167"/>
+      <c r="BE93" s="167"/>
+      <c r="BF93" s="167"/>
+      <c r="BG93" s="167"/>
+      <c r="BH93" s="167"/>
+      <c r="BI93" s="167"/>
+      <c r="BJ93" s="167"/>
+      <c r="BK93" s="167"/>
+      <c r="BL93" s="167"/>
+      <c r="BM93" s="167"/>
+      <c r="BN93" s="167"/>
+      <c r="BO93" s="167"/>
+      <c r="BP93" s="167"/>
+      <c r="BQ93" s="167"/>
+      <c r="BR93" s="168"/>
     </row>
     <row r="94" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A94" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.5</v>
       </c>
-      <c r="B94" s="186" t="s">
+      <c r="B94" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="186"/>
-      <c r="D94" s="186"/>
-      <c r="E94" s="186"/>
-      <c r="F94" s="186"/>
-      <c r="G94" s="186"/>
-      <c r="H94" s="186"/>
-      <c r="I94" s="186"/>
-      <c r="J94" s="186"/>
-      <c r="K94" s="186"/>
-      <c r="L94" s="186"/>
-      <c r="M94" s="186"/>
-      <c r="N94" s="186"/>
-      <c r="O94" s="186"/>
-      <c r="P94" s="186"/>
-      <c r="Q94" s="186"/>
-      <c r="R94" s="186"/>
-      <c r="S94" s="186"/>
-      <c r="T94" s="186"/>
-      <c r="U94" s="186"/>
-      <c r="V94" s="186"/>
-      <c r="W94" s="186"/>
-      <c r="X94" s="186"/>
-      <c r="Y94" s="186"/>
-      <c r="Z94" s="186"/>
-      <c r="AA94" s="186"/>
-      <c r="AB94" s="186"/>
-      <c r="AC94" s="186"/>
-      <c r="AD94" s="186"/>
-      <c r="AE94" s="186"/>
-      <c r="AF94" s="186"/>
-      <c r="AG94" s="186"/>
-      <c r="AH94" s="186"/>
-      <c r="AI94" s="186"/>
-      <c r="AJ94" s="186"/>
-      <c r="AK94" s="186"/>
-      <c r="AL94" s="186"/>
-      <c r="AM94" s="186"/>
-      <c r="AN94" s="186"/>
-      <c r="AO94" s="186"/>
-      <c r="AP94" s="186"/>
-      <c r="AQ94" s="186"/>
-      <c r="AR94" s="186"/>
-      <c r="AS94" s="186"/>
-      <c r="AT94" s="186"/>
-      <c r="AU94" s="186"/>
-      <c r="AV94" s="186"/>
-      <c r="AW94" s="186"/>
-      <c r="AX94" s="186"/>
-      <c r="AY94" s="186"/>
-      <c r="AZ94" s="186"/>
-      <c r="BA94" s="186"/>
-      <c r="BB94" s="186"/>
-      <c r="BC94" s="186"/>
-      <c r="BD94" s="186"/>
-      <c r="BE94" s="186"/>
-      <c r="BF94" s="186"/>
-      <c r="BG94" s="186"/>
-      <c r="BH94" s="186"/>
-      <c r="BI94" s="186"/>
-      <c r="BJ94" s="186"/>
-      <c r="BK94" s="186"/>
-      <c r="BL94" s="186"/>
-      <c r="BM94" s="186"/>
-      <c r="BN94" s="186"/>
-      <c r="BO94" s="186"/>
-      <c r="BP94" s="186"/>
-      <c r="BQ94" s="186"/>
-      <c r="BR94" s="187"/>
+      <c r="C94" s="169"/>
+      <c r="D94" s="169"/>
+      <c r="E94" s="169"/>
+      <c r="F94" s="169"/>
+      <c r="G94" s="169"/>
+      <c r="H94" s="169"/>
+      <c r="I94" s="169"/>
+      <c r="J94" s="169"/>
+      <c r="K94" s="169"/>
+      <c r="L94" s="169"/>
+      <c r="M94" s="169"/>
+      <c r="N94" s="169"/>
+      <c r="O94" s="169"/>
+      <c r="P94" s="169"/>
+      <c r="Q94" s="169"/>
+      <c r="R94" s="169"/>
+      <c r="S94" s="169"/>
+      <c r="T94" s="169"/>
+      <c r="U94" s="169"/>
+      <c r="V94" s="169"/>
+      <c r="W94" s="169"/>
+      <c r="X94" s="169"/>
+      <c r="Y94" s="169"/>
+      <c r="Z94" s="169"/>
+      <c r="AA94" s="169"/>
+      <c r="AB94" s="169"/>
+      <c r="AC94" s="169"/>
+      <c r="AD94" s="169"/>
+      <c r="AE94" s="169"/>
+      <c r="AF94" s="169"/>
+      <c r="AG94" s="169"/>
+      <c r="AH94" s="169"/>
+      <c r="AI94" s="169"/>
+      <c r="AJ94" s="169"/>
+      <c r="AK94" s="169"/>
+      <c r="AL94" s="169"/>
+      <c r="AM94" s="169"/>
+      <c r="AN94" s="169"/>
+      <c r="AO94" s="169"/>
+      <c r="AP94" s="169"/>
+      <c r="AQ94" s="169"/>
+      <c r="AR94" s="169"/>
+      <c r="AS94" s="169"/>
+      <c r="AT94" s="169"/>
+      <c r="AU94" s="169"/>
+      <c r="AV94" s="169"/>
+      <c r="AW94" s="169"/>
+      <c r="AX94" s="169"/>
+      <c r="AY94" s="169"/>
+      <c r="AZ94" s="169"/>
+      <c r="BA94" s="169"/>
+      <c r="BB94" s="169"/>
+      <c r="BC94" s="169"/>
+      <c r="BD94" s="169"/>
+      <c r="BE94" s="169"/>
+      <c r="BF94" s="169"/>
+      <c r="BG94" s="169"/>
+      <c r="BH94" s="169"/>
+      <c r="BI94" s="169"/>
+      <c r="BJ94" s="169"/>
+      <c r="BK94" s="169"/>
+      <c r="BL94" s="169"/>
+      <c r="BM94" s="169"/>
+      <c r="BN94" s="169"/>
+      <c r="BO94" s="169"/>
+      <c r="BP94" s="169"/>
+      <c r="BQ94" s="169"/>
+      <c r="BR94" s="170"/>
     </row>
     <row r="95" spans="1:70" ht="17.25" thickBot="1">
       <c r="A95" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>6</v>
       </c>
-      <c r="B95" s="184" t="s">
+      <c r="B95" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="184"/>
-      <c r="D95" s="184"/>
-      <c r="E95" s="184"/>
-      <c r="F95" s="184"/>
-      <c r="G95" s="184"/>
-      <c r="H95" s="184"/>
-      <c r="I95" s="184"/>
-      <c r="J95" s="184"/>
-      <c r="K95" s="184"/>
-      <c r="L95" s="184"/>
-      <c r="M95" s="184"/>
-      <c r="N95" s="184"/>
-      <c r="O95" s="184"/>
-      <c r="P95" s="184"/>
-      <c r="Q95" s="184"/>
-      <c r="R95" s="184"/>
-      <c r="S95" s="184"/>
-      <c r="T95" s="184"/>
-      <c r="U95" s="184"/>
-      <c r="V95" s="184"/>
-      <c r="W95" s="184"/>
-      <c r="X95" s="184"/>
-      <c r="Y95" s="184"/>
-      <c r="Z95" s="184"/>
-      <c r="AA95" s="184"/>
-      <c r="AB95" s="184"/>
-      <c r="AC95" s="184"/>
-      <c r="AD95" s="184"/>
-      <c r="AE95" s="184"/>
-      <c r="AF95" s="184"/>
-      <c r="AG95" s="184"/>
-      <c r="AH95" s="184"/>
-      <c r="AI95" s="184"/>
-      <c r="AJ95" s="184"/>
-      <c r="AK95" s="184"/>
-      <c r="AL95" s="184"/>
-      <c r="AM95" s="184"/>
-      <c r="AN95" s="184"/>
-      <c r="AO95" s="184"/>
-      <c r="AP95" s="184"/>
-      <c r="AQ95" s="184"/>
-      <c r="AR95" s="184"/>
-      <c r="AS95" s="184"/>
-      <c r="AT95" s="184"/>
-      <c r="AU95" s="184"/>
-      <c r="AV95" s="184"/>
-      <c r="AW95" s="184"/>
-      <c r="AX95" s="184"/>
-      <c r="AY95" s="184"/>
-      <c r="AZ95" s="184"/>
-      <c r="BA95" s="184"/>
-      <c r="BB95" s="184"/>
-      <c r="BC95" s="184"/>
-      <c r="BD95" s="184"/>
-      <c r="BE95" s="184"/>
-      <c r="BF95" s="184"/>
-      <c r="BG95" s="184"/>
-      <c r="BH95" s="184"/>
-      <c r="BI95" s="184"/>
-      <c r="BJ95" s="184"/>
-      <c r="BK95" s="184"/>
-      <c r="BL95" s="184"/>
-      <c r="BM95" s="184"/>
-      <c r="BN95" s="184"/>
-      <c r="BO95" s="184"/>
-      <c r="BP95" s="184"/>
-      <c r="BQ95" s="184"/>
-      <c r="BR95" s="185"/>
+      <c r="C95" s="163"/>
+      <c r="D95" s="163"/>
+      <c r="E95" s="163"/>
+      <c r="F95" s="163"/>
+      <c r="G95" s="163"/>
+      <c r="H95" s="163"/>
+      <c r="I95" s="163"/>
+      <c r="J95" s="163"/>
+      <c r="K95" s="163"/>
+      <c r="L95" s="163"/>
+      <c r="M95" s="163"/>
+      <c r="N95" s="163"/>
+      <c r="O95" s="163"/>
+      <c r="P95" s="163"/>
+      <c r="Q95" s="163"/>
+      <c r="R95" s="163"/>
+      <c r="S95" s="163"/>
+      <c r="T95" s="163"/>
+      <c r="U95" s="163"/>
+      <c r="V95" s="163"/>
+      <c r="W95" s="163"/>
+      <c r="X95" s="163"/>
+      <c r="Y95" s="163"/>
+      <c r="Z95" s="163"/>
+      <c r="AA95" s="163"/>
+      <c r="AB95" s="163"/>
+      <c r="AC95" s="163"/>
+      <c r="AD95" s="163"/>
+      <c r="AE95" s="163"/>
+      <c r="AF95" s="163"/>
+      <c r="AG95" s="163"/>
+      <c r="AH95" s="163"/>
+      <c r="AI95" s="163"/>
+      <c r="AJ95" s="163"/>
+      <c r="AK95" s="163"/>
+      <c r="AL95" s="163"/>
+      <c r="AM95" s="163"/>
+      <c r="AN95" s="163"/>
+      <c r="AO95" s="163"/>
+      <c r="AP95" s="163"/>
+      <c r="AQ95" s="163"/>
+      <c r="AR95" s="163"/>
+      <c r="AS95" s="163"/>
+      <c r="AT95" s="163"/>
+      <c r="AU95" s="163"/>
+      <c r="AV95" s="163"/>
+      <c r="AW95" s="163"/>
+      <c r="AX95" s="163"/>
+      <c r="AY95" s="163"/>
+      <c r="AZ95" s="163"/>
+      <c r="BA95" s="163"/>
+      <c r="BB95" s="163"/>
+      <c r="BC95" s="163"/>
+      <c r="BD95" s="163"/>
+      <c r="BE95" s="163"/>
+      <c r="BF95" s="163"/>
+      <c r="BG95" s="163"/>
+      <c r="BH95" s="163"/>
+      <c r="BI95" s="163"/>
+      <c r="BJ95" s="163"/>
+      <c r="BK95" s="163"/>
+      <c r="BL95" s="163"/>
+      <c r="BM95" s="163"/>
+      <c r="BN95" s="163"/>
+      <c r="BO95" s="163"/>
+      <c r="BP95" s="163"/>
+      <c r="BQ95" s="163"/>
+      <c r="BR95" s="164"/>
     </row>
     <row r="96" spans="1:70" s="55" customFormat="1">
       <c r="A96" s="57" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.1</v>
       </c>
-      <c r="B96" s="180" t="s">
+      <c r="B96" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="C96" s="180"/>
-      <c r="D96" s="180"/>
-      <c r="E96" s="180"/>
-      <c r="F96" s="180"/>
-      <c r="G96" s="180"/>
-      <c r="H96" s="180"/>
-      <c r="I96" s="180"/>
-      <c r="J96" s="180"/>
-      <c r="K96" s="180"/>
-      <c r="L96" s="180"/>
-      <c r="M96" s="180"/>
-      <c r="N96" s="180"/>
-      <c r="O96" s="180"/>
-      <c r="P96" s="180"/>
-      <c r="Q96" s="180"/>
-      <c r="R96" s="180"/>
-      <c r="S96" s="180"/>
-      <c r="T96" s="180"/>
-      <c r="U96" s="180"/>
-      <c r="V96" s="180"/>
-      <c r="W96" s="180"/>
-      <c r="X96" s="180"/>
-      <c r="Y96" s="180"/>
-      <c r="Z96" s="180"/>
-      <c r="AA96" s="180"/>
-      <c r="AB96" s="180"/>
-      <c r="AC96" s="180"/>
-      <c r="AD96" s="180"/>
-      <c r="AE96" s="180"/>
-      <c r="AF96" s="180"/>
-      <c r="AG96" s="180"/>
-      <c r="AH96" s="180"/>
-      <c r="AI96" s="180"/>
-      <c r="AJ96" s="180"/>
-      <c r="AK96" s="180"/>
-      <c r="AL96" s="180"/>
-      <c r="AM96" s="180"/>
-      <c r="AN96" s="180"/>
-      <c r="AO96" s="180"/>
-      <c r="AP96" s="180"/>
-      <c r="AQ96" s="180"/>
-      <c r="AR96" s="180"/>
-      <c r="AS96" s="180"/>
-      <c r="AT96" s="180"/>
-      <c r="AU96" s="180"/>
-      <c r="AV96" s="180"/>
-      <c r="AW96" s="180"/>
-      <c r="AX96" s="180"/>
-      <c r="AY96" s="180"/>
-      <c r="AZ96" s="180"/>
-      <c r="BA96" s="180"/>
-      <c r="BB96" s="180"/>
-      <c r="BC96" s="180"/>
-      <c r="BD96" s="180"/>
-      <c r="BE96" s="180"/>
-      <c r="BF96" s="180"/>
-      <c r="BG96" s="180"/>
-      <c r="BH96" s="180"/>
-      <c r="BI96" s="180"/>
-      <c r="BJ96" s="180"/>
-      <c r="BK96" s="180"/>
-      <c r="BL96" s="180"/>
-      <c r="BM96" s="180"/>
-      <c r="BN96" s="180"/>
-      <c r="BO96" s="180"/>
-      <c r="BP96" s="180"/>
-      <c r="BQ96" s="180"/>
-      <c r="BR96" s="181"/>
+      <c r="C96" s="165"/>
+      <c r="D96" s="165"/>
+      <c r="E96" s="165"/>
+      <c r="F96" s="165"/>
+      <c r="G96" s="165"/>
+      <c r="H96" s="165"/>
+      <c r="I96" s="165"/>
+      <c r="J96" s="165"/>
+      <c r="K96" s="165"/>
+      <c r="L96" s="165"/>
+      <c r="M96" s="165"/>
+      <c r="N96" s="165"/>
+      <c r="O96" s="165"/>
+      <c r="P96" s="165"/>
+      <c r="Q96" s="165"/>
+      <c r="R96" s="165"/>
+      <c r="S96" s="165"/>
+      <c r="T96" s="165"/>
+      <c r="U96" s="165"/>
+      <c r="V96" s="165"/>
+      <c r="W96" s="165"/>
+      <c r="X96" s="165"/>
+      <c r="Y96" s="165"/>
+      <c r="Z96" s="165"/>
+      <c r="AA96" s="165"/>
+      <c r="AB96" s="165"/>
+      <c r="AC96" s="165"/>
+      <c r="AD96" s="165"/>
+      <c r="AE96" s="165"/>
+      <c r="AF96" s="165"/>
+      <c r="AG96" s="165"/>
+      <c r="AH96" s="165"/>
+      <c r="AI96" s="165"/>
+      <c r="AJ96" s="165"/>
+      <c r="AK96" s="165"/>
+      <c r="AL96" s="165"/>
+      <c r="AM96" s="165"/>
+      <c r="AN96" s="165"/>
+      <c r="AO96" s="165"/>
+      <c r="AP96" s="165"/>
+      <c r="AQ96" s="165"/>
+      <c r="AR96" s="165"/>
+      <c r="AS96" s="165"/>
+      <c r="AT96" s="165"/>
+      <c r="AU96" s="165"/>
+      <c r="AV96" s="165"/>
+      <c r="AW96" s="165"/>
+      <c r="AX96" s="165"/>
+      <c r="AY96" s="165"/>
+      <c r="AZ96" s="165"/>
+      <c r="BA96" s="165"/>
+      <c r="BB96" s="165"/>
+      <c r="BC96" s="165"/>
+      <c r="BD96" s="165"/>
+      <c r="BE96" s="165"/>
+      <c r="BF96" s="165"/>
+      <c r="BG96" s="165"/>
+      <c r="BH96" s="165"/>
+      <c r="BI96" s="165"/>
+      <c r="BJ96" s="165"/>
+      <c r="BK96" s="165"/>
+      <c r="BL96" s="165"/>
+      <c r="BM96" s="165"/>
+      <c r="BN96" s="165"/>
+      <c r="BO96" s="165"/>
+      <c r="BP96" s="165"/>
+      <c r="BQ96" s="165"/>
+      <c r="BR96" s="166"/>
     </row>
     <row r="97" spans="1:70" s="55" customFormat="1">
       <c r="A97" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.2</v>
       </c>
-      <c r="B97" s="182" t="s">
+      <c r="B97" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="182"/>
-      <c r="D97" s="182"/>
-      <c r="E97" s="182"/>
-      <c r="F97" s="182"/>
-      <c r="G97" s="182"/>
-      <c r="H97" s="182"/>
-      <c r="I97" s="182"/>
-      <c r="J97" s="182"/>
-      <c r="K97" s="182"/>
-      <c r="L97" s="182"/>
-      <c r="M97" s="182"/>
-      <c r="N97" s="182"/>
-      <c r="O97" s="182"/>
-      <c r="P97" s="182"/>
-      <c r="Q97" s="182"/>
-      <c r="R97" s="182"/>
-      <c r="S97" s="182"/>
-      <c r="T97" s="182"/>
-      <c r="U97" s="182"/>
-      <c r="V97" s="182"/>
-      <c r="W97" s="182"/>
-      <c r="X97" s="182"/>
-      <c r="Y97" s="182"/>
-      <c r="Z97" s="182"/>
-      <c r="AA97" s="182"/>
-      <c r="AB97" s="182"/>
-      <c r="AC97" s="182"/>
-      <c r="AD97" s="182"/>
-      <c r="AE97" s="182"/>
-      <c r="AF97" s="182"/>
-      <c r="AG97" s="182"/>
-      <c r="AH97" s="182"/>
-      <c r="AI97" s="182"/>
-      <c r="AJ97" s="182"/>
-      <c r="AK97" s="182"/>
-      <c r="AL97" s="182"/>
-      <c r="AM97" s="182"/>
-      <c r="AN97" s="182"/>
-      <c r="AO97" s="182"/>
-      <c r="AP97" s="182"/>
-      <c r="AQ97" s="182"/>
-      <c r="AR97" s="182"/>
-      <c r="AS97" s="182"/>
-      <c r="AT97" s="182"/>
-      <c r="AU97" s="182"/>
-      <c r="AV97" s="182"/>
-      <c r="AW97" s="182"/>
-      <c r="AX97" s="182"/>
-      <c r="AY97" s="182"/>
-      <c r="AZ97" s="182"/>
-      <c r="BA97" s="182"/>
-      <c r="BB97" s="182"/>
-      <c r="BC97" s="182"/>
-      <c r="BD97" s="182"/>
-      <c r="BE97" s="182"/>
-      <c r="BF97" s="182"/>
-      <c r="BG97" s="182"/>
-      <c r="BH97" s="182"/>
-      <c r="BI97" s="182"/>
-      <c r="BJ97" s="182"/>
-      <c r="BK97" s="182"/>
-      <c r="BL97" s="182"/>
-      <c r="BM97" s="182"/>
-      <c r="BN97" s="182"/>
-      <c r="BO97" s="182"/>
-      <c r="BP97" s="182"/>
-      <c r="BQ97" s="182"/>
-      <c r="BR97" s="183"/>
+      <c r="C97" s="167"/>
+      <c r="D97" s="167"/>
+      <c r="E97" s="167"/>
+      <c r="F97" s="167"/>
+      <c r="G97" s="167"/>
+      <c r="H97" s="167"/>
+      <c r="I97" s="167"/>
+      <c r="J97" s="167"/>
+      <c r="K97" s="167"/>
+      <c r="L97" s="167"/>
+      <c r="M97" s="167"/>
+      <c r="N97" s="167"/>
+      <c r="O97" s="167"/>
+      <c r="P97" s="167"/>
+      <c r="Q97" s="167"/>
+      <c r="R97" s="167"/>
+      <c r="S97" s="167"/>
+      <c r="T97" s="167"/>
+      <c r="U97" s="167"/>
+      <c r="V97" s="167"/>
+      <c r="W97" s="167"/>
+      <c r="X97" s="167"/>
+      <c r="Y97" s="167"/>
+      <c r="Z97" s="167"/>
+      <c r="AA97" s="167"/>
+      <c r="AB97" s="167"/>
+      <c r="AC97" s="167"/>
+      <c r="AD97" s="167"/>
+      <c r="AE97" s="167"/>
+      <c r="AF97" s="167"/>
+      <c r="AG97" s="167"/>
+      <c r="AH97" s="167"/>
+      <c r="AI97" s="167"/>
+      <c r="AJ97" s="167"/>
+      <c r="AK97" s="167"/>
+      <c r="AL97" s="167"/>
+      <c r="AM97" s="167"/>
+      <c r="AN97" s="167"/>
+      <c r="AO97" s="167"/>
+      <c r="AP97" s="167"/>
+      <c r="AQ97" s="167"/>
+      <c r="AR97" s="167"/>
+      <c r="AS97" s="167"/>
+      <c r="AT97" s="167"/>
+      <c r="AU97" s="167"/>
+      <c r="AV97" s="167"/>
+      <c r="AW97" s="167"/>
+      <c r="AX97" s="167"/>
+      <c r="AY97" s="167"/>
+      <c r="AZ97" s="167"/>
+      <c r="BA97" s="167"/>
+      <c r="BB97" s="167"/>
+      <c r="BC97" s="167"/>
+      <c r="BD97" s="167"/>
+      <c r="BE97" s="167"/>
+      <c r="BF97" s="167"/>
+      <c r="BG97" s="167"/>
+      <c r="BH97" s="167"/>
+      <c r="BI97" s="167"/>
+      <c r="BJ97" s="167"/>
+      <c r="BK97" s="167"/>
+      <c r="BL97" s="167"/>
+      <c r="BM97" s="167"/>
+      <c r="BN97" s="167"/>
+      <c r="BO97" s="167"/>
+      <c r="BP97" s="167"/>
+      <c r="BQ97" s="167"/>
+      <c r="BR97" s="168"/>
     </row>
     <row r="98" spans="1:70" s="55" customFormat="1">
       <c r="A98" s="58" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.3</v>
       </c>
-      <c r="B98" s="182" t="s">
+      <c r="B98" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="C98" s="182"/>
-      <c r="D98" s="182"/>
-      <c r="E98" s="182"/>
-      <c r="F98" s="182"/>
-      <c r="G98" s="182"/>
-      <c r="H98" s="182"/>
-      <c r="I98" s="182"/>
-      <c r="J98" s="182"/>
-      <c r="K98" s="182"/>
-      <c r="L98" s="182"/>
-      <c r="M98" s="182"/>
-      <c r="N98" s="182"/>
-      <c r="O98" s="182"/>
-      <c r="P98" s="182"/>
-      <c r="Q98" s="182"/>
-      <c r="R98" s="182"/>
-      <c r="S98" s="182"/>
-      <c r="T98" s="182"/>
-      <c r="U98" s="182"/>
-      <c r="V98" s="182"/>
-      <c r="W98" s="182"/>
-      <c r="X98" s="182"/>
-      <c r="Y98" s="182"/>
-      <c r="Z98" s="182"/>
-      <c r="AA98" s="182"/>
-      <c r="AB98" s="182"/>
-      <c r="AC98" s="182"/>
-      <c r="AD98" s="182"/>
-      <c r="AE98" s="182"/>
-      <c r="AF98" s="182"/>
-      <c r="AG98" s="182"/>
-      <c r="AH98" s="182"/>
-      <c r="AI98" s="182"/>
-      <c r="AJ98" s="182"/>
-      <c r="AK98" s="182"/>
-      <c r="AL98" s="182"/>
-      <c r="AM98" s="182"/>
-      <c r="AN98" s="182"/>
-      <c r="AO98" s="182"/>
-      <c r="AP98" s="182"/>
-      <c r="AQ98" s="182"/>
-      <c r="AR98" s="182"/>
-      <c r="AS98" s="182"/>
-      <c r="AT98" s="182"/>
-      <c r="AU98" s="182"/>
-      <c r="AV98" s="182"/>
-      <c r="AW98" s="182"/>
-      <c r="AX98" s="182"/>
-      <c r="AY98" s="182"/>
-      <c r="AZ98" s="182"/>
-      <c r="BA98" s="182"/>
-      <c r="BB98" s="182"/>
-      <c r="BC98" s="182"/>
-      <c r="BD98" s="182"/>
-      <c r="BE98" s="182"/>
-      <c r="BF98" s="182"/>
-      <c r="BG98" s="182"/>
-      <c r="BH98" s="182"/>
-      <c r="BI98" s="182"/>
-      <c r="BJ98" s="182"/>
-      <c r="BK98" s="182"/>
-      <c r="BL98" s="182"/>
-      <c r="BM98" s="182"/>
-      <c r="BN98" s="182"/>
-      <c r="BO98" s="182"/>
-      <c r="BP98" s="182"/>
-      <c r="BQ98" s="182"/>
-      <c r="BR98" s="183"/>
+      <c r="C98" s="167"/>
+      <c r="D98" s="167"/>
+      <c r="E98" s="167"/>
+      <c r="F98" s="167"/>
+      <c r="G98" s="167"/>
+      <c r="H98" s="167"/>
+      <c r="I98" s="167"/>
+      <c r="J98" s="167"/>
+      <c r="K98" s="167"/>
+      <c r="L98" s="167"/>
+      <c r="M98" s="167"/>
+      <c r="N98" s="167"/>
+      <c r="O98" s="167"/>
+      <c r="P98" s="167"/>
+      <c r="Q98" s="167"/>
+      <c r="R98" s="167"/>
+      <c r="S98" s="167"/>
+      <c r="T98" s="167"/>
+      <c r="U98" s="167"/>
+      <c r="V98" s="167"/>
+      <c r="W98" s="167"/>
+      <c r="X98" s="167"/>
+      <c r="Y98" s="167"/>
+      <c r="Z98" s="167"/>
+      <c r="AA98" s="167"/>
+      <c r="AB98" s="167"/>
+      <c r="AC98" s="167"/>
+      <c r="AD98" s="167"/>
+      <c r="AE98" s="167"/>
+      <c r="AF98" s="167"/>
+      <c r="AG98" s="167"/>
+      <c r="AH98" s="167"/>
+      <c r="AI98" s="167"/>
+      <c r="AJ98" s="167"/>
+      <c r="AK98" s="167"/>
+      <c r="AL98" s="167"/>
+      <c r="AM98" s="167"/>
+      <c r="AN98" s="167"/>
+      <c r="AO98" s="167"/>
+      <c r="AP98" s="167"/>
+      <c r="AQ98" s="167"/>
+      <c r="AR98" s="167"/>
+      <c r="AS98" s="167"/>
+      <c r="AT98" s="167"/>
+      <c r="AU98" s="167"/>
+      <c r="AV98" s="167"/>
+      <c r="AW98" s="167"/>
+      <c r="AX98" s="167"/>
+      <c r="AY98" s="167"/>
+      <c r="AZ98" s="167"/>
+      <c r="BA98" s="167"/>
+      <c r="BB98" s="167"/>
+      <c r="BC98" s="167"/>
+      <c r="BD98" s="167"/>
+      <c r="BE98" s="167"/>
+      <c r="BF98" s="167"/>
+      <c r="BG98" s="167"/>
+      <c r="BH98" s="167"/>
+      <c r="BI98" s="167"/>
+      <c r="BJ98" s="167"/>
+      <c r="BK98" s="167"/>
+      <c r="BL98" s="167"/>
+      <c r="BM98" s="167"/>
+      <c r="BN98" s="167"/>
+      <c r="BO98" s="167"/>
+      <c r="BP98" s="167"/>
+      <c r="BQ98" s="167"/>
+      <c r="BR98" s="168"/>
     </row>
     <row r="99" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A99" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.4</v>
       </c>
-      <c r="B99" s="186" t="s">
+      <c r="B99" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="C99" s="186"/>
-      <c r="D99" s="186"/>
-      <c r="E99" s="186"/>
-      <c r="F99" s="186"/>
-      <c r="G99" s="186"/>
-      <c r="H99" s="186"/>
-      <c r="I99" s="186"/>
-      <c r="J99" s="186"/>
-      <c r="K99" s="186"/>
-      <c r="L99" s="186"/>
-      <c r="M99" s="186"/>
-      <c r="N99" s="186"/>
-      <c r="O99" s="186"/>
-      <c r="P99" s="186"/>
-      <c r="Q99" s="186"/>
-      <c r="R99" s="186"/>
-      <c r="S99" s="186"/>
-      <c r="T99" s="186"/>
-      <c r="U99" s="186"/>
-      <c r="V99" s="186"/>
-      <c r="W99" s="186"/>
-      <c r="X99" s="186"/>
-      <c r="Y99" s="186"/>
-      <c r="Z99" s="186"/>
-      <c r="AA99" s="186"/>
-      <c r="AB99" s="186"/>
-      <c r="AC99" s="186"/>
-      <c r="AD99" s="186"/>
-      <c r="AE99" s="186"/>
-      <c r="AF99" s="186"/>
-      <c r="AG99" s="186"/>
-      <c r="AH99" s="186"/>
-      <c r="AI99" s="186"/>
-      <c r="AJ99" s="186"/>
-      <c r="AK99" s="186"/>
-      <c r="AL99" s="186"/>
-      <c r="AM99" s="186"/>
-      <c r="AN99" s="186"/>
-      <c r="AO99" s="186"/>
-      <c r="AP99" s="186"/>
-      <c r="AQ99" s="186"/>
-      <c r="AR99" s="186"/>
-      <c r="AS99" s="186"/>
-      <c r="AT99" s="186"/>
-      <c r="AU99" s="186"/>
-      <c r="AV99" s="186"/>
-      <c r="AW99" s="186"/>
-      <c r="AX99" s="186"/>
-      <c r="AY99" s="186"/>
-      <c r="AZ99" s="186"/>
-      <c r="BA99" s="186"/>
-      <c r="BB99" s="186"/>
-      <c r="BC99" s="186"/>
-      <c r="BD99" s="186"/>
-      <c r="BE99" s="186"/>
-      <c r="BF99" s="186"/>
-      <c r="BG99" s="186"/>
-      <c r="BH99" s="186"/>
-      <c r="BI99" s="186"/>
-      <c r="BJ99" s="186"/>
-      <c r="BK99" s="186"/>
-      <c r="BL99" s="186"/>
-      <c r="BM99" s="186"/>
-      <c r="BN99" s="186"/>
-      <c r="BO99" s="186"/>
-      <c r="BP99" s="186"/>
-      <c r="BQ99" s="186"/>
-      <c r="BR99" s="187"/>
+      <c r="C99" s="169"/>
+      <c r="D99" s="169"/>
+      <c r="E99" s="169"/>
+      <c r="F99" s="169"/>
+      <c r="G99" s="169"/>
+      <c r="H99" s="169"/>
+      <c r="I99" s="169"/>
+      <c r="J99" s="169"/>
+      <c r="K99" s="169"/>
+      <c r="L99" s="169"/>
+      <c r="M99" s="169"/>
+      <c r="N99" s="169"/>
+      <c r="O99" s="169"/>
+      <c r="P99" s="169"/>
+      <c r="Q99" s="169"/>
+      <c r="R99" s="169"/>
+      <c r="S99" s="169"/>
+      <c r="T99" s="169"/>
+      <c r="U99" s="169"/>
+      <c r="V99" s="169"/>
+      <c r="W99" s="169"/>
+      <c r="X99" s="169"/>
+      <c r="Y99" s="169"/>
+      <c r="Z99" s="169"/>
+      <c r="AA99" s="169"/>
+      <c r="AB99" s="169"/>
+      <c r="AC99" s="169"/>
+      <c r="AD99" s="169"/>
+      <c r="AE99" s="169"/>
+      <c r="AF99" s="169"/>
+      <c r="AG99" s="169"/>
+      <c r="AH99" s="169"/>
+      <c r="AI99" s="169"/>
+      <c r="AJ99" s="169"/>
+      <c r="AK99" s="169"/>
+      <c r="AL99" s="169"/>
+      <c r="AM99" s="169"/>
+      <c r="AN99" s="169"/>
+      <c r="AO99" s="169"/>
+      <c r="AP99" s="169"/>
+      <c r="AQ99" s="169"/>
+      <c r="AR99" s="169"/>
+      <c r="AS99" s="169"/>
+      <c r="AT99" s="169"/>
+      <c r="AU99" s="169"/>
+      <c r="AV99" s="169"/>
+      <c r="AW99" s="169"/>
+      <c r="AX99" s="169"/>
+      <c r="AY99" s="169"/>
+      <c r="AZ99" s="169"/>
+      <c r="BA99" s="169"/>
+      <c r="BB99" s="169"/>
+      <c r="BC99" s="169"/>
+      <c r="BD99" s="169"/>
+      <c r="BE99" s="169"/>
+      <c r="BF99" s="169"/>
+      <c r="BG99" s="169"/>
+      <c r="BH99" s="169"/>
+      <c r="BI99" s="169"/>
+      <c r="BJ99" s="169"/>
+      <c r="BK99" s="169"/>
+      <c r="BL99" s="169"/>
+      <c r="BM99" s="169"/>
+      <c r="BN99" s="169"/>
+      <c r="BO99" s="169"/>
+      <c r="BP99" s="169"/>
+      <c r="BQ99" s="169"/>
+      <c r="BR99" s="170"/>
     </row>
     <row r="100" spans="1:70" ht="17.25" thickBot="1">
       <c r="A100" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>7</v>
       </c>
-      <c r="B100" s="184" t="s">
+      <c r="B100" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="C100" s="184"/>
-      <c r="D100" s="184"/>
-      <c r="E100" s="184"/>
-      <c r="F100" s="184"/>
-      <c r="G100" s="184"/>
-      <c r="H100" s="184"/>
-      <c r="I100" s="184"/>
-      <c r="J100" s="184"/>
-      <c r="K100" s="184"/>
-      <c r="L100" s="184"/>
-      <c r="M100" s="184"/>
-      <c r="N100" s="184"/>
-      <c r="O100" s="184"/>
-      <c r="P100" s="184"/>
-      <c r="Q100" s="184"/>
-      <c r="R100" s="184"/>
-      <c r="S100" s="184"/>
-      <c r="T100" s="184"/>
-      <c r="U100" s="184"/>
-      <c r="V100" s="184"/>
-      <c r="W100" s="184"/>
-      <c r="X100" s="184"/>
-      <c r="Y100" s="184"/>
-      <c r="Z100" s="184"/>
-      <c r="AA100" s="184"/>
-      <c r="AB100" s="184"/>
-      <c r="AC100" s="184"/>
-      <c r="AD100" s="184"/>
-      <c r="AE100" s="184"/>
-      <c r="AF100" s="184"/>
-      <c r="AG100" s="184"/>
-      <c r="AH100" s="184"/>
-      <c r="AI100" s="184"/>
-      <c r="AJ100" s="184"/>
-      <c r="AK100" s="184"/>
-      <c r="AL100" s="184"/>
-      <c r="AM100" s="184"/>
-      <c r="AN100" s="184"/>
-      <c r="AO100" s="184"/>
-      <c r="AP100" s="184"/>
-      <c r="AQ100" s="184"/>
-      <c r="AR100" s="184"/>
-      <c r="AS100" s="184"/>
-      <c r="AT100" s="184"/>
-      <c r="AU100" s="184"/>
-      <c r="AV100" s="184"/>
-      <c r="AW100" s="184"/>
-      <c r="AX100" s="184"/>
-      <c r="AY100" s="184"/>
-      <c r="AZ100" s="184"/>
-      <c r="BA100" s="184"/>
-      <c r="BB100" s="184"/>
-      <c r="BC100" s="184"/>
-      <c r="BD100" s="184"/>
-      <c r="BE100" s="184"/>
-      <c r="BF100" s="184"/>
-      <c r="BG100" s="184"/>
-      <c r="BH100" s="184"/>
-      <c r="BI100" s="184"/>
-      <c r="BJ100" s="184"/>
-      <c r="BK100" s="184"/>
-      <c r="BL100" s="184"/>
-      <c r="BM100" s="184"/>
-      <c r="BN100" s="184"/>
-      <c r="BO100" s="184"/>
-      <c r="BP100" s="184"/>
-      <c r="BQ100" s="184"/>
-      <c r="BR100" s="185"/>
+      <c r="C100" s="163"/>
+      <c r="D100" s="163"/>
+      <c r="E100" s="163"/>
+      <c r="F100" s="163"/>
+      <c r="G100" s="163"/>
+      <c r="H100" s="163"/>
+      <c r="I100" s="163"/>
+      <c r="J100" s="163"/>
+      <c r="K100" s="163"/>
+      <c r="L100" s="163"/>
+      <c r="M100" s="163"/>
+      <c r="N100" s="163"/>
+      <c r="O100" s="163"/>
+      <c r="P100" s="163"/>
+      <c r="Q100" s="163"/>
+      <c r="R100" s="163"/>
+      <c r="S100" s="163"/>
+      <c r="T100" s="163"/>
+      <c r="U100" s="163"/>
+      <c r="V100" s="163"/>
+      <c r="W100" s="163"/>
+      <c r="X100" s="163"/>
+      <c r="Y100" s="163"/>
+      <c r="Z100" s="163"/>
+      <c r="AA100" s="163"/>
+      <c r="AB100" s="163"/>
+      <c r="AC100" s="163"/>
+      <c r="AD100" s="163"/>
+      <c r="AE100" s="163"/>
+      <c r="AF100" s="163"/>
+      <c r="AG100" s="163"/>
+      <c r="AH100" s="163"/>
+      <c r="AI100" s="163"/>
+      <c r="AJ100" s="163"/>
+      <c r="AK100" s="163"/>
+      <c r="AL100" s="163"/>
+      <c r="AM100" s="163"/>
+      <c r="AN100" s="163"/>
+      <c r="AO100" s="163"/>
+      <c r="AP100" s="163"/>
+      <c r="AQ100" s="163"/>
+      <c r="AR100" s="163"/>
+      <c r="AS100" s="163"/>
+      <c r="AT100" s="163"/>
+      <c r="AU100" s="163"/>
+      <c r="AV100" s="163"/>
+      <c r="AW100" s="163"/>
+      <c r="AX100" s="163"/>
+      <c r="AY100" s="163"/>
+      <c r="AZ100" s="163"/>
+      <c r="BA100" s="163"/>
+      <c r="BB100" s="163"/>
+      <c r="BC100" s="163"/>
+      <c r="BD100" s="163"/>
+      <c r="BE100" s="163"/>
+      <c r="BF100" s="163"/>
+      <c r="BG100" s="163"/>
+      <c r="BH100" s="163"/>
+      <c r="BI100" s="163"/>
+      <c r="BJ100" s="163"/>
+      <c r="BK100" s="163"/>
+      <c r="BL100" s="163"/>
+      <c r="BM100" s="163"/>
+      <c r="BN100" s="163"/>
+      <c r="BO100" s="163"/>
+      <c r="BP100" s="163"/>
+      <c r="BQ100" s="163"/>
+      <c r="BR100" s="164"/>
     </row>
     <row r="101" spans="1:70" s="55" customFormat="1">
       <c r="A101" s="57" t="str">
         <f t="shared" ref="A101:A106" si="66">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>7.1</v>
       </c>
-      <c r="B101" s="180" t="s">
+      <c r="B101" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="C101" s="180"/>
-      <c r="D101" s="180"/>
-      <c r="E101" s="180"/>
-      <c r="F101" s="180"/>
-      <c r="G101" s="180"/>
-      <c r="H101" s="180"/>
-      <c r="I101" s="180"/>
-      <c r="J101" s="180"/>
-      <c r="K101" s="180"/>
-      <c r="L101" s="180"/>
-      <c r="M101" s="180"/>
-      <c r="N101" s="180"/>
-      <c r="O101" s="180"/>
-      <c r="P101" s="180"/>
-      <c r="Q101" s="180"/>
-      <c r="R101" s="180"/>
-      <c r="S101" s="180"/>
-      <c r="T101" s="180"/>
-      <c r="U101" s="180"/>
-      <c r="V101" s="180"/>
-      <c r="W101" s="180"/>
-      <c r="X101" s="180"/>
-      <c r="Y101" s="180"/>
-      <c r="Z101" s="180"/>
-      <c r="AA101" s="180"/>
-      <c r="AB101" s="180"/>
-      <c r="AC101" s="180"/>
-      <c r="AD101" s="180"/>
-      <c r="AE101" s="180"/>
-      <c r="AF101" s="180"/>
-      <c r="AG101" s="180"/>
-      <c r="AH101" s="180"/>
-      <c r="AI101" s="180"/>
-      <c r="AJ101" s="180"/>
-      <c r="AK101" s="180"/>
-      <c r="AL101" s="180"/>
-      <c r="AM101" s="180"/>
-      <c r="AN101" s="180"/>
-      <c r="AO101" s="180"/>
-      <c r="AP101" s="180"/>
-      <c r="AQ101" s="180"/>
-      <c r="AR101" s="180"/>
-      <c r="AS101" s="180"/>
-      <c r="AT101" s="180"/>
-      <c r="AU101" s="180"/>
-      <c r="AV101" s="180"/>
-      <c r="AW101" s="180"/>
-      <c r="AX101" s="180"/>
-      <c r="AY101" s="180"/>
-      <c r="AZ101" s="180"/>
-      <c r="BA101" s="180"/>
-      <c r="BB101" s="180"/>
-      <c r="BC101" s="180"/>
-      <c r="BD101" s="180"/>
-      <c r="BE101" s="180"/>
-      <c r="BF101" s="180"/>
-      <c r="BG101" s="180"/>
-      <c r="BH101" s="180"/>
-      <c r="BI101" s="180"/>
-      <c r="BJ101" s="180"/>
-      <c r="BK101" s="180"/>
-      <c r="BL101" s="180"/>
-      <c r="BM101" s="180"/>
-      <c r="BN101" s="180"/>
-      <c r="BO101" s="180"/>
-      <c r="BP101" s="180"/>
-      <c r="BQ101" s="180"/>
-      <c r="BR101" s="181"/>
+      <c r="C101" s="165"/>
+      <c r="D101" s="165"/>
+      <c r="E101" s="165"/>
+      <c r="F101" s="165"/>
+      <c r="G101" s="165"/>
+      <c r="H101" s="165"/>
+      <c r="I101" s="165"/>
+      <c r="J101" s="165"/>
+      <c r="K101" s="165"/>
+      <c r="L101" s="165"/>
+      <c r="M101" s="165"/>
+      <c r="N101" s="165"/>
+      <c r="O101" s="165"/>
+      <c r="P101" s="165"/>
+      <c r="Q101" s="165"/>
+      <c r="R101" s="165"/>
+      <c r="S101" s="165"/>
+      <c r="T101" s="165"/>
+      <c r="U101" s="165"/>
+      <c r="V101" s="165"/>
+      <c r="W101" s="165"/>
+      <c r="X101" s="165"/>
+      <c r="Y101" s="165"/>
+      <c r="Z101" s="165"/>
+      <c r="AA101" s="165"/>
+      <c r="AB101" s="165"/>
+      <c r="AC101" s="165"/>
+      <c r="AD101" s="165"/>
+      <c r="AE101" s="165"/>
+      <c r="AF101" s="165"/>
+      <c r="AG101" s="165"/>
+      <c r="AH101" s="165"/>
+      <c r="AI101" s="165"/>
+      <c r="AJ101" s="165"/>
+      <c r="AK101" s="165"/>
+      <c r="AL101" s="165"/>
+      <c r="AM101" s="165"/>
+      <c r="AN101" s="165"/>
+      <c r="AO101" s="165"/>
+      <c r="AP101" s="165"/>
+      <c r="AQ101" s="165"/>
+      <c r="AR101" s="165"/>
+      <c r="AS101" s="165"/>
+      <c r="AT101" s="165"/>
+      <c r="AU101" s="165"/>
+      <c r="AV101" s="165"/>
+      <c r="AW101" s="165"/>
+      <c r="AX101" s="165"/>
+      <c r="AY101" s="165"/>
+      <c r="AZ101" s="165"/>
+      <c r="BA101" s="165"/>
+      <c r="BB101" s="165"/>
+      <c r="BC101" s="165"/>
+      <c r="BD101" s="165"/>
+      <c r="BE101" s="165"/>
+      <c r="BF101" s="165"/>
+      <c r="BG101" s="165"/>
+      <c r="BH101" s="165"/>
+      <c r="BI101" s="165"/>
+      <c r="BJ101" s="165"/>
+      <c r="BK101" s="165"/>
+      <c r="BL101" s="165"/>
+      <c r="BM101" s="165"/>
+      <c r="BN101" s="165"/>
+      <c r="BO101" s="165"/>
+      <c r="BP101" s="165"/>
+      <c r="BQ101" s="165"/>
+      <c r="BR101" s="166"/>
     </row>
     <row r="102" spans="1:70" s="55" customFormat="1">
       <c r="A102" s="58" t="str">
         <f t="shared" si="66"/>
         <v>7.2</v>
       </c>
-      <c r="B102" s="182" t="s">
+      <c r="B102" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="C102" s="182"/>
-      <c r="D102" s="182"/>
-      <c r="E102" s="182"/>
-      <c r="F102" s="182"/>
-      <c r="G102" s="182"/>
-      <c r="H102" s="182"/>
-      <c r="I102" s="182"/>
-      <c r="J102" s="182"/>
-      <c r="K102" s="182"/>
-      <c r="L102" s="182"/>
-      <c r="M102" s="182"/>
-      <c r="N102" s="182"/>
-      <c r="O102" s="182"/>
-      <c r="P102" s="182"/>
-      <c r="Q102" s="182"/>
-      <c r="R102" s="182"/>
-      <c r="S102" s="182"/>
-      <c r="T102" s="182"/>
-      <c r="U102" s="182"/>
-      <c r="V102" s="182"/>
-      <c r="W102" s="182"/>
-      <c r="X102" s="182"/>
-      <c r="Y102" s="182"/>
-      <c r="Z102" s="182"/>
-      <c r="AA102" s="182"/>
-      <c r="AB102" s="182"/>
-      <c r="AC102" s="182"/>
-      <c r="AD102" s="182"/>
-      <c r="AE102" s="182"/>
-      <c r="AF102" s="182"/>
-      <c r="AG102" s="182"/>
-      <c r="AH102" s="182"/>
-      <c r="AI102" s="182"/>
-      <c r="AJ102" s="182"/>
-      <c r="AK102" s="182"/>
-      <c r="AL102" s="182"/>
-      <c r="AM102" s="182"/>
-      <c r="AN102" s="182"/>
-      <c r="AO102" s="182"/>
-      <c r="AP102" s="182"/>
-      <c r="AQ102" s="182"/>
-      <c r="AR102" s="182"/>
-      <c r="AS102" s="182"/>
-      <c r="AT102" s="182"/>
-      <c r="AU102" s="182"/>
-      <c r="AV102" s="182"/>
-      <c r="AW102" s="182"/>
-      <c r="AX102" s="182"/>
-      <c r="AY102" s="182"/>
-      <c r="AZ102" s="182"/>
-      <c r="BA102" s="182"/>
-      <c r="BB102" s="182"/>
-      <c r="BC102" s="182"/>
-      <c r="BD102" s="182"/>
-      <c r="BE102" s="182"/>
-      <c r="BF102" s="182"/>
-      <c r="BG102" s="182"/>
-      <c r="BH102" s="182"/>
-      <c r="BI102" s="182"/>
-      <c r="BJ102" s="182"/>
-      <c r="BK102" s="182"/>
-      <c r="BL102" s="182"/>
-      <c r="BM102" s="182"/>
-      <c r="BN102" s="182"/>
-      <c r="BO102" s="182"/>
-      <c r="BP102" s="182"/>
-      <c r="BQ102" s="182"/>
-      <c r="BR102" s="183"/>
+      <c r="C102" s="167"/>
+      <c r="D102" s="167"/>
+      <c r="E102" s="167"/>
+      <c r="F102" s="167"/>
+      <c r="G102" s="167"/>
+      <c r="H102" s="167"/>
+      <c r="I102" s="167"/>
+      <c r="J102" s="167"/>
+      <c r="K102" s="167"/>
+      <c r="L102" s="167"/>
+      <c r="M102" s="167"/>
+      <c r="N102" s="167"/>
+      <c r="O102" s="167"/>
+      <c r="P102" s="167"/>
+      <c r="Q102" s="167"/>
+      <c r="R102" s="167"/>
+      <c r="S102" s="167"/>
+      <c r="T102" s="167"/>
+      <c r="U102" s="167"/>
+      <c r="V102" s="167"/>
+      <c r="W102" s="167"/>
+      <c r="X102" s="167"/>
+      <c r="Y102" s="167"/>
+      <c r="Z102" s="167"/>
+      <c r="AA102" s="167"/>
+      <c r="AB102" s="167"/>
+      <c r="AC102" s="167"/>
+      <c r="AD102" s="167"/>
+      <c r="AE102" s="167"/>
+      <c r="AF102" s="167"/>
+      <c r="AG102" s="167"/>
+      <c r="AH102" s="167"/>
+      <c r="AI102" s="167"/>
+      <c r="AJ102" s="167"/>
+      <c r="AK102" s="167"/>
+      <c r="AL102" s="167"/>
+      <c r="AM102" s="167"/>
+      <c r="AN102" s="167"/>
+      <c r="AO102" s="167"/>
+      <c r="AP102" s="167"/>
+      <c r="AQ102" s="167"/>
+      <c r="AR102" s="167"/>
+      <c r="AS102" s="167"/>
+      <c r="AT102" s="167"/>
+      <c r="AU102" s="167"/>
+      <c r="AV102" s="167"/>
+      <c r="AW102" s="167"/>
+      <c r="AX102" s="167"/>
+      <c r="AY102" s="167"/>
+      <c r="AZ102" s="167"/>
+      <c r="BA102" s="167"/>
+      <c r="BB102" s="167"/>
+      <c r="BC102" s="167"/>
+      <c r="BD102" s="167"/>
+      <c r="BE102" s="167"/>
+      <c r="BF102" s="167"/>
+      <c r="BG102" s="167"/>
+      <c r="BH102" s="167"/>
+      <c r="BI102" s="167"/>
+      <c r="BJ102" s="167"/>
+      <c r="BK102" s="167"/>
+      <c r="BL102" s="167"/>
+      <c r="BM102" s="167"/>
+      <c r="BN102" s="167"/>
+      <c r="BO102" s="167"/>
+      <c r="BP102" s="167"/>
+      <c r="BQ102" s="167"/>
+      <c r="BR102" s="168"/>
     </row>
     <row r="103" spans="1:70" s="55" customFormat="1">
       <c r="A103" s="58" t="str">
         <f t="shared" si="66"/>
         <v>7.3</v>
       </c>
-      <c r="B103" s="182" t="s">
+      <c r="B103" s="167" t="s">
         <v>77</v>
       </c>
-      <c r="C103" s="182"/>
-      <c r="D103" s="182"/>
-      <c r="E103" s="182"/>
-      <c r="F103" s="182"/>
-      <c r="G103" s="182"/>
-      <c r="H103" s="182"/>
-      <c r="I103" s="182"/>
-      <c r="J103" s="182"/>
-      <c r="K103" s="182"/>
-      <c r="L103" s="182"/>
-      <c r="M103" s="182"/>
-      <c r="N103" s="182"/>
-      <c r="O103" s="182"/>
-      <c r="P103" s="182"/>
-      <c r="Q103" s="182"/>
-      <c r="R103" s="182"/>
-      <c r="S103" s="182"/>
-      <c r="T103" s="182"/>
-      <c r="U103" s="182"/>
-      <c r="V103" s="182"/>
-      <c r="W103" s="182"/>
-      <c r="X103" s="182"/>
-      <c r="Y103" s="182"/>
-      <c r="Z103" s="182"/>
-      <c r="AA103" s="182"/>
-      <c r="AB103" s="182"/>
-      <c r="AC103" s="182"/>
-      <c r="AD103" s="182"/>
-      <c r="AE103" s="182"/>
-      <c r="AF103" s="182"/>
-      <c r="AG103" s="182"/>
-      <c r="AH103" s="182"/>
-      <c r="AI103" s="182"/>
-      <c r="AJ103" s="182"/>
-      <c r="AK103" s="182"/>
-      <c r="AL103" s="182"/>
-      <c r="AM103" s="182"/>
-      <c r="AN103" s="182"/>
-      <c r="AO103" s="182"/>
-      <c r="AP103" s="182"/>
-      <c r="AQ103" s="182"/>
-      <c r="AR103" s="182"/>
-      <c r="AS103" s="182"/>
-      <c r="AT103" s="182"/>
-      <c r="AU103" s="182"/>
-      <c r="AV103" s="182"/>
-      <c r="AW103" s="182"/>
-      <c r="AX103" s="182"/>
-      <c r="AY103" s="182"/>
-      <c r="AZ103" s="182"/>
-      <c r="BA103" s="182"/>
-      <c r="BB103" s="182"/>
-      <c r="BC103" s="182"/>
-      <c r="BD103" s="182"/>
-      <c r="BE103" s="182"/>
-      <c r="BF103" s="182"/>
-      <c r="BG103" s="182"/>
-      <c r="BH103" s="182"/>
-      <c r="BI103" s="182"/>
-      <c r="BJ103" s="182"/>
-      <c r="BK103" s="182"/>
-      <c r="BL103" s="182"/>
-      <c r="BM103" s="182"/>
-      <c r="BN103" s="182"/>
-      <c r="BO103" s="182"/>
-      <c r="BP103" s="182"/>
-      <c r="BQ103" s="182"/>
-      <c r="BR103" s="183"/>
+      <c r="C103" s="167"/>
+      <c r="D103" s="167"/>
+      <c r="E103" s="167"/>
+      <c r="F103" s="167"/>
+      <c r="G103" s="167"/>
+      <c r="H103" s="167"/>
+      <c r="I103" s="167"/>
+      <c r="J103" s="167"/>
+      <c r="K103" s="167"/>
+      <c r="L103" s="167"/>
+      <c r="M103" s="167"/>
+      <c r="N103" s="167"/>
+      <c r="O103" s="167"/>
+      <c r="P103" s="167"/>
+      <c r="Q103" s="167"/>
+      <c r="R103" s="167"/>
+      <c r="S103" s="167"/>
+      <c r="T103" s="167"/>
+      <c r="U103" s="167"/>
+      <c r="V103" s="167"/>
+      <c r="W103" s="167"/>
+      <c r="X103" s="167"/>
+      <c r="Y103" s="167"/>
+      <c r="Z103" s="167"/>
+      <c r="AA103" s="167"/>
+      <c r="AB103" s="167"/>
+      <c r="AC103" s="167"/>
+      <c r="AD103" s="167"/>
+      <c r="AE103" s="167"/>
+      <c r="AF103" s="167"/>
+      <c r="AG103" s="167"/>
+      <c r="AH103" s="167"/>
+      <c r="AI103" s="167"/>
+      <c r="AJ103" s="167"/>
+      <c r="AK103" s="167"/>
+      <c r="AL103" s="167"/>
+      <c r="AM103" s="167"/>
+      <c r="AN103" s="167"/>
+      <c r="AO103" s="167"/>
+      <c r="AP103" s="167"/>
+      <c r="AQ103" s="167"/>
+      <c r="AR103" s="167"/>
+      <c r="AS103" s="167"/>
+      <c r="AT103" s="167"/>
+      <c r="AU103" s="167"/>
+      <c r="AV103" s="167"/>
+      <c r="AW103" s="167"/>
+      <c r="AX103" s="167"/>
+      <c r="AY103" s="167"/>
+      <c r="AZ103" s="167"/>
+      <c r="BA103" s="167"/>
+      <c r="BB103" s="167"/>
+      <c r="BC103" s="167"/>
+      <c r="BD103" s="167"/>
+      <c r="BE103" s="167"/>
+      <c r="BF103" s="167"/>
+      <c r="BG103" s="167"/>
+      <c r="BH103" s="167"/>
+      <c r="BI103" s="167"/>
+      <c r="BJ103" s="167"/>
+      <c r="BK103" s="167"/>
+      <c r="BL103" s="167"/>
+      <c r="BM103" s="167"/>
+      <c r="BN103" s="167"/>
+      <c r="BO103" s="167"/>
+      <c r="BP103" s="167"/>
+      <c r="BQ103" s="167"/>
+      <c r="BR103" s="168"/>
     </row>
     <row r="104" spans="1:70" s="55" customFormat="1">
       <c r="A104" s="65" t="str">
         <f t="shared" si="66"/>
         <v>7.4</v>
       </c>
-      <c r="B104" s="182" t="s">
+      <c r="B104" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="182"/>
-      <c r="D104" s="182"/>
-      <c r="E104" s="182"/>
-      <c r="F104" s="182"/>
-      <c r="G104" s="182"/>
-      <c r="H104" s="182"/>
-      <c r="I104" s="182"/>
-      <c r="J104" s="182"/>
-      <c r="K104" s="182"/>
-      <c r="L104" s="182"/>
-      <c r="M104" s="182"/>
-      <c r="N104" s="182"/>
-      <c r="O104" s="182"/>
-      <c r="P104" s="182"/>
-      <c r="Q104" s="182"/>
-      <c r="R104" s="182"/>
-      <c r="S104" s="182"/>
-      <c r="T104" s="182"/>
-      <c r="U104" s="182"/>
-      <c r="V104" s="182"/>
-      <c r="W104" s="182"/>
-      <c r="X104" s="182"/>
-      <c r="Y104" s="182"/>
-      <c r="Z104" s="182"/>
-      <c r="AA104" s="182"/>
-      <c r="AB104" s="182"/>
-      <c r="AC104" s="182"/>
-      <c r="AD104" s="182"/>
-      <c r="AE104" s="182"/>
-      <c r="AF104" s="182"/>
-      <c r="AG104" s="182"/>
-      <c r="AH104" s="182"/>
-      <c r="AI104" s="182"/>
-      <c r="AJ104" s="182"/>
-      <c r="AK104" s="182"/>
-      <c r="AL104" s="182"/>
-      <c r="AM104" s="182"/>
-      <c r="AN104" s="182"/>
-      <c r="AO104" s="182"/>
-      <c r="AP104" s="182"/>
-      <c r="AQ104" s="182"/>
-      <c r="AR104" s="182"/>
-      <c r="AS104" s="182"/>
-      <c r="AT104" s="182"/>
-      <c r="AU104" s="182"/>
-      <c r="AV104" s="182"/>
-      <c r="AW104" s="182"/>
-      <c r="AX104" s="182"/>
-      <c r="AY104" s="182"/>
-      <c r="AZ104" s="182"/>
-      <c r="BA104" s="182"/>
-      <c r="BB104" s="182"/>
-      <c r="BC104" s="182"/>
-      <c r="BD104" s="182"/>
-      <c r="BE104" s="182"/>
-      <c r="BF104" s="182"/>
-      <c r="BG104" s="182"/>
-      <c r="BH104" s="182"/>
-      <c r="BI104" s="182"/>
-      <c r="BJ104" s="182"/>
-      <c r="BK104" s="182"/>
-      <c r="BL104" s="182"/>
-      <c r="BM104" s="182"/>
-      <c r="BN104" s="182"/>
-      <c r="BO104" s="182"/>
-      <c r="BP104" s="182"/>
-      <c r="BQ104" s="182"/>
-      <c r="BR104" s="183"/>
+      <c r="C104" s="167"/>
+      <c r="D104" s="167"/>
+      <c r="E104" s="167"/>
+      <c r="F104" s="167"/>
+      <c r="G104" s="167"/>
+      <c r="H104" s="167"/>
+      <c r="I104" s="167"/>
+      <c r="J104" s="167"/>
+      <c r="K104" s="167"/>
+      <c r="L104" s="167"/>
+      <c r="M104" s="167"/>
+      <c r="N104" s="167"/>
+      <c r="O104" s="167"/>
+      <c r="P104" s="167"/>
+      <c r="Q104" s="167"/>
+      <c r="R104" s="167"/>
+      <c r="S104" s="167"/>
+      <c r="T104" s="167"/>
+      <c r="U104" s="167"/>
+      <c r="V104" s="167"/>
+      <c r="W104" s="167"/>
+      <c r="X104" s="167"/>
+      <c r="Y104" s="167"/>
+      <c r="Z104" s="167"/>
+      <c r="AA104" s="167"/>
+      <c r="AB104" s="167"/>
+      <c r="AC104" s="167"/>
+      <c r="AD104" s="167"/>
+      <c r="AE104" s="167"/>
+      <c r="AF104" s="167"/>
+      <c r="AG104" s="167"/>
+      <c r="AH104" s="167"/>
+      <c r="AI104" s="167"/>
+      <c r="AJ104" s="167"/>
+      <c r="AK104" s="167"/>
+      <c r="AL104" s="167"/>
+      <c r="AM104" s="167"/>
+      <c r="AN104" s="167"/>
+      <c r="AO104" s="167"/>
+      <c r="AP104" s="167"/>
+      <c r="AQ104" s="167"/>
+      <c r="AR104" s="167"/>
+      <c r="AS104" s="167"/>
+      <c r="AT104" s="167"/>
+      <c r="AU104" s="167"/>
+      <c r="AV104" s="167"/>
+      <c r="AW104" s="167"/>
+      <c r="AX104" s="167"/>
+      <c r="AY104" s="167"/>
+      <c r="AZ104" s="167"/>
+      <c r="BA104" s="167"/>
+      <c r="BB104" s="167"/>
+      <c r="BC104" s="167"/>
+      <c r="BD104" s="167"/>
+      <c r="BE104" s="167"/>
+      <c r="BF104" s="167"/>
+      <c r="BG104" s="167"/>
+      <c r="BH104" s="167"/>
+      <c r="BI104" s="167"/>
+      <c r="BJ104" s="167"/>
+      <c r="BK104" s="167"/>
+      <c r="BL104" s="167"/>
+      <c r="BM104" s="167"/>
+      <c r="BN104" s="167"/>
+      <c r="BO104" s="167"/>
+      <c r="BP104" s="167"/>
+      <c r="BQ104" s="167"/>
+      <c r="BR104" s="168"/>
     </row>
     <row r="105" spans="1:70" s="55" customFormat="1">
       <c r="A105" s="58" t="str">
         <f t="shared" si="66"/>
         <v>7.5</v>
       </c>
-      <c r="B105" s="182" t="s">
+      <c r="B105" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C105" s="182"/>
-      <c r="D105" s="182"/>
-      <c r="E105" s="182"/>
-      <c r="F105" s="182"/>
-      <c r="G105" s="182"/>
-      <c r="H105" s="182"/>
-      <c r="I105" s="182"/>
-      <c r="J105" s="182"/>
-      <c r="K105" s="182"/>
-      <c r="L105" s="182"/>
-      <c r="M105" s="182"/>
-      <c r="N105" s="182"/>
-      <c r="O105" s="182"/>
-      <c r="P105" s="182"/>
-      <c r="Q105" s="182"/>
-      <c r="R105" s="182"/>
-      <c r="S105" s="182"/>
-      <c r="T105" s="182"/>
-      <c r="U105" s="182"/>
-      <c r="V105" s="182"/>
-      <c r="W105" s="182"/>
-      <c r="X105" s="182"/>
-      <c r="Y105" s="182"/>
-      <c r="Z105" s="182"/>
-      <c r="AA105" s="182"/>
-      <c r="AB105" s="182"/>
-      <c r="AC105" s="182"/>
-      <c r="AD105" s="182"/>
-      <c r="AE105" s="182"/>
-      <c r="AF105" s="182"/>
-      <c r="AG105" s="182"/>
-      <c r="AH105" s="182"/>
-      <c r="AI105" s="182"/>
-      <c r="AJ105" s="182"/>
-      <c r="AK105" s="182"/>
-      <c r="AL105" s="182"/>
-      <c r="AM105" s="182"/>
-      <c r="AN105" s="182"/>
-      <c r="AO105" s="182"/>
-      <c r="AP105" s="182"/>
-      <c r="AQ105" s="182"/>
-      <c r="AR105" s="182"/>
-      <c r="AS105" s="182"/>
-      <c r="AT105" s="182"/>
-      <c r="AU105" s="182"/>
-      <c r="AV105" s="182"/>
-      <c r="AW105" s="182"/>
-      <c r="AX105" s="182"/>
-      <c r="AY105" s="182"/>
-      <c r="AZ105" s="182"/>
-      <c r="BA105" s="182"/>
-      <c r="BB105" s="182"/>
-      <c r="BC105" s="182"/>
-      <c r="BD105" s="182"/>
-      <c r="BE105" s="182"/>
-      <c r="BF105" s="182"/>
-      <c r="BG105" s="182"/>
-      <c r="BH105" s="182"/>
-      <c r="BI105" s="182"/>
-      <c r="BJ105" s="182"/>
-      <c r="BK105" s="182"/>
-      <c r="BL105" s="182"/>
-      <c r="BM105" s="182"/>
-      <c r="BN105" s="182"/>
-      <c r="BO105" s="182"/>
-      <c r="BP105" s="182"/>
-      <c r="BQ105" s="182"/>
-      <c r="BR105" s="183"/>
+      <c r="C105" s="167"/>
+      <c r="D105" s="167"/>
+      <c r="E105" s="167"/>
+      <c r="F105" s="167"/>
+      <c r="G105" s="167"/>
+      <c r="H105" s="167"/>
+      <c r="I105" s="167"/>
+      <c r="J105" s="167"/>
+      <c r="K105" s="167"/>
+      <c r="L105" s="167"/>
+      <c r="M105" s="167"/>
+      <c r="N105" s="167"/>
+      <c r="O105" s="167"/>
+      <c r="P105" s="167"/>
+      <c r="Q105" s="167"/>
+      <c r="R105" s="167"/>
+      <c r="S105" s="167"/>
+      <c r="T105" s="167"/>
+      <c r="U105" s="167"/>
+      <c r="V105" s="167"/>
+      <c r="W105" s="167"/>
+      <c r="X105" s="167"/>
+      <c r="Y105" s="167"/>
+      <c r="Z105" s="167"/>
+      <c r="AA105" s="167"/>
+      <c r="AB105" s="167"/>
+      <c r="AC105" s="167"/>
+      <c r="AD105" s="167"/>
+      <c r="AE105" s="167"/>
+      <c r="AF105" s="167"/>
+      <c r="AG105" s="167"/>
+      <c r="AH105" s="167"/>
+      <c r="AI105" s="167"/>
+      <c r="AJ105" s="167"/>
+      <c r="AK105" s="167"/>
+      <c r="AL105" s="167"/>
+      <c r="AM105" s="167"/>
+      <c r="AN105" s="167"/>
+      <c r="AO105" s="167"/>
+      <c r="AP105" s="167"/>
+      <c r="AQ105" s="167"/>
+      <c r="AR105" s="167"/>
+      <c r="AS105" s="167"/>
+      <c r="AT105" s="167"/>
+      <c r="AU105" s="167"/>
+      <c r="AV105" s="167"/>
+      <c r="AW105" s="167"/>
+      <c r="AX105" s="167"/>
+      <c r="AY105" s="167"/>
+      <c r="AZ105" s="167"/>
+      <c r="BA105" s="167"/>
+      <c r="BB105" s="167"/>
+      <c r="BC105" s="167"/>
+      <c r="BD105" s="167"/>
+      <c r="BE105" s="167"/>
+      <c r="BF105" s="167"/>
+      <c r="BG105" s="167"/>
+      <c r="BH105" s="167"/>
+      <c r="BI105" s="167"/>
+      <c r="BJ105" s="167"/>
+      <c r="BK105" s="167"/>
+      <c r="BL105" s="167"/>
+      <c r="BM105" s="167"/>
+      <c r="BN105" s="167"/>
+      <c r="BO105" s="167"/>
+      <c r="BP105" s="167"/>
+      <c r="BQ105" s="167"/>
+      <c r="BR105" s="168"/>
     </row>
     <row r="106" spans="1:70" s="55" customFormat="1" ht="17.25" thickBot="1">
       <c r="A106" s="59" t="str">
         <f t="shared" si="66"/>
         <v>7.6</v>
       </c>
-      <c r="B106" s="186" t="s">
+      <c r="B106" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="C106" s="186"/>
-      <c r="D106" s="186"/>
-      <c r="E106" s="186"/>
-      <c r="F106" s="186"/>
-      <c r="G106" s="186"/>
-      <c r="H106" s="186"/>
-      <c r="I106" s="186"/>
-      <c r="J106" s="186"/>
-      <c r="K106" s="186"/>
-      <c r="L106" s="186"/>
-      <c r="M106" s="186"/>
-      <c r="N106" s="186"/>
-      <c r="O106" s="186"/>
-      <c r="P106" s="186"/>
-      <c r="Q106" s="186"/>
-      <c r="R106" s="186"/>
-      <c r="S106" s="186"/>
-      <c r="T106" s="186"/>
-      <c r="U106" s="186"/>
-      <c r="V106" s="186"/>
-      <c r="W106" s="186"/>
-      <c r="X106" s="186"/>
-      <c r="Y106" s="186"/>
-      <c r="Z106" s="186"/>
-      <c r="AA106" s="186"/>
-      <c r="AB106" s="186"/>
-      <c r="AC106" s="186"/>
-      <c r="AD106" s="186"/>
-      <c r="AE106" s="186"/>
-      <c r="AF106" s="186"/>
-      <c r="AG106" s="186"/>
-      <c r="AH106" s="186"/>
-      <c r="AI106" s="186"/>
-      <c r="AJ106" s="186"/>
-      <c r="AK106" s="186"/>
-      <c r="AL106" s="186"/>
-      <c r="AM106" s="186"/>
-      <c r="AN106" s="186"/>
-      <c r="AO106" s="186"/>
-      <c r="AP106" s="186"/>
-      <c r="AQ106" s="186"/>
-      <c r="AR106" s="186"/>
-      <c r="AS106" s="186"/>
-      <c r="AT106" s="186"/>
-      <c r="AU106" s="186"/>
-      <c r="AV106" s="186"/>
-      <c r="AW106" s="186"/>
-      <c r="AX106" s="186"/>
-      <c r="AY106" s="186"/>
-      <c r="AZ106" s="186"/>
-      <c r="BA106" s="186"/>
-      <c r="BB106" s="186"/>
-      <c r="BC106" s="186"/>
-      <c r="BD106" s="186"/>
-      <c r="BE106" s="186"/>
-      <c r="BF106" s="186"/>
-      <c r="BG106" s="186"/>
-      <c r="BH106" s="186"/>
-      <c r="BI106" s="186"/>
-      <c r="BJ106" s="186"/>
-      <c r="BK106" s="186"/>
-      <c r="BL106" s="186"/>
-      <c r="BM106" s="186"/>
-      <c r="BN106" s="186"/>
-      <c r="BO106" s="186"/>
-      <c r="BP106" s="186"/>
-      <c r="BQ106" s="186"/>
-      <c r="BR106" s="187"/>
+      <c r="C106" s="169"/>
+      <c r="D106" s="169"/>
+      <c r="E106" s="169"/>
+      <c r="F106" s="169"/>
+      <c r="G106" s="169"/>
+      <c r="H106" s="169"/>
+      <c r="I106" s="169"/>
+      <c r="J106" s="169"/>
+      <c r="K106" s="169"/>
+      <c r="L106" s="169"/>
+      <c r="M106" s="169"/>
+      <c r="N106" s="169"/>
+      <c r="O106" s="169"/>
+      <c r="P106" s="169"/>
+      <c r="Q106" s="169"/>
+      <c r="R106" s="169"/>
+      <c r="S106" s="169"/>
+      <c r="T106" s="169"/>
+      <c r="U106" s="169"/>
+      <c r="V106" s="169"/>
+      <c r="W106" s="169"/>
+      <c r="X106" s="169"/>
+      <c r="Y106" s="169"/>
+      <c r="Z106" s="169"/>
+      <c r="AA106" s="169"/>
+      <c r="AB106" s="169"/>
+      <c r="AC106" s="169"/>
+      <c r="AD106" s="169"/>
+      <c r="AE106" s="169"/>
+      <c r="AF106" s="169"/>
+      <c r="AG106" s="169"/>
+      <c r="AH106" s="169"/>
+      <c r="AI106" s="169"/>
+      <c r="AJ106" s="169"/>
+      <c r="AK106" s="169"/>
+      <c r="AL106" s="169"/>
+      <c r="AM106" s="169"/>
+      <c r="AN106" s="169"/>
+      <c r="AO106" s="169"/>
+      <c r="AP106" s="169"/>
+      <c r="AQ106" s="169"/>
+      <c r="AR106" s="169"/>
+      <c r="AS106" s="169"/>
+      <c r="AT106" s="169"/>
+      <c r="AU106" s="169"/>
+      <c r="AV106" s="169"/>
+      <c r="AW106" s="169"/>
+      <c r="AX106" s="169"/>
+      <c r="AY106" s="169"/>
+      <c r="AZ106" s="169"/>
+      <c r="BA106" s="169"/>
+      <c r="BB106" s="169"/>
+      <c r="BC106" s="169"/>
+      <c r="BD106" s="169"/>
+      <c r="BE106" s="169"/>
+      <c r="BF106" s="169"/>
+      <c r="BG106" s="169"/>
+      <c r="BH106" s="169"/>
+      <c r="BI106" s="169"/>
+      <c r="BJ106" s="169"/>
+      <c r="BK106" s="169"/>
+      <c r="BL106" s="169"/>
+      <c r="BM106" s="169"/>
+      <c r="BN106" s="169"/>
+      <c r="BO106" s="169"/>
+      <c r="BP106" s="169"/>
+      <c r="BQ106" s="169"/>
+      <c r="BR106" s="170"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A11:M62"/>
   <mergeCells count="65">
-    <mergeCell ref="B100:BR100"/>
-    <mergeCell ref="B101:BR101"/>
-    <mergeCell ref="B87:BR87"/>
-    <mergeCell ref="B88:BR88"/>
-    <mergeCell ref="B77:BR77"/>
-    <mergeCell ref="B76:BR76"/>
-    <mergeCell ref="B86:BR86"/>
-    <mergeCell ref="B85:BR85"/>
-    <mergeCell ref="B84:BR84"/>
-    <mergeCell ref="B83:BR83"/>
-    <mergeCell ref="B79:BR79"/>
-    <mergeCell ref="B80:BR80"/>
-    <mergeCell ref="B81:BR81"/>
-    <mergeCell ref="B82:BR82"/>
-    <mergeCell ref="B78:BR78"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="AC8:AI8"/>
+    <mergeCell ref="AJ8:AP8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A1:BR1"/>
+    <mergeCell ref="A2:BR2"/>
+    <mergeCell ref="A3:BR3"/>
+    <mergeCell ref="A4:BR4"/>
+    <mergeCell ref="AX9:BD9"/>
+    <mergeCell ref="BE9:BK9"/>
+    <mergeCell ref="BL9:BR9"/>
+    <mergeCell ref="AQ8:AW8"/>
+    <mergeCell ref="AX8:BD8"/>
+    <mergeCell ref="BE8:BK8"/>
+    <mergeCell ref="BL8:BR8"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="AJ9:AP9"/>
+    <mergeCell ref="AQ9:AW9"/>
+    <mergeCell ref="B75:BR75"/>
+    <mergeCell ref="B71:BR71"/>
+    <mergeCell ref="B70:BR70"/>
+    <mergeCell ref="B64:BR64"/>
+    <mergeCell ref="B65:BR65"/>
+    <mergeCell ref="B66:BR66"/>
+    <mergeCell ref="B67:BR67"/>
+    <mergeCell ref="B68:BR68"/>
+    <mergeCell ref="B69:BR69"/>
+    <mergeCell ref="B72:BR72"/>
+    <mergeCell ref="B73:BR73"/>
+    <mergeCell ref="B74:BR74"/>
     <mergeCell ref="B105:BR105"/>
     <mergeCell ref="B106:BR106"/>
     <mergeCell ref="B89:BR89"/>
@@ -13412,40 +13392,21 @@
     <mergeCell ref="B102:BR102"/>
     <mergeCell ref="B98:BR98"/>
     <mergeCell ref="B99:BR99"/>
-    <mergeCell ref="B75:BR75"/>
-    <mergeCell ref="B71:BR71"/>
-    <mergeCell ref="B70:BR70"/>
-    <mergeCell ref="B64:BR64"/>
-    <mergeCell ref="B65:BR65"/>
-    <mergeCell ref="B66:BR66"/>
-    <mergeCell ref="B67:BR67"/>
-    <mergeCell ref="B68:BR68"/>
-    <mergeCell ref="B69:BR69"/>
-    <mergeCell ref="B72:BR72"/>
-    <mergeCell ref="B73:BR73"/>
-    <mergeCell ref="B74:BR74"/>
-    <mergeCell ref="A1:BR1"/>
-    <mergeCell ref="A2:BR2"/>
-    <mergeCell ref="A3:BR3"/>
-    <mergeCell ref="A4:BR4"/>
-    <mergeCell ref="AX9:BD9"/>
-    <mergeCell ref="BE9:BK9"/>
-    <mergeCell ref="BL9:BR9"/>
-    <mergeCell ref="AQ8:AW8"/>
-    <mergeCell ref="AX8:BD8"/>
-    <mergeCell ref="BE8:BK8"/>
-    <mergeCell ref="BL8:BR8"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AJ9:AP9"/>
-    <mergeCell ref="AQ9:AW9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="AC8:AI8"/>
-    <mergeCell ref="AJ8:AP8"/>
-    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B76:BR76"/>
+    <mergeCell ref="B86:BR86"/>
+    <mergeCell ref="B85:BR85"/>
+    <mergeCell ref="B84:BR84"/>
+    <mergeCell ref="B83:BR83"/>
+    <mergeCell ref="B79:BR79"/>
+    <mergeCell ref="B80:BR80"/>
+    <mergeCell ref="B81:BR81"/>
+    <mergeCell ref="B82:BR82"/>
+    <mergeCell ref="B78:BR78"/>
+    <mergeCell ref="B100:BR100"/>
+    <mergeCell ref="B101:BR101"/>
+    <mergeCell ref="B87:BR87"/>
+    <mergeCell ref="B88:BR88"/>
+    <mergeCell ref="B77:BR77"/>
   </mergeCells>
   <conditionalFormatting sqref="L12:L13 L37 L57 L27 L15:L16 L23:L24 L29:L32 L34 L46:L47 L49 L52:L54 L39">
     <cfRule type="dataBar" priority="182">
@@ -14606,59 +14567,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="174"/>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
+      <c r="A1" s="171"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
     </row>
     <row r="2" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
     </row>
     <row r="3" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
@@ -14706,59 +14667,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="174"/>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
+      <c r="A1" s="171"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
     </row>
     <row r="2" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
     </row>
     <row r="3" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="172" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
@@ -14806,59 +14767,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="174"/>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
+      <c r="A1" s="171"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
     </row>
     <row r="2" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
     </row>
     <row r="3" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="172" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
@@ -14906,59 +14867,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="174"/>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
+      <c r="A1" s="171"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
     </row>
     <row r="2" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
     </row>
     <row r="3" spans="1:16" s="66" customFormat="1" ht="20.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="172" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>

--- a/docs/trim1/gestion_proyecto/3_cronograma_actividades.xlsx
+++ b/docs/trim1/gestion_proyecto/3_cronograma_actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9285" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9285" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="ADSO" sheetId="10" r:id="rId1"/>
@@ -3916,9 +3916,6 @@
     <t>VI</t>
   </si>
   <si>
-    <t>Juan Rodríguez</t>
-  </si>
-  <si>
     <t xml:space="preserve">Elian Ibarra </t>
   </si>
   <si>
@@ -3962,6 +3959,9 @@
   </si>
   <si>
     <t>11/03/23</t>
+  </si>
+  <si>
+    <t>AutOsris</t>
   </si>
 </sst>
 </file>
@@ -6472,6 +6472,49 @@
     <xf numFmtId="49" fontId="45" fillId="0" borderId="93" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="100" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="101" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="102" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="108" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="109" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="110" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="106" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="107" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="97" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="98" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="99" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="94" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="95" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6490,33 +6533,32 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="86" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="85" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6545,66 +6587,24 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="70" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="86" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="85" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="94" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="95" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="97" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="98" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="99" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="100" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="101" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="102" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="106" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="107" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="108" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="109" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="110" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7009,7 +7009,7 @@
         <xdr:cNvPr id="2" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7068,7 +7068,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7127,7 +7127,7 @@
         <xdr:cNvPr id="2" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7191,7 +7191,7 @@
                   <a14:compatExt spid="_x0000_s7169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000011C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000011C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7231,7 +7231,7 @@
         <xdr:cNvPr id="4" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7285,7 +7285,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7339,7 +7339,56 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66676" y="57151"/>
+          <a:ext cx="432000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln cap="flat">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="432000" cy="432000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7393,7 +7442,56 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66676" y="57151"/>
+          <a:ext cx="432000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln cap="flat">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="432000" cy="432000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7447,7 +7545,56 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66676" y="57151"/>
+          <a:ext cx="432000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln cap="flat">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="432000" cy="432000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7775,7 +7922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F540"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -16266,7 +16413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
@@ -16289,117 +16436,117 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
     </row>
     <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickTop="1">
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="253"/>
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.75" customHeight="1" thickTop="1">
       <c r="B11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="223" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
+      <c r="C11" s="250" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D11" s="250"/>
+      <c r="E11" s="250"/>
+      <c r="F11" s="250"/>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="224" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D12" s="224"/>
-      <c r="E12" s="224"/>
-      <c r="F12" s="224"/>
+      <c r="C12" s="251" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D12" s="251"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
     </row>
     <row r="13" spans="2:6" ht="18">
       <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="225" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D13" s="225"/>
-      <c r="E13" s="225"/>
-      <c r="F13" s="225"/>
+      <c r="C13" s="252" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D13" s="252"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="252"/>
     </row>
     <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1">
       <c r="B14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="224" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
+      <c r="C14" s="251" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D14" s="251"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
     </row>
     <row r="15" spans="2:6" ht="19.899999999999999" customHeight="1">
       <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="226" t="s">
+      <c r="C15" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="226"/>
+      <c r="D15" s="220"/>
       <c r="E15" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="226" t="s">
+      <c r="C16" s="220" t="s">
         <v>1117</v>
       </c>
-      <c r="D16" s="226"/>
+      <c r="D16" s="220"/>
       <c r="E16" s="26" t="s">
         <v>11</v>
       </c>
@@ -16424,91 +16571,91 @@
       <c r="C20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="275" t="s">
+      <c r="D20" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="276"/>
+      <c r="E20" s="229"/>
       <c r="F20" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="B21" s="216" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C21" s="217" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="273" t="s">
+      <c r="D21" s="226" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E21" s="227"/>
+      <c r="F21" s="219" t="s">
         <v>1274</v>
-      </c>
-      <c r="E21" s="274"/>
-      <c r="F21" s="219" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="25.5" customHeight="1" thickTop="1">
       <c r="B22" s="218" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C22" s="218" t="s">
         <v>1278</v>
       </c>
-      <c r="C22" s="218" t="s">
+      <c r="D22" s="226" t="s">
         <v>1279</v>
       </c>
-      <c r="D22" s="273" t="s">
+      <c r="E22" s="227"/>
+      <c r="F22" s="218" t="s">
         <v>1280</v>
-      </c>
-      <c r="E22" s="274"/>
-      <c r="F22" s="218" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="25.5" customHeight="1">
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="271"/>
-      <c r="E23" s="272"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="225"/>
       <c r="F23" s="19"/>
     </row>
     <row r="24" spans="2:16" ht="25.5" customHeight="1">
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="271"/>
-      <c r="E24" s="272"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="225"/>
       <c r="F24" s="19"/>
     </row>
     <row r="25" spans="2:16" ht="25.5" customHeight="1">
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="271"/>
-      <c r="E25" s="272"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="225"/>
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="2:16" ht="25.5" customHeight="1">
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="271"/>
-      <c r="E26" s="272"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="225"/>
       <c r="F26" s="19"/>
     </row>
     <row r="27" spans="2:16" ht="25.5" customHeight="1">
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="271"/>
-      <c r="E27" s="272"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="225"/>
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="2:16" ht="25.5" customHeight="1">
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="271"/>
-      <c r="E28" s="272"/>
+      <c r="D28" s="224"/>
+      <c r="E28" s="225"/>
       <c r="F28" s="19"/>
     </row>
     <row r="29" spans="2:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="269"/>
-      <c r="E29" s="270"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="234"/>
       <c r="F29" s="22"/>
     </row>
     <row r="30" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
@@ -16519,55 +16666,55 @@
     </row>
     <row r="32" spans="2:16" ht="30" customHeight="1" thickBot="1"/>
     <row r="33" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B33" s="266" t="s">
+      <c r="B33" s="235" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="267"/>
-      <c r="D33" s="267"/>
-      <c r="E33" s="267"/>
-      <c r="F33" s="268"/>
+      <c r="C33" s="236"/>
+      <c r="D33" s="236"/>
+      <c r="E33" s="236"/>
+      <c r="F33" s="237"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B34" s="263" t="s">
+      <c r="B34" s="221" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C34" s="222"/>
+      <c r="D34" s="222"/>
+      <c r="E34" s="222"/>
+      <c r="F34" s="223"/>
+    </row>
+    <row r="35" spans="1:13" ht="25.5" customHeight="1">
+      <c r="B35" s="238" t="s">
         <v>1276</v>
       </c>
-      <c r="C34" s="264"/>
-      <c r="D34" s="264"/>
-      <c r="E34" s="264"/>
-      <c r="F34" s="265"/>
-    </row>
-    <row r="35" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B35" s="260" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C35" s="261"/>
-      <c r="D35" s="261"/>
-      <c r="E35" s="261"/>
-      <c r="F35" s="262"/>
+      <c r="C35" s="239"/>
+      <c r="D35" s="239"/>
+      <c r="E35" s="239"/>
+      <c r="F35" s="240"/>
       <c r="J35" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B36" s="257"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="258"/>
-      <c r="F36" s="259"/>
+      <c r="B36" s="241"/>
+      <c r="C36" s="242"/>
+      <c r="D36" s="242"/>
+      <c r="E36" s="242"/>
+      <c r="F36" s="243"/>
     </row>
     <row r="37" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B37" s="231"/>
-      <c r="C37" s="232"/>
-      <c r="D37" s="232"/>
-      <c r="E37" s="232"/>
-      <c r="F37" s="233"/>
+      <c r="B37" s="244"/>
+      <c r="C37" s="245"/>
+      <c r="D37" s="245"/>
+      <c r="E37" s="245"/>
+      <c r="F37" s="246"/>
     </row>
     <row r="38" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B38" s="227"/>
-      <c r="C38" s="228"/>
-      <c r="D38" s="228"/>
-      <c r="E38" s="228"/>
-      <c r="F38" s="229"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="231"/>
+      <c r="E38" s="231"/>
+      <c r="F38" s="232"/>
     </row>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A39" s="6"/>
@@ -16728,13 +16875,16 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
@@ -16745,16 +16895,13 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -16768,8 +16915,8 @@
   <dimension ref="A1:BS109"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP55" sqref="AO55:AQ55"/>
+      <pane ySplit="11" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -16791,296 +16938,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="239"/>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="239"/>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="239"/>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="239"/>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="239"/>
-      <c r="AH1" s="239"/>
-      <c r="AI1" s="239"/>
-      <c r="AJ1" s="239"/>
-      <c r="AK1" s="239"/>
-      <c r="AL1" s="239"/>
-      <c r="AM1" s="239"/>
-      <c r="AN1" s="239"/>
-      <c r="AO1" s="239"/>
-      <c r="AP1" s="239"/>
-      <c r="AQ1" s="239"/>
-      <c r="AR1" s="239"/>
-      <c r="AS1" s="239"/>
-      <c r="AT1" s="239"/>
-      <c r="AU1" s="239"/>
-      <c r="AV1" s="239"/>
-      <c r="AW1" s="239"/>
-      <c r="AX1" s="239"/>
-      <c r="AY1" s="239"/>
-      <c r="AZ1" s="239"/>
-      <c r="BA1" s="239"/>
-      <c r="BB1" s="239"/>
-      <c r="BC1" s="239"/>
-      <c r="BD1" s="239"/>
-      <c r="BE1" s="239"/>
-      <c r="BF1" s="239"/>
-      <c r="BG1" s="239"/>
-      <c r="BH1" s="239"/>
-      <c r="BI1" s="239"/>
-      <c r="BJ1" s="239"/>
-      <c r="BK1" s="239"/>
-      <c r="BL1" s="239"/>
-      <c r="BM1" s="239"/>
-      <c r="BN1" s="239"/>
-      <c r="BO1" s="239"/>
-      <c r="BP1" s="239"/>
-      <c r="BQ1" s="239"/>
-      <c r="BR1" s="239"/>
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="262"/>
+      <c r="S1" s="262"/>
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
+      <c r="V1" s="262"/>
+      <c r="W1" s="262"/>
+      <c r="X1" s="262"/>
+      <c r="Y1" s="262"/>
+      <c r="Z1" s="262"/>
+      <c r="AA1" s="262"/>
+      <c r="AB1" s="262"/>
+      <c r="AC1" s="262"/>
+      <c r="AD1" s="262"/>
+      <c r="AE1" s="262"/>
+      <c r="AF1" s="262"/>
+      <c r="AG1" s="262"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="262"/>
+      <c r="AJ1" s="262"/>
+      <c r="AK1" s="262"/>
+      <c r="AL1" s="262"/>
+      <c r="AM1" s="262"/>
+      <c r="AN1" s="262"/>
+      <c r="AO1" s="262"/>
+      <c r="AP1" s="262"/>
+      <c r="AQ1" s="262"/>
+      <c r="AR1" s="262"/>
+      <c r="AS1" s="262"/>
+      <c r="AT1" s="262"/>
+      <c r="AU1" s="262"/>
+      <c r="AV1" s="262"/>
+      <c r="AW1" s="262"/>
+      <c r="AX1" s="262"/>
+      <c r="AY1" s="262"/>
+      <c r="AZ1" s="262"/>
+      <c r="BA1" s="262"/>
+      <c r="BB1" s="262"/>
+      <c r="BC1" s="262"/>
+      <c r="BD1" s="262"/>
+      <c r="BE1" s="262"/>
+      <c r="BF1" s="262"/>
+      <c r="BG1" s="262"/>
+      <c r="BH1" s="262"/>
+      <c r="BI1" s="262"/>
+      <c r="BJ1" s="262"/>
+      <c r="BK1" s="262"/>
+      <c r="BL1" s="262"/>
+      <c r="BM1" s="262"/>
+      <c r="BN1" s="262"/>
+      <c r="BO1" s="262"/>
+      <c r="BP1" s="262"/>
+      <c r="BQ1" s="262"/>
+      <c r="BR1" s="262"/>
     </row>
     <row r="2" spans="1:70" s="42" customFormat="1" ht="20.25">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="263" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="240"/>
-      <c r="AA2" s="240"/>
-      <c r="AB2" s="240"/>
-      <c r="AC2" s="240"/>
-      <c r="AD2" s="240"/>
-      <c r="AE2" s="240"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="240"/>
-      <c r="AH2" s="240"/>
-      <c r="AI2" s="240"/>
-      <c r="AJ2" s="240"/>
-      <c r="AK2" s="240"/>
-      <c r="AL2" s="240"/>
-      <c r="AM2" s="240"/>
-      <c r="AN2" s="240"/>
-      <c r="AO2" s="240"/>
-      <c r="AP2" s="240"/>
-      <c r="AQ2" s="240"/>
-      <c r="AR2" s="240"/>
-      <c r="AS2" s="240"/>
-      <c r="AT2" s="240"/>
-      <c r="AU2" s="240"/>
-      <c r="AV2" s="240"/>
-      <c r="AW2" s="240"/>
-      <c r="AX2" s="240"/>
-      <c r="AY2" s="240"/>
-      <c r="AZ2" s="240"/>
-      <c r="BA2" s="240"/>
-      <c r="BB2" s="240"/>
-      <c r="BC2" s="240"/>
-      <c r="BD2" s="240"/>
-      <c r="BE2" s="240"/>
-      <c r="BF2" s="240"/>
-      <c r="BG2" s="240"/>
-      <c r="BH2" s="240"/>
-      <c r="BI2" s="240"/>
-      <c r="BJ2" s="240"/>
-      <c r="BK2" s="240"/>
-      <c r="BL2" s="240"/>
-      <c r="BM2" s="240"/>
-      <c r="BN2" s="240"/>
-      <c r="BO2" s="240"/>
-      <c r="BP2" s="240"/>
-      <c r="BQ2" s="240"/>
-      <c r="BR2" s="241"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="263"/>
+      <c r="Q2" s="263"/>
+      <c r="R2" s="263"/>
+      <c r="S2" s="263"/>
+      <c r="T2" s="263"/>
+      <c r="U2" s="263"/>
+      <c r="V2" s="263"/>
+      <c r="W2" s="263"/>
+      <c r="X2" s="263"/>
+      <c r="Y2" s="263"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="263"/>
+      <c r="AB2" s="263"/>
+      <c r="AC2" s="263"/>
+      <c r="AD2" s="263"/>
+      <c r="AE2" s="263"/>
+      <c r="AF2" s="263"/>
+      <c r="AG2" s="263"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="263"/>
+      <c r="AJ2" s="263"/>
+      <c r="AK2" s="263"/>
+      <c r="AL2" s="263"/>
+      <c r="AM2" s="263"/>
+      <c r="AN2" s="263"/>
+      <c r="AO2" s="263"/>
+      <c r="AP2" s="263"/>
+      <c r="AQ2" s="263"/>
+      <c r="AR2" s="263"/>
+      <c r="AS2" s="263"/>
+      <c r="AT2" s="263"/>
+      <c r="AU2" s="263"/>
+      <c r="AV2" s="263"/>
+      <c r="AW2" s="263"/>
+      <c r="AX2" s="263"/>
+      <c r="AY2" s="263"/>
+      <c r="AZ2" s="263"/>
+      <c r="BA2" s="263"/>
+      <c r="BB2" s="263"/>
+      <c r="BC2" s="263"/>
+      <c r="BD2" s="263"/>
+      <c r="BE2" s="263"/>
+      <c r="BF2" s="263"/>
+      <c r="BG2" s="263"/>
+      <c r="BH2" s="263"/>
+      <c r="BI2" s="263"/>
+      <c r="BJ2" s="263"/>
+      <c r="BK2" s="263"/>
+      <c r="BL2" s="263"/>
+      <c r="BM2" s="263"/>
+      <c r="BN2" s="263"/>
+      <c r="BO2" s="263"/>
+      <c r="BP2" s="263"/>
+      <c r="BQ2" s="263"/>
+      <c r="BR2" s="264"/>
     </row>
     <row r="3" spans="1:70" s="42" customFormat="1" ht="20.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="240"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="240"/>
-      <c r="AD3" s="240"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="240"/>
-      <c r="AH3" s="240"/>
-      <c r="AI3" s="240"/>
-      <c r="AJ3" s="240"/>
-      <c r="AK3" s="240"/>
-      <c r="AL3" s="240"/>
-      <c r="AM3" s="240"/>
-      <c r="AN3" s="240"/>
-      <c r="AO3" s="240"/>
-      <c r="AP3" s="240"/>
-      <c r="AQ3" s="240"/>
-      <c r="AR3" s="240"/>
-      <c r="AS3" s="240"/>
-      <c r="AT3" s="240"/>
-      <c r="AU3" s="240"/>
-      <c r="AV3" s="240"/>
-      <c r="AW3" s="240"/>
-      <c r="AX3" s="240"/>
-      <c r="AY3" s="240"/>
-      <c r="AZ3" s="240"/>
-      <c r="BA3" s="240"/>
-      <c r="BB3" s="240"/>
-      <c r="BC3" s="240"/>
-      <c r="BD3" s="240"/>
-      <c r="BE3" s="240"/>
-      <c r="BF3" s="240"/>
-      <c r="BG3" s="240"/>
-      <c r="BH3" s="240"/>
-      <c r="BI3" s="240"/>
-      <c r="BJ3" s="240"/>
-      <c r="BK3" s="240"/>
-      <c r="BL3" s="240"/>
-      <c r="BM3" s="240"/>
-      <c r="BN3" s="240"/>
-      <c r="BO3" s="240"/>
-      <c r="BP3" s="240"/>
-      <c r="BQ3" s="240"/>
-      <c r="BR3" s="241"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="263"/>
+      <c r="Q3" s="263"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="263"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="263"/>
+      <c r="X3" s="263"/>
+      <c r="Y3" s="263"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="263"/>
+      <c r="AB3" s="263"/>
+      <c r="AC3" s="263"/>
+      <c r="AD3" s="263"/>
+      <c r="AE3" s="263"/>
+      <c r="AF3" s="263"/>
+      <c r="AG3" s="263"/>
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="263"/>
+      <c r="AJ3" s="263"/>
+      <c r="AK3" s="263"/>
+      <c r="AL3" s="263"/>
+      <c r="AM3" s="263"/>
+      <c r="AN3" s="263"/>
+      <c r="AO3" s="263"/>
+      <c r="AP3" s="263"/>
+      <c r="AQ3" s="263"/>
+      <c r="AR3" s="263"/>
+      <c r="AS3" s="263"/>
+      <c r="AT3" s="263"/>
+      <c r="AU3" s="263"/>
+      <c r="AV3" s="263"/>
+      <c r="AW3" s="263"/>
+      <c r="AX3" s="263"/>
+      <c r="AY3" s="263"/>
+      <c r="AZ3" s="263"/>
+      <c r="BA3" s="263"/>
+      <c r="BB3" s="263"/>
+      <c r="BC3" s="263"/>
+      <c r="BD3" s="263"/>
+      <c r="BE3" s="263"/>
+      <c r="BF3" s="263"/>
+      <c r="BG3" s="263"/>
+      <c r="BH3" s="263"/>
+      <c r="BI3" s="263"/>
+      <c r="BJ3" s="263"/>
+      <c r="BK3" s="263"/>
+      <c r="BL3" s="263"/>
+      <c r="BM3" s="263"/>
+      <c r="BN3" s="263"/>
+      <c r="BO3" s="263"/>
+      <c r="BP3" s="263"/>
+      <c r="BQ3" s="263"/>
+      <c r="BR3" s="264"/>
     </row>
     <row r="4" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A4" s="242"/>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
-      <c r="O4" s="242"/>
-      <c r="P4" s="242"/>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="242"/>
-      <c r="S4" s="242"/>
-      <c r="T4" s="242"/>
-      <c r="U4" s="242"/>
-      <c r="V4" s="242"/>
-      <c r="W4" s="242"/>
-      <c r="X4" s="242"/>
-      <c r="Y4" s="242"/>
-      <c r="Z4" s="242"/>
-      <c r="AA4" s="242"/>
-      <c r="AB4" s="242"/>
-      <c r="AC4" s="242"/>
-      <c r="AD4" s="242"/>
-      <c r="AE4" s="242"/>
-      <c r="AF4" s="242"/>
-      <c r="AG4" s="242"/>
-      <c r="AH4" s="242"/>
-      <c r="AI4" s="242"/>
-      <c r="AJ4" s="242"/>
-      <c r="AK4" s="242"/>
-      <c r="AL4" s="242"/>
-      <c r="AM4" s="242"/>
-      <c r="AN4" s="242"/>
-      <c r="AO4" s="242"/>
-      <c r="AP4" s="242"/>
-      <c r="AQ4" s="242"/>
-      <c r="AR4" s="242"/>
-      <c r="AS4" s="242"/>
-      <c r="AT4" s="242"/>
-      <c r="AU4" s="242"/>
-      <c r="AV4" s="242"/>
-      <c r="AW4" s="242"/>
-      <c r="AX4" s="242"/>
-      <c r="AY4" s="242"/>
-      <c r="AZ4" s="242"/>
-      <c r="BA4" s="242"/>
-      <c r="BB4" s="242"/>
-      <c r="BC4" s="242"/>
-      <c r="BD4" s="242"/>
-      <c r="BE4" s="242"/>
-      <c r="BF4" s="242"/>
-      <c r="BG4" s="242"/>
-      <c r="BH4" s="242"/>
-      <c r="BI4" s="242"/>
-      <c r="BJ4" s="242"/>
-      <c r="BK4" s="242"/>
-      <c r="BL4" s="242"/>
-      <c r="BM4" s="242"/>
-      <c r="BN4" s="242"/>
-      <c r="BO4" s="242"/>
-      <c r="BP4" s="242"/>
-      <c r="BQ4" s="242"/>
-      <c r="BR4" s="243"/>
+      <c r="A4" s="265"/>
+      <c r="B4" s="265"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
+      <c r="F4" s="265"/>
+      <c r="G4" s="265"/>
+      <c r="H4" s="265"/>
+      <c r="I4" s="265"/>
+      <c r="J4" s="265"/>
+      <c r="K4" s="265"/>
+      <c r="L4" s="265"/>
+      <c r="M4" s="265"/>
+      <c r="N4" s="265"/>
+      <c r="O4" s="265"/>
+      <c r="P4" s="265"/>
+      <c r="Q4" s="265"/>
+      <c r="R4" s="265"/>
+      <c r="S4" s="265"/>
+      <c r="T4" s="265"/>
+      <c r="U4" s="265"/>
+      <c r="V4" s="265"/>
+      <c r="W4" s="265"/>
+      <c r="X4" s="265"/>
+      <c r="Y4" s="265"/>
+      <c r="Z4" s="265"/>
+      <c r="AA4" s="265"/>
+      <c r="AB4" s="265"/>
+      <c r="AC4" s="265"/>
+      <c r="AD4" s="265"/>
+      <c r="AE4" s="265"/>
+      <c r="AF4" s="265"/>
+      <c r="AG4" s="265"/>
+      <c r="AH4" s="265"/>
+      <c r="AI4" s="265"/>
+      <c r="AJ4" s="265"/>
+      <c r="AK4" s="265"/>
+      <c r="AL4" s="265"/>
+      <c r="AM4" s="265"/>
+      <c r="AN4" s="265"/>
+      <c r="AO4" s="265"/>
+      <c r="AP4" s="265"/>
+      <c r="AQ4" s="265"/>
+      <c r="AR4" s="265"/>
+      <c r="AS4" s="265"/>
+      <c r="AT4" s="265"/>
+      <c r="AU4" s="265"/>
+      <c r="AV4" s="265"/>
+      <c r="AW4" s="265"/>
+      <c r="AX4" s="265"/>
+      <c r="AY4" s="265"/>
+      <c r="AZ4" s="265"/>
+      <c r="BA4" s="265"/>
+      <c r="BB4" s="265"/>
+      <c r="BC4" s="265"/>
+      <c r="BD4" s="265"/>
+      <c r="BE4" s="265"/>
+      <c r="BF4" s="265"/>
+      <c r="BG4" s="265"/>
+      <c r="BH4" s="265"/>
+      <c r="BI4" s="265"/>
+      <c r="BJ4" s="265"/>
+      <c r="BK4" s="265"/>
+      <c r="BL4" s="265"/>
+      <c r="BM4" s="265"/>
+      <c r="BN4" s="265"/>
+      <c r="BO4" s="265"/>
+      <c r="BP4" s="265"/>
+      <c r="BQ4" s="265"/>
+      <c r="BR4" s="266"/>
     </row>
     <row r="5" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1">
       <c r="A5" s="169"/>
@@ -17195,11 +17342,11 @@
         <v>28</v>
       </c>
       <c r="C8" s="182"/>
-      <c r="D8" s="238">
+      <c r="D8" s="276">
         <v>44958</v>
       </c>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
+      <c r="E8" s="276"/>
+      <c r="F8" s="276"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="K8" s="200" t="s">
@@ -17208,179 +17355,179 @@
       <c r="L8" s="28">
         <v>1</v>
       </c>
-      <c r="O8" s="235" t="str">
+      <c r="O8" s="271" t="str">
         <f>"Semana "&amp;(O10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 1</v>
       </c>
-      <c r="P8" s="236"/>
-      <c r="Q8" s="236"/>
-      <c r="R8" s="236"/>
-      <c r="S8" s="236"/>
-      <c r="T8" s="236"/>
-      <c r="U8" s="237"/>
-      <c r="V8" s="235" t="str">
+      <c r="P8" s="272"/>
+      <c r="Q8" s="272"/>
+      <c r="R8" s="272"/>
+      <c r="S8" s="272"/>
+      <c r="T8" s="272"/>
+      <c r="U8" s="273"/>
+      <c r="V8" s="271" t="str">
         <f>"Semana "&amp;(V10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 2</v>
       </c>
-      <c r="W8" s="236"/>
-      <c r="X8" s="236"/>
-      <c r="Y8" s="236"/>
-      <c r="Z8" s="236"/>
-      <c r="AA8" s="236"/>
-      <c r="AB8" s="237"/>
-      <c r="AC8" s="235" t="str">
+      <c r="W8" s="272"/>
+      <c r="X8" s="272"/>
+      <c r="Y8" s="272"/>
+      <c r="Z8" s="272"/>
+      <c r="AA8" s="272"/>
+      <c r="AB8" s="273"/>
+      <c r="AC8" s="271" t="str">
         <f>"Semana "&amp;(AC10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 3</v>
       </c>
-      <c r="AD8" s="236"/>
-      <c r="AE8" s="236"/>
-      <c r="AF8" s="236"/>
-      <c r="AG8" s="236"/>
-      <c r="AH8" s="236"/>
-      <c r="AI8" s="237"/>
-      <c r="AJ8" s="235" t="str">
+      <c r="AD8" s="272"/>
+      <c r="AE8" s="272"/>
+      <c r="AF8" s="272"/>
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="272"/>
+      <c r="AI8" s="273"/>
+      <c r="AJ8" s="271" t="str">
         <f>"Semana "&amp;(AJ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 4</v>
       </c>
-      <c r="AK8" s="236"/>
-      <c r="AL8" s="236"/>
-      <c r="AM8" s="236"/>
-      <c r="AN8" s="236"/>
-      <c r="AO8" s="236"/>
-      <c r="AP8" s="237"/>
-      <c r="AQ8" s="235" t="str">
+      <c r="AK8" s="272"/>
+      <c r="AL8" s="272"/>
+      <c r="AM8" s="272"/>
+      <c r="AN8" s="272"/>
+      <c r="AO8" s="272"/>
+      <c r="AP8" s="273"/>
+      <c r="AQ8" s="271" t="str">
         <f>"Semana "&amp;(AQ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 5</v>
       </c>
-      <c r="AR8" s="236"/>
-      <c r="AS8" s="236"/>
-      <c r="AT8" s="236"/>
-      <c r="AU8" s="236"/>
-      <c r="AV8" s="236"/>
-      <c r="AW8" s="237"/>
-      <c r="AX8" s="235" t="str">
+      <c r="AR8" s="272"/>
+      <c r="AS8" s="272"/>
+      <c r="AT8" s="272"/>
+      <c r="AU8" s="272"/>
+      <c r="AV8" s="272"/>
+      <c r="AW8" s="273"/>
+      <c r="AX8" s="271" t="str">
         <f>"Semana "&amp;(AX10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 6</v>
       </c>
-      <c r="AY8" s="236"/>
-      <c r="AZ8" s="236"/>
-      <c r="BA8" s="236"/>
-      <c r="BB8" s="236"/>
-      <c r="BC8" s="236"/>
-      <c r="BD8" s="237"/>
-      <c r="BE8" s="235" t="str">
+      <c r="AY8" s="272"/>
+      <c r="AZ8" s="272"/>
+      <c r="BA8" s="272"/>
+      <c r="BB8" s="272"/>
+      <c r="BC8" s="272"/>
+      <c r="BD8" s="273"/>
+      <c r="BE8" s="271" t="str">
         <f>"Semana "&amp;(BE10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 7</v>
       </c>
-      <c r="BF8" s="236"/>
-      <c r="BG8" s="236"/>
-      <c r="BH8" s="236"/>
-      <c r="BI8" s="236"/>
-      <c r="BJ8" s="236"/>
-      <c r="BK8" s="237"/>
-      <c r="BL8" s="235" t="str">
+      <c r="BF8" s="272"/>
+      <c r="BG8" s="272"/>
+      <c r="BH8" s="272"/>
+      <c r="BI8" s="272"/>
+      <c r="BJ8" s="272"/>
+      <c r="BK8" s="273"/>
+      <c r="BL8" s="271" t="str">
         <f>"Semana "&amp;(BL10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 8</v>
       </c>
-      <c r="BM8" s="236"/>
-      <c r="BN8" s="236"/>
-      <c r="BO8" s="236"/>
-      <c r="BP8" s="236"/>
-      <c r="BQ8" s="236"/>
-      <c r="BR8" s="248"/>
+      <c r="BM8" s="272"/>
+      <c r="BN8" s="272"/>
+      <c r="BO8" s="272"/>
+      <c r="BP8" s="272"/>
+      <c r="BQ8" s="272"/>
+      <c r="BR8" s="274"/>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1">
       <c r="B9" s="181" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="182"/>
-      <c r="D9" s="234" t="s">
+      <c r="D9" s="275" t="s">
         <v>1117</v>
       </c>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
-      <c r="O9" s="244">
+      <c r="O9" s="267">
         <f>O10</f>
         <v>44956</v>
       </c>
-      <c r="P9" s="245"/>
-      <c r="Q9" s="245"/>
-      <c r="R9" s="245"/>
-      <c r="S9" s="245"/>
-      <c r="T9" s="245"/>
-      <c r="U9" s="246"/>
-      <c r="V9" s="244">
+      <c r="P9" s="268"/>
+      <c r="Q9" s="268"/>
+      <c r="R9" s="268"/>
+      <c r="S9" s="268"/>
+      <c r="T9" s="268"/>
+      <c r="U9" s="269"/>
+      <c r="V9" s="267">
         <f>V10</f>
         <v>44963</v>
       </c>
-      <c r="W9" s="245"/>
-      <c r="X9" s="245"/>
-      <c r="Y9" s="245"/>
-      <c r="Z9" s="245"/>
-      <c r="AA9" s="245"/>
-      <c r="AB9" s="246"/>
-      <c r="AC9" s="244">
+      <c r="W9" s="268"/>
+      <c r="X9" s="268"/>
+      <c r="Y9" s="268"/>
+      <c r="Z9" s="268"/>
+      <c r="AA9" s="268"/>
+      <c r="AB9" s="269"/>
+      <c r="AC9" s="267">
         <f>AC10</f>
         <v>44970</v>
       </c>
-      <c r="AD9" s="245"/>
-      <c r="AE9" s="245"/>
-      <c r="AF9" s="245"/>
-      <c r="AG9" s="245"/>
-      <c r="AH9" s="245"/>
-      <c r="AI9" s="246"/>
-      <c r="AJ9" s="244">
+      <c r="AD9" s="268"/>
+      <c r="AE9" s="268"/>
+      <c r="AF9" s="268"/>
+      <c r="AG9" s="268"/>
+      <c r="AH9" s="268"/>
+      <c r="AI9" s="269"/>
+      <c r="AJ9" s="267">
         <f>AJ10</f>
         <v>44977</v>
       </c>
-      <c r="AK9" s="245"/>
-      <c r="AL9" s="245"/>
-      <c r="AM9" s="245"/>
-      <c r="AN9" s="245"/>
-      <c r="AO9" s="245"/>
-      <c r="AP9" s="246"/>
-      <c r="AQ9" s="244">
+      <c r="AK9" s="268"/>
+      <c r="AL9" s="268"/>
+      <c r="AM9" s="268"/>
+      <c r="AN9" s="268"/>
+      <c r="AO9" s="268"/>
+      <c r="AP9" s="269"/>
+      <c r="AQ9" s="267">
         <f>AQ10</f>
         <v>44984</v>
       </c>
-      <c r="AR9" s="245"/>
-      <c r="AS9" s="245"/>
-      <c r="AT9" s="245"/>
-      <c r="AU9" s="245"/>
-      <c r="AV9" s="245"/>
-      <c r="AW9" s="246"/>
-      <c r="AX9" s="244">
+      <c r="AR9" s="268"/>
+      <c r="AS9" s="268"/>
+      <c r="AT9" s="268"/>
+      <c r="AU9" s="268"/>
+      <c r="AV9" s="268"/>
+      <c r="AW9" s="269"/>
+      <c r="AX9" s="267">
         <f>AX10</f>
         <v>44991</v>
       </c>
-      <c r="AY9" s="245"/>
-      <c r="AZ9" s="245"/>
-      <c r="BA9" s="245"/>
-      <c r="BB9" s="245"/>
-      <c r="BC9" s="245"/>
-      <c r="BD9" s="246"/>
-      <c r="BE9" s="244">
+      <c r="AY9" s="268"/>
+      <c r="AZ9" s="268"/>
+      <c r="BA9" s="268"/>
+      <c r="BB9" s="268"/>
+      <c r="BC9" s="268"/>
+      <c r="BD9" s="269"/>
+      <c r="BE9" s="267">
         <f>BE10</f>
         <v>44998</v>
       </c>
-      <c r="BF9" s="245"/>
-      <c r="BG9" s="245"/>
-      <c r="BH9" s="245"/>
-      <c r="BI9" s="245"/>
-      <c r="BJ9" s="245"/>
-      <c r="BK9" s="246"/>
-      <c r="BL9" s="244">
+      <c r="BF9" s="268"/>
+      <c r="BG9" s="268"/>
+      <c r="BH9" s="268"/>
+      <c r="BI9" s="268"/>
+      <c r="BJ9" s="268"/>
+      <c r="BK9" s="269"/>
+      <c r="BL9" s="267">
         <f>BL10</f>
         <v>45005</v>
       </c>
-      <c r="BM9" s="245"/>
-      <c r="BN9" s="245"/>
-      <c r="BO9" s="245"/>
-      <c r="BP9" s="245"/>
-      <c r="BQ9" s="245"/>
-      <c r="BR9" s="247"/>
+      <c r="BM9" s="268"/>
+      <c r="BN9" s="268"/>
+      <c r="BO9" s="268"/>
+      <c r="BP9" s="268"/>
+      <c r="BQ9" s="268"/>
+      <c r="BR9" s="270"/>
     </row>
     <row r="10" spans="1:70">
       <c r="O10" s="29">
@@ -17982,7 +18129,7 @@
         <v>1217</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H13" s="57"/>
       <c r="I13" s="215">
@@ -18072,7 +18219,7 @@
         <v>1218</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H14" s="57"/>
       <c r="I14" s="58">
@@ -18163,7 +18310,7 @@
         <v>1219</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H15" s="57"/>
       <c r="I15" s="58">
@@ -18254,7 +18401,7 @@
         <v>1220</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H16" s="57"/>
       <c r="I16" s="58">
@@ -18345,7 +18492,7 @@
         <v>1221</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H17" s="134"/>
       <c r="I17" s="58">
@@ -22672,77 +22819,77 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="C67" s="253" t="s">
+      <c r="C67" s="254" t="s">
         <v>1216</v>
       </c>
-      <c r="D67" s="253"/>
-      <c r="E67" s="253"/>
-      <c r="F67" s="253"/>
-      <c r="G67" s="253"/>
-      <c r="H67" s="253"/>
-      <c r="I67" s="253"/>
-      <c r="J67" s="253"/>
-      <c r="K67" s="253"/>
-      <c r="L67" s="253"/>
-      <c r="M67" s="253"/>
-      <c r="N67" s="253"/>
-      <c r="O67" s="253"/>
-      <c r="P67" s="253"/>
-      <c r="Q67" s="253"/>
-      <c r="R67" s="253"/>
-      <c r="S67" s="253"/>
-      <c r="T67" s="253"/>
-      <c r="U67" s="253"/>
-      <c r="V67" s="253"/>
-      <c r="W67" s="253"/>
-      <c r="X67" s="253"/>
-      <c r="Y67" s="253"/>
-      <c r="Z67" s="253"/>
-      <c r="AA67" s="253"/>
-      <c r="AB67" s="253"/>
-      <c r="AC67" s="253"/>
-      <c r="AD67" s="253"/>
-      <c r="AE67" s="253"/>
-      <c r="AF67" s="253"/>
-      <c r="AG67" s="253"/>
-      <c r="AH67" s="253"/>
-      <c r="AI67" s="253"/>
-      <c r="AJ67" s="253"/>
-      <c r="AK67" s="253"/>
-      <c r="AL67" s="253"/>
-      <c r="AM67" s="253"/>
-      <c r="AN67" s="253"/>
-      <c r="AO67" s="253"/>
-      <c r="AP67" s="253"/>
-      <c r="AQ67" s="253"/>
-      <c r="AR67" s="253"/>
-      <c r="AS67" s="253"/>
-      <c r="AT67" s="253"/>
-      <c r="AU67" s="253"/>
-      <c r="AV67" s="253"/>
-      <c r="AW67" s="253"/>
-      <c r="AX67" s="253"/>
-      <c r="AY67" s="253"/>
-      <c r="AZ67" s="253"/>
-      <c r="BA67" s="253"/>
-      <c r="BB67" s="253"/>
-      <c r="BC67" s="253"/>
-      <c r="BD67" s="253"/>
-      <c r="BE67" s="253"/>
-      <c r="BF67" s="253"/>
-      <c r="BG67" s="253"/>
-      <c r="BH67" s="253"/>
-      <c r="BI67" s="253"/>
-      <c r="BJ67" s="253"/>
-      <c r="BK67" s="253"/>
-      <c r="BL67" s="253"/>
-      <c r="BM67" s="253"/>
-      <c r="BN67" s="253"/>
-      <c r="BO67" s="253"/>
-      <c r="BP67" s="253"/>
-      <c r="BQ67" s="253"/>
-      <c r="BR67" s="253"/>
-      <c r="BS67" s="254"/>
+      <c r="D67" s="254"/>
+      <c r="E67" s="254"/>
+      <c r="F67" s="254"/>
+      <c r="G67" s="254"/>
+      <c r="H67" s="254"/>
+      <c r="I67" s="254"/>
+      <c r="J67" s="254"/>
+      <c r="K67" s="254"/>
+      <c r="L67" s="254"/>
+      <c r="M67" s="254"/>
+      <c r="N67" s="254"/>
+      <c r="O67" s="254"/>
+      <c r="P67" s="254"/>
+      <c r="Q67" s="254"/>
+      <c r="R67" s="254"/>
+      <c r="S67" s="254"/>
+      <c r="T67" s="254"/>
+      <c r="U67" s="254"/>
+      <c r="V67" s="254"/>
+      <c r="W67" s="254"/>
+      <c r="X67" s="254"/>
+      <c r="Y67" s="254"/>
+      <c r="Z67" s="254"/>
+      <c r="AA67" s="254"/>
+      <c r="AB67" s="254"/>
+      <c r="AC67" s="254"/>
+      <c r="AD67" s="254"/>
+      <c r="AE67" s="254"/>
+      <c r="AF67" s="254"/>
+      <c r="AG67" s="254"/>
+      <c r="AH67" s="254"/>
+      <c r="AI67" s="254"/>
+      <c r="AJ67" s="254"/>
+      <c r="AK67" s="254"/>
+      <c r="AL67" s="254"/>
+      <c r="AM67" s="254"/>
+      <c r="AN67" s="254"/>
+      <c r="AO67" s="254"/>
+      <c r="AP67" s="254"/>
+      <c r="AQ67" s="254"/>
+      <c r="AR67" s="254"/>
+      <c r="AS67" s="254"/>
+      <c r="AT67" s="254"/>
+      <c r="AU67" s="254"/>
+      <c r="AV67" s="254"/>
+      <c r="AW67" s="254"/>
+      <c r="AX67" s="254"/>
+      <c r="AY67" s="254"/>
+      <c r="AZ67" s="254"/>
+      <c r="BA67" s="254"/>
+      <c r="BB67" s="254"/>
+      <c r="BC67" s="254"/>
+      <c r="BD67" s="254"/>
+      <c r="BE67" s="254"/>
+      <c r="BF67" s="254"/>
+      <c r="BG67" s="254"/>
+      <c r="BH67" s="254"/>
+      <c r="BI67" s="254"/>
+      <c r="BJ67" s="254"/>
+      <c r="BK67" s="254"/>
+      <c r="BL67" s="254"/>
+      <c r="BM67" s="254"/>
+      <c r="BN67" s="254"/>
+      <c r="BO67" s="254"/>
+      <c r="BP67" s="254"/>
+      <c r="BQ67" s="254"/>
+      <c r="BR67" s="254"/>
+      <c r="BS67" s="255"/>
     </row>
     <row r="68" spans="1:71" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="A68" s="40"/>
@@ -22750,77 +22897,77 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C68" s="249" t="s">
+      <c r="C68" s="256" t="s">
         <v>1215</v>
       </c>
-      <c r="D68" s="249"/>
-      <c r="E68" s="249"/>
-      <c r="F68" s="249"/>
-      <c r="G68" s="249"/>
-      <c r="H68" s="249"/>
-      <c r="I68" s="249"/>
-      <c r="J68" s="249"/>
-      <c r="K68" s="249"/>
-      <c r="L68" s="249"/>
-      <c r="M68" s="249"/>
-      <c r="N68" s="249"/>
-      <c r="O68" s="249"/>
-      <c r="P68" s="249"/>
-      <c r="Q68" s="249"/>
-      <c r="R68" s="249"/>
-      <c r="S68" s="249"/>
-      <c r="T68" s="249"/>
-      <c r="U68" s="249"/>
-      <c r="V68" s="249"/>
-      <c r="W68" s="249"/>
-      <c r="X68" s="249"/>
-      <c r="Y68" s="249"/>
-      <c r="Z68" s="249"/>
-      <c r="AA68" s="249"/>
-      <c r="AB68" s="249"/>
-      <c r="AC68" s="249"/>
-      <c r="AD68" s="249"/>
-      <c r="AE68" s="249"/>
-      <c r="AF68" s="249"/>
-      <c r="AG68" s="249"/>
-      <c r="AH68" s="249"/>
-      <c r="AI68" s="249"/>
-      <c r="AJ68" s="249"/>
-      <c r="AK68" s="249"/>
-      <c r="AL68" s="249"/>
-      <c r="AM68" s="249"/>
-      <c r="AN68" s="249"/>
-      <c r="AO68" s="249"/>
-      <c r="AP68" s="249"/>
-      <c r="AQ68" s="249"/>
-      <c r="AR68" s="249"/>
-      <c r="AS68" s="249"/>
-      <c r="AT68" s="249"/>
-      <c r="AU68" s="249"/>
-      <c r="AV68" s="249"/>
-      <c r="AW68" s="249"/>
-      <c r="AX68" s="249"/>
-      <c r="AY68" s="249"/>
-      <c r="AZ68" s="249"/>
-      <c r="BA68" s="249"/>
-      <c r="BB68" s="249"/>
-      <c r="BC68" s="249"/>
-      <c r="BD68" s="249"/>
-      <c r="BE68" s="249"/>
-      <c r="BF68" s="249"/>
-      <c r="BG68" s="249"/>
-      <c r="BH68" s="249"/>
-      <c r="BI68" s="249"/>
-      <c r="BJ68" s="249"/>
-      <c r="BK68" s="249"/>
-      <c r="BL68" s="249"/>
-      <c r="BM68" s="249"/>
-      <c r="BN68" s="249"/>
-      <c r="BO68" s="249"/>
-      <c r="BP68" s="249"/>
-      <c r="BQ68" s="249"/>
-      <c r="BR68" s="249"/>
-      <c r="BS68" s="250"/>
+      <c r="D68" s="256"/>
+      <c r="E68" s="256"/>
+      <c r="F68" s="256"/>
+      <c r="G68" s="256"/>
+      <c r="H68" s="256"/>
+      <c r="I68" s="256"/>
+      <c r="J68" s="256"/>
+      <c r="K68" s="256"/>
+      <c r="L68" s="256"/>
+      <c r="M68" s="256"/>
+      <c r="N68" s="256"/>
+      <c r="O68" s="256"/>
+      <c r="P68" s="256"/>
+      <c r="Q68" s="256"/>
+      <c r="R68" s="256"/>
+      <c r="S68" s="256"/>
+      <c r="T68" s="256"/>
+      <c r="U68" s="256"/>
+      <c r="V68" s="256"/>
+      <c r="W68" s="256"/>
+      <c r="X68" s="256"/>
+      <c r="Y68" s="256"/>
+      <c r="Z68" s="256"/>
+      <c r="AA68" s="256"/>
+      <c r="AB68" s="256"/>
+      <c r="AC68" s="256"/>
+      <c r="AD68" s="256"/>
+      <c r="AE68" s="256"/>
+      <c r="AF68" s="256"/>
+      <c r="AG68" s="256"/>
+      <c r="AH68" s="256"/>
+      <c r="AI68" s="256"/>
+      <c r="AJ68" s="256"/>
+      <c r="AK68" s="256"/>
+      <c r="AL68" s="256"/>
+      <c r="AM68" s="256"/>
+      <c r="AN68" s="256"/>
+      <c r="AO68" s="256"/>
+      <c r="AP68" s="256"/>
+      <c r="AQ68" s="256"/>
+      <c r="AR68" s="256"/>
+      <c r="AS68" s="256"/>
+      <c r="AT68" s="256"/>
+      <c r="AU68" s="256"/>
+      <c r="AV68" s="256"/>
+      <c r="AW68" s="256"/>
+      <c r="AX68" s="256"/>
+      <c r="AY68" s="256"/>
+      <c r="AZ68" s="256"/>
+      <c r="BA68" s="256"/>
+      <c r="BB68" s="256"/>
+      <c r="BC68" s="256"/>
+      <c r="BD68" s="256"/>
+      <c r="BE68" s="256"/>
+      <c r="BF68" s="256"/>
+      <c r="BG68" s="256"/>
+      <c r="BH68" s="256"/>
+      <c r="BI68" s="256"/>
+      <c r="BJ68" s="256"/>
+      <c r="BK68" s="256"/>
+      <c r="BL68" s="256"/>
+      <c r="BM68" s="256"/>
+      <c r="BN68" s="256"/>
+      <c r="BO68" s="256"/>
+      <c r="BP68" s="256"/>
+      <c r="BQ68" s="256"/>
+      <c r="BR68" s="256"/>
+      <c r="BS68" s="257"/>
     </row>
     <row r="69" spans="1:71" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="A69" s="40"/>
@@ -22828,77 +22975,77 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C69" s="251" t="s">
+      <c r="C69" s="258" t="s">
         <v>1214</v>
       </c>
-      <c r="D69" s="251"/>
-      <c r="E69" s="251"/>
-      <c r="F69" s="251"/>
-      <c r="G69" s="251"/>
-      <c r="H69" s="251"/>
-      <c r="I69" s="251"/>
-      <c r="J69" s="251"/>
-      <c r="K69" s="251"/>
-      <c r="L69" s="251"/>
-      <c r="M69" s="251"/>
-      <c r="N69" s="251"/>
-      <c r="O69" s="251"/>
-      <c r="P69" s="251"/>
-      <c r="Q69" s="251"/>
-      <c r="R69" s="251"/>
-      <c r="S69" s="251"/>
-      <c r="T69" s="251"/>
-      <c r="U69" s="251"/>
-      <c r="V69" s="251"/>
-      <c r="W69" s="251"/>
-      <c r="X69" s="251"/>
-      <c r="Y69" s="251"/>
-      <c r="Z69" s="251"/>
-      <c r="AA69" s="251"/>
-      <c r="AB69" s="251"/>
-      <c r="AC69" s="251"/>
-      <c r="AD69" s="251"/>
-      <c r="AE69" s="251"/>
-      <c r="AF69" s="251"/>
-      <c r="AG69" s="251"/>
-      <c r="AH69" s="251"/>
-      <c r="AI69" s="251"/>
-      <c r="AJ69" s="251"/>
-      <c r="AK69" s="251"/>
-      <c r="AL69" s="251"/>
-      <c r="AM69" s="251"/>
-      <c r="AN69" s="251"/>
-      <c r="AO69" s="251"/>
-      <c r="AP69" s="251"/>
-      <c r="AQ69" s="251"/>
-      <c r="AR69" s="251"/>
-      <c r="AS69" s="251"/>
-      <c r="AT69" s="251"/>
-      <c r="AU69" s="251"/>
-      <c r="AV69" s="251"/>
-      <c r="AW69" s="251"/>
-      <c r="AX69" s="251"/>
-      <c r="AY69" s="251"/>
-      <c r="AZ69" s="251"/>
-      <c r="BA69" s="251"/>
-      <c r="BB69" s="251"/>
-      <c r="BC69" s="251"/>
-      <c r="BD69" s="251"/>
-      <c r="BE69" s="251"/>
-      <c r="BF69" s="251"/>
-      <c r="BG69" s="251"/>
-      <c r="BH69" s="251"/>
-      <c r="BI69" s="251"/>
-      <c r="BJ69" s="251"/>
-      <c r="BK69" s="251"/>
-      <c r="BL69" s="251"/>
-      <c r="BM69" s="251"/>
-      <c r="BN69" s="251"/>
-      <c r="BO69" s="251"/>
-      <c r="BP69" s="251"/>
-      <c r="BQ69" s="251"/>
-      <c r="BR69" s="251"/>
-      <c r="BS69" s="252"/>
+      <c r="D69" s="258"/>
+      <c r="E69" s="258"/>
+      <c r="F69" s="258"/>
+      <c r="G69" s="258"/>
+      <c r="H69" s="258"/>
+      <c r="I69" s="258"/>
+      <c r="J69" s="258"/>
+      <c r="K69" s="258"/>
+      <c r="L69" s="258"/>
+      <c r="M69" s="258"/>
+      <c r="N69" s="258"/>
+      <c r="O69" s="258"/>
+      <c r="P69" s="258"/>
+      <c r="Q69" s="258"/>
+      <c r="R69" s="258"/>
+      <c r="S69" s="258"/>
+      <c r="T69" s="258"/>
+      <c r="U69" s="258"/>
+      <c r="V69" s="258"/>
+      <c r="W69" s="258"/>
+      <c r="X69" s="258"/>
+      <c r="Y69" s="258"/>
+      <c r="Z69" s="258"/>
+      <c r="AA69" s="258"/>
+      <c r="AB69" s="258"/>
+      <c r="AC69" s="258"/>
+      <c r="AD69" s="258"/>
+      <c r="AE69" s="258"/>
+      <c r="AF69" s="258"/>
+      <c r="AG69" s="258"/>
+      <c r="AH69" s="258"/>
+      <c r="AI69" s="258"/>
+      <c r="AJ69" s="258"/>
+      <c r="AK69" s="258"/>
+      <c r="AL69" s="258"/>
+      <c r="AM69" s="258"/>
+      <c r="AN69" s="258"/>
+      <c r="AO69" s="258"/>
+      <c r="AP69" s="258"/>
+      <c r="AQ69" s="258"/>
+      <c r="AR69" s="258"/>
+      <c r="AS69" s="258"/>
+      <c r="AT69" s="258"/>
+      <c r="AU69" s="258"/>
+      <c r="AV69" s="258"/>
+      <c r="AW69" s="258"/>
+      <c r="AX69" s="258"/>
+      <c r="AY69" s="258"/>
+      <c r="AZ69" s="258"/>
+      <c r="BA69" s="258"/>
+      <c r="BB69" s="258"/>
+      <c r="BC69" s="258"/>
+      <c r="BD69" s="258"/>
+      <c r="BE69" s="258"/>
+      <c r="BF69" s="258"/>
+      <c r="BG69" s="258"/>
+      <c r="BH69" s="258"/>
+      <c r="BI69" s="258"/>
+      <c r="BJ69" s="258"/>
+      <c r="BK69" s="258"/>
+      <c r="BL69" s="258"/>
+      <c r="BM69" s="258"/>
+      <c r="BN69" s="258"/>
+      <c r="BO69" s="258"/>
+      <c r="BP69" s="258"/>
+      <c r="BQ69" s="258"/>
+      <c r="BR69" s="258"/>
+      <c r="BS69" s="259"/>
     </row>
     <row r="70" spans="1:71" s="90" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A70" s="40"/>
@@ -22906,77 +23053,77 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C70" s="255" t="s">
+      <c r="C70" s="260" t="s">
         <v>1213</v>
       </c>
-      <c r="D70" s="255"/>
-      <c r="E70" s="255"/>
-      <c r="F70" s="255"/>
-      <c r="G70" s="255"/>
-      <c r="H70" s="255"/>
-      <c r="I70" s="255"/>
-      <c r="J70" s="255"/>
-      <c r="K70" s="255"/>
-      <c r="L70" s="255"/>
-      <c r="M70" s="255"/>
-      <c r="N70" s="255"/>
-      <c r="O70" s="255"/>
-      <c r="P70" s="255"/>
-      <c r="Q70" s="255"/>
-      <c r="R70" s="255"/>
-      <c r="S70" s="255"/>
-      <c r="T70" s="255"/>
-      <c r="U70" s="255"/>
-      <c r="V70" s="255"/>
-      <c r="W70" s="255"/>
-      <c r="X70" s="255"/>
-      <c r="Y70" s="255"/>
-      <c r="Z70" s="255"/>
-      <c r="AA70" s="255"/>
-      <c r="AB70" s="255"/>
-      <c r="AC70" s="255"/>
-      <c r="AD70" s="255"/>
-      <c r="AE70" s="255"/>
-      <c r="AF70" s="255"/>
-      <c r="AG70" s="255"/>
-      <c r="AH70" s="255"/>
-      <c r="AI70" s="255"/>
-      <c r="AJ70" s="255"/>
-      <c r="AK70" s="255"/>
-      <c r="AL70" s="255"/>
-      <c r="AM70" s="255"/>
-      <c r="AN70" s="255"/>
-      <c r="AO70" s="255"/>
-      <c r="AP70" s="255"/>
-      <c r="AQ70" s="255"/>
-      <c r="AR70" s="255"/>
-      <c r="AS70" s="255"/>
-      <c r="AT70" s="255"/>
-      <c r="AU70" s="255"/>
-      <c r="AV70" s="255"/>
-      <c r="AW70" s="255"/>
-      <c r="AX70" s="255"/>
-      <c r="AY70" s="255"/>
-      <c r="AZ70" s="255"/>
-      <c r="BA70" s="255"/>
-      <c r="BB70" s="255"/>
-      <c r="BC70" s="255"/>
-      <c r="BD70" s="255"/>
-      <c r="BE70" s="255"/>
-      <c r="BF70" s="255"/>
-      <c r="BG70" s="255"/>
-      <c r="BH70" s="255"/>
-      <c r="BI70" s="255"/>
-      <c r="BJ70" s="255"/>
-      <c r="BK70" s="255"/>
-      <c r="BL70" s="255"/>
-      <c r="BM70" s="255"/>
-      <c r="BN70" s="255"/>
-      <c r="BO70" s="255"/>
-      <c r="BP70" s="255"/>
-      <c r="BQ70" s="255"/>
-      <c r="BR70" s="255"/>
-      <c r="BS70" s="256"/>
+      <c r="D70" s="260"/>
+      <c r="E70" s="260"/>
+      <c r="F70" s="260"/>
+      <c r="G70" s="260"/>
+      <c r="H70" s="260"/>
+      <c r="I70" s="260"/>
+      <c r="J70" s="260"/>
+      <c r="K70" s="260"/>
+      <c r="L70" s="260"/>
+      <c r="M70" s="260"/>
+      <c r="N70" s="260"/>
+      <c r="O70" s="260"/>
+      <c r="P70" s="260"/>
+      <c r="Q70" s="260"/>
+      <c r="R70" s="260"/>
+      <c r="S70" s="260"/>
+      <c r="T70" s="260"/>
+      <c r="U70" s="260"/>
+      <c r="V70" s="260"/>
+      <c r="W70" s="260"/>
+      <c r="X70" s="260"/>
+      <c r="Y70" s="260"/>
+      <c r="Z70" s="260"/>
+      <c r="AA70" s="260"/>
+      <c r="AB70" s="260"/>
+      <c r="AC70" s="260"/>
+      <c r="AD70" s="260"/>
+      <c r="AE70" s="260"/>
+      <c r="AF70" s="260"/>
+      <c r="AG70" s="260"/>
+      <c r="AH70" s="260"/>
+      <c r="AI70" s="260"/>
+      <c r="AJ70" s="260"/>
+      <c r="AK70" s="260"/>
+      <c r="AL70" s="260"/>
+      <c r="AM70" s="260"/>
+      <c r="AN70" s="260"/>
+      <c r="AO70" s="260"/>
+      <c r="AP70" s="260"/>
+      <c r="AQ70" s="260"/>
+      <c r="AR70" s="260"/>
+      <c r="AS70" s="260"/>
+      <c r="AT70" s="260"/>
+      <c r="AU70" s="260"/>
+      <c r="AV70" s="260"/>
+      <c r="AW70" s="260"/>
+      <c r="AX70" s="260"/>
+      <c r="AY70" s="260"/>
+      <c r="AZ70" s="260"/>
+      <c r="BA70" s="260"/>
+      <c r="BB70" s="260"/>
+      <c r="BC70" s="260"/>
+      <c r="BD70" s="260"/>
+      <c r="BE70" s="260"/>
+      <c r="BF70" s="260"/>
+      <c r="BG70" s="260"/>
+      <c r="BH70" s="260"/>
+      <c r="BI70" s="260"/>
+      <c r="BJ70" s="260"/>
+      <c r="BK70" s="260"/>
+      <c r="BL70" s="260"/>
+      <c r="BM70" s="260"/>
+      <c r="BN70" s="260"/>
+      <c r="BO70" s="260"/>
+      <c r="BP70" s="260"/>
+      <c r="BQ70" s="260"/>
+      <c r="BR70" s="260"/>
+      <c r="BS70" s="261"/>
     </row>
     <row r="71" spans="1:71" s="90" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A71" s="40"/>
@@ -22984,77 +23131,77 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="C71" s="253" t="s">
+      <c r="C71" s="254" t="s">
         <v>1212</v>
       </c>
-      <c r="D71" s="253"/>
-      <c r="E71" s="253"/>
-      <c r="F71" s="253"/>
-      <c r="G71" s="253"/>
-      <c r="H71" s="253"/>
-      <c r="I71" s="253"/>
-      <c r="J71" s="253"/>
-      <c r="K71" s="253"/>
-      <c r="L71" s="253"/>
-      <c r="M71" s="253"/>
-      <c r="N71" s="253"/>
-      <c r="O71" s="253"/>
-      <c r="P71" s="253"/>
-      <c r="Q71" s="253"/>
-      <c r="R71" s="253"/>
-      <c r="S71" s="253"/>
-      <c r="T71" s="253"/>
-      <c r="U71" s="253"/>
-      <c r="V71" s="253"/>
-      <c r="W71" s="253"/>
-      <c r="X71" s="253"/>
-      <c r="Y71" s="253"/>
-      <c r="Z71" s="253"/>
-      <c r="AA71" s="253"/>
-      <c r="AB71" s="253"/>
-      <c r="AC71" s="253"/>
-      <c r="AD71" s="253"/>
-      <c r="AE71" s="253"/>
-      <c r="AF71" s="253"/>
-      <c r="AG71" s="253"/>
-      <c r="AH71" s="253"/>
-      <c r="AI71" s="253"/>
-      <c r="AJ71" s="253"/>
-      <c r="AK71" s="253"/>
-      <c r="AL71" s="253"/>
-      <c r="AM71" s="253"/>
-      <c r="AN71" s="253"/>
-      <c r="AO71" s="253"/>
-      <c r="AP71" s="253"/>
-      <c r="AQ71" s="253"/>
-      <c r="AR71" s="253"/>
-      <c r="AS71" s="253"/>
-      <c r="AT71" s="253"/>
-      <c r="AU71" s="253"/>
-      <c r="AV71" s="253"/>
-      <c r="AW71" s="253"/>
-      <c r="AX71" s="253"/>
-      <c r="AY71" s="253"/>
-      <c r="AZ71" s="253"/>
-      <c r="BA71" s="253"/>
-      <c r="BB71" s="253"/>
-      <c r="BC71" s="253"/>
-      <c r="BD71" s="253"/>
-      <c r="BE71" s="253"/>
-      <c r="BF71" s="253"/>
-      <c r="BG71" s="253"/>
-      <c r="BH71" s="253"/>
-      <c r="BI71" s="253"/>
-      <c r="BJ71" s="253"/>
-      <c r="BK71" s="253"/>
-      <c r="BL71" s="253"/>
-      <c r="BM71" s="253"/>
-      <c r="BN71" s="253"/>
-      <c r="BO71" s="253"/>
-      <c r="BP71" s="253"/>
-      <c r="BQ71" s="253"/>
-      <c r="BR71" s="253"/>
-      <c r="BS71" s="254"/>
+      <c r="D71" s="254"/>
+      <c r="E71" s="254"/>
+      <c r="F71" s="254"/>
+      <c r="G71" s="254"/>
+      <c r="H71" s="254"/>
+      <c r="I71" s="254"/>
+      <c r="J71" s="254"/>
+      <c r="K71" s="254"/>
+      <c r="L71" s="254"/>
+      <c r="M71" s="254"/>
+      <c r="N71" s="254"/>
+      <c r="O71" s="254"/>
+      <c r="P71" s="254"/>
+      <c r="Q71" s="254"/>
+      <c r="R71" s="254"/>
+      <c r="S71" s="254"/>
+      <c r="T71" s="254"/>
+      <c r="U71" s="254"/>
+      <c r="V71" s="254"/>
+      <c r="W71" s="254"/>
+      <c r="X71" s="254"/>
+      <c r="Y71" s="254"/>
+      <c r="Z71" s="254"/>
+      <c r="AA71" s="254"/>
+      <c r="AB71" s="254"/>
+      <c r="AC71" s="254"/>
+      <c r="AD71" s="254"/>
+      <c r="AE71" s="254"/>
+      <c r="AF71" s="254"/>
+      <c r="AG71" s="254"/>
+      <c r="AH71" s="254"/>
+      <c r="AI71" s="254"/>
+      <c r="AJ71" s="254"/>
+      <c r="AK71" s="254"/>
+      <c r="AL71" s="254"/>
+      <c r="AM71" s="254"/>
+      <c r="AN71" s="254"/>
+      <c r="AO71" s="254"/>
+      <c r="AP71" s="254"/>
+      <c r="AQ71" s="254"/>
+      <c r="AR71" s="254"/>
+      <c r="AS71" s="254"/>
+      <c r="AT71" s="254"/>
+      <c r="AU71" s="254"/>
+      <c r="AV71" s="254"/>
+      <c r="AW71" s="254"/>
+      <c r="AX71" s="254"/>
+      <c r="AY71" s="254"/>
+      <c r="AZ71" s="254"/>
+      <c r="BA71" s="254"/>
+      <c r="BB71" s="254"/>
+      <c r="BC71" s="254"/>
+      <c r="BD71" s="254"/>
+      <c r="BE71" s="254"/>
+      <c r="BF71" s="254"/>
+      <c r="BG71" s="254"/>
+      <c r="BH71" s="254"/>
+      <c r="BI71" s="254"/>
+      <c r="BJ71" s="254"/>
+      <c r="BK71" s="254"/>
+      <c r="BL71" s="254"/>
+      <c r="BM71" s="254"/>
+      <c r="BN71" s="254"/>
+      <c r="BO71" s="254"/>
+      <c r="BP71" s="254"/>
+      <c r="BQ71" s="254"/>
+      <c r="BR71" s="254"/>
+      <c r="BS71" s="255"/>
     </row>
     <row r="72" spans="1:71" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="A72" s="40"/>
@@ -23062,77 +23209,77 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C72" s="249" t="s">
+      <c r="C72" s="256" t="s">
         <v>1211</v>
       </c>
-      <c r="D72" s="249"/>
-      <c r="E72" s="249"/>
-      <c r="F72" s="249"/>
-      <c r="G72" s="249"/>
-      <c r="H72" s="249"/>
-      <c r="I72" s="249"/>
-      <c r="J72" s="249"/>
-      <c r="K72" s="249"/>
-      <c r="L72" s="249"/>
-      <c r="M72" s="249"/>
-      <c r="N72" s="249"/>
-      <c r="O72" s="249"/>
-      <c r="P72" s="249"/>
-      <c r="Q72" s="249"/>
-      <c r="R72" s="249"/>
-      <c r="S72" s="249"/>
-      <c r="T72" s="249"/>
-      <c r="U72" s="249"/>
-      <c r="V72" s="249"/>
-      <c r="W72" s="249"/>
-      <c r="X72" s="249"/>
-      <c r="Y72" s="249"/>
-      <c r="Z72" s="249"/>
-      <c r="AA72" s="249"/>
-      <c r="AB72" s="249"/>
-      <c r="AC72" s="249"/>
-      <c r="AD72" s="249"/>
-      <c r="AE72" s="249"/>
-      <c r="AF72" s="249"/>
-      <c r="AG72" s="249"/>
-      <c r="AH72" s="249"/>
-      <c r="AI72" s="249"/>
-      <c r="AJ72" s="249"/>
-      <c r="AK72" s="249"/>
-      <c r="AL72" s="249"/>
-      <c r="AM72" s="249"/>
-      <c r="AN72" s="249"/>
-      <c r="AO72" s="249"/>
-      <c r="AP72" s="249"/>
-      <c r="AQ72" s="249"/>
-      <c r="AR72" s="249"/>
-      <c r="AS72" s="249"/>
-      <c r="AT72" s="249"/>
-      <c r="AU72" s="249"/>
-      <c r="AV72" s="249"/>
-      <c r="AW72" s="249"/>
-      <c r="AX72" s="249"/>
-      <c r="AY72" s="249"/>
-      <c r="AZ72" s="249"/>
-      <c r="BA72" s="249"/>
-      <c r="BB72" s="249"/>
-      <c r="BC72" s="249"/>
-      <c r="BD72" s="249"/>
-      <c r="BE72" s="249"/>
-      <c r="BF72" s="249"/>
-      <c r="BG72" s="249"/>
-      <c r="BH72" s="249"/>
-      <c r="BI72" s="249"/>
-      <c r="BJ72" s="249"/>
-      <c r="BK72" s="249"/>
-      <c r="BL72" s="249"/>
-      <c r="BM72" s="249"/>
-      <c r="BN72" s="249"/>
-      <c r="BO72" s="249"/>
-      <c r="BP72" s="249"/>
-      <c r="BQ72" s="249"/>
-      <c r="BR72" s="249"/>
-      <c r="BS72" s="250"/>
+      <c r="D72" s="256"/>
+      <c r="E72" s="256"/>
+      <c r="F72" s="256"/>
+      <c r="G72" s="256"/>
+      <c r="H72" s="256"/>
+      <c r="I72" s="256"/>
+      <c r="J72" s="256"/>
+      <c r="K72" s="256"/>
+      <c r="L72" s="256"/>
+      <c r="M72" s="256"/>
+      <c r="N72" s="256"/>
+      <c r="O72" s="256"/>
+      <c r="P72" s="256"/>
+      <c r="Q72" s="256"/>
+      <c r="R72" s="256"/>
+      <c r="S72" s="256"/>
+      <c r="T72" s="256"/>
+      <c r="U72" s="256"/>
+      <c r="V72" s="256"/>
+      <c r="W72" s="256"/>
+      <c r="X72" s="256"/>
+      <c r="Y72" s="256"/>
+      <c r="Z72" s="256"/>
+      <c r="AA72" s="256"/>
+      <c r="AB72" s="256"/>
+      <c r="AC72" s="256"/>
+      <c r="AD72" s="256"/>
+      <c r="AE72" s="256"/>
+      <c r="AF72" s="256"/>
+      <c r="AG72" s="256"/>
+      <c r="AH72" s="256"/>
+      <c r="AI72" s="256"/>
+      <c r="AJ72" s="256"/>
+      <c r="AK72" s="256"/>
+      <c r="AL72" s="256"/>
+      <c r="AM72" s="256"/>
+      <c r="AN72" s="256"/>
+      <c r="AO72" s="256"/>
+      <c r="AP72" s="256"/>
+      <c r="AQ72" s="256"/>
+      <c r="AR72" s="256"/>
+      <c r="AS72" s="256"/>
+      <c r="AT72" s="256"/>
+      <c r="AU72" s="256"/>
+      <c r="AV72" s="256"/>
+      <c r="AW72" s="256"/>
+      <c r="AX72" s="256"/>
+      <c r="AY72" s="256"/>
+      <c r="AZ72" s="256"/>
+      <c r="BA72" s="256"/>
+      <c r="BB72" s="256"/>
+      <c r="BC72" s="256"/>
+      <c r="BD72" s="256"/>
+      <c r="BE72" s="256"/>
+      <c r="BF72" s="256"/>
+      <c r="BG72" s="256"/>
+      <c r="BH72" s="256"/>
+      <c r="BI72" s="256"/>
+      <c r="BJ72" s="256"/>
+      <c r="BK72" s="256"/>
+      <c r="BL72" s="256"/>
+      <c r="BM72" s="256"/>
+      <c r="BN72" s="256"/>
+      <c r="BO72" s="256"/>
+      <c r="BP72" s="256"/>
+      <c r="BQ72" s="256"/>
+      <c r="BR72" s="256"/>
+      <c r="BS72" s="257"/>
     </row>
     <row r="73" spans="1:71" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="A73" s="40"/>
@@ -23140,77 +23287,77 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C73" s="251" t="s">
+      <c r="C73" s="258" t="s">
         <v>1210</v>
       </c>
-      <c r="D73" s="251"/>
-      <c r="E73" s="251"/>
-      <c r="F73" s="251"/>
-      <c r="G73" s="251"/>
-      <c r="H73" s="251"/>
-      <c r="I73" s="251"/>
-      <c r="J73" s="251"/>
-      <c r="K73" s="251"/>
-      <c r="L73" s="251"/>
-      <c r="M73" s="251"/>
-      <c r="N73" s="251"/>
-      <c r="O73" s="251"/>
-      <c r="P73" s="251"/>
-      <c r="Q73" s="251"/>
-      <c r="R73" s="251"/>
-      <c r="S73" s="251"/>
-      <c r="T73" s="251"/>
-      <c r="U73" s="251"/>
-      <c r="V73" s="251"/>
-      <c r="W73" s="251"/>
-      <c r="X73" s="251"/>
-      <c r="Y73" s="251"/>
-      <c r="Z73" s="251"/>
-      <c r="AA73" s="251"/>
-      <c r="AB73" s="251"/>
-      <c r="AC73" s="251"/>
-      <c r="AD73" s="251"/>
-      <c r="AE73" s="251"/>
-      <c r="AF73" s="251"/>
-      <c r="AG73" s="251"/>
-      <c r="AH73" s="251"/>
-      <c r="AI73" s="251"/>
-      <c r="AJ73" s="251"/>
-      <c r="AK73" s="251"/>
-      <c r="AL73" s="251"/>
-      <c r="AM73" s="251"/>
-      <c r="AN73" s="251"/>
-      <c r="AO73" s="251"/>
-      <c r="AP73" s="251"/>
-      <c r="AQ73" s="251"/>
-      <c r="AR73" s="251"/>
-      <c r="AS73" s="251"/>
-      <c r="AT73" s="251"/>
-      <c r="AU73" s="251"/>
-      <c r="AV73" s="251"/>
-      <c r="AW73" s="251"/>
-      <c r="AX73" s="251"/>
-      <c r="AY73" s="251"/>
-      <c r="AZ73" s="251"/>
-      <c r="BA73" s="251"/>
-      <c r="BB73" s="251"/>
-      <c r="BC73" s="251"/>
-      <c r="BD73" s="251"/>
-      <c r="BE73" s="251"/>
-      <c r="BF73" s="251"/>
-      <c r="BG73" s="251"/>
-      <c r="BH73" s="251"/>
-      <c r="BI73" s="251"/>
-      <c r="BJ73" s="251"/>
-      <c r="BK73" s="251"/>
-      <c r="BL73" s="251"/>
-      <c r="BM73" s="251"/>
-      <c r="BN73" s="251"/>
-      <c r="BO73" s="251"/>
-      <c r="BP73" s="251"/>
-      <c r="BQ73" s="251"/>
-      <c r="BR73" s="251"/>
-      <c r="BS73" s="252"/>
+      <c r="D73" s="258"/>
+      <c r="E73" s="258"/>
+      <c r="F73" s="258"/>
+      <c r="G73" s="258"/>
+      <c r="H73" s="258"/>
+      <c r="I73" s="258"/>
+      <c r="J73" s="258"/>
+      <c r="K73" s="258"/>
+      <c r="L73" s="258"/>
+      <c r="M73" s="258"/>
+      <c r="N73" s="258"/>
+      <c r="O73" s="258"/>
+      <c r="P73" s="258"/>
+      <c r="Q73" s="258"/>
+      <c r="R73" s="258"/>
+      <c r="S73" s="258"/>
+      <c r="T73" s="258"/>
+      <c r="U73" s="258"/>
+      <c r="V73" s="258"/>
+      <c r="W73" s="258"/>
+      <c r="X73" s="258"/>
+      <c r="Y73" s="258"/>
+      <c r="Z73" s="258"/>
+      <c r="AA73" s="258"/>
+      <c r="AB73" s="258"/>
+      <c r="AC73" s="258"/>
+      <c r="AD73" s="258"/>
+      <c r="AE73" s="258"/>
+      <c r="AF73" s="258"/>
+      <c r="AG73" s="258"/>
+      <c r="AH73" s="258"/>
+      <c r="AI73" s="258"/>
+      <c r="AJ73" s="258"/>
+      <c r="AK73" s="258"/>
+      <c r="AL73" s="258"/>
+      <c r="AM73" s="258"/>
+      <c r="AN73" s="258"/>
+      <c r="AO73" s="258"/>
+      <c r="AP73" s="258"/>
+      <c r="AQ73" s="258"/>
+      <c r="AR73" s="258"/>
+      <c r="AS73" s="258"/>
+      <c r="AT73" s="258"/>
+      <c r="AU73" s="258"/>
+      <c r="AV73" s="258"/>
+      <c r="AW73" s="258"/>
+      <c r="AX73" s="258"/>
+      <c r="AY73" s="258"/>
+      <c r="AZ73" s="258"/>
+      <c r="BA73" s="258"/>
+      <c r="BB73" s="258"/>
+      <c r="BC73" s="258"/>
+      <c r="BD73" s="258"/>
+      <c r="BE73" s="258"/>
+      <c r="BF73" s="258"/>
+      <c r="BG73" s="258"/>
+      <c r="BH73" s="258"/>
+      <c r="BI73" s="258"/>
+      <c r="BJ73" s="258"/>
+      <c r="BK73" s="258"/>
+      <c r="BL73" s="258"/>
+      <c r="BM73" s="258"/>
+      <c r="BN73" s="258"/>
+      <c r="BO73" s="258"/>
+      <c r="BP73" s="258"/>
+      <c r="BQ73" s="258"/>
+      <c r="BR73" s="258"/>
+      <c r="BS73" s="259"/>
     </row>
     <row r="74" spans="1:71" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="A74" s="40"/>
@@ -23218,2792 +23365,2811 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C74" s="251" t="s">
+      <c r="C74" s="258" t="s">
         <v>1209</v>
       </c>
-      <c r="D74" s="251"/>
-      <c r="E74" s="251"/>
-      <c r="F74" s="251"/>
-      <c r="G74" s="251"/>
-      <c r="H74" s="251"/>
-      <c r="I74" s="251"/>
-      <c r="J74" s="251"/>
-      <c r="K74" s="251"/>
-      <c r="L74" s="251"/>
-      <c r="M74" s="251"/>
-      <c r="N74" s="251"/>
-      <c r="O74" s="251"/>
-      <c r="P74" s="251"/>
-      <c r="Q74" s="251"/>
-      <c r="R74" s="251"/>
-      <c r="S74" s="251"/>
-      <c r="T74" s="251"/>
-      <c r="U74" s="251"/>
-      <c r="V74" s="251"/>
-      <c r="W74" s="251"/>
-      <c r="X74" s="251"/>
-      <c r="Y74" s="251"/>
-      <c r="Z74" s="251"/>
-      <c r="AA74" s="251"/>
-      <c r="AB74" s="251"/>
-      <c r="AC74" s="251"/>
-      <c r="AD74" s="251"/>
-      <c r="AE74" s="251"/>
-      <c r="AF74" s="251"/>
-      <c r="AG74" s="251"/>
-      <c r="AH74" s="251"/>
-      <c r="AI74" s="251"/>
-      <c r="AJ74" s="251"/>
-      <c r="AK74" s="251"/>
-      <c r="AL74" s="251"/>
-      <c r="AM74" s="251"/>
-      <c r="AN74" s="251"/>
-      <c r="AO74" s="251"/>
-      <c r="AP74" s="251"/>
-      <c r="AQ74" s="251"/>
-      <c r="AR74" s="251"/>
-      <c r="AS74" s="251"/>
-      <c r="AT74" s="251"/>
-      <c r="AU74" s="251"/>
-      <c r="AV74" s="251"/>
-      <c r="AW74" s="251"/>
-      <c r="AX74" s="251"/>
-      <c r="AY74" s="251"/>
-      <c r="AZ74" s="251"/>
-      <c r="BA74" s="251"/>
-      <c r="BB74" s="251"/>
-      <c r="BC74" s="251"/>
-      <c r="BD74" s="251"/>
-      <c r="BE74" s="251"/>
-      <c r="BF74" s="251"/>
-      <c r="BG74" s="251"/>
-      <c r="BH74" s="251"/>
-      <c r="BI74" s="251"/>
-      <c r="BJ74" s="251"/>
-      <c r="BK74" s="251"/>
-      <c r="BL74" s="251"/>
-      <c r="BM74" s="251"/>
-      <c r="BN74" s="251"/>
-      <c r="BO74" s="251"/>
-      <c r="BP74" s="251"/>
-      <c r="BQ74" s="251"/>
-      <c r="BR74" s="251"/>
-      <c r="BS74" s="252"/>
+      <c r="D74" s="258"/>
+      <c r="E74" s="258"/>
+      <c r="F74" s="258"/>
+      <c r="G74" s="258"/>
+      <c r="H74" s="258"/>
+      <c r="I74" s="258"/>
+      <c r="J74" s="258"/>
+      <c r="K74" s="258"/>
+      <c r="L74" s="258"/>
+      <c r="M74" s="258"/>
+      <c r="N74" s="258"/>
+      <c r="O74" s="258"/>
+      <c r="P74" s="258"/>
+      <c r="Q74" s="258"/>
+      <c r="R74" s="258"/>
+      <c r="S74" s="258"/>
+      <c r="T74" s="258"/>
+      <c r="U74" s="258"/>
+      <c r="V74" s="258"/>
+      <c r="W74" s="258"/>
+      <c r="X74" s="258"/>
+      <c r="Y74" s="258"/>
+      <c r="Z74" s="258"/>
+      <c r="AA74" s="258"/>
+      <c r="AB74" s="258"/>
+      <c r="AC74" s="258"/>
+      <c r="AD74" s="258"/>
+      <c r="AE74" s="258"/>
+      <c r="AF74" s="258"/>
+      <c r="AG74" s="258"/>
+      <c r="AH74" s="258"/>
+      <c r="AI74" s="258"/>
+      <c r="AJ74" s="258"/>
+      <c r="AK74" s="258"/>
+      <c r="AL74" s="258"/>
+      <c r="AM74" s="258"/>
+      <c r="AN74" s="258"/>
+      <c r="AO74" s="258"/>
+      <c r="AP74" s="258"/>
+      <c r="AQ74" s="258"/>
+      <c r="AR74" s="258"/>
+      <c r="AS74" s="258"/>
+      <c r="AT74" s="258"/>
+      <c r="AU74" s="258"/>
+      <c r="AV74" s="258"/>
+      <c r="AW74" s="258"/>
+      <c r="AX74" s="258"/>
+      <c r="AY74" s="258"/>
+      <c r="AZ74" s="258"/>
+      <c r="BA74" s="258"/>
+      <c r="BB74" s="258"/>
+      <c r="BC74" s="258"/>
+      <c r="BD74" s="258"/>
+      <c r="BE74" s="258"/>
+      <c r="BF74" s="258"/>
+      <c r="BG74" s="258"/>
+      <c r="BH74" s="258"/>
+      <c r="BI74" s="258"/>
+      <c r="BJ74" s="258"/>
+      <c r="BK74" s="258"/>
+      <c r="BL74" s="258"/>
+      <c r="BM74" s="258"/>
+      <c r="BN74" s="258"/>
+      <c r="BO74" s="258"/>
+      <c r="BP74" s="258"/>
+      <c r="BQ74" s="258"/>
+      <c r="BR74" s="258"/>
+      <c r="BS74" s="259"/>
     </row>
     <row r="75" spans="1:71" ht="5.0999999999999996" customHeight="1">
       <c r="B75" s="209" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C75" s="251" t="s">
+      <c r="C75" s="258" t="s">
         <v>1208</v>
       </c>
-      <c r="D75" s="251"/>
-      <c r="E75" s="251"/>
-      <c r="F75" s="251"/>
-      <c r="G75" s="251"/>
-      <c r="H75" s="251"/>
-      <c r="I75" s="251"/>
-      <c r="J75" s="251"/>
-      <c r="K75" s="251"/>
-      <c r="L75" s="251"/>
-      <c r="M75" s="251"/>
-      <c r="N75" s="251"/>
-      <c r="O75" s="251"/>
-      <c r="P75" s="251"/>
-      <c r="Q75" s="251"/>
-      <c r="R75" s="251"/>
-      <c r="S75" s="251"/>
-      <c r="T75" s="251"/>
-      <c r="U75" s="251"/>
-      <c r="V75" s="251"/>
-      <c r="W75" s="251"/>
-      <c r="X75" s="251"/>
-      <c r="Y75" s="251"/>
-      <c r="Z75" s="251"/>
-      <c r="AA75" s="251"/>
-      <c r="AB75" s="251"/>
-      <c r="AC75" s="251"/>
-      <c r="AD75" s="251"/>
-      <c r="AE75" s="251"/>
-      <c r="AF75" s="251"/>
-      <c r="AG75" s="251"/>
-      <c r="AH75" s="251"/>
-      <c r="AI75" s="251"/>
-      <c r="AJ75" s="251"/>
-      <c r="AK75" s="251"/>
-      <c r="AL75" s="251"/>
-      <c r="AM75" s="251"/>
-      <c r="AN75" s="251"/>
-      <c r="AO75" s="251"/>
-      <c r="AP75" s="251"/>
-      <c r="AQ75" s="251"/>
-      <c r="AR75" s="251"/>
-      <c r="AS75" s="251"/>
-      <c r="AT75" s="251"/>
-      <c r="AU75" s="251"/>
-      <c r="AV75" s="251"/>
-      <c r="AW75" s="251"/>
-      <c r="AX75" s="251"/>
-      <c r="AY75" s="251"/>
-      <c r="AZ75" s="251"/>
-      <c r="BA75" s="251"/>
-      <c r="BB75" s="251"/>
-      <c r="BC75" s="251"/>
-      <c r="BD75" s="251"/>
-      <c r="BE75" s="251"/>
-      <c r="BF75" s="251"/>
-      <c r="BG75" s="251"/>
-      <c r="BH75" s="251"/>
-      <c r="BI75" s="251"/>
-      <c r="BJ75" s="251"/>
-      <c r="BK75" s="251"/>
-      <c r="BL75" s="251"/>
-      <c r="BM75" s="251"/>
-      <c r="BN75" s="251"/>
-      <c r="BO75" s="251"/>
-      <c r="BP75" s="251"/>
-      <c r="BQ75" s="251"/>
-      <c r="BR75" s="251"/>
-      <c r="BS75" s="252"/>
+      <c r="D75" s="258"/>
+      <c r="E75" s="258"/>
+      <c r="F75" s="258"/>
+      <c r="G75" s="258"/>
+      <c r="H75" s="258"/>
+      <c r="I75" s="258"/>
+      <c r="J75" s="258"/>
+      <c r="K75" s="258"/>
+      <c r="L75" s="258"/>
+      <c r="M75" s="258"/>
+      <c r="N75" s="258"/>
+      <c r="O75" s="258"/>
+      <c r="P75" s="258"/>
+      <c r="Q75" s="258"/>
+      <c r="R75" s="258"/>
+      <c r="S75" s="258"/>
+      <c r="T75" s="258"/>
+      <c r="U75" s="258"/>
+      <c r="V75" s="258"/>
+      <c r="W75" s="258"/>
+      <c r="X75" s="258"/>
+      <c r="Y75" s="258"/>
+      <c r="Z75" s="258"/>
+      <c r="AA75" s="258"/>
+      <c r="AB75" s="258"/>
+      <c r="AC75" s="258"/>
+      <c r="AD75" s="258"/>
+      <c r="AE75" s="258"/>
+      <c r="AF75" s="258"/>
+      <c r="AG75" s="258"/>
+      <c r="AH75" s="258"/>
+      <c r="AI75" s="258"/>
+      <c r="AJ75" s="258"/>
+      <c r="AK75" s="258"/>
+      <c r="AL75" s="258"/>
+      <c r="AM75" s="258"/>
+      <c r="AN75" s="258"/>
+      <c r="AO75" s="258"/>
+      <c r="AP75" s="258"/>
+      <c r="AQ75" s="258"/>
+      <c r="AR75" s="258"/>
+      <c r="AS75" s="258"/>
+      <c r="AT75" s="258"/>
+      <c r="AU75" s="258"/>
+      <c r="AV75" s="258"/>
+      <c r="AW75" s="258"/>
+      <c r="AX75" s="258"/>
+      <c r="AY75" s="258"/>
+      <c r="AZ75" s="258"/>
+      <c r="BA75" s="258"/>
+      <c r="BB75" s="258"/>
+      <c r="BC75" s="258"/>
+      <c r="BD75" s="258"/>
+      <c r="BE75" s="258"/>
+      <c r="BF75" s="258"/>
+      <c r="BG75" s="258"/>
+      <c r="BH75" s="258"/>
+      <c r="BI75" s="258"/>
+      <c r="BJ75" s="258"/>
+      <c r="BK75" s="258"/>
+      <c r="BL75" s="258"/>
+      <c r="BM75" s="258"/>
+      <c r="BN75" s="258"/>
+      <c r="BO75" s="258"/>
+      <c r="BP75" s="258"/>
+      <c r="BQ75" s="258"/>
+      <c r="BR75" s="258"/>
+      <c r="BS75" s="259"/>
     </row>
     <row r="76" spans="1:71" ht="17.25" thickBot="1">
       <c r="B76" s="208" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C76" s="255" t="s">
+      <c r="C76" s="260" t="s">
         <v>1207</v>
       </c>
-      <c r="D76" s="255"/>
-      <c r="E76" s="255"/>
-      <c r="F76" s="255"/>
-      <c r="G76" s="255"/>
-      <c r="H76" s="255"/>
-      <c r="I76" s="255"/>
-      <c r="J76" s="255"/>
-      <c r="K76" s="255"/>
-      <c r="L76" s="255"/>
-      <c r="M76" s="255"/>
-      <c r="N76" s="255"/>
-      <c r="O76" s="255"/>
-      <c r="P76" s="255"/>
-      <c r="Q76" s="255"/>
-      <c r="R76" s="255"/>
-      <c r="S76" s="255"/>
-      <c r="T76" s="255"/>
-      <c r="U76" s="255"/>
-      <c r="V76" s="255"/>
-      <c r="W76" s="255"/>
-      <c r="X76" s="255"/>
-      <c r="Y76" s="255"/>
-      <c r="Z76" s="255"/>
-      <c r="AA76" s="255"/>
-      <c r="AB76" s="255"/>
-      <c r="AC76" s="255"/>
-      <c r="AD76" s="255"/>
-      <c r="AE76" s="255"/>
-      <c r="AF76" s="255"/>
-      <c r="AG76" s="255"/>
-      <c r="AH76" s="255"/>
-      <c r="AI76" s="255"/>
-      <c r="AJ76" s="255"/>
-      <c r="AK76" s="255"/>
-      <c r="AL76" s="255"/>
-      <c r="AM76" s="255"/>
-      <c r="AN76" s="255"/>
-      <c r="AO76" s="255"/>
-      <c r="AP76" s="255"/>
-      <c r="AQ76" s="255"/>
-      <c r="AR76" s="255"/>
-      <c r="AS76" s="255"/>
-      <c r="AT76" s="255"/>
-      <c r="AU76" s="255"/>
-      <c r="AV76" s="255"/>
-      <c r="AW76" s="255"/>
-      <c r="AX76" s="255"/>
-      <c r="AY76" s="255"/>
-      <c r="AZ76" s="255"/>
-      <c r="BA76" s="255"/>
-      <c r="BB76" s="255"/>
-      <c r="BC76" s="255"/>
-      <c r="BD76" s="255"/>
-      <c r="BE76" s="255"/>
-      <c r="BF76" s="255"/>
-      <c r="BG76" s="255"/>
-      <c r="BH76" s="255"/>
-      <c r="BI76" s="255"/>
-      <c r="BJ76" s="255"/>
-      <c r="BK76" s="255"/>
-      <c r="BL76" s="255"/>
-      <c r="BM76" s="255"/>
-      <c r="BN76" s="255"/>
-      <c r="BO76" s="255"/>
-      <c r="BP76" s="255"/>
-      <c r="BQ76" s="255"/>
-      <c r="BR76" s="255"/>
-      <c r="BS76" s="256"/>
+      <c r="D76" s="260"/>
+      <c r="E76" s="260"/>
+      <c r="F76" s="260"/>
+      <c r="G76" s="260"/>
+      <c r="H76" s="260"/>
+      <c r="I76" s="260"/>
+      <c r="J76" s="260"/>
+      <c r="K76" s="260"/>
+      <c r="L76" s="260"/>
+      <c r="M76" s="260"/>
+      <c r="N76" s="260"/>
+      <c r="O76" s="260"/>
+      <c r="P76" s="260"/>
+      <c r="Q76" s="260"/>
+      <c r="R76" s="260"/>
+      <c r="S76" s="260"/>
+      <c r="T76" s="260"/>
+      <c r="U76" s="260"/>
+      <c r="V76" s="260"/>
+      <c r="W76" s="260"/>
+      <c r="X76" s="260"/>
+      <c r="Y76" s="260"/>
+      <c r="Z76" s="260"/>
+      <c r="AA76" s="260"/>
+      <c r="AB76" s="260"/>
+      <c r="AC76" s="260"/>
+      <c r="AD76" s="260"/>
+      <c r="AE76" s="260"/>
+      <c r="AF76" s="260"/>
+      <c r="AG76" s="260"/>
+      <c r="AH76" s="260"/>
+      <c r="AI76" s="260"/>
+      <c r="AJ76" s="260"/>
+      <c r="AK76" s="260"/>
+      <c r="AL76" s="260"/>
+      <c r="AM76" s="260"/>
+      <c r="AN76" s="260"/>
+      <c r="AO76" s="260"/>
+      <c r="AP76" s="260"/>
+      <c r="AQ76" s="260"/>
+      <c r="AR76" s="260"/>
+      <c r="AS76" s="260"/>
+      <c r="AT76" s="260"/>
+      <c r="AU76" s="260"/>
+      <c r="AV76" s="260"/>
+      <c r="AW76" s="260"/>
+      <c r="AX76" s="260"/>
+      <c r="AY76" s="260"/>
+      <c r="AZ76" s="260"/>
+      <c r="BA76" s="260"/>
+      <c r="BB76" s="260"/>
+      <c r="BC76" s="260"/>
+      <c r="BD76" s="260"/>
+      <c r="BE76" s="260"/>
+      <c r="BF76" s="260"/>
+      <c r="BG76" s="260"/>
+      <c r="BH76" s="260"/>
+      <c r="BI76" s="260"/>
+      <c r="BJ76" s="260"/>
+      <c r="BK76" s="260"/>
+      <c r="BL76" s="260"/>
+      <c r="BM76" s="260"/>
+      <c r="BN76" s="260"/>
+      <c r="BO76" s="260"/>
+      <c r="BP76" s="260"/>
+      <c r="BQ76" s="260"/>
+      <c r="BR76" s="260"/>
+      <c r="BS76" s="261"/>
     </row>
     <row r="77" spans="1:71" ht="17.25" thickBot="1">
       <c r="B77" s="212" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="C77" s="253" t="s">
+      <c r="C77" s="254" t="s">
         <v>1206</v>
       </c>
-      <c r="D77" s="253"/>
-      <c r="E77" s="253"/>
-      <c r="F77" s="253"/>
-      <c r="G77" s="253"/>
-      <c r="H77" s="253"/>
-      <c r="I77" s="253"/>
-      <c r="J77" s="253"/>
-      <c r="K77" s="253"/>
-      <c r="L77" s="253"/>
-      <c r="M77" s="253"/>
-      <c r="N77" s="253"/>
-      <c r="O77" s="253"/>
-      <c r="P77" s="253"/>
-      <c r="Q77" s="253"/>
-      <c r="R77" s="253"/>
-      <c r="S77" s="253"/>
-      <c r="T77" s="253"/>
-      <c r="U77" s="253"/>
-      <c r="V77" s="253"/>
-      <c r="W77" s="253"/>
-      <c r="X77" s="253"/>
-      <c r="Y77" s="253"/>
-      <c r="Z77" s="253"/>
-      <c r="AA77" s="253"/>
-      <c r="AB77" s="253"/>
-      <c r="AC77" s="253"/>
-      <c r="AD77" s="253"/>
-      <c r="AE77" s="253"/>
-      <c r="AF77" s="253"/>
-      <c r="AG77" s="253"/>
-      <c r="AH77" s="253"/>
-      <c r="AI77" s="253"/>
-      <c r="AJ77" s="253"/>
-      <c r="AK77" s="253"/>
-      <c r="AL77" s="253"/>
-      <c r="AM77" s="253"/>
-      <c r="AN77" s="253"/>
-      <c r="AO77" s="253"/>
-      <c r="AP77" s="253"/>
-      <c r="AQ77" s="253"/>
-      <c r="AR77" s="253"/>
-      <c r="AS77" s="253"/>
-      <c r="AT77" s="253"/>
-      <c r="AU77" s="253"/>
-      <c r="AV77" s="253"/>
-      <c r="AW77" s="253"/>
-      <c r="AX77" s="253"/>
-      <c r="AY77" s="253"/>
-      <c r="AZ77" s="253"/>
-      <c r="BA77" s="253"/>
-      <c r="BB77" s="253"/>
-      <c r="BC77" s="253"/>
-      <c r="BD77" s="253"/>
-      <c r="BE77" s="253"/>
-      <c r="BF77" s="253"/>
-      <c r="BG77" s="253"/>
-      <c r="BH77" s="253"/>
-      <c r="BI77" s="253"/>
-      <c r="BJ77" s="253"/>
-      <c r="BK77" s="253"/>
-      <c r="BL77" s="253"/>
-      <c r="BM77" s="253"/>
-      <c r="BN77" s="253"/>
-      <c r="BO77" s="253"/>
-      <c r="BP77" s="253"/>
-      <c r="BQ77" s="253"/>
-      <c r="BR77" s="253"/>
-      <c r="BS77" s="254"/>
+      <c r="D77" s="254"/>
+      <c r="E77" s="254"/>
+      <c r="F77" s="254"/>
+      <c r="G77" s="254"/>
+      <c r="H77" s="254"/>
+      <c r="I77" s="254"/>
+      <c r="J77" s="254"/>
+      <c r="K77" s="254"/>
+      <c r="L77" s="254"/>
+      <c r="M77" s="254"/>
+      <c r="N77" s="254"/>
+      <c r="O77" s="254"/>
+      <c r="P77" s="254"/>
+      <c r="Q77" s="254"/>
+      <c r="R77" s="254"/>
+      <c r="S77" s="254"/>
+      <c r="T77" s="254"/>
+      <c r="U77" s="254"/>
+      <c r="V77" s="254"/>
+      <c r="W77" s="254"/>
+      <c r="X77" s="254"/>
+      <c r="Y77" s="254"/>
+      <c r="Z77" s="254"/>
+      <c r="AA77" s="254"/>
+      <c r="AB77" s="254"/>
+      <c r="AC77" s="254"/>
+      <c r="AD77" s="254"/>
+      <c r="AE77" s="254"/>
+      <c r="AF77" s="254"/>
+      <c r="AG77" s="254"/>
+      <c r="AH77" s="254"/>
+      <c r="AI77" s="254"/>
+      <c r="AJ77" s="254"/>
+      <c r="AK77" s="254"/>
+      <c r="AL77" s="254"/>
+      <c r="AM77" s="254"/>
+      <c r="AN77" s="254"/>
+      <c r="AO77" s="254"/>
+      <c r="AP77" s="254"/>
+      <c r="AQ77" s="254"/>
+      <c r="AR77" s="254"/>
+      <c r="AS77" s="254"/>
+      <c r="AT77" s="254"/>
+      <c r="AU77" s="254"/>
+      <c r="AV77" s="254"/>
+      <c r="AW77" s="254"/>
+      <c r="AX77" s="254"/>
+      <c r="AY77" s="254"/>
+      <c r="AZ77" s="254"/>
+      <c r="BA77" s="254"/>
+      <c r="BB77" s="254"/>
+      <c r="BC77" s="254"/>
+      <c r="BD77" s="254"/>
+      <c r="BE77" s="254"/>
+      <c r="BF77" s="254"/>
+      <c r="BG77" s="254"/>
+      <c r="BH77" s="254"/>
+      <c r="BI77" s="254"/>
+      <c r="BJ77" s="254"/>
+      <c r="BK77" s="254"/>
+      <c r="BL77" s="254"/>
+      <c r="BM77" s="254"/>
+      <c r="BN77" s="254"/>
+      <c r="BO77" s="254"/>
+      <c r="BP77" s="254"/>
+      <c r="BQ77" s="254"/>
+      <c r="BR77" s="254"/>
+      <c r="BS77" s="255"/>
     </row>
     <row r="78" spans="1:71">
       <c r="B78" s="211" t="str">
         <f t="shared" ref="B78:B83" si="50">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C78" s="249" t="s">
+      <c r="C78" s="256" t="s">
         <v>1205</v>
       </c>
-      <c r="D78" s="249"/>
-      <c r="E78" s="249"/>
-      <c r="F78" s="249"/>
-      <c r="G78" s="249"/>
-      <c r="H78" s="249"/>
-      <c r="I78" s="249"/>
-      <c r="J78" s="249"/>
-      <c r="K78" s="249"/>
-      <c r="L78" s="249"/>
-      <c r="M78" s="249"/>
-      <c r="N78" s="249"/>
-      <c r="O78" s="249"/>
-      <c r="P78" s="249"/>
-      <c r="Q78" s="249"/>
-      <c r="R78" s="249"/>
-      <c r="S78" s="249"/>
-      <c r="T78" s="249"/>
-      <c r="U78" s="249"/>
-      <c r="V78" s="249"/>
-      <c r="W78" s="249"/>
-      <c r="X78" s="249"/>
-      <c r="Y78" s="249"/>
-      <c r="Z78" s="249"/>
-      <c r="AA78" s="249"/>
-      <c r="AB78" s="249"/>
-      <c r="AC78" s="249"/>
-      <c r="AD78" s="249"/>
-      <c r="AE78" s="249"/>
-      <c r="AF78" s="249"/>
-      <c r="AG78" s="249"/>
-      <c r="AH78" s="249"/>
-      <c r="AI78" s="249"/>
-      <c r="AJ78" s="249"/>
-      <c r="AK78" s="249"/>
-      <c r="AL78" s="249"/>
-      <c r="AM78" s="249"/>
-      <c r="AN78" s="249"/>
-      <c r="AO78" s="249"/>
-      <c r="AP78" s="249"/>
-      <c r="AQ78" s="249"/>
-      <c r="AR78" s="249"/>
-      <c r="AS78" s="249"/>
-      <c r="AT78" s="249"/>
-      <c r="AU78" s="249"/>
-      <c r="AV78" s="249"/>
-      <c r="AW78" s="249"/>
-      <c r="AX78" s="249"/>
-      <c r="AY78" s="249"/>
-      <c r="AZ78" s="249"/>
-      <c r="BA78" s="249"/>
-      <c r="BB78" s="249"/>
-      <c r="BC78" s="249"/>
-      <c r="BD78" s="249"/>
-      <c r="BE78" s="249"/>
-      <c r="BF78" s="249"/>
-      <c r="BG78" s="249"/>
-      <c r="BH78" s="249"/>
-      <c r="BI78" s="249"/>
-      <c r="BJ78" s="249"/>
-      <c r="BK78" s="249"/>
-      <c r="BL78" s="249"/>
-      <c r="BM78" s="249"/>
-      <c r="BN78" s="249"/>
-      <c r="BO78" s="249"/>
-      <c r="BP78" s="249"/>
-      <c r="BQ78" s="249"/>
-      <c r="BR78" s="249"/>
-      <c r="BS78" s="250"/>
+      <c r="D78" s="256"/>
+      <c r="E78" s="256"/>
+      <c r="F78" s="256"/>
+      <c r="G78" s="256"/>
+      <c r="H78" s="256"/>
+      <c r="I78" s="256"/>
+      <c r="J78" s="256"/>
+      <c r="K78" s="256"/>
+      <c r="L78" s="256"/>
+      <c r="M78" s="256"/>
+      <c r="N78" s="256"/>
+      <c r="O78" s="256"/>
+      <c r="P78" s="256"/>
+      <c r="Q78" s="256"/>
+      <c r="R78" s="256"/>
+      <c r="S78" s="256"/>
+      <c r="T78" s="256"/>
+      <c r="U78" s="256"/>
+      <c r="V78" s="256"/>
+      <c r="W78" s="256"/>
+      <c r="X78" s="256"/>
+      <c r="Y78" s="256"/>
+      <c r="Z78" s="256"/>
+      <c r="AA78" s="256"/>
+      <c r="AB78" s="256"/>
+      <c r="AC78" s="256"/>
+      <c r="AD78" s="256"/>
+      <c r="AE78" s="256"/>
+      <c r="AF78" s="256"/>
+      <c r="AG78" s="256"/>
+      <c r="AH78" s="256"/>
+      <c r="AI78" s="256"/>
+      <c r="AJ78" s="256"/>
+      <c r="AK78" s="256"/>
+      <c r="AL78" s="256"/>
+      <c r="AM78" s="256"/>
+      <c r="AN78" s="256"/>
+      <c r="AO78" s="256"/>
+      <c r="AP78" s="256"/>
+      <c r="AQ78" s="256"/>
+      <c r="AR78" s="256"/>
+      <c r="AS78" s="256"/>
+      <c r="AT78" s="256"/>
+      <c r="AU78" s="256"/>
+      <c r="AV78" s="256"/>
+      <c r="AW78" s="256"/>
+      <c r="AX78" s="256"/>
+      <c r="AY78" s="256"/>
+      <c r="AZ78" s="256"/>
+      <c r="BA78" s="256"/>
+      <c r="BB78" s="256"/>
+      <c r="BC78" s="256"/>
+      <c r="BD78" s="256"/>
+      <c r="BE78" s="256"/>
+      <c r="BF78" s="256"/>
+      <c r="BG78" s="256"/>
+      <c r="BH78" s="256"/>
+      <c r="BI78" s="256"/>
+      <c r="BJ78" s="256"/>
+      <c r="BK78" s="256"/>
+      <c r="BL78" s="256"/>
+      <c r="BM78" s="256"/>
+      <c r="BN78" s="256"/>
+      <c r="BO78" s="256"/>
+      <c r="BP78" s="256"/>
+      <c r="BQ78" s="256"/>
+      <c r="BR78" s="256"/>
+      <c r="BS78" s="257"/>
     </row>
     <row r="79" spans="1:71">
       <c r="B79" s="209" t="str">
         <f t="shared" si="50"/>
         <v>0.1</v>
       </c>
-      <c r="C79" s="251" t="s">
+      <c r="C79" s="258" t="s">
         <v>1204</v>
       </c>
-      <c r="D79" s="251"/>
-      <c r="E79" s="251"/>
-      <c r="F79" s="251"/>
-      <c r="G79" s="251"/>
-      <c r="H79" s="251"/>
-      <c r="I79" s="251"/>
-      <c r="J79" s="251"/>
-      <c r="K79" s="251"/>
-      <c r="L79" s="251"/>
-      <c r="M79" s="251"/>
-      <c r="N79" s="251"/>
-      <c r="O79" s="251"/>
-      <c r="P79" s="251"/>
-      <c r="Q79" s="251"/>
-      <c r="R79" s="251"/>
-      <c r="S79" s="251"/>
-      <c r="T79" s="251"/>
-      <c r="U79" s="251"/>
-      <c r="V79" s="251"/>
-      <c r="W79" s="251"/>
-      <c r="X79" s="251"/>
-      <c r="Y79" s="251"/>
-      <c r="Z79" s="251"/>
-      <c r="AA79" s="251"/>
-      <c r="AB79" s="251"/>
-      <c r="AC79" s="251"/>
-      <c r="AD79" s="251"/>
-      <c r="AE79" s="251"/>
-      <c r="AF79" s="251"/>
-      <c r="AG79" s="251"/>
-      <c r="AH79" s="251"/>
-      <c r="AI79" s="251"/>
-      <c r="AJ79" s="251"/>
-      <c r="AK79" s="251"/>
-      <c r="AL79" s="251"/>
-      <c r="AM79" s="251"/>
-      <c r="AN79" s="251"/>
-      <c r="AO79" s="251"/>
-      <c r="AP79" s="251"/>
-      <c r="AQ79" s="251"/>
-      <c r="AR79" s="251"/>
-      <c r="AS79" s="251"/>
-      <c r="AT79" s="251"/>
-      <c r="AU79" s="251"/>
-      <c r="AV79" s="251"/>
-      <c r="AW79" s="251"/>
-      <c r="AX79" s="251"/>
-      <c r="AY79" s="251"/>
-      <c r="AZ79" s="251"/>
-      <c r="BA79" s="251"/>
-      <c r="BB79" s="251"/>
-      <c r="BC79" s="251"/>
-      <c r="BD79" s="251"/>
-      <c r="BE79" s="251"/>
-      <c r="BF79" s="251"/>
-      <c r="BG79" s="251"/>
-      <c r="BH79" s="251"/>
-      <c r="BI79" s="251"/>
-      <c r="BJ79" s="251"/>
-      <c r="BK79" s="251"/>
-      <c r="BL79" s="251"/>
-      <c r="BM79" s="251"/>
-      <c r="BN79" s="251"/>
-      <c r="BO79" s="251"/>
-      <c r="BP79" s="251"/>
-      <c r="BQ79" s="251"/>
-      <c r="BR79" s="251"/>
-      <c r="BS79" s="252"/>
+      <c r="D79" s="258"/>
+      <c r="E79" s="258"/>
+      <c r="F79" s="258"/>
+      <c r="G79" s="258"/>
+      <c r="H79" s="258"/>
+      <c r="I79" s="258"/>
+      <c r="J79" s="258"/>
+      <c r="K79" s="258"/>
+      <c r="L79" s="258"/>
+      <c r="M79" s="258"/>
+      <c r="N79" s="258"/>
+      <c r="O79" s="258"/>
+      <c r="P79" s="258"/>
+      <c r="Q79" s="258"/>
+      <c r="R79" s="258"/>
+      <c r="S79" s="258"/>
+      <c r="T79" s="258"/>
+      <c r="U79" s="258"/>
+      <c r="V79" s="258"/>
+      <c r="W79" s="258"/>
+      <c r="X79" s="258"/>
+      <c r="Y79" s="258"/>
+      <c r="Z79" s="258"/>
+      <c r="AA79" s="258"/>
+      <c r="AB79" s="258"/>
+      <c r="AC79" s="258"/>
+      <c r="AD79" s="258"/>
+      <c r="AE79" s="258"/>
+      <c r="AF79" s="258"/>
+      <c r="AG79" s="258"/>
+      <c r="AH79" s="258"/>
+      <c r="AI79" s="258"/>
+      <c r="AJ79" s="258"/>
+      <c r="AK79" s="258"/>
+      <c r="AL79" s="258"/>
+      <c r="AM79" s="258"/>
+      <c r="AN79" s="258"/>
+      <c r="AO79" s="258"/>
+      <c r="AP79" s="258"/>
+      <c r="AQ79" s="258"/>
+      <c r="AR79" s="258"/>
+      <c r="AS79" s="258"/>
+      <c r="AT79" s="258"/>
+      <c r="AU79" s="258"/>
+      <c r="AV79" s="258"/>
+      <c r="AW79" s="258"/>
+      <c r="AX79" s="258"/>
+      <c r="AY79" s="258"/>
+      <c r="AZ79" s="258"/>
+      <c r="BA79" s="258"/>
+      <c r="BB79" s="258"/>
+      <c r="BC79" s="258"/>
+      <c r="BD79" s="258"/>
+      <c r="BE79" s="258"/>
+      <c r="BF79" s="258"/>
+      <c r="BG79" s="258"/>
+      <c r="BH79" s="258"/>
+      <c r="BI79" s="258"/>
+      <c r="BJ79" s="258"/>
+      <c r="BK79" s="258"/>
+      <c r="BL79" s="258"/>
+      <c r="BM79" s="258"/>
+      <c r="BN79" s="258"/>
+      <c r="BO79" s="258"/>
+      <c r="BP79" s="258"/>
+      <c r="BQ79" s="258"/>
+      <c r="BR79" s="258"/>
+      <c r="BS79" s="259"/>
     </row>
     <row r="80" spans="1:71">
       <c r="B80" s="209" t="str">
         <f t="shared" si="50"/>
         <v>0.1</v>
       </c>
-      <c r="C80" s="251" t="s">
+      <c r="C80" s="258" t="s">
         <v>1203</v>
       </c>
-      <c r="D80" s="251"/>
-      <c r="E80" s="251"/>
-      <c r="F80" s="251"/>
-      <c r="G80" s="251"/>
-      <c r="H80" s="251"/>
-      <c r="I80" s="251"/>
-      <c r="J80" s="251"/>
-      <c r="K80" s="251"/>
-      <c r="L80" s="251"/>
-      <c r="M80" s="251"/>
-      <c r="N80" s="251"/>
-      <c r="O80" s="251"/>
-      <c r="P80" s="251"/>
-      <c r="Q80" s="251"/>
-      <c r="R80" s="251"/>
-      <c r="S80" s="251"/>
-      <c r="T80" s="251"/>
-      <c r="U80" s="251"/>
-      <c r="V80" s="251"/>
-      <c r="W80" s="251"/>
-      <c r="X80" s="251"/>
-      <c r="Y80" s="251"/>
-      <c r="Z80" s="251"/>
-      <c r="AA80" s="251"/>
-      <c r="AB80" s="251"/>
-      <c r="AC80" s="251"/>
-      <c r="AD80" s="251"/>
-      <c r="AE80" s="251"/>
-      <c r="AF80" s="251"/>
-      <c r="AG80" s="251"/>
-      <c r="AH80" s="251"/>
-      <c r="AI80" s="251"/>
-      <c r="AJ80" s="251"/>
-      <c r="AK80" s="251"/>
-      <c r="AL80" s="251"/>
-      <c r="AM80" s="251"/>
-      <c r="AN80" s="251"/>
-      <c r="AO80" s="251"/>
-      <c r="AP80" s="251"/>
-      <c r="AQ80" s="251"/>
-      <c r="AR80" s="251"/>
-      <c r="AS80" s="251"/>
-      <c r="AT80" s="251"/>
-      <c r="AU80" s="251"/>
-      <c r="AV80" s="251"/>
-      <c r="AW80" s="251"/>
-      <c r="AX80" s="251"/>
-      <c r="AY80" s="251"/>
-      <c r="AZ80" s="251"/>
-      <c r="BA80" s="251"/>
-      <c r="BB80" s="251"/>
-      <c r="BC80" s="251"/>
-      <c r="BD80" s="251"/>
-      <c r="BE80" s="251"/>
-      <c r="BF80" s="251"/>
-      <c r="BG80" s="251"/>
-      <c r="BH80" s="251"/>
-      <c r="BI80" s="251"/>
-      <c r="BJ80" s="251"/>
-      <c r="BK80" s="251"/>
-      <c r="BL80" s="251"/>
-      <c r="BM80" s="251"/>
-      <c r="BN80" s="251"/>
-      <c r="BO80" s="251"/>
-      <c r="BP80" s="251"/>
-      <c r="BQ80" s="251"/>
-      <c r="BR80" s="251"/>
-      <c r="BS80" s="252"/>
+      <c r="D80" s="258"/>
+      <c r="E80" s="258"/>
+      <c r="F80" s="258"/>
+      <c r="G80" s="258"/>
+      <c r="H80" s="258"/>
+      <c r="I80" s="258"/>
+      <c r="J80" s="258"/>
+      <c r="K80" s="258"/>
+      <c r="L80" s="258"/>
+      <c r="M80" s="258"/>
+      <c r="N80" s="258"/>
+      <c r="O80" s="258"/>
+      <c r="P80" s="258"/>
+      <c r="Q80" s="258"/>
+      <c r="R80" s="258"/>
+      <c r="S80" s="258"/>
+      <c r="T80" s="258"/>
+      <c r="U80" s="258"/>
+      <c r="V80" s="258"/>
+      <c r="W80" s="258"/>
+      <c r="X80" s="258"/>
+      <c r="Y80" s="258"/>
+      <c r="Z80" s="258"/>
+      <c r="AA80" s="258"/>
+      <c r="AB80" s="258"/>
+      <c r="AC80" s="258"/>
+      <c r="AD80" s="258"/>
+      <c r="AE80" s="258"/>
+      <c r="AF80" s="258"/>
+      <c r="AG80" s="258"/>
+      <c r="AH80" s="258"/>
+      <c r="AI80" s="258"/>
+      <c r="AJ80" s="258"/>
+      <c r="AK80" s="258"/>
+      <c r="AL80" s="258"/>
+      <c r="AM80" s="258"/>
+      <c r="AN80" s="258"/>
+      <c r="AO80" s="258"/>
+      <c r="AP80" s="258"/>
+      <c r="AQ80" s="258"/>
+      <c r="AR80" s="258"/>
+      <c r="AS80" s="258"/>
+      <c r="AT80" s="258"/>
+      <c r="AU80" s="258"/>
+      <c r="AV80" s="258"/>
+      <c r="AW80" s="258"/>
+      <c r="AX80" s="258"/>
+      <c r="AY80" s="258"/>
+      <c r="AZ80" s="258"/>
+      <c r="BA80" s="258"/>
+      <c r="BB80" s="258"/>
+      <c r="BC80" s="258"/>
+      <c r="BD80" s="258"/>
+      <c r="BE80" s="258"/>
+      <c r="BF80" s="258"/>
+      <c r="BG80" s="258"/>
+      <c r="BH80" s="258"/>
+      <c r="BI80" s="258"/>
+      <c r="BJ80" s="258"/>
+      <c r="BK80" s="258"/>
+      <c r="BL80" s="258"/>
+      <c r="BM80" s="258"/>
+      <c r="BN80" s="258"/>
+      <c r="BO80" s="258"/>
+      <c r="BP80" s="258"/>
+      <c r="BQ80" s="258"/>
+      <c r="BR80" s="258"/>
+      <c r="BS80" s="259"/>
     </row>
     <row r="81" spans="2:71">
       <c r="B81" s="209" t="str">
         <f t="shared" si="50"/>
         <v>0.1</v>
       </c>
-      <c r="C81" s="251" t="s">
+      <c r="C81" s="258" t="s">
         <v>1202</v>
       </c>
-      <c r="D81" s="251"/>
-      <c r="E81" s="251"/>
-      <c r="F81" s="251"/>
-      <c r="G81" s="251"/>
-      <c r="H81" s="251"/>
-      <c r="I81" s="251"/>
-      <c r="J81" s="251"/>
-      <c r="K81" s="251"/>
-      <c r="L81" s="251"/>
-      <c r="M81" s="251"/>
-      <c r="N81" s="251"/>
-      <c r="O81" s="251"/>
-      <c r="P81" s="251"/>
-      <c r="Q81" s="251"/>
-      <c r="R81" s="251"/>
-      <c r="S81" s="251"/>
-      <c r="T81" s="251"/>
-      <c r="U81" s="251"/>
-      <c r="V81" s="251"/>
-      <c r="W81" s="251"/>
-      <c r="X81" s="251"/>
-      <c r="Y81" s="251"/>
-      <c r="Z81" s="251"/>
-      <c r="AA81" s="251"/>
-      <c r="AB81" s="251"/>
-      <c r="AC81" s="251"/>
-      <c r="AD81" s="251"/>
-      <c r="AE81" s="251"/>
-      <c r="AF81" s="251"/>
-      <c r="AG81" s="251"/>
-      <c r="AH81" s="251"/>
-      <c r="AI81" s="251"/>
-      <c r="AJ81" s="251"/>
-      <c r="AK81" s="251"/>
-      <c r="AL81" s="251"/>
-      <c r="AM81" s="251"/>
-      <c r="AN81" s="251"/>
-      <c r="AO81" s="251"/>
-      <c r="AP81" s="251"/>
-      <c r="AQ81" s="251"/>
-      <c r="AR81" s="251"/>
-      <c r="AS81" s="251"/>
-      <c r="AT81" s="251"/>
-      <c r="AU81" s="251"/>
-      <c r="AV81" s="251"/>
-      <c r="AW81" s="251"/>
-      <c r="AX81" s="251"/>
-      <c r="AY81" s="251"/>
-      <c r="AZ81" s="251"/>
-      <c r="BA81" s="251"/>
-      <c r="BB81" s="251"/>
-      <c r="BC81" s="251"/>
-      <c r="BD81" s="251"/>
-      <c r="BE81" s="251"/>
-      <c r="BF81" s="251"/>
-      <c r="BG81" s="251"/>
-      <c r="BH81" s="251"/>
-      <c r="BI81" s="251"/>
-      <c r="BJ81" s="251"/>
-      <c r="BK81" s="251"/>
-      <c r="BL81" s="251"/>
-      <c r="BM81" s="251"/>
-      <c r="BN81" s="251"/>
-      <c r="BO81" s="251"/>
-      <c r="BP81" s="251"/>
-      <c r="BQ81" s="251"/>
-      <c r="BR81" s="251"/>
-      <c r="BS81" s="252"/>
+      <c r="D81" s="258"/>
+      <c r="E81" s="258"/>
+      <c r="F81" s="258"/>
+      <c r="G81" s="258"/>
+      <c r="H81" s="258"/>
+      <c r="I81" s="258"/>
+      <c r="J81" s="258"/>
+      <c r="K81" s="258"/>
+      <c r="L81" s="258"/>
+      <c r="M81" s="258"/>
+      <c r="N81" s="258"/>
+      <c r="O81" s="258"/>
+      <c r="P81" s="258"/>
+      <c r="Q81" s="258"/>
+      <c r="R81" s="258"/>
+      <c r="S81" s="258"/>
+      <c r="T81" s="258"/>
+      <c r="U81" s="258"/>
+      <c r="V81" s="258"/>
+      <c r="W81" s="258"/>
+      <c r="X81" s="258"/>
+      <c r="Y81" s="258"/>
+      <c r="Z81" s="258"/>
+      <c r="AA81" s="258"/>
+      <c r="AB81" s="258"/>
+      <c r="AC81" s="258"/>
+      <c r="AD81" s="258"/>
+      <c r="AE81" s="258"/>
+      <c r="AF81" s="258"/>
+      <c r="AG81" s="258"/>
+      <c r="AH81" s="258"/>
+      <c r="AI81" s="258"/>
+      <c r="AJ81" s="258"/>
+      <c r="AK81" s="258"/>
+      <c r="AL81" s="258"/>
+      <c r="AM81" s="258"/>
+      <c r="AN81" s="258"/>
+      <c r="AO81" s="258"/>
+      <c r="AP81" s="258"/>
+      <c r="AQ81" s="258"/>
+      <c r="AR81" s="258"/>
+      <c r="AS81" s="258"/>
+      <c r="AT81" s="258"/>
+      <c r="AU81" s="258"/>
+      <c r="AV81" s="258"/>
+      <c r="AW81" s="258"/>
+      <c r="AX81" s="258"/>
+      <c r="AY81" s="258"/>
+      <c r="AZ81" s="258"/>
+      <c r="BA81" s="258"/>
+      <c r="BB81" s="258"/>
+      <c r="BC81" s="258"/>
+      <c r="BD81" s="258"/>
+      <c r="BE81" s="258"/>
+      <c r="BF81" s="258"/>
+      <c r="BG81" s="258"/>
+      <c r="BH81" s="258"/>
+      <c r="BI81" s="258"/>
+      <c r="BJ81" s="258"/>
+      <c r="BK81" s="258"/>
+      <c r="BL81" s="258"/>
+      <c r="BM81" s="258"/>
+      <c r="BN81" s="258"/>
+      <c r="BO81" s="258"/>
+      <c r="BP81" s="258"/>
+      <c r="BQ81" s="258"/>
+      <c r="BR81" s="258"/>
+      <c r="BS81" s="259"/>
     </row>
     <row r="82" spans="2:71">
       <c r="B82" s="209" t="str">
         <f t="shared" si="50"/>
         <v>0.1</v>
       </c>
-      <c r="C82" s="251" t="s">
+      <c r="C82" s="258" t="s">
         <v>1201</v>
       </c>
-      <c r="D82" s="251"/>
-      <c r="E82" s="251"/>
-      <c r="F82" s="251"/>
-      <c r="G82" s="251"/>
-      <c r="H82" s="251"/>
-      <c r="I82" s="251"/>
-      <c r="J82" s="251"/>
-      <c r="K82" s="251"/>
-      <c r="L82" s="251"/>
-      <c r="M82" s="251"/>
-      <c r="N82" s="251"/>
-      <c r="O82" s="251"/>
-      <c r="P82" s="251"/>
-      <c r="Q82" s="251"/>
-      <c r="R82" s="251"/>
-      <c r="S82" s="251"/>
-      <c r="T82" s="251"/>
-      <c r="U82" s="251"/>
-      <c r="V82" s="251"/>
-      <c r="W82" s="251"/>
-      <c r="X82" s="251"/>
-      <c r="Y82" s="251"/>
-      <c r="Z82" s="251"/>
-      <c r="AA82" s="251"/>
-      <c r="AB82" s="251"/>
-      <c r="AC82" s="251"/>
-      <c r="AD82" s="251"/>
-      <c r="AE82" s="251"/>
-      <c r="AF82" s="251"/>
-      <c r="AG82" s="251"/>
-      <c r="AH82" s="251"/>
-      <c r="AI82" s="251"/>
-      <c r="AJ82" s="251"/>
-      <c r="AK82" s="251"/>
-      <c r="AL82" s="251"/>
-      <c r="AM82" s="251"/>
-      <c r="AN82" s="251"/>
-      <c r="AO82" s="251"/>
-      <c r="AP82" s="251"/>
-      <c r="AQ82" s="251"/>
-      <c r="AR82" s="251"/>
-      <c r="AS82" s="251"/>
-      <c r="AT82" s="251"/>
-      <c r="AU82" s="251"/>
-      <c r="AV82" s="251"/>
-      <c r="AW82" s="251"/>
-      <c r="AX82" s="251"/>
-      <c r="AY82" s="251"/>
-      <c r="AZ82" s="251"/>
-      <c r="BA82" s="251"/>
-      <c r="BB82" s="251"/>
-      <c r="BC82" s="251"/>
-      <c r="BD82" s="251"/>
-      <c r="BE82" s="251"/>
-      <c r="BF82" s="251"/>
-      <c r="BG82" s="251"/>
-      <c r="BH82" s="251"/>
-      <c r="BI82" s="251"/>
-      <c r="BJ82" s="251"/>
-      <c r="BK82" s="251"/>
-      <c r="BL82" s="251"/>
-      <c r="BM82" s="251"/>
-      <c r="BN82" s="251"/>
-      <c r="BO82" s="251"/>
-      <c r="BP82" s="251"/>
-      <c r="BQ82" s="251"/>
-      <c r="BR82" s="251"/>
-      <c r="BS82" s="252"/>
+      <c r="D82" s="258"/>
+      <c r="E82" s="258"/>
+      <c r="F82" s="258"/>
+      <c r="G82" s="258"/>
+      <c r="H82" s="258"/>
+      <c r="I82" s="258"/>
+      <c r="J82" s="258"/>
+      <c r="K82" s="258"/>
+      <c r="L82" s="258"/>
+      <c r="M82" s="258"/>
+      <c r="N82" s="258"/>
+      <c r="O82" s="258"/>
+      <c r="P82" s="258"/>
+      <c r="Q82" s="258"/>
+      <c r="R82" s="258"/>
+      <c r="S82" s="258"/>
+      <c r="T82" s="258"/>
+      <c r="U82" s="258"/>
+      <c r="V82" s="258"/>
+      <c r="W82" s="258"/>
+      <c r="X82" s="258"/>
+      <c r="Y82" s="258"/>
+      <c r="Z82" s="258"/>
+      <c r="AA82" s="258"/>
+      <c r="AB82" s="258"/>
+      <c r="AC82" s="258"/>
+      <c r="AD82" s="258"/>
+      <c r="AE82" s="258"/>
+      <c r="AF82" s="258"/>
+      <c r="AG82" s="258"/>
+      <c r="AH82" s="258"/>
+      <c r="AI82" s="258"/>
+      <c r="AJ82" s="258"/>
+      <c r="AK82" s="258"/>
+      <c r="AL82" s="258"/>
+      <c r="AM82" s="258"/>
+      <c r="AN82" s="258"/>
+      <c r="AO82" s="258"/>
+      <c r="AP82" s="258"/>
+      <c r="AQ82" s="258"/>
+      <c r="AR82" s="258"/>
+      <c r="AS82" s="258"/>
+      <c r="AT82" s="258"/>
+      <c r="AU82" s="258"/>
+      <c r="AV82" s="258"/>
+      <c r="AW82" s="258"/>
+      <c r="AX82" s="258"/>
+      <c r="AY82" s="258"/>
+      <c r="AZ82" s="258"/>
+      <c r="BA82" s="258"/>
+      <c r="BB82" s="258"/>
+      <c r="BC82" s="258"/>
+      <c r="BD82" s="258"/>
+      <c r="BE82" s="258"/>
+      <c r="BF82" s="258"/>
+      <c r="BG82" s="258"/>
+      <c r="BH82" s="258"/>
+      <c r="BI82" s="258"/>
+      <c r="BJ82" s="258"/>
+      <c r="BK82" s="258"/>
+      <c r="BL82" s="258"/>
+      <c r="BM82" s="258"/>
+      <c r="BN82" s="258"/>
+      <c r="BO82" s="258"/>
+      <c r="BP82" s="258"/>
+      <c r="BQ82" s="258"/>
+      <c r="BR82" s="258"/>
+      <c r="BS82" s="259"/>
     </row>
     <row r="83" spans="2:71" ht="17.25" thickBot="1">
       <c r="B83" s="208" t="str">
         <f t="shared" si="50"/>
         <v>0.1</v>
       </c>
-      <c r="C83" s="255" t="s">
+      <c r="C83" s="260" t="s">
         <v>1200</v>
       </c>
-      <c r="D83" s="255"/>
-      <c r="E83" s="255"/>
-      <c r="F83" s="255"/>
-      <c r="G83" s="255"/>
-      <c r="H83" s="255"/>
-      <c r="I83" s="255"/>
-      <c r="J83" s="255"/>
-      <c r="K83" s="255"/>
-      <c r="L83" s="255"/>
-      <c r="M83" s="255"/>
-      <c r="N83" s="255"/>
-      <c r="O83" s="255"/>
-      <c r="P83" s="255"/>
-      <c r="Q83" s="255"/>
-      <c r="R83" s="255"/>
-      <c r="S83" s="255"/>
-      <c r="T83" s="255"/>
-      <c r="U83" s="255"/>
-      <c r="V83" s="255"/>
-      <c r="W83" s="255"/>
-      <c r="X83" s="255"/>
-      <c r="Y83" s="255"/>
-      <c r="Z83" s="255"/>
-      <c r="AA83" s="255"/>
-      <c r="AB83" s="255"/>
-      <c r="AC83" s="255"/>
-      <c r="AD83" s="255"/>
-      <c r="AE83" s="255"/>
-      <c r="AF83" s="255"/>
-      <c r="AG83" s="255"/>
-      <c r="AH83" s="255"/>
-      <c r="AI83" s="255"/>
-      <c r="AJ83" s="255"/>
-      <c r="AK83" s="255"/>
-      <c r="AL83" s="255"/>
-      <c r="AM83" s="255"/>
-      <c r="AN83" s="255"/>
-      <c r="AO83" s="255"/>
-      <c r="AP83" s="255"/>
-      <c r="AQ83" s="255"/>
-      <c r="AR83" s="255"/>
-      <c r="AS83" s="255"/>
-      <c r="AT83" s="255"/>
-      <c r="AU83" s="255"/>
-      <c r="AV83" s="255"/>
-      <c r="AW83" s="255"/>
-      <c r="AX83" s="255"/>
-      <c r="AY83" s="255"/>
-      <c r="AZ83" s="255"/>
-      <c r="BA83" s="255"/>
-      <c r="BB83" s="255"/>
-      <c r="BC83" s="255"/>
-      <c r="BD83" s="255"/>
-      <c r="BE83" s="255"/>
-      <c r="BF83" s="255"/>
-      <c r="BG83" s="255"/>
-      <c r="BH83" s="255"/>
-      <c r="BI83" s="255"/>
-      <c r="BJ83" s="255"/>
-      <c r="BK83" s="255"/>
-      <c r="BL83" s="255"/>
-      <c r="BM83" s="255"/>
-      <c r="BN83" s="255"/>
-      <c r="BO83" s="255"/>
-      <c r="BP83" s="255"/>
-      <c r="BQ83" s="255"/>
-      <c r="BR83" s="255"/>
-      <c r="BS83" s="256"/>
+      <c r="D83" s="260"/>
+      <c r="E83" s="260"/>
+      <c r="F83" s="260"/>
+      <c r="G83" s="260"/>
+      <c r="H83" s="260"/>
+      <c r="I83" s="260"/>
+      <c r="J83" s="260"/>
+      <c r="K83" s="260"/>
+      <c r="L83" s="260"/>
+      <c r="M83" s="260"/>
+      <c r="N83" s="260"/>
+      <c r="O83" s="260"/>
+      <c r="P83" s="260"/>
+      <c r="Q83" s="260"/>
+      <c r="R83" s="260"/>
+      <c r="S83" s="260"/>
+      <c r="T83" s="260"/>
+      <c r="U83" s="260"/>
+      <c r="V83" s="260"/>
+      <c r="W83" s="260"/>
+      <c r="X83" s="260"/>
+      <c r="Y83" s="260"/>
+      <c r="Z83" s="260"/>
+      <c r="AA83" s="260"/>
+      <c r="AB83" s="260"/>
+      <c r="AC83" s="260"/>
+      <c r="AD83" s="260"/>
+      <c r="AE83" s="260"/>
+      <c r="AF83" s="260"/>
+      <c r="AG83" s="260"/>
+      <c r="AH83" s="260"/>
+      <c r="AI83" s="260"/>
+      <c r="AJ83" s="260"/>
+      <c r="AK83" s="260"/>
+      <c r="AL83" s="260"/>
+      <c r="AM83" s="260"/>
+      <c r="AN83" s="260"/>
+      <c r="AO83" s="260"/>
+      <c r="AP83" s="260"/>
+      <c r="AQ83" s="260"/>
+      <c r="AR83" s="260"/>
+      <c r="AS83" s="260"/>
+      <c r="AT83" s="260"/>
+      <c r="AU83" s="260"/>
+      <c r="AV83" s="260"/>
+      <c r="AW83" s="260"/>
+      <c r="AX83" s="260"/>
+      <c r="AY83" s="260"/>
+      <c r="AZ83" s="260"/>
+      <c r="BA83" s="260"/>
+      <c r="BB83" s="260"/>
+      <c r="BC83" s="260"/>
+      <c r="BD83" s="260"/>
+      <c r="BE83" s="260"/>
+      <c r="BF83" s="260"/>
+      <c r="BG83" s="260"/>
+      <c r="BH83" s="260"/>
+      <c r="BI83" s="260"/>
+      <c r="BJ83" s="260"/>
+      <c r="BK83" s="260"/>
+      <c r="BL83" s="260"/>
+      <c r="BM83" s="260"/>
+      <c r="BN83" s="260"/>
+      <c r="BO83" s="260"/>
+      <c r="BP83" s="260"/>
+      <c r="BQ83" s="260"/>
+      <c r="BR83" s="260"/>
+      <c r="BS83" s="261"/>
     </row>
     <row r="84" spans="2:71" ht="17.25" thickBot="1">
       <c r="B84" s="212" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="C84" s="253" t="s">
+      <c r="C84" s="254" t="s">
         <v>1199</v>
       </c>
-      <c r="D84" s="253"/>
-      <c r="E84" s="253"/>
-      <c r="F84" s="253"/>
-      <c r="G84" s="253"/>
-      <c r="H84" s="253"/>
-      <c r="I84" s="253"/>
-      <c r="J84" s="253"/>
-      <c r="K84" s="253"/>
-      <c r="L84" s="253"/>
-      <c r="M84" s="253"/>
-      <c r="N84" s="253"/>
-      <c r="O84" s="253"/>
-      <c r="P84" s="253"/>
-      <c r="Q84" s="253"/>
-      <c r="R84" s="253"/>
-      <c r="S84" s="253"/>
-      <c r="T84" s="253"/>
-      <c r="U84" s="253"/>
-      <c r="V84" s="253"/>
-      <c r="W84" s="253"/>
-      <c r="X84" s="253"/>
-      <c r="Y84" s="253"/>
-      <c r="Z84" s="253"/>
-      <c r="AA84" s="253"/>
-      <c r="AB84" s="253"/>
-      <c r="AC84" s="253"/>
-      <c r="AD84" s="253"/>
-      <c r="AE84" s="253"/>
-      <c r="AF84" s="253"/>
-      <c r="AG84" s="253"/>
-      <c r="AH84" s="253"/>
-      <c r="AI84" s="253"/>
-      <c r="AJ84" s="253"/>
-      <c r="AK84" s="253"/>
-      <c r="AL84" s="253"/>
-      <c r="AM84" s="253"/>
-      <c r="AN84" s="253"/>
-      <c r="AO84" s="253"/>
-      <c r="AP84" s="253"/>
-      <c r="AQ84" s="253"/>
-      <c r="AR84" s="253"/>
-      <c r="AS84" s="253"/>
-      <c r="AT84" s="253"/>
-      <c r="AU84" s="253"/>
-      <c r="AV84" s="253"/>
-      <c r="AW84" s="253"/>
-      <c r="AX84" s="253"/>
-      <c r="AY84" s="253"/>
-      <c r="AZ84" s="253"/>
-      <c r="BA84" s="253"/>
-      <c r="BB84" s="253"/>
-      <c r="BC84" s="253"/>
-      <c r="BD84" s="253"/>
-      <c r="BE84" s="253"/>
-      <c r="BF84" s="253"/>
-      <c r="BG84" s="253"/>
-      <c r="BH84" s="253"/>
-      <c r="BI84" s="253"/>
-      <c r="BJ84" s="253"/>
-      <c r="BK84" s="253"/>
-      <c r="BL84" s="253"/>
-      <c r="BM84" s="253"/>
-      <c r="BN84" s="253"/>
-      <c r="BO84" s="253"/>
-      <c r="BP84" s="253"/>
-      <c r="BQ84" s="253"/>
-      <c r="BR84" s="253"/>
-      <c r="BS84" s="254"/>
+      <c r="D84" s="254"/>
+      <c r="E84" s="254"/>
+      <c r="F84" s="254"/>
+      <c r="G84" s="254"/>
+      <c r="H84" s="254"/>
+      <c r="I84" s="254"/>
+      <c r="J84" s="254"/>
+      <c r="K84" s="254"/>
+      <c r="L84" s="254"/>
+      <c r="M84" s="254"/>
+      <c r="N84" s="254"/>
+      <c r="O84" s="254"/>
+      <c r="P84" s="254"/>
+      <c r="Q84" s="254"/>
+      <c r="R84" s="254"/>
+      <c r="S84" s="254"/>
+      <c r="T84" s="254"/>
+      <c r="U84" s="254"/>
+      <c r="V84" s="254"/>
+      <c r="W84" s="254"/>
+      <c r="X84" s="254"/>
+      <c r="Y84" s="254"/>
+      <c r="Z84" s="254"/>
+      <c r="AA84" s="254"/>
+      <c r="AB84" s="254"/>
+      <c r="AC84" s="254"/>
+      <c r="AD84" s="254"/>
+      <c r="AE84" s="254"/>
+      <c r="AF84" s="254"/>
+      <c r="AG84" s="254"/>
+      <c r="AH84" s="254"/>
+      <c r="AI84" s="254"/>
+      <c r="AJ84" s="254"/>
+      <c r="AK84" s="254"/>
+      <c r="AL84" s="254"/>
+      <c r="AM84" s="254"/>
+      <c r="AN84" s="254"/>
+      <c r="AO84" s="254"/>
+      <c r="AP84" s="254"/>
+      <c r="AQ84" s="254"/>
+      <c r="AR84" s="254"/>
+      <c r="AS84" s="254"/>
+      <c r="AT84" s="254"/>
+      <c r="AU84" s="254"/>
+      <c r="AV84" s="254"/>
+      <c r="AW84" s="254"/>
+      <c r="AX84" s="254"/>
+      <c r="AY84" s="254"/>
+      <c r="AZ84" s="254"/>
+      <c r="BA84" s="254"/>
+      <c r="BB84" s="254"/>
+      <c r="BC84" s="254"/>
+      <c r="BD84" s="254"/>
+      <c r="BE84" s="254"/>
+      <c r="BF84" s="254"/>
+      <c r="BG84" s="254"/>
+      <c r="BH84" s="254"/>
+      <c r="BI84" s="254"/>
+      <c r="BJ84" s="254"/>
+      <c r="BK84" s="254"/>
+      <c r="BL84" s="254"/>
+      <c r="BM84" s="254"/>
+      <c r="BN84" s="254"/>
+      <c r="BO84" s="254"/>
+      <c r="BP84" s="254"/>
+      <c r="BQ84" s="254"/>
+      <c r="BR84" s="254"/>
+      <c r="BS84" s="255"/>
     </row>
     <row r="85" spans="2:71">
       <c r="B85" s="211" t="str">
         <f t="shared" ref="B85:B91" si="51">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C85" s="249" t="s">
+      <c r="C85" s="256" t="s">
         <v>1198</v>
       </c>
-      <c r="D85" s="249"/>
-      <c r="E85" s="249"/>
-      <c r="F85" s="249"/>
-      <c r="G85" s="249"/>
-      <c r="H85" s="249"/>
-      <c r="I85" s="249"/>
-      <c r="J85" s="249"/>
-      <c r="K85" s="249"/>
-      <c r="L85" s="249"/>
-      <c r="M85" s="249"/>
-      <c r="N85" s="249"/>
-      <c r="O85" s="249"/>
-      <c r="P85" s="249"/>
-      <c r="Q85" s="249"/>
-      <c r="R85" s="249"/>
-      <c r="S85" s="249"/>
-      <c r="T85" s="249"/>
-      <c r="U85" s="249"/>
-      <c r="V85" s="249"/>
-      <c r="W85" s="249"/>
-      <c r="X85" s="249"/>
-      <c r="Y85" s="249"/>
-      <c r="Z85" s="249"/>
-      <c r="AA85" s="249"/>
-      <c r="AB85" s="249"/>
-      <c r="AC85" s="249"/>
-      <c r="AD85" s="249"/>
-      <c r="AE85" s="249"/>
-      <c r="AF85" s="249"/>
-      <c r="AG85" s="249"/>
-      <c r="AH85" s="249"/>
-      <c r="AI85" s="249"/>
-      <c r="AJ85" s="249"/>
-      <c r="AK85" s="249"/>
-      <c r="AL85" s="249"/>
-      <c r="AM85" s="249"/>
-      <c r="AN85" s="249"/>
-      <c r="AO85" s="249"/>
-      <c r="AP85" s="249"/>
-      <c r="AQ85" s="249"/>
-      <c r="AR85" s="249"/>
-      <c r="AS85" s="249"/>
-      <c r="AT85" s="249"/>
-      <c r="AU85" s="249"/>
-      <c r="AV85" s="249"/>
-      <c r="AW85" s="249"/>
-      <c r="AX85" s="249"/>
-      <c r="AY85" s="249"/>
-      <c r="AZ85" s="249"/>
-      <c r="BA85" s="249"/>
-      <c r="BB85" s="249"/>
-      <c r="BC85" s="249"/>
-      <c r="BD85" s="249"/>
-      <c r="BE85" s="249"/>
-      <c r="BF85" s="249"/>
-      <c r="BG85" s="249"/>
-      <c r="BH85" s="249"/>
-      <c r="BI85" s="249"/>
-      <c r="BJ85" s="249"/>
-      <c r="BK85" s="249"/>
-      <c r="BL85" s="249"/>
-      <c r="BM85" s="249"/>
-      <c r="BN85" s="249"/>
-      <c r="BO85" s="249"/>
-      <c r="BP85" s="249"/>
-      <c r="BQ85" s="249"/>
-      <c r="BR85" s="249"/>
-      <c r="BS85" s="250"/>
+      <c r="D85" s="256"/>
+      <c r="E85" s="256"/>
+      <c r="F85" s="256"/>
+      <c r="G85" s="256"/>
+      <c r="H85" s="256"/>
+      <c r="I85" s="256"/>
+      <c r="J85" s="256"/>
+      <c r="K85" s="256"/>
+      <c r="L85" s="256"/>
+      <c r="M85" s="256"/>
+      <c r="N85" s="256"/>
+      <c r="O85" s="256"/>
+      <c r="P85" s="256"/>
+      <c r="Q85" s="256"/>
+      <c r="R85" s="256"/>
+      <c r="S85" s="256"/>
+      <c r="T85" s="256"/>
+      <c r="U85" s="256"/>
+      <c r="V85" s="256"/>
+      <c r="W85" s="256"/>
+      <c r="X85" s="256"/>
+      <c r="Y85" s="256"/>
+      <c r="Z85" s="256"/>
+      <c r="AA85" s="256"/>
+      <c r="AB85" s="256"/>
+      <c r="AC85" s="256"/>
+      <c r="AD85" s="256"/>
+      <c r="AE85" s="256"/>
+      <c r="AF85" s="256"/>
+      <c r="AG85" s="256"/>
+      <c r="AH85" s="256"/>
+      <c r="AI85" s="256"/>
+      <c r="AJ85" s="256"/>
+      <c r="AK85" s="256"/>
+      <c r="AL85" s="256"/>
+      <c r="AM85" s="256"/>
+      <c r="AN85" s="256"/>
+      <c r="AO85" s="256"/>
+      <c r="AP85" s="256"/>
+      <c r="AQ85" s="256"/>
+      <c r="AR85" s="256"/>
+      <c r="AS85" s="256"/>
+      <c r="AT85" s="256"/>
+      <c r="AU85" s="256"/>
+      <c r="AV85" s="256"/>
+      <c r="AW85" s="256"/>
+      <c r="AX85" s="256"/>
+      <c r="AY85" s="256"/>
+      <c r="AZ85" s="256"/>
+      <c r="BA85" s="256"/>
+      <c r="BB85" s="256"/>
+      <c r="BC85" s="256"/>
+      <c r="BD85" s="256"/>
+      <c r="BE85" s="256"/>
+      <c r="BF85" s="256"/>
+      <c r="BG85" s="256"/>
+      <c r="BH85" s="256"/>
+      <c r="BI85" s="256"/>
+      <c r="BJ85" s="256"/>
+      <c r="BK85" s="256"/>
+      <c r="BL85" s="256"/>
+      <c r="BM85" s="256"/>
+      <c r="BN85" s="256"/>
+      <c r="BO85" s="256"/>
+      <c r="BP85" s="256"/>
+      <c r="BQ85" s="256"/>
+      <c r="BR85" s="256"/>
+      <c r="BS85" s="257"/>
     </row>
     <row r="86" spans="2:71">
       <c r="B86" s="209" t="str">
         <f t="shared" si="51"/>
         <v>0.1</v>
       </c>
-      <c r="C86" s="251" t="s">
+      <c r="C86" s="258" t="s">
         <v>1197</v>
       </c>
-      <c r="D86" s="251"/>
-      <c r="E86" s="251"/>
-      <c r="F86" s="251"/>
-      <c r="G86" s="251"/>
-      <c r="H86" s="251"/>
-      <c r="I86" s="251"/>
-      <c r="J86" s="251"/>
-      <c r="K86" s="251"/>
-      <c r="L86" s="251"/>
-      <c r="M86" s="251"/>
-      <c r="N86" s="251"/>
-      <c r="O86" s="251"/>
-      <c r="P86" s="251"/>
-      <c r="Q86" s="251"/>
-      <c r="R86" s="251"/>
-      <c r="S86" s="251"/>
-      <c r="T86" s="251"/>
-      <c r="U86" s="251"/>
-      <c r="V86" s="251"/>
-      <c r="W86" s="251"/>
-      <c r="X86" s="251"/>
-      <c r="Y86" s="251"/>
-      <c r="Z86" s="251"/>
-      <c r="AA86" s="251"/>
-      <c r="AB86" s="251"/>
-      <c r="AC86" s="251"/>
-      <c r="AD86" s="251"/>
-      <c r="AE86" s="251"/>
-      <c r="AF86" s="251"/>
-      <c r="AG86" s="251"/>
-      <c r="AH86" s="251"/>
-      <c r="AI86" s="251"/>
-      <c r="AJ86" s="251"/>
-      <c r="AK86" s="251"/>
-      <c r="AL86" s="251"/>
-      <c r="AM86" s="251"/>
-      <c r="AN86" s="251"/>
-      <c r="AO86" s="251"/>
-      <c r="AP86" s="251"/>
-      <c r="AQ86" s="251"/>
-      <c r="AR86" s="251"/>
-      <c r="AS86" s="251"/>
-      <c r="AT86" s="251"/>
-      <c r="AU86" s="251"/>
-      <c r="AV86" s="251"/>
-      <c r="AW86" s="251"/>
-      <c r="AX86" s="251"/>
-      <c r="AY86" s="251"/>
-      <c r="AZ86" s="251"/>
-      <c r="BA86" s="251"/>
-      <c r="BB86" s="251"/>
-      <c r="BC86" s="251"/>
-      <c r="BD86" s="251"/>
-      <c r="BE86" s="251"/>
-      <c r="BF86" s="251"/>
-      <c r="BG86" s="251"/>
-      <c r="BH86" s="251"/>
-      <c r="BI86" s="251"/>
-      <c r="BJ86" s="251"/>
-      <c r="BK86" s="251"/>
-      <c r="BL86" s="251"/>
-      <c r="BM86" s="251"/>
-      <c r="BN86" s="251"/>
-      <c r="BO86" s="251"/>
-      <c r="BP86" s="251"/>
-      <c r="BQ86" s="251"/>
-      <c r="BR86" s="251"/>
-      <c r="BS86" s="252"/>
+      <c r="D86" s="258"/>
+      <c r="E86" s="258"/>
+      <c r="F86" s="258"/>
+      <c r="G86" s="258"/>
+      <c r="H86" s="258"/>
+      <c r="I86" s="258"/>
+      <c r="J86" s="258"/>
+      <c r="K86" s="258"/>
+      <c r="L86" s="258"/>
+      <c r="M86" s="258"/>
+      <c r="N86" s="258"/>
+      <c r="O86" s="258"/>
+      <c r="P86" s="258"/>
+      <c r="Q86" s="258"/>
+      <c r="R86" s="258"/>
+      <c r="S86" s="258"/>
+      <c r="T86" s="258"/>
+      <c r="U86" s="258"/>
+      <c r="V86" s="258"/>
+      <c r="W86" s="258"/>
+      <c r="X86" s="258"/>
+      <c r="Y86" s="258"/>
+      <c r="Z86" s="258"/>
+      <c r="AA86" s="258"/>
+      <c r="AB86" s="258"/>
+      <c r="AC86" s="258"/>
+      <c r="AD86" s="258"/>
+      <c r="AE86" s="258"/>
+      <c r="AF86" s="258"/>
+      <c r="AG86" s="258"/>
+      <c r="AH86" s="258"/>
+      <c r="AI86" s="258"/>
+      <c r="AJ86" s="258"/>
+      <c r="AK86" s="258"/>
+      <c r="AL86" s="258"/>
+      <c r="AM86" s="258"/>
+      <c r="AN86" s="258"/>
+      <c r="AO86" s="258"/>
+      <c r="AP86" s="258"/>
+      <c r="AQ86" s="258"/>
+      <c r="AR86" s="258"/>
+      <c r="AS86" s="258"/>
+      <c r="AT86" s="258"/>
+      <c r="AU86" s="258"/>
+      <c r="AV86" s="258"/>
+      <c r="AW86" s="258"/>
+      <c r="AX86" s="258"/>
+      <c r="AY86" s="258"/>
+      <c r="AZ86" s="258"/>
+      <c r="BA86" s="258"/>
+      <c r="BB86" s="258"/>
+      <c r="BC86" s="258"/>
+      <c r="BD86" s="258"/>
+      <c r="BE86" s="258"/>
+      <c r="BF86" s="258"/>
+      <c r="BG86" s="258"/>
+      <c r="BH86" s="258"/>
+      <c r="BI86" s="258"/>
+      <c r="BJ86" s="258"/>
+      <c r="BK86" s="258"/>
+      <c r="BL86" s="258"/>
+      <c r="BM86" s="258"/>
+      <c r="BN86" s="258"/>
+      <c r="BO86" s="258"/>
+      <c r="BP86" s="258"/>
+      <c r="BQ86" s="258"/>
+      <c r="BR86" s="258"/>
+      <c r="BS86" s="259"/>
     </row>
     <row r="87" spans="2:71">
       <c r="B87" s="209" t="str">
         <f t="shared" si="51"/>
         <v>0.1</v>
       </c>
-      <c r="C87" s="251" t="s">
+      <c r="C87" s="258" t="s">
         <v>1196</v>
       </c>
-      <c r="D87" s="251"/>
-      <c r="E87" s="251"/>
-      <c r="F87" s="251"/>
-      <c r="G87" s="251"/>
-      <c r="H87" s="251"/>
-      <c r="I87" s="251"/>
-      <c r="J87" s="251"/>
-      <c r="K87" s="251"/>
-      <c r="L87" s="251"/>
-      <c r="M87" s="251"/>
-      <c r="N87" s="251"/>
-      <c r="O87" s="251"/>
-      <c r="P87" s="251"/>
-      <c r="Q87" s="251"/>
-      <c r="R87" s="251"/>
-      <c r="S87" s="251"/>
-      <c r="T87" s="251"/>
-      <c r="U87" s="251"/>
-      <c r="V87" s="251"/>
-      <c r="W87" s="251"/>
-      <c r="X87" s="251"/>
-      <c r="Y87" s="251"/>
-      <c r="Z87" s="251"/>
-      <c r="AA87" s="251"/>
-      <c r="AB87" s="251"/>
-      <c r="AC87" s="251"/>
-      <c r="AD87" s="251"/>
-      <c r="AE87" s="251"/>
-      <c r="AF87" s="251"/>
-      <c r="AG87" s="251"/>
-      <c r="AH87" s="251"/>
-      <c r="AI87" s="251"/>
-      <c r="AJ87" s="251"/>
-      <c r="AK87" s="251"/>
-      <c r="AL87" s="251"/>
-      <c r="AM87" s="251"/>
-      <c r="AN87" s="251"/>
-      <c r="AO87" s="251"/>
-      <c r="AP87" s="251"/>
-      <c r="AQ87" s="251"/>
-      <c r="AR87" s="251"/>
-      <c r="AS87" s="251"/>
-      <c r="AT87" s="251"/>
-      <c r="AU87" s="251"/>
-      <c r="AV87" s="251"/>
-      <c r="AW87" s="251"/>
-      <c r="AX87" s="251"/>
-      <c r="AY87" s="251"/>
-      <c r="AZ87" s="251"/>
-      <c r="BA87" s="251"/>
-      <c r="BB87" s="251"/>
-      <c r="BC87" s="251"/>
-      <c r="BD87" s="251"/>
-      <c r="BE87" s="251"/>
-      <c r="BF87" s="251"/>
-      <c r="BG87" s="251"/>
-      <c r="BH87" s="251"/>
-      <c r="BI87" s="251"/>
-      <c r="BJ87" s="251"/>
-      <c r="BK87" s="251"/>
-      <c r="BL87" s="251"/>
-      <c r="BM87" s="251"/>
-      <c r="BN87" s="251"/>
-      <c r="BO87" s="251"/>
-      <c r="BP87" s="251"/>
-      <c r="BQ87" s="251"/>
-      <c r="BR87" s="251"/>
-      <c r="BS87" s="252"/>
+      <c r="D87" s="258"/>
+      <c r="E87" s="258"/>
+      <c r="F87" s="258"/>
+      <c r="G87" s="258"/>
+      <c r="H87" s="258"/>
+      <c r="I87" s="258"/>
+      <c r="J87" s="258"/>
+      <c r="K87" s="258"/>
+      <c r="L87" s="258"/>
+      <c r="M87" s="258"/>
+      <c r="N87" s="258"/>
+      <c r="O87" s="258"/>
+      <c r="P87" s="258"/>
+      <c r="Q87" s="258"/>
+      <c r="R87" s="258"/>
+      <c r="S87" s="258"/>
+      <c r="T87" s="258"/>
+      <c r="U87" s="258"/>
+      <c r="V87" s="258"/>
+      <c r="W87" s="258"/>
+      <c r="X87" s="258"/>
+      <c r="Y87" s="258"/>
+      <c r="Z87" s="258"/>
+      <c r="AA87" s="258"/>
+      <c r="AB87" s="258"/>
+      <c r="AC87" s="258"/>
+      <c r="AD87" s="258"/>
+      <c r="AE87" s="258"/>
+      <c r="AF87" s="258"/>
+      <c r="AG87" s="258"/>
+      <c r="AH87" s="258"/>
+      <c r="AI87" s="258"/>
+      <c r="AJ87" s="258"/>
+      <c r="AK87" s="258"/>
+      <c r="AL87" s="258"/>
+      <c r="AM87" s="258"/>
+      <c r="AN87" s="258"/>
+      <c r="AO87" s="258"/>
+      <c r="AP87" s="258"/>
+      <c r="AQ87" s="258"/>
+      <c r="AR87" s="258"/>
+      <c r="AS87" s="258"/>
+      <c r="AT87" s="258"/>
+      <c r="AU87" s="258"/>
+      <c r="AV87" s="258"/>
+      <c r="AW87" s="258"/>
+      <c r="AX87" s="258"/>
+      <c r="AY87" s="258"/>
+      <c r="AZ87" s="258"/>
+      <c r="BA87" s="258"/>
+      <c r="BB87" s="258"/>
+      <c r="BC87" s="258"/>
+      <c r="BD87" s="258"/>
+      <c r="BE87" s="258"/>
+      <c r="BF87" s="258"/>
+      <c r="BG87" s="258"/>
+      <c r="BH87" s="258"/>
+      <c r="BI87" s="258"/>
+      <c r="BJ87" s="258"/>
+      <c r="BK87" s="258"/>
+      <c r="BL87" s="258"/>
+      <c r="BM87" s="258"/>
+      <c r="BN87" s="258"/>
+      <c r="BO87" s="258"/>
+      <c r="BP87" s="258"/>
+      <c r="BQ87" s="258"/>
+      <c r="BR87" s="258"/>
+      <c r="BS87" s="259"/>
     </row>
     <row r="88" spans="2:71">
       <c r="B88" s="209" t="str">
         <f t="shared" si="51"/>
         <v>0.1</v>
       </c>
-      <c r="C88" s="251" t="s">
+      <c r="C88" s="258" t="s">
         <v>1195</v>
       </c>
-      <c r="D88" s="251"/>
-      <c r="E88" s="251"/>
-      <c r="F88" s="251"/>
-      <c r="G88" s="251"/>
-      <c r="H88" s="251"/>
-      <c r="I88" s="251"/>
-      <c r="J88" s="251"/>
-      <c r="K88" s="251"/>
-      <c r="L88" s="251"/>
-      <c r="M88" s="251"/>
-      <c r="N88" s="251"/>
-      <c r="O88" s="251"/>
-      <c r="P88" s="251"/>
-      <c r="Q88" s="251"/>
-      <c r="R88" s="251"/>
-      <c r="S88" s="251"/>
-      <c r="T88" s="251"/>
-      <c r="U88" s="251"/>
-      <c r="V88" s="251"/>
-      <c r="W88" s="251"/>
-      <c r="X88" s="251"/>
-      <c r="Y88" s="251"/>
-      <c r="Z88" s="251"/>
-      <c r="AA88" s="251"/>
-      <c r="AB88" s="251"/>
-      <c r="AC88" s="251"/>
-      <c r="AD88" s="251"/>
-      <c r="AE88" s="251"/>
-      <c r="AF88" s="251"/>
-      <c r="AG88" s="251"/>
-      <c r="AH88" s="251"/>
-      <c r="AI88" s="251"/>
-      <c r="AJ88" s="251"/>
-      <c r="AK88" s="251"/>
-      <c r="AL88" s="251"/>
-      <c r="AM88" s="251"/>
-      <c r="AN88" s="251"/>
-      <c r="AO88" s="251"/>
-      <c r="AP88" s="251"/>
-      <c r="AQ88" s="251"/>
-      <c r="AR88" s="251"/>
-      <c r="AS88" s="251"/>
-      <c r="AT88" s="251"/>
-      <c r="AU88" s="251"/>
-      <c r="AV88" s="251"/>
-      <c r="AW88" s="251"/>
-      <c r="AX88" s="251"/>
-      <c r="AY88" s="251"/>
-      <c r="AZ88" s="251"/>
-      <c r="BA88" s="251"/>
-      <c r="BB88" s="251"/>
-      <c r="BC88" s="251"/>
-      <c r="BD88" s="251"/>
-      <c r="BE88" s="251"/>
-      <c r="BF88" s="251"/>
-      <c r="BG88" s="251"/>
-      <c r="BH88" s="251"/>
-      <c r="BI88" s="251"/>
-      <c r="BJ88" s="251"/>
-      <c r="BK88" s="251"/>
-      <c r="BL88" s="251"/>
-      <c r="BM88" s="251"/>
-      <c r="BN88" s="251"/>
-      <c r="BO88" s="251"/>
-      <c r="BP88" s="251"/>
-      <c r="BQ88" s="251"/>
-      <c r="BR88" s="251"/>
-      <c r="BS88" s="252"/>
+      <c r="D88" s="258"/>
+      <c r="E88" s="258"/>
+      <c r="F88" s="258"/>
+      <c r="G88" s="258"/>
+      <c r="H88" s="258"/>
+      <c r="I88" s="258"/>
+      <c r="J88" s="258"/>
+      <c r="K88" s="258"/>
+      <c r="L88" s="258"/>
+      <c r="M88" s="258"/>
+      <c r="N88" s="258"/>
+      <c r="O88" s="258"/>
+      <c r="P88" s="258"/>
+      <c r="Q88" s="258"/>
+      <c r="R88" s="258"/>
+      <c r="S88" s="258"/>
+      <c r="T88" s="258"/>
+      <c r="U88" s="258"/>
+      <c r="V88" s="258"/>
+      <c r="W88" s="258"/>
+      <c r="X88" s="258"/>
+      <c r="Y88" s="258"/>
+      <c r="Z88" s="258"/>
+      <c r="AA88" s="258"/>
+      <c r="AB88" s="258"/>
+      <c r="AC88" s="258"/>
+      <c r="AD88" s="258"/>
+      <c r="AE88" s="258"/>
+      <c r="AF88" s="258"/>
+      <c r="AG88" s="258"/>
+      <c r="AH88" s="258"/>
+      <c r="AI88" s="258"/>
+      <c r="AJ88" s="258"/>
+      <c r="AK88" s="258"/>
+      <c r="AL88" s="258"/>
+      <c r="AM88" s="258"/>
+      <c r="AN88" s="258"/>
+      <c r="AO88" s="258"/>
+      <c r="AP88" s="258"/>
+      <c r="AQ88" s="258"/>
+      <c r="AR88" s="258"/>
+      <c r="AS88" s="258"/>
+      <c r="AT88" s="258"/>
+      <c r="AU88" s="258"/>
+      <c r="AV88" s="258"/>
+      <c r="AW88" s="258"/>
+      <c r="AX88" s="258"/>
+      <c r="AY88" s="258"/>
+      <c r="AZ88" s="258"/>
+      <c r="BA88" s="258"/>
+      <c r="BB88" s="258"/>
+      <c r="BC88" s="258"/>
+      <c r="BD88" s="258"/>
+      <c r="BE88" s="258"/>
+      <c r="BF88" s="258"/>
+      <c r="BG88" s="258"/>
+      <c r="BH88" s="258"/>
+      <c r="BI88" s="258"/>
+      <c r="BJ88" s="258"/>
+      <c r="BK88" s="258"/>
+      <c r="BL88" s="258"/>
+      <c r="BM88" s="258"/>
+      <c r="BN88" s="258"/>
+      <c r="BO88" s="258"/>
+      <c r="BP88" s="258"/>
+      <c r="BQ88" s="258"/>
+      <c r="BR88" s="258"/>
+      <c r="BS88" s="259"/>
     </row>
     <row r="89" spans="2:71">
       <c r="B89" s="209" t="str">
         <f t="shared" si="51"/>
         <v>0.1</v>
       </c>
-      <c r="C89" s="251" t="s">
+      <c r="C89" s="258" t="s">
         <v>1194</v>
       </c>
-      <c r="D89" s="251"/>
-      <c r="E89" s="251"/>
-      <c r="F89" s="251"/>
-      <c r="G89" s="251"/>
-      <c r="H89" s="251"/>
-      <c r="I89" s="251"/>
-      <c r="J89" s="251"/>
-      <c r="K89" s="251"/>
-      <c r="L89" s="251"/>
-      <c r="M89" s="251"/>
-      <c r="N89" s="251"/>
-      <c r="O89" s="251"/>
-      <c r="P89" s="251"/>
-      <c r="Q89" s="251"/>
-      <c r="R89" s="251"/>
-      <c r="S89" s="251"/>
-      <c r="T89" s="251"/>
-      <c r="U89" s="251"/>
-      <c r="V89" s="251"/>
-      <c r="W89" s="251"/>
-      <c r="X89" s="251"/>
-      <c r="Y89" s="251"/>
-      <c r="Z89" s="251"/>
-      <c r="AA89" s="251"/>
-      <c r="AB89" s="251"/>
-      <c r="AC89" s="251"/>
-      <c r="AD89" s="251"/>
-      <c r="AE89" s="251"/>
-      <c r="AF89" s="251"/>
-      <c r="AG89" s="251"/>
-      <c r="AH89" s="251"/>
-      <c r="AI89" s="251"/>
-      <c r="AJ89" s="251"/>
-      <c r="AK89" s="251"/>
-      <c r="AL89" s="251"/>
-      <c r="AM89" s="251"/>
-      <c r="AN89" s="251"/>
-      <c r="AO89" s="251"/>
-      <c r="AP89" s="251"/>
-      <c r="AQ89" s="251"/>
-      <c r="AR89" s="251"/>
-      <c r="AS89" s="251"/>
-      <c r="AT89" s="251"/>
-      <c r="AU89" s="251"/>
-      <c r="AV89" s="251"/>
-      <c r="AW89" s="251"/>
-      <c r="AX89" s="251"/>
-      <c r="AY89" s="251"/>
-      <c r="AZ89" s="251"/>
-      <c r="BA89" s="251"/>
-      <c r="BB89" s="251"/>
-      <c r="BC89" s="251"/>
-      <c r="BD89" s="251"/>
-      <c r="BE89" s="251"/>
-      <c r="BF89" s="251"/>
-      <c r="BG89" s="251"/>
-      <c r="BH89" s="251"/>
-      <c r="BI89" s="251"/>
-      <c r="BJ89" s="251"/>
-      <c r="BK89" s="251"/>
-      <c r="BL89" s="251"/>
-      <c r="BM89" s="251"/>
-      <c r="BN89" s="251"/>
-      <c r="BO89" s="251"/>
-      <c r="BP89" s="251"/>
-      <c r="BQ89" s="251"/>
-      <c r="BR89" s="251"/>
-      <c r="BS89" s="252"/>
+      <c r="D89" s="258"/>
+      <c r="E89" s="258"/>
+      <c r="F89" s="258"/>
+      <c r="G89" s="258"/>
+      <c r="H89" s="258"/>
+      <c r="I89" s="258"/>
+      <c r="J89" s="258"/>
+      <c r="K89" s="258"/>
+      <c r="L89" s="258"/>
+      <c r="M89" s="258"/>
+      <c r="N89" s="258"/>
+      <c r="O89" s="258"/>
+      <c r="P89" s="258"/>
+      <c r="Q89" s="258"/>
+      <c r="R89" s="258"/>
+      <c r="S89" s="258"/>
+      <c r="T89" s="258"/>
+      <c r="U89" s="258"/>
+      <c r="V89" s="258"/>
+      <c r="W89" s="258"/>
+      <c r="X89" s="258"/>
+      <c r="Y89" s="258"/>
+      <c r="Z89" s="258"/>
+      <c r="AA89" s="258"/>
+      <c r="AB89" s="258"/>
+      <c r="AC89" s="258"/>
+      <c r="AD89" s="258"/>
+      <c r="AE89" s="258"/>
+      <c r="AF89" s="258"/>
+      <c r="AG89" s="258"/>
+      <c r="AH89" s="258"/>
+      <c r="AI89" s="258"/>
+      <c r="AJ89" s="258"/>
+      <c r="AK89" s="258"/>
+      <c r="AL89" s="258"/>
+      <c r="AM89" s="258"/>
+      <c r="AN89" s="258"/>
+      <c r="AO89" s="258"/>
+      <c r="AP89" s="258"/>
+      <c r="AQ89" s="258"/>
+      <c r="AR89" s="258"/>
+      <c r="AS89" s="258"/>
+      <c r="AT89" s="258"/>
+      <c r="AU89" s="258"/>
+      <c r="AV89" s="258"/>
+      <c r="AW89" s="258"/>
+      <c r="AX89" s="258"/>
+      <c r="AY89" s="258"/>
+      <c r="AZ89" s="258"/>
+      <c r="BA89" s="258"/>
+      <c r="BB89" s="258"/>
+      <c r="BC89" s="258"/>
+      <c r="BD89" s="258"/>
+      <c r="BE89" s="258"/>
+      <c r="BF89" s="258"/>
+      <c r="BG89" s="258"/>
+      <c r="BH89" s="258"/>
+      <c r="BI89" s="258"/>
+      <c r="BJ89" s="258"/>
+      <c r="BK89" s="258"/>
+      <c r="BL89" s="258"/>
+      <c r="BM89" s="258"/>
+      <c r="BN89" s="258"/>
+      <c r="BO89" s="258"/>
+      <c r="BP89" s="258"/>
+      <c r="BQ89" s="258"/>
+      <c r="BR89" s="258"/>
+      <c r="BS89" s="259"/>
     </row>
     <row r="90" spans="2:71">
       <c r="B90" s="209" t="str">
         <f t="shared" si="51"/>
         <v>0.1</v>
       </c>
-      <c r="C90" s="251" t="s">
+      <c r="C90" s="258" t="s">
         <v>1193</v>
       </c>
-      <c r="D90" s="251"/>
-      <c r="E90" s="251"/>
-      <c r="F90" s="251"/>
-      <c r="G90" s="251"/>
-      <c r="H90" s="251"/>
-      <c r="I90" s="251"/>
-      <c r="J90" s="251"/>
-      <c r="K90" s="251"/>
-      <c r="L90" s="251"/>
-      <c r="M90" s="251"/>
-      <c r="N90" s="251"/>
-      <c r="O90" s="251"/>
-      <c r="P90" s="251"/>
-      <c r="Q90" s="251"/>
-      <c r="R90" s="251"/>
-      <c r="S90" s="251"/>
-      <c r="T90" s="251"/>
-      <c r="U90" s="251"/>
-      <c r="V90" s="251"/>
-      <c r="W90" s="251"/>
-      <c r="X90" s="251"/>
-      <c r="Y90" s="251"/>
-      <c r="Z90" s="251"/>
-      <c r="AA90" s="251"/>
-      <c r="AB90" s="251"/>
-      <c r="AC90" s="251"/>
-      <c r="AD90" s="251"/>
-      <c r="AE90" s="251"/>
-      <c r="AF90" s="251"/>
-      <c r="AG90" s="251"/>
-      <c r="AH90" s="251"/>
-      <c r="AI90" s="251"/>
-      <c r="AJ90" s="251"/>
-      <c r="AK90" s="251"/>
-      <c r="AL90" s="251"/>
-      <c r="AM90" s="251"/>
-      <c r="AN90" s="251"/>
-      <c r="AO90" s="251"/>
-      <c r="AP90" s="251"/>
-      <c r="AQ90" s="251"/>
-      <c r="AR90" s="251"/>
-      <c r="AS90" s="251"/>
-      <c r="AT90" s="251"/>
-      <c r="AU90" s="251"/>
-      <c r="AV90" s="251"/>
-      <c r="AW90" s="251"/>
-      <c r="AX90" s="251"/>
-      <c r="AY90" s="251"/>
-      <c r="AZ90" s="251"/>
-      <c r="BA90" s="251"/>
-      <c r="BB90" s="251"/>
-      <c r="BC90" s="251"/>
-      <c r="BD90" s="251"/>
-      <c r="BE90" s="251"/>
-      <c r="BF90" s="251"/>
-      <c r="BG90" s="251"/>
-      <c r="BH90" s="251"/>
-      <c r="BI90" s="251"/>
-      <c r="BJ90" s="251"/>
-      <c r="BK90" s="251"/>
-      <c r="BL90" s="251"/>
-      <c r="BM90" s="251"/>
-      <c r="BN90" s="251"/>
-      <c r="BO90" s="251"/>
-      <c r="BP90" s="251"/>
-      <c r="BQ90" s="251"/>
-      <c r="BR90" s="251"/>
-      <c r="BS90" s="252"/>
+      <c r="D90" s="258"/>
+      <c r="E90" s="258"/>
+      <c r="F90" s="258"/>
+      <c r="G90" s="258"/>
+      <c r="H90" s="258"/>
+      <c r="I90" s="258"/>
+      <c r="J90" s="258"/>
+      <c r="K90" s="258"/>
+      <c r="L90" s="258"/>
+      <c r="M90" s="258"/>
+      <c r="N90" s="258"/>
+      <c r="O90" s="258"/>
+      <c r="P90" s="258"/>
+      <c r="Q90" s="258"/>
+      <c r="R90" s="258"/>
+      <c r="S90" s="258"/>
+      <c r="T90" s="258"/>
+      <c r="U90" s="258"/>
+      <c r="V90" s="258"/>
+      <c r="W90" s="258"/>
+      <c r="X90" s="258"/>
+      <c r="Y90" s="258"/>
+      <c r="Z90" s="258"/>
+      <c r="AA90" s="258"/>
+      <c r="AB90" s="258"/>
+      <c r="AC90" s="258"/>
+      <c r="AD90" s="258"/>
+      <c r="AE90" s="258"/>
+      <c r="AF90" s="258"/>
+      <c r="AG90" s="258"/>
+      <c r="AH90" s="258"/>
+      <c r="AI90" s="258"/>
+      <c r="AJ90" s="258"/>
+      <c r="AK90" s="258"/>
+      <c r="AL90" s="258"/>
+      <c r="AM90" s="258"/>
+      <c r="AN90" s="258"/>
+      <c r="AO90" s="258"/>
+      <c r="AP90" s="258"/>
+      <c r="AQ90" s="258"/>
+      <c r="AR90" s="258"/>
+      <c r="AS90" s="258"/>
+      <c r="AT90" s="258"/>
+      <c r="AU90" s="258"/>
+      <c r="AV90" s="258"/>
+      <c r="AW90" s="258"/>
+      <c r="AX90" s="258"/>
+      <c r="AY90" s="258"/>
+      <c r="AZ90" s="258"/>
+      <c r="BA90" s="258"/>
+      <c r="BB90" s="258"/>
+      <c r="BC90" s="258"/>
+      <c r="BD90" s="258"/>
+      <c r="BE90" s="258"/>
+      <c r="BF90" s="258"/>
+      <c r="BG90" s="258"/>
+      <c r="BH90" s="258"/>
+      <c r="BI90" s="258"/>
+      <c r="BJ90" s="258"/>
+      <c r="BK90" s="258"/>
+      <c r="BL90" s="258"/>
+      <c r="BM90" s="258"/>
+      <c r="BN90" s="258"/>
+      <c r="BO90" s="258"/>
+      <c r="BP90" s="258"/>
+      <c r="BQ90" s="258"/>
+      <c r="BR90" s="258"/>
+      <c r="BS90" s="259"/>
     </row>
     <row r="91" spans="2:71" ht="17.25" thickBot="1">
       <c r="B91" s="208" t="str">
         <f t="shared" si="51"/>
         <v>0.1</v>
       </c>
-      <c r="C91" s="255" t="s">
+      <c r="C91" s="260" t="s">
         <v>1192</v>
       </c>
-      <c r="D91" s="255"/>
-      <c r="E91" s="255"/>
-      <c r="F91" s="255"/>
-      <c r="G91" s="255"/>
-      <c r="H91" s="255"/>
-      <c r="I91" s="255"/>
-      <c r="J91" s="255"/>
-      <c r="K91" s="255"/>
-      <c r="L91" s="255"/>
-      <c r="M91" s="255"/>
-      <c r="N91" s="255"/>
-      <c r="O91" s="255"/>
-      <c r="P91" s="255"/>
-      <c r="Q91" s="255"/>
-      <c r="R91" s="255"/>
-      <c r="S91" s="255"/>
-      <c r="T91" s="255"/>
-      <c r="U91" s="255"/>
-      <c r="V91" s="255"/>
-      <c r="W91" s="255"/>
-      <c r="X91" s="255"/>
-      <c r="Y91" s="255"/>
-      <c r="Z91" s="255"/>
-      <c r="AA91" s="255"/>
-      <c r="AB91" s="255"/>
-      <c r="AC91" s="255"/>
-      <c r="AD91" s="255"/>
-      <c r="AE91" s="255"/>
-      <c r="AF91" s="255"/>
-      <c r="AG91" s="255"/>
-      <c r="AH91" s="255"/>
-      <c r="AI91" s="255"/>
-      <c r="AJ91" s="255"/>
-      <c r="AK91" s="255"/>
-      <c r="AL91" s="255"/>
-      <c r="AM91" s="255"/>
-      <c r="AN91" s="255"/>
-      <c r="AO91" s="255"/>
-      <c r="AP91" s="255"/>
-      <c r="AQ91" s="255"/>
-      <c r="AR91" s="255"/>
-      <c r="AS91" s="255"/>
-      <c r="AT91" s="255"/>
-      <c r="AU91" s="255"/>
-      <c r="AV91" s="255"/>
-      <c r="AW91" s="255"/>
-      <c r="AX91" s="255"/>
-      <c r="AY91" s="255"/>
-      <c r="AZ91" s="255"/>
-      <c r="BA91" s="255"/>
-      <c r="BB91" s="255"/>
-      <c r="BC91" s="255"/>
-      <c r="BD91" s="255"/>
-      <c r="BE91" s="255"/>
-      <c r="BF91" s="255"/>
-      <c r="BG91" s="255"/>
-      <c r="BH91" s="255"/>
-      <c r="BI91" s="255"/>
-      <c r="BJ91" s="255"/>
-      <c r="BK91" s="255"/>
-      <c r="BL91" s="255"/>
-      <c r="BM91" s="255"/>
-      <c r="BN91" s="255"/>
-      <c r="BO91" s="255"/>
-      <c r="BP91" s="255"/>
-      <c r="BQ91" s="255"/>
-      <c r="BR91" s="255"/>
-      <c r="BS91" s="256"/>
+      <c r="D91" s="260"/>
+      <c r="E91" s="260"/>
+      <c r="F91" s="260"/>
+      <c r="G91" s="260"/>
+      <c r="H91" s="260"/>
+      <c r="I91" s="260"/>
+      <c r="J91" s="260"/>
+      <c r="K91" s="260"/>
+      <c r="L91" s="260"/>
+      <c r="M91" s="260"/>
+      <c r="N91" s="260"/>
+      <c r="O91" s="260"/>
+      <c r="P91" s="260"/>
+      <c r="Q91" s="260"/>
+      <c r="R91" s="260"/>
+      <c r="S91" s="260"/>
+      <c r="T91" s="260"/>
+      <c r="U91" s="260"/>
+      <c r="V91" s="260"/>
+      <c r="W91" s="260"/>
+      <c r="X91" s="260"/>
+      <c r="Y91" s="260"/>
+      <c r="Z91" s="260"/>
+      <c r="AA91" s="260"/>
+      <c r="AB91" s="260"/>
+      <c r="AC91" s="260"/>
+      <c r="AD91" s="260"/>
+      <c r="AE91" s="260"/>
+      <c r="AF91" s="260"/>
+      <c r="AG91" s="260"/>
+      <c r="AH91" s="260"/>
+      <c r="AI91" s="260"/>
+      <c r="AJ91" s="260"/>
+      <c r="AK91" s="260"/>
+      <c r="AL91" s="260"/>
+      <c r="AM91" s="260"/>
+      <c r="AN91" s="260"/>
+      <c r="AO91" s="260"/>
+      <c r="AP91" s="260"/>
+      <c r="AQ91" s="260"/>
+      <c r="AR91" s="260"/>
+      <c r="AS91" s="260"/>
+      <c r="AT91" s="260"/>
+      <c r="AU91" s="260"/>
+      <c r="AV91" s="260"/>
+      <c r="AW91" s="260"/>
+      <c r="AX91" s="260"/>
+      <c r="AY91" s="260"/>
+      <c r="AZ91" s="260"/>
+      <c r="BA91" s="260"/>
+      <c r="BB91" s="260"/>
+      <c r="BC91" s="260"/>
+      <c r="BD91" s="260"/>
+      <c r="BE91" s="260"/>
+      <c r="BF91" s="260"/>
+      <c r="BG91" s="260"/>
+      <c r="BH91" s="260"/>
+      <c r="BI91" s="260"/>
+      <c r="BJ91" s="260"/>
+      <c r="BK91" s="260"/>
+      <c r="BL91" s="260"/>
+      <c r="BM91" s="260"/>
+      <c r="BN91" s="260"/>
+      <c r="BO91" s="260"/>
+      <c r="BP91" s="260"/>
+      <c r="BQ91" s="260"/>
+      <c r="BR91" s="260"/>
+      <c r="BS91" s="261"/>
     </row>
     <row r="92" spans="2:71" ht="17.25" thickBot="1">
       <c r="B92" s="212" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="C92" s="253" t="s">
+      <c r="C92" s="254" t="s">
         <v>1191</v>
       </c>
-      <c r="D92" s="253"/>
-      <c r="E92" s="253"/>
-      <c r="F92" s="253"/>
-      <c r="G92" s="253"/>
-      <c r="H92" s="253"/>
-      <c r="I92" s="253"/>
-      <c r="J92" s="253"/>
-      <c r="K92" s="253"/>
-      <c r="L92" s="253"/>
-      <c r="M92" s="253"/>
-      <c r="N92" s="253"/>
-      <c r="O92" s="253"/>
-      <c r="P92" s="253"/>
-      <c r="Q92" s="253"/>
-      <c r="R92" s="253"/>
-      <c r="S92" s="253"/>
-      <c r="T92" s="253"/>
-      <c r="U92" s="253"/>
-      <c r="V92" s="253"/>
-      <c r="W92" s="253"/>
-      <c r="X92" s="253"/>
-      <c r="Y92" s="253"/>
-      <c r="Z92" s="253"/>
-      <c r="AA92" s="253"/>
-      <c r="AB92" s="253"/>
-      <c r="AC92" s="253"/>
-      <c r="AD92" s="253"/>
-      <c r="AE92" s="253"/>
-      <c r="AF92" s="253"/>
-      <c r="AG92" s="253"/>
-      <c r="AH92" s="253"/>
-      <c r="AI92" s="253"/>
-      <c r="AJ92" s="253"/>
-      <c r="AK92" s="253"/>
-      <c r="AL92" s="253"/>
-      <c r="AM92" s="253"/>
-      <c r="AN92" s="253"/>
-      <c r="AO92" s="253"/>
-      <c r="AP92" s="253"/>
-      <c r="AQ92" s="253"/>
-      <c r="AR92" s="253"/>
-      <c r="AS92" s="253"/>
-      <c r="AT92" s="253"/>
-      <c r="AU92" s="253"/>
-      <c r="AV92" s="253"/>
-      <c r="AW92" s="253"/>
-      <c r="AX92" s="253"/>
-      <c r="AY92" s="253"/>
-      <c r="AZ92" s="253"/>
-      <c r="BA92" s="253"/>
-      <c r="BB92" s="253"/>
-      <c r="BC92" s="253"/>
-      <c r="BD92" s="253"/>
-      <c r="BE92" s="253"/>
-      <c r="BF92" s="253"/>
-      <c r="BG92" s="253"/>
-      <c r="BH92" s="253"/>
-      <c r="BI92" s="253"/>
-      <c r="BJ92" s="253"/>
-      <c r="BK92" s="253"/>
-      <c r="BL92" s="253"/>
-      <c r="BM92" s="253"/>
-      <c r="BN92" s="253"/>
-      <c r="BO92" s="253"/>
-      <c r="BP92" s="253"/>
-      <c r="BQ92" s="253"/>
-      <c r="BR92" s="253"/>
-      <c r="BS92" s="254"/>
+      <c r="D92" s="254"/>
+      <c r="E92" s="254"/>
+      <c r="F92" s="254"/>
+      <c r="G92" s="254"/>
+      <c r="H92" s="254"/>
+      <c r="I92" s="254"/>
+      <c r="J92" s="254"/>
+      <c r="K92" s="254"/>
+      <c r="L92" s="254"/>
+      <c r="M92" s="254"/>
+      <c r="N92" s="254"/>
+      <c r="O92" s="254"/>
+      <c r="P92" s="254"/>
+      <c r="Q92" s="254"/>
+      <c r="R92" s="254"/>
+      <c r="S92" s="254"/>
+      <c r="T92" s="254"/>
+      <c r="U92" s="254"/>
+      <c r="V92" s="254"/>
+      <c r="W92" s="254"/>
+      <c r="X92" s="254"/>
+      <c r="Y92" s="254"/>
+      <c r="Z92" s="254"/>
+      <c r="AA92" s="254"/>
+      <c r="AB92" s="254"/>
+      <c r="AC92" s="254"/>
+      <c r="AD92" s="254"/>
+      <c r="AE92" s="254"/>
+      <c r="AF92" s="254"/>
+      <c r="AG92" s="254"/>
+      <c r="AH92" s="254"/>
+      <c r="AI92" s="254"/>
+      <c r="AJ92" s="254"/>
+      <c r="AK92" s="254"/>
+      <c r="AL92" s="254"/>
+      <c r="AM92" s="254"/>
+      <c r="AN92" s="254"/>
+      <c r="AO92" s="254"/>
+      <c r="AP92" s="254"/>
+      <c r="AQ92" s="254"/>
+      <c r="AR92" s="254"/>
+      <c r="AS92" s="254"/>
+      <c r="AT92" s="254"/>
+      <c r="AU92" s="254"/>
+      <c r="AV92" s="254"/>
+      <c r="AW92" s="254"/>
+      <c r="AX92" s="254"/>
+      <c r="AY92" s="254"/>
+      <c r="AZ92" s="254"/>
+      <c r="BA92" s="254"/>
+      <c r="BB92" s="254"/>
+      <c r="BC92" s="254"/>
+      <c r="BD92" s="254"/>
+      <c r="BE92" s="254"/>
+      <c r="BF92" s="254"/>
+      <c r="BG92" s="254"/>
+      <c r="BH92" s="254"/>
+      <c r="BI92" s="254"/>
+      <c r="BJ92" s="254"/>
+      <c r="BK92" s="254"/>
+      <c r="BL92" s="254"/>
+      <c r="BM92" s="254"/>
+      <c r="BN92" s="254"/>
+      <c r="BO92" s="254"/>
+      <c r="BP92" s="254"/>
+      <c r="BQ92" s="254"/>
+      <c r="BR92" s="254"/>
+      <c r="BS92" s="255"/>
     </row>
     <row r="93" spans="2:71">
       <c r="B93" s="211" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C93" s="249" t="s">
+      <c r="C93" s="256" t="s">
         <v>1190</v>
       </c>
-      <c r="D93" s="249"/>
-      <c r="E93" s="249"/>
-      <c r="F93" s="249"/>
-      <c r="G93" s="249"/>
-      <c r="H93" s="249"/>
-      <c r="I93" s="249"/>
-      <c r="J93" s="249"/>
-      <c r="K93" s="249"/>
-      <c r="L93" s="249"/>
-      <c r="M93" s="249"/>
-      <c r="N93" s="249"/>
-      <c r="O93" s="249"/>
-      <c r="P93" s="249"/>
-      <c r="Q93" s="249"/>
-      <c r="R93" s="249"/>
-      <c r="S93" s="249"/>
-      <c r="T93" s="249"/>
-      <c r="U93" s="249"/>
-      <c r="V93" s="249"/>
-      <c r="W93" s="249"/>
-      <c r="X93" s="249"/>
-      <c r="Y93" s="249"/>
-      <c r="Z93" s="249"/>
-      <c r="AA93" s="249"/>
-      <c r="AB93" s="249"/>
-      <c r="AC93" s="249"/>
-      <c r="AD93" s="249"/>
-      <c r="AE93" s="249"/>
-      <c r="AF93" s="249"/>
-      <c r="AG93" s="249"/>
-      <c r="AH93" s="249"/>
-      <c r="AI93" s="249"/>
-      <c r="AJ93" s="249"/>
-      <c r="AK93" s="249"/>
-      <c r="AL93" s="249"/>
-      <c r="AM93" s="249"/>
-      <c r="AN93" s="249"/>
-      <c r="AO93" s="249"/>
-      <c r="AP93" s="249"/>
-      <c r="AQ93" s="249"/>
-      <c r="AR93" s="249"/>
-      <c r="AS93" s="249"/>
-      <c r="AT93" s="249"/>
-      <c r="AU93" s="249"/>
-      <c r="AV93" s="249"/>
-      <c r="AW93" s="249"/>
-      <c r="AX93" s="249"/>
-      <c r="AY93" s="249"/>
-      <c r="AZ93" s="249"/>
-      <c r="BA93" s="249"/>
-      <c r="BB93" s="249"/>
-      <c r="BC93" s="249"/>
-      <c r="BD93" s="249"/>
-      <c r="BE93" s="249"/>
-      <c r="BF93" s="249"/>
-      <c r="BG93" s="249"/>
-      <c r="BH93" s="249"/>
-      <c r="BI93" s="249"/>
-      <c r="BJ93" s="249"/>
-      <c r="BK93" s="249"/>
-      <c r="BL93" s="249"/>
-      <c r="BM93" s="249"/>
-      <c r="BN93" s="249"/>
-      <c r="BO93" s="249"/>
-      <c r="BP93" s="249"/>
-      <c r="BQ93" s="249"/>
-      <c r="BR93" s="249"/>
-      <c r="BS93" s="250"/>
+      <c r="D93" s="256"/>
+      <c r="E93" s="256"/>
+      <c r="F93" s="256"/>
+      <c r="G93" s="256"/>
+      <c r="H93" s="256"/>
+      <c r="I93" s="256"/>
+      <c r="J93" s="256"/>
+      <c r="K93" s="256"/>
+      <c r="L93" s="256"/>
+      <c r="M93" s="256"/>
+      <c r="N93" s="256"/>
+      <c r="O93" s="256"/>
+      <c r="P93" s="256"/>
+      <c r="Q93" s="256"/>
+      <c r="R93" s="256"/>
+      <c r="S93" s="256"/>
+      <c r="T93" s="256"/>
+      <c r="U93" s="256"/>
+      <c r="V93" s="256"/>
+      <c r="W93" s="256"/>
+      <c r="X93" s="256"/>
+      <c r="Y93" s="256"/>
+      <c r="Z93" s="256"/>
+      <c r="AA93" s="256"/>
+      <c r="AB93" s="256"/>
+      <c r="AC93" s="256"/>
+      <c r="AD93" s="256"/>
+      <c r="AE93" s="256"/>
+      <c r="AF93" s="256"/>
+      <c r="AG93" s="256"/>
+      <c r="AH93" s="256"/>
+      <c r="AI93" s="256"/>
+      <c r="AJ93" s="256"/>
+      <c r="AK93" s="256"/>
+      <c r="AL93" s="256"/>
+      <c r="AM93" s="256"/>
+      <c r="AN93" s="256"/>
+      <c r="AO93" s="256"/>
+      <c r="AP93" s="256"/>
+      <c r="AQ93" s="256"/>
+      <c r="AR93" s="256"/>
+      <c r="AS93" s="256"/>
+      <c r="AT93" s="256"/>
+      <c r="AU93" s="256"/>
+      <c r="AV93" s="256"/>
+      <c r="AW93" s="256"/>
+      <c r="AX93" s="256"/>
+      <c r="AY93" s="256"/>
+      <c r="AZ93" s="256"/>
+      <c r="BA93" s="256"/>
+      <c r="BB93" s="256"/>
+      <c r="BC93" s="256"/>
+      <c r="BD93" s="256"/>
+      <c r="BE93" s="256"/>
+      <c r="BF93" s="256"/>
+      <c r="BG93" s="256"/>
+      <c r="BH93" s="256"/>
+      <c r="BI93" s="256"/>
+      <c r="BJ93" s="256"/>
+      <c r="BK93" s="256"/>
+      <c r="BL93" s="256"/>
+      <c r="BM93" s="256"/>
+      <c r="BN93" s="256"/>
+      <c r="BO93" s="256"/>
+      <c r="BP93" s="256"/>
+      <c r="BQ93" s="256"/>
+      <c r="BR93" s="256"/>
+      <c r="BS93" s="257"/>
     </row>
     <row r="94" spans="2:71">
       <c r="B94" s="209" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C94" s="251" t="s">
+      <c r="C94" s="258" t="s">
         <v>1189</v>
       </c>
-      <c r="D94" s="251"/>
-      <c r="E94" s="251"/>
-      <c r="F94" s="251"/>
-      <c r="G94" s="251"/>
-      <c r="H94" s="251"/>
-      <c r="I94" s="251"/>
-      <c r="J94" s="251"/>
-      <c r="K94" s="251"/>
-      <c r="L94" s="251"/>
-      <c r="M94" s="251"/>
-      <c r="N94" s="251"/>
-      <c r="O94" s="251"/>
-      <c r="P94" s="251"/>
-      <c r="Q94" s="251"/>
-      <c r="R94" s="251"/>
-      <c r="S94" s="251"/>
-      <c r="T94" s="251"/>
-      <c r="U94" s="251"/>
-      <c r="V94" s="251"/>
-      <c r="W94" s="251"/>
-      <c r="X94" s="251"/>
-      <c r="Y94" s="251"/>
-      <c r="Z94" s="251"/>
-      <c r="AA94" s="251"/>
-      <c r="AB94" s="251"/>
-      <c r="AC94" s="251"/>
-      <c r="AD94" s="251"/>
-      <c r="AE94" s="251"/>
-      <c r="AF94" s="251"/>
-      <c r="AG94" s="251"/>
-      <c r="AH94" s="251"/>
-      <c r="AI94" s="251"/>
-      <c r="AJ94" s="251"/>
-      <c r="AK94" s="251"/>
-      <c r="AL94" s="251"/>
-      <c r="AM94" s="251"/>
-      <c r="AN94" s="251"/>
-      <c r="AO94" s="251"/>
-      <c r="AP94" s="251"/>
-      <c r="AQ94" s="251"/>
-      <c r="AR94" s="251"/>
-      <c r="AS94" s="251"/>
-      <c r="AT94" s="251"/>
-      <c r="AU94" s="251"/>
-      <c r="AV94" s="251"/>
-      <c r="AW94" s="251"/>
-      <c r="AX94" s="251"/>
-      <c r="AY94" s="251"/>
-      <c r="AZ94" s="251"/>
-      <c r="BA94" s="251"/>
-      <c r="BB94" s="251"/>
-      <c r="BC94" s="251"/>
-      <c r="BD94" s="251"/>
-      <c r="BE94" s="251"/>
-      <c r="BF94" s="251"/>
-      <c r="BG94" s="251"/>
-      <c r="BH94" s="251"/>
-      <c r="BI94" s="251"/>
-      <c r="BJ94" s="251"/>
-      <c r="BK94" s="251"/>
-      <c r="BL94" s="251"/>
-      <c r="BM94" s="251"/>
-      <c r="BN94" s="251"/>
-      <c r="BO94" s="251"/>
-      <c r="BP94" s="251"/>
-      <c r="BQ94" s="251"/>
-      <c r="BR94" s="251"/>
-      <c r="BS94" s="252"/>
+      <c r="D94" s="258"/>
+      <c r="E94" s="258"/>
+      <c r="F94" s="258"/>
+      <c r="G94" s="258"/>
+      <c r="H94" s="258"/>
+      <c r="I94" s="258"/>
+      <c r="J94" s="258"/>
+      <c r="K94" s="258"/>
+      <c r="L94" s="258"/>
+      <c r="M94" s="258"/>
+      <c r="N94" s="258"/>
+      <c r="O94" s="258"/>
+      <c r="P94" s="258"/>
+      <c r="Q94" s="258"/>
+      <c r="R94" s="258"/>
+      <c r="S94" s="258"/>
+      <c r="T94" s="258"/>
+      <c r="U94" s="258"/>
+      <c r="V94" s="258"/>
+      <c r="W94" s="258"/>
+      <c r="X94" s="258"/>
+      <c r="Y94" s="258"/>
+      <c r="Z94" s="258"/>
+      <c r="AA94" s="258"/>
+      <c r="AB94" s="258"/>
+      <c r="AC94" s="258"/>
+      <c r="AD94" s="258"/>
+      <c r="AE94" s="258"/>
+      <c r="AF94" s="258"/>
+      <c r="AG94" s="258"/>
+      <c r="AH94" s="258"/>
+      <c r="AI94" s="258"/>
+      <c r="AJ94" s="258"/>
+      <c r="AK94" s="258"/>
+      <c r="AL94" s="258"/>
+      <c r="AM94" s="258"/>
+      <c r="AN94" s="258"/>
+      <c r="AO94" s="258"/>
+      <c r="AP94" s="258"/>
+      <c r="AQ94" s="258"/>
+      <c r="AR94" s="258"/>
+      <c r="AS94" s="258"/>
+      <c r="AT94" s="258"/>
+      <c r="AU94" s="258"/>
+      <c r="AV94" s="258"/>
+      <c r="AW94" s="258"/>
+      <c r="AX94" s="258"/>
+      <c r="AY94" s="258"/>
+      <c r="AZ94" s="258"/>
+      <c r="BA94" s="258"/>
+      <c r="BB94" s="258"/>
+      <c r="BC94" s="258"/>
+      <c r="BD94" s="258"/>
+      <c r="BE94" s="258"/>
+      <c r="BF94" s="258"/>
+      <c r="BG94" s="258"/>
+      <c r="BH94" s="258"/>
+      <c r="BI94" s="258"/>
+      <c r="BJ94" s="258"/>
+      <c r="BK94" s="258"/>
+      <c r="BL94" s="258"/>
+      <c r="BM94" s="258"/>
+      <c r="BN94" s="258"/>
+      <c r="BO94" s="258"/>
+      <c r="BP94" s="258"/>
+      <c r="BQ94" s="258"/>
+      <c r="BR94" s="258"/>
+      <c r="BS94" s="259"/>
     </row>
     <row r="95" spans="2:71">
       <c r="B95" s="209" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C95" s="251" t="s">
+      <c r="C95" s="258" t="s">
         <v>1188</v>
       </c>
-      <c r="D95" s="251"/>
-      <c r="E95" s="251"/>
-      <c r="F95" s="251"/>
-      <c r="G95" s="251"/>
-      <c r="H95" s="251"/>
-      <c r="I95" s="251"/>
-      <c r="J95" s="251"/>
-      <c r="K95" s="251"/>
-      <c r="L95" s="251"/>
-      <c r="M95" s="251"/>
-      <c r="N95" s="251"/>
-      <c r="O95" s="251"/>
-      <c r="P95" s="251"/>
-      <c r="Q95" s="251"/>
-      <c r="R95" s="251"/>
-      <c r="S95" s="251"/>
-      <c r="T95" s="251"/>
-      <c r="U95" s="251"/>
-      <c r="V95" s="251"/>
-      <c r="W95" s="251"/>
-      <c r="X95" s="251"/>
-      <c r="Y95" s="251"/>
-      <c r="Z95" s="251"/>
-      <c r="AA95" s="251"/>
-      <c r="AB95" s="251"/>
-      <c r="AC95" s="251"/>
-      <c r="AD95" s="251"/>
-      <c r="AE95" s="251"/>
-      <c r="AF95" s="251"/>
-      <c r="AG95" s="251"/>
-      <c r="AH95" s="251"/>
-      <c r="AI95" s="251"/>
-      <c r="AJ95" s="251"/>
-      <c r="AK95" s="251"/>
-      <c r="AL95" s="251"/>
-      <c r="AM95" s="251"/>
-      <c r="AN95" s="251"/>
-      <c r="AO95" s="251"/>
-      <c r="AP95" s="251"/>
-      <c r="AQ95" s="251"/>
-      <c r="AR95" s="251"/>
-      <c r="AS95" s="251"/>
-      <c r="AT95" s="251"/>
-      <c r="AU95" s="251"/>
-      <c r="AV95" s="251"/>
-      <c r="AW95" s="251"/>
-      <c r="AX95" s="251"/>
-      <c r="AY95" s="251"/>
-      <c r="AZ95" s="251"/>
-      <c r="BA95" s="251"/>
-      <c r="BB95" s="251"/>
-      <c r="BC95" s="251"/>
-      <c r="BD95" s="251"/>
-      <c r="BE95" s="251"/>
-      <c r="BF95" s="251"/>
-      <c r="BG95" s="251"/>
-      <c r="BH95" s="251"/>
-      <c r="BI95" s="251"/>
-      <c r="BJ95" s="251"/>
-      <c r="BK95" s="251"/>
-      <c r="BL95" s="251"/>
-      <c r="BM95" s="251"/>
-      <c r="BN95" s="251"/>
-      <c r="BO95" s="251"/>
-      <c r="BP95" s="251"/>
-      <c r="BQ95" s="251"/>
-      <c r="BR95" s="251"/>
-      <c r="BS95" s="252"/>
+      <c r="D95" s="258"/>
+      <c r="E95" s="258"/>
+      <c r="F95" s="258"/>
+      <c r="G95" s="258"/>
+      <c r="H95" s="258"/>
+      <c r="I95" s="258"/>
+      <c r="J95" s="258"/>
+      <c r="K95" s="258"/>
+      <c r="L95" s="258"/>
+      <c r="M95" s="258"/>
+      <c r="N95" s="258"/>
+      <c r="O95" s="258"/>
+      <c r="P95" s="258"/>
+      <c r="Q95" s="258"/>
+      <c r="R95" s="258"/>
+      <c r="S95" s="258"/>
+      <c r="T95" s="258"/>
+      <c r="U95" s="258"/>
+      <c r="V95" s="258"/>
+      <c r="W95" s="258"/>
+      <c r="X95" s="258"/>
+      <c r="Y95" s="258"/>
+      <c r="Z95" s="258"/>
+      <c r="AA95" s="258"/>
+      <c r="AB95" s="258"/>
+      <c r="AC95" s="258"/>
+      <c r="AD95" s="258"/>
+      <c r="AE95" s="258"/>
+      <c r="AF95" s="258"/>
+      <c r="AG95" s="258"/>
+      <c r="AH95" s="258"/>
+      <c r="AI95" s="258"/>
+      <c r="AJ95" s="258"/>
+      <c r="AK95" s="258"/>
+      <c r="AL95" s="258"/>
+      <c r="AM95" s="258"/>
+      <c r="AN95" s="258"/>
+      <c r="AO95" s="258"/>
+      <c r="AP95" s="258"/>
+      <c r="AQ95" s="258"/>
+      <c r="AR95" s="258"/>
+      <c r="AS95" s="258"/>
+      <c r="AT95" s="258"/>
+      <c r="AU95" s="258"/>
+      <c r="AV95" s="258"/>
+      <c r="AW95" s="258"/>
+      <c r="AX95" s="258"/>
+      <c r="AY95" s="258"/>
+      <c r="AZ95" s="258"/>
+      <c r="BA95" s="258"/>
+      <c r="BB95" s="258"/>
+      <c r="BC95" s="258"/>
+      <c r="BD95" s="258"/>
+      <c r="BE95" s="258"/>
+      <c r="BF95" s="258"/>
+      <c r="BG95" s="258"/>
+      <c r="BH95" s="258"/>
+      <c r="BI95" s="258"/>
+      <c r="BJ95" s="258"/>
+      <c r="BK95" s="258"/>
+      <c r="BL95" s="258"/>
+      <c r="BM95" s="258"/>
+      <c r="BN95" s="258"/>
+      <c r="BO95" s="258"/>
+      <c r="BP95" s="258"/>
+      <c r="BQ95" s="258"/>
+      <c r="BR95" s="258"/>
+      <c r="BS95" s="259"/>
     </row>
     <row r="96" spans="2:71">
       <c r="B96" s="209" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C96" s="251" t="s">
+      <c r="C96" s="258" t="s">
         <v>1187</v>
       </c>
-      <c r="D96" s="251"/>
-      <c r="E96" s="251"/>
-      <c r="F96" s="251"/>
-      <c r="G96" s="251"/>
-      <c r="H96" s="251"/>
-      <c r="I96" s="251"/>
-      <c r="J96" s="251"/>
-      <c r="K96" s="251"/>
-      <c r="L96" s="251"/>
-      <c r="M96" s="251"/>
-      <c r="N96" s="251"/>
-      <c r="O96" s="251"/>
-      <c r="P96" s="251"/>
-      <c r="Q96" s="251"/>
-      <c r="R96" s="251"/>
-      <c r="S96" s="251"/>
-      <c r="T96" s="251"/>
-      <c r="U96" s="251"/>
-      <c r="V96" s="251"/>
-      <c r="W96" s="251"/>
-      <c r="X96" s="251"/>
-      <c r="Y96" s="251"/>
-      <c r="Z96" s="251"/>
-      <c r="AA96" s="251"/>
-      <c r="AB96" s="251"/>
-      <c r="AC96" s="251"/>
-      <c r="AD96" s="251"/>
-      <c r="AE96" s="251"/>
-      <c r="AF96" s="251"/>
-      <c r="AG96" s="251"/>
-      <c r="AH96" s="251"/>
-      <c r="AI96" s="251"/>
-      <c r="AJ96" s="251"/>
-      <c r="AK96" s="251"/>
-      <c r="AL96" s="251"/>
-      <c r="AM96" s="251"/>
-      <c r="AN96" s="251"/>
-      <c r="AO96" s="251"/>
-      <c r="AP96" s="251"/>
-      <c r="AQ96" s="251"/>
-      <c r="AR96" s="251"/>
-      <c r="AS96" s="251"/>
-      <c r="AT96" s="251"/>
-      <c r="AU96" s="251"/>
-      <c r="AV96" s="251"/>
-      <c r="AW96" s="251"/>
-      <c r="AX96" s="251"/>
-      <c r="AY96" s="251"/>
-      <c r="AZ96" s="251"/>
-      <c r="BA96" s="251"/>
-      <c r="BB96" s="251"/>
-      <c r="BC96" s="251"/>
-      <c r="BD96" s="251"/>
-      <c r="BE96" s="251"/>
-      <c r="BF96" s="251"/>
-      <c r="BG96" s="251"/>
-      <c r="BH96" s="251"/>
-      <c r="BI96" s="251"/>
-      <c r="BJ96" s="251"/>
-      <c r="BK96" s="251"/>
-      <c r="BL96" s="251"/>
-      <c r="BM96" s="251"/>
-      <c r="BN96" s="251"/>
-      <c r="BO96" s="251"/>
-      <c r="BP96" s="251"/>
-      <c r="BQ96" s="251"/>
-      <c r="BR96" s="251"/>
-      <c r="BS96" s="252"/>
+      <c r="D96" s="258"/>
+      <c r="E96" s="258"/>
+      <c r="F96" s="258"/>
+      <c r="G96" s="258"/>
+      <c r="H96" s="258"/>
+      <c r="I96" s="258"/>
+      <c r="J96" s="258"/>
+      <c r="K96" s="258"/>
+      <c r="L96" s="258"/>
+      <c r="M96" s="258"/>
+      <c r="N96" s="258"/>
+      <c r="O96" s="258"/>
+      <c r="P96" s="258"/>
+      <c r="Q96" s="258"/>
+      <c r="R96" s="258"/>
+      <c r="S96" s="258"/>
+      <c r="T96" s="258"/>
+      <c r="U96" s="258"/>
+      <c r="V96" s="258"/>
+      <c r="W96" s="258"/>
+      <c r="X96" s="258"/>
+      <c r="Y96" s="258"/>
+      <c r="Z96" s="258"/>
+      <c r="AA96" s="258"/>
+      <c r="AB96" s="258"/>
+      <c r="AC96" s="258"/>
+      <c r="AD96" s="258"/>
+      <c r="AE96" s="258"/>
+      <c r="AF96" s="258"/>
+      <c r="AG96" s="258"/>
+      <c r="AH96" s="258"/>
+      <c r="AI96" s="258"/>
+      <c r="AJ96" s="258"/>
+      <c r="AK96" s="258"/>
+      <c r="AL96" s="258"/>
+      <c r="AM96" s="258"/>
+      <c r="AN96" s="258"/>
+      <c r="AO96" s="258"/>
+      <c r="AP96" s="258"/>
+      <c r="AQ96" s="258"/>
+      <c r="AR96" s="258"/>
+      <c r="AS96" s="258"/>
+      <c r="AT96" s="258"/>
+      <c r="AU96" s="258"/>
+      <c r="AV96" s="258"/>
+      <c r="AW96" s="258"/>
+      <c r="AX96" s="258"/>
+      <c r="AY96" s="258"/>
+      <c r="AZ96" s="258"/>
+      <c r="BA96" s="258"/>
+      <c r="BB96" s="258"/>
+      <c r="BC96" s="258"/>
+      <c r="BD96" s="258"/>
+      <c r="BE96" s="258"/>
+      <c r="BF96" s="258"/>
+      <c r="BG96" s="258"/>
+      <c r="BH96" s="258"/>
+      <c r="BI96" s="258"/>
+      <c r="BJ96" s="258"/>
+      <c r="BK96" s="258"/>
+      <c r="BL96" s="258"/>
+      <c r="BM96" s="258"/>
+      <c r="BN96" s="258"/>
+      <c r="BO96" s="258"/>
+      <c r="BP96" s="258"/>
+      <c r="BQ96" s="258"/>
+      <c r="BR96" s="258"/>
+      <c r="BS96" s="259"/>
     </row>
     <row r="97" spans="2:71" ht="17.25" thickBot="1">
       <c r="B97" s="208" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C97" s="255" t="s">
+      <c r="C97" s="260" t="s">
         <v>1186</v>
       </c>
-      <c r="D97" s="255"/>
-      <c r="E97" s="255"/>
-      <c r="F97" s="255"/>
-      <c r="G97" s="255"/>
-      <c r="H97" s="255"/>
-      <c r="I97" s="255"/>
-      <c r="J97" s="255"/>
-      <c r="K97" s="255"/>
-      <c r="L97" s="255"/>
-      <c r="M97" s="255"/>
-      <c r="N97" s="255"/>
-      <c r="O97" s="255"/>
-      <c r="P97" s="255"/>
-      <c r="Q97" s="255"/>
-      <c r="R97" s="255"/>
-      <c r="S97" s="255"/>
-      <c r="T97" s="255"/>
-      <c r="U97" s="255"/>
-      <c r="V97" s="255"/>
-      <c r="W97" s="255"/>
-      <c r="X97" s="255"/>
-      <c r="Y97" s="255"/>
-      <c r="Z97" s="255"/>
-      <c r="AA97" s="255"/>
-      <c r="AB97" s="255"/>
-      <c r="AC97" s="255"/>
-      <c r="AD97" s="255"/>
-      <c r="AE97" s="255"/>
-      <c r="AF97" s="255"/>
-      <c r="AG97" s="255"/>
-      <c r="AH97" s="255"/>
-      <c r="AI97" s="255"/>
-      <c r="AJ97" s="255"/>
-      <c r="AK97" s="255"/>
-      <c r="AL97" s="255"/>
-      <c r="AM97" s="255"/>
-      <c r="AN97" s="255"/>
-      <c r="AO97" s="255"/>
-      <c r="AP97" s="255"/>
-      <c r="AQ97" s="255"/>
-      <c r="AR97" s="255"/>
-      <c r="AS97" s="255"/>
-      <c r="AT97" s="255"/>
-      <c r="AU97" s="255"/>
-      <c r="AV97" s="255"/>
-      <c r="AW97" s="255"/>
-      <c r="AX97" s="255"/>
-      <c r="AY97" s="255"/>
-      <c r="AZ97" s="255"/>
-      <c r="BA97" s="255"/>
-      <c r="BB97" s="255"/>
-      <c r="BC97" s="255"/>
-      <c r="BD97" s="255"/>
-      <c r="BE97" s="255"/>
-      <c r="BF97" s="255"/>
-      <c r="BG97" s="255"/>
-      <c r="BH97" s="255"/>
-      <c r="BI97" s="255"/>
-      <c r="BJ97" s="255"/>
-      <c r="BK97" s="255"/>
-      <c r="BL97" s="255"/>
-      <c r="BM97" s="255"/>
-      <c r="BN97" s="255"/>
-      <c r="BO97" s="255"/>
-      <c r="BP97" s="255"/>
-      <c r="BQ97" s="255"/>
-      <c r="BR97" s="255"/>
-      <c r="BS97" s="256"/>
+      <c r="D97" s="260"/>
+      <c r="E97" s="260"/>
+      <c r="F97" s="260"/>
+      <c r="G97" s="260"/>
+      <c r="H97" s="260"/>
+      <c r="I97" s="260"/>
+      <c r="J97" s="260"/>
+      <c r="K97" s="260"/>
+      <c r="L97" s="260"/>
+      <c r="M97" s="260"/>
+      <c r="N97" s="260"/>
+      <c r="O97" s="260"/>
+      <c r="P97" s="260"/>
+      <c r="Q97" s="260"/>
+      <c r="R97" s="260"/>
+      <c r="S97" s="260"/>
+      <c r="T97" s="260"/>
+      <c r="U97" s="260"/>
+      <c r="V97" s="260"/>
+      <c r="W97" s="260"/>
+      <c r="X97" s="260"/>
+      <c r="Y97" s="260"/>
+      <c r="Z97" s="260"/>
+      <c r="AA97" s="260"/>
+      <c r="AB97" s="260"/>
+      <c r="AC97" s="260"/>
+      <c r="AD97" s="260"/>
+      <c r="AE97" s="260"/>
+      <c r="AF97" s="260"/>
+      <c r="AG97" s="260"/>
+      <c r="AH97" s="260"/>
+      <c r="AI97" s="260"/>
+      <c r="AJ97" s="260"/>
+      <c r="AK97" s="260"/>
+      <c r="AL97" s="260"/>
+      <c r="AM97" s="260"/>
+      <c r="AN97" s="260"/>
+      <c r="AO97" s="260"/>
+      <c r="AP97" s="260"/>
+      <c r="AQ97" s="260"/>
+      <c r="AR97" s="260"/>
+      <c r="AS97" s="260"/>
+      <c r="AT97" s="260"/>
+      <c r="AU97" s="260"/>
+      <c r="AV97" s="260"/>
+      <c r="AW97" s="260"/>
+      <c r="AX97" s="260"/>
+      <c r="AY97" s="260"/>
+      <c r="AZ97" s="260"/>
+      <c r="BA97" s="260"/>
+      <c r="BB97" s="260"/>
+      <c r="BC97" s="260"/>
+      <c r="BD97" s="260"/>
+      <c r="BE97" s="260"/>
+      <c r="BF97" s="260"/>
+      <c r="BG97" s="260"/>
+      <c r="BH97" s="260"/>
+      <c r="BI97" s="260"/>
+      <c r="BJ97" s="260"/>
+      <c r="BK97" s="260"/>
+      <c r="BL97" s="260"/>
+      <c r="BM97" s="260"/>
+      <c r="BN97" s="260"/>
+      <c r="BO97" s="260"/>
+      <c r="BP97" s="260"/>
+      <c r="BQ97" s="260"/>
+      <c r="BR97" s="260"/>
+      <c r="BS97" s="261"/>
     </row>
     <row r="98" spans="2:71" ht="17.25" thickBot="1">
       <c r="B98" s="212" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="C98" s="253" t="s">
+      <c r="C98" s="254" t="s">
         <v>1185</v>
       </c>
-      <c r="D98" s="253"/>
-      <c r="E98" s="253"/>
-      <c r="F98" s="253"/>
-      <c r="G98" s="253"/>
-      <c r="H98" s="253"/>
-      <c r="I98" s="253"/>
-      <c r="J98" s="253"/>
-      <c r="K98" s="253"/>
-      <c r="L98" s="253"/>
-      <c r="M98" s="253"/>
-      <c r="N98" s="253"/>
-      <c r="O98" s="253"/>
-      <c r="P98" s="253"/>
-      <c r="Q98" s="253"/>
-      <c r="R98" s="253"/>
-      <c r="S98" s="253"/>
-      <c r="T98" s="253"/>
-      <c r="U98" s="253"/>
-      <c r="V98" s="253"/>
-      <c r="W98" s="253"/>
-      <c r="X98" s="253"/>
-      <c r="Y98" s="253"/>
-      <c r="Z98" s="253"/>
-      <c r="AA98" s="253"/>
-      <c r="AB98" s="253"/>
-      <c r="AC98" s="253"/>
-      <c r="AD98" s="253"/>
-      <c r="AE98" s="253"/>
-      <c r="AF98" s="253"/>
-      <c r="AG98" s="253"/>
-      <c r="AH98" s="253"/>
-      <c r="AI98" s="253"/>
-      <c r="AJ98" s="253"/>
-      <c r="AK98" s="253"/>
-      <c r="AL98" s="253"/>
-      <c r="AM98" s="253"/>
-      <c r="AN98" s="253"/>
-      <c r="AO98" s="253"/>
-      <c r="AP98" s="253"/>
-      <c r="AQ98" s="253"/>
-      <c r="AR98" s="253"/>
-      <c r="AS98" s="253"/>
-      <c r="AT98" s="253"/>
-      <c r="AU98" s="253"/>
-      <c r="AV98" s="253"/>
-      <c r="AW98" s="253"/>
-      <c r="AX98" s="253"/>
-      <c r="AY98" s="253"/>
-      <c r="AZ98" s="253"/>
-      <c r="BA98" s="253"/>
-      <c r="BB98" s="253"/>
-      <c r="BC98" s="253"/>
-      <c r="BD98" s="253"/>
-      <c r="BE98" s="253"/>
-      <c r="BF98" s="253"/>
-      <c r="BG98" s="253"/>
-      <c r="BH98" s="253"/>
-      <c r="BI98" s="253"/>
-      <c r="BJ98" s="253"/>
-      <c r="BK98" s="253"/>
-      <c r="BL98" s="253"/>
-      <c r="BM98" s="253"/>
-      <c r="BN98" s="253"/>
-      <c r="BO98" s="253"/>
-      <c r="BP98" s="253"/>
-      <c r="BQ98" s="253"/>
-      <c r="BR98" s="253"/>
-      <c r="BS98" s="254"/>
+      <c r="D98" s="254"/>
+      <c r="E98" s="254"/>
+      <c r="F98" s="254"/>
+      <c r="G98" s="254"/>
+      <c r="H98" s="254"/>
+      <c r="I98" s="254"/>
+      <c r="J98" s="254"/>
+      <c r="K98" s="254"/>
+      <c r="L98" s="254"/>
+      <c r="M98" s="254"/>
+      <c r="N98" s="254"/>
+      <c r="O98" s="254"/>
+      <c r="P98" s="254"/>
+      <c r="Q98" s="254"/>
+      <c r="R98" s="254"/>
+      <c r="S98" s="254"/>
+      <c r="T98" s="254"/>
+      <c r="U98" s="254"/>
+      <c r="V98" s="254"/>
+      <c r="W98" s="254"/>
+      <c r="X98" s="254"/>
+      <c r="Y98" s="254"/>
+      <c r="Z98" s="254"/>
+      <c r="AA98" s="254"/>
+      <c r="AB98" s="254"/>
+      <c r="AC98" s="254"/>
+      <c r="AD98" s="254"/>
+      <c r="AE98" s="254"/>
+      <c r="AF98" s="254"/>
+      <c r="AG98" s="254"/>
+      <c r="AH98" s="254"/>
+      <c r="AI98" s="254"/>
+      <c r="AJ98" s="254"/>
+      <c r="AK98" s="254"/>
+      <c r="AL98" s="254"/>
+      <c r="AM98" s="254"/>
+      <c r="AN98" s="254"/>
+      <c r="AO98" s="254"/>
+      <c r="AP98" s="254"/>
+      <c r="AQ98" s="254"/>
+      <c r="AR98" s="254"/>
+      <c r="AS98" s="254"/>
+      <c r="AT98" s="254"/>
+      <c r="AU98" s="254"/>
+      <c r="AV98" s="254"/>
+      <c r="AW98" s="254"/>
+      <c r="AX98" s="254"/>
+      <c r="AY98" s="254"/>
+      <c r="AZ98" s="254"/>
+      <c r="BA98" s="254"/>
+      <c r="BB98" s="254"/>
+      <c r="BC98" s="254"/>
+      <c r="BD98" s="254"/>
+      <c r="BE98" s="254"/>
+      <c r="BF98" s="254"/>
+      <c r="BG98" s="254"/>
+      <c r="BH98" s="254"/>
+      <c r="BI98" s="254"/>
+      <c r="BJ98" s="254"/>
+      <c r="BK98" s="254"/>
+      <c r="BL98" s="254"/>
+      <c r="BM98" s="254"/>
+      <c r="BN98" s="254"/>
+      <c r="BO98" s="254"/>
+      <c r="BP98" s="254"/>
+      <c r="BQ98" s="254"/>
+      <c r="BR98" s="254"/>
+      <c r="BS98" s="255"/>
     </row>
     <row r="99" spans="2:71">
       <c r="B99" s="211" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C99" s="249" t="s">
+      <c r="C99" s="256" t="s">
         <v>1184</v>
       </c>
-      <c r="D99" s="249"/>
-      <c r="E99" s="249"/>
-      <c r="F99" s="249"/>
-      <c r="G99" s="249"/>
-      <c r="H99" s="249"/>
-      <c r="I99" s="249"/>
-      <c r="J99" s="249"/>
-      <c r="K99" s="249"/>
-      <c r="L99" s="249"/>
-      <c r="M99" s="249"/>
-      <c r="N99" s="249"/>
-      <c r="O99" s="249"/>
-      <c r="P99" s="249"/>
-      <c r="Q99" s="249"/>
-      <c r="R99" s="249"/>
-      <c r="S99" s="249"/>
-      <c r="T99" s="249"/>
-      <c r="U99" s="249"/>
-      <c r="V99" s="249"/>
-      <c r="W99" s="249"/>
-      <c r="X99" s="249"/>
-      <c r="Y99" s="249"/>
-      <c r="Z99" s="249"/>
-      <c r="AA99" s="249"/>
-      <c r="AB99" s="249"/>
-      <c r="AC99" s="249"/>
-      <c r="AD99" s="249"/>
-      <c r="AE99" s="249"/>
-      <c r="AF99" s="249"/>
-      <c r="AG99" s="249"/>
-      <c r="AH99" s="249"/>
-      <c r="AI99" s="249"/>
-      <c r="AJ99" s="249"/>
-      <c r="AK99" s="249"/>
-      <c r="AL99" s="249"/>
-      <c r="AM99" s="249"/>
-      <c r="AN99" s="249"/>
-      <c r="AO99" s="249"/>
-      <c r="AP99" s="249"/>
-      <c r="AQ99" s="249"/>
-      <c r="AR99" s="249"/>
-      <c r="AS99" s="249"/>
-      <c r="AT99" s="249"/>
-      <c r="AU99" s="249"/>
-      <c r="AV99" s="249"/>
-      <c r="AW99" s="249"/>
-      <c r="AX99" s="249"/>
-      <c r="AY99" s="249"/>
-      <c r="AZ99" s="249"/>
-      <c r="BA99" s="249"/>
-      <c r="BB99" s="249"/>
-      <c r="BC99" s="249"/>
-      <c r="BD99" s="249"/>
-      <c r="BE99" s="249"/>
-      <c r="BF99" s="249"/>
-      <c r="BG99" s="249"/>
-      <c r="BH99" s="249"/>
-      <c r="BI99" s="249"/>
-      <c r="BJ99" s="249"/>
-      <c r="BK99" s="249"/>
-      <c r="BL99" s="249"/>
-      <c r="BM99" s="249"/>
-      <c r="BN99" s="249"/>
-      <c r="BO99" s="249"/>
-      <c r="BP99" s="249"/>
-      <c r="BQ99" s="249"/>
-      <c r="BR99" s="249"/>
-      <c r="BS99" s="250"/>
+      <c r="D99" s="256"/>
+      <c r="E99" s="256"/>
+      <c r="F99" s="256"/>
+      <c r="G99" s="256"/>
+      <c r="H99" s="256"/>
+      <c r="I99" s="256"/>
+      <c r="J99" s="256"/>
+      <c r="K99" s="256"/>
+      <c r="L99" s="256"/>
+      <c r="M99" s="256"/>
+      <c r="N99" s="256"/>
+      <c r="O99" s="256"/>
+      <c r="P99" s="256"/>
+      <c r="Q99" s="256"/>
+      <c r="R99" s="256"/>
+      <c r="S99" s="256"/>
+      <c r="T99" s="256"/>
+      <c r="U99" s="256"/>
+      <c r="V99" s="256"/>
+      <c r="W99" s="256"/>
+      <c r="X99" s="256"/>
+      <c r="Y99" s="256"/>
+      <c r="Z99" s="256"/>
+      <c r="AA99" s="256"/>
+      <c r="AB99" s="256"/>
+      <c r="AC99" s="256"/>
+      <c r="AD99" s="256"/>
+      <c r="AE99" s="256"/>
+      <c r="AF99" s="256"/>
+      <c r="AG99" s="256"/>
+      <c r="AH99" s="256"/>
+      <c r="AI99" s="256"/>
+      <c r="AJ99" s="256"/>
+      <c r="AK99" s="256"/>
+      <c r="AL99" s="256"/>
+      <c r="AM99" s="256"/>
+      <c r="AN99" s="256"/>
+      <c r="AO99" s="256"/>
+      <c r="AP99" s="256"/>
+      <c r="AQ99" s="256"/>
+      <c r="AR99" s="256"/>
+      <c r="AS99" s="256"/>
+      <c r="AT99" s="256"/>
+      <c r="AU99" s="256"/>
+      <c r="AV99" s="256"/>
+      <c r="AW99" s="256"/>
+      <c r="AX99" s="256"/>
+      <c r="AY99" s="256"/>
+      <c r="AZ99" s="256"/>
+      <c r="BA99" s="256"/>
+      <c r="BB99" s="256"/>
+      <c r="BC99" s="256"/>
+      <c r="BD99" s="256"/>
+      <c r="BE99" s="256"/>
+      <c r="BF99" s="256"/>
+      <c r="BG99" s="256"/>
+      <c r="BH99" s="256"/>
+      <c r="BI99" s="256"/>
+      <c r="BJ99" s="256"/>
+      <c r="BK99" s="256"/>
+      <c r="BL99" s="256"/>
+      <c r="BM99" s="256"/>
+      <c r="BN99" s="256"/>
+      <c r="BO99" s="256"/>
+      <c r="BP99" s="256"/>
+      <c r="BQ99" s="256"/>
+      <c r="BR99" s="256"/>
+      <c r="BS99" s="257"/>
     </row>
     <row r="100" spans="2:71">
       <c r="B100" s="209" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C100" s="251" t="s">
+      <c r="C100" s="258" t="s">
         <v>1183</v>
       </c>
-      <c r="D100" s="251"/>
-      <c r="E100" s="251"/>
-      <c r="F100" s="251"/>
-      <c r="G100" s="251"/>
-      <c r="H100" s="251"/>
-      <c r="I100" s="251"/>
-      <c r="J100" s="251"/>
-      <c r="K100" s="251"/>
-      <c r="L100" s="251"/>
-      <c r="M100" s="251"/>
-      <c r="N100" s="251"/>
-      <c r="O100" s="251"/>
-      <c r="P100" s="251"/>
-      <c r="Q100" s="251"/>
-      <c r="R100" s="251"/>
-      <c r="S100" s="251"/>
-      <c r="T100" s="251"/>
-      <c r="U100" s="251"/>
-      <c r="V100" s="251"/>
-      <c r="W100" s="251"/>
-      <c r="X100" s="251"/>
-      <c r="Y100" s="251"/>
-      <c r="Z100" s="251"/>
-      <c r="AA100" s="251"/>
-      <c r="AB100" s="251"/>
-      <c r="AC100" s="251"/>
-      <c r="AD100" s="251"/>
-      <c r="AE100" s="251"/>
-      <c r="AF100" s="251"/>
-      <c r="AG100" s="251"/>
-      <c r="AH100" s="251"/>
-      <c r="AI100" s="251"/>
-      <c r="AJ100" s="251"/>
-      <c r="AK100" s="251"/>
-      <c r="AL100" s="251"/>
-      <c r="AM100" s="251"/>
-      <c r="AN100" s="251"/>
-      <c r="AO100" s="251"/>
-      <c r="AP100" s="251"/>
-      <c r="AQ100" s="251"/>
-      <c r="AR100" s="251"/>
-      <c r="AS100" s="251"/>
-      <c r="AT100" s="251"/>
-      <c r="AU100" s="251"/>
-      <c r="AV100" s="251"/>
-      <c r="AW100" s="251"/>
-      <c r="AX100" s="251"/>
-      <c r="AY100" s="251"/>
-      <c r="AZ100" s="251"/>
-      <c r="BA100" s="251"/>
-      <c r="BB100" s="251"/>
-      <c r="BC100" s="251"/>
-      <c r="BD100" s="251"/>
-      <c r="BE100" s="251"/>
-      <c r="BF100" s="251"/>
-      <c r="BG100" s="251"/>
-      <c r="BH100" s="251"/>
-      <c r="BI100" s="251"/>
-      <c r="BJ100" s="251"/>
-      <c r="BK100" s="251"/>
-      <c r="BL100" s="251"/>
-      <c r="BM100" s="251"/>
-      <c r="BN100" s="251"/>
-      <c r="BO100" s="251"/>
-      <c r="BP100" s="251"/>
-      <c r="BQ100" s="251"/>
-      <c r="BR100" s="251"/>
-      <c r="BS100" s="252"/>
+      <c r="D100" s="258"/>
+      <c r="E100" s="258"/>
+      <c r="F100" s="258"/>
+      <c r="G100" s="258"/>
+      <c r="H100" s="258"/>
+      <c r="I100" s="258"/>
+      <c r="J100" s="258"/>
+      <c r="K100" s="258"/>
+      <c r="L100" s="258"/>
+      <c r="M100" s="258"/>
+      <c r="N100" s="258"/>
+      <c r="O100" s="258"/>
+      <c r="P100" s="258"/>
+      <c r="Q100" s="258"/>
+      <c r="R100" s="258"/>
+      <c r="S100" s="258"/>
+      <c r="T100" s="258"/>
+      <c r="U100" s="258"/>
+      <c r="V100" s="258"/>
+      <c r="W100" s="258"/>
+      <c r="X100" s="258"/>
+      <c r="Y100" s="258"/>
+      <c r="Z100" s="258"/>
+      <c r="AA100" s="258"/>
+      <c r="AB100" s="258"/>
+      <c r="AC100" s="258"/>
+      <c r="AD100" s="258"/>
+      <c r="AE100" s="258"/>
+      <c r="AF100" s="258"/>
+      <c r="AG100" s="258"/>
+      <c r="AH100" s="258"/>
+      <c r="AI100" s="258"/>
+      <c r="AJ100" s="258"/>
+      <c r="AK100" s="258"/>
+      <c r="AL100" s="258"/>
+      <c r="AM100" s="258"/>
+      <c r="AN100" s="258"/>
+      <c r="AO100" s="258"/>
+      <c r="AP100" s="258"/>
+      <c r="AQ100" s="258"/>
+      <c r="AR100" s="258"/>
+      <c r="AS100" s="258"/>
+      <c r="AT100" s="258"/>
+      <c r="AU100" s="258"/>
+      <c r="AV100" s="258"/>
+      <c r="AW100" s="258"/>
+      <c r="AX100" s="258"/>
+      <c r="AY100" s="258"/>
+      <c r="AZ100" s="258"/>
+      <c r="BA100" s="258"/>
+      <c r="BB100" s="258"/>
+      <c r="BC100" s="258"/>
+      <c r="BD100" s="258"/>
+      <c r="BE100" s="258"/>
+      <c r="BF100" s="258"/>
+      <c r="BG100" s="258"/>
+      <c r="BH100" s="258"/>
+      <c r="BI100" s="258"/>
+      <c r="BJ100" s="258"/>
+      <c r="BK100" s="258"/>
+      <c r="BL100" s="258"/>
+      <c r="BM100" s="258"/>
+      <c r="BN100" s="258"/>
+      <c r="BO100" s="258"/>
+      <c r="BP100" s="258"/>
+      <c r="BQ100" s="258"/>
+      <c r="BR100" s="258"/>
+      <c r="BS100" s="259"/>
     </row>
     <row r="101" spans="2:71">
       <c r="B101" s="209" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C101" s="251" t="s">
+      <c r="C101" s="258" t="s">
         <v>1182</v>
       </c>
-      <c r="D101" s="251"/>
-      <c r="E101" s="251"/>
-      <c r="F101" s="251"/>
-      <c r="G101" s="251"/>
-      <c r="H101" s="251"/>
-      <c r="I101" s="251"/>
-      <c r="J101" s="251"/>
-      <c r="K101" s="251"/>
-      <c r="L101" s="251"/>
-      <c r="M101" s="251"/>
-      <c r="N101" s="251"/>
-      <c r="O101" s="251"/>
-      <c r="P101" s="251"/>
-      <c r="Q101" s="251"/>
-      <c r="R101" s="251"/>
-      <c r="S101" s="251"/>
-      <c r="T101" s="251"/>
-      <c r="U101" s="251"/>
-      <c r="V101" s="251"/>
-      <c r="W101" s="251"/>
-      <c r="X101" s="251"/>
-      <c r="Y101" s="251"/>
-      <c r="Z101" s="251"/>
-      <c r="AA101" s="251"/>
-      <c r="AB101" s="251"/>
-      <c r="AC101" s="251"/>
-      <c r="AD101" s="251"/>
-      <c r="AE101" s="251"/>
-      <c r="AF101" s="251"/>
-      <c r="AG101" s="251"/>
-      <c r="AH101" s="251"/>
-      <c r="AI101" s="251"/>
-      <c r="AJ101" s="251"/>
-      <c r="AK101" s="251"/>
-      <c r="AL101" s="251"/>
-      <c r="AM101" s="251"/>
-      <c r="AN101" s="251"/>
-      <c r="AO101" s="251"/>
-      <c r="AP101" s="251"/>
-      <c r="AQ101" s="251"/>
-      <c r="AR101" s="251"/>
-      <c r="AS101" s="251"/>
-      <c r="AT101" s="251"/>
-      <c r="AU101" s="251"/>
-      <c r="AV101" s="251"/>
-      <c r="AW101" s="251"/>
-      <c r="AX101" s="251"/>
-      <c r="AY101" s="251"/>
-      <c r="AZ101" s="251"/>
-      <c r="BA101" s="251"/>
-      <c r="BB101" s="251"/>
-      <c r="BC101" s="251"/>
-      <c r="BD101" s="251"/>
-      <c r="BE101" s="251"/>
-      <c r="BF101" s="251"/>
-      <c r="BG101" s="251"/>
-      <c r="BH101" s="251"/>
-      <c r="BI101" s="251"/>
-      <c r="BJ101" s="251"/>
-      <c r="BK101" s="251"/>
-      <c r="BL101" s="251"/>
-      <c r="BM101" s="251"/>
-      <c r="BN101" s="251"/>
-      <c r="BO101" s="251"/>
-      <c r="BP101" s="251"/>
-      <c r="BQ101" s="251"/>
-      <c r="BR101" s="251"/>
-      <c r="BS101" s="252"/>
+      <c r="D101" s="258"/>
+      <c r="E101" s="258"/>
+      <c r="F101" s="258"/>
+      <c r="G101" s="258"/>
+      <c r="H101" s="258"/>
+      <c r="I101" s="258"/>
+      <c r="J101" s="258"/>
+      <c r="K101" s="258"/>
+      <c r="L101" s="258"/>
+      <c r="M101" s="258"/>
+      <c r="N101" s="258"/>
+      <c r="O101" s="258"/>
+      <c r="P101" s="258"/>
+      <c r="Q101" s="258"/>
+      <c r="R101" s="258"/>
+      <c r="S101" s="258"/>
+      <c r="T101" s="258"/>
+      <c r="U101" s="258"/>
+      <c r="V101" s="258"/>
+      <c r="W101" s="258"/>
+      <c r="X101" s="258"/>
+      <c r="Y101" s="258"/>
+      <c r="Z101" s="258"/>
+      <c r="AA101" s="258"/>
+      <c r="AB101" s="258"/>
+      <c r="AC101" s="258"/>
+      <c r="AD101" s="258"/>
+      <c r="AE101" s="258"/>
+      <c r="AF101" s="258"/>
+      <c r="AG101" s="258"/>
+      <c r="AH101" s="258"/>
+      <c r="AI101" s="258"/>
+      <c r="AJ101" s="258"/>
+      <c r="AK101" s="258"/>
+      <c r="AL101" s="258"/>
+      <c r="AM101" s="258"/>
+      <c r="AN101" s="258"/>
+      <c r="AO101" s="258"/>
+      <c r="AP101" s="258"/>
+      <c r="AQ101" s="258"/>
+      <c r="AR101" s="258"/>
+      <c r="AS101" s="258"/>
+      <c r="AT101" s="258"/>
+      <c r="AU101" s="258"/>
+      <c r="AV101" s="258"/>
+      <c r="AW101" s="258"/>
+      <c r="AX101" s="258"/>
+      <c r="AY101" s="258"/>
+      <c r="AZ101" s="258"/>
+      <c r="BA101" s="258"/>
+      <c r="BB101" s="258"/>
+      <c r="BC101" s="258"/>
+      <c r="BD101" s="258"/>
+      <c r="BE101" s="258"/>
+      <c r="BF101" s="258"/>
+      <c r="BG101" s="258"/>
+      <c r="BH101" s="258"/>
+      <c r="BI101" s="258"/>
+      <c r="BJ101" s="258"/>
+      <c r="BK101" s="258"/>
+      <c r="BL101" s="258"/>
+      <c r="BM101" s="258"/>
+      <c r="BN101" s="258"/>
+      <c r="BO101" s="258"/>
+      <c r="BP101" s="258"/>
+      <c r="BQ101" s="258"/>
+      <c r="BR101" s="258"/>
+      <c r="BS101" s="259"/>
     </row>
     <row r="102" spans="2:71" ht="17.25" thickBot="1">
       <c r="B102" s="208" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C102" s="255" t="s">
+      <c r="C102" s="260" t="s">
         <v>1181</v>
       </c>
-      <c r="D102" s="255"/>
-      <c r="E102" s="255"/>
-      <c r="F102" s="255"/>
-      <c r="G102" s="255"/>
-      <c r="H102" s="255"/>
-      <c r="I102" s="255"/>
-      <c r="J102" s="255"/>
-      <c r="K102" s="255"/>
-      <c r="L102" s="255"/>
-      <c r="M102" s="255"/>
-      <c r="N102" s="255"/>
-      <c r="O102" s="255"/>
-      <c r="P102" s="255"/>
-      <c r="Q102" s="255"/>
-      <c r="R102" s="255"/>
-      <c r="S102" s="255"/>
-      <c r="T102" s="255"/>
-      <c r="U102" s="255"/>
-      <c r="V102" s="255"/>
-      <c r="W102" s="255"/>
-      <c r="X102" s="255"/>
-      <c r="Y102" s="255"/>
-      <c r="Z102" s="255"/>
-      <c r="AA102" s="255"/>
-      <c r="AB102" s="255"/>
-      <c r="AC102" s="255"/>
-      <c r="AD102" s="255"/>
-      <c r="AE102" s="255"/>
-      <c r="AF102" s="255"/>
-      <c r="AG102" s="255"/>
-      <c r="AH102" s="255"/>
-      <c r="AI102" s="255"/>
-      <c r="AJ102" s="255"/>
-      <c r="AK102" s="255"/>
-      <c r="AL102" s="255"/>
-      <c r="AM102" s="255"/>
-      <c r="AN102" s="255"/>
-      <c r="AO102" s="255"/>
-      <c r="AP102" s="255"/>
-      <c r="AQ102" s="255"/>
-      <c r="AR102" s="255"/>
-      <c r="AS102" s="255"/>
-      <c r="AT102" s="255"/>
-      <c r="AU102" s="255"/>
-      <c r="AV102" s="255"/>
-      <c r="AW102" s="255"/>
-      <c r="AX102" s="255"/>
-      <c r="AY102" s="255"/>
-      <c r="AZ102" s="255"/>
-      <c r="BA102" s="255"/>
-      <c r="BB102" s="255"/>
-      <c r="BC102" s="255"/>
-      <c r="BD102" s="255"/>
-      <c r="BE102" s="255"/>
-      <c r="BF102" s="255"/>
-      <c r="BG102" s="255"/>
-      <c r="BH102" s="255"/>
-      <c r="BI102" s="255"/>
-      <c r="BJ102" s="255"/>
-      <c r="BK102" s="255"/>
-      <c r="BL102" s="255"/>
-      <c r="BM102" s="255"/>
-      <c r="BN102" s="255"/>
-      <c r="BO102" s="255"/>
-      <c r="BP102" s="255"/>
-      <c r="BQ102" s="255"/>
-      <c r="BR102" s="255"/>
-      <c r="BS102" s="256"/>
+      <c r="D102" s="260"/>
+      <c r="E102" s="260"/>
+      <c r="F102" s="260"/>
+      <c r="G102" s="260"/>
+      <c r="H102" s="260"/>
+      <c r="I102" s="260"/>
+      <c r="J102" s="260"/>
+      <c r="K102" s="260"/>
+      <c r="L102" s="260"/>
+      <c r="M102" s="260"/>
+      <c r="N102" s="260"/>
+      <c r="O102" s="260"/>
+      <c r="P102" s="260"/>
+      <c r="Q102" s="260"/>
+      <c r="R102" s="260"/>
+      <c r="S102" s="260"/>
+      <c r="T102" s="260"/>
+      <c r="U102" s="260"/>
+      <c r="V102" s="260"/>
+      <c r="W102" s="260"/>
+      <c r="X102" s="260"/>
+      <c r="Y102" s="260"/>
+      <c r="Z102" s="260"/>
+      <c r="AA102" s="260"/>
+      <c r="AB102" s="260"/>
+      <c r="AC102" s="260"/>
+      <c r="AD102" s="260"/>
+      <c r="AE102" s="260"/>
+      <c r="AF102" s="260"/>
+      <c r="AG102" s="260"/>
+      <c r="AH102" s="260"/>
+      <c r="AI102" s="260"/>
+      <c r="AJ102" s="260"/>
+      <c r="AK102" s="260"/>
+      <c r="AL102" s="260"/>
+      <c r="AM102" s="260"/>
+      <c r="AN102" s="260"/>
+      <c r="AO102" s="260"/>
+      <c r="AP102" s="260"/>
+      <c r="AQ102" s="260"/>
+      <c r="AR102" s="260"/>
+      <c r="AS102" s="260"/>
+      <c r="AT102" s="260"/>
+      <c r="AU102" s="260"/>
+      <c r="AV102" s="260"/>
+      <c r="AW102" s="260"/>
+      <c r="AX102" s="260"/>
+      <c r="AY102" s="260"/>
+      <c r="AZ102" s="260"/>
+      <c r="BA102" s="260"/>
+      <c r="BB102" s="260"/>
+      <c r="BC102" s="260"/>
+      <c r="BD102" s="260"/>
+      <c r="BE102" s="260"/>
+      <c r="BF102" s="260"/>
+      <c r="BG102" s="260"/>
+      <c r="BH102" s="260"/>
+      <c r="BI102" s="260"/>
+      <c r="BJ102" s="260"/>
+      <c r="BK102" s="260"/>
+      <c r="BL102" s="260"/>
+      <c r="BM102" s="260"/>
+      <c r="BN102" s="260"/>
+      <c r="BO102" s="260"/>
+      <c r="BP102" s="260"/>
+      <c r="BQ102" s="260"/>
+      <c r="BR102" s="260"/>
+      <c r="BS102" s="261"/>
     </row>
     <row r="103" spans="2:71" ht="17.25" thickBot="1">
       <c r="B103" s="212" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="C103" s="253" t="s">
+      <c r="C103" s="254" t="s">
         <v>1180</v>
       </c>
-      <c r="D103" s="253"/>
-      <c r="E103" s="253"/>
-      <c r="F103" s="253"/>
-      <c r="G103" s="253"/>
-      <c r="H103" s="253"/>
-      <c r="I103" s="253"/>
-      <c r="J103" s="253"/>
-      <c r="K103" s="253"/>
-      <c r="L103" s="253"/>
-      <c r="M103" s="253"/>
-      <c r="N103" s="253"/>
-      <c r="O103" s="253"/>
-      <c r="P103" s="253"/>
-      <c r="Q103" s="253"/>
-      <c r="R103" s="253"/>
-      <c r="S103" s="253"/>
-      <c r="T103" s="253"/>
-      <c r="U103" s="253"/>
-      <c r="V103" s="253"/>
-      <c r="W103" s="253"/>
-      <c r="X103" s="253"/>
-      <c r="Y103" s="253"/>
-      <c r="Z103" s="253"/>
-      <c r="AA103" s="253"/>
-      <c r="AB103" s="253"/>
-      <c r="AC103" s="253"/>
-      <c r="AD103" s="253"/>
-      <c r="AE103" s="253"/>
-      <c r="AF103" s="253"/>
-      <c r="AG103" s="253"/>
-      <c r="AH103" s="253"/>
-      <c r="AI103" s="253"/>
-      <c r="AJ103" s="253"/>
-      <c r="AK103" s="253"/>
-      <c r="AL103" s="253"/>
-      <c r="AM103" s="253"/>
-      <c r="AN103" s="253"/>
-      <c r="AO103" s="253"/>
-      <c r="AP103" s="253"/>
-      <c r="AQ103" s="253"/>
-      <c r="AR103" s="253"/>
-      <c r="AS103" s="253"/>
-      <c r="AT103" s="253"/>
-      <c r="AU103" s="253"/>
-      <c r="AV103" s="253"/>
-      <c r="AW103" s="253"/>
-      <c r="AX103" s="253"/>
-      <c r="AY103" s="253"/>
-      <c r="AZ103" s="253"/>
-      <c r="BA103" s="253"/>
-      <c r="BB103" s="253"/>
-      <c r="BC103" s="253"/>
-      <c r="BD103" s="253"/>
-      <c r="BE103" s="253"/>
-      <c r="BF103" s="253"/>
-      <c r="BG103" s="253"/>
-      <c r="BH103" s="253"/>
-      <c r="BI103" s="253"/>
-      <c r="BJ103" s="253"/>
-      <c r="BK103" s="253"/>
-      <c r="BL103" s="253"/>
-      <c r="BM103" s="253"/>
-      <c r="BN103" s="253"/>
-      <c r="BO103" s="253"/>
-      <c r="BP103" s="253"/>
-      <c r="BQ103" s="253"/>
-      <c r="BR103" s="253"/>
-      <c r="BS103" s="254"/>
+      <c r="D103" s="254"/>
+      <c r="E103" s="254"/>
+      <c r="F103" s="254"/>
+      <c r="G103" s="254"/>
+      <c r="H103" s="254"/>
+      <c r="I103" s="254"/>
+      <c r="J103" s="254"/>
+      <c r="K103" s="254"/>
+      <c r="L103" s="254"/>
+      <c r="M103" s="254"/>
+      <c r="N103" s="254"/>
+      <c r="O103" s="254"/>
+      <c r="P103" s="254"/>
+      <c r="Q103" s="254"/>
+      <c r="R103" s="254"/>
+      <c r="S103" s="254"/>
+      <c r="T103" s="254"/>
+      <c r="U103" s="254"/>
+      <c r="V103" s="254"/>
+      <c r="W103" s="254"/>
+      <c r="X103" s="254"/>
+      <c r="Y103" s="254"/>
+      <c r="Z103" s="254"/>
+      <c r="AA103" s="254"/>
+      <c r="AB103" s="254"/>
+      <c r="AC103" s="254"/>
+      <c r="AD103" s="254"/>
+      <c r="AE103" s="254"/>
+      <c r="AF103" s="254"/>
+      <c r="AG103" s="254"/>
+      <c r="AH103" s="254"/>
+      <c r="AI103" s="254"/>
+      <c r="AJ103" s="254"/>
+      <c r="AK103" s="254"/>
+      <c r="AL103" s="254"/>
+      <c r="AM103" s="254"/>
+      <c r="AN103" s="254"/>
+      <c r="AO103" s="254"/>
+      <c r="AP103" s="254"/>
+      <c r="AQ103" s="254"/>
+      <c r="AR103" s="254"/>
+      <c r="AS103" s="254"/>
+      <c r="AT103" s="254"/>
+      <c r="AU103" s="254"/>
+      <c r="AV103" s="254"/>
+      <c r="AW103" s="254"/>
+      <c r="AX103" s="254"/>
+      <c r="AY103" s="254"/>
+      <c r="AZ103" s="254"/>
+      <c r="BA103" s="254"/>
+      <c r="BB103" s="254"/>
+      <c r="BC103" s="254"/>
+      <c r="BD103" s="254"/>
+      <c r="BE103" s="254"/>
+      <c r="BF103" s="254"/>
+      <c r="BG103" s="254"/>
+      <c r="BH103" s="254"/>
+      <c r="BI103" s="254"/>
+      <c r="BJ103" s="254"/>
+      <c r="BK103" s="254"/>
+      <c r="BL103" s="254"/>
+      <c r="BM103" s="254"/>
+      <c r="BN103" s="254"/>
+      <c r="BO103" s="254"/>
+      <c r="BP103" s="254"/>
+      <c r="BQ103" s="254"/>
+      <c r="BR103" s="254"/>
+      <c r="BS103" s="255"/>
     </row>
     <row r="104" spans="2:71">
       <c r="B104" s="211" t="str">
         <f t="shared" ref="B104:B109" si="52">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C104" s="249" t="s">
+      <c r="C104" s="256" t="s">
         <v>1179</v>
       </c>
-      <c r="D104" s="249"/>
-      <c r="E104" s="249"/>
-      <c r="F104" s="249"/>
-      <c r="G104" s="249"/>
-      <c r="H104" s="249"/>
-      <c r="I104" s="249"/>
-      <c r="J104" s="249"/>
-      <c r="K104" s="249"/>
-      <c r="L104" s="249"/>
-      <c r="M104" s="249"/>
-      <c r="N104" s="249"/>
-      <c r="O104" s="249"/>
-      <c r="P104" s="249"/>
-      <c r="Q104" s="249"/>
-      <c r="R104" s="249"/>
-      <c r="S104" s="249"/>
-      <c r="T104" s="249"/>
-      <c r="U104" s="249"/>
-      <c r="V104" s="249"/>
-      <c r="W104" s="249"/>
-      <c r="X104" s="249"/>
-      <c r="Y104" s="249"/>
-      <c r="Z104" s="249"/>
-      <c r="AA104" s="249"/>
-      <c r="AB104" s="249"/>
-      <c r="AC104" s="249"/>
-      <c r="AD104" s="249"/>
-      <c r="AE104" s="249"/>
-      <c r="AF104" s="249"/>
-      <c r="AG104" s="249"/>
-      <c r="AH104" s="249"/>
-      <c r="AI104" s="249"/>
-      <c r="AJ104" s="249"/>
-      <c r="AK104" s="249"/>
-      <c r="AL104" s="249"/>
-      <c r="AM104" s="249"/>
-      <c r="AN104" s="249"/>
-      <c r="AO104" s="249"/>
-      <c r="AP104" s="249"/>
-      <c r="AQ104" s="249"/>
-      <c r="AR104" s="249"/>
-      <c r="AS104" s="249"/>
-      <c r="AT104" s="249"/>
-      <c r="AU104" s="249"/>
-      <c r="AV104" s="249"/>
-      <c r="AW104" s="249"/>
-      <c r="AX104" s="249"/>
-      <c r="AY104" s="249"/>
-      <c r="AZ104" s="249"/>
-      <c r="BA104" s="249"/>
-      <c r="BB104" s="249"/>
-      <c r="BC104" s="249"/>
-      <c r="BD104" s="249"/>
-      <c r="BE104" s="249"/>
-      <c r="BF104" s="249"/>
-      <c r="BG104" s="249"/>
-      <c r="BH104" s="249"/>
-      <c r="BI104" s="249"/>
-      <c r="BJ104" s="249"/>
-      <c r="BK104" s="249"/>
-      <c r="BL104" s="249"/>
-      <c r="BM104" s="249"/>
-      <c r="BN104" s="249"/>
-      <c r="BO104" s="249"/>
-      <c r="BP104" s="249"/>
-      <c r="BQ104" s="249"/>
-      <c r="BR104" s="249"/>
-      <c r="BS104" s="250"/>
+      <c r="D104" s="256"/>
+      <c r="E104" s="256"/>
+      <c r="F104" s="256"/>
+      <c r="G104" s="256"/>
+      <c r="H104" s="256"/>
+      <c r="I104" s="256"/>
+      <c r="J104" s="256"/>
+      <c r="K104" s="256"/>
+      <c r="L104" s="256"/>
+      <c r="M104" s="256"/>
+      <c r="N104" s="256"/>
+      <c r="O104" s="256"/>
+      <c r="P104" s="256"/>
+      <c r="Q104" s="256"/>
+      <c r="R104" s="256"/>
+      <c r="S104" s="256"/>
+      <c r="T104" s="256"/>
+      <c r="U104" s="256"/>
+      <c r="V104" s="256"/>
+      <c r="W104" s="256"/>
+      <c r="X104" s="256"/>
+      <c r="Y104" s="256"/>
+      <c r="Z104" s="256"/>
+      <c r="AA104" s="256"/>
+      <c r="AB104" s="256"/>
+      <c r="AC104" s="256"/>
+      <c r="AD104" s="256"/>
+      <c r="AE104" s="256"/>
+      <c r="AF104" s="256"/>
+      <c r="AG104" s="256"/>
+      <c r="AH104" s="256"/>
+      <c r="AI104" s="256"/>
+      <c r="AJ104" s="256"/>
+      <c r="AK104" s="256"/>
+      <c r="AL104" s="256"/>
+      <c r="AM104" s="256"/>
+      <c r="AN104" s="256"/>
+      <c r="AO104" s="256"/>
+      <c r="AP104" s="256"/>
+      <c r="AQ104" s="256"/>
+      <c r="AR104" s="256"/>
+      <c r="AS104" s="256"/>
+      <c r="AT104" s="256"/>
+      <c r="AU104" s="256"/>
+      <c r="AV104" s="256"/>
+      <c r="AW104" s="256"/>
+      <c r="AX104" s="256"/>
+      <c r="AY104" s="256"/>
+      <c r="AZ104" s="256"/>
+      <c r="BA104" s="256"/>
+      <c r="BB104" s="256"/>
+      <c r="BC104" s="256"/>
+      <c r="BD104" s="256"/>
+      <c r="BE104" s="256"/>
+      <c r="BF104" s="256"/>
+      <c r="BG104" s="256"/>
+      <c r="BH104" s="256"/>
+      <c r="BI104" s="256"/>
+      <c r="BJ104" s="256"/>
+      <c r="BK104" s="256"/>
+      <c r="BL104" s="256"/>
+      <c r="BM104" s="256"/>
+      <c r="BN104" s="256"/>
+      <c r="BO104" s="256"/>
+      <c r="BP104" s="256"/>
+      <c r="BQ104" s="256"/>
+      <c r="BR104" s="256"/>
+      <c r="BS104" s="257"/>
     </row>
     <row r="105" spans="2:71">
       <c r="B105" s="209" t="str">
         <f t="shared" si="52"/>
         <v>0.1</v>
       </c>
-      <c r="C105" s="251" t="s">
+      <c r="C105" s="258" t="s">
         <v>1178</v>
       </c>
-      <c r="D105" s="251"/>
-      <c r="E105" s="251"/>
-      <c r="F105" s="251"/>
-      <c r="G105" s="251"/>
-      <c r="H105" s="251"/>
-      <c r="I105" s="251"/>
-      <c r="J105" s="251"/>
-      <c r="K105" s="251"/>
-      <c r="L105" s="251"/>
-      <c r="M105" s="251"/>
-      <c r="N105" s="251"/>
-      <c r="O105" s="251"/>
-      <c r="P105" s="251"/>
-      <c r="Q105" s="251"/>
-      <c r="R105" s="251"/>
-      <c r="S105" s="251"/>
-      <c r="T105" s="251"/>
-      <c r="U105" s="251"/>
-      <c r="V105" s="251"/>
-      <c r="W105" s="251"/>
-      <c r="X105" s="251"/>
-      <c r="Y105" s="251"/>
-      <c r="Z105" s="251"/>
-      <c r="AA105" s="251"/>
-      <c r="AB105" s="251"/>
-      <c r="AC105" s="251"/>
-      <c r="AD105" s="251"/>
-      <c r="AE105" s="251"/>
-      <c r="AF105" s="251"/>
-      <c r="AG105" s="251"/>
-      <c r="AH105" s="251"/>
-      <c r="AI105" s="251"/>
-      <c r="AJ105" s="251"/>
-      <c r="AK105" s="251"/>
-      <c r="AL105" s="251"/>
-      <c r="AM105" s="251"/>
-      <c r="AN105" s="251"/>
-      <c r="AO105" s="251"/>
-      <c r="AP105" s="251"/>
-      <c r="AQ105" s="251"/>
-      <c r="AR105" s="251"/>
-      <c r="AS105" s="251"/>
-      <c r="AT105" s="251"/>
-      <c r="AU105" s="251"/>
-      <c r="AV105" s="251"/>
-      <c r="AW105" s="251"/>
-      <c r="AX105" s="251"/>
-      <c r="AY105" s="251"/>
-      <c r="AZ105" s="251"/>
-      <c r="BA105" s="251"/>
-      <c r="BB105" s="251"/>
-      <c r="BC105" s="251"/>
-      <c r="BD105" s="251"/>
-      <c r="BE105" s="251"/>
-      <c r="BF105" s="251"/>
-      <c r="BG105" s="251"/>
-      <c r="BH105" s="251"/>
-      <c r="BI105" s="251"/>
-      <c r="BJ105" s="251"/>
-      <c r="BK105" s="251"/>
-      <c r="BL105" s="251"/>
-      <c r="BM105" s="251"/>
-      <c r="BN105" s="251"/>
-      <c r="BO105" s="251"/>
-      <c r="BP105" s="251"/>
-      <c r="BQ105" s="251"/>
-      <c r="BR105" s="251"/>
-      <c r="BS105" s="252"/>
+      <c r="D105" s="258"/>
+      <c r="E105" s="258"/>
+      <c r="F105" s="258"/>
+      <c r="G105" s="258"/>
+      <c r="H105" s="258"/>
+      <c r="I105" s="258"/>
+      <c r="J105" s="258"/>
+      <c r="K105" s="258"/>
+      <c r="L105" s="258"/>
+      <c r="M105" s="258"/>
+      <c r="N105" s="258"/>
+      <c r="O105" s="258"/>
+      <c r="P105" s="258"/>
+      <c r="Q105" s="258"/>
+      <c r="R105" s="258"/>
+      <c r="S105" s="258"/>
+      <c r="T105" s="258"/>
+      <c r="U105" s="258"/>
+      <c r="V105" s="258"/>
+      <c r="W105" s="258"/>
+      <c r="X105" s="258"/>
+      <c r="Y105" s="258"/>
+      <c r="Z105" s="258"/>
+      <c r="AA105" s="258"/>
+      <c r="AB105" s="258"/>
+      <c r="AC105" s="258"/>
+      <c r="AD105" s="258"/>
+      <c r="AE105" s="258"/>
+      <c r="AF105" s="258"/>
+      <c r="AG105" s="258"/>
+      <c r="AH105" s="258"/>
+      <c r="AI105" s="258"/>
+      <c r="AJ105" s="258"/>
+      <c r="AK105" s="258"/>
+      <c r="AL105" s="258"/>
+      <c r="AM105" s="258"/>
+      <c r="AN105" s="258"/>
+      <c r="AO105" s="258"/>
+      <c r="AP105" s="258"/>
+      <c r="AQ105" s="258"/>
+      <c r="AR105" s="258"/>
+      <c r="AS105" s="258"/>
+      <c r="AT105" s="258"/>
+      <c r="AU105" s="258"/>
+      <c r="AV105" s="258"/>
+      <c r="AW105" s="258"/>
+      <c r="AX105" s="258"/>
+      <c r="AY105" s="258"/>
+      <c r="AZ105" s="258"/>
+      <c r="BA105" s="258"/>
+      <c r="BB105" s="258"/>
+      <c r="BC105" s="258"/>
+      <c r="BD105" s="258"/>
+      <c r="BE105" s="258"/>
+      <c r="BF105" s="258"/>
+      <c r="BG105" s="258"/>
+      <c r="BH105" s="258"/>
+      <c r="BI105" s="258"/>
+      <c r="BJ105" s="258"/>
+      <c r="BK105" s="258"/>
+      <c r="BL105" s="258"/>
+      <c r="BM105" s="258"/>
+      <c r="BN105" s="258"/>
+      <c r="BO105" s="258"/>
+      <c r="BP105" s="258"/>
+      <c r="BQ105" s="258"/>
+      <c r="BR105" s="258"/>
+      <c r="BS105" s="259"/>
     </row>
     <row r="106" spans="2:71">
       <c r="B106" s="209" t="str">
         <f t="shared" si="52"/>
         <v>0.1</v>
       </c>
-      <c r="C106" s="251" t="s">
+      <c r="C106" s="258" t="s">
         <v>1177</v>
       </c>
-      <c r="D106" s="251"/>
-      <c r="E106" s="251"/>
-      <c r="F106" s="251"/>
-      <c r="G106" s="251"/>
-      <c r="H106" s="251"/>
-      <c r="I106" s="251"/>
-      <c r="J106" s="251"/>
-      <c r="K106" s="251"/>
-      <c r="L106" s="251"/>
-      <c r="M106" s="251"/>
-      <c r="N106" s="251"/>
-      <c r="O106" s="251"/>
-      <c r="P106" s="251"/>
-      <c r="Q106" s="251"/>
-      <c r="R106" s="251"/>
-      <c r="S106" s="251"/>
-      <c r="T106" s="251"/>
-      <c r="U106" s="251"/>
-      <c r="V106" s="251"/>
-      <c r="W106" s="251"/>
-      <c r="X106" s="251"/>
-      <c r="Y106" s="251"/>
-      <c r="Z106" s="251"/>
-      <c r="AA106" s="251"/>
-      <c r="AB106" s="251"/>
-      <c r="AC106" s="251"/>
-      <c r="AD106" s="251"/>
-      <c r="AE106" s="251"/>
-      <c r="AF106" s="251"/>
-      <c r="AG106" s="251"/>
-      <c r="AH106" s="251"/>
-      <c r="AI106" s="251"/>
-      <c r="AJ106" s="251"/>
-      <c r="AK106" s="251"/>
-      <c r="AL106" s="251"/>
-      <c r="AM106" s="251"/>
-      <c r="AN106" s="251"/>
-      <c r="AO106" s="251"/>
-      <c r="AP106" s="251"/>
-      <c r="AQ106" s="251"/>
-      <c r="AR106" s="251"/>
-      <c r="AS106" s="251"/>
-      <c r="AT106" s="251"/>
-      <c r="AU106" s="251"/>
-      <c r="AV106" s="251"/>
-      <c r="AW106" s="251"/>
-      <c r="AX106" s="251"/>
-      <c r="AY106" s="251"/>
-      <c r="AZ106" s="251"/>
-      <c r="BA106" s="251"/>
-      <c r="BB106" s="251"/>
-      <c r="BC106" s="251"/>
-      <c r="BD106" s="251"/>
-      <c r="BE106" s="251"/>
-      <c r="BF106" s="251"/>
-      <c r="BG106" s="251"/>
-      <c r="BH106" s="251"/>
-      <c r="BI106" s="251"/>
-      <c r="BJ106" s="251"/>
-      <c r="BK106" s="251"/>
-      <c r="BL106" s="251"/>
-      <c r="BM106" s="251"/>
-      <c r="BN106" s="251"/>
-      <c r="BO106" s="251"/>
-      <c r="BP106" s="251"/>
-      <c r="BQ106" s="251"/>
-      <c r="BR106" s="251"/>
-      <c r="BS106" s="252"/>
+      <c r="D106" s="258"/>
+      <c r="E106" s="258"/>
+      <c r="F106" s="258"/>
+      <c r="G106" s="258"/>
+      <c r="H106" s="258"/>
+      <c r="I106" s="258"/>
+      <c r="J106" s="258"/>
+      <c r="K106" s="258"/>
+      <c r="L106" s="258"/>
+      <c r="M106" s="258"/>
+      <c r="N106" s="258"/>
+      <c r="O106" s="258"/>
+      <c r="P106" s="258"/>
+      <c r="Q106" s="258"/>
+      <c r="R106" s="258"/>
+      <c r="S106" s="258"/>
+      <c r="T106" s="258"/>
+      <c r="U106" s="258"/>
+      <c r="V106" s="258"/>
+      <c r="W106" s="258"/>
+      <c r="X106" s="258"/>
+      <c r="Y106" s="258"/>
+      <c r="Z106" s="258"/>
+      <c r="AA106" s="258"/>
+      <c r="AB106" s="258"/>
+      <c r="AC106" s="258"/>
+      <c r="AD106" s="258"/>
+      <c r="AE106" s="258"/>
+      <c r="AF106" s="258"/>
+      <c r="AG106" s="258"/>
+      <c r="AH106" s="258"/>
+      <c r="AI106" s="258"/>
+      <c r="AJ106" s="258"/>
+      <c r="AK106" s="258"/>
+      <c r="AL106" s="258"/>
+      <c r="AM106" s="258"/>
+      <c r="AN106" s="258"/>
+      <c r="AO106" s="258"/>
+      <c r="AP106" s="258"/>
+      <c r="AQ106" s="258"/>
+      <c r="AR106" s="258"/>
+      <c r="AS106" s="258"/>
+      <c r="AT106" s="258"/>
+      <c r="AU106" s="258"/>
+      <c r="AV106" s="258"/>
+      <c r="AW106" s="258"/>
+      <c r="AX106" s="258"/>
+      <c r="AY106" s="258"/>
+      <c r="AZ106" s="258"/>
+      <c r="BA106" s="258"/>
+      <c r="BB106" s="258"/>
+      <c r="BC106" s="258"/>
+      <c r="BD106" s="258"/>
+      <c r="BE106" s="258"/>
+      <c r="BF106" s="258"/>
+      <c r="BG106" s="258"/>
+      <c r="BH106" s="258"/>
+      <c r="BI106" s="258"/>
+      <c r="BJ106" s="258"/>
+      <c r="BK106" s="258"/>
+      <c r="BL106" s="258"/>
+      <c r="BM106" s="258"/>
+      <c r="BN106" s="258"/>
+      <c r="BO106" s="258"/>
+      <c r="BP106" s="258"/>
+      <c r="BQ106" s="258"/>
+      <c r="BR106" s="258"/>
+      <c r="BS106" s="259"/>
     </row>
     <row r="107" spans="2:71">
       <c r="B107" s="210" t="str">
         <f t="shared" si="52"/>
         <v>0.1</v>
       </c>
-      <c r="C107" s="251" t="s">
+      <c r="C107" s="258" t="s">
         <v>1176</v>
       </c>
-      <c r="D107" s="251"/>
-      <c r="E107" s="251"/>
-      <c r="F107" s="251"/>
-      <c r="G107" s="251"/>
-      <c r="H107" s="251"/>
-      <c r="I107" s="251"/>
-      <c r="J107" s="251"/>
-      <c r="K107" s="251"/>
-      <c r="L107" s="251"/>
-      <c r="M107" s="251"/>
-      <c r="N107" s="251"/>
-      <c r="O107" s="251"/>
-      <c r="P107" s="251"/>
-      <c r="Q107" s="251"/>
-      <c r="R107" s="251"/>
-      <c r="S107" s="251"/>
-      <c r="T107" s="251"/>
-      <c r="U107" s="251"/>
-      <c r="V107" s="251"/>
-      <c r="W107" s="251"/>
-      <c r="X107" s="251"/>
-      <c r="Y107" s="251"/>
-      <c r="Z107" s="251"/>
-      <c r="AA107" s="251"/>
-      <c r="AB107" s="251"/>
-      <c r="AC107" s="251"/>
-      <c r="AD107" s="251"/>
-      <c r="AE107" s="251"/>
-      <c r="AF107" s="251"/>
-      <c r="AG107" s="251"/>
-      <c r="AH107" s="251"/>
-      <c r="AI107" s="251"/>
-      <c r="AJ107" s="251"/>
-      <c r="AK107" s="251"/>
-      <c r="AL107" s="251"/>
-      <c r="AM107" s="251"/>
-      <c r="AN107" s="251"/>
-      <c r="AO107" s="251"/>
-      <c r="AP107" s="251"/>
-      <c r="AQ107" s="251"/>
-      <c r="AR107" s="251"/>
-      <c r="AS107" s="251"/>
-      <c r="AT107" s="251"/>
-      <c r="AU107" s="251"/>
-      <c r="AV107" s="251"/>
-      <c r="AW107" s="251"/>
-      <c r="AX107" s="251"/>
-      <c r="AY107" s="251"/>
-      <c r="AZ107" s="251"/>
-      <c r="BA107" s="251"/>
-      <c r="BB107" s="251"/>
-      <c r="BC107" s="251"/>
-      <c r="BD107" s="251"/>
-      <c r="BE107" s="251"/>
-      <c r="BF107" s="251"/>
-      <c r="BG107" s="251"/>
-      <c r="BH107" s="251"/>
-      <c r="BI107" s="251"/>
-      <c r="BJ107" s="251"/>
-      <c r="BK107" s="251"/>
-      <c r="BL107" s="251"/>
-      <c r="BM107" s="251"/>
-      <c r="BN107" s="251"/>
-      <c r="BO107" s="251"/>
-      <c r="BP107" s="251"/>
-      <c r="BQ107" s="251"/>
-      <c r="BR107" s="251"/>
-      <c r="BS107" s="252"/>
+      <c r="D107" s="258"/>
+      <c r="E107" s="258"/>
+      <c r="F107" s="258"/>
+      <c r="G107" s="258"/>
+      <c r="H107" s="258"/>
+      <c r="I107" s="258"/>
+      <c r="J107" s="258"/>
+      <c r="K107" s="258"/>
+      <c r="L107" s="258"/>
+      <c r="M107" s="258"/>
+      <c r="N107" s="258"/>
+      <c r="O107" s="258"/>
+      <c r="P107" s="258"/>
+      <c r="Q107" s="258"/>
+      <c r="R107" s="258"/>
+      <c r="S107" s="258"/>
+      <c r="T107" s="258"/>
+      <c r="U107" s="258"/>
+      <c r="V107" s="258"/>
+      <c r="W107" s="258"/>
+      <c r="X107" s="258"/>
+      <c r="Y107" s="258"/>
+      <c r="Z107" s="258"/>
+      <c r="AA107" s="258"/>
+      <c r="AB107" s="258"/>
+      <c r="AC107" s="258"/>
+      <c r="AD107" s="258"/>
+      <c r="AE107" s="258"/>
+      <c r="AF107" s="258"/>
+      <c r="AG107" s="258"/>
+      <c r="AH107" s="258"/>
+      <c r="AI107" s="258"/>
+      <c r="AJ107" s="258"/>
+      <c r="AK107" s="258"/>
+      <c r="AL107" s="258"/>
+      <c r="AM107" s="258"/>
+      <c r="AN107" s="258"/>
+      <c r="AO107" s="258"/>
+      <c r="AP107" s="258"/>
+      <c r="AQ107" s="258"/>
+      <c r="AR107" s="258"/>
+      <c r="AS107" s="258"/>
+      <c r="AT107" s="258"/>
+      <c r="AU107" s="258"/>
+      <c r="AV107" s="258"/>
+      <c r="AW107" s="258"/>
+      <c r="AX107" s="258"/>
+      <c r="AY107" s="258"/>
+      <c r="AZ107" s="258"/>
+      <c r="BA107" s="258"/>
+      <c r="BB107" s="258"/>
+      <c r="BC107" s="258"/>
+      <c r="BD107" s="258"/>
+      <c r="BE107" s="258"/>
+      <c r="BF107" s="258"/>
+      <c r="BG107" s="258"/>
+      <c r="BH107" s="258"/>
+      <c r="BI107" s="258"/>
+      <c r="BJ107" s="258"/>
+      <c r="BK107" s="258"/>
+      <c r="BL107" s="258"/>
+      <c r="BM107" s="258"/>
+      <c r="BN107" s="258"/>
+      <c r="BO107" s="258"/>
+      <c r="BP107" s="258"/>
+      <c r="BQ107" s="258"/>
+      <c r="BR107" s="258"/>
+      <c r="BS107" s="259"/>
     </row>
     <row r="108" spans="2:71">
       <c r="B108" s="209" t="str">
         <f t="shared" si="52"/>
         <v>0.1</v>
       </c>
-      <c r="C108" s="251" t="s">
+      <c r="C108" s="258" t="s">
         <v>1175</v>
       </c>
-      <c r="D108" s="251"/>
-      <c r="E108" s="251"/>
-      <c r="F108" s="251"/>
-      <c r="G108" s="251"/>
-      <c r="H108" s="251"/>
-      <c r="I108" s="251"/>
-      <c r="J108" s="251"/>
-      <c r="K108" s="251"/>
-      <c r="L108" s="251"/>
-      <c r="M108" s="251"/>
-      <c r="N108" s="251"/>
-      <c r="O108" s="251"/>
-      <c r="P108" s="251"/>
-      <c r="Q108" s="251"/>
-      <c r="R108" s="251"/>
-      <c r="S108" s="251"/>
-      <c r="T108" s="251"/>
-      <c r="U108" s="251"/>
-      <c r="V108" s="251"/>
-      <c r="W108" s="251"/>
-      <c r="X108" s="251"/>
-      <c r="Y108" s="251"/>
-      <c r="Z108" s="251"/>
-      <c r="AA108" s="251"/>
-      <c r="AB108" s="251"/>
-      <c r="AC108" s="251"/>
-      <c r="AD108" s="251"/>
-      <c r="AE108" s="251"/>
-      <c r="AF108" s="251"/>
-      <c r="AG108" s="251"/>
-      <c r="AH108" s="251"/>
-      <c r="AI108" s="251"/>
-      <c r="AJ108" s="251"/>
-      <c r="AK108" s="251"/>
-      <c r="AL108" s="251"/>
-      <c r="AM108" s="251"/>
-      <c r="AN108" s="251"/>
-      <c r="AO108" s="251"/>
-      <c r="AP108" s="251"/>
-      <c r="AQ108" s="251"/>
-      <c r="AR108" s="251"/>
-      <c r="AS108" s="251"/>
-      <c r="AT108" s="251"/>
-      <c r="AU108" s="251"/>
-      <c r="AV108" s="251"/>
-      <c r="AW108" s="251"/>
-      <c r="AX108" s="251"/>
-      <c r="AY108" s="251"/>
-      <c r="AZ108" s="251"/>
-      <c r="BA108" s="251"/>
-      <c r="BB108" s="251"/>
-      <c r="BC108" s="251"/>
-      <c r="BD108" s="251"/>
-      <c r="BE108" s="251"/>
-      <c r="BF108" s="251"/>
-      <c r="BG108" s="251"/>
-      <c r="BH108" s="251"/>
-      <c r="BI108" s="251"/>
-      <c r="BJ108" s="251"/>
-      <c r="BK108" s="251"/>
-      <c r="BL108" s="251"/>
-      <c r="BM108" s="251"/>
-      <c r="BN108" s="251"/>
-      <c r="BO108" s="251"/>
-      <c r="BP108" s="251"/>
-      <c r="BQ108" s="251"/>
-      <c r="BR108" s="251"/>
-      <c r="BS108" s="252"/>
+      <c r="D108" s="258"/>
+      <c r="E108" s="258"/>
+      <c r="F108" s="258"/>
+      <c r="G108" s="258"/>
+      <c r="H108" s="258"/>
+      <c r="I108" s="258"/>
+      <c r="J108" s="258"/>
+      <c r="K108" s="258"/>
+      <c r="L108" s="258"/>
+      <c r="M108" s="258"/>
+      <c r="N108" s="258"/>
+      <c r="O108" s="258"/>
+      <c r="P108" s="258"/>
+      <c r="Q108" s="258"/>
+      <c r="R108" s="258"/>
+      <c r="S108" s="258"/>
+      <c r="T108" s="258"/>
+      <c r="U108" s="258"/>
+      <c r="V108" s="258"/>
+      <c r="W108" s="258"/>
+      <c r="X108" s="258"/>
+      <c r="Y108" s="258"/>
+      <c r="Z108" s="258"/>
+      <c r="AA108" s="258"/>
+      <c r="AB108" s="258"/>
+      <c r="AC108" s="258"/>
+      <c r="AD108" s="258"/>
+      <c r="AE108" s="258"/>
+      <c r="AF108" s="258"/>
+      <c r="AG108" s="258"/>
+      <c r="AH108" s="258"/>
+      <c r="AI108" s="258"/>
+      <c r="AJ108" s="258"/>
+      <c r="AK108" s="258"/>
+      <c r="AL108" s="258"/>
+      <c r="AM108" s="258"/>
+      <c r="AN108" s="258"/>
+      <c r="AO108" s="258"/>
+      <c r="AP108" s="258"/>
+      <c r="AQ108" s="258"/>
+      <c r="AR108" s="258"/>
+      <c r="AS108" s="258"/>
+      <c r="AT108" s="258"/>
+      <c r="AU108" s="258"/>
+      <c r="AV108" s="258"/>
+      <c r="AW108" s="258"/>
+      <c r="AX108" s="258"/>
+      <c r="AY108" s="258"/>
+      <c r="AZ108" s="258"/>
+      <c r="BA108" s="258"/>
+      <c r="BB108" s="258"/>
+      <c r="BC108" s="258"/>
+      <c r="BD108" s="258"/>
+      <c r="BE108" s="258"/>
+      <c r="BF108" s="258"/>
+      <c r="BG108" s="258"/>
+      <c r="BH108" s="258"/>
+      <c r="BI108" s="258"/>
+      <c r="BJ108" s="258"/>
+      <c r="BK108" s="258"/>
+      <c r="BL108" s="258"/>
+      <c r="BM108" s="258"/>
+      <c r="BN108" s="258"/>
+      <c r="BO108" s="258"/>
+      <c r="BP108" s="258"/>
+      <c r="BQ108" s="258"/>
+      <c r="BR108" s="258"/>
+      <c r="BS108" s="259"/>
     </row>
     <row r="109" spans="2:71" ht="17.25" thickBot="1">
       <c r="B109" s="208" t="str">
         <f t="shared" si="52"/>
         <v>0.1</v>
       </c>
-      <c r="C109" s="255" t="s">
+      <c r="C109" s="260" t="s">
         <v>1174</v>
       </c>
-      <c r="D109" s="255"/>
-      <c r="E109" s="255"/>
-      <c r="F109" s="255"/>
-      <c r="G109" s="255"/>
-      <c r="H109" s="255"/>
-      <c r="I109" s="255"/>
-      <c r="J109" s="255"/>
-      <c r="K109" s="255"/>
-      <c r="L109" s="255"/>
-      <c r="M109" s="255"/>
-      <c r="N109" s="255"/>
-      <c r="O109" s="255"/>
-      <c r="P109" s="255"/>
-      <c r="Q109" s="255"/>
-      <c r="R109" s="255"/>
-      <c r="S109" s="255"/>
-      <c r="T109" s="255"/>
-      <c r="U109" s="255"/>
-      <c r="V109" s="255"/>
-      <c r="W109" s="255"/>
-      <c r="X109" s="255"/>
-      <c r="Y109" s="255"/>
-      <c r="Z109" s="255"/>
-      <c r="AA109" s="255"/>
-      <c r="AB109" s="255"/>
-      <c r="AC109" s="255"/>
-      <c r="AD109" s="255"/>
-      <c r="AE109" s="255"/>
-      <c r="AF109" s="255"/>
-      <c r="AG109" s="255"/>
-      <c r="AH109" s="255"/>
-      <c r="AI109" s="255"/>
-      <c r="AJ109" s="255"/>
-      <c r="AK109" s="255"/>
-      <c r="AL109" s="255"/>
-      <c r="AM109" s="255"/>
-      <c r="AN109" s="255"/>
-      <c r="AO109" s="255"/>
-      <c r="AP109" s="255"/>
-      <c r="AQ109" s="255"/>
-      <c r="AR109" s="255"/>
-      <c r="AS109" s="255"/>
-      <c r="AT109" s="255"/>
-      <c r="AU109" s="255"/>
-      <c r="AV109" s="255"/>
-      <c r="AW109" s="255"/>
-      <c r="AX109" s="255"/>
-      <c r="AY109" s="255"/>
-      <c r="AZ109" s="255"/>
-      <c r="BA109" s="255"/>
-      <c r="BB109" s="255"/>
-      <c r="BC109" s="255"/>
-      <c r="BD109" s="255"/>
-      <c r="BE109" s="255"/>
-      <c r="BF109" s="255"/>
-      <c r="BG109" s="255"/>
-      <c r="BH109" s="255"/>
-      <c r="BI109" s="255"/>
-      <c r="BJ109" s="255"/>
-      <c r="BK109" s="255"/>
-      <c r="BL109" s="255"/>
-      <c r="BM109" s="255"/>
-      <c r="BN109" s="255"/>
-      <c r="BO109" s="255"/>
-      <c r="BP109" s="255"/>
-      <c r="BQ109" s="255"/>
-      <c r="BR109" s="255"/>
-      <c r="BS109" s="256"/>
+      <c r="D109" s="260"/>
+      <c r="E109" s="260"/>
+      <c r="F109" s="260"/>
+      <c r="G109" s="260"/>
+      <c r="H109" s="260"/>
+      <c r="I109" s="260"/>
+      <c r="J109" s="260"/>
+      <c r="K109" s="260"/>
+      <c r="L109" s="260"/>
+      <c r="M109" s="260"/>
+      <c r="N109" s="260"/>
+      <c r="O109" s="260"/>
+      <c r="P109" s="260"/>
+      <c r="Q109" s="260"/>
+      <c r="R109" s="260"/>
+      <c r="S109" s="260"/>
+      <c r="T109" s="260"/>
+      <c r="U109" s="260"/>
+      <c r="V109" s="260"/>
+      <c r="W109" s="260"/>
+      <c r="X109" s="260"/>
+      <c r="Y109" s="260"/>
+      <c r="Z109" s="260"/>
+      <c r="AA109" s="260"/>
+      <c r="AB109" s="260"/>
+      <c r="AC109" s="260"/>
+      <c r="AD109" s="260"/>
+      <c r="AE109" s="260"/>
+      <c r="AF109" s="260"/>
+      <c r="AG109" s="260"/>
+      <c r="AH109" s="260"/>
+      <c r="AI109" s="260"/>
+      <c r="AJ109" s="260"/>
+      <c r="AK109" s="260"/>
+      <c r="AL109" s="260"/>
+      <c r="AM109" s="260"/>
+      <c r="AN109" s="260"/>
+      <c r="AO109" s="260"/>
+      <c r="AP109" s="260"/>
+      <c r="AQ109" s="260"/>
+      <c r="AR109" s="260"/>
+      <c r="AS109" s="260"/>
+      <c r="AT109" s="260"/>
+      <c r="AU109" s="260"/>
+      <c r="AV109" s="260"/>
+      <c r="AW109" s="260"/>
+      <c r="AX109" s="260"/>
+      <c r="AY109" s="260"/>
+      <c r="AZ109" s="260"/>
+      <c r="BA109" s="260"/>
+      <c r="BB109" s="260"/>
+      <c r="BC109" s="260"/>
+      <c r="BD109" s="260"/>
+      <c r="BE109" s="260"/>
+      <c r="BF109" s="260"/>
+      <c r="BG109" s="260"/>
+      <c r="BH109" s="260"/>
+      <c r="BI109" s="260"/>
+      <c r="BJ109" s="260"/>
+      <c r="BK109" s="260"/>
+      <c r="BL109" s="260"/>
+      <c r="BM109" s="260"/>
+      <c r="BN109" s="260"/>
+      <c r="BO109" s="260"/>
+      <c r="BP109" s="260"/>
+      <c r="BQ109" s="260"/>
+      <c r="BR109" s="260"/>
+      <c r="BS109" s="261"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A11:M61"/>
   <mergeCells count="65">
-    <mergeCell ref="C103:BS103"/>
-    <mergeCell ref="C104:BS104"/>
-    <mergeCell ref="C90:BS90"/>
-    <mergeCell ref="C91:BS91"/>
-    <mergeCell ref="C80:BS80"/>
-    <mergeCell ref="C79:BS79"/>
-    <mergeCell ref="C89:BS89"/>
-    <mergeCell ref="C88:BS88"/>
-    <mergeCell ref="C87:BS87"/>
-    <mergeCell ref="C86:BS86"/>
-    <mergeCell ref="C82:BS82"/>
-    <mergeCell ref="C83:BS83"/>
-    <mergeCell ref="C84:BS84"/>
-    <mergeCell ref="C85:BS85"/>
-    <mergeCell ref="C81:BS81"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="AC8:AI8"/>
+    <mergeCell ref="AJ8:AP8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A1:BR1"/>
+    <mergeCell ref="A2:BR2"/>
+    <mergeCell ref="A3:BR3"/>
+    <mergeCell ref="A4:BR4"/>
+    <mergeCell ref="AX9:BD9"/>
+    <mergeCell ref="BE9:BK9"/>
+    <mergeCell ref="BL9:BR9"/>
+    <mergeCell ref="AQ8:AW8"/>
+    <mergeCell ref="AX8:BD8"/>
+    <mergeCell ref="BE8:BK8"/>
+    <mergeCell ref="BL8:BR8"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="AJ9:AP9"/>
+    <mergeCell ref="AQ9:AW9"/>
+    <mergeCell ref="C78:BS78"/>
+    <mergeCell ref="C74:BS74"/>
+    <mergeCell ref="C73:BS73"/>
+    <mergeCell ref="C67:BS67"/>
+    <mergeCell ref="C68:BS68"/>
+    <mergeCell ref="C69:BS69"/>
+    <mergeCell ref="C70:BS70"/>
+    <mergeCell ref="C71:BS71"/>
+    <mergeCell ref="C72:BS72"/>
+    <mergeCell ref="C75:BS75"/>
+    <mergeCell ref="C76:BS76"/>
+    <mergeCell ref="C77:BS77"/>
     <mergeCell ref="C108:BS108"/>
     <mergeCell ref="C109:BS109"/>
     <mergeCell ref="C92:BS92"/>
@@ -26020,40 +26186,21 @@
     <mergeCell ref="C105:BS105"/>
     <mergeCell ref="C101:BS101"/>
     <mergeCell ref="C102:BS102"/>
-    <mergeCell ref="C78:BS78"/>
-    <mergeCell ref="C74:BS74"/>
-    <mergeCell ref="C73:BS73"/>
-    <mergeCell ref="C67:BS67"/>
-    <mergeCell ref="C68:BS68"/>
-    <mergeCell ref="C69:BS69"/>
-    <mergeCell ref="C70:BS70"/>
-    <mergeCell ref="C71:BS71"/>
-    <mergeCell ref="C72:BS72"/>
-    <mergeCell ref="C75:BS75"/>
-    <mergeCell ref="C76:BS76"/>
-    <mergeCell ref="C77:BS77"/>
-    <mergeCell ref="A1:BR1"/>
-    <mergeCell ref="A2:BR2"/>
-    <mergeCell ref="A3:BR3"/>
-    <mergeCell ref="A4:BR4"/>
-    <mergeCell ref="AX9:BD9"/>
-    <mergeCell ref="BE9:BK9"/>
-    <mergeCell ref="BL9:BR9"/>
-    <mergeCell ref="AQ8:AW8"/>
-    <mergeCell ref="AX8:BD8"/>
-    <mergeCell ref="BE8:BK8"/>
-    <mergeCell ref="BL8:BR8"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AJ9:AP9"/>
-    <mergeCell ref="AQ9:AW9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="AC8:AI8"/>
-    <mergeCell ref="AJ8:AP8"/>
-    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C79:BS79"/>
+    <mergeCell ref="C89:BS89"/>
+    <mergeCell ref="C88:BS88"/>
+    <mergeCell ref="C87:BS87"/>
+    <mergeCell ref="C86:BS86"/>
+    <mergeCell ref="C82:BS82"/>
+    <mergeCell ref="C83:BS83"/>
+    <mergeCell ref="C84:BS84"/>
+    <mergeCell ref="C85:BS85"/>
+    <mergeCell ref="C81:BS81"/>
+    <mergeCell ref="C103:BS103"/>
+    <mergeCell ref="C104:BS104"/>
+    <mergeCell ref="C90:BS90"/>
+    <mergeCell ref="C91:BS91"/>
+    <mergeCell ref="C80:BS80"/>
   </mergeCells>
   <conditionalFormatting sqref="L28 L57 L46:L47 L49 L52:L54 L39 L22:L26 L12:L17">
     <cfRule type="dataBar" priority="212">
@@ -26906,7 +27053,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="A2" sqref="A2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -26915,59 +27062,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="239"/>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
     </row>
     <row r="2" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A2" s="240" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240"/>
+      <c r="A2" s="263" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="263"/>
     </row>
     <row r="3" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="263" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="263"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="71"/>
@@ -27006,7 +27153,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="A2" sqref="A2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -27015,59 +27162,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="239"/>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
     </row>
     <row r="2" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A2" s="240" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240"/>
+      <c r="A2" s="263" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="263"/>
     </row>
     <row r="3" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="263" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="263"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="71"/>
@@ -27115,59 +27262,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="239"/>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
     </row>
     <row r="2" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A2" s="240" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240"/>
+      <c r="A2" s="263" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="263"/>
     </row>
     <row r="3" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="263" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="263"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="71"/>
@@ -27206,7 +27353,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -27215,59 +27362,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="239"/>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
     </row>
     <row r="2" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A2" s="240" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240"/>
+      <c r="A2" s="263" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="263"/>
     </row>
     <row r="3" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="263" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="263"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="71"/>

--- a/docs/trim1/gestion_proyecto/3_cronograma_actividades.xlsx
+++ b/docs/trim1/gestion_proyecto/3_cronograma_actividades.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F81DDC8-BF14-48DE-871C-8AA0EED181AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ADSO" sheetId="10" r:id="rId1"/>
@@ -49,12 +48,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="H11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1281">
   <si>
     <t>Cronograma de Actividades</t>
   </si>
@@ -3965,7 +3964,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ \(dddd\)"/>
     <numFmt numFmtId="165" formatCode="d\ mmm\ yyyy"/>
@@ -6455,29 +6454,35 @@
     <xf numFmtId="49" fontId="45" fillId="0" borderId="93" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="45" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="100" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="101" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="102" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="108" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="109" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="110" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="108" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="106" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="107" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="12" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6498,50 +6503,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="100" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="101" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="102" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="109" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="110" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="86" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="85" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6570,33 +6561,41 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="70" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="86" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="85" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2"/>
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Porcentaje 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Porcentaje 2" xfId="5"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -6992,7 +6991,7 @@
         <xdr:cNvPr id="2" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7051,7 +7050,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7110,7 +7109,7 @@
         <xdr:cNvPr id="2" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7174,7 +7173,7 @@
                   <a14:compatExt spid="_x0000_s7169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000011C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000011C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7214,7 +7213,7 @@
         <xdr:cNvPr id="4" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7268,7 +7267,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7322,7 +7321,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7371,7 +7370,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7425,7 +7424,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7474,7 +7473,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7528,7 +7527,7 @@
         <xdr:cNvPr id="2" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7577,7 +7576,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7692,23 +7691,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7744,23 +7726,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7936,7 +7901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F540"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -16418,7 +16383,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A1:F540" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F540"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup scale="35" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
@@ -16427,7 +16392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P81"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
@@ -16453,102 +16418,102 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="242" t="s">
+      <c r="B3" s="219" t="s">
         <v>1267</v>
       </c>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
     </row>
     <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickTop="1">
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="248" t="s">
+      <c r="B8" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="248"/>
-      <c r="D8" s="248"/>
-      <c r="E8" s="248"/>
-      <c r="F8" s="248"/>
+      <c r="C8" s="218"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.75" customHeight="1" thickTop="1">
       <c r="B11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="245" t="s">
+      <c r="C11" s="222" t="s">
         <v>1266</v>
       </c>
-      <c r="D11" s="245"/>
-      <c r="E11" s="245"/>
-      <c r="F11" s="245"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="246" t="s">
+      <c r="C12" s="215" t="s">
         <v>1267</v>
       </c>
-      <c r="D12" s="246"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="246"/>
+      <c r="D12" s="215"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="215"/>
     </row>
     <row r="13" spans="2:6" ht="18">
       <c r="B13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="247" t="s">
+      <c r="C13" s="216" t="s">
         <v>1268</v>
       </c>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="216"/>
     </row>
     <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1">
       <c r="B14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="246" t="s">
+      <c r="C14" s="215" t="s">
         <v>1267</v>
       </c>
-      <c r="D14" s="246"/>
-      <c r="E14" s="246"/>
-      <c r="F14" s="246"/>
+      <c r="D14" s="215"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="215"/>
     </row>
     <row r="15" spans="2:6" ht="19.899999999999999" customHeight="1">
       <c r="B15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="215" t="s">
+      <c r="C15" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="215"/>
+      <c r="D15" s="217"/>
       <c r="E15" s="25" t="s">
         <v>9</v>
       </c>
@@ -16560,10 +16525,10 @@
       <c r="B16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="215" t="s">
+      <c r="C16" s="217" t="s">
         <v>1115</v>
       </c>
-      <c r="D16" s="215"/>
+      <c r="D16" s="217"/>
       <c r="E16" s="26" t="s">
         <v>10</v>
       </c>
@@ -16588,10 +16553,10 @@
       <c r="C20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="223" t="s">
+      <c r="D20" s="247" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="224"/>
+      <c r="E20" s="248"/>
       <c r="F20" s="16" t="s">
         <v>17</v>
       </c>
@@ -16603,10 +16568,10 @@
       <c r="C21" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="221" t="s">
+      <c r="D21" s="245" t="s">
         <v>1271</v>
       </c>
-      <c r="E21" s="222"/>
+      <c r="E21" s="246"/>
       <c r="F21" s="214" t="s">
         <v>1272</v>
       </c>
@@ -16618,10 +16583,10 @@
       <c r="C22" s="213" t="s">
         <v>1276</v>
       </c>
-      <c r="D22" s="221" t="s">
+      <c r="D22" s="245" t="s">
         <v>1277</v>
       </c>
-      <c r="E22" s="222"/>
+      <c r="E22" s="246"/>
       <c r="F22" s="213" t="s">
         <v>1278</v>
       </c>
@@ -16629,43 +16594,43 @@
     <row r="23" spans="2:16" ht="25.5" customHeight="1">
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="220"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="227"/>
       <c r="F23" s="19"/>
     </row>
     <row r="24" spans="2:16" ht="25.5" customHeight="1">
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="220"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="227"/>
       <c r="F24" s="19"/>
     </row>
     <row r="25" spans="2:16" ht="25.5" customHeight="1">
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="220"/>
+      <c r="D25" s="226"/>
+      <c r="E25" s="227"/>
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="2:16" ht="25.5" customHeight="1">
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="219"/>
-      <c r="E26" s="220"/>
+      <c r="D26" s="226"/>
+      <c r="E26" s="227"/>
       <c r="F26" s="19"/>
     </row>
     <row r="27" spans="2:16" ht="25.5" customHeight="1">
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="219"/>
-      <c r="E27" s="220"/>
+      <c r="D27" s="226"/>
+      <c r="E27" s="227"/>
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="2:16" ht="25.5" customHeight="1">
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="220"/>
+      <c r="D28" s="226"/>
+      <c r="E28" s="227"/>
       <c r="F28" s="19"/>
     </row>
     <row r="29" spans="2:16" ht="25.5" customHeight="1" thickBot="1">
@@ -16692,13 +16657,13 @@
       <c r="F33" s="232"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B34" s="216" t="s">
+      <c r="B34" s="242" t="s">
         <v>1273</v>
       </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="217"/>
-      <c r="E34" s="217"/>
-      <c r="F34" s="218"/>
+      <c r="C34" s="243"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="243"/>
+      <c r="F34" s="244"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1">
       <c r="B35" s="233" t="s">
@@ -16727,11 +16692,11 @@
       <c r="F37" s="241"/>
     </row>
     <row r="38" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B38" s="225"/>
-      <c r="C38" s="226"/>
-      <c r="D38" s="226"/>
-      <c r="E38" s="226"/>
-      <c r="F38" s="227"/>
+      <c r="B38" s="223"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="225"/>
     </row>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A39" s="6"/>
@@ -16892,16 +16857,13 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
@@ -16912,13 +16874,16 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B37:F37"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -16928,7 +16893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -16955,296 +16920,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="257"/>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="257"/>
-      <c r="P1" s="257"/>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="257"/>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="257"/>
-      <c r="AB1" s="257"/>
-      <c r="AC1" s="257"/>
-      <c r="AD1" s="257"/>
-      <c r="AE1" s="257"/>
-      <c r="AF1" s="257"/>
-      <c r="AG1" s="257"/>
-      <c r="AH1" s="257"/>
-      <c r="AI1" s="257"/>
-      <c r="AJ1" s="257"/>
-      <c r="AK1" s="257"/>
-      <c r="AL1" s="257"/>
-      <c r="AM1" s="257"/>
-      <c r="AN1" s="257"/>
-      <c r="AO1" s="257"/>
-      <c r="AP1" s="257"/>
-      <c r="AQ1" s="257"/>
-      <c r="AR1" s="257"/>
-      <c r="AS1" s="257"/>
-      <c r="AT1" s="257"/>
-      <c r="AU1" s="257"/>
-      <c r="AV1" s="257"/>
-      <c r="AW1" s="257"/>
-      <c r="AX1" s="257"/>
-      <c r="AY1" s="257"/>
-      <c r="AZ1" s="257"/>
-      <c r="BA1" s="257"/>
-      <c r="BB1" s="257"/>
-      <c r="BC1" s="257"/>
-      <c r="BD1" s="257"/>
-      <c r="BE1" s="257"/>
-      <c r="BF1" s="257"/>
-      <c r="BG1" s="257"/>
-      <c r="BH1" s="257"/>
-      <c r="BI1" s="257"/>
-      <c r="BJ1" s="257"/>
-      <c r="BK1" s="257"/>
-      <c r="BL1" s="257"/>
-      <c r="BM1" s="257"/>
-      <c r="BN1" s="257"/>
-      <c r="BO1" s="257"/>
-      <c r="BP1" s="257"/>
-      <c r="BQ1" s="257"/>
-      <c r="BR1" s="257"/>
+      <c r="A1" s="254"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="254"/>
+      <c r="O1" s="254"/>
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="254"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="254"/>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="254"/>
+      <c r="AA1" s="254"/>
+      <c r="AB1" s="254"/>
+      <c r="AC1" s="254"/>
+      <c r="AD1" s="254"/>
+      <c r="AE1" s="254"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="254"/>
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="254"/>
+      <c r="AJ1" s="254"/>
+      <c r="AK1" s="254"/>
+      <c r="AL1" s="254"/>
+      <c r="AM1" s="254"/>
+      <c r="AN1" s="254"/>
+      <c r="AO1" s="254"/>
+      <c r="AP1" s="254"/>
+      <c r="AQ1" s="254"/>
+      <c r="AR1" s="254"/>
+      <c r="AS1" s="254"/>
+      <c r="AT1" s="254"/>
+      <c r="AU1" s="254"/>
+      <c r="AV1" s="254"/>
+      <c r="AW1" s="254"/>
+      <c r="AX1" s="254"/>
+      <c r="AY1" s="254"/>
+      <c r="AZ1" s="254"/>
+      <c r="BA1" s="254"/>
+      <c r="BB1" s="254"/>
+      <c r="BC1" s="254"/>
+      <c r="BD1" s="254"/>
+      <c r="BE1" s="254"/>
+      <c r="BF1" s="254"/>
+      <c r="BG1" s="254"/>
+      <c r="BH1" s="254"/>
+      <c r="BI1" s="254"/>
+      <c r="BJ1" s="254"/>
+      <c r="BK1" s="254"/>
+      <c r="BL1" s="254"/>
+      <c r="BM1" s="254"/>
+      <c r="BN1" s="254"/>
+      <c r="BO1" s="254"/>
+      <c r="BP1" s="254"/>
+      <c r="BQ1" s="254"/>
+      <c r="BR1" s="254"/>
     </row>
     <row r="2" spans="1:70" s="42" customFormat="1" ht="20.25">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="255" t="s">
         <v>1267</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="257"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="258"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="258"/>
-      <c r="U2" s="258"/>
-      <c r="V2" s="258"/>
-      <c r="W2" s="258"/>
-      <c r="X2" s="258"/>
-      <c r="Y2" s="258"/>
-      <c r="Z2" s="258"/>
-      <c r="AA2" s="258"/>
-      <c r="AB2" s="258"/>
-      <c r="AC2" s="258"/>
-      <c r="AD2" s="258"/>
-      <c r="AE2" s="258"/>
-      <c r="AF2" s="258"/>
-      <c r="AG2" s="258"/>
-      <c r="AH2" s="258"/>
-      <c r="AI2" s="258"/>
-      <c r="AJ2" s="258"/>
-      <c r="AK2" s="258"/>
-      <c r="AL2" s="258"/>
-      <c r="AM2" s="258"/>
-      <c r="AN2" s="258"/>
-      <c r="AO2" s="258"/>
-      <c r="AP2" s="258"/>
-      <c r="AQ2" s="258"/>
-      <c r="AR2" s="258"/>
-      <c r="AS2" s="258"/>
-      <c r="AT2" s="258"/>
-      <c r="AU2" s="258"/>
-      <c r="AV2" s="258"/>
-      <c r="AW2" s="258"/>
-      <c r="AX2" s="258"/>
-      <c r="AY2" s="258"/>
-      <c r="AZ2" s="258"/>
-      <c r="BA2" s="258"/>
-      <c r="BB2" s="258"/>
-      <c r="BC2" s="258"/>
-      <c r="BD2" s="258"/>
-      <c r="BE2" s="258"/>
-      <c r="BF2" s="258"/>
-      <c r="BG2" s="258"/>
-      <c r="BH2" s="258"/>
-      <c r="BI2" s="258"/>
-      <c r="BJ2" s="258"/>
-      <c r="BK2" s="258"/>
-      <c r="BL2" s="258"/>
-      <c r="BM2" s="258"/>
-      <c r="BN2" s="258"/>
-      <c r="BO2" s="258"/>
-      <c r="BP2" s="258"/>
-      <c r="BQ2" s="258"/>
-      <c r="BR2" s="259"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="255"/>
+      <c r="AA2" s="255"/>
+      <c r="AB2" s="255"/>
+      <c r="AC2" s="255"/>
+      <c r="AD2" s="255"/>
+      <c r="AE2" s="255"/>
+      <c r="AF2" s="255"/>
+      <c r="AG2" s="255"/>
+      <c r="AH2" s="255"/>
+      <c r="AI2" s="255"/>
+      <c r="AJ2" s="255"/>
+      <c r="AK2" s="255"/>
+      <c r="AL2" s="255"/>
+      <c r="AM2" s="255"/>
+      <c r="AN2" s="255"/>
+      <c r="AO2" s="255"/>
+      <c r="AP2" s="255"/>
+      <c r="AQ2" s="255"/>
+      <c r="AR2" s="255"/>
+      <c r="AS2" s="255"/>
+      <c r="AT2" s="255"/>
+      <c r="AU2" s="255"/>
+      <c r="AV2" s="255"/>
+      <c r="AW2" s="255"/>
+      <c r="AX2" s="255"/>
+      <c r="AY2" s="255"/>
+      <c r="AZ2" s="255"/>
+      <c r="BA2" s="255"/>
+      <c r="BB2" s="255"/>
+      <c r="BC2" s="255"/>
+      <c r="BD2" s="255"/>
+      <c r="BE2" s="255"/>
+      <c r="BF2" s="255"/>
+      <c r="BG2" s="255"/>
+      <c r="BH2" s="255"/>
+      <c r="BI2" s="255"/>
+      <c r="BJ2" s="255"/>
+      <c r="BK2" s="255"/>
+      <c r="BL2" s="255"/>
+      <c r="BM2" s="255"/>
+      <c r="BN2" s="255"/>
+      <c r="BO2" s="255"/>
+      <c r="BP2" s="255"/>
+      <c r="BQ2" s="255"/>
+      <c r="BR2" s="256"/>
     </row>
     <row r="3" spans="1:70" s="42" customFormat="1" ht="20.25">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="255" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="258"/>
-      <c r="P3" s="258"/>
-      <c r="Q3" s="258"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="258"/>
-      <c r="T3" s="258"/>
-      <c r="U3" s="258"/>
-      <c r="V3" s="258"/>
-      <c r="W3" s="258"/>
-      <c r="X3" s="258"/>
-      <c r="Y3" s="258"/>
-      <c r="Z3" s="258"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="258"/>
-      <c r="AC3" s="258"/>
-      <c r="AD3" s="258"/>
-      <c r="AE3" s="258"/>
-      <c r="AF3" s="258"/>
-      <c r="AG3" s="258"/>
-      <c r="AH3" s="258"/>
-      <c r="AI3" s="258"/>
-      <c r="AJ3" s="258"/>
-      <c r="AK3" s="258"/>
-      <c r="AL3" s="258"/>
-      <c r="AM3" s="258"/>
-      <c r="AN3" s="258"/>
-      <c r="AO3" s="258"/>
-      <c r="AP3" s="258"/>
-      <c r="AQ3" s="258"/>
-      <c r="AR3" s="258"/>
-      <c r="AS3" s="258"/>
-      <c r="AT3" s="258"/>
-      <c r="AU3" s="258"/>
-      <c r="AV3" s="258"/>
-      <c r="AW3" s="258"/>
-      <c r="AX3" s="258"/>
-      <c r="AY3" s="258"/>
-      <c r="AZ3" s="258"/>
-      <c r="BA3" s="258"/>
-      <c r="BB3" s="258"/>
-      <c r="BC3" s="258"/>
-      <c r="BD3" s="258"/>
-      <c r="BE3" s="258"/>
-      <c r="BF3" s="258"/>
-      <c r="BG3" s="258"/>
-      <c r="BH3" s="258"/>
-      <c r="BI3" s="258"/>
-      <c r="BJ3" s="258"/>
-      <c r="BK3" s="258"/>
-      <c r="BL3" s="258"/>
-      <c r="BM3" s="258"/>
-      <c r="BN3" s="258"/>
-      <c r="BO3" s="258"/>
-      <c r="BP3" s="258"/>
-      <c r="BQ3" s="258"/>
-      <c r="BR3" s="259"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="255"/>
+      <c r="Q3" s="255"/>
+      <c r="R3" s="255"/>
+      <c r="S3" s="255"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="255"/>
+      <c r="AA3" s="255"/>
+      <c r="AB3" s="255"/>
+      <c r="AC3" s="255"/>
+      <c r="AD3" s="255"/>
+      <c r="AE3" s="255"/>
+      <c r="AF3" s="255"/>
+      <c r="AG3" s="255"/>
+      <c r="AH3" s="255"/>
+      <c r="AI3" s="255"/>
+      <c r="AJ3" s="255"/>
+      <c r="AK3" s="255"/>
+      <c r="AL3" s="255"/>
+      <c r="AM3" s="255"/>
+      <c r="AN3" s="255"/>
+      <c r="AO3" s="255"/>
+      <c r="AP3" s="255"/>
+      <c r="AQ3" s="255"/>
+      <c r="AR3" s="255"/>
+      <c r="AS3" s="255"/>
+      <c r="AT3" s="255"/>
+      <c r="AU3" s="255"/>
+      <c r="AV3" s="255"/>
+      <c r="AW3" s="255"/>
+      <c r="AX3" s="255"/>
+      <c r="AY3" s="255"/>
+      <c r="AZ3" s="255"/>
+      <c r="BA3" s="255"/>
+      <c r="BB3" s="255"/>
+      <c r="BC3" s="255"/>
+      <c r="BD3" s="255"/>
+      <c r="BE3" s="255"/>
+      <c r="BF3" s="255"/>
+      <c r="BG3" s="255"/>
+      <c r="BH3" s="255"/>
+      <c r="BI3" s="255"/>
+      <c r="BJ3" s="255"/>
+      <c r="BK3" s="255"/>
+      <c r="BL3" s="255"/>
+      <c r="BM3" s="255"/>
+      <c r="BN3" s="255"/>
+      <c r="BO3" s="255"/>
+      <c r="BP3" s="255"/>
+      <c r="BQ3" s="255"/>
+      <c r="BR3" s="256"/>
     </row>
     <row r="4" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A4" s="260"/>
-      <c r="B4" s="260"/>
-      <c r="C4" s="260"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="260"/>
-      <c r="F4" s="260"/>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="260"/>
-      <c r="L4" s="260"/>
-      <c r="M4" s="260"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="260"/>
-      <c r="U4" s="260"/>
-      <c r="V4" s="260"/>
-      <c r="W4" s="260"/>
-      <c r="X4" s="260"/>
-      <c r="Y4" s="260"/>
-      <c r="Z4" s="260"/>
-      <c r="AA4" s="260"/>
-      <c r="AB4" s="260"/>
-      <c r="AC4" s="260"/>
-      <c r="AD4" s="260"/>
-      <c r="AE4" s="260"/>
-      <c r="AF4" s="260"/>
-      <c r="AG4" s="260"/>
-      <c r="AH4" s="260"/>
-      <c r="AI4" s="260"/>
-      <c r="AJ4" s="260"/>
-      <c r="AK4" s="260"/>
-      <c r="AL4" s="260"/>
-      <c r="AM4" s="260"/>
-      <c r="AN4" s="260"/>
-      <c r="AO4" s="260"/>
-      <c r="AP4" s="260"/>
-      <c r="AQ4" s="260"/>
-      <c r="AR4" s="260"/>
-      <c r="AS4" s="260"/>
-      <c r="AT4" s="260"/>
-      <c r="AU4" s="260"/>
-      <c r="AV4" s="260"/>
-      <c r="AW4" s="260"/>
-      <c r="AX4" s="260"/>
-      <c r="AY4" s="260"/>
-      <c r="AZ4" s="260"/>
-      <c r="BA4" s="260"/>
-      <c r="BB4" s="260"/>
-      <c r="BC4" s="260"/>
-      <c r="BD4" s="260"/>
-      <c r="BE4" s="260"/>
-      <c r="BF4" s="260"/>
-      <c r="BG4" s="260"/>
-      <c r="BH4" s="260"/>
-      <c r="BI4" s="260"/>
-      <c r="BJ4" s="260"/>
-      <c r="BK4" s="260"/>
-      <c r="BL4" s="260"/>
-      <c r="BM4" s="260"/>
-      <c r="BN4" s="260"/>
-      <c r="BO4" s="260"/>
-      <c r="BP4" s="260"/>
-      <c r="BQ4" s="260"/>
-      <c r="BR4" s="261"/>
+      <c r="A4" s="257"/>
+      <c r="B4" s="257"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="257"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="257"/>
+      <c r="M4" s="257"/>
+      <c r="N4" s="257"/>
+      <c r="O4" s="257"/>
+      <c r="P4" s="257"/>
+      <c r="Q4" s="257"/>
+      <c r="R4" s="257"/>
+      <c r="S4" s="257"/>
+      <c r="T4" s="257"/>
+      <c r="U4" s="257"/>
+      <c r="V4" s="257"/>
+      <c r="W4" s="257"/>
+      <c r="X4" s="257"/>
+      <c r="Y4" s="257"/>
+      <c r="Z4" s="257"/>
+      <c r="AA4" s="257"/>
+      <c r="AB4" s="257"/>
+      <c r="AC4" s="257"/>
+      <c r="AD4" s="257"/>
+      <c r="AE4" s="257"/>
+      <c r="AF4" s="257"/>
+      <c r="AG4" s="257"/>
+      <c r="AH4" s="257"/>
+      <c r="AI4" s="257"/>
+      <c r="AJ4" s="257"/>
+      <c r="AK4" s="257"/>
+      <c r="AL4" s="257"/>
+      <c r="AM4" s="257"/>
+      <c r="AN4" s="257"/>
+      <c r="AO4" s="257"/>
+      <c r="AP4" s="257"/>
+      <c r="AQ4" s="257"/>
+      <c r="AR4" s="257"/>
+      <c r="AS4" s="257"/>
+      <c r="AT4" s="257"/>
+      <c r="AU4" s="257"/>
+      <c r="AV4" s="257"/>
+      <c r="AW4" s="257"/>
+      <c r="AX4" s="257"/>
+      <c r="AY4" s="257"/>
+      <c r="AZ4" s="257"/>
+      <c r="BA4" s="257"/>
+      <c r="BB4" s="257"/>
+      <c r="BC4" s="257"/>
+      <c r="BD4" s="257"/>
+      <c r="BE4" s="257"/>
+      <c r="BF4" s="257"/>
+      <c r="BG4" s="257"/>
+      <c r="BH4" s="257"/>
+      <c r="BI4" s="257"/>
+      <c r="BJ4" s="257"/>
+      <c r="BK4" s="257"/>
+      <c r="BL4" s="257"/>
+      <c r="BM4" s="257"/>
+      <c r="BN4" s="257"/>
+      <c r="BO4" s="257"/>
+      <c r="BP4" s="257"/>
+      <c r="BQ4" s="257"/>
+      <c r="BR4" s="258"/>
     </row>
     <row r="5" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1">
       <c r="A5" s="169"/>
@@ -17359,11 +17324,11 @@
         <v>26</v>
       </c>
       <c r="C8" s="182"/>
-      <c r="D8" s="271">
+      <c r="D8" s="253">
         <v>44958</v>
       </c>
-      <c r="E8" s="271"/>
-      <c r="F8" s="271"/>
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="K8" s="200" t="s">
@@ -17372,179 +17337,179 @@
       <c r="L8" s="28">
         <v>1</v>
       </c>
-      <c r="O8" s="266" t="str">
+      <c r="O8" s="250" t="str">
         <f>"Semana "&amp;(O10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 1</v>
       </c>
-      <c r="P8" s="267"/>
-      <c r="Q8" s="267"/>
-      <c r="R8" s="267"/>
-      <c r="S8" s="267"/>
-      <c r="T8" s="267"/>
-      <c r="U8" s="268"/>
-      <c r="V8" s="266" t="str">
+      <c r="P8" s="251"/>
+      <c r="Q8" s="251"/>
+      <c r="R8" s="251"/>
+      <c r="S8" s="251"/>
+      <c r="T8" s="251"/>
+      <c r="U8" s="252"/>
+      <c r="V8" s="250" t="str">
         <f>"Semana "&amp;(V10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 2</v>
       </c>
-      <c r="W8" s="267"/>
-      <c r="X8" s="267"/>
-      <c r="Y8" s="267"/>
-      <c r="Z8" s="267"/>
-      <c r="AA8" s="267"/>
-      <c r="AB8" s="268"/>
-      <c r="AC8" s="266" t="str">
+      <c r="W8" s="251"/>
+      <c r="X8" s="251"/>
+      <c r="Y8" s="251"/>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="251"/>
+      <c r="AB8" s="252"/>
+      <c r="AC8" s="250" t="str">
         <f>"Semana "&amp;(AC10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 3</v>
       </c>
-      <c r="AD8" s="267"/>
-      <c r="AE8" s="267"/>
-      <c r="AF8" s="267"/>
-      <c r="AG8" s="267"/>
-      <c r="AH8" s="267"/>
-      <c r="AI8" s="268"/>
-      <c r="AJ8" s="266" t="str">
+      <c r="AD8" s="251"/>
+      <c r="AE8" s="251"/>
+      <c r="AF8" s="251"/>
+      <c r="AG8" s="251"/>
+      <c r="AH8" s="251"/>
+      <c r="AI8" s="252"/>
+      <c r="AJ8" s="250" t="str">
         <f>"Semana "&amp;(AJ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 4</v>
       </c>
-      <c r="AK8" s="267"/>
-      <c r="AL8" s="267"/>
-      <c r="AM8" s="267"/>
-      <c r="AN8" s="267"/>
-      <c r="AO8" s="267"/>
-      <c r="AP8" s="268"/>
-      <c r="AQ8" s="266" t="str">
+      <c r="AK8" s="251"/>
+      <c r="AL8" s="251"/>
+      <c r="AM8" s="251"/>
+      <c r="AN8" s="251"/>
+      <c r="AO8" s="251"/>
+      <c r="AP8" s="252"/>
+      <c r="AQ8" s="250" t="str">
         <f>"Semana "&amp;(AQ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 5</v>
       </c>
-      <c r="AR8" s="267"/>
-      <c r="AS8" s="267"/>
-      <c r="AT8" s="267"/>
-      <c r="AU8" s="267"/>
-      <c r="AV8" s="267"/>
-      <c r="AW8" s="268"/>
-      <c r="AX8" s="266" t="str">
+      <c r="AR8" s="251"/>
+      <c r="AS8" s="251"/>
+      <c r="AT8" s="251"/>
+      <c r="AU8" s="251"/>
+      <c r="AV8" s="251"/>
+      <c r="AW8" s="252"/>
+      <c r="AX8" s="250" t="str">
         <f>"Semana "&amp;(AX10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 6</v>
       </c>
-      <c r="AY8" s="267"/>
-      <c r="AZ8" s="267"/>
-      <c r="BA8" s="267"/>
-      <c r="BB8" s="267"/>
-      <c r="BC8" s="267"/>
-      <c r="BD8" s="268"/>
-      <c r="BE8" s="266" t="str">
+      <c r="AY8" s="251"/>
+      <c r="AZ8" s="251"/>
+      <c r="BA8" s="251"/>
+      <c r="BB8" s="251"/>
+      <c r="BC8" s="251"/>
+      <c r="BD8" s="252"/>
+      <c r="BE8" s="250" t="str">
         <f>"Semana "&amp;(BE10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 7</v>
       </c>
-      <c r="BF8" s="267"/>
-      <c r="BG8" s="267"/>
-      <c r="BH8" s="267"/>
-      <c r="BI8" s="267"/>
-      <c r="BJ8" s="267"/>
-      <c r="BK8" s="268"/>
-      <c r="BL8" s="266" t="str">
+      <c r="BF8" s="251"/>
+      <c r="BG8" s="251"/>
+      <c r="BH8" s="251"/>
+      <c r="BI8" s="251"/>
+      <c r="BJ8" s="251"/>
+      <c r="BK8" s="252"/>
+      <c r="BL8" s="250" t="str">
         <f>"Semana "&amp;(BL10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 8</v>
       </c>
-      <c r="BM8" s="267"/>
-      <c r="BN8" s="267"/>
-      <c r="BO8" s="267"/>
-      <c r="BP8" s="267"/>
-      <c r="BQ8" s="267"/>
-      <c r="BR8" s="269"/>
+      <c r="BM8" s="251"/>
+      <c r="BN8" s="251"/>
+      <c r="BO8" s="251"/>
+      <c r="BP8" s="251"/>
+      <c r="BQ8" s="251"/>
+      <c r="BR8" s="263"/>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1">
       <c r="B9" s="181" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="182"/>
-      <c r="D9" s="270" t="s">
+      <c r="D9" s="249" t="s">
         <v>1115</v>
       </c>
-      <c r="E9" s="270"/>
-      <c r="F9" s="270"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
-      <c r="O9" s="262">
+      <c r="O9" s="259">
         <f>O10</f>
         <v>44956</v>
       </c>
-      <c r="P9" s="263"/>
-      <c r="Q9" s="263"/>
-      <c r="R9" s="263"/>
-      <c r="S9" s="263"/>
-      <c r="T9" s="263"/>
-      <c r="U9" s="264"/>
-      <c r="V9" s="262">
+      <c r="P9" s="260"/>
+      <c r="Q9" s="260"/>
+      <c r="R9" s="260"/>
+      <c r="S9" s="260"/>
+      <c r="T9" s="260"/>
+      <c r="U9" s="261"/>
+      <c r="V9" s="259">
         <f>V10</f>
         <v>44963</v>
       </c>
-      <c r="W9" s="263"/>
-      <c r="X9" s="263"/>
-      <c r="Y9" s="263"/>
-      <c r="Z9" s="263"/>
-      <c r="AA9" s="263"/>
-      <c r="AB9" s="264"/>
-      <c r="AC9" s="262">
+      <c r="W9" s="260"/>
+      <c r="X9" s="260"/>
+      <c r="Y9" s="260"/>
+      <c r="Z9" s="260"/>
+      <c r="AA9" s="260"/>
+      <c r="AB9" s="261"/>
+      <c r="AC9" s="259">
         <f>AC10</f>
         <v>44970</v>
       </c>
-      <c r="AD9" s="263"/>
-      <c r="AE9" s="263"/>
-      <c r="AF9" s="263"/>
-      <c r="AG9" s="263"/>
-      <c r="AH9" s="263"/>
-      <c r="AI9" s="264"/>
-      <c r="AJ9" s="262">
+      <c r="AD9" s="260"/>
+      <c r="AE9" s="260"/>
+      <c r="AF9" s="260"/>
+      <c r="AG9" s="260"/>
+      <c r="AH9" s="260"/>
+      <c r="AI9" s="261"/>
+      <c r="AJ9" s="259">
         <f>AJ10</f>
         <v>44977</v>
       </c>
-      <c r="AK9" s="263"/>
-      <c r="AL9" s="263"/>
-      <c r="AM9" s="263"/>
-      <c r="AN9" s="263"/>
-      <c r="AO9" s="263"/>
-      <c r="AP9" s="264"/>
-      <c r="AQ9" s="262">
+      <c r="AK9" s="260"/>
+      <c r="AL9" s="260"/>
+      <c r="AM9" s="260"/>
+      <c r="AN9" s="260"/>
+      <c r="AO9" s="260"/>
+      <c r="AP9" s="261"/>
+      <c r="AQ9" s="259">
         <f>AQ10</f>
         <v>44984</v>
       </c>
-      <c r="AR9" s="263"/>
-      <c r="AS9" s="263"/>
-      <c r="AT9" s="263"/>
-      <c r="AU9" s="263"/>
-      <c r="AV9" s="263"/>
-      <c r="AW9" s="264"/>
-      <c r="AX9" s="262">
+      <c r="AR9" s="260"/>
+      <c r="AS9" s="260"/>
+      <c r="AT9" s="260"/>
+      <c r="AU9" s="260"/>
+      <c r="AV9" s="260"/>
+      <c r="AW9" s="261"/>
+      <c r="AX9" s="259">
         <f>AX10</f>
         <v>44991</v>
       </c>
-      <c r="AY9" s="263"/>
-      <c r="AZ9" s="263"/>
-      <c r="BA9" s="263"/>
-      <c r="BB9" s="263"/>
-      <c r="BC9" s="263"/>
-      <c r="BD9" s="264"/>
-      <c r="BE9" s="262">
+      <c r="AY9" s="260"/>
+      <c r="AZ9" s="260"/>
+      <c r="BA9" s="260"/>
+      <c r="BB9" s="260"/>
+      <c r="BC9" s="260"/>
+      <c r="BD9" s="261"/>
+      <c r="BE9" s="259">
         <f>BE10</f>
         <v>44998</v>
       </c>
-      <c r="BF9" s="263"/>
-      <c r="BG9" s="263"/>
-      <c r="BH9" s="263"/>
-      <c r="BI9" s="263"/>
-      <c r="BJ9" s="263"/>
-      <c r="BK9" s="264"/>
-      <c r="BL9" s="262">
+      <c r="BF9" s="260"/>
+      <c r="BG9" s="260"/>
+      <c r="BH9" s="260"/>
+      <c r="BI9" s="260"/>
+      <c r="BJ9" s="260"/>
+      <c r="BK9" s="261"/>
+      <c r="BL9" s="259">
         <f>BL10</f>
         <v>45005</v>
       </c>
-      <c r="BM9" s="263"/>
-      <c r="BN9" s="263"/>
-      <c r="BO9" s="263"/>
-      <c r="BP9" s="263"/>
-      <c r="BQ9" s="263"/>
-      <c r="BR9" s="265"/>
+      <c r="BM9" s="260"/>
+      <c r="BN9" s="260"/>
+      <c r="BO9" s="260"/>
+      <c r="BP9" s="260"/>
+      <c r="BQ9" s="260"/>
+      <c r="BR9" s="262"/>
     </row>
     <row r="10" spans="1:70">
       <c r="O10" s="29">
@@ -18397,7 +18362,7 @@
       <c r="BQ15" s="56"/>
       <c r="BR15" s="188"/>
     </row>
-    <row r="16" spans="1:70" s="90" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:70" s="90" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="148" t="str">
         <f t="shared" si="45"/>
         <v>0.2</v>
@@ -18508,8 +18473,8 @@
       <c r="F17" s="56" t="s">
         <v>1219</v>
       </c>
-      <c r="G17" s="55" t="s">
-        <v>1264</v>
+      <c r="G17" s="47" t="s">
+        <v>1265</v>
       </c>
       <c r="H17" s="134"/>
       <c r="I17" s="58">
@@ -18688,9 +18653,7 @@
       <c r="F19" s="56" t="s">
         <v>1221</v>
       </c>
-      <c r="G19" s="47" t="s">
-        <v>1265</v>
-      </c>
+      <c r="G19" s="47"/>
       <c r="H19" s="57"/>
       <c r="I19" s="59">
         <v>44990</v>
@@ -22852,77 +22815,77 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="C67" s="249" t="s">
+      <c r="C67" s="268" t="s">
         <v>1214</v>
       </c>
-      <c r="D67" s="249"/>
-      <c r="E67" s="249"/>
-      <c r="F67" s="249"/>
-      <c r="G67" s="249"/>
-      <c r="H67" s="249"/>
-      <c r="I67" s="249"/>
-      <c r="J67" s="249"/>
-      <c r="K67" s="249"/>
-      <c r="L67" s="249"/>
-      <c r="M67" s="249"/>
-      <c r="N67" s="249"/>
-      <c r="O67" s="249"/>
-      <c r="P67" s="249"/>
-      <c r="Q67" s="249"/>
-      <c r="R67" s="249"/>
-      <c r="S67" s="249"/>
-      <c r="T67" s="249"/>
-      <c r="U67" s="249"/>
-      <c r="V67" s="249"/>
-      <c r="W67" s="249"/>
-      <c r="X67" s="249"/>
-      <c r="Y67" s="249"/>
-      <c r="Z67" s="249"/>
-      <c r="AA67" s="249"/>
-      <c r="AB67" s="249"/>
-      <c r="AC67" s="249"/>
-      <c r="AD67" s="249"/>
-      <c r="AE67" s="249"/>
-      <c r="AF67" s="249"/>
-      <c r="AG67" s="249"/>
-      <c r="AH67" s="249"/>
-      <c r="AI67" s="249"/>
-      <c r="AJ67" s="249"/>
-      <c r="AK67" s="249"/>
-      <c r="AL67" s="249"/>
-      <c r="AM67" s="249"/>
-      <c r="AN67" s="249"/>
-      <c r="AO67" s="249"/>
-      <c r="AP67" s="249"/>
-      <c r="AQ67" s="249"/>
-      <c r="AR67" s="249"/>
-      <c r="AS67" s="249"/>
-      <c r="AT67" s="249"/>
-      <c r="AU67" s="249"/>
-      <c r="AV67" s="249"/>
-      <c r="AW67" s="249"/>
-      <c r="AX67" s="249"/>
-      <c r="AY67" s="249"/>
-      <c r="AZ67" s="249"/>
-      <c r="BA67" s="249"/>
-      <c r="BB67" s="249"/>
-      <c r="BC67" s="249"/>
-      <c r="BD67" s="249"/>
-      <c r="BE67" s="249"/>
-      <c r="BF67" s="249"/>
-      <c r="BG67" s="249"/>
-      <c r="BH67" s="249"/>
-      <c r="BI67" s="249"/>
-      <c r="BJ67" s="249"/>
-      <c r="BK67" s="249"/>
-      <c r="BL67" s="249"/>
-      <c r="BM67" s="249"/>
-      <c r="BN67" s="249"/>
-      <c r="BO67" s="249"/>
-      <c r="BP67" s="249"/>
-      <c r="BQ67" s="249"/>
-      <c r="BR67" s="249"/>
-      <c r="BS67" s="250"/>
+      <c r="D67" s="268"/>
+      <c r="E67" s="268"/>
+      <c r="F67" s="268"/>
+      <c r="G67" s="268"/>
+      <c r="H67" s="268"/>
+      <c r="I67" s="268"/>
+      <c r="J67" s="268"/>
+      <c r="K67" s="268"/>
+      <c r="L67" s="268"/>
+      <c r="M67" s="268"/>
+      <c r="N67" s="268"/>
+      <c r="O67" s="268"/>
+      <c r="P67" s="268"/>
+      <c r="Q67" s="268"/>
+      <c r="R67" s="268"/>
+      <c r="S67" s="268"/>
+      <c r="T67" s="268"/>
+      <c r="U67" s="268"/>
+      <c r="V67" s="268"/>
+      <c r="W67" s="268"/>
+      <c r="X67" s="268"/>
+      <c r="Y67" s="268"/>
+      <c r="Z67" s="268"/>
+      <c r="AA67" s="268"/>
+      <c r="AB67" s="268"/>
+      <c r="AC67" s="268"/>
+      <c r="AD67" s="268"/>
+      <c r="AE67" s="268"/>
+      <c r="AF67" s="268"/>
+      <c r="AG67" s="268"/>
+      <c r="AH67" s="268"/>
+      <c r="AI67" s="268"/>
+      <c r="AJ67" s="268"/>
+      <c r="AK67" s="268"/>
+      <c r="AL67" s="268"/>
+      <c r="AM67" s="268"/>
+      <c r="AN67" s="268"/>
+      <c r="AO67" s="268"/>
+      <c r="AP67" s="268"/>
+      <c r="AQ67" s="268"/>
+      <c r="AR67" s="268"/>
+      <c r="AS67" s="268"/>
+      <c r="AT67" s="268"/>
+      <c r="AU67" s="268"/>
+      <c r="AV67" s="268"/>
+      <c r="AW67" s="268"/>
+      <c r="AX67" s="268"/>
+      <c r="AY67" s="268"/>
+      <c r="AZ67" s="268"/>
+      <c r="BA67" s="268"/>
+      <c r="BB67" s="268"/>
+      <c r="BC67" s="268"/>
+      <c r="BD67" s="268"/>
+      <c r="BE67" s="268"/>
+      <c r="BF67" s="268"/>
+      <c r="BG67" s="268"/>
+      <c r="BH67" s="268"/>
+      <c r="BI67" s="268"/>
+      <c r="BJ67" s="268"/>
+      <c r="BK67" s="268"/>
+      <c r="BL67" s="268"/>
+      <c r="BM67" s="268"/>
+      <c r="BN67" s="268"/>
+      <c r="BO67" s="268"/>
+      <c r="BP67" s="268"/>
+      <c r="BQ67" s="268"/>
+      <c r="BR67" s="268"/>
+      <c r="BS67" s="269"/>
     </row>
     <row r="68" spans="1:71" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="A68" s="40"/>
@@ -22930,77 +22893,77 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C68" s="251" t="s">
+      <c r="C68" s="264" t="s">
         <v>1213</v>
       </c>
-      <c r="D68" s="251"/>
-      <c r="E68" s="251"/>
-      <c r="F68" s="251"/>
-      <c r="G68" s="251"/>
-      <c r="H68" s="251"/>
-      <c r="I68" s="251"/>
-      <c r="J68" s="251"/>
-      <c r="K68" s="251"/>
-      <c r="L68" s="251"/>
-      <c r="M68" s="251"/>
-      <c r="N68" s="251"/>
-      <c r="O68" s="251"/>
-      <c r="P68" s="251"/>
-      <c r="Q68" s="251"/>
-      <c r="R68" s="251"/>
-      <c r="S68" s="251"/>
-      <c r="T68" s="251"/>
-      <c r="U68" s="251"/>
-      <c r="V68" s="251"/>
-      <c r="W68" s="251"/>
-      <c r="X68" s="251"/>
-      <c r="Y68" s="251"/>
-      <c r="Z68" s="251"/>
-      <c r="AA68" s="251"/>
-      <c r="AB68" s="251"/>
-      <c r="AC68" s="251"/>
-      <c r="AD68" s="251"/>
-      <c r="AE68" s="251"/>
-      <c r="AF68" s="251"/>
-      <c r="AG68" s="251"/>
-      <c r="AH68" s="251"/>
-      <c r="AI68" s="251"/>
-      <c r="AJ68" s="251"/>
-      <c r="AK68" s="251"/>
-      <c r="AL68" s="251"/>
-      <c r="AM68" s="251"/>
-      <c r="AN68" s="251"/>
-      <c r="AO68" s="251"/>
-      <c r="AP68" s="251"/>
-      <c r="AQ68" s="251"/>
-      <c r="AR68" s="251"/>
-      <c r="AS68" s="251"/>
-      <c r="AT68" s="251"/>
-      <c r="AU68" s="251"/>
-      <c r="AV68" s="251"/>
-      <c r="AW68" s="251"/>
-      <c r="AX68" s="251"/>
-      <c r="AY68" s="251"/>
-      <c r="AZ68" s="251"/>
-      <c r="BA68" s="251"/>
-      <c r="BB68" s="251"/>
-      <c r="BC68" s="251"/>
-      <c r="BD68" s="251"/>
-      <c r="BE68" s="251"/>
-      <c r="BF68" s="251"/>
-      <c r="BG68" s="251"/>
-      <c r="BH68" s="251"/>
-      <c r="BI68" s="251"/>
-      <c r="BJ68" s="251"/>
-      <c r="BK68" s="251"/>
-      <c r="BL68" s="251"/>
-      <c r="BM68" s="251"/>
-      <c r="BN68" s="251"/>
-      <c r="BO68" s="251"/>
-      <c r="BP68" s="251"/>
-      <c r="BQ68" s="251"/>
-      <c r="BR68" s="251"/>
-      <c r="BS68" s="252"/>
+      <c r="D68" s="264"/>
+      <c r="E68" s="264"/>
+      <c r="F68" s="264"/>
+      <c r="G68" s="264"/>
+      <c r="H68" s="264"/>
+      <c r="I68" s="264"/>
+      <c r="J68" s="264"/>
+      <c r="K68" s="264"/>
+      <c r="L68" s="264"/>
+      <c r="M68" s="264"/>
+      <c r="N68" s="264"/>
+      <c r="O68" s="264"/>
+      <c r="P68" s="264"/>
+      <c r="Q68" s="264"/>
+      <c r="R68" s="264"/>
+      <c r="S68" s="264"/>
+      <c r="T68" s="264"/>
+      <c r="U68" s="264"/>
+      <c r="V68" s="264"/>
+      <c r="W68" s="264"/>
+      <c r="X68" s="264"/>
+      <c r="Y68" s="264"/>
+      <c r="Z68" s="264"/>
+      <c r="AA68" s="264"/>
+      <c r="AB68" s="264"/>
+      <c r="AC68" s="264"/>
+      <c r="AD68" s="264"/>
+      <c r="AE68" s="264"/>
+      <c r="AF68" s="264"/>
+      <c r="AG68" s="264"/>
+      <c r="AH68" s="264"/>
+      <c r="AI68" s="264"/>
+      <c r="AJ68" s="264"/>
+      <c r="AK68" s="264"/>
+      <c r="AL68" s="264"/>
+      <c r="AM68" s="264"/>
+      <c r="AN68" s="264"/>
+      <c r="AO68" s="264"/>
+      <c r="AP68" s="264"/>
+      <c r="AQ68" s="264"/>
+      <c r="AR68" s="264"/>
+      <c r="AS68" s="264"/>
+      <c r="AT68" s="264"/>
+      <c r="AU68" s="264"/>
+      <c r="AV68" s="264"/>
+      <c r="AW68" s="264"/>
+      <c r="AX68" s="264"/>
+      <c r="AY68" s="264"/>
+      <c r="AZ68" s="264"/>
+      <c r="BA68" s="264"/>
+      <c r="BB68" s="264"/>
+      <c r="BC68" s="264"/>
+      <c r="BD68" s="264"/>
+      <c r="BE68" s="264"/>
+      <c r="BF68" s="264"/>
+      <c r="BG68" s="264"/>
+      <c r="BH68" s="264"/>
+      <c r="BI68" s="264"/>
+      <c r="BJ68" s="264"/>
+      <c r="BK68" s="264"/>
+      <c r="BL68" s="264"/>
+      <c r="BM68" s="264"/>
+      <c r="BN68" s="264"/>
+      <c r="BO68" s="264"/>
+      <c r="BP68" s="264"/>
+      <c r="BQ68" s="264"/>
+      <c r="BR68" s="264"/>
+      <c r="BS68" s="265"/>
     </row>
     <row r="69" spans="1:71" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="A69" s="40"/>
@@ -23008,77 +22971,77 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C69" s="253" t="s">
+      <c r="C69" s="266" t="s">
         <v>1212</v>
       </c>
-      <c r="D69" s="253"/>
-      <c r="E69" s="253"/>
-      <c r="F69" s="253"/>
-      <c r="G69" s="253"/>
-      <c r="H69" s="253"/>
-      <c r="I69" s="253"/>
-      <c r="J69" s="253"/>
-      <c r="K69" s="253"/>
-      <c r="L69" s="253"/>
-      <c r="M69" s="253"/>
-      <c r="N69" s="253"/>
-      <c r="O69" s="253"/>
-      <c r="P69" s="253"/>
-      <c r="Q69" s="253"/>
-      <c r="R69" s="253"/>
-      <c r="S69" s="253"/>
-      <c r="T69" s="253"/>
-      <c r="U69" s="253"/>
-      <c r="V69" s="253"/>
-      <c r="W69" s="253"/>
-      <c r="X69" s="253"/>
-      <c r="Y69" s="253"/>
-      <c r="Z69" s="253"/>
-      <c r="AA69" s="253"/>
-      <c r="AB69" s="253"/>
-      <c r="AC69" s="253"/>
-      <c r="AD69" s="253"/>
-      <c r="AE69" s="253"/>
-      <c r="AF69" s="253"/>
-      <c r="AG69" s="253"/>
-      <c r="AH69" s="253"/>
-      <c r="AI69" s="253"/>
-      <c r="AJ69" s="253"/>
-      <c r="AK69" s="253"/>
-      <c r="AL69" s="253"/>
-      <c r="AM69" s="253"/>
-      <c r="AN69" s="253"/>
-      <c r="AO69" s="253"/>
-      <c r="AP69" s="253"/>
-      <c r="AQ69" s="253"/>
-      <c r="AR69" s="253"/>
-      <c r="AS69" s="253"/>
-      <c r="AT69" s="253"/>
-      <c r="AU69" s="253"/>
-      <c r="AV69" s="253"/>
-      <c r="AW69" s="253"/>
-      <c r="AX69" s="253"/>
-      <c r="AY69" s="253"/>
-      <c r="AZ69" s="253"/>
-      <c r="BA69" s="253"/>
-      <c r="BB69" s="253"/>
-      <c r="BC69" s="253"/>
-      <c r="BD69" s="253"/>
-      <c r="BE69" s="253"/>
-      <c r="BF69" s="253"/>
-      <c r="BG69" s="253"/>
-      <c r="BH69" s="253"/>
-      <c r="BI69" s="253"/>
-      <c r="BJ69" s="253"/>
-      <c r="BK69" s="253"/>
-      <c r="BL69" s="253"/>
-      <c r="BM69" s="253"/>
-      <c r="BN69" s="253"/>
-      <c r="BO69" s="253"/>
-      <c r="BP69" s="253"/>
-      <c r="BQ69" s="253"/>
-      <c r="BR69" s="253"/>
-      <c r="BS69" s="254"/>
+      <c r="D69" s="266"/>
+      <c r="E69" s="266"/>
+      <c r="F69" s="266"/>
+      <c r="G69" s="266"/>
+      <c r="H69" s="266"/>
+      <c r="I69" s="266"/>
+      <c r="J69" s="266"/>
+      <c r="K69" s="266"/>
+      <c r="L69" s="266"/>
+      <c r="M69" s="266"/>
+      <c r="N69" s="266"/>
+      <c r="O69" s="266"/>
+      <c r="P69" s="266"/>
+      <c r="Q69" s="266"/>
+      <c r="R69" s="266"/>
+      <c r="S69" s="266"/>
+      <c r="T69" s="266"/>
+      <c r="U69" s="266"/>
+      <c r="V69" s="266"/>
+      <c r="W69" s="266"/>
+      <c r="X69" s="266"/>
+      <c r="Y69" s="266"/>
+      <c r="Z69" s="266"/>
+      <c r="AA69" s="266"/>
+      <c r="AB69" s="266"/>
+      <c r="AC69" s="266"/>
+      <c r="AD69" s="266"/>
+      <c r="AE69" s="266"/>
+      <c r="AF69" s="266"/>
+      <c r="AG69" s="266"/>
+      <c r="AH69" s="266"/>
+      <c r="AI69" s="266"/>
+      <c r="AJ69" s="266"/>
+      <c r="AK69" s="266"/>
+      <c r="AL69" s="266"/>
+      <c r="AM69" s="266"/>
+      <c r="AN69" s="266"/>
+      <c r="AO69" s="266"/>
+      <c r="AP69" s="266"/>
+      <c r="AQ69" s="266"/>
+      <c r="AR69" s="266"/>
+      <c r="AS69" s="266"/>
+      <c r="AT69" s="266"/>
+      <c r="AU69" s="266"/>
+      <c r="AV69" s="266"/>
+      <c r="AW69" s="266"/>
+      <c r="AX69" s="266"/>
+      <c r="AY69" s="266"/>
+      <c r="AZ69" s="266"/>
+      <c r="BA69" s="266"/>
+      <c r="BB69" s="266"/>
+      <c r="BC69" s="266"/>
+      <c r="BD69" s="266"/>
+      <c r="BE69" s="266"/>
+      <c r="BF69" s="266"/>
+      <c r="BG69" s="266"/>
+      <c r="BH69" s="266"/>
+      <c r="BI69" s="266"/>
+      <c r="BJ69" s="266"/>
+      <c r="BK69" s="266"/>
+      <c r="BL69" s="266"/>
+      <c r="BM69" s="266"/>
+      <c r="BN69" s="266"/>
+      <c r="BO69" s="266"/>
+      <c r="BP69" s="266"/>
+      <c r="BQ69" s="266"/>
+      <c r="BR69" s="266"/>
+      <c r="BS69" s="267"/>
     </row>
     <row r="70" spans="1:71" s="90" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A70" s="40"/>
@@ -23086,77 +23049,77 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C70" s="255" t="s">
+      <c r="C70" s="270" t="s">
         <v>1211</v>
       </c>
-      <c r="D70" s="255"/>
-      <c r="E70" s="255"/>
-      <c r="F70" s="255"/>
-      <c r="G70" s="255"/>
-      <c r="H70" s="255"/>
-      <c r="I70" s="255"/>
-      <c r="J70" s="255"/>
-      <c r="K70" s="255"/>
-      <c r="L70" s="255"/>
-      <c r="M70" s="255"/>
-      <c r="N70" s="255"/>
-      <c r="O70" s="255"/>
-      <c r="P70" s="255"/>
-      <c r="Q70" s="255"/>
-      <c r="R70" s="255"/>
-      <c r="S70" s="255"/>
-      <c r="T70" s="255"/>
-      <c r="U70" s="255"/>
-      <c r="V70" s="255"/>
-      <c r="W70" s="255"/>
-      <c r="X70" s="255"/>
-      <c r="Y70" s="255"/>
-      <c r="Z70" s="255"/>
-      <c r="AA70" s="255"/>
-      <c r="AB70" s="255"/>
-      <c r="AC70" s="255"/>
-      <c r="AD70" s="255"/>
-      <c r="AE70" s="255"/>
-      <c r="AF70" s="255"/>
-      <c r="AG70" s="255"/>
-      <c r="AH70" s="255"/>
-      <c r="AI70" s="255"/>
-      <c r="AJ70" s="255"/>
-      <c r="AK70" s="255"/>
-      <c r="AL70" s="255"/>
-      <c r="AM70" s="255"/>
-      <c r="AN70" s="255"/>
-      <c r="AO70" s="255"/>
-      <c r="AP70" s="255"/>
-      <c r="AQ70" s="255"/>
-      <c r="AR70" s="255"/>
-      <c r="AS70" s="255"/>
-      <c r="AT70" s="255"/>
-      <c r="AU70" s="255"/>
-      <c r="AV70" s="255"/>
-      <c r="AW70" s="255"/>
-      <c r="AX70" s="255"/>
-      <c r="AY70" s="255"/>
-      <c r="AZ70" s="255"/>
-      <c r="BA70" s="255"/>
-      <c r="BB70" s="255"/>
-      <c r="BC70" s="255"/>
-      <c r="BD70" s="255"/>
-      <c r="BE70" s="255"/>
-      <c r="BF70" s="255"/>
-      <c r="BG70" s="255"/>
-      <c r="BH70" s="255"/>
-      <c r="BI70" s="255"/>
-      <c r="BJ70" s="255"/>
-      <c r="BK70" s="255"/>
-      <c r="BL70" s="255"/>
-      <c r="BM70" s="255"/>
-      <c r="BN70" s="255"/>
-      <c r="BO70" s="255"/>
-      <c r="BP70" s="255"/>
-      <c r="BQ70" s="255"/>
-      <c r="BR70" s="255"/>
-      <c r="BS70" s="256"/>
+      <c r="D70" s="270"/>
+      <c r="E70" s="270"/>
+      <c r="F70" s="270"/>
+      <c r="G70" s="270"/>
+      <c r="H70" s="270"/>
+      <c r="I70" s="270"/>
+      <c r="J70" s="270"/>
+      <c r="K70" s="270"/>
+      <c r="L70" s="270"/>
+      <c r="M70" s="270"/>
+      <c r="N70" s="270"/>
+      <c r="O70" s="270"/>
+      <c r="P70" s="270"/>
+      <c r="Q70" s="270"/>
+      <c r="R70" s="270"/>
+      <c r="S70" s="270"/>
+      <c r="T70" s="270"/>
+      <c r="U70" s="270"/>
+      <c r="V70" s="270"/>
+      <c r="W70" s="270"/>
+      <c r="X70" s="270"/>
+      <c r="Y70" s="270"/>
+      <c r="Z70" s="270"/>
+      <c r="AA70" s="270"/>
+      <c r="AB70" s="270"/>
+      <c r="AC70" s="270"/>
+      <c r="AD70" s="270"/>
+      <c r="AE70" s="270"/>
+      <c r="AF70" s="270"/>
+      <c r="AG70" s="270"/>
+      <c r="AH70" s="270"/>
+      <c r="AI70" s="270"/>
+      <c r="AJ70" s="270"/>
+      <c r="AK70" s="270"/>
+      <c r="AL70" s="270"/>
+      <c r="AM70" s="270"/>
+      <c r="AN70" s="270"/>
+      <c r="AO70" s="270"/>
+      <c r="AP70" s="270"/>
+      <c r="AQ70" s="270"/>
+      <c r="AR70" s="270"/>
+      <c r="AS70" s="270"/>
+      <c r="AT70" s="270"/>
+      <c r="AU70" s="270"/>
+      <c r="AV70" s="270"/>
+      <c r="AW70" s="270"/>
+      <c r="AX70" s="270"/>
+      <c r="AY70" s="270"/>
+      <c r="AZ70" s="270"/>
+      <c r="BA70" s="270"/>
+      <c r="BB70" s="270"/>
+      <c r="BC70" s="270"/>
+      <c r="BD70" s="270"/>
+      <c r="BE70" s="270"/>
+      <c r="BF70" s="270"/>
+      <c r="BG70" s="270"/>
+      <c r="BH70" s="270"/>
+      <c r="BI70" s="270"/>
+      <c r="BJ70" s="270"/>
+      <c r="BK70" s="270"/>
+      <c r="BL70" s="270"/>
+      <c r="BM70" s="270"/>
+      <c r="BN70" s="270"/>
+      <c r="BO70" s="270"/>
+      <c r="BP70" s="270"/>
+      <c r="BQ70" s="270"/>
+      <c r="BR70" s="270"/>
+      <c r="BS70" s="271"/>
     </row>
     <row r="71" spans="1:71" s="90" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A71" s="40"/>
@@ -23164,77 +23127,77 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="C71" s="249" t="s">
+      <c r="C71" s="268" t="s">
         <v>1210</v>
       </c>
-      <c r="D71" s="249"/>
-      <c r="E71" s="249"/>
-      <c r="F71" s="249"/>
-      <c r="G71" s="249"/>
-      <c r="H71" s="249"/>
-      <c r="I71" s="249"/>
-      <c r="J71" s="249"/>
-      <c r="K71" s="249"/>
-      <c r="L71" s="249"/>
-      <c r="M71" s="249"/>
-      <c r="N71" s="249"/>
-      <c r="O71" s="249"/>
-      <c r="P71" s="249"/>
-      <c r="Q71" s="249"/>
-      <c r="R71" s="249"/>
-      <c r="S71" s="249"/>
-      <c r="T71" s="249"/>
-      <c r="U71" s="249"/>
-      <c r="V71" s="249"/>
-      <c r="W71" s="249"/>
-      <c r="X71" s="249"/>
-      <c r="Y71" s="249"/>
-      <c r="Z71" s="249"/>
-      <c r="AA71" s="249"/>
-      <c r="AB71" s="249"/>
-      <c r="AC71" s="249"/>
-      <c r="AD71" s="249"/>
-      <c r="AE71" s="249"/>
-      <c r="AF71" s="249"/>
-      <c r="AG71" s="249"/>
-      <c r="AH71" s="249"/>
-      <c r="AI71" s="249"/>
-      <c r="AJ71" s="249"/>
-      <c r="AK71" s="249"/>
-      <c r="AL71" s="249"/>
-      <c r="AM71" s="249"/>
-      <c r="AN71" s="249"/>
-      <c r="AO71" s="249"/>
-      <c r="AP71" s="249"/>
-      <c r="AQ71" s="249"/>
-      <c r="AR71" s="249"/>
-      <c r="AS71" s="249"/>
-      <c r="AT71" s="249"/>
-      <c r="AU71" s="249"/>
-      <c r="AV71" s="249"/>
-      <c r="AW71" s="249"/>
-      <c r="AX71" s="249"/>
-      <c r="AY71" s="249"/>
-      <c r="AZ71" s="249"/>
-      <c r="BA71" s="249"/>
-      <c r="BB71" s="249"/>
-      <c r="BC71" s="249"/>
-      <c r="BD71" s="249"/>
-      <c r="BE71" s="249"/>
-      <c r="BF71" s="249"/>
-      <c r="BG71" s="249"/>
-      <c r="BH71" s="249"/>
-      <c r="BI71" s="249"/>
-      <c r="BJ71" s="249"/>
-      <c r="BK71" s="249"/>
-      <c r="BL71" s="249"/>
-      <c r="BM71" s="249"/>
-      <c r="BN71" s="249"/>
-      <c r="BO71" s="249"/>
-      <c r="BP71" s="249"/>
-      <c r="BQ71" s="249"/>
-      <c r="BR71" s="249"/>
-      <c r="BS71" s="250"/>
+      <c r="D71" s="268"/>
+      <c r="E71" s="268"/>
+      <c r="F71" s="268"/>
+      <c r="G71" s="268"/>
+      <c r="H71" s="268"/>
+      <c r="I71" s="268"/>
+      <c r="J71" s="268"/>
+      <c r="K71" s="268"/>
+      <c r="L71" s="268"/>
+      <c r="M71" s="268"/>
+      <c r="N71" s="268"/>
+      <c r="O71" s="268"/>
+      <c r="P71" s="268"/>
+      <c r="Q71" s="268"/>
+      <c r="R71" s="268"/>
+      <c r="S71" s="268"/>
+      <c r="T71" s="268"/>
+      <c r="U71" s="268"/>
+      <c r="V71" s="268"/>
+      <c r="W71" s="268"/>
+      <c r="X71" s="268"/>
+      <c r="Y71" s="268"/>
+      <c r="Z71" s="268"/>
+      <c r="AA71" s="268"/>
+      <c r="AB71" s="268"/>
+      <c r="AC71" s="268"/>
+      <c r="AD71" s="268"/>
+      <c r="AE71" s="268"/>
+      <c r="AF71" s="268"/>
+      <c r="AG71" s="268"/>
+      <c r="AH71" s="268"/>
+      <c r="AI71" s="268"/>
+      <c r="AJ71" s="268"/>
+      <c r="AK71" s="268"/>
+      <c r="AL71" s="268"/>
+      <c r="AM71" s="268"/>
+      <c r="AN71" s="268"/>
+      <c r="AO71" s="268"/>
+      <c r="AP71" s="268"/>
+      <c r="AQ71" s="268"/>
+      <c r="AR71" s="268"/>
+      <c r="AS71" s="268"/>
+      <c r="AT71" s="268"/>
+      <c r="AU71" s="268"/>
+      <c r="AV71" s="268"/>
+      <c r="AW71" s="268"/>
+      <c r="AX71" s="268"/>
+      <c r="AY71" s="268"/>
+      <c r="AZ71" s="268"/>
+      <c r="BA71" s="268"/>
+      <c r="BB71" s="268"/>
+      <c r="BC71" s="268"/>
+      <c r="BD71" s="268"/>
+      <c r="BE71" s="268"/>
+      <c r="BF71" s="268"/>
+      <c r="BG71" s="268"/>
+      <c r="BH71" s="268"/>
+      <c r="BI71" s="268"/>
+      <c r="BJ71" s="268"/>
+      <c r="BK71" s="268"/>
+      <c r="BL71" s="268"/>
+      <c r="BM71" s="268"/>
+      <c r="BN71" s="268"/>
+      <c r="BO71" s="268"/>
+      <c r="BP71" s="268"/>
+      <c r="BQ71" s="268"/>
+      <c r="BR71" s="268"/>
+      <c r="BS71" s="269"/>
     </row>
     <row r="72" spans="1:71" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="A72" s="40"/>
@@ -23242,77 +23205,77 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C72" s="251" t="s">
+      <c r="C72" s="264" t="s">
         <v>1209</v>
       </c>
-      <c r="D72" s="251"/>
-      <c r="E72" s="251"/>
-      <c r="F72" s="251"/>
-      <c r="G72" s="251"/>
-      <c r="H72" s="251"/>
-      <c r="I72" s="251"/>
-      <c r="J72" s="251"/>
-      <c r="K72" s="251"/>
-      <c r="L72" s="251"/>
-      <c r="M72" s="251"/>
-      <c r="N72" s="251"/>
-      <c r="O72" s="251"/>
-      <c r="P72" s="251"/>
-      <c r="Q72" s="251"/>
-      <c r="R72" s="251"/>
-      <c r="S72" s="251"/>
-      <c r="T72" s="251"/>
-      <c r="U72" s="251"/>
-      <c r="V72" s="251"/>
-      <c r="W72" s="251"/>
-      <c r="X72" s="251"/>
-      <c r="Y72" s="251"/>
-      <c r="Z72" s="251"/>
-      <c r="AA72" s="251"/>
-      <c r="AB72" s="251"/>
-      <c r="AC72" s="251"/>
-      <c r="AD72" s="251"/>
-      <c r="AE72" s="251"/>
-      <c r="AF72" s="251"/>
-      <c r="AG72" s="251"/>
-      <c r="AH72" s="251"/>
-      <c r="AI72" s="251"/>
-      <c r="AJ72" s="251"/>
-      <c r="AK72" s="251"/>
-      <c r="AL72" s="251"/>
-      <c r="AM72" s="251"/>
-      <c r="AN72" s="251"/>
-      <c r="AO72" s="251"/>
-      <c r="AP72" s="251"/>
-      <c r="AQ72" s="251"/>
-      <c r="AR72" s="251"/>
-      <c r="AS72" s="251"/>
-      <c r="AT72" s="251"/>
-      <c r="AU72" s="251"/>
-      <c r="AV72" s="251"/>
-      <c r="AW72" s="251"/>
-      <c r="AX72" s="251"/>
-      <c r="AY72" s="251"/>
-      <c r="AZ72" s="251"/>
-      <c r="BA72" s="251"/>
-      <c r="BB72" s="251"/>
-      <c r="BC72" s="251"/>
-      <c r="BD72" s="251"/>
-      <c r="BE72" s="251"/>
-      <c r="BF72" s="251"/>
-      <c r="BG72" s="251"/>
-      <c r="BH72" s="251"/>
-      <c r="BI72" s="251"/>
-      <c r="BJ72" s="251"/>
-      <c r="BK72" s="251"/>
-      <c r="BL72" s="251"/>
-      <c r="BM72" s="251"/>
-      <c r="BN72" s="251"/>
-      <c r="BO72" s="251"/>
-      <c r="BP72" s="251"/>
-      <c r="BQ72" s="251"/>
-      <c r="BR72" s="251"/>
-      <c r="BS72" s="252"/>
+      <c r="D72" s="264"/>
+      <c r="E72" s="264"/>
+      <c r="F72" s="264"/>
+      <c r="G72" s="264"/>
+      <c r="H72" s="264"/>
+      <c r="I72" s="264"/>
+      <c r="J72" s="264"/>
+      <c r="K72" s="264"/>
+      <c r="L72" s="264"/>
+      <c r="M72" s="264"/>
+      <c r="N72" s="264"/>
+      <c r="O72" s="264"/>
+      <c r="P72" s="264"/>
+      <c r="Q72" s="264"/>
+      <c r="R72" s="264"/>
+      <c r="S72" s="264"/>
+      <c r="T72" s="264"/>
+      <c r="U72" s="264"/>
+      <c r="V72" s="264"/>
+      <c r="W72" s="264"/>
+      <c r="X72" s="264"/>
+      <c r="Y72" s="264"/>
+      <c r="Z72" s="264"/>
+      <c r="AA72" s="264"/>
+      <c r="AB72" s="264"/>
+      <c r="AC72" s="264"/>
+      <c r="AD72" s="264"/>
+      <c r="AE72" s="264"/>
+      <c r="AF72" s="264"/>
+      <c r="AG72" s="264"/>
+      <c r="AH72" s="264"/>
+      <c r="AI72" s="264"/>
+      <c r="AJ72" s="264"/>
+      <c r="AK72" s="264"/>
+      <c r="AL72" s="264"/>
+      <c r="AM72" s="264"/>
+      <c r="AN72" s="264"/>
+      <c r="AO72" s="264"/>
+      <c r="AP72" s="264"/>
+      <c r="AQ72" s="264"/>
+      <c r="AR72" s="264"/>
+      <c r="AS72" s="264"/>
+      <c r="AT72" s="264"/>
+      <c r="AU72" s="264"/>
+      <c r="AV72" s="264"/>
+      <c r="AW72" s="264"/>
+      <c r="AX72" s="264"/>
+      <c r="AY72" s="264"/>
+      <c r="AZ72" s="264"/>
+      <c r="BA72" s="264"/>
+      <c r="BB72" s="264"/>
+      <c r="BC72" s="264"/>
+      <c r="BD72" s="264"/>
+      <c r="BE72" s="264"/>
+      <c r="BF72" s="264"/>
+      <c r="BG72" s="264"/>
+      <c r="BH72" s="264"/>
+      <c r="BI72" s="264"/>
+      <c r="BJ72" s="264"/>
+      <c r="BK72" s="264"/>
+      <c r="BL72" s="264"/>
+      <c r="BM72" s="264"/>
+      <c r="BN72" s="264"/>
+      <c r="BO72" s="264"/>
+      <c r="BP72" s="264"/>
+      <c r="BQ72" s="264"/>
+      <c r="BR72" s="264"/>
+      <c r="BS72" s="265"/>
     </row>
     <row r="73" spans="1:71" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="A73" s="40"/>
@@ -23320,77 +23283,77 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C73" s="253" t="s">
+      <c r="C73" s="266" t="s">
         <v>1208</v>
       </c>
-      <c r="D73" s="253"/>
-      <c r="E73" s="253"/>
-      <c r="F73" s="253"/>
-      <c r="G73" s="253"/>
-      <c r="H73" s="253"/>
-      <c r="I73" s="253"/>
-      <c r="J73" s="253"/>
-      <c r="K73" s="253"/>
-      <c r="L73" s="253"/>
-      <c r="M73" s="253"/>
-      <c r="N73" s="253"/>
-      <c r="O73" s="253"/>
-      <c r="P73" s="253"/>
-      <c r="Q73" s="253"/>
-      <c r="R73" s="253"/>
-      <c r="S73" s="253"/>
-      <c r="T73" s="253"/>
-      <c r="U73" s="253"/>
-      <c r="V73" s="253"/>
-      <c r="W73" s="253"/>
-      <c r="X73" s="253"/>
-      <c r="Y73" s="253"/>
-      <c r="Z73" s="253"/>
-      <c r="AA73" s="253"/>
-      <c r="AB73" s="253"/>
-      <c r="AC73" s="253"/>
-      <c r="AD73" s="253"/>
-      <c r="AE73" s="253"/>
-      <c r="AF73" s="253"/>
-      <c r="AG73" s="253"/>
-      <c r="AH73" s="253"/>
-      <c r="AI73" s="253"/>
-      <c r="AJ73" s="253"/>
-      <c r="AK73" s="253"/>
-      <c r="AL73" s="253"/>
-      <c r="AM73" s="253"/>
-      <c r="AN73" s="253"/>
-      <c r="AO73" s="253"/>
-      <c r="AP73" s="253"/>
-      <c r="AQ73" s="253"/>
-      <c r="AR73" s="253"/>
-      <c r="AS73" s="253"/>
-      <c r="AT73" s="253"/>
-      <c r="AU73" s="253"/>
-      <c r="AV73" s="253"/>
-      <c r="AW73" s="253"/>
-      <c r="AX73" s="253"/>
-      <c r="AY73" s="253"/>
-      <c r="AZ73" s="253"/>
-      <c r="BA73" s="253"/>
-      <c r="BB73" s="253"/>
-      <c r="BC73" s="253"/>
-      <c r="BD73" s="253"/>
-      <c r="BE73" s="253"/>
-      <c r="BF73" s="253"/>
-      <c r="BG73" s="253"/>
-      <c r="BH73" s="253"/>
-      <c r="BI73" s="253"/>
-      <c r="BJ73" s="253"/>
-      <c r="BK73" s="253"/>
-      <c r="BL73" s="253"/>
-      <c r="BM73" s="253"/>
-      <c r="BN73" s="253"/>
-      <c r="BO73" s="253"/>
-      <c r="BP73" s="253"/>
-      <c r="BQ73" s="253"/>
-      <c r="BR73" s="253"/>
-      <c r="BS73" s="254"/>
+      <c r="D73" s="266"/>
+      <c r="E73" s="266"/>
+      <c r="F73" s="266"/>
+      <c r="G73" s="266"/>
+      <c r="H73" s="266"/>
+      <c r="I73" s="266"/>
+      <c r="J73" s="266"/>
+      <c r="K73" s="266"/>
+      <c r="L73" s="266"/>
+      <c r="M73" s="266"/>
+      <c r="N73" s="266"/>
+      <c r="O73" s="266"/>
+      <c r="P73" s="266"/>
+      <c r="Q73" s="266"/>
+      <c r="R73" s="266"/>
+      <c r="S73" s="266"/>
+      <c r="T73" s="266"/>
+      <c r="U73" s="266"/>
+      <c r="V73" s="266"/>
+      <c r="W73" s="266"/>
+      <c r="X73" s="266"/>
+      <c r="Y73" s="266"/>
+      <c r="Z73" s="266"/>
+      <c r="AA73" s="266"/>
+      <c r="AB73" s="266"/>
+      <c r="AC73" s="266"/>
+      <c r="AD73" s="266"/>
+      <c r="AE73" s="266"/>
+      <c r="AF73" s="266"/>
+      <c r="AG73" s="266"/>
+      <c r="AH73" s="266"/>
+      <c r="AI73" s="266"/>
+      <c r="AJ73" s="266"/>
+      <c r="AK73" s="266"/>
+      <c r="AL73" s="266"/>
+      <c r="AM73" s="266"/>
+      <c r="AN73" s="266"/>
+      <c r="AO73" s="266"/>
+      <c r="AP73" s="266"/>
+      <c r="AQ73" s="266"/>
+      <c r="AR73" s="266"/>
+      <c r="AS73" s="266"/>
+      <c r="AT73" s="266"/>
+      <c r="AU73" s="266"/>
+      <c r="AV73" s="266"/>
+      <c r="AW73" s="266"/>
+      <c r="AX73" s="266"/>
+      <c r="AY73" s="266"/>
+      <c r="AZ73" s="266"/>
+      <c r="BA73" s="266"/>
+      <c r="BB73" s="266"/>
+      <c r="BC73" s="266"/>
+      <c r="BD73" s="266"/>
+      <c r="BE73" s="266"/>
+      <c r="BF73" s="266"/>
+      <c r="BG73" s="266"/>
+      <c r="BH73" s="266"/>
+      <c r="BI73" s="266"/>
+      <c r="BJ73" s="266"/>
+      <c r="BK73" s="266"/>
+      <c r="BL73" s="266"/>
+      <c r="BM73" s="266"/>
+      <c r="BN73" s="266"/>
+      <c r="BO73" s="266"/>
+      <c r="BP73" s="266"/>
+      <c r="BQ73" s="266"/>
+      <c r="BR73" s="266"/>
+      <c r="BS73" s="267"/>
     </row>
     <row r="74" spans="1:71" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="A74" s="40"/>
@@ -23398,2783 +23361,2820 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C74" s="253" t="s">
+      <c r="C74" s="266" t="s">
         <v>1207</v>
       </c>
-      <c r="D74" s="253"/>
-      <c r="E74" s="253"/>
-      <c r="F74" s="253"/>
-      <c r="G74" s="253"/>
-      <c r="H74" s="253"/>
-      <c r="I74" s="253"/>
-      <c r="J74" s="253"/>
-      <c r="K74" s="253"/>
-      <c r="L74" s="253"/>
-      <c r="M74" s="253"/>
-      <c r="N74" s="253"/>
-      <c r="O74" s="253"/>
-      <c r="P74" s="253"/>
-      <c r="Q74" s="253"/>
-      <c r="R74" s="253"/>
-      <c r="S74" s="253"/>
-      <c r="T74" s="253"/>
-      <c r="U74" s="253"/>
-      <c r="V74" s="253"/>
-      <c r="W74" s="253"/>
-      <c r="X74" s="253"/>
-      <c r="Y74" s="253"/>
-      <c r="Z74" s="253"/>
-      <c r="AA74" s="253"/>
-      <c r="AB74" s="253"/>
-      <c r="AC74" s="253"/>
-      <c r="AD74" s="253"/>
-      <c r="AE74" s="253"/>
-      <c r="AF74" s="253"/>
-      <c r="AG74" s="253"/>
-      <c r="AH74" s="253"/>
-      <c r="AI74" s="253"/>
-      <c r="AJ74" s="253"/>
-      <c r="AK74" s="253"/>
-      <c r="AL74" s="253"/>
-      <c r="AM74" s="253"/>
-      <c r="AN74" s="253"/>
-      <c r="AO74" s="253"/>
-      <c r="AP74" s="253"/>
-      <c r="AQ74" s="253"/>
-      <c r="AR74" s="253"/>
-      <c r="AS74" s="253"/>
-      <c r="AT74" s="253"/>
-      <c r="AU74" s="253"/>
-      <c r="AV74" s="253"/>
-      <c r="AW74" s="253"/>
-      <c r="AX74" s="253"/>
-      <c r="AY74" s="253"/>
-      <c r="AZ74" s="253"/>
-      <c r="BA74" s="253"/>
-      <c r="BB74" s="253"/>
-      <c r="BC74" s="253"/>
-      <c r="BD74" s="253"/>
-      <c r="BE74" s="253"/>
-      <c r="BF74" s="253"/>
-      <c r="BG74" s="253"/>
-      <c r="BH74" s="253"/>
-      <c r="BI74" s="253"/>
-      <c r="BJ74" s="253"/>
-      <c r="BK74" s="253"/>
-      <c r="BL74" s="253"/>
-      <c r="BM74" s="253"/>
-      <c r="BN74" s="253"/>
-      <c r="BO74" s="253"/>
-      <c r="BP74" s="253"/>
-      <c r="BQ74" s="253"/>
-      <c r="BR74" s="253"/>
-      <c r="BS74" s="254"/>
+      <c r="D74" s="266"/>
+      <c r="E74" s="266"/>
+      <c r="F74" s="266"/>
+      <c r="G74" s="266"/>
+      <c r="H74" s="266"/>
+      <c r="I74" s="266"/>
+      <c r="J74" s="266"/>
+      <c r="K74" s="266"/>
+      <c r="L74" s="266"/>
+      <c r="M74" s="266"/>
+      <c r="N74" s="266"/>
+      <c r="O74" s="266"/>
+      <c r="P74" s="266"/>
+      <c r="Q74" s="266"/>
+      <c r="R74" s="266"/>
+      <c r="S74" s="266"/>
+      <c r="T74" s="266"/>
+      <c r="U74" s="266"/>
+      <c r="V74" s="266"/>
+      <c r="W74" s="266"/>
+      <c r="X74" s="266"/>
+      <c r="Y74" s="266"/>
+      <c r="Z74" s="266"/>
+      <c r="AA74" s="266"/>
+      <c r="AB74" s="266"/>
+      <c r="AC74" s="266"/>
+      <c r="AD74" s="266"/>
+      <c r="AE74" s="266"/>
+      <c r="AF74" s="266"/>
+      <c r="AG74" s="266"/>
+      <c r="AH74" s="266"/>
+      <c r="AI74" s="266"/>
+      <c r="AJ74" s="266"/>
+      <c r="AK74" s="266"/>
+      <c r="AL74" s="266"/>
+      <c r="AM74" s="266"/>
+      <c r="AN74" s="266"/>
+      <c r="AO74" s="266"/>
+      <c r="AP74" s="266"/>
+      <c r="AQ74" s="266"/>
+      <c r="AR74" s="266"/>
+      <c r="AS74" s="266"/>
+      <c r="AT74" s="266"/>
+      <c r="AU74" s="266"/>
+      <c r="AV74" s="266"/>
+      <c r="AW74" s="266"/>
+      <c r="AX74" s="266"/>
+      <c r="AY74" s="266"/>
+      <c r="AZ74" s="266"/>
+      <c r="BA74" s="266"/>
+      <c r="BB74" s="266"/>
+      <c r="BC74" s="266"/>
+      <c r="BD74" s="266"/>
+      <c r="BE74" s="266"/>
+      <c r="BF74" s="266"/>
+      <c r="BG74" s="266"/>
+      <c r="BH74" s="266"/>
+      <c r="BI74" s="266"/>
+      <c r="BJ74" s="266"/>
+      <c r="BK74" s="266"/>
+      <c r="BL74" s="266"/>
+      <c r="BM74" s="266"/>
+      <c r="BN74" s="266"/>
+      <c r="BO74" s="266"/>
+      <c r="BP74" s="266"/>
+      <c r="BQ74" s="266"/>
+      <c r="BR74" s="266"/>
+      <c r="BS74" s="267"/>
     </row>
     <row r="75" spans="1:71" ht="5.0999999999999996" customHeight="1">
       <c r="B75" s="205" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C75" s="253" t="s">
+      <c r="C75" s="266" t="s">
         <v>1206</v>
       </c>
-      <c r="D75" s="253"/>
-      <c r="E75" s="253"/>
-      <c r="F75" s="253"/>
-      <c r="G75" s="253"/>
-      <c r="H75" s="253"/>
-      <c r="I75" s="253"/>
-      <c r="J75" s="253"/>
-      <c r="K75" s="253"/>
-      <c r="L75" s="253"/>
-      <c r="M75" s="253"/>
-      <c r="N75" s="253"/>
-      <c r="O75" s="253"/>
-      <c r="P75" s="253"/>
-      <c r="Q75" s="253"/>
-      <c r="R75" s="253"/>
-      <c r="S75" s="253"/>
-      <c r="T75" s="253"/>
-      <c r="U75" s="253"/>
-      <c r="V75" s="253"/>
-      <c r="W75" s="253"/>
-      <c r="X75" s="253"/>
-      <c r="Y75" s="253"/>
-      <c r="Z75" s="253"/>
-      <c r="AA75" s="253"/>
-      <c r="AB75" s="253"/>
-      <c r="AC75" s="253"/>
-      <c r="AD75" s="253"/>
-      <c r="AE75" s="253"/>
-      <c r="AF75" s="253"/>
-      <c r="AG75" s="253"/>
-      <c r="AH75" s="253"/>
-      <c r="AI75" s="253"/>
-      <c r="AJ75" s="253"/>
-      <c r="AK75" s="253"/>
-      <c r="AL75" s="253"/>
-      <c r="AM75" s="253"/>
-      <c r="AN75" s="253"/>
-      <c r="AO75" s="253"/>
-      <c r="AP75" s="253"/>
-      <c r="AQ75" s="253"/>
-      <c r="AR75" s="253"/>
-      <c r="AS75" s="253"/>
-      <c r="AT75" s="253"/>
-      <c r="AU75" s="253"/>
-      <c r="AV75" s="253"/>
-      <c r="AW75" s="253"/>
-      <c r="AX75" s="253"/>
-      <c r="AY75" s="253"/>
-      <c r="AZ75" s="253"/>
-      <c r="BA75" s="253"/>
-      <c r="BB75" s="253"/>
-      <c r="BC75" s="253"/>
-      <c r="BD75" s="253"/>
-      <c r="BE75" s="253"/>
-      <c r="BF75" s="253"/>
-      <c r="BG75" s="253"/>
-      <c r="BH75" s="253"/>
-      <c r="BI75" s="253"/>
-      <c r="BJ75" s="253"/>
-      <c r="BK75" s="253"/>
-      <c r="BL75" s="253"/>
-      <c r="BM75" s="253"/>
-      <c r="BN75" s="253"/>
-      <c r="BO75" s="253"/>
-      <c r="BP75" s="253"/>
-      <c r="BQ75" s="253"/>
-      <c r="BR75" s="253"/>
-      <c r="BS75" s="254"/>
+      <c r="D75" s="266"/>
+      <c r="E75" s="266"/>
+      <c r="F75" s="266"/>
+      <c r="G75" s="266"/>
+      <c r="H75" s="266"/>
+      <c r="I75" s="266"/>
+      <c r="J75" s="266"/>
+      <c r="K75" s="266"/>
+      <c r="L75" s="266"/>
+      <c r="M75" s="266"/>
+      <c r="N75" s="266"/>
+      <c r="O75" s="266"/>
+      <c r="P75" s="266"/>
+      <c r="Q75" s="266"/>
+      <c r="R75" s="266"/>
+      <c r="S75" s="266"/>
+      <c r="T75" s="266"/>
+      <c r="U75" s="266"/>
+      <c r="V75" s="266"/>
+      <c r="W75" s="266"/>
+      <c r="X75" s="266"/>
+      <c r="Y75" s="266"/>
+      <c r="Z75" s="266"/>
+      <c r="AA75" s="266"/>
+      <c r="AB75" s="266"/>
+      <c r="AC75" s="266"/>
+      <c r="AD75" s="266"/>
+      <c r="AE75" s="266"/>
+      <c r="AF75" s="266"/>
+      <c r="AG75" s="266"/>
+      <c r="AH75" s="266"/>
+      <c r="AI75" s="266"/>
+      <c r="AJ75" s="266"/>
+      <c r="AK75" s="266"/>
+      <c r="AL75" s="266"/>
+      <c r="AM75" s="266"/>
+      <c r="AN75" s="266"/>
+      <c r="AO75" s="266"/>
+      <c r="AP75" s="266"/>
+      <c r="AQ75" s="266"/>
+      <c r="AR75" s="266"/>
+      <c r="AS75" s="266"/>
+      <c r="AT75" s="266"/>
+      <c r="AU75" s="266"/>
+      <c r="AV75" s="266"/>
+      <c r="AW75" s="266"/>
+      <c r="AX75" s="266"/>
+      <c r="AY75" s="266"/>
+      <c r="AZ75" s="266"/>
+      <c r="BA75" s="266"/>
+      <c r="BB75" s="266"/>
+      <c r="BC75" s="266"/>
+      <c r="BD75" s="266"/>
+      <c r="BE75" s="266"/>
+      <c r="BF75" s="266"/>
+      <c r="BG75" s="266"/>
+      <c r="BH75" s="266"/>
+      <c r="BI75" s="266"/>
+      <c r="BJ75" s="266"/>
+      <c r="BK75" s="266"/>
+      <c r="BL75" s="266"/>
+      <c r="BM75" s="266"/>
+      <c r="BN75" s="266"/>
+      <c r="BO75" s="266"/>
+      <c r="BP75" s="266"/>
+      <c r="BQ75" s="266"/>
+      <c r="BR75" s="266"/>
+      <c r="BS75" s="267"/>
     </row>
     <row r="76" spans="1:71" ht="17.25" thickBot="1">
       <c r="B76" s="204" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C76" s="255" t="s">
+      <c r="C76" s="270" t="s">
         <v>1205</v>
       </c>
-      <c r="D76" s="255"/>
-      <c r="E76" s="255"/>
-      <c r="F76" s="255"/>
-      <c r="G76" s="255"/>
-      <c r="H76" s="255"/>
-      <c r="I76" s="255"/>
-      <c r="J76" s="255"/>
-      <c r="K76" s="255"/>
-      <c r="L76" s="255"/>
-      <c r="M76" s="255"/>
-      <c r="N76" s="255"/>
-      <c r="O76" s="255"/>
-      <c r="P76" s="255"/>
-      <c r="Q76" s="255"/>
-      <c r="R76" s="255"/>
-      <c r="S76" s="255"/>
-      <c r="T76" s="255"/>
-      <c r="U76" s="255"/>
-      <c r="V76" s="255"/>
-      <c r="W76" s="255"/>
-      <c r="X76" s="255"/>
-      <c r="Y76" s="255"/>
-      <c r="Z76" s="255"/>
-      <c r="AA76" s="255"/>
-      <c r="AB76" s="255"/>
-      <c r="AC76" s="255"/>
-      <c r="AD76" s="255"/>
-      <c r="AE76" s="255"/>
-      <c r="AF76" s="255"/>
-      <c r="AG76" s="255"/>
-      <c r="AH76" s="255"/>
-      <c r="AI76" s="255"/>
-      <c r="AJ76" s="255"/>
-      <c r="AK76" s="255"/>
-      <c r="AL76" s="255"/>
-      <c r="AM76" s="255"/>
-      <c r="AN76" s="255"/>
-      <c r="AO76" s="255"/>
-      <c r="AP76" s="255"/>
-      <c r="AQ76" s="255"/>
-      <c r="AR76" s="255"/>
-      <c r="AS76" s="255"/>
-      <c r="AT76" s="255"/>
-      <c r="AU76" s="255"/>
-      <c r="AV76" s="255"/>
-      <c r="AW76" s="255"/>
-      <c r="AX76" s="255"/>
-      <c r="AY76" s="255"/>
-      <c r="AZ76" s="255"/>
-      <c r="BA76" s="255"/>
-      <c r="BB76" s="255"/>
-      <c r="BC76" s="255"/>
-      <c r="BD76" s="255"/>
-      <c r="BE76" s="255"/>
-      <c r="BF76" s="255"/>
-      <c r="BG76" s="255"/>
-      <c r="BH76" s="255"/>
-      <c r="BI76" s="255"/>
-      <c r="BJ76" s="255"/>
-      <c r="BK76" s="255"/>
-      <c r="BL76" s="255"/>
-      <c r="BM76" s="255"/>
-      <c r="BN76" s="255"/>
-      <c r="BO76" s="255"/>
-      <c r="BP76" s="255"/>
-      <c r="BQ76" s="255"/>
-      <c r="BR76" s="255"/>
-      <c r="BS76" s="256"/>
+      <c r="D76" s="270"/>
+      <c r="E76" s="270"/>
+      <c r="F76" s="270"/>
+      <c r="G76" s="270"/>
+      <c r="H76" s="270"/>
+      <c r="I76" s="270"/>
+      <c r="J76" s="270"/>
+      <c r="K76" s="270"/>
+      <c r="L76" s="270"/>
+      <c r="M76" s="270"/>
+      <c r="N76" s="270"/>
+      <c r="O76" s="270"/>
+      <c r="P76" s="270"/>
+      <c r="Q76" s="270"/>
+      <c r="R76" s="270"/>
+      <c r="S76" s="270"/>
+      <c r="T76" s="270"/>
+      <c r="U76" s="270"/>
+      <c r="V76" s="270"/>
+      <c r="W76" s="270"/>
+      <c r="X76" s="270"/>
+      <c r="Y76" s="270"/>
+      <c r="Z76" s="270"/>
+      <c r="AA76" s="270"/>
+      <c r="AB76" s="270"/>
+      <c r="AC76" s="270"/>
+      <c r="AD76" s="270"/>
+      <c r="AE76" s="270"/>
+      <c r="AF76" s="270"/>
+      <c r="AG76" s="270"/>
+      <c r="AH76" s="270"/>
+      <c r="AI76" s="270"/>
+      <c r="AJ76" s="270"/>
+      <c r="AK76" s="270"/>
+      <c r="AL76" s="270"/>
+      <c r="AM76" s="270"/>
+      <c r="AN76" s="270"/>
+      <c r="AO76" s="270"/>
+      <c r="AP76" s="270"/>
+      <c r="AQ76" s="270"/>
+      <c r="AR76" s="270"/>
+      <c r="AS76" s="270"/>
+      <c r="AT76" s="270"/>
+      <c r="AU76" s="270"/>
+      <c r="AV76" s="270"/>
+      <c r="AW76" s="270"/>
+      <c r="AX76" s="270"/>
+      <c r="AY76" s="270"/>
+      <c r="AZ76" s="270"/>
+      <c r="BA76" s="270"/>
+      <c r="BB76" s="270"/>
+      <c r="BC76" s="270"/>
+      <c r="BD76" s="270"/>
+      <c r="BE76" s="270"/>
+      <c r="BF76" s="270"/>
+      <c r="BG76" s="270"/>
+      <c r="BH76" s="270"/>
+      <c r="BI76" s="270"/>
+      <c r="BJ76" s="270"/>
+      <c r="BK76" s="270"/>
+      <c r="BL76" s="270"/>
+      <c r="BM76" s="270"/>
+      <c r="BN76" s="270"/>
+      <c r="BO76" s="270"/>
+      <c r="BP76" s="270"/>
+      <c r="BQ76" s="270"/>
+      <c r="BR76" s="270"/>
+      <c r="BS76" s="271"/>
     </row>
     <row r="77" spans="1:71" ht="17.25" thickBot="1">
       <c r="B77" s="208" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="C77" s="249" t="s">
+      <c r="C77" s="268" t="s">
         <v>1204</v>
       </c>
-      <c r="D77" s="249"/>
-      <c r="E77" s="249"/>
-      <c r="F77" s="249"/>
-      <c r="G77" s="249"/>
-      <c r="H77" s="249"/>
-      <c r="I77" s="249"/>
-      <c r="J77" s="249"/>
-      <c r="K77" s="249"/>
-      <c r="L77" s="249"/>
-      <c r="M77" s="249"/>
-      <c r="N77" s="249"/>
-      <c r="O77" s="249"/>
-      <c r="P77" s="249"/>
-      <c r="Q77" s="249"/>
-      <c r="R77" s="249"/>
-      <c r="S77" s="249"/>
-      <c r="T77" s="249"/>
-      <c r="U77" s="249"/>
-      <c r="V77" s="249"/>
-      <c r="W77" s="249"/>
-      <c r="X77" s="249"/>
-      <c r="Y77" s="249"/>
-      <c r="Z77" s="249"/>
-      <c r="AA77" s="249"/>
-      <c r="AB77" s="249"/>
-      <c r="AC77" s="249"/>
-      <c r="AD77" s="249"/>
-      <c r="AE77" s="249"/>
-      <c r="AF77" s="249"/>
-      <c r="AG77" s="249"/>
-      <c r="AH77" s="249"/>
-      <c r="AI77" s="249"/>
-      <c r="AJ77" s="249"/>
-      <c r="AK77" s="249"/>
-      <c r="AL77" s="249"/>
-      <c r="AM77" s="249"/>
-      <c r="AN77" s="249"/>
-      <c r="AO77" s="249"/>
-      <c r="AP77" s="249"/>
-      <c r="AQ77" s="249"/>
-      <c r="AR77" s="249"/>
-      <c r="AS77" s="249"/>
-      <c r="AT77" s="249"/>
-      <c r="AU77" s="249"/>
-      <c r="AV77" s="249"/>
-      <c r="AW77" s="249"/>
-      <c r="AX77" s="249"/>
-      <c r="AY77" s="249"/>
-      <c r="AZ77" s="249"/>
-      <c r="BA77" s="249"/>
-      <c r="BB77" s="249"/>
-      <c r="BC77" s="249"/>
-      <c r="BD77" s="249"/>
-      <c r="BE77" s="249"/>
-      <c r="BF77" s="249"/>
-      <c r="BG77" s="249"/>
-      <c r="BH77" s="249"/>
-      <c r="BI77" s="249"/>
-      <c r="BJ77" s="249"/>
-      <c r="BK77" s="249"/>
-      <c r="BL77" s="249"/>
-      <c r="BM77" s="249"/>
-      <c r="BN77" s="249"/>
-      <c r="BO77" s="249"/>
-      <c r="BP77" s="249"/>
-      <c r="BQ77" s="249"/>
-      <c r="BR77" s="249"/>
-      <c r="BS77" s="250"/>
+      <c r="D77" s="268"/>
+      <c r="E77" s="268"/>
+      <c r="F77" s="268"/>
+      <c r="G77" s="268"/>
+      <c r="H77" s="268"/>
+      <c r="I77" s="268"/>
+      <c r="J77" s="268"/>
+      <c r="K77" s="268"/>
+      <c r="L77" s="268"/>
+      <c r="M77" s="268"/>
+      <c r="N77" s="268"/>
+      <c r="O77" s="268"/>
+      <c r="P77" s="268"/>
+      <c r="Q77" s="268"/>
+      <c r="R77" s="268"/>
+      <c r="S77" s="268"/>
+      <c r="T77" s="268"/>
+      <c r="U77" s="268"/>
+      <c r="V77" s="268"/>
+      <c r="W77" s="268"/>
+      <c r="X77" s="268"/>
+      <c r="Y77" s="268"/>
+      <c r="Z77" s="268"/>
+      <c r="AA77" s="268"/>
+      <c r="AB77" s="268"/>
+      <c r="AC77" s="268"/>
+      <c r="AD77" s="268"/>
+      <c r="AE77" s="268"/>
+      <c r="AF77" s="268"/>
+      <c r="AG77" s="268"/>
+      <c r="AH77" s="268"/>
+      <c r="AI77" s="268"/>
+      <c r="AJ77" s="268"/>
+      <c r="AK77" s="268"/>
+      <c r="AL77" s="268"/>
+      <c r="AM77" s="268"/>
+      <c r="AN77" s="268"/>
+      <c r="AO77" s="268"/>
+      <c r="AP77" s="268"/>
+      <c r="AQ77" s="268"/>
+      <c r="AR77" s="268"/>
+      <c r="AS77" s="268"/>
+      <c r="AT77" s="268"/>
+      <c r="AU77" s="268"/>
+      <c r="AV77" s="268"/>
+      <c r="AW77" s="268"/>
+      <c r="AX77" s="268"/>
+      <c r="AY77" s="268"/>
+      <c r="AZ77" s="268"/>
+      <c r="BA77" s="268"/>
+      <c r="BB77" s="268"/>
+      <c r="BC77" s="268"/>
+      <c r="BD77" s="268"/>
+      <c r="BE77" s="268"/>
+      <c r="BF77" s="268"/>
+      <c r="BG77" s="268"/>
+      <c r="BH77" s="268"/>
+      <c r="BI77" s="268"/>
+      <c r="BJ77" s="268"/>
+      <c r="BK77" s="268"/>
+      <c r="BL77" s="268"/>
+      <c r="BM77" s="268"/>
+      <c r="BN77" s="268"/>
+      <c r="BO77" s="268"/>
+      <c r="BP77" s="268"/>
+      <c r="BQ77" s="268"/>
+      <c r="BR77" s="268"/>
+      <c r="BS77" s="269"/>
     </row>
     <row r="78" spans="1:71">
       <c r="B78" s="207" t="str">
         <f t="shared" ref="B78:B83" si="50">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C78" s="251" t="s">
+      <c r="C78" s="264" t="s">
         <v>1203</v>
       </c>
-      <c r="D78" s="251"/>
-      <c r="E78" s="251"/>
-      <c r="F78" s="251"/>
-      <c r="G78" s="251"/>
-      <c r="H78" s="251"/>
-      <c r="I78" s="251"/>
-      <c r="J78" s="251"/>
-      <c r="K78" s="251"/>
-      <c r="L78" s="251"/>
-      <c r="M78" s="251"/>
-      <c r="N78" s="251"/>
-      <c r="O78" s="251"/>
-      <c r="P78" s="251"/>
-      <c r="Q78" s="251"/>
-      <c r="R78" s="251"/>
-      <c r="S78" s="251"/>
-      <c r="T78" s="251"/>
-      <c r="U78" s="251"/>
-      <c r="V78" s="251"/>
-      <c r="W78" s="251"/>
-      <c r="X78" s="251"/>
-      <c r="Y78" s="251"/>
-      <c r="Z78" s="251"/>
-      <c r="AA78" s="251"/>
-      <c r="AB78" s="251"/>
-      <c r="AC78" s="251"/>
-      <c r="AD78" s="251"/>
-      <c r="AE78" s="251"/>
-      <c r="AF78" s="251"/>
-      <c r="AG78" s="251"/>
-      <c r="AH78" s="251"/>
-      <c r="AI78" s="251"/>
-      <c r="AJ78" s="251"/>
-      <c r="AK78" s="251"/>
-      <c r="AL78" s="251"/>
-      <c r="AM78" s="251"/>
-      <c r="AN78" s="251"/>
-      <c r="AO78" s="251"/>
-      <c r="AP78" s="251"/>
-      <c r="AQ78" s="251"/>
-      <c r="AR78" s="251"/>
-      <c r="AS78" s="251"/>
-      <c r="AT78" s="251"/>
-      <c r="AU78" s="251"/>
-      <c r="AV78" s="251"/>
-      <c r="AW78" s="251"/>
-      <c r="AX78" s="251"/>
-      <c r="AY78" s="251"/>
-      <c r="AZ78" s="251"/>
-      <c r="BA78" s="251"/>
-      <c r="BB78" s="251"/>
-      <c r="BC78" s="251"/>
-      <c r="BD78" s="251"/>
-      <c r="BE78" s="251"/>
-      <c r="BF78" s="251"/>
-      <c r="BG78" s="251"/>
-      <c r="BH78" s="251"/>
-      <c r="BI78" s="251"/>
-      <c r="BJ78" s="251"/>
-      <c r="BK78" s="251"/>
-      <c r="BL78" s="251"/>
-      <c r="BM78" s="251"/>
-      <c r="BN78" s="251"/>
-      <c r="BO78" s="251"/>
-      <c r="BP78" s="251"/>
-      <c r="BQ78" s="251"/>
-      <c r="BR78" s="251"/>
-      <c r="BS78" s="252"/>
+      <c r="D78" s="264"/>
+      <c r="E78" s="264"/>
+      <c r="F78" s="264"/>
+      <c r="G78" s="264"/>
+      <c r="H78" s="264"/>
+      <c r="I78" s="264"/>
+      <c r="J78" s="264"/>
+      <c r="K78" s="264"/>
+      <c r="L78" s="264"/>
+      <c r="M78" s="264"/>
+      <c r="N78" s="264"/>
+      <c r="O78" s="264"/>
+      <c r="P78" s="264"/>
+      <c r="Q78" s="264"/>
+      <c r="R78" s="264"/>
+      <c r="S78" s="264"/>
+      <c r="T78" s="264"/>
+      <c r="U78" s="264"/>
+      <c r="V78" s="264"/>
+      <c r="W78" s="264"/>
+      <c r="X78" s="264"/>
+      <c r="Y78" s="264"/>
+      <c r="Z78" s="264"/>
+      <c r="AA78" s="264"/>
+      <c r="AB78" s="264"/>
+      <c r="AC78" s="264"/>
+      <c r="AD78" s="264"/>
+      <c r="AE78" s="264"/>
+      <c r="AF78" s="264"/>
+      <c r="AG78" s="264"/>
+      <c r="AH78" s="264"/>
+      <c r="AI78" s="264"/>
+      <c r="AJ78" s="264"/>
+      <c r="AK78" s="264"/>
+      <c r="AL78" s="264"/>
+      <c r="AM78" s="264"/>
+      <c r="AN78" s="264"/>
+      <c r="AO78" s="264"/>
+      <c r="AP78" s="264"/>
+      <c r="AQ78" s="264"/>
+      <c r="AR78" s="264"/>
+      <c r="AS78" s="264"/>
+      <c r="AT78" s="264"/>
+      <c r="AU78" s="264"/>
+      <c r="AV78" s="264"/>
+      <c r="AW78" s="264"/>
+      <c r="AX78" s="264"/>
+      <c r="AY78" s="264"/>
+      <c r="AZ78" s="264"/>
+      <c r="BA78" s="264"/>
+      <c r="BB78" s="264"/>
+      <c r="BC78" s="264"/>
+      <c r="BD78" s="264"/>
+      <c r="BE78" s="264"/>
+      <c r="BF78" s="264"/>
+      <c r="BG78" s="264"/>
+      <c r="BH78" s="264"/>
+      <c r="BI78" s="264"/>
+      <c r="BJ78" s="264"/>
+      <c r="BK78" s="264"/>
+      <c r="BL78" s="264"/>
+      <c r="BM78" s="264"/>
+      <c r="BN78" s="264"/>
+      <c r="BO78" s="264"/>
+      <c r="BP78" s="264"/>
+      <c r="BQ78" s="264"/>
+      <c r="BR78" s="264"/>
+      <c r="BS78" s="265"/>
     </row>
     <row r="79" spans="1:71">
       <c r="B79" s="205" t="str">
         <f t="shared" si="50"/>
         <v>0.1</v>
       </c>
-      <c r="C79" s="253" t="s">
+      <c r="C79" s="266" t="s">
         <v>1202</v>
       </c>
-      <c r="D79" s="253"/>
-      <c r="E79" s="253"/>
-      <c r="F79" s="253"/>
-      <c r="G79" s="253"/>
-      <c r="H79" s="253"/>
-      <c r="I79" s="253"/>
-      <c r="J79" s="253"/>
-      <c r="K79" s="253"/>
-      <c r="L79" s="253"/>
-      <c r="M79" s="253"/>
-      <c r="N79" s="253"/>
-      <c r="O79" s="253"/>
-      <c r="P79" s="253"/>
-      <c r="Q79" s="253"/>
-      <c r="R79" s="253"/>
-      <c r="S79" s="253"/>
-      <c r="T79" s="253"/>
-      <c r="U79" s="253"/>
-      <c r="V79" s="253"/>
-      <c r="W79" s="253"/>
-      <c r="X79" s="253"/>
-      <c r="Y79" s="253"/>
-      <c r="Z79" s="253"/>
-      <c r="AA79" s="253"/>
-      <c r="AB79" s="253"/>
-      <c r="AC79" s="253"/>
-      <c r="AD79" s="253"/>
-      <c r="AE79" s="253"/>
-      <c r="AF79" s="253"/>
-      <c r="AG79" s="253"/>
-      <c r="AH79" s="253"/>
-      <c r="AI79" s="253"/>
-      <c r="AJ79" s="253"/>
-      <c r="AK79" s="253"/>
-      <c r="AL79" s="253"/>
-      <c r="AM79" s="253"/>
-      <c r="AN79" s="253"/>
-      <c r="AO79" s="253"/>
-      <c r="AP79" s="253"/>
-      <c r="AQ79" s="253"/>
-      <c r="AR79" s="253"/>
-      <c r="AS79" s="253"/>
-      <c r="AT79" s="253"/>
-      <c r="AU79" s="253"/>
-      <c r="AV79" s="253"/>
-      <c r="AW79" s="253"/>
-      <c r="AX79" s="253"/>
-      <c r="AY79" s="253"/>
-      <c r="AZ79" s="253"/>
-      <c r="BA79" s="253"/>
-      <c r="BB79" s="253"/>
-      <c r="BC79" s="253"/>
-      <c r="BD79" s="253"/>
-      <c r="BE79" s="253"/>
-      <c r="BF79" s="253"/>
-      <c r="BG79" s="253"/>
-      <c r="BH79" s="253"/>
-      <c r="BI79" s="253"/>
-      <c r="BJ79" s="253"/>
-      <c r="BK79" s="253"/>
-      <c r="BL79" s="253"/>
-      <c r="BM79" s="253"/>
-      <c r="BN79" s="253"/>
-      <c r="BO79" s="253"/>
-      <c r="BP79" s="253"/>
-      <c r="BQ79" s="253"/>
-      <c r="BR79" s="253"/>
-      <c r="BS79" s="254"/>
+      <c r="D79" s="266"/>
+      <c r="E79" s="266"/>
+      <c r="F79" s="266"/>
+      <c r="G79" s="266"/>
+      <c r="H79" s="266"/>
+      <c r="I79" s="266"/>
+      <c r="J79" s="266"/>
+      <c r="K79" s="266"/>
+      <c r="L79" s="266"/>
+      <c r="M79" s="266"/>
+      <c r="N79" s="266"/>
+      <c r="O79" s="266"/>
+      <c r="P79" s="266"/>
+      <c r="Q79" s="266"/>
+      <c r="R79" s="266"/>
+      <c r="S79" s="266"/>
+      <c r="T79" s="266"/>
+      <c r="U79" s="266"/>
+      <c r="V79" s="266"/>
+      <c r="W79" s="266"/>
+      <c r="X79" s="266"/>
+      <c r="Y79" s="266"/>
+      <c r="Z79" s="266"/>
+      <c r="AA79" s="266"/>
+      <c r="AB79" s="266"/>
+      <c r="AC79" s="266"/>
+      <c r="AD79" s="266"/>
+      <c r="AE79" s="266"/>
+      <c r="AF79" s="266"/>
+      <c r="AG79" s="266"/>
+      <c r="AH79" s="266"/>
+      <c r="AI79" s="266"/>
+      <c r="AJ79" s="266"/>
+      <c r="AK79" s="266"/>
+      <c r="AL79" s="266"/>
+      <c r="AM79" s="266"/>
+      <c r="AN79" s="266"/>
+      <c r="AO79" s="266"/>
+      <c r="AP79" s="266"/>
+      <c r="AQ79" s="266"/>
+      <c r="AR79" s="266"/>
+      <c r="AS79" s="266"/>
+      <c r="AT79" s="266"/>
+      <c r="AU79" s="266"/>
+      <c r="AV79" s="266"/>
+      <c r="AW79" s="266"/>
+      <c r="AX79" s="266"/>
+      <c r="AY79" s="266"/>
+      <c r="AZ79" s="266"/>
+      <c r="BA79" s="266"/>
+      <c r="BB79" s="266"/>
+      <c r="BC79" s="266"/>
+      <c r="BD79" s="266"/>
+      <c r="BE79" s="266"/>
+      <c r="BF79" s="266"/>
+      <c r="BG79" s="266"/>
+      <c r="BH79" s="266"/>
+      <c r="BI79" s="266"/>
+      <c r="BJ79" s="266"/>
+      <c r="BK79" s="266"/>
+      <c r="BL79" s="266"/>
+      <c r="BM79" s="266"/>
+      <c r="BN79" s="266"/>
+      <c r="BO79" s="266"/>
+      <c r="BP79" s="266"/>
+      <c r="BQ79" s="266"/>
+      <c r="BR79" s="266"/>
+      <c r="BS79" s="267"/>
     </row>
     <row r="80" spans="1:71">
       <c r="B80" s="205" t="str">
         <f t="shared" si="50"/>
         <v>0.1</v>
       </c>
-      <c r="C80" s="253" t="s">
+      <c r="C80" s="266" t="s">
         <v>1201</v>
       </c>
-      <c r="D80" s="253"/>
-      <c r="E80" s="253"/>
-      <c r="F80" s="253"/>
-      <c r="G80" s="253"/>
-      <c r="H80" s="253"/>
-      <c r="I80" s="253"/>
-      <c r="J80" s="253"/>
-      <c r="K80" s="253"/>
-      <c r="L80" s="253"/>
-      <c r="M80" s="253"/>
-      <c r="N80" s="253"/>
-      <c r="O80" s="253"/>
-      <c r="P80" s="253"/>
-      <c r="Q80" s="253"/>
-      <c r="R80" s="253"/>
-      <c r="S80" s="253"/>
-      <c r="T80" s="253"/>
-      <c r="U80" s="253"/>
-      <c r="V80" s="253"/>
-      <c r="W80" s="253"/>
-      <c r="X80" s="253"/>
-      <c r="Y80" s="253"/>
-      <c r="Z80" s="253"/>
-      <c r="AA80" s="253"/>
-      <c r="AB80" s="253"/>
-      <c r="AC80" s="253"/>
-      <c r="AD80" s="253"/>
-      <c r="AE80" s="253"/>
-      <c r="AF80" s="253"/>
-      <c r="AG80" s="253"/>
-      <c r="AH80" s="253"/>
-      <c r="AI80" s="253"/>
-      <c r="AJ80" s="253"/>
-      <c r="AK80" s="253"/>
-      <c r="AL80" s="253"/>
-      <c r="AM80" s="253"/>
-      <c r="AN80" s="253"/>
-      <c r="AO80" s="253"/>
-      <c r="AP80" s="253"/>
-      <c r="AQ80" s="253"/>
-      <c r="AR80" s="253"/>
-      <c r="AS80" s="253"/>
-      <c r="AT80" s="253"/>
-      <c r="AU80" s="253"/>
-      <c r="AV80" s="253"/>
-      <c r="AW80" s="253"/>
-      <c r="AX80" s="253"/>
-      <c r="AY80" s="253"/>
-      <c r="AZ80" s="253"/>
-      <c r="BA80" s="253"/>
-      <c r="BB80" s="253"/>
-      <c r="BC80" s="253"/>
-      <c r="BD80" s="253"/>
-      <c r="BE80" s="253"/>
-      <c r="BF80" s="253"/>
-      <c r="BG80" s="253"/>
-      <c r="BH80" s="253"/>
-      <c r="BI80" s="253"/>
-      <c r="BJ80" s="253"/>
-      <c r="BK80" s="253"/>
-      <c r="BL80" s="253"/>
-      <c r="BM80" s="253"/>
-      <c r="BN80" s="253"/>
-      <c r="BO80" s="253"/>
-      <c r="BP80" s="253"/>
-      <c r="BQ80" s="253"/>
-      <c r="BR80" s="253"/>
-      <c r="BS80" s="254"/>
+      <c r="D80" s="266"/>
+      <c r="E80" s="266"/>
+      <c r="F80" s="266"/>
+      <c r="G80" s="266"/>
+      <c r="H80" s="266"/>
+      <c r="I80" s="266"/>
+      <c r="J80" s="266"/>
+      <c r="K80" s="266"/>
+      <c r="L80" s="266"/>
+      <c r="M80" s="266"/>
+      <c r="N80" s="266"/>
+      <c r="O80" s="266"/>
+      <c r="P80" s="266"/>
+      <c r="Q80" s="266"/>
+      <c r="R80" s="266"/>
+      <c r="S80" s="266"/>
+      <c r="T80" s="266"/>
+      <c r="U80" s="266"/>
+      <c r="V80" s="266"/>
+      <c r="W80" s="266"/>
+      <c r="X80" s="266"/>
+      <c r="Y80" s="266"/>
+      <c r="Z80" s="266"/>
+      <c r="AA80" s="266"/>
+      <c r="AB80" s="266"/>
+      <c r="AC80" s="266"/>
+      <c r="AD80" s="266"/>
+      <c r="AE80" s="266"/>
+      <c r="AF80" s="266"/>
+      <c r="AG80" s="266"/>
+      <c r="AH80" s="266"/>
+      <c r="AI80" s="266"/>
+      <c r="AJ80" s="266"/>
+      <c r="AK80" s="266"/>
+      <c r="AL80" s="266"/>
+      <c r="AM80" s="266"/>
+      <c r="AN80" s="266"/>
+      <c r="AO80" s="266"/>
+      <c r="AP80" s="266"/>
+      <c r="AQ80" s="266"/>
+      <c r="AR80" s="266"/>
+      <c r="AS80" s="266"/>
+      <c r="AT80" s="266"/>
+      <c r="AU80" s="266"/>
+      <c r="AV80" s="266"/>
+      <c r="AW80" s="266"/>
+      <c r="AX80" s="266"/>
+      <c r="AY80" s="266"/>
+      <c r="AZ80" s="266"/>
+      <c r="BA80" s="266"/>
+      <c r="BB80" s="266"/>
+      <c r="BC80" s="266"/>
+      <c r="BD80" s="266"/>
+      <c r="BE80" s="266"/>
+      <c r="BF80" s="266"/>
+      <c r="BG80" s="266"/>
+      <c r="BH80" s="266"/>
+      <c r="BI80" s="266"/>
+      <c r="BJ80" s="266"/>
+      <c r="BK80" s="266"/>
+      <c r="BL80" s="266"/>
+      <c r="BM80" s="266"/>
+      <c r="BN80" s="266"/>
+      <c r="BO80" s="266"/>
+      <c r="BP80" s="266"/>
+      <c r="BQ80" s="266"/>
+      <c r="BR80" s="266"/>
+      <c r="BS80" s="267"/>
     </row>
     <row r="81" spans="2:71">
       <c r="B81" s="205" t="str">
         <f t="shared" si="50"/>
         <v>0.1</v>
       </c>
-      <c r="C81" s="253" t="s">
+      <c r="C81" s="266" t="s">
         <v>1200</v>
       </c>
-      <c r="D81" s="253"/>
-      <c r="E81" s="253"/>
-      <c r="F81" s="253"/>
-      <c r="G81" s="253"/>
-      <c r="H81" s="253"/>
-      <c r="I81" s="253"/>
-      <c r="J81" s="253"/>
-      <c r="K81" s="253"/>
-      <c r="L81" s="253"/>
-      <c r="M81" s="253"/>
-      <c r="N81" s="253"/>
-      <c r="O81" s="253"/>
-      <c r="P81" s="253"/>
-      <c r="Q81" s="253"/>
-      <c r="R81" s="253"/>
-      <c r="S81" s="253"/>
-      <c r="T81" s="253"/>
-      <c r="U81" s="253"/>
-      <c r="V81" s="253"/>
-      <c r="W81" s="253"/>
-      <c r="X81" s="253"/>
-      <c r="Y81" s="253"/>
-      <c r="Z81" s="253"/>
-      <c r="AA81" s="253"/>
-      <c r="AB81" s="253"/>
-      <c r="AC81" s="253"/>
-      <c r="AD81" s="253"/>
-      <c r="AE81" s="253"/>
-      <c r="AF81" s="253"/>
-      <c r="AG81" s="253"/>
-      <c r="AH81" s="253"/>
-      <c r="AI81" s="253"/>
-      <c r="AJ81" s="253"/>
-      <c r="AK81" s="253"/>
-      <c r="AL81" s="253"/>
-      <c r="AM81" s="253"/>
-      <c r="AN81" s="253"/>
-      <c r="AO81" s="253"/>
-      <c r="AP81" s="253"/>
-      <c r="AQ81" s="253"/>
-      <c r="AR81" s="253"/>
-      <c r="AS81" s="253"/>
-      <c r="AT81" s="253"/>
-      <c r="AU81" s="253"/>
-      <c r="AV81" s="253"/>
-      <c r="AW81" s="253"/>
-      <c r="AX81" s="253"/>
-      <c r="AY81" s="253"/>
-      <c r="AZ81" s="253"/>
-      <c r="BA81" s="253"/>
-      <c r="BB81" s="253"/>
-      <c r="BC81" s="253"/>
-      <c r="BD81" s="253"/>
-      <c r="BE81" s="253"/>
-      <c r="BF81" s="253"/>
-      <c r="BG81" s="253"/>
-      <c r="BH81" s="253"/>
-      <c r="BI81" s="253"/>
-      <c r="BJ81" s="253"/>
-      <c r="BK81" s="253"/>
-      <c r="BL81" s="253"/>
-      <c r="BM81" s="253"/>
-      <c r="BN81" s="253"/>
-      <c r="BO81" s="253"/>
-      <c r="BP81" s="253"/>
-      <c r="BQ81" s="253"/>
-      <c r="BR81" s="253"/>
-      <c r="BS81" s="254"/>
+      <c r="D81" s="266"/>
+      <c r="E81" s="266"/>
+      <c r="F81" s="266"/>
+      <c r="G81" s="266"/>
+      <c r="H81" s="266"/>
+      <c r="I81" s="266"/>
+      <c r="J81" s="266"/>
+      <c r="K81" s="266"/>
+      <c r="L81" s="266"/>
+      <c r="M81" s="266"/>
+      <c r="N81" s="266"/>
+      <c r="O81" s="266"/>
+      <c r="P81" s="266"/>
+      <c r="Q81" s="266"/>
+      <c r="R81" s="266"/>
+      <c r="S81" s="266"/>
+      <c r="T81" s="266"/>
+      <c r="U81" s="266"/>
+      <c r="V81" s="266"/>
+      <c r="W81" s="266"/>
+      <c r="X81" s="266"/>
+      <c r="Y81" s="266"/>
+      <c r="Z81" s="266"/>
+      <c r="AA81" s="266"/>
+      <c r="AB81" s="266"/>
+      <c r="AC81" s="266"/>
+      <c r="AD81" s="266"/>
+      <c r="AE81" s="266"/>
+      <c r="AF81" s="266"/>
+      <c r="AG81" s="266"/>
+      <c r="AH81" s="266"/>
+      <c r="AI81" s="266"/>
+      <c r="AJ81" s="266"/>
+      <c r="AK81" s="266"/>
+      <c r="AL81" s="266"/>
+      <c r="AM81" s="266"/>
+      <c r="AN81" s="266"/>
+      <c r="AO81" s="266"/>
+      <c r="AP81" s="266"/>
+      <c r="AQ81" s="266"/>
+      <c r="AR81" s="266"/>
+      <c r="AS81" s="266"/>
+      <c r="AT81" s="266"/>
+      <c r="AU81" s="266"/>
+      <c r="AV81" s="266"/>
+      <c r="AW81" s="266"/>
+      <c r="AX81" s="266"/>
+      <c r="AY81" s="266"/>
+      <c r="AZ81" s="266"/>
+      <c r="BA81" s="266"/>
+      <c r="BB81" s="266"/>
+      <c r="BC81" s="266"/>
+      <c r="BD81" s="266"/>
+      <c r="BE81" s="266"/>
+      <c r="BF81" s="266"/>
+      <c r="BG81" s="266"/>
+      <c r="BH81" s="266"/>
+      <c r="BI81" s="266"/>
+      <c r="BJ81" s="266"/>
+      <c r="BK81" s="266"/>
+      <c r="BL81" s="266"/>
+      <c r="BM81" s="266"/>
+      <c r="BN81" s="266"/>
+      <c r="BO81" s="266"/>
+      <c r="BP81" s="266"/>
+      <c r="BQ81" s="266"/>
+      <c r="BR81" s="266"/>
+      <c r="BS81" s="267"/>
     </row>
     <row r="82" spans="2:71">
       <c r="B82" s="205" t="str">
         <f t="shared" si="50"/>
         <v>0.1</v>
       </c>
-      <c r="C82" s="253" t="s">
+      <c r="C82" s="266" t="s">
         <v>1199</v>
       </c>
-      <c r="D82" s="253"/>
-      <c r="E82" s="253"/>
-      <c r="F82" s="253"/>
-      <c r="G82" s="253"/>
-      <c r="H82" s="253"/>
-      <c r="I82" s="253"/>
-      <c r="J82" s="253"/>
-      <c r="K82" s="253"/>
-      <c r="L82" s="253"/>
-      <c r="M82" s="253"/>
-      <c r="N82" s="253"/>
-      <c r="O82" s="253"/>
-      <c r="P82" s="253"/>
-      <c r="Q82" s="253"/>
-      <c r="R82" s="253"/>
-      <c r="S82" s="253"/>
-      <c r="T82" s="253"/>
-      <c r="U82" s="253"/>
-      <c r="V82" s="253"/>
-      <c r="W82" s="253"/>
-      <c r="X82" s="253"/>
-      <c r="Y82" s="253"/>
-      <c r="Z82" s="253"/>
-      <c r="AA82" s="253"/>
-      <c r="AB82" s="253"/>
-      <c r="AC82" s="253"/>
-      <c r="AD82" s="253"/>
-      <c r="AE82" s="253"/>
-      <c r="AF82" s="253"/>
-      <c r="AG82" s="253"/>
-      <c r="AH82" s="253"/>
-      <c r="AI82" s="253"/>
-      <c r="AJ82" s="253"/>
-      <c r="AK82" s="253"/>
-      <c r="AL82" s="253"/>
-      <c r="AM82" s="253"/>
-      <c r="AN82" s="253"/>
-      <c r="AO82" s="253"/>
-      <c r="AP82" s="253"/>
-      <c r="AQ82" s="253"/>
-      <c r="AR82" s="253"/>
-      <c r="AS82" s="253"/>
-      <c r="AT82" s="253"/>
-      <c r="AU82" s="253"/>
-      <c r="AV82" s="253"/>
-      <c r="AW82" s="253"/>
-      <c r="AX82" s="253"/>
-      <c r="AY82" s="253"/>
-      <c r="AZ82" s="253"/>
-      <c r="BA82" s="253"/>
-      <c r="BB82" s="253"/>
-      <c r="BC82" s="253"/>
-      <c r="BD82" s="253"/>
-      <c r="BE82" s="253"/>
-      <c r="BF82" s="253"/>
-      <c r="BG82" s="253"/>
-      <c r="BH82" s="253"/>
-      <c r="BI82" s="253"/>
-      <c r="BJ82" s="253"/>
-      <c r="BK82" s="253"/>
-      <c r="BL82" s="253"/>
-      <c r="BM82" s="253"/>
-      <c r="BN82" s="253"/>
-      <c r="BO82" s="253"/>
-      <c r="BP82" s="253"/>
-      <c r="BQ82" s="253"/>
-      <c r="BR82" s="253"/>
-      <c r="BS82" s="254"/>
+      <c r="D82" s="266"/>
+      <c r="E82" s="266"/>
+      <c r="F82" s="266"/>
+      <c r="G82" s="266"/>
+      <c r="H82" s="266"/>
+      <c r="I82" s="266"/>
+      <c r="J82" s="266"/>
+      <c r="K82" s="266"/>
+      <c r="L82" s="266"/>
+      <c r="M82" s="266"/>
+      <c r="N82" s="266"/>
+      <c r="O82" s="266"/>
+      <c r="P82" s="266"/>
+      <c r="Q82" s="266"/>
+      <c r="R82" s="266"/>
+      <c r="S82" s="266"/>
+      <c r="T82" s="266"/>
+      <c r="U82" s="266"/>
+      <c r="V82" s="266"/>
+      <c r="W82" s="266"/>
+      <c r="X82" s="266"/>
+      <c r="Y82" s="266"/>
+      <c r="Z82" s="266"/>
+      <c r="AA82" s="266"/>
+      <c r="AB82" s="266"/>
+      <c r="AC82" s="266"/>
+      <c r="AD82" s="266"/>
+      <c r="AE82" s="266"/>
+      <c r="AF82" s="266"/>
+      <c r="AG82" s="266"/>
+      <c r="AH82" s="266"/>
+      <c r="AI82" s="266"/>
+      <c r="AJ82" s="266"/>
+      <c r="AK82" s="266"/>
+      <c r="AL82" s="266"/>
+      <c r="AM82" s="266"/>
+      <c r="AN82" s="266"/>
+      <c r="AO82" s="266"/>
+      <c r="AP82" s="266"/>
+      <c r="AQ82" s="266"/>
+      <c r="AR82" s="266"/>
+      <c r="AS82" s="266"/>
+      <c r="AT82" s="266"/>
+      <c r="AU82" s="266"/>
+      <c r="AV82" s="266"/>
+      <c r="AW82" s="266"/>
+      <c r="AX82" s="266"/>
+      <c r="AY82" s="266"/>
+      <c r="AZ82" s="266"/>
+      <c r="BA82" s="266"/>
+      <c r="BB82" s="266"/>
+      <c r="BC82" s="266"/>
+      <c r="BD82" s="266"/>
+      <c r="BE82" s="266"/>
+      <c r="BF82" s="266"/>
+      <c r="BG82" s="266"/>
+      <c r="BH82" s="266"/>
+      <c r="BI82" s="266"/>
+      <c r="BJ82" s="266"/>
+      <c r="BK82" s="266"/>
+      <c r="BL82" s="266"/>
+      <c r="BM82" s="266"/>
+      <c r="BN82" s="266"/>
+      <c r="BO82" s="266"/>
+      <c r="BP82" s="266"/>
+      <c r="BQ82" s="266"/>
+      <c r="BR82" s="266"/>
+      <c r="BS82" s="267"/>
     </row>
     <row r="83" spans="2:71" ht="17.25" thickBot="1">
       <c r="B83" s="204" t="str">
         <f t="shared" si="50"/>
         <v>0.1</v>
       </c>
-      <c r="C83" s="255" t="s">
+      <c r="C83" s="270" t="s">
         <v>1198</v>
       </c>
-      <c r="D83" s="255"/>
-      <c r="E83" s="255"/>
-      <c r="F83" s="255"/>
-      <c r="G83" s="255"/>
-      <c r="H83" s="255"/>
-      <c r="I83" s="255"/>
-      <c r="J83" s="255"/>
-      <c r="K83" s="255"/>
-      <c r="L83" s="255"/>
-      <c r="M83" s="255"/>
-      <c r="N83" s="255"/>
-      <c r="O83" s="255"/>
-      <c r="P83" s="255"/>
-      <c r="Q83" s="255"/>
-      <c r="R83" s="255"/>
-      <c r="S83" s="255"/>
-      <c r="T83" s="255"/>
-      <c r="U83" s="255"/>
-      <c r="V83" s="255"/>
-      <c r="W83" s="255"/>
-      <c r="X83" s="255"/>
-      <c r="Y83" s="255"/>
-      <c r="Z83" s="255"/>
-      <c r="AA83" s="255"/>
-      <c r="AB83" s="255"/>
-      <c r="AC83" s="255"/>
-      <c r="AD83" s="255"/>
-      <c r="AE83" s="255"/>
-      <c r="AF83" s="255"/>
-      <c r="AG83" s="255"/>
-      <c r="AH83" s="255"/>
-      <c r="AI83" s="255"/>
-      <c r="AJ83" s="255"/>
-      <c r="AK83" s="255"/>
-      <c r="AL83" s="255"/>
-      <c r="AM83" s="255"/>
-      <c r="AN83" s="255"/>
-      <c r="AO83" s="255"/>
-      <c r="AP83" s="255"/>
-      <c r="AQ83" s="255"/>
-      <c r="AR83" s="255"/>
-      <c r="AS83" s="255"/>
-      <c r="AT83" s="255"/>
-      <c r="AU83" s="255"/>
-      <c r="AV83" s="255"/>
-      <c r="AW83" s="255"/>
-      <c r="AX83" s="255"/>
-      <c r="AY83" s="255"/>
-      <c r="AZ83" s="255"/>
-      <c r="BA83" s="255"/>
-      <c r="BB83" s="255"/>
-      <c r="BC83" s="255"/>
-      <c r="BD83" s="255"/>
-      <c r="BE83" s="255"/>
-      <c r="BF83" s="255"/>
-      <c r="BG83" s="255"/>
-      <c r="BH83" s="255"/>
-      <c r="BI83" s="255"/>
-      <c r="BJ83" s="255"/>
-      <c r="BK83" s="255"/>
-      <c r="BL83" s="255"/>
-      <c r="BM83" s="255"/>
-      <c r="BN83" s="255"/>
-      <c r="BO83" s="255"/>
-      <c r="BP83" s="255"/>
-      <c r="BQ83" s="255"/>
-      <c r="BR83" s="255"/>
-      <c r="BS83" s="256"/>
+      <c r="D83" s="270"/>
+      <c r="E83" s="270"/>
+      <c r="F83" s="270"/>
+      <c r="G83" s="270"/>
+      <c r="H83" s="270"/>
+      <c r="I83" s="270"/>
+      <c r="J83" s="270"/>
+      <c r="K83" s="270"/>
+      <c r="L83" s="270"/>
+      <c r="M83" s="270"/>
+      <c r="N83" s="270"/>
+      <c r="O83" s="270"/>
+      <c r="P83" s="270"/>
+      <c r="Q83" s="270"/>
+      <c r="R83" s="270"/>
+      <c r="S83" s="270"/>
+      <c r="T83" s="270"/>
+      <c r="U83" s="270"/>
+      <c r="V83" s="270"/>
+      <c r="W83" s="270"/>
+      <c r="X83" s="270"/>
+      <c r="Y83" s="270"/>
+      <c r="Z83" s="270"/>
+      <c r="AA83" s="270"/>
+      <c r="AB83" s="270"/>
+      <c r="AC83" s="270"/>
+      <c r="AD83" s="270"/>
+      <c r="AE83" s="270"/>
+      <c r="AF83" s="270"/>
+      <c r="AG83" s="270"/>
+      <c r="AH83" s="270"/>
+      <c r="AI83" s="270"/>
+      <c r="AJ83" s="270"/>
+      <c r="AK83" s="270"/>
+      <c r="AL83" s="270"/>
+      <c r="AM83" s="270"/>
+      <c r="AN83" s="270"/>
+      <c r="AO83" s="270"/>
+      <c r="AP83" s="270"/>
+      <c r="AQ83" s="270"/>
+      <c r="AR83" s="270"/>
+      <c r="AS83" s="270"/>
+      <c r="AT83" s="270"/>
+      <c r="AU83" s="270"/>
+      <c r="AV83" s="270"/>
+      <c r="AW83" s="270"/>
+      <c r="AX83" s="270"/>
+      <c r="AY83" s="270"/>
+      <c r="AZ83" s="270"/>
+      <c r="BA83" s="270"/>
+      <c r="BB83" s="270"/>
+      <c r="BC83" s="270"/>
+      <c r="BD83" s="270"/>
+      <c r="BE83" s="270"/>
+      <c r="BF83" s="270"/>
+      <c r="BG83" s="270"/>
+      <c r="BH83" s="270"/>
+      <c r="BI83" s="270"/>
+      <c r="BJ83" s="270"/>
+      <c r="BK83" s="270"/>
+      <c r="BL83" s="270"/>
+      <c r="BM83" s="270"/>
+      <c r="BN83" s="270"/>
+      <c r="BO83" s="270"/>
+      <c r="BP83" s="270"/>
+      <c r="BQ83" s="270"/>
+      <c r="BR83" s="270"/>
+      <c r="BS83" s="271"/>
     </row>
     <row r="84" spans="2:71" ht="17.25" thickBot="1">
       <c r="B84" s="208" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="C84" s="249" t="s">
+      <c r="C84" s="268" t="s">
         <v>1197</v>
       </c>
-      <c r="D84" s="249"/>
-      <c r="E84" s="249"/>
-      <c r="F84" s="249"/>
-      <c r="G84" s="249"/>
-      <c r="H84" s="249"/>
-      <c r="I84" s="249"/>
-      <c r="J84" s="249"/>
-      <c r="K84" s="249"/>
-      <c r="L84" s="249"/>
-      <c r="M84" s="249"/>
-      <c r="N84" s="249"/>
-      <c r="O84" s="249"/>
-      <c r="P84" s="249"/>
-      <c r="Q84" s="249"/>
-      <c r="R84" s="249"/>
-      <c r="S84" s="249"/>
-      <c r="T84" s="249"/>
-      <c r="U84" s="249"/>
-      <c r="V84" s="249"/>
-      <c r="W84" s="249"/>
-      <c r="X84" s="249"/>
-      <c r="Y84" s="249"/>
-      <c r="Z84" s="249"/>
-      <c r="AA84" s="249"/>
-      <c r="AB84" s="249"/>
-      <c r="AC84" s="249"/>
-      <c r="AD84" s="249"/>
-      <c r="AE84" s="249"/>
-      <c r="AF84" s="249"/>
-      <c r="AG84" s="249"/>
-      <c r="AH84" s="249"/>
-      <c r="AI84" s="249"/>
-      <c r="AJ84" s="249"/>
-      <c r="AK84" s="249"/>
-      <c r="AL84" s="249"/>
-      <c r="AM84" s="249"/>
-      <c r="AN84" s="249"/>
-      <c r="AO84" s="249"/>
-      <c r="AP84" s="249"/>
-      <c r="AQ84" s="249"/>
-      <c r="AR84" s="249"/>
-      <c r="AS84" s="249"/>
-      <c r="AT84" s="249"/>
-      <c r="AU84" s="249"/>
-      <c r="AV84" s="249"/>
-      <c r="AW84" s="249"/>
-      <c r="AX84" s="249"/>
-      <c r="AY84" s="249"/>
-      <c r="AZ84" s="249"/>
-      <c r="BA84" s="249"/>
-      <c r="BB84" s="249"/>
-      <c r="BC84" s="249"/>
-      <c r="BD84" s="249"/>
-      <c r="BE84" s="249"/>
-      <c r="BF84" s="249"/>
-      <c r="BG84" s="249"/>
-      <c r="BH84" s="249"/>
-      <c r="BI84" s="249"/>
-      <c r="BJ84" s="249"/>
-      <c r="BK84" s="249"/>
-      <c r="BL84" s="249"/>
-      <c r="BM84" s="249"/>
-      <c r="BN84" s="249"/>
-      <c r="BO84" s="249"/>
-      <c r="BP84" s="249"/>
-      <c r="BQ84" s="249"/>
-      <c r="BR84" s="249"/>
-      <c r="BS84" s="250"/>
+      <c r="D84" s="268"/>
+      <c r="E84" s="268"/>
+      <c r="F84" s="268"/>
+      <c r="G84" s="268"/>
+      <c r="H84" s="268"/>
+      <c r="I84" s="268"/>
+      <c r="J84" s="268"/>
+      <c r="K84" s="268"/>
+      <c r="L84" s="268"/>
+      <c r="M84" s="268"/>
+      <c r="N84" s="268"/>
+      <c r="O84" s="268"/>
+      <c r="P84" s="268"/>
+      <c r="Q84" s="268"/>
+      <c r="R84" s="268"/>
+      <c r="S84" s="268"/>
+      <c r="T84" s="268"/>
+      <c r="U84" s="268"/>
+      <c r="V84" s="268"/>
+      <c r="W84" s="268"/>
+      <c r="X84" s="268"/>
+      <c r="Y84" s="268"/>
+      <c r="Z84" s="268"/>
+      <c r="AA84" s="268"/>
+      <c r="AB84" s="268"/>
+      <c r="AC84" s="268"/>
+      <c r="AD84" s="268"/>
+      <c r="AE84" s="268"/>
+      <c r="AF84" s="268"/>
+      <c r="AG84" s="268"/>
+      <c r="AH84" s="268"/>
+      <c r="AI84" s="268"/>
+      <c r="AJ84" s="268"/>
+      <c r="AK84" s="268"/>
+      <c r="AL84" s="268"/>
+      <c r="AM84" s="268"/>
+      <c r="AN84" s="268"/>
+      <c r="AO84" s="268"/>
+      <c r="AP84" s="268"/>
+      <c r="AQ84" s="268"/>
+      <c r="AR84" s="268"/>
+      <c r="AS84" s="268"/>
+      <c r="AT84" s="268"/>
+      <c r="AU84" s="268"/>
+      <c r="AV84" s="268"/>
+      <c r="AW84" s="268"/>
+      <c r="AX84" s="268"/>
+      <c r="AY84" s="268"/>
+      <c r="AZ84" s="268"/>
+      <c r="BA84" s="268"/>
+      <c r="BB84" s="268"/>
+      <c r="BC84" s="268"/>
+      <c r="BD84" s="268"/>
+      <c r="BE84" s="268"/>
+      <c r="BF84" s="268"/>
+      <c r="BG84" s="268"/>
+      <c r="BH84" s="268"/>
+      <c r="BI84" s="268"/>
+      <c r="BJ84" s="268"/>
+      <c r="BK84" s="268"/>
+      <c r="BL84" s="268"/>
+      <c r="BM84" s="268"/>
+      <c r="BN84" s="268"/>
+      <c r="BO84" s="268"/>
+      <c r="BP84" s="268"/>
+      <c r="BQ84" s="268"/>
+      <c r="BR84" s="268"/>
+      <c r="BS84" s="269"/>
     </row>
     <row r="85" spans="2:71">
       <c r="B85" s="207" t="str">
         <f t="shared" ref="B85:B91" si="51">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C85" s="251" t="s">
+      <c r="C85" s="264" t="s">
         <v>1196</v>
       </c>
-      <c r="D85" s="251"/>
-      <c r="E85" s="251"/>
-      <c r="F85" s="251"/>
-      <c r="G85" s="251"/>
-      <c r="H85" s="251"/>
-      <c r="I85" s="251"/>
-      <c r="J85" s="251"/>
-      <c r="K85" s="251"/>
-      <c r="L85" s="251"/>
-      <c r="M85" s="251"/>
-      <c r="N85" s="251"/>
-      <c r="O85" s="251"/>
-      <c r="P85" s="251"/>
-      <c r="Q85" s="251"/>
-      <c r="R85" s="251"/>
-      <c r="S85" s="251"/>
-      <c r="T85" s="251"/>
-      <c r="U85" s="251"/>
-      <c r="V85" s="251"/>
-      <c r="W85" s="251"/>
-      <c r="X85" s="251"/>
-      <c r="Y85" s="251"/>
-      <c r="Z85" s="251"/>
-      <c r="AA85" s="251"/>
-      <c r="AB85" s="251"/>
-      <c r="AC85" s="251"/>
-      <c r="AD85" s="251"/>
-      <c r="AE85" s="251"/>
-      <c r="AF85" s="251"/>
-      <c r="AG85" s="251"/>
-      <c r="AH85" s="251"/>
-      <c r="AI85" s="251"/>
-      <c r="AJ85" s="251"/>
-      <c r="AK85" s="251"/>
-      <c r="AL85" s="251"/>
-      <c r="AM85" s="251"/>
-      <c r="AN85" s="251"/>
-      <c r="AO85" s="251"/>
-      <c r="AP85" s="251"/>
-      <c r="AQ85" s="251"/>
-      <c r="AR85" s="251"/>
-      <c r="AS85" s="251"/>
-      <c r="AT85" s="251"/>
-      <c r="AU85" s="251"/>
-      <c r="AV85" s="251"/>
-      <c r="AW85" s="251"/>
-      <c r="AX85" s="251"/>
-      <c r="AY85" s="251"/>
-      <c r="AZ85" s="251"/>
-      <c r="BA85" s="251"/>
-      <c r="BB85" s="251"/>
-      <c r="BC85" s="251"/>
-      <c r="BD85" s="251"/>
-      <c r="BE85" s="251"/>
-      <c r="BF85" s="251"/>
-      <c r="BG85" s="251"/>
-      <c r="BH85" s="251"/>
-      <c r="BI85" s="251"/>
-      <c r="BJ85" s="251"/>
-      <c r="BK85" s="251"/>
-      <c r="BL85" s="251"/>
-      <c r="BM85" s="251"/>
-      <c r="BN85" s="251"/>
-      <c r="BO85" s="251"/>
-      <c r="BP85" s="251"/>
-      <c r="BQ85" s="251"/>
-      <c r="BR85" s="251"/>
-      <c r="BS85" s="252"/>
+      <c r="D85" s="264"/>
+      <c r="E85" s="264"/>
+      <c r="F85" s="264"/>
+      <c r="G85" s="264"/>
+      <c r="H85" s="264"/>
+      <c r="I85" s="264"/>
+      <c r="J85" s="264"/>
+      <c r="K85" s="264"/>
+      <c r="L85" s="264"/>
+      <c r="M85" s="264"/>
+      <c r="N85" s="264"/>
+      <c r="O85" s="264"/>
+      <c r="P85" s="264"/>
+      <c r="Q85" s="264"/>
+      <c r="R85" s="264"/>
+      <c r="S85" s="264"/>
+      <c r="T85" s="264"/>
+      <c r="U85" s="264"/>
+      <c r="V85" s="264"/>
+      <c r="W85" s="264"/>
+      <c r="X85" s="264"/>
+      <c r="Y85" s="264"/>
+      <c r="Z85" s="264"/>
+      <c r="AA85" s="264"/>
+      <c r="AB85" s="264"/>
+      <c r="AC85" s="264"/>
+      <c r="AD85" s="264"/>
+      <c r="AE85" s="264"/>
+      <c r="AF85" s="264"/>
+      <c r="AG85" s="264"/>
+      <c r="AH85" s="264"/>
+      <c r="AI85" s="264"/>
+      <c r="AJ85" s="264"/>
+      <c r="AK85" s="264"/>
+      <c r="AL85" s="264"/>
+      <c r="AM85" s="264"/>
+      <c r="AN85" s="264"/>
+      <c r="AO85" s="264"/>
+      <c r="AP85" s="264"/>
+      <c r="AQ85" s="264"/>
+      <c r="AR85" s="264"/>
+      <c r="AS85" s="264"/>
+      <c r="AT85" s="264"/>
+      <c r="AU85" s="264"/>
+      <c r="AV85" s="264"/>
+      <c r="AW85" s="264"/>
+      <c r="AX85" s="264"/>
+      <c r="AY85" s="264"/>
+      <c r="AZ85" s="264"/>
+      <c r="BA85" s="264"/>
+      <c r="BB85" s="264"/>
+      <c r="BC85" s="264"/>
+      <c r="BD85" s="264"/>
+      <c r="BE85" s="264"/>
+      <c r="BF85" s="264"/>
+      <c r="BG85" s="264"/>
+      <c r="BH85" s="264"/>
+      <c r="BI85" s="264"/>
+      <c r="BJ85" s="264"/>
+      <c r="BK85" s="264"/>
+      <c r="BL85" s="264"/>
+      <c r="BM85" s="264"/>
+      <c r="BN85" s="264"/>
+      <c r="BO85" s="264"/>
+      <c r="BP85" s="264"/>
+      <c r="BQ85" s="264"/>
+      <c r="BR85" s="264"/>
+      <c r="BS85" s="265"/>
     </row>
     <row r="86" spans="2:71">
       <c r="B86" s="205" t="str">
         <f t="shared" si="51"/>
         <v>0.1</v>
       </c>
-      <c r="C86" s="253" t="s">
+      <c r="C86" s="266" t="s">
         <v>1195</v>
       </c>
-      <c r="D86" s="253"/>
-      <c r="E86" s="253"/>
-      <c r="F86" s="253"/>
-      <c r="G86" s="253"/>
-      <c r="H86" s="253"/>
-      <c r="I86" s="253"/>
-      <c r="J86" s="253"/>
-      <c r="K86" s="253"/>
-      <c r="L86" s="253"/>
-      <c r="M86" s="253"/>
-      <c r="N86" s="253"/>
-      <c r="O86" s="253"/>
-      <c r="P86" s="253"/>
-      <c r="Q86" s="253"/>
-      <c r="R86" s="253"/>
-      <c r="S86" s="253"/>
-      <c r="T86" s="253"/>
-      <c r="U86" s="253"/>
-      <c r="V86" s="253"/>
-      <c r="W86" s="253"/>
-      <c r="X86" s="253"/>
-      <c r="Y86" s="253"/>
-      <c r="Z86" s="253"/>
-      <c r="AA86" s="253"/>
-      <c r="AB86" s="253"/>
-      <c r="AC86" s="253"/>
-      <c r="AD86" s="253"/>
-      <c r="AE86" s="253"/>
-      <c r="AF86" s="253"/>
-      <c r="AG86" s="253"/>
-      <c r="AH86" s="253"/>
-      <c r="AI86" s="253"/>
-      <c r="AJ86" s="253"/>
-      <c r="AK86" s="253"/>
-      <c r="AL86" s="253"/>
-      <c r="AM86" s="253"/>
-      <c r="AN86" s="253"/>
-      <c r="AO86" s="253"/>
-      <c r="AP86" s="253"/>
-      <c r="AQ86" s="253"/>
-      <c r="AR86" s="253"/>
-      <c r="AS86" s="253"/>
-      <c r="AT86" s="253"/>
-      <c r="AU86" s="253"/>
-      <c r="AV86" s="253"/>
-      <c r="AW86" s="253"/>
-      <c r="AX86" s="253"/>
-      <c r="AY86" s="253"/>
-      <c r="AZ86" s="253"/>
-      <c r="BA86" s="253"/>
-      <c r="BB86" s="253"/>
-      <c r="BC86" s="253"/>
-      <c r="BD86" s="253"/>
-      <c r="BE86" s="253"/>
-      <c r="BF86" s="253"/>
-      <c r="BG86" s="253"/>
-      <c r="BH86" s="253"/>
-      <c r="BI86" s="253"/>
-      <c r="BJ86" s="253"/>
-      <c r="BK86" s="253"/>
-      <c r="BL86" s="253"/>
-      <c r="BM86" s="253"/>
-      <c r="BN86" s="253"/>
-      <c r="BO86" s="253"/>
-      <c r="BP86" s="253"/>
-      <c r="BQ86" s="253"/>
-      <c r="BR86" s="253"/>
-      <c r="BS86" s="254"/>
+      <c r="D86" s="266"/>
+      <c r="E86" s="266"/>
+      <c r="F86" s="266"/>
+      <c r="G86" s="266"/>
+      <c r="H86" s="266"/>
+      <c r="I86" s="266"/>
+      <c r="J86" s="266"/>
+      <c r="K86" s="266"/>
+      <c r="L86" s="266"/>
+      <c r="M86" s="266"/>
+      <c r="N86" s="266"/>
+      <c r="O86" s="266"/>
+      <c r="P86" s="266"/>
+      <c r="Q86" s="266"/>
+      <c r="R86" s="266"/>
+      <c r="S86" s="266"/>
+      <c r="T86" s="266"/>
+      <c r="U86" s="266"/>
+      <c r="V86" s="266"/>
+      <c r="W86" s="266"/>
+      <c r="X86" s="266"/>
+      <c r="Y86" s="266"/>
+      <c r="Z86" s="266"/>
+      <c r="AA86" s="266"/>
+      <c r="AB86" s="266"/>
+      <c r="AC86" s="266"/>
+      <c r="AD86" s="266"/>
+      <c r="AE86" s="266"/>
+      <c r="AF86" s="266"/>
+      <c r="AG86" s="266"/>
+      <c r="AH86" s="266"/>
+      <c r="AI86" s="266"/>
+      <c r="AJ86" s="266"/>
+      <c r="AK86" s="266"/>
+      <c r="AL86" s="266"/>
+      <c r="AM86" s="266"/>
+      <c r="AN86" s="266"/>
+      <c r="AO86" s="266"/>
+      <c r="AP86" s="266"/>
+      <c r="AQ86" s="266"/>
+      <c r="AR86" s="266"/>
+      <c r="AS86" s="266"/>
+      <c r="AT86" s="266"/>
+      <c r="AU86" s="266"/>
+      <c r="AV86" s="266"/>
+      <c r="AW86" s="266"/>
+      <c r="AX86" s="266"/>
+      <c r="AY86" s="266"/>
+      <c r="AZ86" s="266"/>
+      <c r="BA86" s="266"/>
+      <c r="BB86" s="266"/>
+      <c r="BC86" s="266"/>
+      <c r="BD86" s="266"/>
+      <c r="BE86" s="266"/>
+      <c r="BF86" s="266"/>
+      <c r="BG86" s="266"/>
+      <c r="BH86" s="266"/>
+      <c r="BI86" s="266"/>
+      <c r="BJ86" s="266"/>
+      <c r="BK86" s="266"/>
+      <c r="BL86" s="266"/>
+      <c r="BM86" s="266"/>
+      <c r="BN86" s="266"/>
+      <c r="BO86" s="266"/>
+      <c r="BP86" s="266"/>
+      <c r="BQ86" s="266"/>
+      <c r="BR86" s="266"/>
+      <c r="BS86" s="267"/>
     </row>
     <row r="87" spans="2:71">
       <c r="B87" s="205" t="str">
         <f t="shared" si="51"/>
         <v>0.1</v>
       </c>
-      <c r="C87" s="253" t="s">
+      <c r="C87" s="266" t="s">
         <v>1194</v>
       </c>
-      <c r="D87" s="253"/>
-      <c r="E87" s="253"/>
-      <c r="F87" s="253"/>
-      <c r="G87" s="253"/>
-      <c r="H87" s="253"/>
-      <c r="I87" s="253"/>
-      <c r="J87" s="253"/>
-      <c r="K87" s="253"/>
-      <c r="L87" s="253"/>
-      <c r="M87" s="253"/>
-      <c r="N87" s="253"/>
-      <c r="O87" s="253"/>
-      <c r="P87" s="253"/>
-      <c r="Q87" s="253"/>
-      <c r="R87" s="253"/>
-      <c r="S87" s="253"/>
-      <c r="T87" s="253"/>
-      <c r="U87" s="253"/>
-      <c r="V87" s="253"/>
-      <c r="W87" s="253"/>
-      <c r="X87" s="253"/>
-      <c r="Y87" s="253"/>
-      <c r="Z87" s="253"/>
-      <c r="AA87" s="253"/>
-      <c r="AB87" s="253"/>
-      <c r="AC87" s="253"/>
-      <c r="AD87" s="253"/>
-      <c r="AE87" s="253"/>
-      <c r="AF87" s="253"/>
-      <c r="AG87" s="253"/>
-      <c r="AH87" s="253"/>
-      <c r="AI87" s="253"/>
-      <c r="AJ87" s="253"/>
-      <c r="AK87" s="253"/>
-      <c r="AL87" s="253"/>
-      <c r="AM87" s="253"/>
-      <c r="AN87" s="253"/>
-      <c r="AO87" s="253"/>
-      <c r="AP87" s="253"/>
-      <c r="AQ87" s="253"/>
-      <c r="AR87" s="253"/>
-      <c r="AS87" s="253"/>
-      <c r="AT87" s="253"/>
-      <c r="AU87" s="253"/>
-      <c r="AV87" s="253"/>
-      <c r="AW87" s="253"/>
-      <c r="AX87" s="253"/>
-      <c r="AY87" s="253"/>
-      <c r="AZ87" s="253"/>
-      <c r="BA87" s="253"/>
-      <c r="BB87" s="253"/>
-      <c r="BC87" s="253"/>
-      <c r="BD87" s="253"/>
-      <c r="BE87" s="253"/>
-      <c r="BF87" s="253"/>
-      <c r="BG87" s="253"/>
-      <c r="BH87" s="253"/>
-      <c r="BI87" s="253"/>
-      <c r="BJ87" s="253"/>
-      <c r="BK87" s="253"/>
-      <c r="BL87" s="253"/>
-      <c r="BM87" s="253"/>
-      <c r="BN87" s="253"/>
-      <c r="BO87" s="253"/>
-      <c r="BP87" s="253"/>
-      <c r="BQ87" s="253"/>
-      <c r="BR87" s="253"/>
-      <c r="BS87" s="254"/>
+      <c r="D87" s="266"/>
+      <c r="E87" s="266"/>
+      <c r="F87" s="266"/>
+      <c r="G87" s="266"/>
+      <c r="H87" s="266"/>
+      <c r="I87" s="266"/>
+      <c r="J87" s="266"/>
+      <c r="K87" s="266"/>
+      <c r="L87" s="266"/>
+      <c r="M87" s="266"/>
+      <c r="N87" s="266"/>
+      <c r="O87" s="266"/>
+      <c r="P87" s="266"/>
+      <c r="Q87" s="266"/>
+      <c r="R87" s="266"/>
+      <c r="S87" s="266"/>
+      <c r="T87" s="266"/>
+      <c r="U87" s="266"/>
+      <c r="V87" s="266"/>
+      <c r="W87" s="266"/>
+      <c r="X87" s="266"/>
+      <c r="Y87" s="266"/>
+      <c r="Z87" s="266"/>
+      <c r="AA87" s="266"/>
+      <c r="AB87" s="266"/>
+      <c r="AC87" s="266"/>
+      <c r="AD87" s="266"/>
+      <c r="AE87" s="266"/>
+      <c r="AF87" s="266"/>
+      <c r="AG87" s="266"/>
+      <c r="AH87" s="266"/>
+      <c r="AI87" s="266"/>
+      <c r="AJ87" s="266"/>
+      <c r="AK87" s="266"/>
+      <c r="AL87" s="266"/>
+      <c r="AM87" s="266"/>
+      <c r="AN87" s="266"/>
+      <c r="AO87" s="266"/>
+      <c r="AP87" s="266"/>
+      <c r="AQ87" s="266"/>
+      <c r="AR87" s="266"/>
+      <c r="AS87" s="266"/>
+      <c r="AT87" s="266"/>
+      <c r="AU87" s="266"/>
+      <c r="AV87" s="266"/>
+      <c r="AW87" s="266"/>
+      <c r="AX87" s="266"/>
+      <c r="AY87" s="266"/>
+      <c r="AZ87" s="266"/>
+      <c r="BA87" s="266"/>
+      <c r="BB87" s="266"/>
+      <c r="BC87" s="266"/>
+      <c r="BD87" s="266"/>
+      <c r="BE87" s="266"/>
+      <c r="BF87" s="266"/>
+      <c r="BG87" s="266"/>
+      <c r="BH87" s="266"/>
+      <c r="BI87" s="266"/>
+      <c r="BJ87" s="266"/>
+      <c r="BK87" s="266"/>
+      <c r="BL87" s="266"/>
+      <c r="BM87" s="266"/>
+      <c r="BN87" s="266"/>
+      <c r="BO87" s="266"/>
+      <c r="BP87" s="266"/>
+      <c r="BQ87" s="266"/>
+      <c r="BR87" s="266"/>
+      <c r="BS87" s="267"/>
     </row>
     <row r="88" spans="2:71">
       <c r="B88" s="205" t="str">
         <f t="shared" si="51"/>
         <v>0.1</v>
       </c>
-      <c r="C88" s="253" t="s">
+      <c r="C88" s="266" t="s">
         <v>1193</v>
       </c>
-      <c r="D88" s="253"/>
-      <c r="E88" s="253"/>
-      <c r="F88" s="253"/>
-      <c r="G88" s="253"/>
-      <c r="H88" s="253"/>
-      <c r="I88" s="253"/>
-      <c r="J88" s="253"/>
-      <c r="K88" s="253"/>
-      <c r="L88" s="253"/>
-      <c r="M88" s="253"/>
-      <c r="N88" s="253"/>
-      <c r="O88" s="253"/>
-      <c r="P88" s="253"/>
-      <c r="Q88" s="253"/>
-      <c r="R88" s="253"/>
-      <c r="S88" s="253"/>
-      <c r="T88" s="253"/>
-      <c r="U88" s="253"/>
-      <c r="V88" s="253"/>
-      <c r="W88" s="253"/>
-      <c r="X88" s="253"/>
-      <c r="Y88" s="253"/>
-      <c r="Z88" s="253"/>
-      <c r="AA88" s="253"/>
-      <c r="AB88" s="253"/>
-      <c r="AC88" s="253"/>
-      <c r="AD88" s="253"/>
-      <c r="AE88" s="253"/>
-      <c r="AF88" s="253"/>
-      <c r="AG88" s="253"/>
-      <c r="AH88" s="253"/>
-      <c r="AI88" s="253"/>
-      <c r="AJ88" s="253"/>
-      <c r="AK88" s="253"/>
-      <c r="AL88" s="253"/>
-      <c r="AM88" s="253"/>
-      <c r="AN88" s="253"/>
-      <c r="AO88" s="253"/>
-      <c r="AP88" s="253"/>
-      <c r="AQ88" s="253"/>
-      <c r="AR88" s="253"/>
-      <c r="AS88" s="253"/>
-      <c r="AT88" s="253"/>
-      <c r="AU88" s="253"/>
-      <c r="AV88" s="253"/>
-      <c r="AW88" s="253"/>
-      <c r="AX88" s="253"/>
-      <c r="AY88" s="253"/>
-      <c r="AZ88" s="253"/>
-      <c r="BA88" s="253"/>
-      <c r="BB88" s="253"/>
-      <c r="BC88" s="253"/>
-      <c r="BD88" s="253"/>
-      <c r="BE88" s="253"/>
-      <c r="BF88" s="253"/>
-      <c r="BG88" s="253"/>
-      <c r="BH88" s="253"/>
-      <c r="BI88" s="253"/>
-      <c r="BJ88" s="253"/>
-      <c r="BK88" s="253"/>
-      <c r="BL88" s="253"/>
-      <c r="BM88" s="253"/>
-      <c r="BN88" s="253"/>
-      <c r="BO88" s="253"/>
-      <c r="BP88" s="253"/>
-      <c r="BQ88" s="253"/>
-      <c r="BR88" s="253"/>
-      <c r="BS88" s="254"/>
+      <c r="D88" s="266"/>
+      <c r="E88" s="266"/>
+      <c r="F88" s="266"/>
+      <c r="G88" s="266"/>
+      <c r="H88" s="266"/>
+      <c r="I88" s="266"/>
+      <c r="J88" s="266"/>
+      <c r="K88" s="266"/>
+      <c r="L88" s="266"/>
+      <c r="M88" s="266"/>
+      <c r="N88" s="266"/>
+      <c r="O88" s="266"/>
+      <c r="P88" s="266"/>
+      <c r="Q88" s="266"/>
+      <c r="R88" s="266"/>
+      <c r="S88" s="266"/>
+      <c r="T88" s="266"/>
+      <c r="U88" s="266"/>
+      <c r="V88" s="266"/>
+      <c r="W88" s="266"/>
+      <c r="X88" s="266"/>
+      <c r="Y88" s="266"/>
+      <c r="Z88" s="266"/>
+      <c r="AA88" s="266"/>
+      <c r="AB88" s="266"/>
+      <c r="AC88" s="266"/>
+      <c r="AD88" s="266"/>
+      <c r="AE88" s="266"/>
+      <c r="AF88" s="266"/>
+      <c r="AG88" s="266"/>
+      <c r="AH88" s="266"/>
+      <c r="AI88" s="266"/>
+      <c r="AJ88" s="266"/>
+      <c r="AK88" s="266"/>
+      <c r="AL88" s="266"/>
+      <c r="AM88" s="266"/>
+      <c r="AN88" s="266"/>
+      <c r="AO88" s="266"/>
+      <c r="AP88" s="266"/>
+      <c r="AQ88" s="266"/>
+      <c r="AR88" s="266"/>
+      <c r="AS88" s="266"/>
+      <c r="AT88" s="266"/>
+      <c r="AU88" s="266"/>
+      <c r="AV88" s="266"/>
+      <c r="AW88" s="266"/>
+      <c r="AX88" s="266"/>
+      <c r="AY88" s="266"/>
+      <c r="AZ88" s="266"/>
+      <c r="BA88" s="266"/>
+      <c r="BB88" s="266"/>
+      <c r="BC88" s="266"/>
+      <c r="BD88" s="266"/>
+      <c r="BE88" s="266"/>
+      <c r="BF88" s="266"/>
+      <c r="BG88" s="266"/>
+      <c r="BH88" s="266"/>
+      <c r="BI88" s="266"/>
+      <c r="BJ88" s="266"/>
+      <c r="BK88" s="266"/>
+      <c r="BL88" s="266"/>
+      <c r="BM88" s="266"/>
+      <c r="BN88" s="266"/>
+      <c r="BO88" s="266"/>
+      <c r="BP88" s="266"/>
+      <c r="BQ88" s="266"/>
+      <c r="BR88" s="266"/>
+      <c r="BS88" s="267"/>
     </row>
     <row r="89" spans="2:71">
       <c r="B89" s="205" t="str">
         <f t="shared" si="51"/>
         <v>0.1</v>
       </c>
-      <c r="C89" s="253" t="s">
+      <c r="C89" s="266" t="s">
         <v>1192</v>
       </c>
-      <c r="D89" s="253"/>
-      <c r="E89" s="253"/>
-      <c r="F89" s="253"/>
-      <c r="G89" s="253"/>
-      <c r="H89" s="253"/>
-      <c r="I89" s="253"/>
-      <c r="J89" s="253"/>
-      <c r="K89" s="253"/>
-      <c r="L89" s="253"/>
-      <c r="M89" s="253"/>
-      <c r="N89" s="253"/>
-      <c r="O89" s="253"/>
-      <c r="P89" s="253"/>
-      <c r="Q89" s="253"/>
-      <c r="R89" s="253"/>
-      <c r="S89" s="253"/>
-      <c r="T89" s="253"/>
-      <c r="U89" s="253"/>
-      <c r="V89" s="253"/>
-      <c r="W89" s="253"/>
-      <c r="X89" s="253"/>
-      <c r="Y89" s="253"/>
-      <c r="Z89" s="253"/>
-      <c r="AA89" s="253"/>
-      <c r="AB89" s="253"/>
-      <c r="AC89" s="253"/>
-      <c r="AD89" s="253"/>
-      <c r="AE89" s="253"/>
-      <c r="AF89" s="253"/>
-      <c r="AG89" s="253"/>
-      <c r="AH89" s="253"/>
-      <c r="AI89" s="253"/>
-      <c r="AJ89" s="253"/>
-      <c r="AK89" s="253"/>
-      <c r="AL89" s="253"/>
-      <c r="AM89" s="253"/>
-      <c r="AN89" s="253"/>
-      <c r="AO89" s="253"/>
-      <c r="AP89" s="253"/>
-      <c r="AQ89" s="253"/>
-      <c r="AR89" s="253"/>
-      <c r="AS89" s="253"/>
-      <c r="AT89" s="253"/>
-      <c r="AU89" s="253"/>
-      <c r="AV89" s="253"/>
-      <c r="AW89" s="253"/>
-      <c r="AX89" s="253"/>
-      <c r="AY89" s="253"/>
-      <c r="AZ89" s="253"/>
-      <c r="BA89" s="253"/>
-      <c r="BB89" s="253"/>
-      <c r="BC89" s="253"/>
-      <c r="BD89" s="253"/>
-      <c r="BE89" s="253"/>
-      <c r="BF89" s="253"/>
-      <c r="BG89" s="253"/>
-      <c r="BH89" s="253"/>
-      <c r="BI89" s="253"/>
-      <c r="BJ89" s="253"/>
-      <c r="BK89" s="253"/>
-      <c r="BL89" s="253"/>
-      <c r="BM89" s="253"/>
-      <c r="BN89" s="253"/>
-      <c r="BO89" s="253"/>
-      <c r="BP89" s="253"/>
-      <c r="BQ89" s="253"/>
-      <c r="BR89" s="253"/>
-      <c r="BS89" s="254"/>
+      <c r="D89" s="266"/>
+      <c r="E89" s="266"/>
+      <c r="F89" s="266"/>
+      <c r="G89" s="266"/>
+      <c r="H89" s="266"/>
+      <c r="I89" s="266"/>
+      <c r="J89" s="266"/>
+      <c r="K89" s="266"/>
+      <c r="L89" s="266"/>
+      <c r="M89" s="266"/>
+      <c r="N89" s="266"/>
+      <c r="O89" s="266"/>
+      <c r="P89" s="266"/>
+      <c r="Q89" s="266"/>
+      <c r="R89" s="266"/>
+      <c r="S89" s="266"/>
+      <c r="T89" s="266"/>
+      <c r="U89" s="266"/>
+      <c r="V89" s="266"/>
+      <c r="W89" s="266"/>
+      <c r="X89" s="266"/>
+      <c r="Y89" s="266"/>
+      <c r="Z89" s="266"/>
+      <c r="AA89" s="266"/>
+      <c r="AB89" s="266"/>
+      <c r="AC89" s="266"/>
+      <c r="AD89" s="266"/>
+      <c r="AE89" s="266"/>
+      <c r="AF89" s="266"/>
+      <c r="AG89" s="266"/>
+      <c r="AH89" s="266"/>
+      <c r="AI89" s="266"/>
+      <c r="AJ89" s="266"/>
+      <c r="AK89" s="266"/>
+      <c r="AL89" s="266"/>
+      <c r="AM89" s="266"/>
+      <c r="AN89" s="266"/>
+      <c r="AO89" s="266"/>
+      <c r="AP89" s="266"/>
+      <c r="AQ89" s="266"/>
+      <c r="AR89" s="266"/>
+      <c r="AS89" s="266"/>
+      <c r="AT89" s="266"/>
+      <c r="AU89" s="266"/>
+      <c r="AV89" s="266"/>
+      <c r="AW89" s="266"/>
+      <c r="AX89" s="266"/>
+      <c r="AY89" s="266"/>
+      <c r="AZ89" s="266"/>
+      <c r="BA89" s="266"/>
+      <c r="BB89" s="266"/>
+      <c r="BC89" s="266"/>
+      <c r="BD89" s="266"/>
+      <c r="BE89" s="266"/>
+      <c r="BF89" s="266"/>
+      <c r="BG89" s="266"/>
+      <c r="BH89" s="266"/>
+      <c r="BI89" s="266"/>
+      <c r="BJ89" s="266"/>
+      <c r="BK89" s="266"/>
+      <c r="BL89" s="266"/>
+      <c r="BM89" s="266"/>
+      <c r="BN89" s="266"/>
+      <c r="BO89" s="266"/>
+      <c r="BP89" s="266"/>
+      <c r="BQ89" s="266"/>
+      <c r="BR89" s="266"/>
+      <c r="BS89" s="267"/>
     </row>
     <row r="90" spans="2:71">
       <c r="B90" s="205" t="str">
         <f t="shared" si="51"/>
         <v>0.1</v>
       </c>
-      <c r="C90" s="253" t="s">
+      <c r="C90" s="266" t="s">
         <v>1191</v>
       </c>
-      <c r="D90" s="253"/>
-      <c r="E90" s="253"/>
-      <c r="F90" s="253"/>
-      <c r="G90" s="253"/>
-      <c r="H90" s="253"/>
-      <c r="I90" s="253"/>
-      <c r="J90" s="253"/>
-      <c r="K90" s="253"/>
-      <c r="L90" s="253"/>
-      <c r="M90" s="253"/>
-      <c r="N90" s="253"/>
-      <c r="O90" s="253"/>
-      <c r="P90" s="253"/>
-      <c r="Q90" s="253"/>
-      <c r="R90" s="253"/>
-      <c r="S90" s="253"/>
-      <c r="T90" s="253"/>
-      <c r="U90" s="253"/>
-      <c r="V90" s="253"/>
-      <c r="W90" s="253"/>
-      <c r="X90" s="253"/>
-      <c r="Y90" s="253"/>
-      <c r="Z90" s="253"/>
-      <c r="AA90" s="253"/>
-      <c r="AB90" s="253"/>
-      <c r="AC90" s="253"/>
-      <c r="AD90" s="253"/>
-      <c r="AE90" s="253"/>
-      <c r="AF90" s="253"/>
-      <c r="AG90" s="253"/>
-      <c r="AH90" s="253"/>
-      <c r="AI90" s="253"/>
-      <c r="AJ90" s="253"/>
-      <c r="AK90" s="253"/>
-      <c r="AL90" s="253"/>
-      <c r="AM90" s="253"/>
-      <c r="AN90" s="253"/>
-      <c r="AO90" s="253"/>
-      <c r="AP90" s="253"/>
-      <c r="AQ90" s="253"/>
-      <c r="AR90" s="253"/>
-      <c r="AS90" s="253"/>
-      <c r="AT90" s="253"/>
-      <c r="AU90" s="253"/>
-      <c r="AV90" s="253"/>
-      <c r="AW90" s="253"/>
-      <c r="AX90" s="253"/>
-      <c r="AY90" s="253"/>
-      <c r="AZ90" s="253"/>
-      <c r="BA90" s="253"/>
-      <c r="BB90" s="253"/>
-      <c r="BC90" s="253"/>
-      <c r="BD90" s="253"/>
-      <c r="BE90" s="253"/>
-      <c r="BF90" s="253"/>
-      <c r="BG90" s="253"/>
-      <c r="BH90" s="253"/>
-      <c r="BI90" s="253"/>
-      <c r="BJ90" s="253"/>
-      <c r="BK90" s="253"/>
-      <c r="BL90" s="253"/>
-      <c r="BM90" s="253"/>
-      <c r="BN90" s="253"/>
-      <c r="BO90" s="253"/>
-      <c r="BP90" s="253"/>
-      <c r="BQ90" s="253"/>
-      <c r="BR90" s="253"/>
-      <c r="BS90" s="254"/>
+      <c r="D90" s="266"/>
+      <c r="E90" s="266"/>
+      <c r="F90" s="266"/>
+      <c r="G90" s="266"/>
+      <c r="H90" s="266"/>
+      <c r="I90" s="266"/>
+      <c r="J90" s="266"/>
+      <c r="K90" s="266"/>
+      <c r="L90" s="266"/>
+      <c r="M90" s="266"/>
+      <c r="N90" s="266"/>
+      <c r="O90" s="266"/>
+      <c r="P90" s="266"/>
+      <c r="Q90" s="266"/>
+      <c r="R90" s="266"/>
+      <c r="S90" s="266"/>
+      <c r="T90" s="266"/>
+      <c r="U90" s="266"/>
+      <c r="V90" s="266"/>
+      <c r="W90" s="266"/>
+      <c r="X90" s="266"/>
+      <c r="Y90" s="266"/>
+      <c r="Z90" s="266"/>
+      <c r="AA90" s="266"/>
+      <c r="AB90" s="266"/>
+      <c r="AC90" s="266"/>
+      <c r="AD90" s="266"/>
+      <c r="AE90" s="266"/>
+      <c r="AF90" s="266"/>
+      <c r="AG90" s="266"/>
+      <c r="AH90" s="266"/>
+      <c r="AI90" s="266"/>
+      <c r="AJ90" s="266"/>
+      <c r="AK90" s="266"/>
+      <c r="AL90" s="266"/>
+      <c r="AM90" s="266"/>
+      <c r="AN90" s="266"/>
+      <c r="AO90" s="266"/>
+      <c r="AP90" s="266"/>
+      <c r="AQ90" s="266"/>
+      <c r="AR90" s="266"/>
+      <c r="AS90" s="266"/>
+      <c r="AT90" s="266"/>
+      <c r="AU90" s="266"/>
+      <c r="AV90" s="266"/>
+      <c r="AW90" s="266"/>
+      <c r="AX90" s="266"/>
+      <c r="AY90" s="266"/>
+      <c r="AZ90" s="266"/>
+      <c r="BA90" s="266"/>
+      <c r="BB90" s="266"/>
+      <c r="BC90" s="266"/>
+      <c r="BD90" s="266"/>
+      <c r="BE90" s="266"/>
+      <c r="BF90" s="266"/>
+      <c r="BG90" s="266"/>
+      <c r="BH90" s="266"/>
+      <c r="BI90" s="266"/>
+      <c r="BJ90" s="266"/>
+      <c r="BK90" s="266"/>
+      <c r="BL90" s="266"/>
+      <c r="BM90" s="266"/>
+      <c r="BN90" s="266"/>
+      <c r="BO90" s="266"/>
+      <c r="BP90" s="266"/>
+      <c r="BQ90" s="266"/>
+      <c r="BR90" s="266"/>
+      <c r="BS90" s="267"/>
     </row>
     <row r="91" spans="2:71" ht="17.25" thickBot="1">
       <c r="B91" s="204" t="str">
         <f t="shared" si="51"/>
         <v>0.1</v>
       </c>
-      <c r="C91" s="255" t="s">
+      <c r="C91" s="270" t="s">
         <v>1190</v>
       </c>
-      <c r="D91" s="255"/>
-      <c r="E91" s="255"/>
-      <c r="F91" s="255"/>
-      <c r="G91" s="255"/>
-      <c r="H91" s="255"/>
-      <c r="I91" s="255"/>
-      <c r="J91" s="255"/>
-      <c r="K91" s="255"/>
-      <c r="L91" s="255"/>
-      <c r="M91" s="255"/>
-      <c r="N91" s="255"/>
-      <c r="O91" s="255"/>
-      <c r="P91" s="255"/>
-      <c r="Q91" s="255"/>
-      <c r="R91" s="255"/>
-      <c r="S91" s="255"/>
-      <c r="T91" s="255"/>
-      <c r="U91" s="255"/>
-      <c r="V91" s="255"/>
-      <c r="W91" s="255"/>
-      <c r="X91" s="255"/>
-      <c r="Y91" s="255"/>
-      <c r="Z91" s="255"/>
-      <c r="AA91" s="255"/>
-      <c r="AB91" s="255"/>
-      <c r="AC91" s="255"/>
-      <c r="AD91" s="255"/>
-      <c r="AE91" s="255"/>
-      <c r="AF91" s="255"/>
-      <c r="AG91" s="255"/>
-      <c r="AH91" s="255"/>
-      <c r="AI91" s="255"/>
-      <c r="AJ91" s="255"/>
-      <c r="AK91" s="255"/>
-      <c r="AL91" s="255"/>
-      <c r="AM91" s="255"/>
-      <c r="AN91" s="255"/>
-      <c r="AO91" s="255"/>
-      <c r="AP91" s="255"/>
-      <c r="AQ91" s="255"/>
-      <c r="AR91" s="255"/>
-      <c r="AS91" s="255"/>
-      <c r="AT91" s="255"/>
-      <c r="AU91" s="255"/>
-      <c r="AV91" s="255"/>
-      <c r="AW91" s="255"/>
-      <c r="AX91" s="255"/>
-      <c r="AY91" s="255"/>
-      <c r="AZ91" s="255"/>
-      <c r="BA91" s="255"/>
-      <c r="BB91" s="255"/>
-      <c r="BC91" s="255"/>
-      <c r="BD91" s="255"/>
-      <c r="BE91" s="255"/>
-      <c r="BF91" s="255"/>
-      <c r="BG91" s="255"/>
-      <c r="BH91" s="255"/>
-      <c r="BI91" s="255"/>
-      <c r="BJ91" s="255"/>
-      <c r="BK91" s="255"/>
-      <c r="BL91" s="255"/>
-      <c r="BM91" s="255"/>
-      <c r="BN91" s="255"/>
-      <c r="BO91" s="255"/>
-      <c r="BP91" s="255"/>
-      <c r="BQ91" s="255"/>
-      <c r="BR91" s="255"/>
-      <c r="BS91" s="256"/>
+      <c r="D91" s="270"/>
+      <c r="E91" s="270"/>
+      <c r="F91" s="270"/>
+      <c r="G91" s="270"/>
+      <c r="H91" s="270"/>
+      <c r="I91" s="270"/>
+      <c r="J91" s="270"/>
+      <c r="K91" s="270"/>
+      <c r="L91" s="270"/>
+      <c r="M91" s="270"/>
+      <c r="N91" s="270"/>
+      <c r="O91" s="270"/>
+      <c r="P91" s="270"/>
+      <c r="Q91" s="270"/>
+      <c r="R91" s="270"/>
+      <c r="S91" s="270"/>
+      <c r="T91" s="270"/>
+      <c r="U91" s="270"/>
+      <c r="V91" s="270"/>
+      <c r="W91" s="270"/>
+      <c r="X91" s="270"/>
+      <c r="Y91" s="270"/>
+      <c r="Z91" s="270"/>
+      <c r="AA91" s="270"/>
+      <c r="AB91" s="270"/>
+      <c r="AC91" s="270"/>
+      <c r="AD91" s="270"/>
+      <c r="AE91" s="270"/>
+      <c r="AF91" s="270"/>
+      <c r="AG91" s="270"/>
+      <c r="AH91" s="270"/>
+      <c r="AI91" s="270"/>
+      <c r="AJ91" s="270"/>
+      <c r="AK91" s="270"/>
+      <c r="AL91" s="270"/>
+      <c r="AM91" s="270"/>
+      <c r="AN91" s="270"/>
+      <c r="AO91" s="270"/>
+      <c r="AP91" s="270"/>
+      <c r="AQ91" s="270"/>
+      <c r="AR91" s="270"/>
+      <c r="AS91" s="270"/>
+      <c r="AT91" s="270"/>
+      <c r="AU91" s="270"/>
+      <c r="AV91" s="270"/>
+      <c r="AW91" s="270"/>
+      <c r="AX91" s="270"/>
+      <c r="AY91" s="270"/>
+      <c r="AZ91" s="270"/>
+      <c r="BA91" s="270"/>
+      <c r="BB91" s="270"/>
+      <c r="BC91" s="270"/>
+      <c r="BD91" s="270"/>
+      <c r="BE91" s="270"/>
+      <c r="BF91" s="270"/>
+      <c r="BG91" s="270"/>
+      <c r="BH91" s="270"/>
+      <c r="BI91" s="270"/>
+      <c r="BJ91" s="270"/>
+      <c r="BK91" s="270"/>
+      <c r="BL91" s="270"/>
+      <c r="BM91" s="270"/>
+      <c r="BN91" s="270"/>
+      <c r="BO91" s="270"/>
+      <c r="BP91" s="270"/>
+      <c r="BQ91" s="270"/>
+      <c r="BR91" s="270"/>
+      <c r="BS91" s="271"/>
     </row>
     <row r="92" spans="2:71" ht="17.25" thickBot="1">
       <c r="B92" s="208" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="C92" s="249" t="s">
+      <c r="C92" s="268" t="s">
         <v>1189</v>
       </c>
-      <c r="D92" s="249"/>
-      <c r="E92" s="249"/>
-      <c r="F92" s="249"/>
-      <c r="G92" s="249"/>
-      <c r="H92" s="249"/>
-      <c r="I92" s="249"/>
-      <c r="J92" s="249"/>
-      <c r="K92" s="249"/>
-      <c r="L92" s="249"/>
-      <c r="M92" s="249"/>
-      <c r="N92" s="249"/>
-      <c r="O92" s="249"/>
-      <c r="P92" s="249"/>
-      <c r="Q92" s="249"/>
-      <c r="R92" s="249"/>
-      <c r="S92" s="249"/>
-      <c r="T92" s="249"/>
-      <c r="U92" s="249"/>
-      <c r="V92" s="249"/>
-      <c r="W92" s="249"/>
-      <c r="X92" s="249"/>
-      <c r="Y92" s="249"/>
-      <c r="Z92" s="249"/>
-      <c r="AA92" s="249"/>
-      <c r="AB92" s="249"/>
-      <c r="AC92" s="249"/>
-      <c r="AD92" s="249"/>
-      <c r="AE92" s="249"/>
-      <c r="AF92" s="249"/>
-      <c r="AG92" s="249"/>
-      <c r="AH92" s="249"/>
-      <c r="AI92" s="249"/>
-      <c r="AJ92" s="249"/>
-      <c r="AK92" s="249"/>
-      <c r="AL92" s="249"/>
-      <c r="AM92" s="249"/>
-      <c r="AN92" s="249"/>
-      <c r="AO92" s="249"/>
-      <c r="AP92" s="249"/>
-      <c r="AQ92" s="249"/>
-      <c r="AR92" s="249"/>
-      <c r="AS92" s="249"/>
-      <c r="AT92" s="249"/>
-      <c r="AU92" s="249"/>
-      <c r="AV92" s="249"/>
-      <c r="AW92" s="249"/>
-      <c r="AX92" s="249"/>
-      <c r="AY92" s="249"/>
-      <c r="AZ92" s="249"/>
-      <c r="BA92" s="249"/>
-      <c r="BB92" s="249"/>
-      <c r="BC92" s="249"/>
-      <c r="BD92" s="249"/>
-      <c r="BE92" s="249"/>
-      <c r="BF92" s="249"/>
-      <c r="BG92" s="249"/>
-      <c r="BH92" s="249"/>
-      <c r="BI92" s="249"/>
-      <c r="BJ92" s="249"/>
-      <c r="BK92" s="249"/>
-      <c r="BL92" s="249"/>
-      <c r="BM92" s="249"/>
-      <c r="BN92" s="249"/>
-      <c r="BO92" s="249"/>
-      <c r="BP92" s="249"/>
-      <c r="BQ92" s="249"/>
-      <c r="BR92" s="249"/>
-      <c r="BS92" s="250"/>
+      <c r="D92" s="268"/>
+      <c r="E92" s="268"/>
+      <c r="F92" s="268"/>
+      <c r="G92" s="268"/>
+      <c r="H92" s="268"/>
+      <c r="I92" s="268"/>
+      <c r="J92" s="268"/>
+      <c r="K92" s="268"/>
+      <c r="L92" s="268"/>
+      <c r="M92" s="268"/>
+      <c r="N92" s="268"/>
+      <c r="O92" s="268"/>
+      <c r="P92" s="268"/>
+      <c r="Q92" s="268"/>
+      <c r="R92" s="268"/>
+      <c r="S92" s="268"/>
+      <c r="T92" s="268"/>
+      <c r="U92" s="268"/>
+      <c r="V92" s="268"/>
+      <c r="W92" s="268"/>
+      <c r="X92" s="268"/>
+      <c r="Y92" s="268"/>
+      <c r="Z92" s="268"/>
+      <c r="AA92" s="268"/>
+      <c r="AB92" s="268"/>
+      <c r="AC92" s="268"/>
+      <c r="AD92" s="268"/>
+      <c r="AE92" s="268"/>
+      <c r="AF92" s="268"/>
+      <c r="AG92" s="268"/>
+      <c r="AH92" s="268"/>
+      <c r="AI92" s="268"/>
+      <c r="AJ92" s="268"/>
+      <c r="AK92" s="268"/>
+      <c r="AL92" s="268"/>
+      <c r="AM92" s="268"/>
+      <c r="AN92" s="268"/>
+      <c r="AO92" s="268"/>
+      <c r="AP92" s="268"/>
+      <c r="AQ92" s="268"/>
+      <c r="AR92" s="268"/>
+      <c r="AS92" s="268"/>
+      <c r="AT92" s="268"/>
+      <c r="AU92" s="268"/>
+      <c r="AV92" s="268"/>
+      <c r="AW92" s="268"/>
+      <c r="AX92" s="268"/>
+      <c r="AY92" s="268"/>
+      <c r="AZ92" s="268"/>
+      <c r="BA92" s="268"/>
+      <c r="BB92" s="268"/>
+      <c r="BC92" s="268"/>
+      <c r="BD92" s="268"/>
+      <c r="BE92" s="268"/>
+      <c r="BF92" s="268"/>
+      <c r="BG92" s="268"/>
+      <c r="BH92" s="268"/>
+      <c r="BI92" s="268"/>
+      <c r="BJ92" s="268"/>
+      <c r="BK92" s="268"/>
+      <c r="BL92" s="268"/>
+      <c r="BM92" s="268"/>
+      <c r="BN92" s="268"/>
+      <c r="BO92" s="268"/>
+      <c r="BP92" s="268"/>
+      <c r="BQ92" s="268"/>
+      <c r="BR92" s="268"/>
+      <c r="BS92" s="269"/>
     </row>
     <row r="93" spans="2:71">
       <c r="B93" s="207" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C93" s="251" t="s">
+      <c r="C93" s="264" t="s">
         <v>1188</v>
       </c>
-      <c r="D93" s="251"/>
-      <c r="E93" s="251"/>
-      <c r="F93" s="251"/>
-      <c r="G93" s="251"/>
-      <c r="H93" s="251"/>
-      <c r="I93" s="251"/>
-      <c r="J93" s="251"/>
-      <c r="K93" s="251"/>
-      <c r="L93" s="251"/>
-      <c r="M93" s="251"/>
-      <c r="N93" s="251"/>
-      <c r="O93" s="251"/>
-      <c r="P93" s="251"/>
-      <c r="Q93" s="251"/>
-      <c r="R93" s="251"/>
-      <c r="S93" s="251"/>
-      <c r="T93" s="251"/>
-      <c r="U93" s="251"/>
-      <c r="V93" s="251"/>
-      <c r="W93" s="251"/>
-      <c r="X93" s="251"/>
-      <c r="Y93" s="251"/>
-      <c r="Z93" s="251"/>
-      <c r="AA93" s="251"/>
-      <c r="AB93" s="251"/>
-      <c r="AC93" s="251"/>
-      <c r="AD93" s="251"/>
-      <c r="AE93" s="251"/>
-      <c r="AF93" s="251"/>
-      <c r="AG93" s="251"/>
-      <c r="AH93" s="251"/>
-      <c r="AI93" s="251"/>
-      <c r="AJ93" s="251"/>
-      <c r="AK93" s="251"/>
-      <c r="AL93" s="251"/>
-      <c r="AM93" s="251"/>
-      <c r="AN93" s="251"/>
-      <c r="AO93" s="251"/>
-      <c r="AP93" s="251"/>
-      <c r="AQ93" s="251"/>
-      <c r="AR93" s="251"/>
-      <c r="AS93" s="251"/>
-      <c r="AT93" s="251"/>
-      <c r="AU93" s="251"/>
-      <c r="AV93" s="251"/>
-      <c r="AW93" s="251"/>
-      <c r="AX93" s="251"/>
-      <c r="AY93" s="251"/>
-      <c r="AZ93" s="251"/>
-      <c r="BA93" s="251"/>
-      <c r="BB93" s="251"/>
-      <c r="BC93" s="251"/>
-      <c r="BD93" s="251"/>
-      <c r="BE93" s="251"/>
-      <c r="BF93" s="251"/>
-      <c r="BG93" s="251"/>
-      <c r="BH93" s="251"/>
-      <c r="BI93" s="251"/>
-      <c r="BJ93" s="251"/>
-      <c r="BK93" s="251"/>
-      <c r="BL93" s="251"/>
-      <c r="BM93" s="251"/>
-      <c r="BN93" s="251"/>
-      <c r="BO93" s="251"/>
-      <c r="BP93" s="251"/>
-      <c r="BQ93" s="251"/>
-      <c r="BR93" s="251"/>
-      <c r="BS93" s="252"/>
+      <c r="D93" s="264"/>
+      <c r="E93" s="264"/>
+      <c r="F93" s="264"/>
+      <c r="G93" s="264"/>
+      <c r="H93" s="264"/>
+      <c r="I93" s="264"/>
+      <c r="J93" s="264"/>
+      <c r="K93" s="264"/>
+      <c r="L93" s="264"/>
+      <c r="M93" s="264"/>
+      <c r="N93" s="264"/>
+      <c r="O93" s="264"/>
+      <c r="P93" s="264"/>
+      <c r="Q93" s="264"/>
+      <c r="R93" s="264"/>
+      <c r="S93" s="264"/>
+      <c r="T93" s="264"/>
+      <c r="U93" s="264"/>
+      <c r="V93" s="264"/>
+      <c r="W93" s="264"/>
+      <c r="X93" s="264"/>
+      <c r="Y93" s="264"/>
+      <c r="Z93" s="264"/>
+      <c r="AA93" s="264"/>
+      <c r="AB93" s="264"/>
+      <c r="AC93" s="264"/>
+      <c r="AD93" s="264"/>
+      <c r="AE93" s="264"/>
+      <c r="AF93" s="264"/>
+      <c r="AG93" s="264"/>
+      <c r="AH93" s="264"/>
+      <c r="AI93" s="264"/>
+      <c r="AJ93" s="264"/>
+      <c r="AK93" s="264"/>
+      <c r="AL93" s="264"/>
+      <c r="AM93" s="264"/>
+      <c r="AN93" s="264"/>
+      <c r="AO93" s="264"/>
+      <c r="AP93" s="264"/>
+      <c r="AQ93" s="264"/>
+      <c r="AR93" s="264"/>
+      <c r="AS93" s="264"/>
+      <c r="AT93" s="264"/>
+      <c r="AU93" s="264"/>
+      <c r="AV93" s="264"/>
+      <c r="AW93" s="264"/>
+      <c r="AX93" s="264"/>
+      <c r="AY93" s="264"/>
+      <c r="AZ93" s="264"/>
+      <c r="BA93" s="264"/>
+      <c r="BB93" s="264"/>
+      <c r="BC93" s="264"/>
+      <c r="BD93" s="264"/>
+      <c r="BE93" s="264"/>
+      <c r="BF93" s="264"/>
+      <c r="BG93" s="264"/>
+      <c r="BH93" s="264"/>
+      <c r="BI93" s="264"/>
+      <c r="BJ93" s="264"/>
+      <c r="BK93" s="264"/>
+      <c r="BL93" s="264"/>
+      <c r="BM93" s="264"/>
+      <c r="BN93" s="264"/>
+      <c r="BO93" s="264"/>
+      <c r="BP93" s="264"/>
+      <c r="BQ93" s="264"/>
+      <c r="BR93" s="264"/>
+      <c r="BS93" s="265"/>
     </row>
     <row r="94" spans="2:71">
       <c r="B94" s="205" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C94" s="253" t="s">
+      <c r="C94" s="266" t="s">
         <v>1187</v>
       </c>
-      <c r="D94" s="253"/>
-      <c r="E94" s="253"/>
-      <c r="F94" s="253"/>
-      <c r="G94" s="253"/>
-      <c r="H94" s="253"/>
-      <c r="I94" s="253"/>
-      <c r="J94" s="253"/>
-      <c r="K94" s="253"/>
-      <c r="L94" s="253"/>
-      <c r="M94" s="253"/>
-      <c r="N94" s="253"/>
-      <c r="O94" s="253"/>
-      <c r="P94" s="253"/>
-      <c r="Q94" s="253"/>
-      <c r="R94" s="253"/>
-      <c r="S94" s="253"/>
-      <c r="T94" s="253"/>
-      <c r="U94" s="253"/>
-      <c r="V94" s="253"/>
-      <c r="W94" s="253"/>
-      <c r="X94" s="253"/>
-      <c r="Y94" s="253"/>
-      <c r="Z94" s="253"/>
-      <c r="AA94" s="253"/>
-      <c r="AB94" s="253"/>
-      <c r="AC94" s="253"/>
-      <c r="AD94" s="253"/>
-      <c r="AE94" s="253"/>
-      <c r="AF94" s="253"/>
-      <c r="AG94" s="253"/>
-      <c r="AH94" s="253"/>
-      <c r="AI94" s="253"/>
-      <c r="AJ94" s="253"/>
-      <c r="AK94" s="253"/>
-      <c r="AL94" s="253"/>
-      <c r="AM94" s="253"/>
-      <c r="AN94" s="253"/>
-      <c r="AO94" s="253"/>
-      <c r="AP94" s="253"/>
-      <c r="AQ94" s="253"/>
-      <c r="AR94" s="253"/>
-      <c r="AS94" s="253"/>
-      <c r="AT94" s="253"/>
-      <c r="AU94" s="253"/>
-      <c r="AV94" s="253"/>
-      <c r="AW94" s="253"/>
-      <c r="AX94" s="253"/>
-      <c r="AY94" s="253"/>
-      <c r="AZ94" s="253"/>
-      <c r="BA94" s="253"/>
-      <c r="BB94" s="253"/>
-      <c r="BC94" s="253"/>
-      <c r="BD94" s="253"/>
-      <c r="BE94" s="253"/>
-      <c r="BF94" s="253"/>
-      <c r="BG94" s="253"/>
-      <c r="BH94" s="253"/>
-      <c r="BI94" s="253"/>
-      <c r="BJ94" s="253"/>
-      <c r="BK94" s="253"/>
-      <c r="BL94" s="253"/>
-      <c r="BM94" s="253"/>
-      <c r="BN94" s="253"/>
-      <c r="BO94" s="253"/>
-      <c r="BP94" s="253"/>
-      <c r="BQ94" s="253"/>
-      <c r="BR94" s="253"/>
-      <c r="BS94" s="254"/>
+      <c r="D94" s="266"/>
+      <c r="E94" s="266"/>
+      <c r="F94" s="266"/>
+      <c r="G94" s="266"/>
+      <c r="H94" s="266"/>
+      <c r="I94" s="266"/>
+      <c r="J94" s="266"/>
+      <c r="K94" s="266"/>
+      <c r="L94" s="266"/>
+      <c r="M94" s="266"/>
+      <c r="N94" s="266"/>
+      <c r="O94" s="266"/>
+      <c r="P94" s="266"/>
+      <c r="Q94" s="266"/>
+      <c r="R94" s="266"/>
+      <c r="S94" s="266"/>
+      <c r="T94" s="266"/>
+      <c r="U94" s="266"/>
+      <c r="V94" s="266"/>
+      <c r="W94" s="266"/>
+      <c r="X94" s="266"/>
+      <c r="Y94" s="266"/>
+      <c r="Z94" s="266"/>
+      <c r="AA94" s="266"/>
+      <c r="AB94" s="266"/>
+      <c r="AC94" s="266"/>
+      <c r="AD94" s="266"/>
+      <c r="AE94" s="266"/>
+      <c r="AF94" s="266"/>
+      <c r="AG94" s="266"/>
+      <c r="AH94" s="266"/>
+      <c r="AI94" s="266"/>
+      <c r="AJ94" s="266"/>
+      <c r="AK94" s="266"/>
+      <c r="AL94" s="266"/>
+      <c r="AM94" s="266"/>
+      <c r="AN94" s="266"/>
+      <c r="AO94" s="266"/>
+      <c r="AP94" s="266"/>
+      <c r="AQ94" s="266"/>
+      <c r="AR94" s="266"/>
+      <c r="AS94" s="266"/>
+      <c r="AT94" s="266"/>
+      <c r="AU94" s="266"/>
+      <c r="AV94" s="266"/>
+      <c r="AW94" s="266"/>
+      <c r="AX94" s="266"/>
+      <c r="AY94" s="266"/>
+      <c r="AZ94" s="266"/>
+      <c r="BA94" s="266"/>
+      <c r="BB94" s="266"/>
+      <c r="BC94" s="266"/>
+      <c r="BD94" s="266"/>
+      <c r="BE94" s="266"/>
+      <c r="BF94" s="266"/>
+      <c r="BG94" s="266"/>
+      <c r="BH94" s="266"/>
+      <c r="BI94" s="266"/>
+      <c r="BJ94" s="266"/>
+      <c r="BK94" s="266"/>
+      <c r="BL94" s="266"/>
+      <c r="BM94" s="266"/>
+      <c r="BN94" s="266"/>
+      <c r="BO94" s="266"/>
+      <c r="BP94" s="266"/>
+      <c r="BQ94" s="266"/>
+      <c r="BR94" s="266"/>
+      <c r="BS94" s="267"/>
     </row>
     <row r="95" spans="2:71">
       <c r="B95" s="205" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C95" s="253" t="s">
+      <c r="C95" s="266" t="s">
         <v>1186</v>
       </c>
-      <c r="D95" s="253"/>
-      <c r="E95" s="253"/>
-      <c r="F95" s="253"/>
-      <c r="G95" s="253"/>
-      <c r="H95" s="253"/>
-      <c r="I95" s="253"/>
-      <c r="J95" s="253"/>
-      <c r="K95" s="253"/>
-      <c r="L95" s="253"/>
-      <c r="M95" s="253"/>
-      <c r="N95" s="253"/>
-      <c r="O95" s="253"/>
-      <c r="P95" s="253"/>
-      <c r="Q95" s="253"/>
-      <c r="R95" s="253"/>
-      <c r="S95" s="253"/>
-      <c r="T95" s="253"/>
-      <c r="U95" s="253"/>
-      <c r="V95" s="253"/>
-      <c r="W95" s="253"/>
-      <c r="X95" s="253"/>
-      <c r="Y95" s="253"/>
-      <c r="Z95" s="253"/>
-      <c r="AA95" s="253"/>
-      <c r="AB95" s="253"/>
-      <c r="AC95" s="253"/>
-      <c r="AD95" s="253"/>
-      <c r="AE95" s="253"/>
-      <c r="AF95" s="253"/>
-      <c r="AG95" s="253"/>
-      <c r="AH95" s="253"/>
-      <c r="AI95" s="253"/>
-      <c r="AJ95" s="253"/>
-      <c r="AK95" s="253"/>
-      <c r="AL95" s="253"/>
-      <c r="AM95" s="253"/>
-      <c r="AN95" s="253"/>
-      <c r="AO95" s="253"/>
-      <c r="AP95" s="253"/>
-      <c r="AQ95" s="253"/>
-      <c r="AR95" s="253"/>
-      <c r="AS95" s="253"/>
-      <c r="AT95" s="253"/>
-      <c r="AU95" s="253"/>
-      <c r="AV95" s="253"/>
-      <c r="AW95" s="253"/>
-      <c r="AX95" s="253"/>
-      <c r="AY95" s="253"/>
-      <c r="AZ95" s="253"/>
-      <c r="BA95" s="253"/>
-      <c r="BB95" s="253"/>
-      <c r="BC95" s="253"/>
-      <c r="BD95" s="253"/>
-      <c r="BE95" s="253"/>
-      <c r="BF95" s="253"/>
-      <c r="BG95" s="253"/>
-      <c r="BH95" s="253"/>
-      <c r="BI95" s="253"/>
-      <c r="BJ95" s="253"/>
-      <c r="BK95" s="253"/>
-      <c r="BL95" s="253"/>
-      <c r="BM95" s="253"/>
-      <c r="BN95" s="253"/>
-      <c r="BO95" s="253"/>
-      <c r="BP95" s="253"/>
-      <c r="BQ95" s="253"/>
-      <c r="BR95" s="253"/>
-      <c r="BS95" s="254"/>
+      <c r="D95" s="266"/>
+      <c r="E95" s="266"/>
+      <c r="F95" s="266"/>
+      <c r="G95" s="266"/>
+      <c r="H95" s="266"/>
+      <c r="I95" s="266"/>
+      <c r="J95" s="266"/>
+      <c r="K95" s="266"/>
+      <c r="L95" s="266"/>
+      <c r="M95" s="266"/>
+      <c r="N95" s="266"/>
+      <c r="O95" s="266"/>
+      <c r="P95" s="266"/>
+      <c r="Q95" s="266"/>
+      <c r="R95" s="266"/>
+      <c r="S95" s="266"/>
+      <c r="T95" s="266"/>
+      <c r="U95" s="266"/>
+      <c r="V95" s="266"/>
+      <c r="W95" s="266"/>
+      <c r="X95" s="266"/>
+      <c r="Y95" s="266"/>
+      <c r="Z95" s="266"/>
+      <c r="AA95" s="266"/>
+      <c r="AB95" s="266"/>
+      <c r="AC95" s="266"/>
+      <c r="AD95" s="266"/>
+      <c r="AE95" s="266"/>
+      <c r="AF95" s="266"/>
+      <c r="AG95" s="266"/>
+      <c r="AH95" s="266"/>
+      <c r="AI95" s="266"/>
+      <c r="AJ95" s="266"/>
+      <c r="AK95" s="266"/>
+      <c r="AL95" s="266"/>
+      <c r="AM95" s="266"/>
+      <c r="AN95" s="266"/>
+      <c r="AO95" s="266"/>
+      <c r="AP95" s="266"/>
+      <c r="AQ95" s="266"/>
+      <c r="AR95" s="266"/>
+      <c r="AS95" s="266"/>
+      <c r="AT95" s="266"/>
+      <c r="AU95" s="266"/>
+      <c r="AV95" s="266"/>
+      <c r="AW95" s="266"/>
+      <c r="AX95" s="266"/>
+      <c r="AY95" s="266"/>
+      <c r="AZ95" s="266"/>
+      <c r="BA95" s="266"/>
+      <c r="BB95" s="266"/>
+      <c r="BC95" s="266"/>
+      <c r="BD95" s="266"/>
+      <c r="BE95" s="266"/>
+      <c r="BF95" s="266"/>
+      <c r="BG95" s="266"/>
+      <c r="BH95" s="266"/>
+      <c r="BI95" s="266"/>
+      <c r="BJ95" s="266"/>
+      <c r="BK95" s="266"/>
+      <c r="BL95" s="266"/>
+      <c r="BM95" s="266"/>
+      <c r="BN95" s="266"/>
+      <c r="BO95" s="266"/>
+      <c r="BP95" s="266"/>
+      <c r="BQ95" s="266"/>
+      <c r="BR95" s="266"/>
+      <c r="BS95" s="267"/>
     </row>
     <row r="96" spans="2:71">
       <c r="B96" s="205" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C96" s="253" t="s">
+      <c r="C96" s="266" t="s">
         <v>1185</v>
       </c>
-      <c r="D96" s="253"/>
-      <c r="E96" s="253"/>
-      <c r="F96" s="253"/>
-      <c r="G96" s="253"/>
-      <c r="H96" s="253"/>
-      <c r="I96" s="253"/>
-      <c r="J96" s="253"/>
-      <c r="K96" s="253"/>
-      <c r="L96" s="253"/>
-      <c r="M96" s="253"/>
-      <c r="N96" s="253"/>
-      <c r="O96" s="253"/>
-      <c r="P96" s="253"/>
-      <c r="Q96" s="253"/>
-      <c r="R96" s="253"/>
-      <c r="S96" s="253"/>
-      <c r="T96" s="253"/>
-      <c r="U96" s="253"/>
-      <c r="V96" s="253"/>
-      <c r="W96" s="253"/>
-      <c r="X96" s="253"/>
-      <c r="Y96" s="253"/>
-      <c r="Z96" s="253"/>
-      <c r="AA96" s="253"/>
-      <c r="AB96" s="253"/>
-      <c r="AC96" s="253"/>
-      <c r="AD96" s="253"/>
-      <c r="AE96" s="253"/>
-      <c r="AF96" s="253"/>
-      <c r="AG96" s="253"/>
-      <c r="AH96" s="253"/>
-      <c r="AI96" s="253"/>
-      <c r="AJ96" s="253"/>
-      <c r="AK96" s="253"/>
-      <c r="AL96" s="253"/>
-      <c r="AM96" s="253"/>
-      <c r="AN96" s="253"/>
-      <c r="AO96" s="253"/>
-      <c r="AP96" s="253"/>
-      <c r="AQ96" s="253"/>
-      <c r="AR96" s="253"/>
-      <c r="AS96" s="253"/>
-      <c r="AT96" s="253"/>
-      <c r="AU96" s="253"/>
-      <c r="AV96" s="253"/>
-      <c r="AW96" s="253"/>
-      <c r="AX96" s="253"/>
-      <c r="AY96" s="253"/>
-      <c r="AZ96" s="253"/>
-      <c r="BA96" s="253"/>
-      <c r="BB96" s="253"/>
-      <c r="BC96" s="253"/>
-      <c r="BD96" s="253"/>
-      <c r="BE96" s="253"/>
-      <c r="BF96" s="253"/>
-      <c r="BG96" s="253"/>
-      <c r="BH96" s="253"/>
-      <c r="BI96" s="253"/>
-      <c r="BJ96" s="253"/>
-      <c r="BK96" s="253"/>
-      <c r="BL96" s="253"/>
-      <c r="BM96" s="253"/>
-      <c r="BN96" s="253"/>
-      <c r="BO96" s="253"/>
-      <c r="BP96" s="253"/>
-      <c r="BQ96" s="253"/>
-      <c r="BR96" s="253"/>
-      <c r="BS96" s="254"/>
+      <c r="D96" s="266"/>
+      <c r="E96" s="266"/>
+      <c r="F96" s="266"/>
+      <c r="G96" s="266"/>
+      <c r="H96" s="266"/>
+      <c r="I96" s="266"/>
+      <c r="J96" s="266"/>
+      <c r="K96" s="266"/>
+      <c r="L96" s="266"/>
+      <c r="M96" s="266"/>
+      <c r="N96" s="266"/>
+      <c r="O96" s="266"/>
+      <c r="P96" s="266"/>
+      <c r="Q96" s="266"/>
+      <c r="R96" s="266"/>
+      <c r="S96" s="266"/>
+      <c r="T96" s="266"/>
+      <c r="U96" s="266"/>
+      <c r="V96" s="266"/>
+      <c r="W96" s="266"/>
+      <c r="X96" s="266"/>
+      <c r="Y96" s="266"/>
+      <c r="Z96" s="266"/>
+      <c r="AA96" s="266"/>
+      <c r="AB96" s="266"/>
+      <c r="AC96" s="266"/>
+      <c r="AD96" s="266"/>
+      <c r="AE96" s="266"/>
+      <c r="AF96" s="266"/>
+      <c r="AG96" s="266"/>
+      <c r="AH96" s="266"/>
+      <c r="AI96" s="266"/>
+      <c r="AJ96" s="266"/>
+      <c r="AK96" s="266"/>
+      <c r="AL96" s="266"/>
+      <c r="AM96" s="266"/>
+      <c r="AN96" s="266"/>
+      <c r="AO96" s="266"/>
+      <c r="AP96" s="266"/>
+      <c r="AQ96" s="266"/>
+      <c r="AR96" s="266"/>
+      <c r="AS96" s="266"/>
+      <c r="AT96" s="266"/>
+      <c r="AU96" s="266"/>
+      <c r="AV96" s="266"/>
+      <c r="AW96" s="266"/>
+      <c r="AX96" s="266"/>
+      <c r="AY96" s="266"/>
+      <c r="AZ96" s="266"/>
+      <c r="BA96" s="266"/>
+      <c r="BB96" s="266"/>
+      <c r="BC96" s="266"/>
+      <c r="BD96" s="266"/>
+      <c r="BE96" s="266"/>
+      <c r="BF96" s="266"/>
+      <c r="BG96" s="266"/>
+      <c r="BH96" s="266"/>
+      <c r="BI96" s="266"/>
+      <c r="BJ96" s="266"/>
+      <c r="BK96" s="266"/>
+      <c r="BL96" s="266"/>
+      <c r="BM96" s="266"/>
+      <c r="BN96" s="266"/>
+      <c r="BO96" s="266"/>
+      <c r="BP96" s="266"/>
+      <c r="BQ96" s="266"/>
+      <c r="BR96" s="266"/>
+      <c r="BS96" s="267"/>
     </row>
     <row r="97" spans="2:71" ht="17.25" thickBot="1">
       <c r="B97" s="204" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C97" s="255" t="s">
+      <c r="C97" s="270" t="s">
         <v>1184</v>
       </c>
-      <c r="D97" s="255"/>
-      <c r="E97" s="255"/>
-      <c r="F97" s="255"/>
-      <c r="G97" s="255"/>
-      <c r="H97" s="255"/>
-      <c r="I97" s="255"/>
-      <c r="J97" s="255"/>
-      <c r="K97" s="255"/>
-      <c r="L97" s="255"/>
-      <c r="M97" s="255"/>
-      <c r="N97" s="255"/>
-      <c r="O97" s="255"/>
-      <c r="P97" s="255"/>
-      <c r="Q97" s="255"/>
-      <c r="R97" s="255"/>
-      <c r="S97" s="255"/>
-      <c r="T97" s="255"/>
-      <c r="U97" s="255"/>
-      <c r="V97" s="255"/>
-      <c r="W97" s="255"/>
-      <c r="X97" s="255"/>
-      <c r="Y97" s="255"/>
-      <c r="Z97" s="255"/>
-      <c r="AA97" s="255"/>
-      <c r="AB97" s="255"/>
-      <c r="AC97" s="255"/>
-      <c r="AD97" s="255"/>
-      <c r="AE97" s="255"/>
-      <c r="AF97" s="255"/>
-      <c r="AG97" s="255"/>
-      <c r="AH97" s="255"/>
-      <c r="AI97" s="255"/>
-      <c r="AJ97" s="255"/>
-      <c r="AK97" s="255"/>
-      <c r="AL97" s="255"/>
-      <c r="AM97" s="255"/>
-      <c r="AN97" s="255"/>
-      <c r="AO97" s="255"/>
-      <c r="AP97" s="255"/>
-      <c r="AQ97" s="255"/>
-      <c r="AR97" s="255"/>
-      <c r="AS97" s="255"/>
-      <c r="AT97" s="255"/>
-      <c r="AU97" s="255"/>
-      <c r="AV97" s="255"/>
-      <c r="AW97" s="255"/>
-      <c r="AX97" s="255"/>
-      <c r="AY97" s="255"/>
-      <c r="AZ97" s="255"/>
-      <c r="BA97" s="255"/>
-      <c r="BB97" s="255"/>
-      <c r="BC97" s="255"/>
-      <c r="BD97" s="255"/>
-      <c r="BE97" s="255"/>
-      <c r="BF97" s="255"/>
-      <c r="BG97" s="255"/>
-      <c r="BH97" s="255"/>
-      <c r="BI97" s="255"/>
-      <c r="BJ97" s="255"/>
-      <c r="BK97" s="255"/>
-      <c r="BL97" s="255"/>
-      <c r="BM97" s="255"/>
-      <c r="BN97" s="255"/>
-      <c r="BO97" s="255"/>
-      <c r="BP97" s="255"/>
-      <c r="BQ97" s="255"/>
-      <c r="BR97" s="255"/>
-      <c r="BS97" s="256"/>
+      <c r="D97" s="270"/>
+      <c r="E97" s="270"/>
+      <c r="F97" s="270"/>
+      <c r="G97" s="270"/>
+      <c r="H97" s="270"/>
+      <c r="I97" s="270"/>
+      <c r="J97" s="270"/>
+      <c r="K97" s="270"/>
+      <c r="L97" s="270"/>
+      <c r="M97" s="270"/>
+      <c r="N97" s="270"/>
+      <c r="O97" s="270"/>
+      <c r="P97" s="270"/>
+      <c r="Q97" s="270"/>
+      <c r="R97" s="270"/>
+      <c r="S97" s="270"/>
+      <c r="T97" s="270"/>
+      <c r="U97" s="270"/>
+      <c r="V97" s="270"/>
+      <c r="W97" s="270"/>
+      <c r="X97" s="270"/>
+      <c r="Y97" s="270"/>
+      <c r="Z97" s="270"/>
+      <c r="AA97" s="270"/>
+      <c r="AB97" s="270"/>
+      <c r="AC97" s="270"/>
+      <c r="AD97" s="270"/>
+      <c r="AE97" s="270"/>
+      <c r="AF97" s="270"/>
+      <c r="AG97" s="270"/>
+      <c r="AH97" s="270"/>
+      <c r="AI97" s="270"/>
+      <c r="AJ97" s="270"/>
+      <c r="AK97" s="270"/>
+      <c r="AL97" s="270"/>
+      <c r="AM97" s="270"/>
+      <c r="AN97" s="270"/>
+      <c r="AO97" s="270"/>
+      <c r="AP97" s="270"/>
+      <c r="AQ97" s="270"/>
+      <c r="AR97" s="270"/>
+      <c r="AS97" s="270"/>
+      <c r="AT97" s="270"/>
+      <c r="AU97" s="270"/>
+      <c r="AV97" s="270"/>
+      <c r="AW97" s="270"/>
+      <c r="AX97" s="270"/>
+      <c r="AY97" s="270"/>
+      <c r="AZ97" s="270"/>
+      <c r="BA97" s="270"/>
+      <c r="BB97" s="270"/>
+      <c r="BC97" s="270"/>
+      <c r="BD97" s="270"/>
+      <c r="BE97" s="270"/>
+      <c r="BF97" s="270"/>
+      <c r="BG97" s="270"/>
+      <c r="BH97" s="270"/>
+      <c r="BI97" s="270"/>
+      <c r="BJ97" s="270"/>
+      <c r="BK97" s="270"/>
+      <c r="BL97" s="270"/>
+      <c r="BM97" s="270"/>
+      <c r="BN97" s="270"/>
+      <c r="BO97" s="270"/>
+      <c r="BP97" s="270"/>
+      <c r="BQ97" s="270"/>
+      <c r="BR97" s="270"/>
+      <c r="BS97" s="271"/>
     </row>
     <row r="98" spans="2:71" ht="17.25" thickBot="1">
       <c r="B98" s="208" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="C98" s="249" t="s">
+      <c r="C98" s="268" t="s">
         <v>1183</v>
       </c>
-      <c r="D98" s="249"/>
-      <c r="E98" s="249"/>
-      <c r="F98" s="249"/>
-      <c r="G98" s="249"/>
-      <c r="H98" s="249"/>
-      <c r="I98" s="249"/>
-      <c r="J98" s="249"/>
-      <c r="K98" s="249"/>
-      <c r="L98" s="249"/>
-      <c r="M98" s="249"/>
-      <c r="N98" s="249"/>
-      <c r="O98" s="249"/>
-      <c r="P98" s="249"/>
-      <c r="Q98" s="249"/>
-      <c r="R98" s="249"/>
-      <c r="S98" s="249"/>
-      <c r="T98" s="249"/>
-      <c r="U98" s="249"/>
-      <c r="V98" s="249"/>
-      <c r="W98" s="249"/>
-      <c r="X98" s="249"/>
-      <c r="Y98" s="249"/>
-      <c r="Z98" s="249"/>
-      <c r="AA98" s="249"/>
-      <c r="AB98" s="249"/>
-      <c r="AC98" s="249"/>
-      <c r="AD98" s="249"/>
-      <c r="AE98" s="249"/>
-      <c r="AF98" s="249"/>
-      <c r="AG98" s="249"/>
-      <c r="AH98" s="249"/>
-      <c r="AI98" s="249"/>
-      <c r="AJ98" s="249"/>
-      <c r="AK98" s="249"/>
-      <c r="AL98" s="249"/>
-      <c r="AM98" s="249"/>
-      <c r="AN98" s="249"/>
-      <c r="AO98" s="249"/>
-      <c r="AP98" s="249"/>
-      <c r="AQ98" s="249"/>
-      <c r="AR98" s="249"/>
-      <c r="AS98" s="249"/>
-      <c r="AT98" s="249"/>
-      <c r="AU98" s="249"/>
-      <c r="AV98" s="249"/>
-      <c r="AW98" s="249"/>
-      <c r="AX98" s="249"/>
-      <c r="AY98" s="249"/>
-      <c r="AZ98" s="249"/>
-      <c r="BA98" s="249"/>
-      <c r="BB98" s="249"/>
-      <c r="BC98" s="249"/>
-      <c r="BD98" s="249"/>
-      <c r="BE98" s="249"/>
-      <c r="BF98" s="249"/>
-      <c r="BG98" s="249"/>
-      <c r="BH98" s="249"/>
-      <c r="BI98" s="249"/>
-      <c r="BJ98" s="249"/>
-      <c r="BK98" s="249"/>
-      <c r="BL98" s="249"/>
-      <c r="BM98" s="249"/>
-      <c r="BN98" s="249"/>
-      <c r="BO98" s="249"/>
-      <c r="BP98" s="249"/>
-      <c r="BQ98" s="249"/>
-      <c r="BR98" s="249"/>
-      <c r="BS98" s="250"/>
+      <c r="D98" s="268"/>
+      <c r="E98" s="268"/>
+      <c r="F98" s="268"/>
+      <c r="G98" s="268"/>
+      <c r="H98" s="268"/>
+      <c r="I98" s="268"/>
+      <c r="J98" s="268"/>
+      <c r="K98" s="268"/>
+      <c r="L98" s="268"/>
+      <c r="M98" s="268"/>
+      <c r="N98" s="268"/>
+      <c r="O98" s="268"/>
+      <c r="P98" s="268"/>
+      <c r="Q98" s="268"/>
+      <c r="R98" s="268"/>
+      <c r="S98" s="268"/>
+      <c r="T98" s="268"/>
+      <c r="U98" s="268"/>
+      <c r="V98" s="268"/>
+      <c r="W98" s="268"/>
+      <c r="X98" s="268"/>
+      <c r="Y98" s="268"/>
+      <c r="Z98" s="268"/>
+      <c r="AA98" s="268"/>
+      <c r="AB98" s="268"/>
+      <c r="AC98" s="268"/>
+      <c r="AD98" s="268"/>
+      <c r="AE98" s="268"/>
+      <c r="AF98" s="268"/>
+      <c r="AG98" s="268"/>
+      <c r="AH98" s="268"/>
+      <c r="AI98" s="268"/>
+      <c r="AJ98" s="268"/>
+      <c r="AK98" s="268"/>
+      <c r="AL98" s="268"/>
+      <c r="AM98" s="268"/>
+      <c r="AN98" s="268"/>
+      <c r="AO98" s="268"/>
+      <c r="AP98" s="268"/>
+      <c r="AQ98" s="268"/>
+      <c r="AR98" s="268"/>
+      <c r="AS98" s="268"/>
+      <c r="AT98" s="268"/>
+      <c r="AU98" s="268"/>
+      <c r="AV98" s="268"/>
+      <c r="AW98" s="268"/>
+      <c r="AX98" s="268"/>
+      <c r="AY98" s="268"/>
+      <c r="AZ98" s="268"/>
+      <c r="BA98" s="268"/>
+      <c r="BB98" s="268"/>
+      <c r="BC98" s="268"/>
+      <c r="BD98" s="268"/>
+      <c r="BE98" s="268"/>
+      <c r="BF98" s="268"/>
+      <c r="BG98" s="268"/>
+      <c r="BH98" s="268"/>
+      <c r="BI98" s="268"/>
+      <c r="BJ98" s="268"/>
+      <c r="BK98" s="268"/>
+      <c r="BL98" s="268"/>
+      <c r="BM98" s="268"/>
+      <c r="BN98" s="268"/>
+      <c r="BO98" s="268"/>
+      <c r="BP98" s="268"/>
+      <c r="BQ98" s="268"/>
+      <c r="BR98" s="268"/>
+      <c r="BS98" s="269"/>
     </row>
     <row r="99" spans="2:71">
       <c r="B99" s="207" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C99" s="251" t="s">
+      <c r="C99" s="264" t="s">
         <v>1182</v>
       </c>
-      <c r="D99" s="251"/>
-      <c r="E99" s="251"/>
-      <c r="F99" s="251"/>
-      <c r="G99" s="251"/>
-      <c r="H99" s="251"/>
-      <c r="I99" s="251"/>
-      <c r="J99" s="251"/>
-      <c r="K99" s="251"/>
-      <c r="L99" s="251"/>
-      <c r="M99" s="251"/>
-      <c r="N99" s="251"/>
-      <c r="O99" s="251"/>
-      <c r="P99" s="251"/>
-      <c r="Q99" s="251"/>
-      <c r="R99" s="251"/>
-      <c r="S99" s="251"/>
-      <c r="T99" s="251"/>
-      <c r="U99" s="251"/>
-      <c r="V99" s="251"/>
-      <c r="W99" s="251"/>
-      <c r="X99" s="251"/>
-      <c r="Y99" s="251"/>
-      <c r="Z99" s="251"/>
-      <c r="AA99" s="251"/>
-      <c r="AB99" s="251"/>
-      <c r="AC99" s="251"/>
-      <c r="AD99" s="251"/>
-      <c r="AE99" s="251"/>
-      <c r="AF99" s="251"/>
-      <c r="AG99" s="251"/>
-      <c r="AH99" s="251"/>
-      <c r="AI99" s="251"/>
-      <c r="AJ99" s="251"/>
-      <c r="AK99" s="251"/>
-      <c r="AL99" s="251"/>
-      <c r="AM99" s="251"/>
-      <c r="AN99" s="251"/>
-      <c r="AO99" s="251"/>
-      <c r="AP99" s="251"/>
-      <c r="AQ99" s="251"/>
-      <c r="AR99" s="251"/>
-      <c r="AS99" s="251"/>
-      <c r="AT99" s="251"/>
-      <c r="AU99" s="251"/>
-      <c r="AV99" s="251"/>
-      <c r="AW99" s="251"/>
-      <c r="AX99" s="251"/>
-      <c r="AY99" s="251"/>
-      <c r="AZ99" s="251"/>
-      <c r="BA99" s="251"/>
-      <c r="BB99" s="251"/>
-      <c r="BC99" s="251"/>
-      <c r="BD99" s="251"/>
-      <c r="BE99" s="251"/>
-      <c r="BF99" s="251"/>
-      <c r="BG99" s="251"/>
-      <c r="BH99" s="251"/>
-      <c r="BI99" s="251"/>
-      <c r="BJ99" s="251"/>
-      <c r="BK99" s="251"/>
-      <c r="BL99" s="251"/>
-      <c r="BM99" s="251"/>
-      <c r="BN99" s="251"/>
-      <c r="BO99" s="251"/>
-      <c r="BP99" s="251"/>
-      <c r="BQ99" s="251"/>
-      <c r="BR99" s="251"/>
-      <c r="BS99" s="252"/>
+      <c r="D99" s="264"/>
+      <c r="E99" s="264"/>
+      <c r="F99" s="264"/>
+      <c r="G99" s="264"/>
+      <c r="H99" s="264"/>
+      <c r="I99" s="264"/>
+      <c r="J99" s="264"/>
+      <c r="K99" s="264"/>
+      <c r="L99" s="264"/>
+      <c r="M99" s="264"/>
+      <c r="N99" s="264"/>
+      <c r="O99" s="264"/>
+      <c r="P99" s="264"/>
+      <c r="Q99" s="264"/>
+      <c r="R99" s="264"/>
+      <c r="S99" s="264"/>
+      <c r="T99" s="264"/>
+      <c r="U99" s="264"/>
+      <c r="V99" s="264"/>
+      <c r="W99" s="264"/>
+      <c r="X99" s="264"/>
+      <c r="Y99" s="264"/>
+      <c r="Z99" s="264"/>
+      <c r="AA99" s="264"/>
+      <c r="AB99" s="264"/>
+      <c r="AC99" s="264"/>
+      <c r="AD99" s="264"/>
+      <c r="AE99" s="264"/>
+      <c r="AF99" s="264"/>
+      <c r="AG99" s="264"/>
+      <c r="AH99" s="264"/>
+      <c r="AI99" s="264"/>
+      <c r="AJ99" s="264"/>
+      <c r="AK99" s="264"/>
+      <c r="AL99" s="264"/>
+      <c r="AM99" s="264"/>
+      <c r="AN99" s="264"/>
+      <c r="AO99" s="264"/>
+      <c r="AP99" s="264"/>
+      <c r="AQ99" s="264"/>
+      <c r="AR99" s="264"/>
+      <c r="AS99" s="264"/>
+      <c r="AT99" s="264"/>
+      <c r="AU99" s="264"/>
+      <c r="AV99" s="264"/>
+      <c r="AW99" s="264"/>
+      <c r="AX99" s="264"/>
+      <c r="AY99" s="264"/>
+      <c r="AZ99" s="264"/>
+      <c r="BA99" s="264"/>
+      <c r="BB99" s="264"/>
+      <c r="BC99" s="264"/>
+      <c r="BD99" s="264"/>
+      <c r="BE99" s="264"/>
+      <c r="BF99" s="264"/>
+      <c r="BG99" s="264"/>
+      <c r="BH99" s="264"/>
+      <c r="BI99" s="264"/>
+      <c r="BJ99" s="264"/>
+      <c r="BK99" s="264"/>
+      <c r="BL99" s="264"/>
+      <c r="BM99" s="264"/>
+      <c r="BN99" s="264"/>
+      <c r="BO99" s="264"/>
+      <c r="BP99" s="264"/>
+      <c r="BQ99" s="264"/>
+      <c r="BR99" s="264"/>
+      <c r="BS99" s="265"/>
     </row>
     <row r="100" spans="2:71">
       <c r="B100" s="205" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C100" s="253" t="s">
+      <c r="C100" s="266" t="s">
         <v>1181</v>
       </c>
-      <c r="D100" s="253"/>
-      <c r="E100" s="253"/>
-      <c r="F100" s="253"/>
-      <c r="G100" s="253"/>
-      <c r="H100" s="253"/>
-      <c r="I100" s="253"/>
-      <c r="J100" s="253"/>
-      <c r="K100" s="253"/>
-      <c r="L100" s="253"/>
-      <c r="M100" s="253"/>
-      <c r="N100" s="253"/>
-      <c r="O100" s="253"/>
-      <c r="P100" s="253"/>
-      <c r="Q100" s="253"/>
-      <c r="R100" s="253"/>
-      <c r="S100" s="253"/>
-      <c r="T100" s="253"/>
-      <c r="U100" s="253"/>
-      <c r="V100" s="253"/>
-      <c r="W100" s="253"/>
-      <c r="X100" s="253"/>
-      <c r="Y100" s="253"/>
-      <c r="Z100" s="253"/>
-      <c r="AA100" s="253"/>
-      <c r="AB100" s="253"/>
-      <c r="AC100" s="253"/>
-      <c r="AD100" s="253"/>
-      <c r="AE100" s="253"/>
-      <c r="AF100" s="253"/>
-      <c r="AG100" s="253"/>
-      <c r="AH100" s="253"/>
-      <c r="AI100" s="253"/>
-      <c r="AJ100" s="253"/>
-      <c r="AK100" s="253"/>
-      <c r="AL100" s="253"/>
-      <c r="AM100" s="253"/>
-      <c r="AN100" s="253"/>
-      <c r="AO100" s="253"/>
-      <c r="AP100" s="253"/>
-      <c r="AQ100" s="253"/>
-      <c r="AR100" s="253"/>
-      <c r="AS100" s="253"/>
-      <c r="AT100" s="253"/>
-      <c r="AU100" s="253"/>
-      <c r="AV100" s="253"/>
-      <c r="AW100" s="253"/>
-      <c r="AX100" s="253"/>
-      <c r="AY100" s="253"/>
-      <c r="AZ100" s="253"/>
-      <c r="BA100" s="253"/>
-      <c r="BB100" s="253"/>
-      <c r="BC100" s="253"/>
-      <c r="BD100" s="253"/>
-      <c r="BE100" s="253"/>
-      <c r="BF100" s="253"/>
-      <c r="BG100" s="253"/>
-      <c r="BH100" s="253"/>
-      <c r="BI100" s="253"/>
-      <c r="BJ100" s="253"/>
-      <c r="BK100" s="253"/>
-      <c r="BL100" s="253"/>
-      <c r="BM100" s="253"/>
-      <c r="BN100" s="253"/>
-      <c r="BO100" s="253"/>
-      <c r="BP100" s="253"/>
-      <c r="BQ100" s="253"/>
-      <c r="BR100" s="253"/>
-      <c r="BS100" s="254"/>
+      <c r="D100" s="266"/>
+      <c r="E100" s="266"/>
+      <c r="F100" s="266"/>
+      <c r="G100" s="266"/>
+      <c r="H100" s="266"/>
+      <c r="I100" s="266"/>
+      <c r="J100" s="266"/>
+      <c r="K100" s="266"/>
+      <c r="L100" s="266"/>
+      <c r="M100" s="266"/>
+      <c r="N100" s="266"/>
+      <c r="O100" s="266"/>
+      <c r="P100" s="266"/>
+      <c r="Q100" s="266"/>
+      <c r="R100" s="266"/>
+      <c r="S100" s="266"/>
+      <c r="T100" s="266"/>
+      <c r="U100" s="266"/>
+      <c r="V100" s="266"/>
+      <c r="W100" s="266"/>
+      <c r="X100" s="266"/>
+      <c r="Y100" s="266"/>
+      <c r="Z100" s="266"/>
+      <c r="AA100" s="266"/>
+      <c r="AB100" s="266"/>
+      <c r="AC100" s="266"/>
+      <c r="AD100" s="266"/>
+      <c r="AE100" s="266"/>
+      <c r="AF100" s="266"/>
+      <c r="AG100" s="266"/>
+      <c r="AH100" s="266"/>
+      <c r="AI100" s="266"/>
+      <c r="AJ100" s="266"/>
+      <c r="AK100" s="266"/>
+      <c r="AL100" s="266"/>
+      <c r="AM100" s="266"/>
+      <c r="AN100" s="266"/>
+      <c r="AO100" s="266"/>
+      <c r="AP100" s="266"/>
+      <c r="AQ100" s="266"/>
+      <c r="AR100" s="266"/>
+      <c r="AS100" s="266"/>
+      <c r="AT100" s="266"/>
+      <c r="AU100" s="266"/>
+      <c r="AV100" s="266"/>
+      <c r="AW100" s="266"/>
+      <c r="AX100" s="266"/>
+      <c r="AY100" s="266"/>
+      <c r="AZ100" s="266"/>
+      <c r="BA100" s="266"/>
+      <c r="BB100" s="266"/>
+      <c r="BC100" s="266"/>
+      <c r="BD100" s="266"/>
+      <c r="BE100" s="266"/>
+      <c r="BF100" s="266"/>
+      <c r="BG100" s="266"/>
+      <c r="BH100" s="266"/>
+      <c r="BI100" s="266"/>
+      <c r="BJ100" s="266"/>
+      <c r="BK100" s="266"/>
+      <c r="BL100" s="266"/>
+      <c r="BM100" s="266"/>
+      <c r="BN100" s="266"/>
+      <c r="BO100" s="266"/>
+      <c r="BP100" s="266"/>
+      <c r="BQ100" s="266"/>
+      <c r="BR100" s="266"/>
+      <c r="BS100" s="267"/>
     </row>
     <row r="101" spans="2:71">
       <c r="B101" s="205" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C101" s="253" t="s">
+      <c r="C101" s="266" t="s">
         <v>1180</v>
       </c>
-      <c r="D101" s="253"/>
-      <c r="E101" s="253"/>
-      <c r="F101" s="253"/>
-      <c r="G101" s="253"/>
-      <c r="H101" s="253"/>
-      <c r="I101" s="253"/>
-      <c r="J101" s="253"/>
-      <c r="K101" s="253"/>
-      <c r="L101" s="253"/>
-      <c r="M101" s="253"/>
-      <c r="N101" s="253"/>
-      <c r="O101" s="253"/>
-      <c r="P101" s="253"/>
-      <c r="Q101" s="253"/>
-      <c r="R101" s="253"/>
-      <c r="S101" s="253"/>
-      <c r="T101" s="253"/>
-      <c r="U101" s="253"/>
-      <c r="V101" s="253"/>
-      <c r="W101" s="253"/>
-      <c r="X101" s="253"/>
-      <c r="Y101" s="253"/>
-      <c r="Z101" s="253"/>
-      <c r="AA101" s="253"/>
-      <c r="AB101" s="253"/>
-      <c r="AC101" s="253"/>
-      <c r="AD101" s="253"/>
-      <c r="AE101" s="253"/>
-      <c r="AF101" s="253"/>
-      <c r="AG101" s="253"/>
-      <c r="AH101" s="253"/>
-      <c r="AI101" s="253"/>
-      <c r="AJ101" s="253"/>
-      <c r="AK101" s="253"/>
-      <c r="AL101" s="253"/>
-      <c r="AM101" s="253"/>
-      <c r="AN101" s="253"/>
-      <c r="AO101" s="253"/>
-      <c r="AP101" s="253"/>
-      <c r="AQ101" s="253"/>
-      <c r="AR101" s="253"/>
-      <c r="AS101" s="253"/>
-      <c r="AT101" s="253"/>
-      <c r="AU101" s="253"/>
-      <c r="AV101" s="253"/>
-      <c r="AW101" s="253"/>
-      <c r="AX101" s="253"/>
-      <c r="AY101" s="253"/>
-      <c r="AZ101" s="253"/>
-      <c r="BA101" s="253"/>
-      <c r="BB101" s="253"/>
-      <c r="BC101" s="253"/>
-      <c r="BD101" s="253"/>
-      <c r="BE101" s="253"/>
-      <c r="BF101" s="253"/>
-      <c r="BG101" s="253"/>
-      <c r="BH101" s="253"/>
-      <c r="BI101" s="253"/>
-      <c r="BJ101" s="253"/>
-      <c r="BK101" s="253"/>
-      <c r="BL101" s="253"/>
-      <c r="BM101" s="253"/>
-      <c r="BN101" s="253"/>
-      <c r="BO101" s="253"/>
-      <c r="BP101" s="253"/>
-      <c r="BQ101" s="253"/>
-      <c r="BR101" s="253"/>
-      <c r="BS101" s="254"/>
+      <c r="D101" s="266"/>
+      <c r="E101" s="266"/>
+      <c r="F101" s="266"/>
+      <c r="G101" s="266"/>
+      <c r="H101" s="266"/>
+      <c r="I101" s="266"/>
+      <c r="J101" s="266"/>
+      <c r="K101" s="266"/>
+      <c r="L101" s="266"/>
+      <c r="M101" s="266"/>
+      <c r="N101" s="266"/>
+      <c r="O101" s="266"/>
+      <c r="P101" s="266"/>
+      <c r="Q101" s="266"/>
+      <c r="R101" s="266"/>
+      <c r="S101" s="266"/>
+      <c r="T101" s="266"/>
+      <c r="U101" s="266"/>
+      <c r="V101" s="266"/>
+      <c r="W101" s="266"/>
+      <c r="X101" s="266"/>
+      <c r="Y101" s="266"/>
+      <c r="Z101" s="266"/>
+      <c r="AA101" s="266"/>
+      <c r="AB101" s="266"/>
+      <c r="AC101" s="266"/>
+      <c r="AD101" s="266"/>
+      <c r="AE101" s="266"/>
+      <c r="AF101" s="266"/>
+      <c r="AG101" s="266"/>
+      <c r="AH101" s="266"/>
+      <c r="AI101" s="266"/>
+      <c r="AJ101" s="266"/>
+      <c r="AK101" s="266"/>
+      <c r="AL101" s="266"/>
+      <c r="AM101" s="266"/>
+      <c r="AN101" s="266"/>
+      <c r="AO101" s="266"/>
+      <c r="AP101" s="266"/>
+      <c r="AQ101" s="266"/>
+      <c r="AR101" s="266"/>
+      <c r="AS101" s="266"/>
+      <c r="AT101" s="266"/>
+      <c r="AU101" s="266"/>
+      <c r="AV101" s="266"/>
+      <c r="AW101" s="266"/>
+      <c r="AX101" s="266"/>
+      <c r="AY101" s="266"/>
+      <c r="AZ101" s="266"/>
+      <c r="BA101" s="266"/>
+      <c r="BB101" s="266"/>
+      <c r="BC101" s="266"/>
+      <c r="BD101" s="266"/>
+      <c r="BE101" s="266"/>
+      <c r="BF101" s="266"/>
+      <c r="BG101" s="266"/>
+      <c r="BH101" s="266"/>
+      <c r="BI101" s="266"/>
+      <c r="BJ101" s="266"/>
+      <c r="BK101" s="266"/>
+      <c r="BL101" s="266"/>
+      <c r="BM101" s="266"/>
+      <c r="BN101" s="266"/>
+      <c r="BO101" s="266"/>
+      <c r="BP101" s="266"/>
+      <c r="BQ101" s="266"/>
+      <c r="BR101" s="266"/>
+      <c r="BS101" s="267"/>
     </row>
     <row r="102" spans="2:71" ht="17.25" thickBot="1">
       <c r="B102" s="204" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C102" s="255" t="s">
+      <c r="C102" s="270" t="s">
         <v>1179</v>
       </c>
-      <c r="D102" s="255"/>
-      <c r="E102" s="255"/>
-      <c r="F102" s="255"/>
-      <c r="G102" s="255"/>
-      <c r="H102" s="255"/>
-      <c r="I102" s="255"/>
-      <c r="J102" s="255"/>
-      <c r="K102" s="255"/>
-      <c r="L102" s="255"/>
-      <c r="M102" s="255"/>
-      <c r="N102" s="255"/>
-      <c r="O102" s="255"/>
-      <c r="P102" s="255"/>
-      <c r="Q102" s="255"/>
-      <c r="R102" s="255"/>
-      <c r="S102" s="255"/>
-      <c r="T102" s="255"/>
-      <c r="U102" s="255"/>
-      <c r="V102" s="255"/>
-      <c r="W102" s="255"/>
-      <c r="X102" s="255"/>
-      <c r="Y102" s="255"/>
-      <c r="Z102" s="255"/>
-      <c r="AA102" s="255"/>
-      <c r="AB102" s="255"/>
-      <c r="AC102" s="255"/>
-      <c r="AD102" s="255"/>
-      <c r="AE102" s="255"/>
-      <c r="AF102" s="255"/>
-      <c r="AG102" s="255"/>
-      <c r="AH102" s="255"/>
-      <c r="AI102" s="255"/>
-      <c r="AJ102" s="255"/>
-      <c r="AK102" s="255"/>
-      <c r="AL102" s="255"/>
-      <c r="AM102" s="255"/>
-      <c r="AN102" s="255"/>
-      <c r="AO102" s="255"/>
-      <c r="AP102" s="255"/>
-      <c r="AQ102" s="255"/>
-      <c r="AR102" s="255"/>
-      <c r="AS102" s="255"/>
-      <c r="AT102" s="255"/>
-      <c r="AU102" s="255"/>
-      <c r="AV102" s="255"/>
-      <c r="AW102" s="255"/>
-      <c r="AX102" s="255"/>
-      <c r="AY102" s="255"/>
-      <c r="AZ102" s="255"/>
-      <c r="BA102" s="255"/>
-      <c r="BB102" s="255"/>
-      <c r="BC102" s="255"/>
-      <c r="BD102" s="255"/>
-      <c r="BE102" s="255"/>
-      <c r="BF102" s="255"/>
-      <c r="BG102" s="255"/>
-      <c r="BH102" s="255"/>
-      <c r="BI102" s="255"/>
-      <c r="BJ102" s="255"/>
-      <c r="BK102" s="255"/>
-      <c r="BL102" s="255"/>
-      <c r="BM102" s="255"/>
-      <c r="BN102" s="255"/>
-      <c r="BO102" s="255"/>
-      <c r="BP102" s="255"/>
-      <c r="BQ102" s="255"/>
-      <c r="BR102" s="255"/>
-      <c r="BS102" s="256"/>
+      <c r="D102" s="270"/>
+      <c r="E102" s="270"/>
+      <c r="F102" s="270"/>
+      <c r="G102" s="270"/>
+      <c r="H102" s="270"/>
+      <c r="I102" s="270"/>
+      <c r="J102" s="270"/>
+      <c r="K102" s="270"/>
+      <c r="L102" s="270"/>
+      <c r="M102" s="270"/>
+      <c r="N102" s="270"/>
+      <c r="O102" s="270"/>
+      <c r="P102" s="270"/>
+      <c r="Q102" s="270"/>
+      <c r="R102" s="270"/>
+      <c r="S102" s="270"/>
+      <c r="T102" s="270"/>
+      <c r="U102" s="270"/>
+      <c r="V102" s="270"/>
+      <c r="W102" s="270"/>
+      <c r="X102" s="270"/>
+      <c r="Y102" s="270"/>
+      <c r="Z102" s="270"/>
+      <c r="AA102" s="270"/>
+      <c r="AB102" s="270"/>
+      <c r="AC102" s="270"/>
+      <c r="AD102" s="270"/>
+      <c r="AE102" s="270"/>
+      <c r="AF102" s="270"/>
+      <c r="AG102" s="270"/>
+      <c r="AH102" s="270"/>
+      <c r="AI102" s="270"/>
+      <c r="AJ102" s="270"/>
+      <c r="AK102" s="270"/>
+      <c r="AL102" s="270"/>
+      <c r="AM102" s="270"/>
+      <c r="AN102" s="270"/>
+      <c r="AO102" s="270"/>
+      <c r="AP102" s="270"/>
+      <c r="AQ102" s="270"/>
+      <c r="AR102" s="270"/>
+      <c r="AS102" s="270"/>
+      <c r="AT102" s="270"/>
+      <c r="AU102" s="270"/>
+      <c r="AV102" s="270"/>
+      <c r="AW102" s="270"/>
+      <c r="AX102" s="270"/>
+      <c r="AY102" s="270"/>
+      <c r="AZ102" s="270"/>
+      <c r="BA102" s="270"/>
+      <c r="BB102" s="270"/>
+      <c r="BC102" s="270"/>
+      <c r="BD102" s="270"/>
+      <c r="BE102" s="270"/>
+      <c r="BF102" s="270"/>
+      <c r="BG102" s="270"/>
+      <c r="BH102" s="270"/>
+      <c r="BI102" s="270"/>
+      <c r="BJ102" s="270"/>
+      <c r="BK102" s="270"/>
+      <c r="BL102" s="270"/>
+      <c r="BM102" s="270"/>
+      <c r="BN102" s="270"/>
+      <c r="BO102" s="270"/>
+      <c r="BP102" s="270"/>
+      <c r="BQ102" s="270"/>
+      <c r="BR102" s="270"/>
+      <c r="BS102" s="271"/>
     </row>
     <row r="103" spans="2:71" ht="17.25" thickBot="1">
       <c r="B103" s="208" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="C103" s="249" t="s">
+      <c r="C103" s="268" t="s">
         <v>1178</v>
       </c>
-      <c r="D103" s="249"/>
-      <c r="E103" s="249"/>
-      <c r="F103" s="249"/>
-      <c r="G103" s="249"/>
-      <c r="H103" s="249"/>
-      <c r="I103" s="249"/>
-      <c r="J103" s="249"/>
-      <c r="K103" s="249"/>
-      <c r="L103" s="249"/>
-      <c r="M103" s="249"/>
-      <c r="N103" s="249"/>
-      <c r="O103" s="249"/>
-      <c r="P103" s="249"/>
-      <c r="Q103" s="249"/>
-      <c r="R103" s="249"/>
-      <c r="S103" s="249"/>
-      <c r="T103" s="249"/>
-      <c r="U103" s="249"/>
-      <c r="V103" s="249"/>
-      <c r="W103" s="249"/>
-      <c r="X103" s="249"/>
-      <c r="Y103" s="249"/>
-      <c r="Z103" s="249"/>
-      <c r="AA103" s="249"/>
-      <c r="AB103" s="249"/>
-      <c r="AC103" s="249"/>
-      <c r="AD103" s="249"/>
-      <c r="AE103" s="249"/>
-      <c r="AF103" s="249"/>
-      <c r="AG103" s="249"/>
-      <c r="AH103" s="249"/>
-      <c r="AI103" s="249"/>
-      <c r="AJ103" s="249"/>
-      <c r="AK103" s="249"/>
-      <c r="AL103" s="249"/>
-      <c r="AM103" s="249"/>
-      <c r="AN103" s="249"/>
-      <c r="AO103" s="249"/>
-      <c r="AP103" s="249"/>
-      <c r="AQ103" s="249"/>
-      <c r="AR103" s="249"/>
-      <c r="AS103" s="249"/>
-      <c r="AT103" s="249"/>
-      <c r="AU103" s="249"/>
-      <c r="AV103" s="249"/>
-      <c r="AW103" s="249"/>
-      <c r="AX103" s="249"/>
-      <c r="AY103" s="249"/>
-      <c r="AZ103" s="249"/>
-      <c r="BA103" s="249"/>
-      <c r="BB103" s="249"/>
-      <c r="BC103" s="249"/>
-      <c r="BD103" s="249"/>
-      <c r="BE103" s="249"/>
-      <c r="BF103" s="249"/>
-      <c r="BG103" s="249"/>
-      <c r="BH103" s="249"/>
-      <c r="BI103" s="249"/>
-      <c r="BJ103" s="249"/>
-      <c r="BK103" s="249"/>
-      <c r="BL103" s="249"/>
-      <c r="BM103" s="249"/>
-      <c r="BN103" s="249"/>
-      <c r="BO103" s="249"/>
-      <c r="BP103" s="249"/>
-      <c r="BQ103" s="249"/>
-      <c r="BR103" s="249"/>
-      <c r="BS103" s="250"/>
+      <c r="D103" s="268"/>
+      <c r="E103" s="268"/>
+      <c r="F103" s="268"/>
+      <c r="G103" s="268"/>
+      <c r="H103" s="268"/>
+      <c r="I103" s="268"/>
+      <c r="J103" s="268"/>
+      <c r="K103" s="268"/>
+      <c r="L103" s="268"/>
+      <c r="M103" s="268"/>
+      <c r="N103" s="268"/>
+      <c r="O103" s="268"/>
+      <c r="P103" s="268"/>
+      <c r="Q103" s="268"/>
+      <c r="R103" s="268"/>
+      <c r="S103" s="268"/>
+      <c r="T103" s="268"/>
+      <c r="U103" s="268"/>
+      <c r="V103" s="268"/>
+      <c r="W103" s="268"/>
+      <c r="X103" s="268"/>
+      <c r="Y103" s="268"/>
+      <c r="Z103" s="268"/>
+      <c r="AA103" s="268"/>
+      <c r="AB103" s="268"/>
+      <c r="AC103" s="268"/>
+      <c r="AD103" s="268"/>
+      <c r="AE103" s="268"/>
+      <c r="AF103" s="268"/>
+      <c r="AG103" s="268"/>
+      <c r="AH103" s="268"/>
+      <c r="AI103" s="268"/>
+      <c r="AJ103" s="268"/>
+      <c r="AK103" s="268"/>
+      <c r="AL103" s="268"/>
+      <c r="AM103" s="268"/>
+      <c r="AN103" s="268"/>
+      <c r="AO103" s="268"/>
+      <c r="AP103" s="268"/>
+      <c r="AQ103" s="268"/>
+      <c r="AR103" s="268"/>
+      <c r="AS103" s="268"/>
+      <c r="AT103" s="268"/>
+      <c r="AU103" s="268"/>
+      <c r="AV103" s="268"/>
+      <c r="AW103" s="268"/>
+      <c r="AX103" s="268"/>
+      <c r="AY103" s="268"/>
+      <c r="AZ103" s="268"/>
+      <c r="BA103" s="268"/>
+      <c r="BB103" s="268"/>
+      <c r="BC103" s="268"/>
+      <c r="BD103" s="268"/>
+      <c r="BE103" s="268"/>
+      <c r="BF103" s="268"/>
+      <c r="BG103" s="268"/>
+      <c r="BH103" s="268"/>
+      <c r="BI103" s="268"/>
+      <c r="BJ103" s="268"/>
+      <c r="BK103" s="268"/>
+      <c r="BL103" s="268"/>
+      <c r="BM103" s="268"/>
+      <c r="BN103" s="268"/>
+      <c r="BO103" s="268"/>
+      <c r="BP103" s="268"/>
+      <c r="BQ103" s="268"/>
+      <c r="BR103" s="268"/>
+      <c r="BS103" s="269"/>
     </row>
     <row r="104" spans="2:71">
       <c r="B104" s="207" t="str">
         <f t="shared" ref="B104:B109" si="52">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="C104" s="251" t="s">
+      <c r="C104" s="264" t="s">
         <v>1177</v>
       </c>
-      <c r="D104" s="251"/>
-      <c r="E104" s="251"/>
-      <c r="F104" s="251"/>
-      <c r="G104" s="251"/>
-      <c r="H104" s="251"/>
-      <c r="I104" s="251"/>
-      <c r="J104" s="251"/>
-      <c r="K104" s="251"/>
-      <c r="L104" s="251"/>
-      <c r="M104" s="251"/>
-      <c r="N104" s="251"/>
-      <c r="O104" s="251"/>
-      <c r="P104" s="251"/>
-      <c r="Q104" s="251"/>
-      <c r="R104" s="251"/>
-      <c r="S104" s="251"/>
-      <c r="T104" s="251"/>
-      <c r="U104" s="251"/>
-      <c r="V104" s="251"/>
-      <c r="W104" s="251"/>
-      <c r="X104" s="251"/>
-      <c r="Y104" s="251"/>
-      <c r="Z104" s="251"/>
-      <c r="AA104" s="251"/>
-      <c r="AB104" s="251"/>
-      <c r="AC104" s="251"/>
-      <c r="AD104" s="251"/>
-      <c r="AE104" s="251"/>
-      <c r="AF104" s="251"/>
-      <c r="AG104" s="251"/>
-      <c r="AH104" s="251"/>
-      <c r="AI104" s="251"/>
-      <c r="AJ104" s="251"/>
-      <c r="AK104" s="251"/>
-      <c r="AL104" s="251"/>
-      <c r="AM104" s="251"/>
-      <c r="AN104" s="251"/>
-      <c r="AO104" s="251"/>
-      <c r="AP104" s="251"/>
-      <c r="AQ104" s="251"/>
-      <c r="AR104" s="251"/>
-      <c r="AS104" s="251"/>
-      <c r="AT104" s="251"/>
-      <c r="AU104" s="251"/>
-      <c r="AV104" s="251"/>
-      <c r="AW104" s="251"/>
-      <c r="AX104" s="251"/>
-      <c r="AY104" s="251"/>
-      <c r="AZ104" s="251"/>
-      <c r="BA104" s="251"/>
-      <c r="BB104" s="251"/>
-      <c r="BC104" s="251"/>
-      <c r="BD104" s="251"/>
-      <c r="BE104" s="251"/>
-      <c r="BF104" s="251"/>
-      <c r="BG104" s="251"/>
-      <c r="BH104" s="251"/>
-      <c r="BI104" s="251"/>
-      <c r="BJ104" s="251"/>
-      <c r="BK104" s="251"/>
-      <c r="BL104" s="251"/>
-      <c r="BM104" s="251"/>
-      <c r="BN104" s="251"/>
-      <c r="BO104" s="251"/>
-      <c r="BP104" s="251"/>
-      <c r="BQ104" s="251"/>
-      <c r="BR104" s="251"/>
-      <c r="BS104" s="252"/>
+      <c r="D104" s="264"/>
+      <c r="E104" s="264"/>
+      <c r="F104" s="264"/>
+      <c r="G104" s="264"/>
+      <c r="H104" s="264"/>
+      <c r="I104" s="264"/>
+      <c r="J104" s="264"/>
+      <c r="K104" s="264"/>
+      <c r="L104" s="264"/>
+      <c r="M104" s="264"/>
+      <c r="N104" s="264"/>
+      <c r="O104" s="264"/>
+      <c r="P104" s="264"/>
+      <c r="Q104" s="264"/>
+      <c r="R104" s="264"/>
+      <c r="S104" s="264"/>
+      <c r="T104" s="264"/>
+      <c r="U104" s="264"/>
+      <c r="V104" s="264"/>
+      <c r="W104" s="264"/>
+      <c r="X104" s="264"/>
+      <c r="Y104" s="264"/>
+      <c r="Z104" s="264"/>
+      <c r="AA104" s="264"/>
+      <c r="AB104" s="264"/>
+      <c r="AC104" s="264"/>
+      <c r="AD104" s="264"/>
+      <c r="AE104" s="264"/>
+      <c r="AF104" s="264"/>
+      <c r="AG104" s="264"/>
+      <c r="AH104" s="264"/>
+      <c r="AI104" s="264"/>
+      <c r="AJ104" s="264"/>
+      <c r="AK104" s="264"/>
+      <c r="AL104" s="264"/>
+      <c r="AM104" s="264"/>
+      <c r="AN104" s="264"/>
+      <c r="AO104" s="264"/>
+      <c r="AP104" s="264"/>
+      <c r="AQ104" s="264"/>
+      <c r="AR104" s="264"/>
+      <c r="AS104" s="264"/>
+      <c r="AT104" s="264"/>
+      <c r="AU104" s="264"/>
+      <c r="AV104" s="264"/>
+      <c r="AW104" s="264"/>
+      <c r="AX104" s="264"/>
+      <c r="AY104" s="264"/>
+      <c r="AZ104" s="264"/>
+      <c r="BA104" s="264"/>
+      <c r="BB104" s="264"/>
+      <c r="BC104" s="264"/>
+      <c r="BD104" s="264"/>
+      <c r="BE104" s="264"/>
+      <c r="BF104" s="264"/>
+      <c r="BG104" s="264"/>
+      <c r="BH104" s="264"/>
+      <c r="BI104" s="264"/>
+      <c r="BJ104" s="264"/>
+      <c r="BK104" s="264"/>
+      <c r="BL104" s="264"/>
+      <c r="BM104" s="264"/>
+      <c r="BN104" s="264"/>
+      <c r="BO104" s="264"/>
+      <c r="BP104" s="264"/>
+      <c r="BQ104" s="264"/>
+      <c r="BR104" s="264"/>
+      <c r="BS104" s="265"/>
     </row>
     <row r="105" spans="2:71">
       <c r="B105" s="205" t="str">
         <f t="shared" si="52"/>
         <v>0.1</v>
       </c>
-      <c r="C105" s="253" t="s">
+      <c r="C105" s="266" t="s">
         <v>1176</v>
       </c>
-      <c r="D105" s="253"/>
-      <c r="E105" s="253"/>
-      <c r="F105" s="253"/>
-      <c r="G105" s="253"/>
-      <c r="H105" s="253"/>
-      <c r="I105" s="253"/>
-      <c r="J105" s="253"/>
-      <c r="K105" s="253"/>
-      <c r="L105" s="253"/>
-      <c r="M105" s="253"/>
-      <c r="N105" s="253"/>
-      <c r="O105" s="253"/>
-      <c r="P105" s="253"/>
-      <c r="Q105" s="253"/>
-      <c r="R105" s="253"/>
-      <c r="S105" s="253"/>
-      <c r="T105" s="253"/>
-      <c r="U105" s="253"/>
-      <c r="V105" s="253"/>
-      <c r="W105" s="253"/>
-      <c r="X105" s="253"/>
-      <c r="Y105" s="253"/>
-      <c r="Z105" s="253"/>
-      <c r="AA105" s="253"/>
-      <c r="AB105" s="253"/>
-      <c r="AC105" s="253"/>
-      <c r="AD105" s="253"/>
-      <c r="AE105" s="253"/>
-      <c r="AF105" s="253"/>
-      <c r="AG105" s="253"/>
-      <c r="AH105" s="253"/>
-      <c r="AI105" s="253"/>
-      <c r="AJ105" s="253"/>
-      <c r="AK105" s="253"/>
-      <c r="AL105" s="253"/>
-      <c r="AM105" s="253"/>
-      <c r="AN105" s="253"/>
-      <c r="AO105" s="253"/>
-      <c r="AP105" s="253"/>
-      <c r="AQ105" s="253"/>
-      <c r="AR105" s="253"/>
-      <c r="AS105" s="253"/>
-      <c r="AT105" s="253"/>
-      <c r="AU105" s="253"/>
-      <c r="AV105" s="253"/>
-      <c r="AW105" s="253"/>
-      <c r="AX105" s="253"/>
-      <c r="AY105" s="253"/>
-      <c r="AZ105" s="253"/>
-      <c r="BA105" s="253"/>
-      <c r="BB105" s="253"/>
-      <c r="BC105" s="253"/>
-      <c r="BD105" s="253"/>
-      <c r="BE105" s="253"/>
-      <c r="BF105" s="253"/>
-      <c r="BG105" s="253"/>
-      <c r="BH105" s="253"/>
-      <c r="BI105" s="253"/>
-      <c r="BJ105" s="253"/>
-      <c r="BK105" s="253"/>
-      <c r="BL105" s="253"/>
-      <c r="BM105" s="253"/>
-      <c r="BN105" s="253"/>
-      <c r="BO105" s="253"/>
-      <c r="BP105" s="253"/>
-      <c r="BQ105" s="253"/>
-      <c r="BR105" s="253"/>
-      <c r="BS105" s="254"/>
+      <c r="D105" s="266"/>
+      <c r="E105" s="266"/>
+      <c r="F105" s="266"/>
+      <c r="G105" s="266"/>
+      <c r="H105" s="266"/>
+      <c r="I105" s="266"/>
+      <c r="J105" s="266"/>
+      <c r="K105" s="266"/>
+      <c r="L105" s="266"/>
+      <c r="M105" s="266"/>
+      <c r="N105" s="266"/>
+      <c r="O105" s="266"/>
+      <c r="P105" s="266"/>
+      <c r="Q105" s="266"/>
+      <c r="R105" s="266"/>
+      <c r="S105" s="266"/>
+      <c r="T105" s="266"/>
+      <c r="U105" s="266"/>
+      <c r="V105" s="266"/>
+      <c r="W105" s="266"/>
+      <c r="X105" s="266"/>
+      <c r="Y105" s="266"/>
+      <c r="Z105" s="266"/>
+      <c r="AA105" s="266"/>
+      <c r="AB105" s="266"/>
+      <c r="AC105" s="266"/>
+      <c r="AD105" s="266"/>
+      <c r="AE105" s="266"/>
+      <c r="AF105" s="266"/>
+      <c r="AG105" s="266"/>
+      <c r="AH105" s="266"/>
+      <c r="AI105" s="266"/>
+      <c r="AJ105" s="266"/>
+      <c r="AK105" s="266"/>
+      <c r="AL105" s="266"/>
+      <c r="AM105" s="266"/>
+      <c r="AN105" s="266"/>
+      <c r="AO105" s="266"/>
+      <c r="AP105" s="266"/>
+      <c r="AQ105" s="266"/>
+      <c r="AR105" s="266"/>
+      <c r="AS105" s="266"/>
+      <c r="AT105" s="266"/>
+      <c r="AU105" s="266"/>
+      <c r="AV105" s="266"/>
+      <c r="AW105" s="266"/>
+      <c r="AX105" s="266"/>
+      <c r="AY105" s="266"/>
+      <c r="AZ105" s="266"/>
+      <c r="BA105" s="266"/>
+      <c r="BB105" s="266"/>
+      <c r="BC105" s="266"/>
+      <c r="BD105" s="266"/>
+      <c r="BE105" s="266"/>
+      <c r="BF105" s="266"/>
+      <c r="BG105" s="266"/>
+      <c r="BH105" s="266"/>
+      <c r="BI105" s="266"/>
+      <c r="BJ105" s="266"/>
+      <c r="BK105" s="266"/>
+      <c r="BL105" s="266"/>
+      <c r="BM105" s="266"/>
+      <c r="BN105" s="266"/>
+      <c r="BO105" s="266"/>
+      <c r="BP105" s="266"/>
+      <c r="BQ105" s="266"/>
+      <c r="BR105" s="266"/>
+      <c r="BS105" s="267"/>
     </row>
     <row r="106" spans="2:71">
       <c r="B106" s="205" t="str">
         <f t="shared" si="52"/>
         <v>0.1</v>
       </c>
-      <c r="C106" s="253" t="s">
+      <c r="C106" s="266" t="s">
         <v>1175</v>
       </c>
-      <c r="D106" s="253"/>
-      <c r="E106" s="253"/>
-      <c r="F106" s="253"/>
-      <c r="G106" s="253"/>
-      <c r="H106" s="253"/>
-      <c r="I106" s="253"/>
-      <c r="J106" s="253"/>
-      <c r="K106" s="253"/>
-      <c r="L106" s="253"/>
-      <c r="M106" s="253"/>
-      <c r="N106" s="253"/>
-      <c r="O106" s="253"/>
-      <c r="P106" s="253"/>
-      <c r="Q106" s="253"/>
-      <c r="R106" s="253"/>
-      <c r="S106" s="253"/>
-      <c r="T106" s="253"/>
-      <c r="U106" s="253"/>
-      <c r="V106" s="253"/>
-      <c r="W106" s="253"/>
-      <c r="X106" s="253"/>
-      <c r="Y106" s="253"/>
-      <c r="Z106" s="253"/>
-      <c r="AA106" s="253"/>
-      <c r="AB106" s="253"/>
-      <c r="AC106" s="253"/>
-      <c r="AD106" s="253"/>
-      <c r="AE106" s="253"/>
-      <c r="AF106" s="253"/>
-      <c r="AG106" s="253"/>
-      <c r="AH106" s="253"/>
-      <c r="AI106" s="253"/>
-      <c r="AJ106" s="253"/>
-      <c r="AK106" s="253"/>
-      <c r="AL106" s="253"/>
-      <c r="AM106" s="253"/>
-      <c r="AN106" s="253"/>
-      <c r="AO106" s="253"/>
-      <c r="AP106" s="253"/>
-      <c r="AQ106" s="253"/>
-      <c r="AR106" s="253"/>
-      <c r="AS106" s="253"/>
-      <c r="AT106" s="253"/>
-      <c r="AU106" s="253"/>
-      <c r="AV106" s="253"/>
-      <c r="AW106" s="253"/>
-      <c r="AX106" s="253"/>
-      <c r="AY106" s="253"/>
-      <c r="AZ106" s="253"/>
-      <c r="BA106" s="253"/>
-      <c r="BB106" s="253"/>
-      <c r="BC106" s="253"/>
-      <c r="BD106" s="253"/>
-      <c r="BE106" s="253"/>
-      <c r="BF106" s="253"/>
-      <c r="BG106" s="253"/>
-      <c r="BH106" s="253"/>
-      <c r="BI106" s="253"/>
-      <c r="BJ106" s="253"/>
-      <c r="BK106" s="253"/>
-      <c r="BL106" s="253"/>
-      <c r="BM106" s="253"/>
-      <c r="BN106" s="253"/>
-      <c r="BO106" s="253"/>
-      <c r="BP106" s="253"/>
-      <c r="BQ106" s="253"/>
-      <c r="BR106" s="253"/>
-      <c r="BS106" s="254"/>
+      <c r="D106" s="266"/>
+      <c r="E106" s="266"/>
+      <c r="F106" s="266"/>
+      <c r="G106" s="266"/>
+      <c r="H106" s="266"/>
+      <c r="I106" s="266"/>
+      <c r="J106" s="266"/>
+      <c r="K106" s="266"/>
+      <c r="L106" s="266"/>
+      <c r="M106" s="266"/>
+      <c r="N106" s="266"/>
+      <c r="O106" s="266"/>
+      <c r="P106" s="266"/>
+      <c r="Q106" s="266"/>
+      <c r="R106" s="266"/>
+      <c r="S106" s="266"/>
+      <c r="T106" s="266"/>
+      <c r="U106" s="266"/>
+      <c r="V106" s="266"/>
+      <c r="W106" s="266"/>
+      <c r="X106" s="266"/>
+      <c r="Y106" s="266"/>
+      <c r="Z106" s="266"/>
+      <c r="AA106" s="266"/>
+      <c r="AB106" s="266"/>
+      <c r="AC106" s="266"/>
+      <c r="AD106" s="266"/>
+      <c r="AE106" s="266"/>
+      <c r="AF106" s="266"/>
+      <c r="AG106" s="266"/>
+      <c r="AH106" s="266"/>
+      <c r="AI106" s="266"/>
+      <c r="AJ106" s="266"/>
+      <c r="AK106" s="266"/>
+      <c r="AL106" s="266"/>
+      <c r="AM106" s="266"/>
+      <c r="AN106" s="266"/>
+      <c r="AO106" s="266"/>
+      <c r="AP106" s="266"/>
+      <c r="AQ106" s="266"/>
+      <c r="AR106" s="266"/>
+      <c r="AS106" s="266"/>
+      <c r="AT106" s="266"/>
+      <c r="AU106" s="266"/>
+      <c r="AV106" s="266"/>
+      <c r="AW106" s="266"/>
+      <c r="AX106" s="266"/>
+      <c r="AY106" s="266"/>
+      <c r="AZ106" s="266"/>
+      <c r="BA106" s="266"/>
+      <c r="BB106" s="266"/>
+      <c r="BC106" s="266"/>
+      <c r="BD106" s="266"/>
+      <c r="BE106" s="266"/>
+      <c r="BF106" s="266"/>
+      <c r="BG106" s="266"/>
+      <c r="BH106" s="266"/>
+      <c r="BI106" s="266"/>
+      <c r="BJ106" s="266"/>
+      <c r="BK106" s="266"/>
+      <c r="BL106" s="266"/>
+      <c r="BM106" s="266"/>
+      <c r="BN106" s="266"/>
+      <c r="BO106" s="266"/>
+      <c r="BP106" s="266"/>
+      <c r="BQ106" s="266"/>
+      <c r="BR106" s="266"/>
+      <c r="BS106" s="267"/>
     </row>
     <row r="107" spans="2:71">
       <c r="B107" s="206" t="str">
         <f t="shared" si="52"/>
         <v>0.1</v>
       </c>
-      <c r="C107" s="253" t="s">
+      <c r="C107" s="266" t="s">
         <v>1174</v>
       </c>
-      <c r="D107" s="253"/>
-      <c r="E107" s="253"/>
-      <c r="F107" s="253"/>
-      <c r="G107" s="253"/>
-      <c r="H107" s="253"/>
-      <c r="I107" s="253"/>
-      <c r="J107" s="253"/>
-      <c r="K107" s="253"/>
-      <c r="L107" s="253"/>
-      <c r="M107" s="253"/>
-      <c r="N107" s="253"/>
-      <c r="O107" s="253"/>
-      <c r="P107" s="253"/>
-      <c r="Q107" s="253"/>
-      <c r="R107" s="253"/>
-      <c r="S107" s="253"/>
-      <c r="T107" s="253"/>
-      <c r="U107" s="253"/>
-      <c r="V107" s="253"/>
-      <c r="W107" s="253"/>
-      <c r="X107" s="253"/>
-      <c r="Y107" s="253"/>
-      <c r="Z107" s="253"/>
-      <c r="AA107" s="253"/>
-      <c r="AB107" s="253"/>
-      <c r="AC107" s="253"/>
-      <c r="AD107" s="253"/>
-      <c r="AE107" s="253"/>
-      <c r="AF107" s="253"/>
-      <c r="AG107" s="253"/>
-      <c r="AH107" s="253"/>
-      <c r="AI107" s="253"/>
-      <c r="AJ107" s="253"/>
-      <c r="AK107" s="253"/>
-      <c r="AL107" s="253"/>
-      <c r="AM107" s="253"/>
-      <c r="AN107" s="253"/>
-      <c r="AO107" s="253"/>
-      <c r="AP107" s="253"/>
-      <c r="AQ107" s="253"/>
-      <c r="AR107" s="253"/>
-      <c r="AS107" s="253"/>
-      <c r="AT107" s="253"/>
-      <c r="AU107" s="253"/>
-      <c r="AV107" s="253"/>
-      <c r="AW107" s="253"/>
-      <c r="AX107" s="253"/>
-      <c r="AY107" s="253"/>
-      <c r="AZ107" s="253"/>
-      <c r="BA107" s="253"/>
-      <c r="BB107" s="253"/>
-      <c r="BC107" s="253"/>
-      <c r="BD107" s="253"/>
-      <c r="BE107" s="253"/>
-      <c r="BF107" s="253"/>
-      <c r="BG107" s="253"/>
-      <c r="BH107" s="253"/>
-      <c r="BI107" s="253"/>
-      <c r="BJ107" s="253"/>
-      <c r="BK107" s="253"/>
-      <c r="BL107" s="253"/>
-      <c r="BM107" s="253"/>
-      <c r="BN107" s="253"/>
-      <c r="BO107" s="253"/>
-      <c r="BP107" s="253"/>
-      <c r="BQ107" s="253"/>
-      <c r="BR107" s="253"/>
-      <c r="BS107" s="254"/>
+      <c r="D107" s="266"/>
+      <c r="E107" s="266"/>
+      <c r="F107" s="266"/>
+      <c r="G107" s="266"/>
+      <c r="H107" s="266"/>
+      <c r="I107" s="266"/>
+      <c r="J107" s="266"/>
+      <c r="K107" s="266"/>
+      <c r="L107" s="266"/>
+      <c r="M107" s="266"/>
+      <c r="N107" s="266"/>
+      <c r="O107" s="266"/>
+      <c r="P107" s="266"/>
+      <c r="Q107" s="266"/>
+      <c r="R107" s="266"/>
+      <c r="S107" s="266"/>
+      <c r="T107" s="266"/>
+      <c r="U107" s="266"/>
+      <c r="V107" s="266"/>
+      <c r="W107" s="266"/>
+      <c r="X107" s="266"/>
+      <c r="Y107" s="266"/>
+      <c r="Z107" s="266"/>
+      <c r="AA107" s="266"/>
+      <c r="AB107" s="266"/>
+      <c r="AC107" s="266"/>
+      <c r="AD107" s="266"/>
+      <c r="AE107" s="266"/>
+      <c r="AF107" s="266"/>
+      <c r="AG107" s="266"/>
+      <c r="AH107" s="266"/>
+      <c r="AI107" s="266"/>
+      <c r="AJ107" s="266"/>
+      <c r="AK107" s="266"/>
+      <c r="AL107" s="266"/>
+      <c r="AM107" s="266"/>
+      <c r="AN107" s="266"/>
+      <c r="AO107" s="266"/>
+      <c r="AP107" s="266"/>
+      <c r="AQ107" s="266"/>
+      <c r="AR107" s="266"/>
+      <c r="AS107" s="266"/>
+      <c r="AT107" s="266"/>
+      <c r="AU107" s="266"/>
+      <c r="AV107" s="266"/>
+      <c r="AW107" s="266"/>
+      <c r="AX107" s="266"/>
+      <c r="AY107" s="266"/>
+      <c r="AZ107" s="266"/>
+      <c r="BA107" s="266"/>
+      <c r="BB107" s="266"/>
+      <c r="BC107" s="266"/>
+      <c r="BD107" s="266"/>
+      <c r="BE107" s="266"/>
+      <c r="BF107" s="266"/>
+      <c r="BG107" s="266"/>
+      <c r="BH107" s="266"/>
+      <c r="BI107" s="266"/>
+      <c r="BJ107" s="266"/>
+      <c r="BK107" s="266"/>
+      <c r="BL107" s="266"/>
+      <c r="BM107" s="266"/>
+      <c r="BN107" s="266"/>
+      <c r="BO107" s="266"/>
+      <c r="BP107" s="266"/>
+      <c r="BQ107" s="266"/>
+      <c r="BR107" s="266"/>
+      <c r="BS107" s="267"/>
     </row>
     <row r="108" spans="2:71">
       <c r="B108" s="205" t="str">
         <f t="shared" si="52"/>
         <v>0.1</v>
       </c>
-      <c r="C108" s="253" t="s">
+      <c r="C108" s="266" t="s">
         <v>1173</v>
       </c>
-      <c r="D108" s="253"/>
-      <c r="E108" s="253"/>
-      <c r="F108" s="253"/>
-      <c r="G108" s="253"/>
-      <c r="H108" s="253"/>
-      <c r="I108" s="253"/>
-      <c r="J108" s="253"/>
-      <c r="K108" s="253"/>
-      <c r="L108" s="253"/>
-      <c r="M108" s="253"/>
-      <c r="N108" s="253"/>
-      <c r="O108" s="253"/>
-      <c r="P108" s="253"/>
-      <c r="Q108" s="253"/>
-      <c r="R108" s="253"/>
-      <c r="S108" s="253"/>
-      <c r="T108" s="253"/>
-      <c r="U108" s="253"/>
-      <c r="V108" s="253"/>
-      <c r="W108" s="253"/>
-      <c r="X108" s="253"/>
-      <c r="Y108" s="253"/>
-      <c r="Z108" s="253"/>
-      <c r="AA108" s="253"/>
-      <c r="AB108" s="253"/>
-      <c r="AC108" s="253"/>
-      <c r="AD108" s="253"/>
-      <c r="AE108" s="253"/>
-      <c r="AF108" s="253"/>
-      <c r="AG108" s="253"/>
-      <c r="AH108" s="253"/>
-      <c r="AI108" s="253"/>
-      <c r="AJ108" s="253"/>
-      <c r="AK108" s="253"/>
-      <c r="AL108" s="253"/>
-      <c r="AM108" s="253"/>
-      <c r="AN108" s="253"/>
-      <c r="AO108" s="253"/>
-      <c r="AP108" s="253"/>
-      <c r="AQ108" s="253"/>
-      <c r="AR108" s="253"/>
-      <c r="AS108" s="253"/>
-      <c r="AT108" s="253"/>
-      <c r="AU108" s="253"/>
-      <c r="AV108" s="253"/>
-      <c r="AW108" s="253"/>
-      <c r="AX108" s="253"/>
-      <c r="AY108" s="253"/>
-      <c r="AZ108" s="253"/>
-      <c r="BA108" s="253"/>
-      <c r="BB108" s="253"/>
-      <c r="BC108" s="253"/>
-      <c r="BD108" s="253"/>
-      <c r="BE108" s="253"/>
-      <c r="BF108" s="253"/>
-      <c r="BG108" s="253"/>
-      <c r="BH108" s="253"/>
-      <c r="BI108" s="253"/>
-      <c r="BJ108" s="253"/>
-      <c r="BK108" s="253"/>
-      <c r="BL108" s="253"/>
-      <c r="BM108" s="253"/>
-      <c r="BN108" s="253"/>
-      <c r="BO108" s="253"/>
-      <c r="BP108" s="253"/>
-      <c r="BQ108" s="253"/>
-      <c r="BR108" s="253"/>
-      <c r="BS108" s="254"/>
+      <c r="D108" s="266"/>
+      <c r="E108" s="266"/>
+      <c r="F108" s="266"/>
+      <c r="G108" s="266"/>
+      <c r="H108" s="266"/>
+      <c r="I108" s="266"/>
+      <c r="J108" s="266"/>
+      <c r="K108" s="266"/>
+      <c r="L108" s="266"/>
+      <c r="M108" s="266"/>
+      <c r="N108" s="266"/>
+      <c r="O108" s="266"/>
+      <c r="P108" s="266"/>
+      <c r="Q108" s="266"/>
+      <c r="R108" s="266"/>
+      <c r="S108" s="266"/>
+      <c r="T108" s="266"/>
+      <c r="U108" s="266"/>
+      <c r="V108" s="266"/>
+      <c r="W108" s="266"/>
+      <c r="X108" s="266"/>
+      <c r="Y108" s="266"/>
+      <c r="Z108" s="266"/>
+      <c r="AA108" s="266"/>
+      <c r="AB108" s="266"/>
+      <c r="AC108" s="266"/>
+      <c r="AD108" s="266"/>
+      <c r="AE108" s="266"/>
+      <c r="AF108" s="266"/>
+      <c r="AG108" s="266"/>
+      <c r="AH108" s="266"/>
+      <c r="AI108" s="266"/>
+      <c r="AJ108" s="266"/>
+      <c r="AK108" s="266"/>
+      <c r="AL108" s="266"/>
+      <c r="AM108" s="266"/>
+      <c r="AN108" s="266"/>
+      <c r="AO108" s="266"/>
+      <c r="AP108" s="266"/>
+      <c r="AQ108" s="266"/>
+      <c r="AR108" s="266"/>
+      <c r="AS108" s="266"/>
+      <c r="AT108" s="266"/>
+      <c r="AU108" s="266"/>
+      <c r="AV108" s="266"/>
+      <c r="AW108" s="266"/>
+      <c r="AX108" s="266"/>
+      <c r="AY108" s="266"/>
+      <c r="AZ108" s="266"/>
+      <c r="BA108" s="266"/>
+      <c r="BB108" s="266"/>
+      <c r="BC108" s="266"/>
+      <c r="BD108" s="266"/>
+      <c r="BE108" s="266"/>
+      <c r="BF108" s="266"/>
+      <c r="BG108" s="266"/>
+      <c r="BH108" s="266"/>
+      <c r="BI108" s="266"/>
+      <c r="BJ108" s="266"/>
+      <c r="BK108" s="266"/>
+      <c r="BL108" s="266"/>
+      <c r="BM108" s="266"/>
+      <c r="BN108" s="266"/>
+      <c r="BO108" s="266"/>
+      <c r="BP108" s="266"/>
+      <c r="BQ108" s="266"/>
+      <c r="BR108" s="266"/>
+      <c r="BS108" s="267"/>
     </row>
     <row r="109" spans="2:71" ht="17.25" thickBot="1">
       <c r="B109" s="204" t="str">
         <f t="shared" si="52"/>
         <v>0.1</v>
       </c>
-      <c r="C109" s="255" t="s">
+      <c r="C109" s="270" t="s">
         <v>1172</v>
       </c>
-      <c r="D109" s="255"/>
-      <c r="E109" s="255"/>
-      <c r="F109" s="255"/>
-      <c r="G109" s="255"/>
-      <c r="H109" s="255"/>
-      <c r="I109" s="255"/>
-      <c r="J109" s="255"/>
-      <c r="K109" s="255"/>
-      <c r="L109" s="255"/>
-      <c r="M109" s="255"/>
-      <c r="N109" s="255"/>
-      <c r="O109" s="255"/>
-      <c r="P109" s="255"/>
-      <c r="Q109" s="255"/>
-      <c r="R109" s="255"/>
-      <c r="S109" s="255"/>
-      <c r="T109" s="255"/>
-      <c r="U109" s="255"/>
-      <c r="V109" s="255"/>
-      <c r="W109" s="255"/>
-      <c r="X109" s="255"/>
-      <c r="Y109" s="255"/>
-      <c r="Z109" s="255"/>
-      <c r="AA109" s="255"/>
-      <c r="AB109" s="255"/>
-      <c r="AC109" s="255"/>
-      <c r="AD109" s="255"/>
-      <c r="AE109" s="255"/>
-      <c r="AF109" s="255"/>
-      <c r="AG109" s="255"/>
-      <c r="AH109" s="255"/>
-      <c r="AI109" s="255"/>
-      <c r="AJ109" s="255"/>
-      <c r="AK109" s="255"/>
-      <c r="AL109" s="255"/>
-      <c r="AM109" s="255"/>
-      <c r="AN109" s="255"/>
-      <c r="AO109" s="255"/>
-      <c r="AP109" s="255"/>
-      <c r="AQ109" s="255"/>
-      <c r="AR109" s="255"/>
-      <c r="AS109" s="255"/>
-      <c r="AT109" s="255"/>
-      <c r="AU109" s="255"/>
-      <c r="AV109" s="255"/>
-      <c r="AW109" s="255"/>
-      <c r="AX109" s="255"/>
-      <c r="AY109" s="255"/>
-      <c r="AZ109" s="255"/>
-      <c r="BA109" s="255"/>
-      <c r="BB109" s="255"/>
-      <c r="BC109" s="255"/>
-      <c r="BD109" s="255"/>
-      <c r="BE109" s="255"/>
-      <c r="BF109" s="255"/>
-      <c r="BG109" s="255"/>
-      <c r="BH109" s="255"/>
-      <c r="BI109" s="255"/>
-      <c r="BJ109" s="255"/>
-      <c r="BK109" s="255"/>
-      <c r="BL109" s="255"/>
-      <c r="BM109" s="255"/>
-      <c r="BN109" s="255"/>
-      <c r="BO109" s="255"/>
-      <c r="BP109" s="255"/>
-      <c r="BQ109" s="255"/>
-      <c r="BR109" s="255"/>
-      <c r="BS109" s="256"/>
+      <c r="D109" s="270"/>
+      <c r="E109" s="270"/>
+      <c r="F109" s="270"/>
+      <c r="G109" s="270"/>
+      <c r="H109" s="270"/>
+      <c r="I109" s="270"/>
+      <c r="J109" s="270"/>
+      <c r="K109" s="270"/>
+      <c r="L109" s="270"/>
+      <c r="M109" s="270"/>
+      <c r="N109" s="270"/>
+      <c r="O109" s="270"/>
+      <c r="P109" s="270"/>
+      <c r="Q109" s="270"/>
+      <c r="R109" s="270"/>
+      <c r="S109" s="270"/>
+      <c r="T109" s="270"/>
+      <c r="U109" s="270"/>
+      <c r="V109" s="270"/>
+      <c r="W109" s="270"/>
+      <c r="X109" s="270"/>
+      <c r="Y109" s="270"/>
+      <c r="Z109" s="270"/>
+      <c r="AA109" s="270"/>
+      <c r="AB109" s="270"/>
+      <c r="AC109" s="270"/>
+      <c r="AD109" s="270"/>
+      <c r="AE109" s="270"/>
+      <c r="AF109" s="270"/>
+      <c r="AG109" s="270"/>
+      <c r="AH109" s="270"/>
+      <c r="AI109" s="270"/>
+      <c r="AJ109" s="270"/>
+      <c r="AK109" s="270"/>
+      <c r="AL109" s="270"/>
+      <c r="AM109" s="270"/>
+      <c r="AN109" s="270"/>
+      <c r="AO109" s="270"/>
+      <c r="AP109" s="270"/>
+      <c r="AQ109" s="270"/>
+      <c r="AR109" s="270"/>
+      <c r="AS109" s="270"/>
+      <c r="AT109" s="270"/>
+      <c r="AU109" s="270"/>
+      <c r="AV109" s="270"/>
+      <c r="AW109" s="270"/>
+      <c r="AX109" s="270"/>
+      <c r="AY109" s="270"/>
+      <c r="AZ109" s="270"/>
+      <c r="BA109" s="270"/>
+      <c r="BB109" s="270"/>
+      <c r="BC109" s="270"/>
+      <c r="BD109" s="270"/>
+      <c r="BE109" s="270"/>
+      <c r="BF109" s="270"/>
+      <c r="BG109" s="270"/>
+      <c r="BH109" s="270"/>
+      <c r="BI109" s="270"/>
+      <c r="BJ109" s="270"/>
+      <c r="BK109" s="270"/>
+      <c r="BL109" s="270"/>
+      <c r="BM109" s="270"/>
+      <c r="BN109" s="270"/>
+      <c r="BO109" s="270"/>
+      <c r="BP109" s="270"/>
+      <c r="BQ109" s="270"/>
+      <c r="BR109" s="270"/>
+      <c r="BS109" s="271"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A11:M61" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A11:M61"/>
   <mergeCells count="65">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="AC8:AI8"/>
-    <mergeCell ref="AJ8:AP8"/>
-    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C103:BS103"/>
+    <mergeCell ref="C104:BS104"/>
+    <mergeCell ref="C90:BS90"/>
+    <mergeCell ref="C91:BS91"/>
+    <mergeCell ref="C80:BS80"/>
+    <mergeCell ref="C79:BS79"/>
+    <mergeCell ref="C89:BS89"/>
+    <mergeCell ref="C88:BS88"/>
+    <mergeCell ref="C87:BS87"/>
+    <mergeCell ref="C86:BS86"/>
+    <mergeCell ref="C82:BS82"/>
+    <mergeCell ref="C83:BS83"/>
+    <mergeCell ref="C84:BS84"/>
+    <mergeCell ref="C85:BS85"/>
+    <mergeCell ref="C81:BS81"/>
+    <mergeCell ref="C108:BS108"/>
+    <mergeCell ref="C109:BS109"/>
+    <mergeCell ref="C92:BS92"/>
+    <mergeCell ref="C93:BS93"/>
+    <mergeCell ref="C96:BS96"/>
+    <mergeCell ref="C97:BS97"/>
+    <mergeCell ref="C98:BS98"/>
+    <mergeCell ref="C99:BS99"/>
+    <mergeCell ref="C95:BS95"/>
+    <mergeCell ref="C94:BS94"/>
+    <mergeCell ref="C100:BS100"/>
+    <mergeCell ref="C107:BS107"/>
+    <mergeCell ref="C106:BS106"/>
+    <mergeCell ref="C105:BS105"/>
+    <mergeCell ref="C101:BS101"/>
+    <mergeCell ref="C102:BS102"/>
+    <mergeCell ref="C78:BS78"/>
+    <mergeCell ref="C74:BS74"/>
+    <mergeCell ref="C73:BS73"/>
+    <mergeCell ref="C67:BS67"/>
+    <mergeCell ref="C68:BS68"/>
+    <mergeCell ref="C69:BS69"/>
+    <mergeCell ref="C70:BS70"/>
+    <mergeCell ref="C71:BS71"/>
+    <mergeCell ref="C72:BS72"/>
+    <mergeCell ref="C75:BS75"/>
+    <mergeCell ref="C76:BS76"/>
+    <mergeCell ref="C77:BS77"/>
     <mergeCell ref="A1:BR1"/>
     <mergeCell ref="A2:BR2"/>
     <mergeCell ref="A3:BR3"/>
@@ -26191,49 +26191,12 @@
     <mergeCell ref="AC9:AI9"/>
     <mergeCell ref="AJ9:AP9"/>
     <mergeCell ref="AQ9:AW9"/>
-    <mergeCell ref="C78:BS78"/>
-    <mergeCell ref="C74:BS74"/>
-    <mergeCell ref="C73:BS73"/>
-    <mergeCell ref="C67:BS67"/>
-    <mergeCell ref="C68:BS68"/>
-    <mergeCell ref="C69:BS69"/>
-    <mergeCell ref="C70:BS70"/>
-    <mergeCell ref="C71:BS71"/>
-    <mergeCell ref="C72:BS72"/>
-    <mergeCell ref="C75:BS75"/>
-    <mergeCell ref="C76:BS76"/>
-    <mergeCell ref="C77:BS77"/>
-    <mergeCell ref="C108:BS108"/>
-    <mergeCell ref="C109:BS109"/>
-    <mergeCell ref="C92:BS92"/>
-    <mergeCell ref="C93:BS93"/>
-    <mergeCell ref="C96:BS96"/>
-    <mergeCell ref="C97:BS97"/>
-    <mergeCell ref="C98:BS98"/>
-    <mergeCell ref="C99:BS99"/>
-    <mergeCell ref="C95:BS95"/>
-    <mergeCell ref="C94:BS94"/>
-    <mergeCell ref="C100:BS100"/>
-    <mergeCell ref="C107:BS107"/>
-    <mergeCell ref="C106:BS106"/>
-    <mergeCell ref="C105:BS105"/>
-    <mergeCell ref="C101:BS101"/>
-    <mergeCell ref="C102:BS102"/>
-    <mergeCell ref="C79:BS79"/>
-    <mergeCell ref="C89:BS89"/>
-    <mergeCell ref="C88:BS88"/>
-    <mergeCell ref="C87:BS87"/>
-    <mergeCell ref="C86:BS86"/>
-    <mergeCell ref="C82:BS82"/>
-    <mergeCell ref="C83:BS83"/>
-    <mergeCell ref="C84:BS84"/>
-    <mergeCell ref="C85:BS85"/>
-    <mergeCell ref="C81:BS81"/>
-    <mergeCell ref="C103:BS103"/>
-    <mergeCell ref="C104:BS104"/>
-    <mergeCell ref="C90:BS90"/>
-    <mergeCell ref="C91:BS91"/>
-    <mergeCell ref="C80:BS80"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="AC8:AI8"/>
+    <mergeCell ref="AJ8:AP8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="L28 L57 L46:L47 L49 L52:L54 L39 L22:L26 L12:L17">
     <cfRule type="dataBar" priority="212">
@@ -26704,7 +26667,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" xWindow="1128" yWindow="374" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="L8" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="L8"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -27082,7 +27045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27095,59 +27058,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="257"/>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
+      <c r="A1" s="254"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
     </row>
     <row r="2" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="255" t="s">
         <v>1279</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="258"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
     </row>
     <row r="3" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="255" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="258"/>
-      <c r="P3" s="258"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="255"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="71"/>
@@ -27182,7 +27145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27195,59 +27158,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="257"/>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
+      <c r="A1" s="254"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
     </row>
     <row r="2" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="255" t="s">
         <v>1279</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="258"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
     </row>
     <row r="3" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="258"/>
-      <c r="P3" s="258"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="255"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="71"/>
@@ -27282,7 +27245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27295,59 +27258,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="257"/>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
+      <c r="A1" s="254"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
     </row>
     <row r="2" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="255" t="s">
         <v>1279</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="258"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
     </row>
     <row r="3" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="255" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="258"/>
-      <c r="P3" s="258"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="255"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="71"/>
@@ -27382,7 +27345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27395,59 +27358,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="257"/>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
+      <c r="A1" s="254"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
     </row>
     <row r="2" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="255" t="s">
         <v>1279</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="258"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
     </row>
     <row r="3" spans="1:16" s="42" customFormat="1" ht="20.25">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="255" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="258"/>
-      <c r="P3" s="258"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="255"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="71"/>
